--- a/Memory map.xlsx
+++ b/Memory map.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RAM0" sheetId="11" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="252">
   <si>
     <t>A</t>
   </si>
@@ -833,9 +833,6 @@
 0`b - против часовой стрелки
 1`b - по часовой стрелки</t>
     </r>
-  </si>
-  <si>
-    <t>Min physic angle</t>
   </si>
   <si>
     <t>Min physic angle (x10)</t>
@@ -1096,7 +1093,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1633,11 +1630,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1866,6 +1876,21 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1875,99 +1900,99 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1977,129 +2002,120 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2118,9 +2134,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2158,7 +2174,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2230,7 +2246,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2409,7 +2425,7 @@
   </sheetPr>
   <dimension ref="B2:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2418,44 +2434,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2513,12 +2529,12 @@
       <c r="B6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
       <c r="G6" s="29" t="s">
         <v>107</v>
       </c>
@@ -2924,415 +2940,409 @@
       <c r="R21" s="12"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="80" t="s">
+      <c r="B25" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="81"/>
-      <c r="D25" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="M25" s="82"/>
-      <c r="N25" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="O25" s="82"/>
-      <c r="P25" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q25" s="82"/>
-      <c r="R25" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="S25" s="82"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="87"/>
+      <c r="J25" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="87"/>
+      <c r="L25" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="M25" s="87"/>
+      <c r="N25" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="O25" s="87"/>
+      <c r="P25" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q25" s="87"/>
+      <c r="R25" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="S25" s="87"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="81"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="82"/>
-      <c r="Q26" s="82"/>
-      <c r="R26" s="82"/>
-      <c r="S26" s="82"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="87"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="87"/>
+      <c r="P26" s="87"/>
+      <c r="Q26" s="87"/>
+      <c r="R26" s="87"/>
+      <c r="S26" s="87"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="81"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82"/>
-      <c r="O27" s="82"/>
-      <c r="P27" s="82"/>
-      <c r="Q27" s="82"/>
-      <c r="R27" s="82"/>
-      <c r="S27" s="82"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="87"/>
+      <c r="N27" s="87"/>
+      <c r="O27" s="87"/>
+      <c r="P27" s="87"/>
+      <c r="Q27" s="87"/>
+      <c r="R27" s="87"/>
+      <c r="S27" s="87"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="81"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="82"/>
-      <c r="Q28" s="82"/>
-      <c r="R28" s="82"/>
-      <c r="S28" s="82"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="87"/>
+      <c r="N28" s="87"/>
+      <c r="O28" s="87"/>
+      <c r="P28" s="87"/>
+      <c r="Q28" s="87"/>
+      <c r="R28" s="87"/>
+      <c r="S28" s="87"/>
     </row>
     <row r="29" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="82"/>
-      <c r="F29" s="85" t="s">
+      <c r="C29" s="86"/>
+      <c r="D29" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="87"/>
+      <c r="F29" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="G29" s="86"/>
-      <c r="H29" s="85" t="s">
+      <c r="G29" s="89"/>
+      <c r="H29" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="I29" s="86"/>
-      <c r="J29" s="85" t="s">
+      <c r="I29" s="89"/>
+      <c r="J29" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="K29" s="86"/>
-      <c r="L29" s="85" t="s">
+      <c r="K29" s="89"/>
+      <c r="L29" s="88" t="s">
         <v>119</v>
       </c>
-      <c r="M29" s="86"/>
-      <c r="N29" s="85" t="s">
+      <c r="M29" s="89"/>
+      <c r="N29" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="O29" s="86"/>
-      <c r="P29" s="85" t="s">
+      <c r="O29" s="89"/>
+      <c r="P29" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="Q29" s="86"/>
-      <c r="R29" s="85" t="s">
+      <c r="Q29" s="89"/>
+      <c r="R29" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="S29" s="86"/>
+      <c r="S29" s="89"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="81"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="88"/>
-      <c r="N30" s="87"/>
-      <c r="O30" s="88"/>
-      <c r="P30" s="87"/>
-      <c r="Q30" s="88"/>
-      <c r="R30" s="87"/>
-      <c r="S30" s="88"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="90"/>
+      <c r="M30" s="91"/>
+      <c r="N30" s="90"/>
+      <c r="O30" s="91"/>
+      <c r="P30" s="90"/>
+      <c r="Q30" s="91"/>
+      <c r="R30" s="90"/>
+      <c r="S30" s="91"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="81"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="87"/>
-      <c r="K31" s="88"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="88"/>
-      <c r="N31" s="87"/>
-      <c r="O31" s="88"/>
-      <c r="P31" s="87"/>
-      <c r="Q31" s="88"/>
-      <c r="R31" s="87"/>
-      <c r="S31" s="88"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="91"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="91"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="91"/>
+      <c r="N31" s="90"/>
+      <c r="O31" s="91"/>
+      <c r="P31" s="90"/>
+      <c r="Q31" s="91"/>
+      <c r="R31" s="90"/>
+      <c r="S31" s="91"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="81"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="90"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="90"/>
-      <c r="N32" s="89"/>
-      <c r="O32" s="90"/>
-      <c r="P32" s="89"/>
-      <c r="Q32" s="90"/>
-      <c r="R32" s="89"/>
-      <c r="S32" s="90"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="92"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="93"/>
+      <c r="P32" s="92"/>
+      <c r="Q32" s="93"/>
+      <c r="R32" s="92"/>
+      <c r="S32" s="93"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B33" s="80" t="s">
+      <c r="B33" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="81"/>
-      <c r="D33" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="82"/>
-      <c r="F33" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="I33" s="82"/>
-      <c r="J33" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="K33" s="82"/>
-      <c r="L33" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="M33" s="82"/>
-      <c r="N33" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="O33" s="82"/>
-      <c r="P33" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q33" s="82"/>
-      <c r="R33" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="S33" s="82"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="87"/>
+      <c r="H33" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="87"/>
+      <c r="J33" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" s="87"/>
+      <c r="L33" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="M33" s="87"/>
+      <c r="N33" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="O33" s="87"/>
+      <c r="P33" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q33" s="87"/>
+      <c r="R33" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="S33" s="87"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B34" s="81"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="82"/>
-      <c r="L34" s="82"/>
-      <c r="M34" s="82"/>
-      <c r="N34" s="82"/>
-      <c r="O34" s="82"/>
-      <c r="P34" s="82"/>
-      <c r="Q34" s="82"/>
-      <c r="R34" s="82"/>
-      <c r="S34" s="82"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="87"/>
+      <c r="N34" s="87"/>
+      <c r="O34" s="87"/>
+      <c r="P34" s="87"/>
+      <c r="Q34" s="87"/>
+      <c r="R34" s="87"/>
+      <c r="S34" s="87"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B35" s="81"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="82"/>
-      <c r="R35" s="82"/>
-      <c r="S35" s="82"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="87"/>
+      <c r="M35" s="87"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="87"/>
+      <c r="P35" s="87"/>
+      <c r="Q35" s="87"/>
+      <c r="R35" s="87"/>
+      <c r="S35" s="87"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B36" s="81"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="82"/>
-      <c r="K36" s="82"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="82"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="82"/>
-      <c r="Q36" s="82"/>
-      <c r="R36" s="82"/>
-      <c r="S36" s="82"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="87"/>
+      <c r="P36" s="87"/>
+      <c r="Q36" s="87"/>
+      <c r="R36" s="87"/>
+      <c r="S36" s="87"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B37" s="80" t="s">
+      <c r="B37" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="81"/>
-      <c r="D37" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="82"/>
-      <c r="F37" s="83" t="s">
+      <c r="C37" s="86"/>
+      <c r="D37" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="87"/>
+      <c r="F37" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="G37" s="84"/>
-      <c r="H37" s="83" t="s">
+      <c r="G37" s="99"/>
+      <c r="H37" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="I37" s="84"/>
-      <c r="J37" s="83" t="s">
+      <c r="I37" s="99"/>
+      <c r="J37" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="K37" s="84"/>
-      <c r="L37" s="91" t="s">
+      <c r="K37" s="99"/>
+      <c r="L37" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="M37" s="92"/>
-      <c r="N37" s="91" t="s">
+      <c r="M37" s="95"/>
+      <c r="N37" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="O37" s="92"/>
-      <c r="P37" s="91" t="s">
+      <c r="O37" s="95"/>
+      <c r="P37" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="Q37" s="92"/>
-      <c r="R37" s="93" t="s">
+      <c r="Q37" s="95"/>
+      <c r="R37" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="S37" s="94"/>
+      <c r="S37" s="97"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B38" s="81"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="84"/>
-      <c r="K38" s="84"/>
-      <c r="L38" s="92"/>
-      <c r="M38" s="92"/>
-      <c r="N38" s="92"/>
-      <c r="O38" s="92"/>
-      <c r="P38" s="92"/>
-      <c r="Q38" s="92"/>
-      <c r="R38" s="94"/>
-      <c r="S38" s="94"/>
+      <c r="B38" s="86"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="99"/>
+      <c r="J38" s="99"/>
+      <c r="K38" s="99"/>
+      <c r="L38" s="95"/>
+      <c r="M38" s="95"/>
+      <c r="N38" s="95"/>
+      <c r="O38" s="95"/>
+      <c r="P38" s="95"/>
+      <c r="Q38" s="95"/>
+      <c r="R38" s="97"/>
+      <c r="S38" s="97"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B39" s="81"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="84"/>
-      <c r="J39" s="84"/>
-      <c r="K39" s="84"/>
-      <c r="L39" s="92"/>
-      <c r="M39" s="92"/>
-      <c r="N39" s="92"/>
-      <c r="O39" s="92"/>
-      <c r="P39" s="92"/>
-      <c r="Q39" s="92"/>
-      <c r="R39" s="94"/>
-      <c r="S39" s="94"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="99"/>
+      <c r="I39" s="99"/>
+      <c r="J39" s="99"/>
+      <c r="K39" s="99"/>
+      <c r="L39" s="95"/>
+      <c r="M39" s="95"/>
+      <c r="N39" s="95"/>
+      <c r="O39" s="95"/>
+      <c r="P39" s="95"/>
+      <c r="Q39" s="95"/>
+      <c r="R39" s="97"/>
+      <c r="S39" s="97"/>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B40" s="81"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="82"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="84"/>
-      <c r="K40" s="84"/>
-      <c r="L40" s="92"/>
-      <c r="M40" s="92"/>
-      <c r="N40" s="92"/>
-      <c r="O40" s="92"/>
-      <c r="P40" s="92"/>
-      <c r="Q40" s="92"/>
-      <c r="R40" s="94"/>
-      <c r="S40" s="94"/>
+      <c r="B40" s="86"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="99"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="99"/>
+      <c r="K40" s="99"/>
+      <c r="L40" s="95"/>
+      <c r="M40" s="95"/>
+      <c r="N40" s="95"/>
+      <c r="O40" s="95"/>
+      <c r="P40" s="95"/>
+      <c r="Q40" s="95"/>
+      <c r="R40" s="97"/>
+      <c r="S40" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B2:R3"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="B25:C28"/>
-    <mergeCell ref="D25:E28"/>
-    <mergeCell ref="F25:G28"/>
-    <mergeCell ref="H25:I28"/>
-    <mergeCell ref="J25:K28"/>
-    <mergeCell ref="L25:M28"/>
-    <mergeCell ref="N25:O28"/>
-    <mergeCell ref="P25:Q28"/>
-    <mergeCell ref="R25:S28"/>
-    <mergeCell ref="B29:C32"/>
-    <mergeCell ref="D29:E32"/>
-    <mergeCell ref="F29:G32"/>
-    <mergeCell ref="H29:I32"/>
-    <mergeCell ref="J29:K32"/>
+    <mergeCell ref="B37:C40"/>
+    <mergeCell ref="D37:E40"/>
+    <mergeCell ref="F37:G40"/>
+    <mergeCell ref="H37:I40"/>
+    <mergeCell ref="J37:K40"/>
+    <mergeCell ref="B33:C36"/>
+    <mergeCell ref="D33:E36"/>
+    <mergeCell ref="F33:G36"/>
+    <mergeCell ref="H33:I36"/>
+    <mergeCell ref="J33:K36"/>
     <mergeCell ref="L29:M32"/>
     <mergeCell ref="N29:O32"/>
     <mergeCell ref="P29:Q32"/>
@@ -3345,16 +3355,22 @@
     <mergeCell ref="N33:O36"/>
     <mergeCell ref="P33:Q36"/>
     <mergeCell ref="R33:S36"/>
-    <mergeCell ref="B33:C36"/>
-    <mergeCell ref="D33:E36"/>
-    <mergeCell ref="F33:G36"/>
-    <mergeCell ref="H33:I36"/>
-    <mergeCell ref="J33:K36"/>
-    <mergeCell ref="B37:C40"/>
-    <mergeCell ref="D37:E40"/>
-    <mergeCell ref="F37:G40"/>
-    <mergeCell ref="H37:I40"/>
-    <mergeCell ref="J37:K40"/>
+    <mergeCell ref="B29:C32"/>
+    <mergeCell ref="D29:E32"/>
+    <mergeCell ref="F29:G32"/>
+    <mergeCell ref="H29:I32"/>
+    <mergeCell ref="J29:K32"/>
+    <mergeCell ref="B2:R3"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="B25:C28"/>
+    <mergeCell ref="D25:E28"/>
+    <mergeCell ref="F25:G28"/>
+    <mergeCell ref="H25:I28"/>
+    <mergeCell ref="J25:K28"/>
+    <mergeCell ref="L25:M28"/>
+    <mergeCell ref="N25:O28"/>
+    <mergeCell ref="P25:Q28"/>
+    <mergeCell ref="R25:S28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3377,44 +3393,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3829,44 +3845,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3924,30 +3940,30 @@
       <c r="B6" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115" t="s">
+      <c r="D6" s="120"/>
+      <c r="E6" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115" t="s">
+      <c r="F6" s="120"/>
+      <c r="G6" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115" t="s">
+      <c r="H6" s="120"/>
+      <c r="I6" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="115"/>
-      <c r="K6" s="116" t="s">
+      <c r="J6" s="120"/>
+      <c r="K6" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="116"/>
-      <c r="M6" s="116" t="s">
+      <c r="L6" s="121"/>
+      <c r="M6" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="116"/>
+      <c r="N6" s="121"/>
       <c r="O6" s="54" t="s">
         <v>6</v>
       </c>
@@ -3983,18 +3999,18 @@
       <c r="H7" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="113" t="s">
+      <c r="I7" s="101" t="s">
         <v>125</v>
       </c>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113" t="s">
+      <c r="J7" s="101"/>
+      <c r="K7" s="101" t="s">
         <v>126</v>
       </c>
-      <c r="L7" s="113"/>
-      <c r="M7" s="113" t="s">
+      <c r="L7" s="101"/>
+      <c r="M7" s="101" t="s">
         <v>124</v>
       </c>
-      <c r="N7" s="113"/>
+      <c r="N7" s="101"/>
       <c r="O7" s="56" t="s">
         <v>6</v>
       </c>
@@ -4012,30 +4028,30 @@
       <c r="B8" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="98" t="s">
+      <c r="C8" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99" t="s">
+      <c r="D8" s="100"/>
+      <c r="E8" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99" t="s">
+      <c r="F8" s="100"/>
+      <c r="G8" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99" t="s">
+      <c r="H8" s="100"/>
+      <c r="I8" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="99"/>
-      <c r="K8" s="111" t="s">
+      <c r="J8" s="100"/>
+      <c r="K8" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111" t="s">
+      <c r="L8" s="116"/>
+      <c r="M8" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="111"/>
+      <c r="N8" s="116"/>
       <c r="O8" s="58" t="s">
         <v>6</v>
       </c>
@@ -4071,18 +4087,18 @@
       <c r="H9" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="99" t="s">
+      <c r="I9" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99" t="s">
+      <c r="J9" s="100"/>
+      <c r="K9" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99" t="s">
+      <c r="L9" s="100"/>
+      <c r="M9" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="N9" s="99"/>
+      <c r="N9" s="100"/>
       <c r="O9" s="58" t="s">
         <v>6</v>
       </c>
@@ -4100,30 +4116,30 @@
       <c r="B10" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113" t="s">
+      <c r="D10" s="101"/>
+      <c r="E10" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113" t="s">
+      <c r="F10" s="101"/>
+      <c r="G10" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113" t="s">
+      <c r="H10" s="101"/>
+      <c r="I10" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="113"/>
-      <c r="K10" s="117" t="s">
+      <c r="J10" s="101"/>
+      <c r="K10" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117" t="s">
+      <c r="L10" s="102"/>
+      <c r="M10" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="N10" s="117"/>
+      <c r="N10" s="102"/>
       <c r="O10" s="60" t="s">
         <v>6</v>
       </c>
@@ -4159,18 +4175,18 @@
       <c r="H11" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="113" t="s">
+      <c r="I11" s="101" t="s">
         <v>125</v>
       </c>
-      <c r="J11" s="113"/>
-      <c r="K11" s="113" t="s">
+      <c r="J11" s="101"/>
+      <c r="K11" s="101" t="s">
         <v>126</v>
       </c>
-      <c r="L11" s="113"/>
-      <c r="M11" s="113" t="s">
+      <c r="L11" s="101"/>
+      <c r="M11" s="101" t="s">
         <v>124</v>
       </c>
-      <c r="N11" s="113"/>
+      <c r="N11" s="101"/>
       <c r="O11" s="56" t="s">
         <v>6</v>
       </c>
@@ -4188,30 +4204,30 @@
       <c r="B12" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="98" t="s">
+      <c r="C12" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99" t="s">
+      <c r="D12" s="100"/>
+      <c r="E12" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99" t="s">
+      <c r="F12" s="100"/>
+      <c r="G12" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99" t="s">
+      <c r="H12" s="100"/>
+      <c r="I12" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="99"/>
-      <c r="K12" s="111" t="s">
+      <c r="J12" s="100"/>
+      <c r="K12" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="111"/>
-      <c r="M12" s="111" t="s">
+      <c r="L12" s="116"/>
+      <c r="M12" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="N12" s="111"/>
+      <c r="N12" s="116"/>
       <c r="O12" s="58" t="s">
         <v>6</v>
       </c>
@@ -4247,18 +4263,18 @@
       <c r="H13" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="99" t="s">
+      <c r="I13" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99" t="s">
+      <c r="J13" s="100"/>
+      <c r="K13" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99" t="s">
+      <c r="L13" s="100"/>
+      <c r="M13" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="N13" s="99"/>
+      <c r="N13" s="100"/>
       <c r="O13" s="58" t="s">
         <v>6</v>
       </c>
@@ -4276,30 +4292,30 @@
       <c r="B14" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="112" t="s">
+      <c r="C14" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113" t="s">
+      <c r="D14" s="101"/>
+      <c r="E14" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113" t="s">
+      <c r="F14" s="101"/>
+      <c r="G14" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113" t="s">
+      <c r="H14" s="101"/>
+      <c r="I14" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="113"/>
-      <c r="K14" s="117" t="s">
+      <c r="J14" s="101"/>
+      <c r="K14" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="117"/>
-      <c r="M14" s="117" t="s">
+      <c r="L14" s="102"/>
+      <c r="M14" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="N14" s="117"/>
+      <c r="N14" s="102"/>
       <c r="O14" s="60" t="s">
         <v>6</v>
       </c>
@@ -4335,18 +4351,18 @@
       <c r="H15" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="113" t="s">
+      <c r="I15" s="101" t="s">
         <v>125</v>
       </c>
-      <c r="J15" s="113"/>
-      <c r="K15" s="113" t="s">
+      <c r="J15" s="101"/>
+      <c r="K15" s="101" t="s">
         <v>126</v>
       </c>
-      <c r="L15" s="113"/>
-      <c r="M15" s="113" t="s">
+      <c r="L15" s="101"/>
+      <c r="M15" s="101" t="s">
         <v>124</v>
       </c>
-      <c r="N15" s="113"/>
+      <c r="N15" s="101"/>
       <c r="O15" s="56" t="s">
         <v>6</v>
       </c>
@@ -4364,30 +4380,30 @@
       <c r="B16" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="98" t="s">
+      <c r="C16" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99" t="s">
+      <c r="D16" s="100"/>
+      <c r="E16" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99" t="s">
+      <c r="F16" s="100"/>
+      <c r="G16" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99" t="s">
+      <c r="H16" s="100"/>
+      <c r="I16" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="99"/>
-      <c r="K16" s="111" t="s">
+      <c r="J16" s="100"/>
+      <c r="K16" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="111"/>
-      <c r="M16" s="111" t="s">
+      <c r="L16" s="116"/>
+      <c r="M16" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="N16" s="111"/>
+      <c r="N16" s="116"/>
       <c r="O16" s="58" t="s">
         <v>6</v>
       </c>
@@ -4423,18 +4439,18 @@
       <c r="H17" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="99" t="s">
+      <c r="I17" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99" t="s">
+      <c r="J17" s="100"/>
+      <c r="K17" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="L17" s="99"/>
-      <c r="M17" s="99" t="s">
+      <c r="L17" s="100"/>
+      <c r="M17" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="N17" s="99"/>
+      <c r="N17" s="100"/>
       <c r="O17" s="58" t="s">
         <v>6</v>
       </c>
@@ -4533,514 +4549,523 @@
       <c r="R21" s="49"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="118" t="s">
+      <c r="B25" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="100" t="s">
+      <c r="C25" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="101"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="103"/>
-      <c r="M25" s="104"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="108"/>
+      <c r="M25" s="109"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="119"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="101"/>
-      <c r="K26" s="105"/>
-      <c r="L26" s="106"/>
-      <c r="M26" s="107"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="111"/>
+      <c r="M26" s="112"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="119"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="105"/>
-      <c r="L27" s="106"/>
-      <c r="M27" s="107"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="112"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="119"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="101"/>
-      <c r="J28" s="101"/>
-      <c r="K28" s="108"/>
-      <c r="L28" s="109"/>
-      <c r="M28" s="110"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="106"/>
+      <c r="K28" s="113"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="115"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="118" t="s">
+      <c r="B29" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="100" t="s">
+      <c r="C29" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="102"/>
-      <c r="L29" s="103"/>
-      <c r="M29" s="104"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="107"/>
+      <c r="L29" s="108"/>
+      <c r="M29" s="109"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="119"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="101"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="101"/>
-      <c r="K30" s="105"/>
-      <c r="L30" s="106"/>
-      <c r="M30" s="107"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="106"/>
+      <c r="J30" s="106"/>
+      <c r="K30" s="110"/>
+      <c r="L30" s="111"/>
+      <c r="M30" s="112"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="119"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="101"/>
-      <c r="J31" s="101"/>
-      <c r="K31" s="105"/>
-      <c r="L31" s="106"/>
-      <c r="M31" s="107"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="106"/>
+      <c r="J31" s="106"/>
+      <c r="K31" s="110"/>
+      <c r="L31" s="111"/>
+      <c r="M31" s="112"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="119"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="101"/>
-      <c r="J32" s="101"/>
-      <c r="K32" s="108"/>
-      <c r="L32" s="109"/>
-      <c r="M32" s="110"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="106"/>
+      <c r="J32" s="106"/>
+      <c r="K32" s="113"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="115"/>
     </row>
     <row r="33" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="118" t="s">
+      <c r="B33" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="100" t="s">
+      <c r="C33" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="101"/>
-      <c r="J33" s="101"/>
-      <c r="K33" s="102"/>
-      <c r="L33" s="103"/>
-      <c r="M33" s="104"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="106"/>
+      <c r="J33" s="106"/>
+      <c r="K33" s="107"/>
+      <c r="L33" s="108"/>
+      <c r="M33" s="109"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="119"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="101"/>
-      <c r="G34" s="101"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="101"/>
-      <c r="J34" s="101"/>
-      <c r="K34" s="105"/>
-      <c r="L34" s="106"/>
-      <c r="M34" s="107"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="106"/>
+      <c r="J34" s="106"/>
+      <c r="K34" s="110"/>
+      <c r="L34" s="111"/>
+      <c r="M34" s="112"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="119"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="101"/>
-      <c r="I35" s="101"/>
-      <c r="J35" s="101"/>
-      <c r="K35" s="105"/>
-      <c r="L35" s="106"/>
-      <c r="M35" s="107"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="106"/>
+      <c r="I35" s="106"/>
+      <c r="J35" s="106"/>
+      <c r="K35" s="110"/>
+      <c r="L35" s="111"/>
+      <c r="M35" s="112"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="119"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="101"/>
-      <c r="G36" s="101"/>
-      <c r="H36" s="101"/>
-      <c r="I36" s="101"/>
-      <c r="J36" s="101"/>
-      <c r="K36" s="108"/>
-      <c r="L36" s="109"/>
-      <c r="M36" s="110"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="106"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="106"/>
+      <c r="I36" s="106"/>
+      <c r="J36" s="106"/>
+      <c r="K36" s="113"/>
+      <c r="L36" s="114"/>
+      <c r="M36" s="115"/>
     </row>
     <row r="37" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="118" t="s">
+      <c r="B37" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="100" t="s">
+      <c r="C37" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="101"/>
-      <c r="E37" s="101"/>
-      <c r="F37" s="101"/>
-      <c r="G37" s="101"/>
-      <c r="H37" s="101"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="101"/>
-      <c r="K37" s="102"/>
-      <c r="L37" s="103"/>
-      <c r="M37" s="104"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="106"/>
+      <c r="H37" s="106"/>
+      <c r="I37" s="106"/>
+      <c r="J37" s="106"/>
+      <c r="K37" s="107"/>
+      <c r="L37" s="108"/>
+      <c r="M37" s="109"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="119"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="101"/>
-      <c r="E38" s="101"/>
-      <c r="F38" s="101"/>
-      <c r="G38" s="101"/>
-      <c r="H38" s="101"/>
-      <c r="I38" s="101"/>
-      <c r="J38" s="101"/>
-      <c r="K38" s="105"/>
-      <c r="L38" s="106"/>
-      <c r="M38" s="107"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="106"/>
+      <c r="K38" s="110"/>
+      <c r="L38" s="111"/>
+      <c r="M38" s="112"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="119"/>
-      <c r="C39" s="101"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="101"/>
-      <c r="G39" s="101"/>
-      <c r="H39" s="101"/>
-      <c r="I39" s="101"/>
-      <c r="J39" s="101"/>
-      <c r="K39" s="105"/>
-      <c r="L39" s="106"/>
-      <c r="M39" s="107"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="106"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="106"/>
+      <c r="F39" s="106"/>
+      <c r="G39" s="106"/>
+      <c r="H39" s="106"/>
+      <c r="I39" s="106"/>
+      <c r="J39" s="106"/>
+      <c r="K39" s="110"/>
+      <c r="L39" s="111"/>
+      <c r="M39" s="112"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="119"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="101"/>
-      <c r="I40" s="101"/>
-      <c r="J40" s="101"/>
-      <c r="K40" s="108"/>
-      <c r="L40" s="109"/>
-      <c r="M40" s="110"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="106"/>
+      <c r="H40" s="106"/>
+      <c r="I40" s="106"/>
+      <c r="J40" s="106"/>
+      <c r="K40" s="113"/>
+      <c r="L40" s="114"/>
+      <c r="M40" s="115"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="118" t="s">
+      <c r="B41" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="100" t="s">
+      <c r="C41" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="101"/>
-      <c r="E41" s="101"/>
-      <c r="F41" s="101"/>
-      <c r="G41" s="101"/>
-      <c r="H41" s="101"/>
-      <c r="I41" s="101"/>
-      <c r="J41" s="101"/>
-      <c r="K41" s="102"/>
-      <c r="L41" s="103"/>
-      <c r="M41" s="104"/>
+      <c r="D41" s="106"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="106"/>
+      <c r="G41" s="106"/>
+      <c r="H41" s="106"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="106"/>
+      <c r="K41" s="107"/>
+      <c r="L41" s="108"/>
+      <c r="M41" s="109"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="119"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="101"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="101"/>
-      <c r="G42" s="101"/>
-      <c r="H42" s="101"/>
-      <c r="I42" s="101"/>
-      <c r="J42" s="101"/>
-      <c r="K42" s="105"/>
-      <c r="L42" s="106"/>
-      <c r="M42" s="107"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="106"/>
+      <c r="E42" s="106"/>
+      <c r="F42" s="106"/>
+      <c r="G42" s="106"/>
+      <c r="H42" s="106"/>
+      <c r="I42" s="106"/>
+      <c r="J42" s="106"/>
+      <c r="K42" s="110"/>
+      <c r="L42" s="111"/>
+      <c r="M42" s="112"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="119"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="101"/>
-      <c r="E43" s="101"/>
-      <c r="F43" s="101"/>
-      <c r="G43" s="101"/>
-      <c r="H43" s="101"/>
-      <c r="I43" s="101"/>
-      <c r="J43" s="101"/>
-      <c r="K43" s="105"/>
-      <c r="L43" s="106"/>
-      <c r="M43" s="107"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="106"/>
+      <c r="E43" s="106"/>
+      <c r="F43" s="106"/>
+      <c r="G43" s="106"/>
+      <c r="H43" s="106"/>
+      <c r="I43" s="106"/>
+      <c r="J43" s="106"/>
+      <c r="K43" s="110"/>
+      <c r="L43" s="111"/>
+      <c r="M43" s="112"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="119"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="101"/>
-      <c r="E44" s="101"/>
-      <c r="F44" s="101"/>
-      <c r="G44" s="101"/>
-      <c r="H44" s="101"/>
-      <c r="I44" s="101"/>
-      <c r="J44" s="101"/>
-      <c r="K44" s="108"/>
-      <c r="L44" s="109"/>
-      <c r="M44" s="110"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="106"/>
+      <c r="F44" s="106"/>
+      <c r="G44" s="106"/>
+      <c r="H44" s="106"/>
+      <c r="I44" s="106"/>
+      <c r="J44" s="106"/>
+      <c r="K44" s="113"/>
+      <c r="L44" s="114"/>
+      <c r="M44" s="115"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="118" t="s">
+      <c r="B45" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="100" t="s">
+      <c r="C45" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="101"/>
-      <c r="E45" s="101"/>
-      <c r="F45" s="101"/>
-      <c r="G45" s="101"/>
-      <c r="H45" s="101"/>
-      <c r="I45" s="101"/>
-      <c r="J45" s="101"/>
-      <c r="K45" s="102"/>
-      <c r="L45" s="103"/>
-      <c r="M45" s="104"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="106"/>
+      <c r="F45" s="106"/>
+      <c r="G45" s="106"/>
+      <c r="H45" s="106"/>
+      <c r="I45" s="106"/>
+      <c r="J45" s="106"/>
+      <c r="K45" s="107"/>
+      <c r="L45" s="108"/>
+      <c r="M45" s="109"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="119"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="101"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="101"/>
-      <c r="G46" s="101"/>
-      <c r="H46" s="101"/>
-      <c r="I46" s="101"/>
-      <c r="J46" s="101"/>
-      <c r="K46" s="105"/>
-      <c r="L46" s="106"/>
-      <c r="M46" s="107"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="106"/>
+      <c r="D46" s="106"/>
+      <c r="E46" s="106"/>
+      <c r="F46" s="106"/>
+      <c r="G46" s="106"/>
+      <c r="H46" s="106"/>
+      <c r="I46" s="106"/>
+      <c r="J46" s="106"/>
+      <c r="K46" s="110"/>
+      <c r="L46" s="111"/>
+      <c r="M46" s="112"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="119"/>
-      <c r="C47" s="101"/>
-      <c r="D47" s="101"/>
-      <c r="E47" s="101"/>
-      <c r="F47" s="101"/>
-      <c r="G47" s="101"/>
-      <c r="H47" s="101"/>
-      <c r="I47" s="101"/>
-      <c r="J47" s="101"/>
-      <c r="K47" s="105"/>
-      <c r="L47" s="106"/>
-      <c r="M47" s="107"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="106"/>
+      <c r="D47" s="106"/>
+      <c r="E47" s="106"/>
+      <c r="F47" s="106"/>
+      <c r="G47" s="106"/>
+      <c r="H47" s="106"/>
+      <c r="I47" s="106"/>
+      <c r="J47" s="106"/>
+      <c r="K47" s="110"/>
+      <c r="L47" s="111"/>
+      <c r="M47" s="112"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="119"/>
-      <c r="C48" s="101"/>
-      <c r="D48" s="101"/>
-      <c r="E48" s="101"/>
-      <c r="F48" s="101"/>
-      <c r="G48" s="101"/>
-      <c r="H48" s="101"/>
-      <c r="I48" s="101"/>
-      <c r="J48" s="101"/>
-      <c r="K48" s="108"/>
-      <c r="L48" s="109"/>
-      <c r="M48" s="110"/>
+      <c r="B48" s="104"/>
+      <c r="C48" s="106"/>
+      <c r="D48" s="106"/>
+      <c r="E48" s="106"/>
+      <c r="F48" s="106"/>
+      <c r="G48" s="106"/>
+      <c r="H48" s="106"/>
+      <c r="I48" s="106"/>
+      <c r="J48" s="106"/>
+      <c r="K48" s="113"/>
+      <c r="L48" s="114"/>
+      <c r="M48" s="115"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="118" t="s">
+      <c r="B49" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="100" t="s">
+      <c r="C49" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="101"/>
-      <c r="E49" s="101"/>
-      <c r="F49" s="101"/>
-      <c r="G49" s="101"/>
-      <c r="H49" s="101"/>
-      <c r="I49" s="101"/>
-      <c r="J49" s="101"/>
-      <c r="K49" s="102"/>
-      <c r="L49" s="103"/>
-      <c r="M49" s="104"/>
+      <c r="D49" s="106"/>
+      <c r="E49" s="106"/>
+      <c r="F49" s="106"/>
+      <c r="G49" s="106"/>
+      <c r="H49" s="106"/>
+      <c r="I49" s="106"/>
+      <c r="J49" s="106"/>
+      <c r="K49" s="107"/>
+      <c r="L49" s="108"/>
+      <c r="M49" s="109"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B50" s="119"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="101"/>
-      <c r="E50" s="101"/>
-      <c r="F50" s="101"/>
-      <c r="G50" s="101"/>
-      <c r="H50" s="101"/>
-      <c r="I50" s="101"/>
-      <c r="J50" s="101"/>
-      <c r="K50" s="105"/>
-      <c r="L50" s="106"/>
-      <c r="M50" s="107"/>
+      <c r="B50" s="104"/>
+      <c r="C50" s="106"/>
+      <c r="D50" s="106"/>
+      <c r="E50" s="106"/>
+      <c r="F50" s="106"/>
+      <c r="G50" s="106"/>
+      <c r="H50" s="106"/>
+      <c r="I50" s="106"/>
+      <c r="J50" s="106"/>
+      <c r="K50" s="110"/>
+      <c r="L50" s="111"/>
+      <c r="M50" s="112"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="119"/>
-      <c r="C51" s="101"/>
-      <c r="D51" s="101"/>
-      <c r="E51" s="101"/>
-      <c r="F51" s="101"/>
-      <c r="G51" s="101"/>
-      <c r="H51" s="101"/>
-      <c r="I51" s="101"/>
-      <c r="J51" s="101"/>
-      <c r="K51" s="105"/>
-      <c r="L51" s="106"/>
-      <c r="M51" s="107"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="106"/>
+      <c r="E51" s="106"/>
+      <c r="F51" s="106"/>
+      <c r="G51" s="106"/>
+      <c r="H51" s="106"/>
+      <c r="I51" s="106"/>
+      <c r="J51" s="106"/>
+      <c r="K51" s="110"/>
+      <c r="L51" s="111"/>
+      <c r="M51" s="112"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B52" s="119"/>
-      <c r="C52" s="101"/>
-      <c r="D52" s="101"/>
-      <c r="E52" s="101"/>
-      <c r="F52" s="101"/>
-      <c r="G52" s="101"/>
-      <c r="H52" s="101"/>
-      <c r="I52" s="101"/>
-      <c r="J52" s="101"/>
-      <c r="K52" s="108"/>
-      <c r="L52" s="109"/>
-      <c r="M52" s="110"/>
+      <c r="B52" s="104"/>
+      <c r="C52" s="106"/>
+      <c r="D52" s="106"/>
+      <c r="E52" s="106"/>
+      <c r="F52" s="106"/>
+      <c r="G52" s="106"/>
+      <c r="H52" s="106"/>
+      <c r="I52" s="106"/>
+      <c r="J52" s="106"/>
+      <c r="K52" s="113"/>
+      <c r="L52" s="114"/>
+      <c r="M52" s="115"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B53" s="118" t="s">
+      <c r="B53" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="C53" s="100" t="s">
+      <c r="C53" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="101"/>
-      <c r="E53" s="101"/>
-      <c r="F53" s="101"/>
-      <c r="G53" s="101"/>
-      <c r="H53" s="101"/>
-      <c r="I53" s="101"/>
-      <c r="J53" s="101"/>
-      <c r="K53" s="102"/>
-      <c r="L53" s="103"/>
-      <c r="M53" s="104"/>
+      <c r="D53" s="106"/>
+      <c r="E53" s="106"/>
+      <c r="F53" s="106"/>
+      <c r="G53" s="106"/>
+      <c r="H53" s="106"/>
+      <c r="I53" s="106"/>
+      <c r="J53" s="106"/>
+      <c r="K53" s="107"/>
+      <c r="L53" s="108"/>
+      <c r="M53" s="109"/>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B54" s="119"/>
-      <c r="C54" s="101"/>
-      <c r="D54" s="101"/>
-      <c r="E54" s="101"/>
-      <c r="F54" s="101"/>
-      <c r="G54" s="101"/>
-      <c r="H54" s="101"/>
-      <c r="I54" s="101"/>
-      <c r="J54" s="101"/>
-      <c r="K54" s="105"/>
-      <c r="L54" s="106"/>
-      <c r="M54" s="107"/>
+      <c r="B54" s="104"/>
+      <c r="C54" s="106"/>
+      <c r="D54" s="106"/>
+      <c r="E54" s="106"/>
+      <c r="F54" s="106"/>
+      <c r="G54" s="106"/>
+      <c r="H54" s="106"/>
+      <c r="I54" s="106"/>
+      <c r="J54" s="106"/>
+      <c r="K54" s="110"/>
+      <c r="L54" s="111"/>
+      <c r="M54" s="112"/>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B55" s="119"/>
-      <c r="C55" s="101"/>
-      <c r="D55" s="101"/>
-      <c r="E55" s="101"/>
-      <c r="F55" s="101"/>
-      <c r="G55" s="101"/>
-      <c r="H55" s="101"/>
-      <c r="I55" s="101"/>
-      <c r="J55" s="101"/>
-      <c r="K55" s="105"/>
-      <c r="L55" s="106"/>
-      <c r="M55" s="107"/>
+      <c r="B55" s="104"/>
+      <c r="C55" s="106"/>
+      <c r="D55" s="106"/>
+      <c r="E55" s="106"/>
+      <c r="F55" s="106"/>
+      <c r="G55" s="106"/>
+      <c r="H55" s="106"/>
+      <c r="I55" s="106"/>
+      <c r="J55" s="106"/>
+      <c r="K55" s="110"/>
+      <c r="L55" s="111"/>
+      <c r="M55" s="112"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="119"/>
-      <c r="C56" s="101"/>
-      <c r="D56" s="101"/>
-      <c r="E56" s="101"/>
-      <c r="F56" s="101"/>
-      <c r="G56" s="101"/>
-      <c r="H56" s="101"/>
-      <c r="I56" s="101"/>
-      <c r="J56" s="101"/>
-      <c r="K56" s="108"/>
-      <c r="L56" s="109"/>
-      <c r="M56" s="110"/>
+      <c r="B56" s="104"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="106"/>
+      <c r="E56" s="106"/>
+      <c r="F56" s="106"/>
+      <c r="G56" s="106"/>
+      <c r="H56" s="106"/>
+      <c r="I56" s="106"/>
+      <c r="J56" s="106"/>
+      <c r="K56" s="113"/>
+      <c r="L56" s="114"/>
+      <c r="M56" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C49:J52"/>
-    <mergeCell ref="K49:M52"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="C53:J56"/>
-    <mergeCell ref="K53:M56"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="C41:J44"/>
-    <mergeCell ref="K41:M44"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="C45:J48"/>
-    <mergeCell ref="K45:M48"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C25:J28"/>
+    <mergeCell ref="K25:M28"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B2:R3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M15:N15"/>
     <mergeCell ref="B37:B40"/>
     <mergeCell ref="C37:J40"/>
     <mergeCell ref="K37:M40"/>
@@ -5057,42 +5082,33 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="B2:R3"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C25:J28"/>
-    <mergeCell ref="K25:M28"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="C41:J44"/>
+    <mergeCell ref="K41:M44"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="C45:J48"/>
+    <mergeCell ref="K45:M48"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:J52"/>
+    <mergeCell ref="K49:M52"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="C53:J56"/>
+    <mergeCell ref="K53:M56"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5106,7 +5122,9 @@
   </sheetPr>
   <dimension ref="A2:AK107"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5115,44 +5133,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="82" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5216,168 +5234,168 @@
       <c r="D6" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="E6" s="120" t="s">
-        <v>233</v>
-      </c>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120" t="s">
+      <c r="E6" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="147"/>
+      <c r="G6" s="136" t="s">
         <v>143</v>
       </c>
-      <c r="H6" s="120"/>
-      <c r="I6" s="131" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="131"/>
-      <c r="K6" s="120" t="s">
+      <c r="H6" s="136"/>
+      <c r="I6" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="147"/>
+      <c r="K6" s="136" t="s">
         <v>144</v>
       </c>
-      <c r="L6" s="120"/>
-      <c r="M6" s="120" t="s">
+      <c r="L6" s="136"/>
+      <c r="M6" s="136" t="s">
         <v>145</v>
       </c>
-      <c r="N6" s="120"/>
-      <c r="O6" s="120" t="s">
+      <c r="N6" s="136"/>
+      <c r="O6" s="136" t="s">
         <v>146</v>
       </c>
-      <c r="P6" s="120"/>
-      <c r="Q6" s="120" t="s">
+      <c r="P6" s="136"/>
+      <c r="Q6" s="136" t="s">
         <v>147</v>
       </c>
-      <c r="R6" s="130"/>
+      <c r="R6" s="137"/>
     </row>
     <row r="7" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="135" t="s">
+      <c r="C7" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121" t="s">
+      <c r="D7" s="131"/>
+      <c r="E7" s="131" t="s">
         <v>149</v>
       </c>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121" t="s">
+      <c r="F7" s="131"/>
+      <c r="G7" s="131" t="s">
         <v>150</v>
       </c>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121" t="s">
+      <c r="H7" s="131"/>
+      <c r="I7" s="131" t="s">
         <v>151</v>
       </c>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121" t="s">
+      <c r="J7" s="131"/>
+      <c r="K7" s="131" t="s">
         <v>152</v>
       </c>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121" t="s">
+      <c r="L7" s="131"/>
+      <c r="M7" s="131" t="s">
         <v>153</v>
       </c>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121" t="s">
+      <c r="N7" s="131"/>
+      <c r="O7" s="131" t="s">
         <v>154</v>
       </c>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="121" t="s">
+      <c r="P7" s="131"/>
+      <c r="Q7" s="131" t="s">
         <v>155</v>
       </c>
-      <c r="R7" s="134"/>
+      <c r="R7" s="132"/>
     </row>
     <row r="8" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="130" t="s">
         <v>156</v>
       </c>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121" t="s">
+      <c r="D8" s="131"/>
+      <c r="E8" s="131" t="s">
         <v>157</v>
       </c>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121" t="s">
+      <c r="F8" s="131"/>
+      <c r="G8" s="131" t="s">
         <v>158</v>
       </c>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121" t="s">
+      <c r="H8" s="131"/>
+      <c r="I8" s="131" t="s">
         <v>159</v>
       </c>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121" t="s">
+      <c r="J8" s="131"/>
+      <c r="K8" s="131" t="s">
         <v>160</v>
       </c>
-      <c r="L8" s="121"/>
-      <c r="M8" s="121" t="s">
+      <c r="L8" s="131"/>
+      <c r="M8" s="131" t="s">
         <v>161</v>
       </c>
-      <c r="N8" s="121"/>
-      <c r="O8" s="121" t="s">
+      <c r="N8" s="131"/>
+      <c r="O8" s="131" t="s">
         <v>162</v>
       </c>
-      <c r="P8" s="121"/>
-      <c r="Q8" s="121" t="s">
+      <c r="P8" s="131"/>
+      <c r="Q8" s="131" t="s">
         <v>163</v>
       </c>
-      <c r="R8" s="134"/>
+      <c r="R8" s="132"/>
     </row>
     <row r="9" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="130" t="s">
         <v>164</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121" t="s">
+      <c r="D9" s="131"/>
+      <c r="E9" s="131" t="s">
         <v>165</v>
       </c>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121" t="s">
+      <c r="F9" s="131"/>
+      <c r="G9" s="131" t="s">
         <v>166</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121" t="s">
+      <c r="H9" s="131"/>
+      <c r="I9" s="131" t="s">
         <v>167</v>
       </c>
-      <c r="J9" s="121"/>
-      <c r="K9" s="121" t="s">
+      <c r="J9" s="131"/>
+      <c r="K9" s="131" t="s">
         <v>168</v>
       </c>
-      <c r="L9" s="121"/>
-      <c r="M9" s="121" t="s">
+      <c r="L9" s="131"/>
+      <c r="M9" s="131" t="s">
         <v>169</v>
       </c>
-      <c r="N9" s="121"/>
-      <c r="O9" s="121" t="s">
+      <c r="N9" s="131"/>
+      <c r="O9" s="131" t="s">
         <v>170</v>
       </c>
-      <c r="P9" s="121"/>
-      <c r="Q9" s="121" t="s">
+      <c r="P9" s="131"/>
+      <c r="Q9" s="131" t="s">
         <v>171</v>
       </c>
-      <c r="R9" s="134"/>
+      <c r="R9" s="132"/>
     </row>
     <row r="10" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
         <v>52</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D10" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="E10" s="122" t="s">
+      <c r="E10" s="148" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="148"/>
+      <c r="G10" s="122" t="s">
         <v>234</v>
       </c>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122" t="s">
-        <v>235</v>
-      </c>
       <c r="H10" s="122"/>
-      <c r="I10" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="132"/>
+      <c r="I10" s="148" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="148"/>
       <c r="K10" s="122" t="s">
         <v>144</v>
       </c>
@@ -5393,13 +5411,13 @@
       <c r="Q10" s="122" t="s">
         <v>147</v>
       </c>
-      <c r="R10" s="136"/>
+      <c r="R10" s="123"/>
     </row>
     <row r="11" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="137" t="s">
+      <c r="C11" s="124" t="s">
         <v>148</v>
       </c>
       <c r="D11" s="122"/>
@@ -5430,13 +5448,13 @@
       <c r="Q11" s="122" t="s">
         <v>155</v>
       </c>
-      <c r="R11" s="136"/>
+      <c r="R11" s="123"/>
     </row>
     <row r="12" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="137" t="s">
+      <c r="C12" s="124" t="s">
         <v>156</v>
       </c>
       <c r="D12" s="122"/>
@@ -5467,13 +5485,13 @@
       <c r="Q12" s="122" t="s">
         <v>163</v>
       </c>
-      <c r="R12" s="136"/>
+      <c r="R12" s="123"/>
     </row>
     <row r="13" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="137" t="s">
+      <c r="C13" s="124" t="s">
         <v>164</v>
       </c>
       <c r="D13" s="122"/>
@@ -5504,180 +5522,180 @@
       <c r="Q13" s="122" t="s">
         <v>171</v>
       </c>
-      <c r="R13" s="136"/>
+      <c r="R13" s="123"/>
     </row>
     <row r="14" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="40" t="s">
         <v>56</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D14" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="E14" s="121" t="s">
+      <c r="E14" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="149"/>
+      <c r="G14" s="131" t="s">
         <v>234</v>
       </c>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121" t="s">
-        <v>235</v>
-      </c>
-      <c r="H14" s="121"/>
-      <c r="I14" s="133" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="133"/>
-      <c r="K14" s="121" t="s">
+      <c r="H14" s="131"/>
+      <c r="I14" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="149"/>
+      <c r="K14" s="131" t="s">
         <v>144</v>
       </c>
-      <c r="L14" s="121"/>
-      <c r="M14" s="121" t="s">
+      <c r="L14" s="131"/>
+      <c r="M14" s="131" t="s">
         <v>145</v>
       </c>
-      <c r="N14" s="121"/>
-      <c r="O14" s="121" t="s">
+      <c r="N14" s="131"/>
+      <c r="O14" s="131" t="s">
         <v>146</v>
       </c>
-      <c r="P14" s="121"/>
-      <c r="Q14" s="121" t="s">
+      <c r="P14" s="131"/>
+      <c r="Q14" s="131" t="s">
         <v>147</v>
       </c>
-      <c r="R14" s="134"/>
+      <c r="R14" s="132"/>
     </row>
     <row r="15" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="135" t="s">
+      <c r="C15" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121" t="s">
+      <c r="D15" s="131"/>
+      <c r="E15" s="131" t="s">
         <v>149</v>
       </c>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121" t="s">
+      <c r="F15" s="131"/>
+      <c r="G15" s="131" t="s">
         <v>150</v>
       </c>
-      <c r="H15" s="121"/>
-      <c r="I15" s="121" t="s">
+      <c r="H15" s="131"/>
+      <c r="I15" s="131" t="s">
         <v>151</v>
       </c>
-      <c r="J15" s="121"/>
-      <c r="K15" s="121" t="s">
+      <c r="J15" s="131"/>
+      <c r="K15" s="131" t="s">
         <v>152</v>
       </c>
-      <c r="L15" s="121"/>
-      <c r="M15" s="121" t="s">
+      <c r="L15" s="131"/>
+      <c r="M15" s="131" t="s">
         <v>153</v>
       </c>
-      <c r="N15" s="121"/>
-      <c r="O15" s="121" t="s">
+      <c r="N15" s="131"/>
+      <c r="O15" s="131" t="s">
         <v>154</v>
       </c>
-      <c r="P15" s="121"/>
-      <c r="Q15" s="121" t="s">
+      <c r="P15" s="131"/>
+      <c r="Q15" s="131" t="s">
         <v>155</v>
       </c>
-      <c r="R15" s="134"/>
+      <c r="R15" s="132"/>
     </row>
     <row r="16" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="135" t="s">
+      <c r="C16" s="130" t="s">
         <v>156</v>
       </c>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121" t="s">
+      <c r="D16" s="131"/>
+      <c r="E16" s="131" t="s">
         <v>157</v>
       </c>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121" t="s">
+      <c r="F16" s="131"/>
+      <c r="G16" s="131" t="s">
         <v>158</v>
       </c>
-      <c r="H16" s="121"/>
-      <c r="I16" s="121" t="s">
+      <c r="H16" s="131"/>
+      <c r="I16" s="131" t="s">
         <v>159</v>
       </c>
-      <c r="J16" s="121"/>
-      <c r="K16" s="121" t="s">
+      <c r="J16" s="131"/>
+      <c r="K16" s="131" t="s">
         <v>160</v>
       </c>
-      <c r="L16" s="121"/>
-      <c r="M16" s="121" t="s">
+      <c r="L16" s="131"/>
+      <c r="M16" s="131" t="s">
         <v>161</v>
       </c>
-      <c r="N16" s="121"/>
-      <c r="O16" s="121" t="s">
+      <c r="N16" s="131"/>
+      <c r="O16" s="131" t="s">
         <v>162</v>
       </c>
-      <c r="P16" s="121"/>
-      <c r="Q16" s="121" t="s">
+      <c r="P16" s="131"/>
+      <c r="Q16" s="131" t="s">
         <v>163</v>
       </c>
-      <c r="R16" s="134"/>
+      <c r="R16" s="132"/>
     </row>
     <row r="17" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="135" t="s">
+      <c r="C17" s="130" t="s">
         <v>164</v>
       </c>
-      <c r="D17" s="121"/>
-      <c r="E17" s="121" t="s">
+      <c r="D17" s="131"/>
+      <c r="E17" s="131" t="s">
         <v>165</v>
       </c>
-      <c r="F17" s="121"/>
-      <c r="G17" s="121" t="s">
+      <c r="F17" s="131"/>
+      <c r="G17" s="131" t="s">
         <v>166</v>
       </c>
-      <c r="H17" s="121"/>
-      <c r="I17" s="121" t="s">
+      <c r="H17" s="131"/>
+      <c r="I17" s="131" t="s">
         <v>167</v>
       </c>
-      <c r="J17" s="121"/>
-      <c r="K17" s="121" t="s">
+      <c r="J17" s="131"/>
+      <c r="K17" s="131" t="s">
         <v>168</v>
       </c>
-      <c r="L17" s="121"/>
-      <c r="M17" s="121" t="s">
+      <c r="L17" s="131"/>
+      <c r="M17" s="131" t="s">
         <v>169</v>
       </c>
-      <c r="N17" s="121"/>
-      <c r="O17" s="121" t="s">
+      <c r="N17" s="131"/>
+      <c r="O17" s="131" t="s">
         <v>170</v>
       </c>
-      <c r="P17" s="121"/>
-      <c r="Q17" s="121" t="s">
+      <c r="P17" s="131"/>
+      <c r="Q17" s="131" t="s">
         <v>171</v>
       </c>
-      <c r="R17" s="134"/>
+      <c r="R17" s="132"/>
     </row>
     <row r="18" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="40" t="s">
         <v>60</v>
       </c>
       <c r="C18" s="76" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D18" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="E18" s="122" t="s">
+      <c r="E18" s="148" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="148"/>
+      <c r="G18" s="122" t="s">
         <v>234</v>
       </c>
-      <c r="F18" s="122"/>
-      <c r="G18" s="122" t="s">
-        <v>235</v>
-      </c>
       <c r="H18" s="122"/>
-      <c r="I18" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="132"/>
+      <c r="I18" s="148" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="148"/>
       <c r="K18" s="122" t="s">
         <v>144</v>
       </c>
@@ -5693,13 +5711,13 @@
       <c r="Q18" s="122" t="s">
         <v>147</v>
       </c>
-      <c r="R18" s="136"/>
+      <c r="R18" s="123"/>
     </row>
     <row r="19" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="137" t="s">
+      <c r="C19" s="124" t="s">
         <v>148</v>
       </c>
       <c r="D19" s="122"/>
@@ -5730,7 +5748,7 @@
       <c r="Q19" s="122" t="s">
         <v>155</v>
       </c>
-      <c r="R19" s="136"/>
+      <c r="R19" s="123"/>
       <c r="T19" s="70"/>
       <c r="U19" s="70"/>
       <c r="V19" s="70"/>
@@ -5739,7 +5757,7 @@
       <c r="B20" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="137" t="s">
+      <c r="C20" s="124" t="s">
         <v>156</v>
       </c>
       <c r="D20" s="122"/>
@@ -5770,7 +5788,7 @@
       <c r="Q20" s="122" t="s">
         <v>163</v>
       </c>
-      <c r="R20" s="136"/>
+      <c r="R20" s="123"/>
       <c r="T20" s="73"/>
       <c r="U20" s="73"/>
       <c r="V20" s="73"/>
@@ -5779,61 +5797,61 @@
       <c r="B21" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="144" t="s">
+      <c r="C21" s="133" t="s">
         <v>164</v>
       </c>
-      <c r="D21" s="138"/>
-      <c r="E21" s="138" t="s">
+      <c r="D21" s="134"/>
+      <c r="E21" s="134" t="s">
         <v>165</v>
       </c>
-      <c r="F21" s="138"/>
-      <c r="G21" s="138" t="s">
+      <c r="F21" s="134"/>
+      <c r="G21" s="134" t="s">
         <v>166</v>
       </c>
-      <c r="H21" s="138"/>
-      <c r="I21" s="138" t="s">
+      <c r="H21" s="134"/>
+      <c r="I21" s="134" t="s">
         <v>167</v>
       </c>
-      <c r="J21" s="138"/>
-      <c r="K21" s="138" t="s">
+      <c r="J21" s="134"/>
+      <c r="K21" s="134" t="s">
         <v>168</v>
       </c>
-      <c r="L21" s="138"/>
-      <c r="M21" s="138" t="s">
+      <c r="L21" s="134"/>
+      <c r="M21" s="134" t="s">
         <v>169</v>
       </c>
-      <c r="N21" s="138"/>
-      <c r="O21" s="138" t="s">
+      <c r="N21" s="134"/>
+      <c r="O21" s="134" t="s">
         <v>170</v>
       </c>
-      <c r="P21" s="138"/>
-      <c r="Q21" s="138" t="s">
+      <c r="P21" s="134"/>
+      <c r="Q21" s="134" t="s">
         <v>171</v>
       </c>
-      <c r="R21" s="139"/>
+      <c r="R21" s="135"/>
       <c r="T21" s="73"/>
       <c r="U21" s="73"/>
       <c r="V21" s="73"/>
     </row>
     <row r="22" spans="1:37" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="70"/>
-      <c r="B22" s="150"/>
-      <c r="C22" s="151"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="151"/>
-      <c r="K22" s="151"/>
-      <c r="L22" s="151"/>
-      <c r="M22" s="151"/>
-      <c r="N22" s="151"/>
-      <c r="O22" s="151"/>
-      <c r="P22" s="151"/>
-      <c r="Q22" s="151"/>
-      <c r="R22" s="151"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="126"/>
+      <c r="K22" s="126"/>
+      <c r="L22" s="126"/>
+      <c r="M22" s="126"/>
+      <c r="N22" s="126"/>
+      <c r="O22" s="126"/>
+      <c r="P22" s="126"/>
+      <c r="Q22" s="126"/>
+      <c r="R22" s="126"/>
       <c r="S22" s="70"/>
       <c r="T22" s="74"/>
       <c r="U22" s="74"/>
@@ -5859,39 +5877,39 @@
         <v>127</v>
       </c>
       <c r="C23" s="66" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D23" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="E23" s="120" t="s">
+      <c r="E23" s="157" t="s">
+        <v>233</v>
+      </c>
+      <c r="F23" s="158"/>
+      <c r="G23" s="136" t="s">
         <v>234</v>
       </c>
-      <c r="F23" s="120"/>
-      <c r="G23" s="120" t="s">
-        <v>235</v>
-      </c>
-      <c r="H23" s="120"/>
-      <c r="I23" s="131" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="131"/>
-      <c r="K23" s="120" t="s">
+      <c r="H23" s="136"/>
+      <c r="I23" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="147"/>
+      <c r="K23" s="136" t="s">
         <v>144</v>
       </c>
-      <c r="L23" s="120"/>
-      <c r="M23" s="120" t="s">
+      <c r="L23" s="136"/>
+      <c r="M23" s="136" t="s">
         <v>145</v>
       </c>
-      <c r="N23" s="120"/>
-      <c r="O23" s="120" t="s">
+      <c r="N23" s="136"/>
+      <c r="O23" s="136" t="s">
         <v>146</v>
       </c>
-      <c r="P23" s="120"/>
-      <c r="Q23" s="120" t="s">
+      <c r="P23" s="136"/>
+      <c r="Q23" s="136" t="s">
         <v>147</v>
       </c>
-      <c r="R23" s="130"/>
+      <c r="R23" s="137"/>
       <c r="T23" s="73"/>
       <c r="U23" s="73"/>
       <c r="V23" s="73"/>
@@ -5900,38 +5918,38 @@
       <c r="B24" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="135" t="s">
+      <c r="C24" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="D24" s="121"/>
-      <c r="E24" s="121" t="s">
+      <c r="D24" s="131"/>
+      <c r="E24" s="131" t="s">
         <v>149</v>
       </c>
-      <c r="F24" s="121"/>
-      <c r="G24" s="121" t="s">
+      <c r="F24" s="131"/>
+      <c r="G24" s="131" t="s">
         <v>150</v>
       </c>
-      <c r="H24" s="121"/>
-      <c r="I24" s="121" t="s">
+      <c r="H24" s="131"/>
+      <c r="I24" s="131" t="s">
         <v>151</v>
       </c>
-      <c r="J24" s="121"/>
-      <c r="K24" s="121" t="s">
+      <c r="J24" s="131"/>
+      <c r="K24" s="131" t="s">
         <v>152</v>
       </c>
-      <c r="L24" s="121"/>
-      <c r="M24" s="121" t="s">
+      <c r="L24" s="131"/>
+      <c r="M24" s="131" t="s">
         <v>153</v>
       </c>
-      <c r="N24" s="121"/>
-      <c r="O24" s="121" t="s">
+      <c r="N24" s="131"/>
+      <c r="O24" s="131" t="s">
         <v>154</v>
       </c>
-      <c r="P24" s="121"/>
-      <c r="Q24" s="121" t="s">
+      <c r="P24" s="131"/>
+      <c r="Q24" s="131" t="s">
         <v>155</v>
       </c>
-      <c r="R24" s="134"/>
+      <c r="R24" s="132"/>
       <c r="T24" s="73"/>
       <c r="U24" s="73"/>
       <c r="V24" s="73"/>
@@ -5940,98 +5958,98 @@
       <c r="B25" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="135" t="s">
+      <c r="C25" s="130" t="s">
         <v>156</v>
       </c>
-      <c r="D25" s="121"/>
-      <c r="E25" s="121" t="s">
+      <c r="D25" s="131"/>
+      <c r="E25" s="131" t="s">
         <v>157</v>
       </c>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121" t="s">
+      <c r="F25" s="131"/>
+      <c r="G25" s="131" t="s">
         <v>158</v>
       </c>
-      <c r="H25" s="121"/>
-      <c r="I25" s="121" t="s">
+      <c r="H25" s="131"/>
+      <c r="I25" s="131" t="s">
         <v>159</v>
       </c>
-      <c r="J25" s="121"/>
-      <c r="K25" s="121" t="s">
+      <c r="J25" s="131"/>
+      <c r="K25" s="131" t="s">
         <v>160</v>
       </c>
-      <c r="L25" s="121"/>
-      <c r="M25" s="121" t="s">
+      <c r="L25" s="131"/>
+      <c r="M25" s="131" t="s">
         <v>161</v>
       </c>
-      <c r="N25" s="121"/>
-      <c r="O25" s="121" t="s">
+      <c r="N25" s="131"/>
+      <c r="O25" s="131" t="s">
         <v>162</v>
       </c>
-      <c r="P25" s="121"/>
-      <c r="Q25" s="121" t="s">
+      <c r="P25" s="131"/>
+      <c r="Q25" s="131" t="s">
         <v>163</v>
       </c>
-      <c r="R25" s="134"/>
+      <c r="R25" s="132"/>
     </row>
     <row r="26" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="C26" s="135" t="s">
+      <c r="C26" s="130" t="s">
         <v>164</v>
       </c>
-      <c r="D26" s="121"/>
-      <c r="E26" s="121" t="s">
+      <c r="D26" s="131"/>
+      <c r="E26" s="131" t="s">
         <v>165</v>
       </c>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121" t="s">
+      <c r="F26" s="131"/>
+      <c r="G26" s="131" t="s">
         <v>166</v>
       </c>
-      <c r="H26" s="121"/>
-      <c r="I26" s="121" t="s">
+      <c r="H26" s="131"/>
+      <c r="I26" s="131" t="s">
         <v>167</v>
       </c>
-      <c r="J26" s="121"/>
-      <c r="K26" s="121" t="s">
+      <c r="J26" s="131"/>
+      <c r="K26" s="131" t="s">
         <v>168</v>
       </c>
-      <c r="L26" s="121"/>
-      <c r="M26" s="121" t="s">
+      <c r="L26" s="131"/>
+      <c r="M26" s="131" t="s">
         <v>169</v>
       </c>
-      <c r="N26" s="121"/>
-      <c r="O26" s="121" t="s">
+      <c r="N26" s="131"/>
+      <c r="O26" s="131" t="s">
         <v>170</v>
       </c>
-      <c r="P26" s="121"/>
-      <c r="Q26" s="121" t="s">
+      <c r="P26" s="131"/>
+      <c r="Q26" s="131" t="s">
         <v>171</v>
       </c>
-      <c r="R26" s="134"/>
+      <c r="R26" s="132"/>
     </row>
     <row r="27" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="39" t="s">
         <v>131</v>
       </c>
       <c r="C27" s="76" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D27" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="E27" s="122" t="s">
+      <c r="E27" s="148" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="148"/>
+      <c r="G27" s="122" t="s">
         <v>234</v>
       </c>
-      <c r="F27" s="122"/>
-      <c r="G27" s="122" t="s">
-        <v>235</v>
-      </c>
       <c r="H27" s="122"/>
-      <c r="I27" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" s="132"/>
+      <c r="I27" s="148" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="148"/>
       <c r="K27" s="122" t="s">
         <v>144</v>
       </c>
@@ -6047,13 +6065,13 @@
       <c r="Q27" s="122" t="s">
         <v>147</v>
       </c>
-      <c r="R27" s="136"/>
+      <c r="R27" s="123"/>
     </row>
     <row r="28" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="137" t="s">
+      <c r="C28" s="124" t="s">
         <v>148</v>
       </c>
       <c r="D28" s="122"/>
@@ -6084,13 +6102,13 @@
       <c r="Q28" s="122" t="s">
         <v>155</v>
       </c>
-      <c r="R28" s="136"/>
+      <c r="R28" s="123"/>
     </row>
     <row r="29" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="137" t="s">
+      <c r="C29" s="124" t="s">
         <v>156</v>
       </c>
       <c r="D29" s="122"/>
@@ -6121,13 +6139,13 @@
       <c r="Q29" s="122" t="s">
         <v>163</v>
       </c>
-      <c r="R29" s="136"/>
+      <c r="R29" s="123"/>
     </row>
     <row r="30" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="137" t="s">
+      <c r="C30" s="124" t="s">
         <v>164</v>
       </c>
       <c r="D30" s="122"/>
@@ -6158,180 +6176,180 @@
       <c r="Q30" s="122" t="s">
         <v>171</v>
       </c>
-      <c r="R30" s="136"/>
+      <c r="R30" s="123"/>
     </row>
     <row r="31" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="40" t="s">
         <v>135</v>
       </c>
       <c r="C31" s="68" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D31" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="121" t="s">
+      <c r="E31" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="149"/>
+      <c r="G31" s="131" t="s">
         <v>234</v>
       </c>
-      <c r="F31" s="121"/>
-      <c r="G31" s="121" t="s">
-        <v>235</v>
-      </c>
-      <c r="H31" s="121"/>
-      <c r="I31" s="133" t="s">
-        <v>6</v>
-      </c>
-      <c r="J31" s="133"/>
-      <c r="K31" s="121" t="s">
+      <c r="H31" s="131"/>
+      <c r="I31" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="149"/>
+      <c r="K31" s="131" t="s">
         <v>144</v>
       </c>
-      <c r="L31" s="121"/>
-      <c r="M31" s="121" t="s">
+      <c r="L31" s="131"/>
+      <c r="M31" s="131" t="s">
         <v>145</v>
       </c>
-      <c r="N31" s="121"/>
-      <c r="O31" s="121" t="s">
+      <c r="N31" s="131"/>
+      <c r="O31" s="131" t="s">
         <v>146</v>
       </c>
-      <c r="P31" s="121"/>
-      <c r="Q31" s="121" t="s">
+      <c r="P31" s="131"/>
+      <c r="Q31" s="131" t="s">
         <v>147</v>
       </c>
-      <c r="R31" s="134"/>
+      <c r="R31" s="132"/>
     </row>
     <row r="32" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="C32" s="135" t="s">
+      <c r="C32" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="D32" s="121"/>
-      <c r="E32" s="121" t="s">
+      <c r="D32" s="131"/>
+      <c r="E32" s="131" t="s">
         <v>149</v>
       </c>
-      <c r="F32" s="121"/>
-      <c r="G32" s="121" t="s">
+      <c r="F32" s="131"/>
+      <c r="G32" s="131" t="s">
         <v>150</v>
       </c>
-      <c r="H32" s="121"/>
-      <c r="I32" s="121" t="s">
+      <c r="H32" s="131"/>
+      <c r="I32" s="131" t="s">
         <v>151</v>
       </c>
-      <c r="J32" s="121"/>
-      <c r="K32" s="121" t="s">
+      <c r="J32" s="131"/>
+      <c r="K32" s="131" t="s">
         <v>152</v>
       </c>
-      <c r="L32" s="121"/>
-      <c r="M32" s="121" t="s">
+      <c r="L32" s="131"/>
+      <c r="M32" s="131" t="s">
         <v>153</v>
       </c>
-      <c r="N32" s="121"/>
-      <c r="O32" s="121" t="s">
+      <c r="N32" s="131"/>
+      <c r="O32" s="131" t="s">
         <v>154</v>
       </c>
-      <c r="P32" s="121"/>
-      <c r="Q32" s="121" t="s">
+      <c r="P32" s="131"/>
+      <c r="Q32" s="131" t="s">
         <v>155</v>
       </c>
-      <c r="R32" s="134"/>
+      <c r="R32" s="132"/>
     </row>
     <row r="33" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="C33" s="135" t="s">
+      <c r="C33" s="130" t="s">
         <v>156</v>
       </c>
-      <c r="D33" s="121"/>
-      <c r="E33" s="121" t="s">
+      <c r="D33" s="131"/>
+      <c r="E33" s="131" t="s">
         <v>157</v>
       </c>
-      <c r="F33" s="121"/>
-      <c r="G33" s="121" t="s">
+      <c r="F33" s="131"/>
+      <c r="G33" s="131" t="s">
         <v>158</v>
       </c>
-      <c r="H33" s="121"/>
-      <c r="I33" s="121" t="s">
+      <c r="H33" s="131"/>
+      <c r="I33" s="131" t="s">
         <v>159</v>
       </c>
-      <c r="J33" s="121"/>
-      <c r="K33" s="121" t="s">
+      <c r="J33" s="131"/>
+      <c r="K33" s="131" t="s">
         <v>160</v>
       </c>
-      <c r="L33" s="121"/>
-      <c r="M33" s="121" t="s">
+      <c r="L33" s="131"/>
+      <c r="M33" s="131" t="s">
         <v>161</v>
       </c>
-      <c r="N33" s="121"/>
-      <c r="O33" s="121" t="s">
+      <c r="N33" s="131"/>
+      <c r="O33" s="131" t="s">
         <v>162</v>
       </c>
-      <c r="P33" s="121"/>
-      <c r="Q33" s="121" t="s">
+      <c r="P33" s="131"/>
+      <c r="Q33" s="131" t="s">
         <v>163</v>
       </c>
-      <c r="R33" s="134"/>
+      <c r="R33" s="132"/>
     </row>
     <row r="34" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="C34" s="135" t="s">
+      <c r="C34" s="130" t="s">
         <v>164</v>
       </c>
-      <c r="D34" s="121"/>
-      <c r="E34" s="121" t="s">
+      <c r="D34" s="131"/>
+      <c r="E34" s="131" t="s">
         <v>165</v>
       </c>
-      <c r="F34" s="121"/>
-      <c r="G34" s="121" t="s">
+      <c r="F34" s="131"/>
+      <c r="G34" s="131" t="s">
         <v>166</v>
       </c>
-      <c r="H34" s="121"/>
-      <c r="I34" s="121" t="s">
+      <c r="H34" s="131"/>
+      <c r="I34" s="131" t="s">
         <v>167</v>
       </c>
-      <c r="J34" s="121"/>
-      <c r="K34" s="121" t="s">
+      <c r="J34" s="131"/>
+      <c r="K34" s="131" t="s">
         <v>168</v>
       </c>
-      <c r="L34" s="121"/>
-      <c r="M34" s="121" t="s">
+      <c r="L34" s="131"/>
+      <c r="M34" s="131" t="s">
         <v>169</v>
       </c>
-      <c r="N34" s="121"/>
-      <c r="O34" s="121" t="s">
+      <c r="N34" s="131"/>
+      <c r="O34" s="131" t="s">
         <v>170</v>
       </c>
-      <c r="P34" s="121"/>
-      <c r="Q34" s="121" t="s">
+      <c r="P34" s="131"/>
+      <c r="Q34" s="131" t="s">
         <v>171</v>
       </c>
-      <c r="R34" s="134"/>
+      <c r="R34" s="132"/>
     </row>
     <row r="35" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="40" t="s">
         <v>139</v>
       </c>
       <c r="C35" s="76" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D35" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="E35" s="122" t="s">
+      <c r="E35" s="148" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="148"/>
+      <c r="G35" s="122" t="s">
         <v>234</v>
       </c>
-      <c r="F35" s="122"/>
-      <c r="G35" s="122" t="s">
-        <v>235</v>
-      </c>
       <c r="H35" s="122"/>
-      <c r="I35" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="J35" s="132"/>
+      <c r="I35" s="148" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="148"/>
       <c r="K35" s="122" t="s">
         <v>144</v>
       </c>
@@ -6347,13 +6365,13 @@
       <c r="Q35" s="122" t="s">
         <v>147</v>
       </c>
-      <c r="R35" s="136"/>
+      <c r="R35" s="123"/>
     </row>
     <row r="36" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="137" t="s">
+      <c r="C36" s="124" t="s">
         <v>148</v>
       </c>
       <c r="D36" s="122"/>
@@ -6384,13 +6402,13 @@
       <c r="Q36" s="122" t="s">
         <v>155</v>
       </c>
-      <c r="R36" s="136"/>
+      <c r="R36" s="123"/>
     </row>
     <row r="37" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="137" t="s">
+      <c r="C37" s="124" t="s">
         <v>156</v>
       </c>
       <c r="D37" s="122"/>
@@ -6421,64 +6439,64 @@
       <c r="Q37" s="122" t="s">
         <v>163</v>
       </c>
-      <c r="R37" s="136"/>
+      <c r="R37" s="123"/>
     </row>
     <row r="38" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="144" t="s">
+      <c r="C38" s="133" t="s">
         <v>164</v>
       </c>
-      <c r="D38" s="138"/>
-      <c r="E38" s="138" t="s">
+      <c r="D38" s="134"/>
+      <c r="E38" s="134" t="s">
         <v>165</v>
       </c>
-      <c r="F38" s="138"/>
-      <c r="G38" s="138" t="s">
+      <c r="F38" s="134"/>
+      <c r="G38" s="134" t="s">
         <v>166</v>
       </c>
-      <c r="H38" s="138"/>
-      <c r="I38" s="138" t="s">
+      <c r="H38" s="134"/>
+      <c r="I38" s="134" t="s">
         <v>167</v>
       </c>
-      <c r="J38" s="138"/>
-      <c r="K38" s="138" t="s">
+      <c r="J38" s="134"/>
+      <c r="K38" s="134" t="s">
         <v>168</v>
       </c>
-      <c r="L38" s="138"/>
-      <c r="M38" s="138" t="s">
+      <c r="L38" s="134"/>
+      <c r="M38" s="134" t="s">
         <v>169</v>
       </c>
-      <c r="N38" s="138"/>
-      <c r="O38" s="138" t="s">
+      <c r="N38" s="134"/>
+      <c r="O38" s="134" t="s">
         <v>170</v>
       </c>
-      <c r="P38" s="138"/>
-      <c r="Q38" s="138" t="s">
+      <c r="P38" s="134"/>
+      <c r="Q38" s="134" t="s">
         <v>171</v>
       </c>
-      <c r="R38" s="139"/>
+      <c r="R38" s="135"/>
     </row>
     <row r="39" spans="1:19" s="72" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="73"/>
-      <c r="B39" s="152"/>
-      <c r="C39" s="153"/>
-      <c r="D39" s="153"/>
-      <c r="E39" s="153"/>
-      <c r="F39" s="153"/>
-      <c r="G39" s="153"/>
-      <c r="H39" s="153"/>
-      <c r="I39" s="153"/>
-      <c r="J39" s="153"/>
-      <c r="K39" s="153"/>
-      <c r="L39" s="153"/>
-      <c r="M39" s="153"/>
-      <c r="N39" s="153"/>
-      <c r="O39" s="153"/>
-      <c r="P39" s="153"/>
-      <c r="Q39" s="153"/>
-      <c r="R39" s="153"/>
+      <c r="B39" s="127"/>
+      <c r="C39" s="128"/>
+      <c r="D39" s="128"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="128"/>
+      <c r="G39" s="128"/>
+      <c r="H39" s="128"/>
+      <c r="I39" s="128"/>
+      <c r="J39" s="128"/>
+      <c r="K39" s="128"/>
+      <c r="L39" s="128"/>
+      <c r="M39" s="128"/>
+      <c r="N39" s="128"/>
+      <c r="O39" s="128"/>
+      <c r="P39" s="128"/>
+      <c r="Q39" s="128"/>
+      <c r="R39" s="128"/>
       <c r="S39" s="73"/>
     </row>
     <row r="40" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6486,173 +6504,173 @@
         <v>179</v>
       </c>
       <c r="C40" s="66" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D40" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="E40" s="120" t="s">
+      <c r="E40" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="147"/>
+      <c r="G40" s="136" t="s">
         <v>234</v>
       </c>
-      <c r="F40" s="120"/>
-      <c r="G40" s="120" t="s">
-        <v>235</v>
-      </c>
-      <c r="H40" s="120"/>
-      <c r="I40" s="131" t="s">
-        <v>6</v>
-      </c>
-      <c r="J40" s="131"/>
-      <c r="K40" s="120" t="s">
+      <c r="H40" s="136"/>
+      <c r="I40" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" s="147"/>
+      <c r="K40" s="136" t="s">
         <v>144</v>
       </c>
-      <c r="L40" s="120"/>
-      <c r="M40" s="120" t="s">
+      <c r="L40" s="136"/>
+      <c r="M40" s="136" t="s">
         <v>145</v>
       </c>
-      <c r="N40" s="120"/>
-      <c r="O40" s="120" t="s">
+      <c r="N40" s="136"/>
+      <c r="O40" s="136" t="s">
         <v>146</v>
       </c>
-      <c r="P40" s="120"/>
-      <c r="Q40" s="120" t="s">
+      <c r="P40" s="136"/>
+      <c r="Q40" s="136" t="s">
         <v>147</v>
       </c>
-      <c r="R40" s="130"/>
+      <c r="R40" s="137"/>
     </row>
     <row r="41" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="C41" s="135" t="s">
+      <c r="C41" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="D41" s="121"/>
-      <c r="E41" s="121" t="s">
+      <c r="D41" s="131"/>
+      <c r="E41" s="131" t="s">
         <v>149</v>
       </c>
-      <c r="F41" s="121"/>
-      <c r="G41" s="121" t="s">
+      <c r="F41" s="131"/>
+      <c r="G41" s="131" t="s">
         <v>150</v>
       </c>
-      <c r="H41" s="121"/>
-      <c r="I41" s="121" t="s">
+      <c r="H41" s="131"/>
+      <c r="I41" s="131" t="s">
         <v>151</v>
       </c>
-      <c r="J41" s="121"/>
-      <c r="K41" s="121" t="s">
+      <c r="J41" s="131"/>
+      <c r="K41" s="131" t="s">
         <v>152</v>
       </c>
-      <c r="L41" s="121"/>
-      <c r="M41" s="121" t="s">
+      <c r="L41" s="131"/>
+      <c r="M41" s="131" t="s">
         <v>153</v>
       </c>
-      <c r="N41" s="121"/>
-      <c r="O41" s="121" t="s">
+      <c r="N41" s="131"/>
+      <c r="O41" s="131" t="s">
         <v>154</v>
       </c>
-      <c r="P41" s="121"/>
-      <c r="Q41" s="121" t="s">
+      <c r="P41" s="131"/>
+      <c r="Q41" s="131" t="s">
         <v>155</v>
       </c>
-      <c r="R41" s="134"/>
+      <c r="R41" s="132"/>
     </row>
     <row r="42" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="C42" s="135" t="s">
+      <c r="C42" s="130" t="s">
         <v>156</v>
       </c>
-      <c r="D42" s="121"/>
-      <c r="E42" s="121" t="s">
+      <c r="D42" s="131"/>
+      <c r="E42" s="131" t="s">
         <v>157</v>
       </c>
-      <c r="F42" s="121"/>
-      <c r="G42" s="121" t="s">
+      <c r="F42" s="131"/>
+      <c r="G42" s="131" t="s">
         <v>158</v>
       </c>
-      <c r="H42" s="121"/>
-      <c r="I42" s="121" t="s">
+      <c r="H42" s="131"/>
+      <c r="I42" s="131" t="s">
         <v>159</v>
       </c>
-      <c r="J42" s="121"/>
-      <c r="K42" s="121" t="s">
+      <c r="J42" s="131"/>
+      <c r="K42" s="131" t="s">
         <v>160</v>
       </c>
-      <c r="L42" s="121"/>
-      <c r="M42" s="121" t="s">
+      <c r="L42" s="131"/>
+      <c r="M42" s="131" t="s">
         <v>161</v>
       </c>
-      <c r="N42" s="121"/>
-      <c r="O42" s="121" t="s">
+      <c r="N42" s="131"/>
+      <c r="O42" s="131" t="s">
         <v>162</v>
       </c>
-      <c r="P42" s="121"/>
-      <c r="Q42" s="121" t="s">
+      <c r="P42" s="131"/>
+      <c r="Q42" s="131" t="s">
         <v>163</v>
       </c>
-      <c r="R42" s="134"/>
+      <c r="R42" s="132"/>
     </row>
     <row r="43" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="C43" s="135" t="s">
+      <c r="C43" s="130" t="s">
         <v>164</v>
       </c>
-      <c r="D43" s="121"/>
-      <c r="E43" s="121" t="s">
+      <c r="D43" s="131"/>
+      <c r="E43" s="131" t="s">
         <v>165</v>
       </c>
-      <c r="F43" s="121"/>
-      <c r="G43" s="121" t="s">
+      <c r="F43" s="131"/>
+      <c r="G43" s="131" t="s">
         <v>166</v>
       </c>
-      <c r="H43" s="121"/>
-      <c r="I43" s="121" t="s">
+      <c r="H43" s="131"/>
+      <c r="I43" s="131" t="s">
         <v>167</v>
       </c>
-      <c r="J43" s="121"/>
-      <c r="K43" s="121" t="s">
+      <c r="J43" s="131"/>
+      <c r="K43" s="131" t="s">
         <v>168</v>
       </c>
-      <c r="L43" s="121"/>
-      <c r="M43" s="121" t="s">
+      <c r="L43" s="131"/>
+      <c r="M43" s="131" t="s">
         <v>169</v>
       </c>
-      <c r="N43" s="121"/>
-      <c r="O43" s="121" t="s">
+      <c r="N43" s="131"/>
+      <c r="O43" s="131" t="s">
         <v>170</v>
       </c>
-      <c r="P43" s="121"/>
-      <c r="Q43" s="121" t="s">
+      <c r="P43" s="131"/>
+      <c r="Q43" s="131" t="s">
         <v>171</v>
       </c>
-      <c r="R43" s="134"/>
+      <c r="R43" s="132"/>
     </row>
     <row r="44" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="39" t="s">
         <v>183</v>
       </c>
       <c r="C44" s="76" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D44" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="E44" s="122" t="s">
+      <c r="E44" s="148" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="148"/>
+      <c r="G44" s="122" t="s">
         <v>234</v>
       </c>
-      <c r="F44" s="122"/>
-      <c r="G44" s="122" t="s">
-        <v>235</v>
-      </c>
       <c r="H44" s="122"/>
-      <c r="I44" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="J44" s="132"/>
+      <c r="I44" s="148" t="s">
+        <v>6</v>
+      </c>
+      <c r="J44" s="148"/>
       <c r="K44" s="122" t="s">
         <v>144</v>
       </c>
@@ -6668,13 +6686,13 @@
       <c r="Q44" s="122" t="s">
         <v>147</v>
       </c>
-      <c r="R44" s="136"/>
+      <c r="R44" s="123"/>
     </row>
     <row r="45" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="C45" s="137" t="s">
+      <c r="C45" s="124" t="s">
         <v>148</v>
       </c>
       <c r="D45" s="122"/>
@@ -6705,13 +6723,13 @@
       <c r="Q45" s="122" t="s">
         <v>155</v>
       </c>
-      <c r="R45" s="136"/>
+      <c r="R45" s="123"/>
     </row>
     <row r="46" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="C46" s="137" t="s">
+      <c r="C46" s="124" t="s">
         <v>156</v>
       </c>
       <c r="D46" s="122"/>
@@ -6742,13 +6760,13 @@
       <c r="Q46" s="122" t="s">
         <v>163</v>
       </c>
-      <c r="R46" s="136"/>
+      <c r="R46" s="123"/>
     </row>
     <row r="47" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="C47" s="137" t="s">
+      <c r="C47" s="124" t="s">
         <v>164</v>
       </c>
       <c r="D47" s="122"/>
@@ -6779,180 +6797,180 @@
       <c r="Q47" s="122" t="s">
         <v>171</v>
       </c>
-      <c r="R47" s="136"/>
+      <c r="R47" s="123"/>
     </row>
     <row r="48" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="40" t="s">
         <v>187</v>
       </c>
       <c r="C48" s="68" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D48" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="E48" s="121" t="s">
+      <c r="E48" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="149"/>
+      <c r="G48" s="131" t="s">
         <v>234</v>
       </c>
-      <c r="F48" s="121"/>
-      <c r="G48" s="121" t="s">
-        <v>235</v>
-      </c>
-      <c r="H48" s="121"/>
-      <c r="I48" s="133" t="s">
-        <v>6</v>
-      </c>
-      <c r="J48" s="133"/>
-      <c r="K48" s="121" t="s">
+      <c r="H48" s="131"/>
+      <c r="I48" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="J48" s="149"/>
+      <c r="K48" s="131" t="s">
         <v>144</v>
       </c>
-      <c r="L48" s="121"/>
-      <c r="M48" s="121" t="s">
+      <c r="L48" s="131"/>
+      <c r="M48" s="131" t="s">
         <v>145</v>
       </c>
-      <c r="N48" s="121"/>
-      <c r="O48" s="121" t="s">
+      <c r="N48" s="131"/>
+      <c r="O48" s="131" t="s">
         <v>146</v>
       </c>
-      <c r="P48" s="121"/>
-      <c r="Q48" s="121" t="s">
+      <c r="P48" s="131"/>
+      <c r="Q48" s="131" t="s">
         <v>147</v>
       </c>
-      <c r="R48" s="134"/>
+      <c r="R48" s="132"/>
     </row>
     <row r="49" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="C49" s="135" t="s">
+      <c r="C49" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="D49" s="121"/>
-      <c r="E49" s="121" t="s">
+      <c r="D49" s="131"/>
+      <c r="E49" s="131" t="s">
         <v>149</v>
       </c>
-      <c r="F49" s="121"/>
-      <c r="G49" s="121" t="s">
+      <c r="F49" s="131"/>
+      <c r="G49" s="131" t="s">
         <v>150</v>
       </c>
-      <c r="H49" s="121"/>
-      <c r="I49" s="121" t="s">
+      <c r="H49" s="131"/>
+      <c r="I49" s="131" t="s">
         <v>151</v>
       </c>
-      <c r="J49" s="121"/>
-      <c r="K49" s="121" t="s">
+      <c r="J49" s="131"/>
+      <c r="K49" s="131" t="s">
         <v>152</v>
       </c>
-      <c r="L49" s="121"/>
-      <c r="M49" s="121" t="s">
+      <c r="L49" s="131"/>
+      <c r="M49" s="131" t="s">
         <v>153</v>
       </c>
-      <c r="N49" s="121"/>
-      <c r="O49" s="121" t="s">
+      <c r="N49" s="131"/>
+      <c r="O49" s="131" t="s">
         <v>154</v>
       </c>
-      <c r="P49" s="121"/>
-      <c r="Q49" s="121" t="s">
+      <c r="P49" s="131"/>
+      <c r="Q49" s="131" t="s">
         <v>155</v>
       </c>
-      <c r="R49" s="134"/>
+      <c r="R49" s="132"/>
     </row>
     <row r="50" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="C50" s="135" t="s">
+      <c r="C50" s="130" t="s">
         <v>156</v>
       </c>
-      <c r="D50" s="121"/>
-      <c r="E50" s="121" t="s">
+      <c r="D50" s="131"/>
+      <c r="E50" s="131" t="s">
         <v>157</v>
       </c>
-      <c r="F50" s="121"/>
-      <c r="G50" s="121" t="s">
+      <c r="F50" s="131"/>
+      <c r="G50" s="131" t="s">
         <v>158</v>
       </c>
-      <c r="H50" s="121"/>
-      <c r="I50" s="121" t="s">
+      <c r="H50" s="131"/>
+      <c r="I50" s="131" t="s">
         <v>159</v>
       </c>
-      <c r="J50" s="121"/>
-      <c r="K50" s="121" t="s">
+      <c r="J50" s="131"/>
+      <c r="K50" s="131" t="s">
         <v>160</v>
       </c>
-      <c r="L50" s="121"/>
-      <c r="M50" s="121" t="s">
+      <c r="L50" s="131"/>
+      <c r="M50" s="131" t="s">
         <v>161</v>
       </c>
-      <c r="N50" s="121"/>
-      <c r="O50" s="121" t="s">
+      <c r="N50" s="131"/>
+      <c r="O50" s="131" t="s">
         <v>162</v>
       </c>
-      <c r="P50" s="121"/>
-      <c r="Q50" s="121" t="s">
+      <c r="P50" s="131"/>
+      <c r="Q50" s="131" t="s">
         <v>163</v>
       </c>
-      <c r="R50" s="134"/>
+      <c r="R50" s="132"/>
     </row>
     <row r="51" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="C51" s="135" t="s">
+      <c r="C51" s="130" t="s">
         <v>164</v>
       </c>
-      <c r="D51" s="121"/>
-      <c r="E51" s="121" t="s">
+      <c r="D51" s="131"/>
+      <c r="E51" s="131" t="s">
         <v>165</v>
       </c>
-      <c r="F51" s="121"/>
-      <c r="G51" s="121" t="s">
+      <c r="F51" s="131"/>
+      <c r="G51" s="131" t="s">
         <v>166</v>
       </c>
-      <c r="H51" s="121"/>
-      <c r="I51" s="121" t="s">
+      <c r="H51" s="131"/>
+      <c r="I51" s="131" t="s">
         <v>167</v>
       </c>
-      <c r="J51" s="121"/>
-      <c r="K51" s="121" t="s">
+      <c r="J51" s="131"/>
+      <c r="K51" s="131" t="s">
         <v>168</v>
       </c>
-      <c r="L51" s="121"/>
-      <c r="M51" s="121" t="s">
+      <c r="L51" s="131"/>
+      <c r="M51" s="131" t="s">
         <v>169</v>
       </c>
-      <c r="N51" s="121"/>
-      <c r="O51" s="121" t="s">
+      <c r="N51" s="131"/>
+      <c r="O51" s="131" t="s">
         <v>170</v>
       </c>
-      <c r="P51" s="121"/>
-      <c r="Q51" s="121" t="s">
+      <c r="P51" s="131"/>
+      <c r="Q51" s="131" t="s">
         <v>171</v>
       </c>
-      <c r="R51" s="134"/>
+      <c r="R51" s="132"/>
     </row>
     <row r="52" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="40" t="s">
         <v>191</v>
       </c>
       <c r="C52" s="76" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D52" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="E52" s="122" t="s">
+      <c r="E52" s="148" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="148"/>
+      <c r="G52" s="122" t="s">
         <v>234</v>
       </c>
-      <c r="F52" s="122"/>
-      <c r="G52" s="122" t="s">
-        <v>235</v>
-      </c>
       <c r="H52" s="122"/>
-      <c r="I52" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="J52" s="132"/>
+      <c r="I52" s="148" t="s">
+        <v>6</v>
+      </c>
+      <c r="J52" s="148"/>
       <c r="K52" s="122" t="s">
         <v>144</v>
       </c>
@@ -6968,13 +6986,13 @@
       <c r="Q52" s="122" t="s">
         <v>147</v>
       </c>
-      <c r="R52" s="136"/>
+      <c r="R52" s="123"/>
     </row>
     <row r="53" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="C53" s="137" t="s">
+      <c r="C53" s="124" t="s">
         <v>148</v>
       </c>
       <c r="D53" s="122"/>
@@ -7005,13 +7023,13 @@
       <c r="Q53" s="122" t="s">
         <v>155</v>
       </c>
-      <c r="R53" s="136"/>
+      <c r="R53" s="123"/>
     </row>
     <row r="54" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="C54" s="137" t="s">
+      <c r="C54" s="124" t="s">
         <v>156</v>
       </c>
       <c r="D54" s="122"/>
@@ -7042,64 +7060,64 @@
       <c r="Q54" s="122" t="s">
         <v>163</v>
       </c>
-      <c r="R54" s="136"/>
+      <c r="R54" s="123"/>
     </row>
     <row r="55" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="71" t="s">
         <v>194</v>
       </c>
-      <c r="C55" s="144" t="s">
+      <c r="C55" s="133" t="s">
         <v>164</v>
       </c>
-      <c r="D55" s="138"/>
-      <c r="E55" s="138" t="s">
+      <c r="D55" s="134"/>
+      <c r="E55" s="134" t="s">
         <v>165</v>
       </c>
-      <c r="F55" s="138"/>
-      <c r="G55" s="138" t="s">
+      <c r="F55" s="134"/>
+      <c r="G55" s="134" t="s">
         <v>166</v>
       </c>
-      <c r="H55" s="138"/>
-      <c r="I55" s="138" t="s">
+      <c r="H55" s="134"/>
+      <c r="I55" s="134" t="s">
         <v>167</v>
       </c>
-      <c r="J55" s="138"/>
-      <c r="K55" s="138" t="s">
+      <c r="J55" s="134"/>
+      <c r="K55" s="134" t="s">
         <v>168</v>
       </c>
-      <c r="L55" s="138"/>
-      <c r="M55" s="138" t="s">
+      <c r="L55" s="134"/>
+      <c r="M55" s="134" t="s">
         <v>169</v>
       </c>
-      <c r="N55" s="138"/>
-      <c r="O55" s="138" t="s">
+      <c r="N55" s="134"/>
+      <c r="O55" s="134" t="s">
         <v>170</v>
       </c>
-      <c r="P55" s="138"/>
-      <c r="Q55" s="138" t="s">
+      <c r="P55" s="134"/>
+      <c r="Q55" s="134" t="s">
         <v>171</v>
       </c>
-      <c r="R55" s="139"/>
+      <c r="R55" s="135"/>
     </row>
     <row r="56" spans="1:19" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="70"/>
-      <c r="B56" s="150"/>
-      <c r="C56" s="151"/>
-      <c r="D56" s="151"/>
-      <c r="E56" s="151"/>
-      <c r="F56" s="151"/>
-      <c r="G56" s="151"/>
-      <c r="H56" s="151"/>
-      <c r="I56" s="151"/>
-      <c r="J56" s="151"/>
-      <c r="K56" s="151"/>
-      <c r="L56" s="151"/>
-      <c r="M56" s="151"/>
-      <c r="N56" s="151"/>
-      <c r="O56" s="151"/>
-      <c r="P56" s="151"/>
-      <c r="Q56" s="151"/>
-      <c r="R56" s="151"/>
+      <c r="B56" s="125"/>
+      <c r="C56" s="126"/>
+      <c r="D56" s="126"/>
+      <c r="E56" s="126"/>
+      <c r="F56" s="126"/>
+      <c r="G56" s="126"/>
+      <c r="H56" s="126"/>
+      <c r="I56" s="126"/>
+      <c r="J56" s="126"/>
+      <c r="K56" s="126"/>
+      <c r="L56" s="126"/>
+      <c r="M56" s="126"/>
+      <c r="N56" s="126"/>
+      <c r="O56" s="126"/>
+      <c r="P56" s="126"/>
+      <c r="Q56" s="126"/>
+      <c r="R56" s="126"/>
       <c r="S56" s="70"/>
     </row>
     <row r="57" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7107,173 +7125,173 @@
         <v>195</v>
       </c>
       <c r="C57" s="66" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D57" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="E57" s="120" t="s">
+      <c r="E57" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="147"/>
+      <c r="G57" s="136" t="s">
         <v>234</v>
       </c>
-      <c r="F57" s="120"/>
-      <c r="G57" s="120" t="s">
-        <v>235</v>
-      </c>
-      <c r="H57" s="120"/>
-      <c r="I57" s="131" t="s">
-        <v>6</v>
-      </c>
-      <c r="J57" s="131"/>
-      <c r="K57" s="120" t="s">
+      <c r="H57" s="136"/>
+      <c r="I57" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="J57" s="147"/>
+      <c r="K57" s="136" t="s">
         <v>144</v>
       </c>
-      <c r="L57" s="120"/>
-      <c r="M57" s="120" t="s">
+      <c r="L57" s="136"/>
+      <c r="M57" s="136" t="s">
         <v>145</v>
       </c>
-      <c r="N57" s="120"/>
-      <c r="O57" s="120" t="s">
+      <c r="N57" s="136"/>
+      <c r="O57" s="136" t="s">
         <v>146</v>
       </c>
-      <c r="P57" s="120"/>
-      <c r="Q57" s="120" t="s">
+      <c r="P57" s="136"/>
+      <c r="Q57" s="136" t="s">
         <v>147</v>
       </c>
-      <c r="R57" s="130"/>
+      <c r="R57" s="137"/>
     </row>
     <row r="58" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="C58" s="135" t="s">
+      <c r="C58" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="D58" s="121"/>
-      <c r="E58" s="121" t="s">
+      <c r="D58" s="131"/>
+      <c r="E58" s="131" t="s">
         <v>149</v>
       </c>
-      <c r="F58" s="121"/>
-      <c r="G58" s="121" t="s">
+      <c r="F58" s="131"/>
+      <c r="G58" s="131" t="s">
         <v>150</v>
       </c>
-      <c r="H58" s="121"/>
-      <c r="I58" s="121" t="s">
+      <c r="H58" s="131"/>
+      <c r="I58" s="131" t="s">
         <v>151</v>
       </c>
-      <c r="J58" s="121"/>
-      <c r="K58" s="121" t="s">
+      <c r="J58" s="131"/>
+      <c r="K58" s="131" t="s">
         <v>152</v>
       </c>
-      <c r="L58" s="121"/>
-      <c r="M58" s="121" t="s">
+      <c r="L58" s="131"/>
+      <c r="M58" s="131" t="s">
         <v>153</v>
       </c>
-      <c r="N58" s="121"/>
-      <c r="O58" s="121" t="s">
+      <c r="N58" s="131"/>
+      <c r="O58" s="131" t="s">
         <v>154</v>
       </c>
-      <c r="P58" s="121"/>
-      <c r="Q58" s="121" t="s">
+      <c r="P58" s="131"/>
+      <c r="Q58" s="131" t="s">
         <v>155</v>
       </c>
-      <c r="R58" s="134"/>
+      <c r="R58" s="132"/>
     </row>
     <row r="59" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="C59" s="135" t="s">
+      <c r="C59" s="130" t="s">
         <v>156</v>
       </c>
-      <c r="D59" s="121"/>
-      <c r="E59" s="121" t="s">
+      <c r="D59" s="131"/>
+      <c r="E59" s="131" t="s">
         <v>157</v>
       </c>
-      <c r="F59" s="121"/>
-      <c r="G59" s="121" t="s">
+      <c r="F59" s="131"/>
+      <c r="G59" s="131" t="s">
         <v>158</v>
       </c>
-      <c r="H59" s="121"/>
-      <c r="I59" s="121" t="s">
+      <c r="H59" s="131"/>
+      <c r="I59" s="131" t="s">
         <v>159</v>
       </c>
-      <c r="J59" s="121"/>
-      <c r="K59" s="121" t="s">
+      <c r="J59" s="131"/>
+      <c r="K59" s="131" t="s">
         <v>160</v>
       </c>
-      <c r="L59" s="121"/>
-      <c r="M59" s="121" t="s">
+      <c r="L59" s="131"/>
+      <c r="M59" s="131" t="s">
         <v>161</v>
       </c>
-      <c r="N59" s="121"/>
-      <c r="O59" s="121" t="s">
+      <c r="N59" s="131"/>
+      <c r="O59" s="131" t="s">
         <v>162</v>
       </c>
-      <c r="P59" s="121"/>
-      <c r="Q59" s="121" t="s">
+      <c r="P59" s="131"/>
+      <c r="Q59" s="131" t="s">
         <v>163</v>
       </c>
-      <c r="R59" s="134"/>
+      <c r="R59" s="132"/>
     </row>
     <row r="60" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="C60" s="135" t="s">
+      <c r="C60" s="130" t="s">
         <v>164</v>
       </c>
-      <c r="D60" s="121"/>
-      <c r="E60" s="121" t="s">
+      <c r="D60" s="131"/>
+      <c r="E60" s="131" t="s">
         <v>165</v>
       </c>
-      <c r="F60" s="121"/>
-      <c r="G60" s="121" t="s">
+      <c r="F60" s="131"/>
+      <c r="G60" s="131" t="s">
         <v>166</v>
       </c>
-      <c r="H60" s="121"/>
-      <c r="I60" s="121" t="s">
+      <c r="H60" s="131"/>
+      <c r="I60" s="131" t="s">
         <v>167</v>
       </c>
-      <c r="J60" s="121"/>
-      <c r="K60" s="121" t="s">
+      <c r="J60" s="131"/>
+      <c r="K60" s="131" t="s">
         <v>168</v>
       </c>
-      <c r="L60" s="121"/>
-      <c r="M60" s="121" t="s">
+      <c r="L60" s="131"/>
+      <c r="M60" s="131" t="s">
         <v>169</v>
       </c>
-      <c r="N60" s="121"/>
-      <c r="O60" s="121" t="s">
+      <c r="N60" s="131"/>
+      <c r="O60" s="131" t="s">
         <v>170</v>
       </c>
-      <c r="P60" s="121"/>
-      <c r="Q60" s="121" t="s">
+      <c r="P60" s="131"/>
+      <c r="Q60" s="131" t="s">
         <v>171</v>
       </c>
-      <c r="R60" s="134"/>
+      <c r="R60" s="132"/>
     </row>
     <row r="61" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="39" t="s">
         <v>200</v>
       </c>
       <c r="C61" s="76" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D61" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="E61" s="122" t="s">
+      <c r="E61" s="148" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" s="148"/>
+      <c r="G61" s="122" t="s">
         <v>234</v>
       </c>
-      <c r="F61" s="122"/>
-      <c r="G61" s="122" t="s">
-        <v>235</v>
-      </c>
       <c r="H61" s="122"/>
-      <c r="I61" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="J61" s="132"/>
+      <c r="I61" s="148" t="s">
+        <v>6</v>
+      </c>
+      <c r="J61" s="148"/>
       <c r="K61" s="122" t="s">
         <v>144</v>
       </c>
@@ -7289,13 +7307,13 @@
       <c r="Q61" s="122" t="s">
         <v>147</v>
       </c>
-      <c r="R61" s="136"/>
+      <c r="R61" s="123"/>
     </row>
     <row r="62" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="C62" s="137" t="s">
+      <c r="C62" s="124" t="s">
         <v>148</v>
       </c>
       <c r="D62" s="122"/>
@@ -7326,13 +7344,13 @@
       <c r="Q62" s="122" t="s">
         <v>155</v>
       </c>
-      <c r="R62" s="136"/>
+      <c r="R62" s="123"/>
     </row>
     <row r="63" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="C63" s="137" t="s">
+      <c r="C63" s="124" t="s">
         <v>156</v>
       </c>
       <c r="D63" s="122"/>
@@ -7363,13 +7381,13 @@
       <c r="Q63" s="122" t="s">
         <v>163</v>
       </c>
-      <c r="R63" s="136"/>
+      <c r="R63" s="123"/>
     </row>
     <row r="64" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="C64" s="137" t="s">
+      <c r="C64" s="124" t="s">
         <v>164</v>
       </c>
       <c r="D64" s="122"/>
@@ -7400,180 +7418,180 @@
       <c r="Q64" s="122" t="s">
         <v>171</v>
       </c>
-      <c r="R64" s="136"/>
+      <c r="R64" s="123"/>
     </row>
     <row r="65" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="40" t="s">
         <v>204</v>
       </c>
       <c r="C65" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D65" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="E65" s="121" t="s">
+      <c r="E65" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" s="149"/>
+      <c r="G65" s="131" t="s">
         <v>234</v>
       </c>
-      <c r="F65" s="121"/>
-      <c r="G65" s="121" t="s">
-        <v>235</v>
-      </c>
-      <c r="H65" s="121"/>
-      <c r="I65" s="133" t="s">
-        <v>6</v>
-      </c>
-      <c r="J65" s="133"/>
-      <c r="K65" s="121" t="s">
+      <c r="H65" s="131"/>
+      <c r="I65" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="J65" s="149"/>
+      <c r="K65" s="131" t="s">
         <v>144</v>
       </c>
-      <c r="L65" s="121"/>
-      <c r="M65" s="121" t="s">
+      <c r="L65" s="131"/>
+      <c r="M65" s="131" t="s">
         <v>145</v>
       </c>
-      <c r="N65" s="121"/>
-      <c r="O65" s="121" t="s">
+      <c r="N65" s="131"/>
+      <c r="O65" s="131" t="s">
         <v>146</v>
       </c>
-      <c r="P65" s="121"/>
-      <c r="Q65" s="121" t="s">
+      <c r="P65" s="131"/>
+      <c r="Q65" s="131" t="s">
         <v>147</v>
       </c>
-      <c r="R65" s="134"/>
+      <c r="R65" s="132"/>
     </row>
     <row r="66" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="C66" s="135" t="s">
+      <c r="C66" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="D66" s="121"/>
-      <c r="E66" s="121" t="s">
+      <c r="D66" s="131"/>
+      <c r="E66" s="131" t="s">
         <v>149</v>
       </c>
-      <c r="F66" s="121"/>
-      <c r="G66" s="121" t="s">
+      <c r="F66" s="131"/>
+      <c r="G66" s="131" t="s">
         <v>150</v>
       </c>
-      <c r="H66" s="121"/>
-      <c r="I66" s="121" t="s">
+      <c r="H66" s="131"/>
+      <c r="I66" s="131" t="s">
         <v>151</v>
       </c>
-      <c r="J66" s="121"/>
-      <c r="K66" s="121" t="s">
+      <c r="J66" s="131"/>
+      <c r="K66" s="131" t="s">
         <v>152</v>
       </c>
-      <c r="L66" s="121"/>
-      <c r="M66" s="121" t="s">
+      <c r="L66" s="131"/>
+      <c r="M66" s="131" t="s">
         <v>153</v>
       </c>
-      <c r="N66" s="121"/>
-      <c r="O66" s="121" t="s">
+      <c r="N66" s="131"/>
+      <c r="O66" s="131" t="s">
         <v>154</v>
       </c>
-      <c r="P66" s="121"/>
-      <c r="Q66" s="121" t="s">
+      <c r="P66" s="131"/>
+      <c r="Q66" s="131" t="s">
         <v>155</v>
       </c>
-      <c r="R66" s="134"/>
+      <c r="R66" s="132"/>
     </row>
     <row r="67" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="C67" s="135" t="s">
+      <c r="C67" s="130" t="s">
         <v>156</v>
       </c>
-      <c r="D67" s="121"/>
-      <c r="E67" s="121" t="s">
+      <c r="D67" s="131"/>
+      <c r="E67" s="131" t="s">
         <v>157</v>
       </c>
-      <c r="F67" s="121"/>
-      <c r="G67" s="121" t="s">
+      <c r="F67" s="131"/>
+      <c r="G67" s="131" t="s">
         <v>158</v>
       </c>
-      <c r="H67" s="121"/>
-      <c r="I67" s="121" t="s">
+      <c r="H67" s="131"/>
+      <c r="I67" s="131" t="s">
         <v>159</v>
       </c>
-      <c r="J67" s="121"/>
-      <c r="K67" s="121" t="s">
+      <c r="J67" s="131"/>
+      <c r="K67" s="131" t="s">
         <v>160</v>
       </c>
-      <c r="L67" s="121"/>
-      <c r="M67" s="121" t="s">
+      <c r="L67" s="131"/>
+      <c r="M67" s="131" t="s">
         <v>161</v>
       </c>
-      <c r="N67" s="121"/>
-      <c r="O67" s="121" t="s">
+      <c r="N67" s="131"/>
+      <c r="O67" s="131" t="s">
         <v>162</v>
       </c>
-      <c r="P67" s="121"/>
-      <c r="Q67" s="121" t="s">
+      <c r="P67" s="131"/>
+      <c r="Q67" s="131" t="s">
         <v>163</v>
       </c>
-      <c r="R67" s="134"/>
+      <c r="R67" s="132"/>
     </row>
     <row r="68" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="C68" s="135" t="s">
+      <c r="C68" s="130" t="s">
         <v>164</v>
       </c>
-      <c r="D68" s="121"/>
-      <c r="E68" s="121" t="s">
+      <c r="D68" s="131"/>
+      <c r="E68" s="131" t="s">
         <v>165</v>
       </c>
-      <c r="F68" s="121"/>
-      <c r="G68" s="121" t="s">
+      <c r="F68" s="131"/>
+      <c r="G68" s="131" t="s">
         <v>166</v>
       </c>
-      <c r="H68" s="121"/>
-      <c r="I68" s="121" t="s">
+      <c r="H68" s="131"/>
+      <c r="I68" s="131" t="s">
         <v>167</v>
       </c>
-      <c r="J68" s="121"/>
-      <c r="K68" s="121" t="s">
+      <c r="J68" s="131"/>
+      <c r="K68" s="131" t="s">
         <v>168</v>
       </c>
-      <c r="L68" s="121"/>
-      <c r="M68" s="121" t="s">
+      <c r="L68" s="131"/>
+      <c r="M68" s="131" t="s">
         <v>169</v>
       </c>
-      <c r="N68" s="121"/>
-      <c r="O68" s="121" t="s">
+      <c r="N68" s="131"/>
+      <c r="O68" s="131" t="s">
         <v>170</v>
       </c>
-      <c r="P68" s="121"/>
-      <c r="Q68" s="121" t="s">
+      <c r="P68" s="131"/>
+      <c r="Q68" s="131" t="s">
         <v>171</v>
       </c>
-      <c r="R68" s="134"/>
+      <c r="R68" s="132"/>
     </row>
     <row r="69" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="40" t="s">
         <v>208</v>
       </c>
       <c r="C69" s="76" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D69" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="E69" s="122" t="s">
+      <c r="E69" s="148" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" s="148"/>
+      <c r="G69" s="122" t="s">
         <v>234</v>
       </c>
-      <c r="F69" s="122"/>
-      <c r="G69" s="122" t="s">
-        <v>235</v>
-      </c>
       <c r="H69" s="122"/>
-      <c r="I69" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="J69" s="132"/>
+      <c r="I69" s="148" t="s">
+        <v>6</v>
+      </c>
+      <c r="J69" s="148"/>
       <c r="K69" s="122" t="s">
         <v>144</v>
       </c>
@@ -7589,13 +7607,13 @@
       <c r="Q69" s="122" t="s">
         <v>147</v>
       </c>
-      <c r="R69" s="136"/>
+      <c r="R69" s="123"/>
     </row>
     <row r="70" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="C70" s="137" t="s">
+      <c r="C70" s="124" t="s">
         <v>148</v>
       </c>
       <c r="D70" s="122"/>
@@ -7626,13 +7644,13 @@
       <c r="Q70" s="122" t="s">
         <v>155</v>
       </c>
-      <c r="R70" s="136"/>
+      <c r="R70" s="123"/>
     </row>
     <row r="71" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="C71" s="137" t="s">
+      <c r="C71" s="124" t="s">
         <v>156</v>
       </c>
       <c r="D71" s="122"/>
@@ -7663,63 +7681,63 @@
       <c r="Q71" s="122" t="s">
         <v>163</v>
       </c>
-      <c r="R71" s="136"/>
+      <c r="R71" s="123"/>
     </row>
     <row r="72" spans="2:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="C72" s="144" t="s">
+      <c r="C72" s="133" t="s">
         <v>164</v>
       </c>
-      <c r="D72" s="138"/>
-      <c r="E72" s="138" t="s">
+      <c r="D72" s="134"/>
+      <c r="E72" s="134" t="s">
         <v>165</v>
       </c>
-      <c r="F72" s="138"/>
-      <c r="G72" s="138" t="s">
+      <c r="F72" s="134"/>
+      <c r="G72" s="134" t="s">
         <v>166</v>
       </c>
-      <c r="H72" s="138"/>
-      <c r="I72" s="138" t="s">
+      <c r="H72" s="134"/>
+      <c r="I72" s="134" t="s">
         <v>167</v>
       </c>
-      <c r="J72" s="138"/>
-      <c r="K72" s="138" t="s">
+      <c r="J72" s="134"/>
+      <c r="K72" s="134" t="s">
         <v>168</v>
       </c>
-      <c r="L72" s="138"/>
-      <c r="M72" s="138" t="s">
+      <c r="L72" s="134"/>
+      <c r="M72" s="134" t="s">
         <v>169</v>
       </c>
-      <c r="N72" s="138"/>
-      <c r="O72" s="138" t="s">
+      <c r="N72" s="134"/>
+      <c r="O72" s="134" t="s">
         <v>170</v>
       </c>
-      <c r="P72" s="138"/>
-      <c r="Q72" s="138" t="s">
+      <c r="P72" s="134"/>
+      <c r="Q72" s="134" t="s">
         <v>171</v>
       </c>
-      <c r="R72" s="139"/>
+      <c r="R72" s="135"/>
     </row>
     <row r="73" spans="2:19" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="154"/>
-      <c r="C73" s="151"/>
-      <c r="D73" s="151"/>
-      <c r="E73" s="151"/>
-      <c r="F73" s="151"/>
-      <c r="G73" s="151"/>
-      <c r="H73" s="151"/>
-      <c r="I73" s="151"/>
-      <c r="J73" s="151"/>
-      <c r="K73" s="151"/>
-      <c r="L73" s="151"/>
-      <c r="M73" s="151"/>
-      <c r="N73" s="151"/>
-      <c r="O73" s="151"/>
-      <c r="P73" s="151"/>
-      <c r="Q73" s="151"/>
-      <c r="R73" s="151"/>
+      <c r="B73" s="129"/>
+      <c r="C73" s="126"/>
+      <c r="D73" s="126"/>
+      <c r="E73" s="126"/>
+      <c r="F73" s="126"/>
+      <c r="G73" s="126"/>
+      <c r="H73" s="126"/>
+      <c r="I73" s="126"/>
+      <c r="J73" s="126"/>
+      <c r="K73" s="126"/>
+      <c r="L73" s="126"/>
+      <c r="M73" s="126"/>
+      <c r="N73" s="126"/>
+      <c r="O73" s="126"/>
+      <c r="P73" s="126"/>
+      <c r="Q73" s="126"/>
+      <c r="R73" s="126"/>
       <c r="S73" s="70"/>
     </row>
     <row r="74" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7727,173 +7745,173 @@
         <v>211</v>
       </c>
       <c r="C74" s="66" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D74" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="E74" s="120" t="s">
+      <c r="E74" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74" s="147"/>
+      <c r="G74" s="136" t="s">
         <v>234</v>
       </c>
-      <c r="F74" s="120"/>
-      <c r="G74" s="120" t="s">
-        <v>235</v>
-      </c>
-      <c r="H74" s="120"/>
-      <c r="I74" s="131" t="s">
-        <v>6</v>
-      </c>
-      <c r="J74" s="131"/>
-      <c r="K74" s="120" t="s">
+      <c r="H74" s="136"/>
+      <c r="I74" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="J74" s="147"/>
+      <c r="K74" s="136" t="s">
         <v>144</v>
       </c>
-      <c r="L74" s="120"/>
-      <c r="M74" s="120" t="s">
+      <c r="L74" s="136"/>
+      <c r="M74" s="136" t="s">
         <v>145</v>
       </c>
-      <c r="N74" s="120"/>
-      <c r="O74" s="120" t="s">
+      <c r="N74" s="136"/>
+      <c r="O74" s="136" t="s">
         <v>146</v>
       </c>
-      <c r="P74" s="120"/>
-      <c r="Q74" s="120" t="s">
+      <c r="P74" s="136"/>
+      <c r="Q74" s="136" t="s">
         <v>147</v>
       </c>
-      <c r="R74" s="130"/>
+      <c r="R74" s="137"/>
     </row>
     <row r="75" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="C75" s="135" t="s">
+      <c r="C75" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="D75" s="121"/>
-      <c r="E75" s="121" t="s">
+      <c r="D75" s="131"/>
+      <c r="E75" s="131" t="s">
         <v>149</v>
       </c>
-      <c r="F75" s="121"/>
-      <c r="G75" s="121" t="s">
+      <c r="F75" s="131"/>
+      <c r="G75" s="131" t="s">
         <v>150</v>
       </c>
-      <c r="H75" s="121"/>
-      <c r="I75" s="121" t="s">
+      <c r="H75" s="131"/>
+      <c r="I75" s="131" t="s">
         <v>151</v>
       </c>
-      <c r="J75" s="121"/>
-      <c r="K75" s="121" t="s">
+      <c r="J75" s="131"/>
+      <c r="K75" s="131" t="s">
         <v>152</v>
       </c>
-      <c r="L75" s="121"/>
-      <c r="M75" s="121" t="s">
+      <c r="L75" s="131"/>
+      <c r="M75" s="131" t="s">
         <v>153</v>
       </c>
-      <c r="N75" s="121"/>
-      <c r="O75" s="121" t="s">
+      <c r="N75" s="131"/>
+      <c r="O75" s="131" t="s">
         <v>154</v>
       </c>
-      <c r="P75" s="121"/>
-      <c r="Q75" s="121" t="s">
+      <c r="P75" s="131"/>
+      <c r="Q75" s="131" t="s">
         <v>155</v>
       </c>
-      <c r="R75" s="134"/>
+      <c r="R75" s="132"/>
     </row>
     <row r="76" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="C76" s="135" t="s">
+      <c r="C76" s="130" t="s">
         <v>156</v>
       </c>
-      <c r="D76" s="121"/>
-      <c r="E76" s="121" t="s">
+      <c r="D76" s="131"/>
+      <c r="E76" s="131" t="s">
         <v>157</v>
       </c>
-      <c r="F76" s="121"/>
-      <c r="G76" s="121" t="s">
+      <c r="F76" s="131"/>
+      <c r="G76" s="131" t="s">
         <v>158</v>
       </c>
-      <c r="H76" s="121"/>
-      <c r="I76" s="121" t="s">
+      <c r="H76" s="131"/>
+      <c r="I76" s="131" t="s">
         <v>159</v>
       </c>
-      <c r="J76" s="121"/>
-      <c r="K76" s="121" t="s">
+      <c r="J76" s="131"/>
+      <c r="K76" s="131" t="s">
         <v>160</v>
       </c>
-      <c r="L76" s="121"/>
-      <c r="M76" s="121" t="s">
+      <c r="L76" s="131"/>
+      <c r="M76" s="131" t="s">
         <v>161</v>
       </c>
-      <c r="N76" s="121"/>
-      <c r="O76" s="121" t="s">
+      <c r="N76" s="131"/>
+      <c r="O76" s="131" t="s">
         <v>162</v>
       </c>
-      <c r="P76" s="121"/>
-      <c r="Q76" s="121" t="s">
+      <c r="P76" s="131"/>
+      <c r="Q76" s="131" t="s">
         <v>163</v>
       </c>
-      <c r="R76" s="134"/>
+      <c r="R76" s="132"/>
     </row>
     <row r="77" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="C77" s="135" t="s">
+      <c r="C77" s="130" t="s">
         <v>164</v>
       </c>
-      <c r="D77" s="121"/>
-      <c r="E77" s="121" t="s">
+      <c r="D77" s="131"/>
+      <c r="E77" s="131" t="s">
         <v>165</v>
       </c>
-      <c r="F77" s="121"/>
-      <c r="G77" s="121" t="s">
+      <c r="F77" s="131"/>
+      <c r="G77" s="131" t="s">
         <v>166</v>
       </c>
-      <c r="H77" s="121"/>
-      <c r="I77" s="121" t="s">
+      <c r="H77" s="131"/>
+      <c r="I77" s="131" t="s">
         <v>167</v>
       </c>
-      <c r="J77" s="121"/>
-      <c r="K77" s="121" t="s">
+      <c r="J77" s="131"/>
+      <c r="K77" s="131" t="s">
         <v>168</v>
       </c>
-      <c r="L77" s="121"/>
-      <c r="M77" s="121" t="s">
+      <c r="L77" s="131"/>
+      <c r="M77" s="131" t="s">
         <v>169</v>
       </c>
-      <c r="N77" s="121"/>
-      <c r="O77" s="121" t="s">
+      <c r="N77" s="131"/>
+      <c r="O77" s="131" t="s">
         <v>170</v>
       </c>
-      <c r="P77" s="121"/>
-      <c r="Q77" s="121" t="s">
+      <c r="P77" s="131"/>
+      <c r="Q77" s="131" t="s">
         <v>171</v>
       </c>
-      <c r="R77" s="134"/>
+      <c r="R77" s="132"/>
     </row>
     <row r="78" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="39" t="s">
         <v>215</v>
       </c>
       <c r="C78" s="77" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D78" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="E78" s="122" t="s">
+      <c r="E78" s="148" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" s="148"/>
+      <c r="G78" s="122" t="s">
         <v>234</v>
       </c>
-      <c r="F78" s="122"/>
-      <c r="G78" s="122" t="s">
-        <v>235</v>
-      </c>
       <c r="H78" s="122"/>
-      <c r="I78" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="J78" s="132"/>
+      <c r="I78" s="148" t="s">
+        <v>6</v>
+      </c>
+      <c r="J78" s="148"/>
       <c r="K78" s="122" t="s">
         <v>144</v>
       </c>
@@ -7909,13 +7927,13 @@
       <c r="Q78" s="122" t="s">
         <v>147</v>
       </c>
-      <c r="R78" s="136"/>
+      <c r="R78" s="123"/>
     </row>
     <row r="79" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="C79" s="137" t="s">
+      <c r="C79" s="124" t="s">
         <v>148</v>
       </c>
       <c r="D79" s="122"/>
@@ -7946,13 +7964,13 @@
       <c r="Q79" s="122" t="s">
         <v>155</v>
       </c>
-      <c r="R79" s="136"/>
+      <c r="R79" s="123"/>
     </row>
     <row r="80" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="C80" s="137" t="s">
+      <c r="C80" s="124" t="s">
         <v>156</v>
       </c>
       <c r="D80" s="122"/>
@@ -7983,13 +8001,13 @@
       <c r="Q80" s="122" t="s">
         <v>163</v>
       </c>
-      <c r="R80" s="136"/>
+      <c r="R80" s="123"/>
     </row>
     <row r="81" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="C81" s="137" t="s">
+      <c r="C81" s="124" t="s">
         <v>164</v>
       </c>
       <c r="D81" s="122"/>
@@ -8020,7 +8038,7 @@
       <c r="Q81" s="122" t="s">
         <v>171</v>
       </c>
-      <c r="R81" s="136"/>
+      <c r="R81" s="123"/>
     </row>
     <row r="82" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="40" t="s">
@@ -8041,7 +8059,7 @@
       <c r="O82" s="16"/>
       <c r="P82" s="16"/>
       <c r="Q82" s="16"/>
-      <c r="R82" s="155"/>
+      <c r="R82" s="80"/>
     </row>
     <row r="83" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="40" t="s">
@@ -8062,7 +8080,7 @@
       <c r="O83" s="16"/>
       <c r="P83" s="16"/>
       <c r="Q83" s="16"/>
-      <c r="R83" s="155"/>
+      <c r="R83" s="80"/>
     </row>
     <row r="84" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="40" t="s">
@@ -8083,7 +8101,7 @@
       <c r="O84" s="16"/>
       <c r="P84" s="16"/>
       <c r="Q84" s="16"/>
-      <c r="R84" s="155"/>
+      <c r="R84" s="80"/>
     </row>
     <row r="85" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="40" t="s">
@@ -8104,7 +8122,7 @@
       <c r="O85" s="16"/>
       <c r="P85" s="16"/>
       <c r="Q85" s="16"/>
-      <c r="R85" s="155"/>
+      <c r="R85" s="80"/>
     </row>
     <row r="86" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="40" t="s">
@@ -8125,7 +8143,7 @@
       <c r="O86" s="16"/>
       <c r="P86" s="16"/>
       <c r="Q86" s="16"/>
-      <c r="R86" s="155"/>
+      <c r="R86" s="80"/>
     </row>
     <row r="87" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="40" t="s">
@@ -8146,7 +8164,7 @@
       <c r="O87" s="16"/>
       <c r="P87" s="16"/>
       <c r="Q87" s="16"/>
-      <c r="R87" s="155"/>
+      <c r="R87" s="80"/>
     </row>
     <row r="88" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="40" t="s">
@@ -8167,7 +8185,7 @@
       <c r="O88" s="16"/>
       <c r="P88" s="16"/>
       <c r="Q88" s="16"/>
-      <c r="R88" s="155"/>
+      <c r="R88" s="80"/>
     </row>
     <row r="89" spans="2:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B89" s="41" t="s">
@@ -8188,414 +8206,945 @@
       <c r="O89" s="33"/>
       <c r="P89" s="33"/>
       <c r="Q89" s="33"/>
-      <c r="R89" s="156"/>
+      <c r="R89" s="81"/>
     </row>
     <row r="91" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B91" s="123" t="s">
+      <c r="B91" s="156" t="s">
         <v>230</v>
       </c>
-      <c r="C91" s="123"/>
-      <c r="D91" s="123">
+      <c r="C91" s="156"/>
+      <c r="D91" s="156">
         <v>7</v>
       </c>
-      <c r="E91" s="123"/>
-      <c r="F91" s="123">
-        <v>6</v>
-      </c>
-      <c r="G91" s="123"/>
-      <c r="H91" s="123">
+      <c r="E91" s="156"/>
+      <c r="F91" s="156">
+        <v>6</v>
+      </c>
+      <c r="G91" s="156"/>
+      <c r="H91" s="156">
         <v>5</v>
       </c>
-      <c r="I91" s="123"/>
-      <c r="J91" s="123">
+      <c r="I91" s="156"/>
+      <c r="J91" s="156">
         <v>4</v>
       </c>
-      <c r="K91" s="123"/>
-      <c r="L91" s="123">
+      <c r="K91" s="156"/>
+      <c r="L91" s="156">
         <v>3</v>
       </c>
-      <c r="M91" s="123"/>
-      <c r="N91" s="123">
+      <c r="M91" s="156"/>
+      <c r="N91" s="156">
         <v>2</v>
       </c>
-      <c r="O91" s="123"/>
-      <c r="P91" s="123">
+      <c r="O91" s="156"/>
+      <c r="P91" s="156">
         <v>1</v>
       </c>
-      <c r="Q91" s="123"/>
-      <c r="R91" s="123">
+      <c r="Q91" s="156"/>
+      <c r="R91" s="156">
         <v>0</v>
       </c>
-      <c r="S91" s="123"/>
+      <c r="S91" s="156"/>
     </row>
     <row r="92" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="140" t="s">
+      <c r="B92" s="143" t="s">
         <v>229</v>
       </c>
-      <c r="C92" s="141"/>
-      <c r="D92" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="E92" s="82"/>
-      <c r="F92" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="G92" s="82"/>
-      <c r="H92" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="I92" s="82"/>
-      <c r="J92" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="K92" s="82"/>
-      <c r="L92" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="M92" s="82"/>
-      <c r="N92" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="O92" s="82"/>
-      <c r="P92" s="124" t="s">
+      <c r="C92" s="144"/>
+      <c r="D92" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" s="87"/>
+      <c r="F92" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="G92" s="87"/>
+      <c r="H92" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="I92" s="87"/>
+      <c r="J92" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="K92" s="87"/>
+      <c r="L92" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="M92" s="87"/>
+      <c r="N92" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="O92" s="87"/>
+      <c r="P92" s="150" t="s">
         <v>231</v>
       </c>
-      <c r="Q92" s="125"/>
-      <c r="R92" s="124" t="s">
+      <c r="Q92" s="151"/>
+      <c r="R92" s="150" t="s">
         <v>232</v>
       </c>
-      <c r="S92" s="125"/>
+      <c r="S92" s="151"/>
     </row>
     <row r="93" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="140"/>
-      <c r="C93" s="141"/>
-      <c r="D93" s="82"/>
-      <c r="E93" s="82"/>
-      <c r="F93" s="82"/>
-      <c r="G93" s="82"/>
-      <c r="H93" s="82"/>
-      <c r="I93" s="82"/>
-      <c r="J93" s="82"/>
-      <c r="K93" s="82"/>
-      <c r="L93" s="82"/>
-      <c r="M93" s="82"/>
-      <c r="N93" s="82"/>
-      <c r="O93" s="82"/>
-      <c r="P93" s="126"/>
-      <c r="Q93" s="127"/>
-      <c r="R93" s="126"/>
-      <c r="S93" s="127"/>
+      <c r="B93" s="143"/>
+      <c r="C93" s="144"/>
+      <c r="D93" s="87"/>
+      <c r="E93" s="87"/>
+      <c r="F93" s="87"/>
+      <c r="G93" s="87"/>
+      <c r="H93" s="87"/>
+      <c r="I93" s="87"/>
+      <c r="J93" s="87"/>
+      <c r="K93" s="87"/>
+      <c r="L93" s="87"/>
+      <c r="M93" s="87"/>
+      <c r="N93" s="87"/>
+      <c r="O93" s="87"/>
+      <c r="P93" s="152"/>
+      <c r="Q93" s="153"/>
+      <c r="R93" s="152"/>
+      <c r="S93" s="153"/>
     </row>
     <row r="94" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="140"/>
-      <c r="C94" s="141"/>
-      <c r="D94" s="82"/>
-      <c r="E94" s="82"/>
-      <c r="F94" s="82"/>
-      <c r="G94" s="82"/>
-      <c r="H94" s="82"/>
-      <c r="I94" s="82"/>
-      <c r="J94" s="82"/>
-      <c r="K94" s="82"/>
-      <c r="L94" s="82"/>
-      <c r="M94" s="82"/>
-      <c r="N94" s="82"/>
-      <c r="O94" s="82"/>
-      <c r="P94" s="126"/>
-      <c r="Q94" s="127"/>
-      <c r="R94" s="126"/>
-      <c r="S94" s="127"/>
+      <c r="B94" s="143"/>
+      <c r="C94" s="144"/>
+      <c r="D94" s="87"/>
+      <c r="E94" s="87"/>
+      <c r="F94" s="87"/>
+      <c r="G94" s="87"/>
+      <c r="H94" s="87"/>
+      <c r="I94" s="87"/>
+      <c r="J94" s="87"/>
+      <c r="K94" s="87"/>
+      <c r="L94" s="87"/>
+      <c r="M94" s="87"/>
+      <c r="N94" s="87"/>
+      <c r="O94" s="87"/>
+      <c r="P94" s="152"/>
+      <c r="Q94" s="153"/>
+      <c r="R94" s="152"/>
+      <c r="S94" s="153"/>
     </row>
     <row r="95" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="142"/>
-      <c r="C95" s="143"/>
-      <c r="D95" s="82"/>
-      <c r="E95" s="82"/>
-      <c r="F95" s="82"/>
-      <c r="G95" s="82"/>
-      <c r="H95" s="82"/>
-      <c r="I95" s="82"/>
-      <c r="J95" s="82"/>
-      <c r="K95" s="82"/>
-      <c r="L95" s="82"/>
-      <c r="M95" s="82"/>
-      <c r="N95" s="82"/>
-      <c r="O95" s="82"/>
-      <c r="P95" s="128"/>
-      <c r="Q95" s="129"/>
-      <c r="R95" s="128"/>
-      <c r="S95" s="129"/>
+      <c r="B95" s="145"/>
+      <c r="C95" s="146"/>
+      <c r="D95" s="87"/>
+      <c r="E95" s="87"/>
+      <c r="F95" s="87"/>
+      <c r="G95" s="87"/>
+      <c r="H95" s="87"/>
+      <c r="I95" s="87"/>
+      <c r="J95" s="87"/>
+      <c r="K95" s="87"/>
+      <c r="L95" s="87"/>
+      <c r="M95" s="87"/>
+      <c r="N95" s="87"/>
+      <c r="O95" s="87"/>
+      <c r="P95" s="154"/>
+      <c r="Q95" s="155"/>
+      <c r="R95" s="154"/>
+      <c r="S95" s="155"/>
     </row>
     <row r="96" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="145" t="s">
+      <c r="B96" s="138" t="s">
         <v>173</v>
       </c>
-      <c r="C96" s="146"/>
-      <c r="D96" s="147" t="s">
+      <c r="C96" s="139"/>
+      <c r="D96" s="140" t="s">
         <v>174</v>
       </c>
-      <c r="E96" s="147"/>
-      <c r="F96" s="147"/>
-      <c r="G96" s="147"/>
-      <c r="H96" s="147"/>
-      <c r="I96" s="147"/>
-      <c r="J96" s="147"/>
-      <c r="K96" s="147"/>
-      <c r="L96" s="147"/>
-      <c r="M96" s="147"/>
-      <c r="N96" s="147"/>
-      <c r="O96" s="147"/>
-      <c r="P96" s="147"/>
-      <c r="Q96" s="147"/>
-      <c r="R96" s="147"/>
-      <c r="S96" s="147"/>
+      <c r="E96" s="140"/>
+      <c r="F96" s="140"/>
+      <c r="G96" s="140"/>
+      <c r="H96" s="140"/>
+      <c r="I96" s="140"/>
+      <c r="J96" s="140"/>
+      <c r="K96" s="140"/>
+      <c r="L96" s="140"/>
+      <c r="M96" s="140"/>
+      <c r="N96" s="140"/>
+      <c r="O96" s="140"/>
+      <c r="P96" s="140"/>
+      <c r="Q96" s="140"/>
+      <c r="R96" s="140"/>
+      <c r="S96" s="140"/>
     </row>
     <row r="97" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="146"/>
-      <c r="C97" s="146"/>
-      <c r="D97" s="147"/>
-      <c r="E97" s="147"/>
-      <c r="F97" s="147"/>
-      <c r="G97" s="147"/>
-      <c r="H97" s="147"/>
-      <c r="I97" s="147"/>
-      <c r="J97" s="147"/>
-      <c r="K97" s="147"/>
-      <c r="L97" s="147"/>
-      <c r="M97" s="147"/>
-      <c r="N97" s="147"/>
-      <c r="O97" s="147"/>
-      <c r="P97" s="147"/>
-      <c r="Q97" s="147"/>
-      <c r="R97" s="147"/>
-      <c r="S97" s="147"/>
+      <c r="B97" s="139"/>
+      <c r="C97" s="139"/>
+      <c r="D97" s="140"/>
+      <c r="E97" s="140"/>
+      <c r="F97" s="140"/>
+      <c r="G97" s="140"/>
+      <c r="H97" s="140"/>
+      <c r="I97" s="140"/>
+      <c r="J97" s="140"/>
+      <c r="K97" s="140"/>
+      <c r="L97" s="140"/>
+      <c r="M97" s="140"/>
+      <c r="N97" s="140"/>
+      <c r="O97" s="140"/>
+      <c r="P97" s="140"/>
+      <c r="Q97" s="140"/>
+      <c r="R97" s="140"/>
+      <c r="S97" s="140"/>
     </row>
     <row r="98" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="146"/>
-      <c r="C98" s="146"/>
-      <c r="D98" s="147"/>
-      <c r="E98" s="147"/>
-      <c r="F98" s="147"/>
-      <c r="G98" s="147"/>
-      <c r="H98" s="147"/>
-      <c r="I98" s="147"/>
-      <c r="J98" s="147"/>
-      <c r="K98" s="147"/>
-      <c r="L98" s="147"/>
-      <c r="M98" s="147"/>
-      <c r="N98" s="147"/>
-      <c r="O98" s="147"/>
-      <c r="P98" s="147"/>
-      <c r="Q98" s="147"/>
-      <c r="R98" s="147"/>
-      <c r="S98" s="147"/>
+      <c r="B98" s="139"/>
+      <c r="C98" s="139"/>
+      <c r="D98" s="140"/>
+      <c r="E98" s="140"/>
+      <c r="F98" s="140"/>
+      <c r="G98" s="140"/>
+      <c r="H98" s="140"/>
+      <c r="I98" s="140"/>
+      <c r="J98" s="140"/>
+      <c r="K98" s="140"/>
+      <c r="L98" s="140"/>
+      <c r="M98" s="140"/>
+      <c r="N98" s="140"/>
+      <c r="O98" s="140"/>
+      <c r="P98" s="140"/>
+      <c r="Q98" s="140"/>
+      <c r="R98" s="140"/>
+      <c r="S98" s="140"/>
     </row>
     <row r="99" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="146"/>
-      <c r="C99" s="146"/>
-      <c r="D99" s="147"/>
-      <c r="E99" s="147"/>
-      <c r="F99" s="147"/>
-      <c r="G99" s="147"/>
-      <c r="H99" s="147"/>
-      <c r="I99" s="147"/>
-      <c r="J99" s="147"/>
-      <c r="K99" s="147"/>
-      <c r="L99" s="147"/>
-      <c r="M99" s="147"/>
-      <c r="N99" s="147"/>
-      <c r="O99" s="147"/>
-      <c r="P99" s="147"/>
-      <c r="Q99" s="147"/>
-      <c r="R99" s="147"/>
-      <c r="S99" s="147"/>
+      <c r="B99" s="139"/>
+      <c r="C99" s="139"/>
+      <c r="D99" s="140"/>
+      <c r="E99" s="140"/>
+      <c r="F99" s="140"/>
+      <c r="G99" s="140"/>
+      <c r="H99" s="140"/>
+      <c r="I99" s="140"/>
+      <c r="J99" s="140"/>
+      <c r="K99" s="140"/>
+      <c r="L99" s="140"/>
+      <c r="M99" s="140"/>
+      <c r="N99" s="140"/>
+      <c r="O99" s="140"/>
+      <c r="P99" s="140"/>
+      <c r="Q99" s="140"/>
+      <c r="R99" s="140"/>
+      <c r="S99" s="140"/>
     </row>
     <row r="100" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="148" t="s">
+      <c r="B100" s="141" t="s">
         <v>175</v>
       </c>
-      <c r="C100" s="149"/>
-      <c r="D100" s="147" t="s">
+      <c r="C100" s="142"/>
+      <c r="D100" s="140" t="s">
         <v>176</v>
       </c>
-      <c r="E100" s="147"/>
-      <c r="F100" s="147"/>
-      <c r="G100" s="147"/>
-      <c r="H100" s="147"/>
-      <c r="I100" s="147"/>
-      <c r="J100" s="147"/>
-      <c r="K100" s="147"/>
-      <c r="L100" s="147"/>
-      <c r="M100" s="147"/>
-      <c r="N100" s="147"/>
-      <c r="O100" s="147"/>
-      <c r="P100" s="147"/>
-      <c r="Q100" s="147"/>
-      <c r="R100" s="147"/>
-      <c r="S100" s="147"/>
+      <c r="E100" s="140"/>
+      <c r="F100" s="140"/>
+      <c r="G100" s="140"/>
+      <c r="H100" s="140"/>
+      <c r="I100" s="140"/>
+      <c r="J100" s="140"/>
+      <c r="K100" s="140"/>
+      <c r="L100" s="140"/>
+      <c r="M100" s="140"/>
+      <c r="N100" s="140"/>
+      <c r="O100" s="140"/>
+      <c r="P100" s="140"/>
+      <c r="Q100" s="140"/>
+      <c r="R100" s="140"/>
+      <c r="S100" s="140"/>
     </row>
     <row r="101" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="149"/>
-      <c r="C101" s="149"/>
-      <c r="D101" s="147"/>
-      <c r="E101" s="147"/>
-      <c r="F101" s="147"/>
-      <c r="G101" s="147"/>
-      <c r="H101" s="147"/>
-      <c r="I101" s="147"/>
-      <c r="J101" s="147"/>
-      <c r="K101" s="147"/>
-      <c r="L101" s="147"/>
-      <c r="M101" s="147"/>
-      <c r="N101" s="147"/>
-      <c r="O101" s="147"/>
-      <c r="P101" s="147"/>
-      <c r="Q101" s="147"/>
-      <c r="R101" s="147"/>
-      <c r="S101" s="147"/>
+      <c r="B101" s="142"/>
+      <c r="C101" s="142"/>
+      <c r="D101" s="140"/>
+      <c r="E101" s="140"/>
+      <c r="F101" s="140"/>
+      <c r="G101" s="140"/>
+      <c r="H101" s="140"/>
+      <c r="I101" s="140"/>
+      <c r="J101" s="140"/>
+      <c r="K101" s="140"/>
+      <c r="L101" s="140"/>
+      <c r="M101" s="140"/>
+      <c r="N101" s="140"/>
+      <c r="O101" s="140"/>
+      <c r="P101" s="140"/>
+      <c r="Q101" s="140"/>
+      <c r="R101" s="140"/>
+      <c r="S101" s="140"/>
     </row>
     <row r="102" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="149"/>
-      <c r="C102" s="149"/>
-      <c r="D102" s="147"/>
-      <c r="E102" s="147"/>
-      <c r="F102" s="147"/>
-      <c r="G102" s="147"/>
-      <c r="H102" s="147"/>
-      <c r="I102" s="147"/>
-      <c r="J102" s="147"/>
-      <c r="K102" s="147"/>
-      <c r="L102" s="147"/>
-      <c r="M102" s="147"/>
-      <c r="N102" s="147"/>
-      <c r="O102" s="147"/>
-      <c r="P102" s="147"/>
-      <c r="Q102" s="147"/>
-      <c r="R102" s="147"/>
-      <c r="S102" s="147"/>
+      <c r="B102" s="142"/>
+      <c r="C102" s="142"/>
+      <c r="D102" s="140"/>
+      <c r="E102" s="140"/>
+      <c r="F102" s="140"/>
+      <c r="G102" s="140"/>
+      <c r="H102" s="140"/>
+      <c r="I102" s="140"/>
+      <c r="J102" s="140"/>
+      <c r="K102" s="140"/>
+      <c r="L102" s="140"/>
+      <c r="M102" s="140"/>
+      <c r="N102" s="140"/>
+      <c r="O102" s="140"/>
+      <c r="P102" s="140"/>
+      <c r="Q102" s="140"/>
+      <c r="R102" s="140"/>
+      <c r="S102" s="140"/>
     </row>
     <row r="103" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="149"/>
-      <c r="C103" s="149"/>
-      <c r="D103" s="147"/>
-      <c r="E103" s="147"/>
-      <c r="F103" s="147"/>
-      <c r="G103" s="147"/>
-      <c r="H103" s="147"/>
-      <c r="I103" s="147"/>
-      <c r="J103" s="147"/>
-      <c r="K103" s="147"/>
-      <c r="L103" s="147"/>
-      <c r="M103" s="147"/>
-      <c r="N103" s="147"/>
-      <c r="O103" s="147"/>
-      <c r="P103" s="147"/>
-      <c r="Q103" s="147"/>
-      <c r="R103" s="147"/>
-      <c r="S103" s="147"/>
+      <c r="B103" s="142"/>
+      <c r="C103" s="142"/>
+      <c r="D103" s="140"/>
+      <c r="E103" s="140"/>
+      <c r="F103" s="140"/>
+      <c r="G103" s="140"/>
+      <c r="H103" s="140"/>
+      <c r="I103" s="140"/>
+      <c r="J103" s="140"/>
+      <c r="K103" s="140"/>
+      <c r="L103" s="140"/>
+      <c r="M103" s="140"/>
+      <c r="N103" s="140"/>
+      <c r="O103" s="140"/>
+      <c r="P103" s="140"/>
+      <c r="Q103" s="140"/>
+      <c r="R103" s="140"/>
+      <c r="S103" s="140"/>
     </row>
     <row r="104" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="145" t="s">
+      <c r="B104" s="138" t="s">
         <v>177</v>
       </c>
-      <c r="C104" s="146"/>
-      <c r="D104" s="147" t="s">
+      <c r="C104" s="139"/>
+      <c r="D104" s="140" t="s">
         <v>178</v>
       </c>
-      <c r="E104" s="147"/>
-      <c r="F104" s="147"/>
-      <c r="G104" s="147"/>
-      <c r="H104" s="147"/>
-      <c r="I104" s="147"/>
-      <c r="J104" s="147"/>
-      <c r="K104" s="147"/>
-      <c r="L104" s="147"/>
-      <c r="M104" s="147"/>
-      <c r="N104" s="147"/>
-      <c r="O104" s="147"/>
-      <c r="P104" s="147"/>
-      <c r="Q104" s="147"/>
-      <c r="R104" s="147"/>
-      <c r="S104" s="147"/>
+      <c r="E104" s="140"/>
+      <c r="F104" s="140"/>
+      <c r="G104" s="140"/>
+      <c r="H104" s="140"/>
+      <c r="I104" s="140"/>
+      <c r="J104" s="140"/>
+      <c r="K104" s="140"/>
+      <c r="L104" s="140"/>
+      <c r="M104" s="140"/>
+      <c r="N104" s="140"/>
+      <c r="O104" s="140"/>
+      <c r="P104" s="140"/>
+      <c r="Q104" s="140"/>
+      <c r="R104" s="140"/>
+      <c r="S104" s="140"/>
     </row>
     <row r="105" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="146"/>
-      <c r="C105" s="146"/>
-      <c r="D105" s="147"/>
-      <c r="E105" s="147"/>
-      <c r="F105" s="147"/>
-      <c r="G105" s="147"/>
-      <c r="H105" s="147"/>
-      <c r="I105" s="147"/>
-      <c r="J105" s="147"/>
-      <c r="K105" s="147"/>
-      <c r="L105" s="147"/>
-      <c r="M105" s="147"/>
-      <c r="N105" s="147"/>
-      <c r="O105" s="147"/>
-      <c r="P105" s="147"/>
-      <c r="Q105" s="147"/>
-      <c r="R105" s="147"/>
-      <c r="S105" s="147"/>
+      <c r="B105" s="139"/>
+      <c r="C105" s="139"/>
+      <c r="D105" s="140"/>
+      <c r="E105" s="140"/>
+      <c r="F105" s="140"/>
+      <c r="G105" s="140"/>
+      <c r="H105" s="140"/>
+      <c r="I105" s="140"/>
+      <c r="J105" s="140"/>
+      <c r="K105" s="140"/>
+      <c r="L105" s="140"/>
+      <c r="M105" s="140"/>
+      <c r="N105" s="140"/>
+      <c r="O105" s="140"/>
+      <c r="P105" s="140"/>
+      <c r="Q105" s="140"/>
+      <c r="R105" s="140"/>
+      <c r="S105" s="140"/>
     </row>
     <row r="106" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="146"/>
-      <c r="C106" s="146"/>
-      <c r="D106" s="147"/>
-      <c r="E106" s="147"/>
-      <c r="F106" s="147"/>
-      <c r="G106" s="147"/>
-      <c r="H106" s="147"/>
-      <c r="I106" s="147"/>
-      <c r="J106" s="147"/>
-      <c r="K106" s="147"/>
-      <c r="L106" s="147"/>
-      <c r="M106" s="147"/>
-      <c r="N106" s="147"/>
-      <c r="O106" s="147"/>
-      <c r="P106" s="147"/>
-      <c r="Q106" s="147"/>
-      <c r="R106" s="147"/>
-      <c r="S106" s="147"/>
+      <c r="B106" s="139"/>
+      <c r="C106" s="139"/>
+      <c r="D106" s="140"/>
+      <c r="E106" s="140"/>
+      <c r="F106" s="140"/>
+      <c r="G106" s="140"/>
+      <c r="H106" s="140"/>
+      <c r="I106" s="140"/>
+      <c r="J106" s="140"/>
+      <c r="K106" s="140"/>
+      <c r="L106" s="140"/>
+      <c r="M106" s="140"/>
+      <c r="N106" s="140"/>
+      <c r="O106" s="140"/>
+      <c r="P106" s="140"/>
+      <c r="Q106" s="140"/>
+      <c r="R106" s="140"/>
+      <c r="S106" s="140"/>
     </row>
     <row r="107" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="146"/>
-      <c r="C107" s="146"/>
-      <c r="D107" s="147"/>
-      <c r="E107" s="147"/>
-      <c r="F107" s="147"/>
-      <c r="G107" s="147"/>
-      <c r="H107" s="147"/>
-      <c r="I107" s="147"/>
-      <c r="J107" s="147"/>
-      <c r="K107" s="147"/>
-      <c r="L107" s="147"/>
-      <c r="M107" s="147"/>
-      <c r="N107" s="147"/>
-      <c r="O107" s="147"/>
-      <c r="P107" s="147"/>
-      <c r="Q107" s="147"/>
-      <c r="R107" s="147"/>
-      <c r="S107" s="147"/>
+      <c r="B107" s="139"/>
+      <c r="C107" s="139"/>
+      <c r="D107" s="140"/>
+      <c r="E107" s="140"/>
+      <c r="F107" s="140"/>
+      <c r="G107" s="140"/>
+      <c r="H107" s="140"/>
+      <c r="I107" s="140"/>
+      <c r="J107" s="140"/>
+      <c r="K107" s="140"/>
+      <c r="L107" s="140"/>
+      <c r="M107" s="140"/>
+      <c r="N107" s="140"/>
+      <c r="O107" s="140"/>
+      <c r="P107" s="140"/>
+      <c r="Q107" s="140"/>
+      <c r="R107" s="140"/>
+      <c r="S107" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="587">
-    <mergeCell ref="Q80:R80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="O81:P81"/>
-    <mergeCell ref="Q81:R81"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="M80:N80"/>
-    <mergeCell ref="O80:P80"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="R91:S91"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="P92:Q95"/>
+    <mergeCell ref="B2:R3"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="R92:S95"/>
+    <mergeCell ref="F92:G95"/>
+    <mergeCell ref="L92:M95"/>
+    <mergeCell ref="J92:K95"/>
+    <mergeCell ref="H92:I95"/>
+    <mergeCell ref="N92:O95"/>
+    <mergeCell ref="D92:E95"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="B92:C95"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="B104:C107"/>
+    <mergeCell ref="D104:S107"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="B96:C99"/>
+    <mergeCell ref="D96:S99"/>
+    <mergeCell ref="B100:C103"/>
+    <mergeCell ref="D100:S103"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="O61:P61"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="O67:P67"/>
+    <mergeCell ref="Q67:R67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="O68:P68"/>
+    <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="O69:P69"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="O70:P70"/>
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="Q72:R72"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="O74:P74"/>
+    <mergeCell ref="Q74:R74"/>
+    <mergeCell ref="Q78:R78"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="O75:P75"/>
+    <mergeCell ref="Q75:R75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="M76:N76"/>
+    <mergeCell ref="O76:P76"/>
+    <mergeCell ref="Q76:R76"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="E79:F79"/>
     <mergeCell ref="G79:H79"/>
@@ -8620,553 +9169,22 @@
     <mergeCell ref="K78:L78"/>
     <mergeCell ref="M78:N78"/>
     <mergeCell ref="O78:P78"/>
-    <mergeCell ref="Q78:R78"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="O75:P75"/>
-    <mergeCell ref="Q75:R75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="M76:N76"/>
-    <mergeCell ref="O76:P76"/>
-    <mergeCell ref="Q76:R76"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="Q72:R72"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="O74:P74"/>
-    <mergeCell ref="Q74:R74"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="M70:N70"/>
-    <mergeCell ref="O70:P70"/>
-    <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="O71:P71"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="O68:P68"/>
-    <mergeCell ref="Q68:R68"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="O69:P69"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="O67:P67"/>
-    <mergeCell ref="Q67:R67"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="O63:P63"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="O61:P61"/>
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="B104:C107"/>
-    <mergeCell ref="D104:S107"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="B96:C99"/>
-    <mergeCell ref="D96:S99"/>
-    <mergeCell ref="B100:C103"/>
-    <mergeCell ref="D100:S103"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="B92:C95"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="P92:Q95"/>
-    <mergeCell ref="B2:R3"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="R92:S95"/>
-    <mergeCell ref="F92:G95"/>
-    <mergeCell ref="L92:M95"/>
-    <mergeCell ref="J92:K95"/>
-    <mergeCell ref="H92:I95"/>
-    <mergeCell ref="N92:O95"/>
-    <mergeCell ref="D92:E95"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="L91:M91"/>
-    <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="R91:S91"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="Q80:R80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="O81:P81"/>
+    <mergeCell ref="Q81:R81"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="O80:P80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Memory map.xlsx
+++ b/Memory map.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="3"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="250">
   <si>
     <t>A</t>
   </si>
@@ -833,12 +833,6 @@
 0`b - против часовой стрелки
 1`b - по часовой стрелки</t>
     </r>
-  </si>
-  <si>
-    <t>Min physic angle (x10)</t>
-  </si>
-  <si>
-    <t>Max physic angle (x10)</t>
   </si>
   <si>
     <t>Servo 1
@@ -1093,7 +1087,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1630,24 +1624,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1882,6 +1863,51 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1891,57 +1917,63 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1951,56 +1983,50 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2011,6 +2037,42 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2026,96 +2088,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2134,9 +2109,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2174,7 +2149,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2246,7 +2221,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2434,44 +2409,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2529,12 +2504,12 @@
       <c r="B6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
       <c r="G6" s="29" t="s">
         <v>107</v>
       </c>
@@ -2940,409 +2915,415 @@
       <c r="R21" s="12"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="85" t="s">
+      <c r="B25" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="86"/>
-      <c r="D25" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" s="87"/>
-      <c r="J25" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="K25" s="87"/>
-      <c r="L25" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="M25" s="87"/>
-      <c r="N25" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="O25" s="87"/>
-      <c r="P25" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q25" s="87"/>
-      <c r="R25" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="S25" s="87"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="84"/>
+      <c r="L25" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="M25" s="84"/>
+      <c r="N25" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="O25" s="84"/>
+      <c r="P25" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q25" s="84"/>
+      <c r="R25" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="S25" s="84"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="87"/>
-      <c r="O26" s="87"/>
-      <c r="P26" s="87"/>
-      <c r="Q26" s="87"/>
-      <c r="R26" s="87"/>
-      <c r="S26" s="87"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="84"/>
+      <c r="M26" s="84"/>
+      <c r="N26" s="84"/>
+      <c r="O26" s="84"/>
+      <c r="P26" s="84"/>
+      <c r="Q26" s="84"/>
+      <c r="R26" s="84"/>
+      <c r="S26" s="84"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="87"/>
-      <c r="O27" s="87"/>
-      <c r="P27" s="87"/>
-      <c r="Q27" s="87"/>
-      <c r="R27" s="87"/>
-      <c r="S27" s="87"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="84"/>
+      <c r="N27" s="84"/>
+      <c r="O27" s="84"/>
+      <c r="P27" s="84"/>
+      <c r="Q27" s="84"/>
+      <c r="R27" s="84"/>
+      <c r="S27" s="84"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="87"/>
-      <c r="K28" s="87"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="87"/>
-      <c r="N28" s="87"/>
-      <c r="O28" s="87"/>
-      <c r="P28" s="87"/>
-      <c r="Q28" s="87"/>
-      <c r="R28" s="87"/>
-      <c r="S28" s="87"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="84"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="84"/>
+      <c r="P28" s="84"/>
+      <c r="Q28" s="84"/>
+      <c r="R28" s="84"/>
+      <c r="S28" s="84"/>
     </row>
     <row r="29" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="85" t="s">
+      <c r="B29" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="86"/>
-      <c r="D29" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="88" t="s">
+      <c r="C29" s="83"/>
+      <c r="D29" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="84"/>
+      <c r="F29" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="G29" s="89"/>
-      <c r="H29" s="88" t="s">
+      <c r="G29" s="88"/>
+      <c r="H29" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="I29" s="89"/>
-      <c r="J29" s="88" t="s">
+      <c r="I29" s="88"/>
+      <c r="J29" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="K29" s="89"/>
-      <c r="L29" s="88" t="s">
+      <c r="K29" s="88"/>
+      <c r="L29" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="M29" s="89"/>
-      <c r="N29" s="88" t="s">
+      <c r="M29" s="88"/>
+      <c r="N29" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="O29" s="89"/>
-      <c r="P29" s="88" t="s">
+      <c r="O29" s="88"/>
+      <c r="P29" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="Q29" s="89"/>
-      <c r="R29" s="88" t="s">
+      <c r="Q29" s="88"/>
+      <c r="R29" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="S29" s="89"/>
+      <c r="S29" s="88"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="86"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="90"/>
-      <c r="M30" s="91"/>
-      <c r="N30" s="90"/>
-      <c r="O30" s="91"/>
-      <c r="P30" s="90"/>
-      <c r="Q30" s="91"/>
-      <c r="R30" s="90"/>
-      <c r="S30" s="91"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="90"/>
+      <c r="N30" s="89"/>
+      <c r="O30" s="90"/>
+      <c r="P30" s="89"/>
+      <c r="Q30" s="90"/>
+      <c r="R30" s="89"/>
+      <c r="S30" s="90"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="90"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="90"/>
-      <c r="M31" s="91"/>
-      <c r="N31" s="90"/>
-      <c r="O31" s="91"/>
-      <c r="P31" s="90"/>
-      <c r="Q31" s="91"/>
-      <c r="R31" s="90"/>
-      <c r="S31" s="91"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="89"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="90"/>
+      <c r="N31" s="89"/>
+      <c r="O31" s="90"/>
+      <c r="P31" s="89"/>
+      <c r="Q31" s="90"/>
+      <c r="R31" s="89"/>
+      <c r="S31" s="90"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="93"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="92"/>
-      <c r="K32" s="93"/>
-      <c r="L32" s="92"/>
-      <c r="M32" s="93"/>
-      <c r="N32" s="92"/>
-      <c r="O32" s="93"/>
-      <c r="P32" s="92"/>
-      <c r="Q32" s="93"/>
-      <c r="R32" s="92"/>
-      <c r="S32" s="93"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="91"/>
+      <c r="K32" s="92"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="91"/>
+      <c r="O32" s="92"/>
+      <c r="P32" s="91"/>
+      <c r="Q32" s="92"/>
+      <c r="R32" s="91"/>
+      <c r="S32" s="92"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B33" s="85" t="s">
+      <c r="B33" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="86"/>
-      <c r="D33" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="87"/>
-      <c r="F33" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="87"/>
-      <c r="H33" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="I33" s="87"/>
-      <c r="J33" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="K33" s="87"/>
-      <c r="L33" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="M33" s="87"/>
-      <c r="N33" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="O33" s="87"/>
-      <c r="P33" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q33" s="87"/>
-      <c r="R33" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="S33" s="87"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="84"/>
+      <c r="J33" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" s="84"/>
+      <c r="L33" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="M33" s="84"/>
+      <c r="N33" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="O33" s="84"/>
+      <c r="P33" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q33" s="84"/>
+      <c r="R33" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="S33" s="84"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B34" s="86"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="87"/>
-      <c r="M34" s="87"/>
-      <c r="N34" s="87"/>
-      <c r="O34" s="87"/>
-      <c r="P34" s="87"/>
-      <c r="Q34" s="87"/>
-      <c r="R34" s="87"/>
-      <c r="S34" s="87"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="84"/>
+      <c r="N34" s="84"/>
+      <c r="O34" s="84"/>
+      <c r="P34" s="84"/>
+      <c r="Q34" s="84"/>
+      <c r="R34" s="84"/>
+      <c r="S34" s="84"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B35" s="86"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="87"/>
-      <c r="J35" s="87"/>
-      <c r="K35" s="87"/>
-      <c r="L35" s="87"/>
-      <c r="M35" s="87"/>
-      <c r="N35" s="87"/>
-      <c r="O35" s="87"/>
-      <c r="P35" s="87"/>
-      <c r="Q35" s="87"/>
-      <c r="R35" s="87"/>
-      <c r="S35" s="87"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="84"/>
+      <c r="K35" s="84"/>
+      <c r="L35" s="84"/>
+      <c r="M35" s="84"/>
+      <c r="N35" s="84"/>
+      <c r="O35" s="84"/>
+      <c r="P35" s="84"/>
+      <c r="Q35" s="84"/>
+      <c r="R35" s="84"/>
+      <c r="S35" s="84"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B36" s="86"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
-      <c r="J36" s="87"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="87"/>
-      <c r="M36" s="87"/>
-      <c r="N36" s="87"/>
-      <c r="O36" s="87"/>
-      <c r="P36" s="87"/>
-      <c r="Q36" s="87"/>
-      <c r="R36" s="87"/>
-      <c r="S36" s="87"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="84"/>
+      <c r="L36" s="84"/>
+      <c r="M36" s="84"/>
+      <c r="N36" s="84"/>
+      <c r="O36" s="84"/>
+      <c r="P36" s="84"/>
+      <c r="Q36" s="84"/>
+      <c r="R36" s="84"/>
+      <c r="S36" s="84"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B37" s="85" t="s">
+      <c r="B37" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="86"/>
-      <c r="D37" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="87"/>
-      <c r="F37" s="98" t="s">
+      <c r="C37" s="83"/>
+      <c r="D37" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="84"/>
+      <c r="F37" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="G37" s="99"/>
-      <c r="H37" s="98" t="s">
+      <c r="G37" s="86"/>
+      <c r="H37" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="I37" s="99"/>
-      <c r="J37" s="98" t="s">
+      <c r="I37" s="86"/>
+      <c r="J37" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="K37" s="99"/>
-      <c r="L37" s="94" t="s">
+      <c r="K37" s="86"/>
+      <c r="L37" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="M37" s="95"/>
-      <c r="N37" s="94" t="s">
+      <c r="M37" s="94"/>
+      <c r="N37" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="O37" s="95"/>
-      <c r="P37" s="94" t="s">
+      <c r="O37" s="94"/>
+      <c r="P37" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="Q37" s="95"/>
-      <c r="R37" s="96" t="s">
+      <c r="Q37" s="94"/>
+      <c r="R37" s="95" t="s">
         <v>110</v>
       </c>
-      <c r="S37" s="97"/>
+      <c r="S37" s="96"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B38" s="86"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="87"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="99"/>
-      <c r="H38" s="99"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="99"/>
-      <c r="K38" s="99"/>
-      <c r="L38" s="95"/>
-      <c r="M38" s="95"/>
-      <c r="N38" s="95"/>
-      <c r="O38" s="95"/>
-      <c r="P38" s="95"/>
-      <c r="Q38" s="95"/>
-      <c r="R38" s="97"/>
-      <c r="S38" s="97"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
+      <c r="J38" s="86"/>
+      <c r="K38" s="86"/>
+      <c r="L38" s="94"/>
+      <c r="M38" s="94"/>
+      <c r="N38" s="94"/>
+      <c r="O38" s="94"/>
+      <c r="P38" s="94"/>
+      <c r="Q38" s="94"/>
+      <c r="R38" s="96"/>
+      <c r="S38" s="96"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B39" s="86"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="99"/>
-      <c r="I39" s="99"/>
-      <c r="J39" s="99"/>
-      <c r="K39" s="99"/>
-      <c r="L39" s="95"/>
-      <c r="M39" s="95"/>
-      <c r="N39" s="95"/>
-      <c r="O39" s="95"/>
-      <c r="P39" s="95"/>
-      <c r="Q39" s="95"/>
-      <c r="R39" s="97"/>
-      <c r="S39" s="97"/>
+      <c r="B39" s="83"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
+      <c r="J39" s="86"/>
+      <c r="K39" s="86"/>
+      <c r="L39" s="94"/>
+      <c r="M39" s="94"/>
+      <c r="N39" s="94"/>
+      <c r="O39" s="94"/>
+      <c r="P39" s="94"/>
+      <c r="Q39" s="94"/>
+      <c r="R39" s="96"/>
+      <c r="S39" s="96"/>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B40" s="86"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="87"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="99"/>
-      <c r="K40" s="99"/>
-      <c r="L40" s="95"/>
-      <c r="M40" s="95"/>
-      <c r="N40" s="95"/>
-      <c r="O40" s="95"/>
-      <c r="P40" s="95"/>
-      <c r="Q40" s="95"/>
-      <c r="R40" s="97"/>
-      <c r="S40" s="97"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="86"/>
+      <c r="L40" s="94"/>
+      <c r="M40" s="94"/>
+      <c r="N40" s="94"/>
+      <c r="O40" s="94"/>
+      <c r="P40" s="94"/>
+      <c r="Q40" s="94"/>
+      <c r="R40" s="96"/>
+      <c r="S40" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B37:C40"/>
-    <mergeCell ref="D37:E40"/>
-    <mergeCell ref="F37:G40"/>
-    <mergeCell ref="H37:I40"/>
-    <mergeCell ref="J37:K40"/>
-    <mergeCell ref="B33:C36"/>
-    <mergeCell ref="D33:E36"/>
-    <mergeCell ref="F33:G36"/>
-    <mergeCell ref="H33:I36"/>
-    <mergeCell ref="J33:K36"/>
+    <mergeCell ref="B2:R3"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="B25:C28"/>
+    <mergeCell ref="D25:E28"/>
+    <mergeCell ref="F25:G28"/>
+    <mergeCell ref="H25:I28"/>
+    <mergeCell ref="J25:K28"/>
+    <mergeCell ref="L25:M28"/>
+    <mergeCell ref="N25:O28"/>
+    <mergeCell ref="P25:Q28"/>
+    <mergeCell ref="R25:S28"/>
+    <mergeCell ref="B29:C32"/>
+    <mergeCell ref="D29:E32"/>
+    <mergeCell ref="F29:G32"/>
+    <mergeCell ref="H29:I32"/>
+    <mergeCell ref="J29:K32"/>
     <mergeCell ref="L29:M32"/>
     <mergeCell ref="N29:O32"/>
     <mergeCell ref="P29:Q32"/>
@@ -3355,22 +3336,16 @@
     <mergeCell ref="N33:O36"/>
     <mergeCell ref="P33:Q36"/>
     <mergeCell ref="R33:S36"/>
-    <mergeCell ref="B29:C32"/>
-    <mergeCell ref="D29:E32"/>
-    <mergeCell ref="F29:G32"/>
-    <mergeCell ref="H29:I32"/>
-    <mergeCell ref="J29:K32"/>
-    <mergeCell ref="B2:R3"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="B25:C28"/>
-    <mergeCell ref="D25:E28"/>
-    <mergeCell ref="F25:G28"/>
-    <mergeCell ref="H25:I28"/>
-    <mergeCell ref="J25:K28"/>
-    <mergeCell ref="L25:M28"/>
-    <mergeCell ref="N25:O28"/>
-    <mergeCell ref="P25:Q28"/>
-    <mergeCell ref="R25:S28"/>
+    <mergeCell ref="B33:C36"/>
+    <mergeCell ref="D33:E36"/>
+    <mergeCell ref="F33:G36"/>
+    <mergeCell ref="H33:I36"/>
+    <mergeCell ref="J33:K36"/>
+    <mergeCell ref="B37:C40"/>
+    <mergeCell ref="D37:E40"/>
+    <mergeCell ref="F37:G40"/>
+    <mergeCell ref="H37:I40"/>
+    <mergeCell ref="J37:K40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3393,44 +3368,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3845,44 +3820,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3940,30 +3915,30 @@
       <c r="B6" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="119" t="s">
+      <c r="C6" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120" t="s">
+      <c r="D6" s="117"/>
+      <c r="E6" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120" t="s">
+      <c r="F6" s="117"/>
+      <c r="G6" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120" t="s">
+      <c r="H6" s="117"/>
+      <c r="I6" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="120"/>
-      <c r="K6" s="121" t="s">
+      <c r="J6" s="117"/>
+      <c r="K6" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="121"/>
-      <c r="M6" s="121" t="s">
+      <c r="L6" s="118"/>
+      <c r="M6" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="121"/>
+      <c r="N6" s="118"/>
       <c r="O6" s="54" t="s">
         <v>6</v>
       </c>
@@ -3999,18 +3974,18 @@
       <c r="H7" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="101" t="s">
+      <c r="I7" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101" t="s">
+      <c r="J7" s="115"/>
+      <c r="K7" s="115" t="s">
         <v>126</v>
       </c>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101" t="s">
+      <c r="L7" s="115"/>
+      <c r="M7" s="115" t="s">
         <v>124</v>
       </c>
-      <c r="N7" s="101"/>
+      <c r="N7" s="115"/>
       <c r="O7" s="56" t="s">
         <v>6</v>
       </c>
@@ -4028,30 +4003,30 @@
       <c r="B8" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="117" t="s">
+      <c r="C8" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100" t="s">
+      <c r="D8" s="101"/>
+      <c r="E8" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100" t="s">
+      <c r="F8" s="101"/>
+      <c r="G8" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100" t="s">
+      <c r="H8" s="101"/>
+      <c r="I8" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="100"/>
-      <c r="K8" s="116" t="s">
+      <c r="J8" s="101"/>
+      <c r="K8" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116" t="s">
+      <c r="L8" s="113"/>
+      <c r="M8" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="116"/>
+      <c r="N8" s="113"/>
       <c r="O8" s="58" t="s">
         <v>6</v>
       </c>
@@ -4087,18 +4062,18 @@
       <c r="H9" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="100" t="s">
+      <c r="I9" s="101" t="s">
         <v>125</v>
       </c>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100" t="s">
+      <c r="J9" s="101"/>
+      <c r="K9" s="101" t="s">
         <v>126</v>
       </c>
-      <c r="L9" s="100"/>
-      <c r="M9" s="100" t="s">
+      <c r="L9" s="101"/>
+      <c r="M9" s="101" t="s">
         <v>124</v>
       </c>
-      <c r="N9" s="100"/>
+      <c r="N9" s="101"/>
       <c r="O9" s="58" t="s">
         <v>6</v>
       </c>
@@ -4116,30 +4091,30 @@
       <c r="B10" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="118" t="s">
+      <c r="C10" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101" t="s">
+      <c r="D10" s="115"/>
+      <c r="E10" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101" t="s">
+      <c r="F10" s="115"/>
+      <c r="G10" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101" t="s">
+      <c r="H10" s="115"/>
+      <c r="I10" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="101"/>
-      <c r="K10" s="102" t="s">
+      <c r="J10" s="115"/>
+      <c r="K10" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102" t="s">
+      <c r="L10" s="119"/>
+      <c r="M10" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="N10" s="102"/>
+      <c r="N10" s="119"/>
       <c r="O10" s="60" t="s">
         <v>6</v>
       </c>
@@ -4175,18 +4150,18 @@
       <c r="H11" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="101" t="s">
+      <c r="I11" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101" t="s">
+      <c r="J11" s="115"/>
+      <c r="K11" s="115" t="s">
         <v>126</v>
       </c>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101" t="s">
+      <c r="L11" s="115"/>
+      <c r="M11" s="115" t="s">
         <v>124</v>
       </c>
-      <c r="N11" s="101"/>
+      <c r="N11" s="115"/>
       <c r="O11" s="56" t="s">
         <v>6</v>
       </c>
@@ -4204,30 +4179,30 @@
       <c r="B12" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="117" t="s">
+      <c r="C12" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100" t="s">
+      <c r="D12" s="101"/>
+      <c r="E12" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100" t="s">
+      <c r="F12" s="101"/>
+      <c r="G12" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100" t="s">
+      <c r="H12" s="101"/>
+      <c r="I12" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="100"/>
-      <c r="K12" s="116" t="s">
+      <c r="J12" s="101"/>
+      <c r="K12" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="116"/>
-      <c r="M12" s="116" t="s">
+      <c r="L12" s="113"/>
+      <c r="M12" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="N12" s="116"/>
+      <c r="N12" s="113"/>
       <c r="O12" s="58" t="s">
         <v>6</v>
       </c>
@@ -4263,18 +4238,18 @@
       <c r="H13" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="100" t="s">
+      <c r="I13" s="101" t="s">
         <v>125</v>
       </c>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100" t="s">
+      <c r="J13" s="101"/>
+      <c r="K13" s="101" t="s">
         <v>126</v>
       </c>
-      <c r="L13" s="100"/>
-      <c r="M13" s="100" t="s">
+      <c r="L13" s="101"/>
+      <c r="M13" s="101" t="s">
         <v>124</v>
       </c>
-      <c r="N13" s="100"/>
+      <c r="N13" s="101"/>
       <c r="O13" s="58" t="s">
         <v>6</v>
       </c>
@@ -4292,30 +4267,30 @@
       <c r="B14" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="118" t="s">
+      <c r="C14" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101" t="s">
+      <c r="D14" s="115"/>
+      <c r="E14" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101" t="s">
+      <c r="F14" s="115"/>
+      <c r="G14" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101" t="s">
+      <c r="H14" s="115"/>
+      <c r="I14" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="101"/>
-      <c r="K14" s="102" t="s">
+      <c r="J14" s="115"/>
+      <c r="K14" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="102"/>
-      <c r="M14" s="102" t="s">
+      <c r="L14" s="119"/>
+      <c r="M14" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="N14" s="102"/>
+      <c r="N14" s="119"/>
       <c r="O14" s="60" t="s">
         <v>6</v>
       </c>
@@ -4351,18 +4326,18 @@
       <c r="H15" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="101" t="s">
+      <c r="I15" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101" t="s">
+      <c r="J15" s="115"/>
+      <c r="K15" s="115" t="s">
         <v>126</v>
       </c>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101" t="s">
+      <c r="L15" s="115"/>
+      <c r="M15" s="115" t="s">
         <v>124</v>
       </c>
-      <c r="N15" s="101"/>
+      <c r="N15" s="115"/>
       <c r="O15" s="56" t="s">
         <v>6</v>
       </c>
@@ -4380,30 +4355,30 @@
       <c r="B16" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="117" t="s">
+      <c r="C16" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100" t="s">
+      <c r="D16" s="101"/>
+      <c r="E16" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100" t="s">
+      <c r="F16" s="101"/>
+      <c r="G16" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100" t="s">
+      <c r="H16" s="101"/>
+      <c r="I16" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="100"/>
-      <c r="K16" s="116" t="s">
+      <c r="J16" s="101"/>
+      <c r="K16" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="116"/>
-      <c r="M16" s="116" t="s">
+      <c r="L16" s="113"/>
+      <c r="M16" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="N16" s="116"/>
+      <c r="N16" s="113"/>
       <c r="O16" s="58" t="s">
         <v>6</v>
       </c>
@@ -4439,18 +4414,18 @@
       <c r="H17" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="100" t="s">
+      <c r="I17" s="101" t="s">
         <v>125</v>
       </c>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100" t="s">
+      <c r="J17" s="101"/>
+      <c r="K17" s="101" t="s">
         <v>126</v>
       </c>
-      <c r="L17" s="100"/>
-      <c r="M17" s="100" t="s">
+      <c r="L17" s="101"/>
+      <c r="M17" s="101" t="s">
         <v>124</v>
       </c>
-      <c r="N17" s="100"/>
+      <c r="N17" s="101"/>
       <c r="O17" s="58" t="s">
         <v>6</v>
       </c>
@@ -4549,487 +4524,550 @@
       <c r="R21" s="49"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="105" t="s">
+      <c r="C25" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="108"/>
-      <c r="M25" s="109"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="103"/>
+      <c r="K25" s="104"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="106"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="104"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="110"/>
-      <c r="L26" s="111"/>
-      <c r="M26" s="112"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="103"/>
+      <c r="K26" s="107"/>
+      <c r="L26" s="108"/>
+      <c r="M26" s="109"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="104"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="110"/>
-      <c r="L27" s="111"/>
-      <c r="M27" s="112"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="107"/>
+      <c r="L27" s="108"/>
+      <c r="M27" s="109"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="104"/>
-      <c r="C28" s="106"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="106"/>
-      <c r="K28" s="113"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="115"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="103"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="111"/>
+      <c r="M28" s="112"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="103" t="s">
+      <c r="B29" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="105" t="s">
+      <c r="C29" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="107"/>
-      <c r="L29" s="108"/>
-      <c r="M29" s="109"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="104"/>
+      <c r="L29" s="105"/>
+      <c r="M29" s="106"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="104"/>
-      <c r="C30" s="106"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="110"/>
-      <c r="L30" s="111"/>
-      <c r="M30" s="112"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="107"/>
+      <c r="L30" s="108"/>
+      <c r="M30" s="109"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="104"/>
-      <c r="C31" s="106"/>
-      <c r="D31" s="106"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="106"/>
-      <c r="J31" s="106"/>
-      <c r="K31" s="110"/>
-      <c r="L31" s="111"/>
-      <c r="M31" s="112"/>
+      <c r="B31" s="121"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="107"/>
+      <c r="L31" s="108"/>
+      <c r="M31" s="109"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="104"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="113"/>
-      <c r="L32" s="114"/>
-      <c r="M32" s="115"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="110"/>
+      <c r="L32" s="111"/>
+      <c r="M32" s="112"/>
     </row>
     <row r="33" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="103" t="s">
+      <c r="B33" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="105" t="s">
+      <c r="C33" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="106"/>
-      <c r="E33" s="106"/>
-      <c r="F33" s="106"/>
-      <c r="G33" s="106"/>
-      <c r="H33" s="106"/>
-      <c r="I33" s="106"/>
-      <c r="J33" s="106"/>
-      <c r="K33" s="107"/>
-      <c r="L33" s="108"/>
-      <c r="M33" s="109"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="104"/>
+      <c r="L33" s="105"/>
+      <c r="M33" s="106"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="104"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="106"/>
-      <c r="F34" s="106"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106"/>
-      <c r="K34" s="110"/>
-      <c r="L34" s="111"/>
-      <c r="M34" s="112"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="103"/>
+      <c r="K34" s="107"/>
+      <c r="L34" s="108"/>
+      <c r="M34" s="109"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="104"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="106"/>
-      <c r="E35" s="106"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="106"/>
-      <c r="H35" s="106"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="106"/>
-      <c r="K35" s="110"/>
-      <c r="L35" s="111"/>
-      <c r="M35" s="112"/>
+      <c r="B35" s="121"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="103"/>
+      <c r="K35" s="107"/>
+      <c r="L35" s="108"/>
+      <c r="M35" s="109"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="104"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="106"/>
-      <c r="E36" s="106"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="106"/>
-      <c r="H36" s="106"/>
-      <c r="I36" s="106"/>
-      <c r="J36" s="106"/>
-      <c r="K36" s="113"/>
-      <c r="L36" s="114"/>
-      <c r="M36" s="115"/>
+      <c r="B36" s="121"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="103"/>
+      <c r="K36" s="110"/>
+      <c r="L36" s="111"/>
+      <c r="M36" s="112"/>
     </row>
     <row r="37" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="103" t="s">
+      <c r="B37" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="105" t="s">
+      <c r="C37" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="106"/>
-      <c r="E37" s="106"/>
-      <c r="F37" s="106"/>
-      <c r="G37" s="106"/>
-      <c r="H37" s="106"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="106"/>
-      <c r="K37" s="107"/>
-      <c r="L37" s="108"/>
-      <c r="M37" s="109"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="103"/>
+      <c r="H37" s="103"/>
+      <c r="I37" s="103"/>
+      <c r="J37" s="103"/>
+      <c r="K37" s="104"/>
+      <c r="L37" s="105"/>
+      <c r="M37" s="106"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="104"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="106"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="106"/>
-      <c r="G38" s="106"/>
-      <c r="H38" s="106"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="106"/>
-      <c r="K38" s="110"/>
-      <c r="L38" s="111"/>
-      <c r="M38" s="112"/>
+      <c r="B38" s="121"/>
+      <c r="C38" s="103"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="103"/>
+      <c r="H38" s="103"/>
+      <c r="I38" s="103"/>
+      <c r="J38" s="103"/>
+      <c r="K38" s="107"/>
+      <c r="L38" s="108"/>
+      <c r="M38" s="109"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="104"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="106"/>
-      <c r="E39" s="106"/>
-      <c r="F39" s="106"/>
-      <c r="G39" s="106"/>
-      <c r="H39" s="106"/>
-      <c r="I39" s="106"/>
-      <c r="J39" s="106"/>
-      <c r="K39" s="110"/>
-      <c r="L39" s="111"/>
-      <c r="M39" s="112"/>
+      <c r="B39" s="121"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="103"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="103"/>
+      <c r="J39" s="103"/>
+      <c r="K39" s="107"/>
+      <c r="L39" s="108"/>
+      <c r="M39" s="109"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="104"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="106"/>
-      <c r="F40" s="106"/>
-      <c r="G40" s="106"/>
-      <c r="H40" s="106"/>
-      <c r="I40" s="106"/>
-      <c r="J40" s="106"/>
-      <c r="K40" s="113"/>
-      <c r="L40" s="114"/>
-      <c r="M40" s="115"/>
+      <c r="B40" s="121"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="103"/>
+      <c r="K40" s="110"/>
+      <c r="L40" s="111"/>
+      <c r="M40" s="112"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="103" t="s">
+      <c r="B41" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="105" t="s">
+      <c r="C41" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="106"/>
-      <c r="E41" s="106"/>
-      <c r="F41" s="106"/>
-      <c r="G41" s="106"/>
-      <c r="H41" s="106"/>
-      <c r="I41" s="106"/>
-      <c r="J41" s="106"/>
-      <c r="K41" s="107"/>
-      <c r="L41" s="108"/>
-      <c r="M41" s="109"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="103"/>
+      <c r="K41" s="104"/>
+      <c r="L41" s="105"/>
+      <c r="M41" s="106"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="104"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="106"/>
-      <c r="E42" s="106"/>
-      <c r="F42" s="106"/>
-      <c r="G42" s="106"/>
-      <c r="H42" s="106"/>
-      <c r="I42" s="106"/>
-      <c r="J42" s="106"/>
-      <c r="K42" s="110"/>
-      <c r="L42" s="111"/>
-      <c r="M42" s="112"/>
+      <c r="B42" s="121"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="103"/>
+      <c r="H42" s="103"/>
+      <c r="I42" s="103"/>
+      <c r="J42" s="103"/>
+      <c r="K42" s="107"/>
+      <c r="L42" s="108"/>
+      <c r="M42" s="109"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="104"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="106"/>
-      <c r="E43" s="106"/>
-      <c r="F43" s="106"/>
-      <c r="G43" s="106"/>
-      <c r="H43" s="106"/>
-      <c r="I43" s="106"/>
-      <c r="J43" s="106"/>
-      <c r="K43" s="110"/>
-      <c r="L43" s="111"/>
-      <c r="M43" s="112"/>
+      <c r="B43" s="121"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="103"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="103"/>
+      <c r="H43" s="103"/>
+      <c r="I43" s="103"/>
+      <c r="J43" s="103"/>
+      <c r="K43" s="107"/>
+      <c r="L43" s="108"/>
+      <c r="M43" s="109"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="104"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="106"/>
-      <c r="E44" s="106"/>
-      <c r="F44" s="106"/>
-      <c r="G44" s="106"/>
-      <c r="H44" s="106"/>
-      <c r="I44" s="106"/>
-      <c r="J44" s="106"/>
-      <c r="K44" s="113"/>
-      <c r="L44" s="114"/>
-      <c r="M44" s="115"/>
+      <c r="B44" s="121"/>
+      <c r="C44" s="103"/>
+      <c r="D44" s="103"/>
+      <c r="E44" s="103"/>
+      <c r="F44" s="103"/>
+      <c r="G44" s="103"/>
+      <c r="H44" s="103"/>
+      <c r="I44" s="103"/>
+      <c r="J44" s="103"/>
+      <c r="K44" s="110"/>
+      <c r="L44" s="111"/>
+      <c r="M44" s="112"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="103" t="s">
+      <c r="B45" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="105" t="s">
+      <c r="C45" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="106"/>
-      <c r="E45" s="106"/>
-      <c r="F45" s="106"/>
-      <c r="G45" s="106"/>
-      <c r="H45" s="106"/>
-      <c r="I45" s="106"/>
-      <c r="J45" s="106"/>
-      <c r="K45" s="107"/>
-      <c r="L45" s="108"/>
-      <c r="M45" s="109"/>
+      <c r="D45" s="103"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="103"/>
+      <c r="G45" s="103"/>
+      <c r="H45" s="103"/>
+      <c r="I45" s="103"/>
+      <c r="J45" s="103"/>
+      <c r="K45" s="104"/>
+      <c r="L45" s="105"/>
+      <c r="M45" s="106"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="104"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="106"/>
-      <c r="E46" s="106"/>
-      <c r="F46" s="106"/>
-      <c r="G46" s="106"/>
-      <c r="H46" s="106"/>
-      <c r="I46" s="106"/>
-      <c r="J46" s="106"/>
-      <c r="K46" s="110"/>
-      <c r="L46" s="111"/>
-      <c r="M46" s="112"/>
+      <c r="B46" s="121"/>
+      <c r="C46" s="103"/>
+      <c r="D46" s="103"/>
+      <c r="E46" s="103"/>
+      <c r="F46" s="103"/>
+      <c r="G46" s="103"/>
+      <c r="H46" s="103"/>
+      <c r="I46" s="103"/>
+      <c r="J46" s="103"/>
+      <c r="K46" s="107"/>
+      <c r="L46" s="108"/>
+      <c r="M46" s="109"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="104"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="106"/>
-      <c r="E47" s="106"/>
-      <c r="F47" s="106"/>
-      <c r="G47" s="106"/>
-      <c r="H47" s="106"/>
-      <c r="I47" s="106"/>
-      <c r="J47" s="106"/>
-      <c r="K47" s="110"/>
-      <c r="L47" s="111"/>
-      <c r="M47" s="112"/>
+      <c r="B47" s="121"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="103"/>
+      <c r="E47" s="103"/>
+      <c r="F47" s="103"/>
+      <c r="G47" s="103"/>
+      <c r="H47" s="103"/>
+      <c r="I47" s="103"/>
+      <c r="J47" s="103"/>
+      <c r="K47" s="107"/>
+      <c r="L47" s="108"/>
+      <c r="M47" s="109"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="104"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="106"/>
-      <c r="E48" s="106"/>
-      <c r="F48" s="106"/>
-      <c r="G48" s="106"/>
-      <c r="H48" s="106"/>
-      <c r="I48" s="106"/>
-      <c r="J48" s="106"/>
-      <c r="K48" s="113"/>
-      <c r="L48" s="114"/>
-      <c r="M48" s="115"/>
+      <c r="B48" s="121"/>
+      <c r="C48" s="103"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="103"/>
+      <c r="F48" s="103"/>
+      <c r="G48" s="103"/>
+      <c r="H48" s="103"/>
+      <c r="I48" s="103"/>
+      <c r="J48" s="103"/>
+      <c r="K48" s="110"/>
+      <c r="L48" s="111"/>
+      <c r="M48" s="112"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="103" t="s">
+      <c r="B49" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="105" t="s">
+      <c r="C49" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="106"/>
-      <c r="E49" s="106"/>
-      <c r="F49" s="106"/>
-      <c r="G49" s="106"/>
-      <c r="H49" s="106"/>
-      <c r="I49" s="106"/>
-      <c r="J49" s="106"/>
-      <c r="K49" s="107"/>
-      <c r="L49" s="108"/>
-      <c r="M49" s="109"/>
+      <c r="D49" s="103"/>
+      <c r="E49" s="103"/>
+      <c r="F49" s="103"/>
+      <c r="G49" s="103"/>
+      <c r="H49" s="103"/>
+      <c r="I49" s="103"/>
+      <c r="J49" s="103"/>
+      <c r="K49" s="104"/>
+      <c r="L49" s="105"/>
+      <c r="M49" s="106"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B50" s="104"/>
-      <c r="C50" s="106"/>
-      <c r="D50" s="106"/>
-      <c r="E50" s="106"/>
-      <c r="F50" s="106"/>
-      <c r="G50" s="106"/>
-      <c r="H50" s="106"/>
-      <c r="I50" s="106"/>
-      <c r="J50" s="106"/>
-      <c r="K50" s="110"/>
-      <c r="L50" s="111"/>
-      <c r="M50" s="112"/>
+      <c r="B50" s="121"/>
+      <c r="C50" s="103"/>
+      <c r="D50" s="103"/>
+      <c r="E50" s="103"/>
+      <c r="F50" s="103"/>
+      <c r="G50" s="103"/>
+      <c r="H50" s="103"/>
+      <c r="I50" s="103"/>
+      <c r="J50" s="103"/>
+      <c r="K50" s="107"/>
+      <c r="L50" s="108"/>
+      <c r="M50" s="109"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="104"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="106"/>
-      <c r="E51" s="106"/>
-      <c r="F51" s="106"/>
-      <c r="G51" s="106"/>
-      <c r="H51" s="106"/>
-      <c r="I51" s="106"/>
-      <c r="J51" s="106"/>
-      <c r="K51" s="110"/>
-      <c r="L51" s="111"/>
-      <c r="M51" s="112"/>
+      <c r="B51" s="121"/>
+      <c r="C51" s="103"/>
+      <c r="D51" s="103"/>
+      <c r="E51" s="103"/>
+      <c r="F51" s="103"/>
+      <c r="G51" s="103"/>
+      <c r="H51" s="103"/>
+      <c r="I51" s="103"/>
+      <c r="J51" s="103"/>
+      <c r="K51" s="107"/>
+      <c r="L51" s="108"/>
+      <c r="M51" s="109"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B52" s="104"/>
-      <c r="C52" s="106"/>
-      <c r="D52" s="106"/>
-      <c r="E52" s="106"/>
-      <c r="F52" s="106"/>
-      <c r="G52" s="106"/>
-      <c r="H52" s="106"/>
-      <c r="I52" s="106"/>
-      <c r="J52" s="106"/>
-      <c r="K52" s="113"/>
-      <c r="L52" s="114"/>
-      <c r="M52" s="115"/>
+      <c r="B52" s="121"/>
+      <c r="C52" s="103"/>
+      <c r="D52" s="103"/>
+      <c r="E52" s="103"/>
+      <c r="F52" s="103"/>
+      <c r="G52" s="103"/>
+      <c r="H52" s="103"/>
+      <c r="I52" s="103"/>
+      <c r="J52" s="103"/>
+      <c r="K52" s="110"/>
+      <c r="L52" s="111"/>
+      <c r="M52" s="112"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B53" s="103" t="s">
+      <c r="B53" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="C53" s="105" t="s">
+      <c r="C53" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="106"/>
-      <c r="E53" s="106"/>
-      <c r="F53" s="106"/>
-      <c r="G53" s="106"/>
-      <c r="H53" s="106"/>
-      <c r="I53" s="106"/>
-      <c r="J53" s="106"/>
-      <c r="K53" s="107"/>
-      <c r="L53" s="108"/>
-      <c r="M53" s="109"/>
+      <c r="D53" s="103"/>
+      <c r="E53" s="103"/>
+      <c r="F53" s="103"/>
+      <c r="G53" s="103"/>
+      <c r="H53" s="103"/>
+      <c r="I53" s="103"/>
+      <c r="J53" s="103"/>
+      <c r="K53" s="104"/>
+      <c r="L53" s="105"/>
+      <c r="M53" s="106"/>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B54" s="104"/>
-      <c r="C54" s="106"/>
-      <c r="D54" s="106"/>
-      <c r="E54" s="106"/>
-      <c r="F54" s="106"/>
-      <c r="G54" s="106"/>
-      <c r="H54" s="106"/>
-      <c r="I54" s="106"/>
-      <c r="J54" s="106"/>
-      <c r="K54" s="110"/>
-      <c r="L54" s="111"/>
-      <c r="M54" s="112"/>
+      <c r="B54" s="121"/>
+      <c r="C54" s="103"/>
+      <c r="D54" s="103"/>
+      <c r="E54" s="103"/>
+      <c r="F54" s="103"/>
+      <c r="G54" s="103"/>
+      <c r="H54" s="103"/>
+      <c r="I54" s="103"/>
+      <c r="J54" s="103"/>
+      <c r="K54" s="107"/>
+      <c r="L54" s="108"/>
+      <c r="M54" s="109"/>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B55" s="104"/>
-      <c r="C55" s="106"/>
-      <c r="D55" s="106"/>
-      <c r="E55" s="106"/>
-      <c r="F55" s="106"/>
-      <c r="G55" s="106"/>
-      <c r="H55" s="106"/>
-      <c r="I55" s="106"/>
-      <c r="J55" s="106"/>
-      <c r="K55" s="110"/>
-      <c r="L55" s="111"/>
-      <c r="M55" s="112"/>
+      <c r="B55" s="121"/>
+      <c r="C55" s="103"/>
+      <c r="D55" s="103"/>
+      <c r="E55" s="103"/>
+      <c r="F55" s="103"/>
+      <c r="G55" s="103"/>
+      <c r="H55" s="103"/>
+      <c r="I55" s="103"/>
+      <c r="J55" s="103"/>
+      <c r="K55" s="107"/>
+      <c r="L55" s="108"/>
+      <c r="M55" s="109"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="104"/>
-      <c r="C56" s="106"/>
-      <c r="D56" s="106"/>
-      <c r="E56" s="106"/>
-      <c r="F56" s="106"/>
-      <c r="G56" s="106"/>
-      <c r="H56" s="106"/>
-      <c r="I56" s="106"/>
-      <c r="J56" s="106"/>
-      <c r="K56" s="113"/>
-      <c r="L56" s="114"/>
-      <c r="M56" s="115"/>
+      <c r="B56" s="121"/>
+      <c r="C56" s="103"/>
+      <c r="D56" s="103"/>
+      <c r="E56" s="103"/>
+      <c r="F56" s="103"/>
+      <c r="G56" s="103"/>
+      <c r="H56" s="103"/>
+      <c r="I56" s="103"/>
+      <c r="J56" s="103"/>
+      <c r="K56" s="110"/>
+      <c r="L56" s="111"/>
+      <c r="M56" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="79">
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:J52"/>
+    <mergeCell ref="K49:M52"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="C53:J56"/>
+    <mergeCell ref="K53:M56"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="C41:J44"/>
+    <mergeCell ref="K41:M44"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="C45:J48"/>
+    <mergeCell ref="K45:M48"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="C37:J40"/>
+    <mergeCell ref="K37:M40"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="C33:J36"/>
+    <mergeCell ref="K33:M36"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:J32"/>
+    <mergeCell ref="K29:M32"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="B2:R3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
@@ -5046,69 +5084,6 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B2:R3"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="C37:J40"/>
-    <mergeCell ref="K37:M40"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="C33:J36"/>
-    <mergeCell ref="K33:M36"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:J32"/>
-    <mergeCell ref="K29:M32"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="C41:J44"/>
-    <mergeCell ref="K41:M44"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="C45:J48"/>
-    <mergeCell ref="K45:M48"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C49:J52"/>
-    <mergeCell ref="K49:M52"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="C53:J56"/>
-    <mergeCell ref="K53:M56"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5122,8 +5097,8 @@
   </sheetPr>
   <dimension ref="A2:AK107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:F8"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79:H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5133,44 +5108,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="97" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5234,521 +5209,521 @@
       <c r="D6" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="E6" s="147" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="147"/>
-      <c r="G6" s="136" t="s">
+      <c r="E6" s="122" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="122"/>
+      <c r="G6" s="132" t="s">
         <v>143</v>
       </c>
-      <c r="H6" s="136"/>
-      <c r="I6" s="147" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="147"/>
-      <c r="K6" s="136" t="s">
+      <c r="H6" s="132"/>
+      <c r="I6" s="122" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="122"/>
+      <c r="K6" s="132" t="s">
         <v>144</v>
       </c>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136" t="s">
+      <c r="L6" s="132"/>
+      <c r="M6" s="132" t="s">
         <v>145</v>
       </c>
-      <c r="N6" s="136"/>
-      <c r="O6" s="136" t="s">
+      <c r="N6" s="132"/>
+      <c r="O6" s="132" t="s">
         <v>146</v>
       </c>
-      <c r="P6" s="136"/>
-      <c r="Q6" s="136" t="s">
+      <c r="P6" s="132"/>
+      <c r="Q6" s="132" t="s">
         <v>147</v>
       </c>
-      <c r="R6" s="137"/>
+      <c r="R6" s="133"/>
     </row>
     <row r="7" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="136" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131" t="s">
+      <c r="D7" s="134"/>
+      <c r="E7" s="134" t="s">
         <v>149</v>
       </c>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131" t="s">
+      <c r="F7" s="134"/>
+      <c r="G7" s="134" t="s">
         <v>150</v>
       </c>
-      <c r="H7" s="131"/>
-      <c r="I7" s="131" t="s">
+      <c r="H7" s="134"/>
+      <c r="I7" s="134" t="s">
         <v>151</v>
       </c>
-      <c r="J7" s="131"/>
-      <c r="K7" s="131" t="s">
+      <c r="J7" s="134"/>
+      <c r="K7" s="134" t="s">
         <v>152</v>
       </c>
-      <c r="L7" s="131"/>
-      <c r="M7" s="131" t="s">
+      <c r="L7" s="134"/>
+      <c r="M7" s="134" t="s">
         <v>153</v>
       </c>
-      <c r="N7" s="131"/>
-      <c r="O7" s="131" t="s">
+      <c r="N7" s="134"/>
+      <c r="O7" s="134" t="s">
         <v>154</v>
       </c>
-      <c r="P7" s="131"/>
-      <c r="Q7" s="131" t="s">
+      <c r="P7" s="134"/>
+      <c r="Q7" s="134" t="s">
         <v>155</v>
       </c>
-      <c r="R7" s="132"/>
+      <c r="R7" s="135"/>
     </row>
     <row r="8" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="130" t="s">
+      <c r="C8" s="136" t="s">
         <v>156</v>
       </c>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131" t="s">
+      <c r="D8" s="134"/>
+      <c r="E8" s="134" t="s">
         <v>157</v>
       </c>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131" t="s">
+      <c r="F8" s="134"/>
+      <c r="G8" s="134" t="s">
         <v>158</v>
       </c>
-      <c r="H8" s="131"/>
-      <c r="I8" s="131" t="s">
+      <c r="H8" s="134"/>
+      <c r="I8" s="134" t="s">
         <v>159</v>
       </c>
-      <c r="J8" s="131"/>
-      <c r="K8" s="131" t="s">
+      <c r="J8" s="134"/>
+      <c r="K8" s="134" t="s">
         <v>160</v>
       </c>
-      <c r="L8" s="131"/>
-      <c r="M8" s="131" t="s">
+      <c r="L8" s="134"/>
+      <c r="M8" s="134" t="s">
         <v>161</v>
       </c>
-      <c r="N8" s="131"/>
-      <c r="O8" s="131" t="s">
+      <c r="N8" s="134"/>
+      <c r="O8" s="134" t="s">
         <v>162</v>
       </c>
-      <c r="P8" s="131"/>
-      <c r="Q8" s="131" t="s">
+      <c r="P8" s="134"/>
+      <c r="Q8" s="134" t="s">
         <v>163</v>
       </c>
-      <c r="R8" s="132"/>
+      <c r="R8" s="135"/>
     </row>
     <row r="9" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="130" t="s">
+      <c r="C9" s="136" t="s">
         <v>164</v>
       </c>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131" t="s">
+      <c r="D9" s="134"/>
+      <c r="E9" s="134" t="s">
         <v>165</v>
       </c>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131" t="s">
+      <c r="F9" s="134"/>
+      <c r="G9" s="134" t="s">
         <v>166</v>
       </c>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131" t="s">
+      <c r="H9" s="134"/>
+      <c r="I9" s="134" t="s">
         <v>167</v>
       </c>
-      <c r="J9" s="131"/>
-      <c r="K9" s="131" t="s">
+      <c r="J9" s="134"/>
+      <c r="K9" s="134" t="s">
         <v>168</v>
       </c>
-      <c r="L9" s="131"/>
-      <c r="M9" s="131" t="s">
+      <c r="L9" s="134"/>
+      <c r="M9" s="134" t="s">
         <v>169</v>
       </c>
-      <c r="N9" s="131"/>
-      <c r="O9" s="131" t="s">
+      <c r="N9" s="134"/>
+      <c r="O9" s="134" t="s">
         <v>170</v>
       </c>
-      <c r="P9" s="131"/>
-      <c r="Q9" s="131" t="s">
+      <c r="P9" s="134"/>
+      <c r="Q9" s="134" t="s">
         <v>171</v>
       </c>
-      <c r="R9" s="132"/>
+      <c r="R9" s="135"/>
     </row>
     <row r="10" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
         <v>52</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D10" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="E10" s="148" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="148"/>
-      <c r="G10" s="122" t="s">
-        <v>234</v>
-      </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="148" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="148"/>
-      <c r="K10" s="122" t="s">
+      <c r="E10" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="124"/>
+      <c r="G10" s="137" t="s">
+        <v>143</v>
+      </c>
+      <c r="H10" s="137"/>
+      <c r="I10" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="124"/>
+      <c r="K10" s="137" t="s">
         <v>144</v>
       </c>
-      <c r="L10" s="122"/>
-      <c r="M10" s="122" t="s">
+      <c r="L10" s="137"/>
+      <c r="M10" s="137" t="s">
         <v>145</v>
       </c>
-      <c r="N10" s="122"/>
-      <c r="O10" s="122" t="s">
+      <c r="N10" s="137"/>
+      <c r="O10" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="P10" s="122"/>
-      <c r="Q10" s="122" t="s">
+      <c r="P10" s="137"/>
+      <c r="Q10" s="137" t="s">
         <v>147</v>
       </c>
-      <c r="R10" s="123"/>
+      <c r="R10" s="138"/>
     </row>
     <row r="11" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="139" t="s">
         <v>148</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122" t="s">
+      <c r="D11" s="137"/>
+      <c r="E11" s="137" t="s">
         <v>149</v>
       </c>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122" t="s">
+      <c r="F11" s="137"/>
+      <c r="G11" s="137" t="s">
         <v>150</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122" t="s">
+      <c r="H11" s="137"/>
+      <c r="I11" s="137" t="s">
         <v>151</v>
       </c>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122" t="s">
+      <c r="J11" s="137"/>
+      <c r="K11" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="L11" s="122"/>
-      <c r="M11" s="122" t="s">
+      <c r="L11" s="137"/>
+      <c r="M11" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="N11" s="122"/>
-      <c r="O11" s="122" t="s">
+      <c r="N11" s="137"/>
+      <c r="O11" s="137" t="s">
         <v>154</v>
       </c>
-      <c r="P11" s="122"/>
-      <c r="Q11" s="122" t="s">
+      <c r="P11" s="137"/>
+      <c r="Q11" s="137" t="s">
         <v>155</v>
       </c>
-      <c r="R11" s="123"/>
+      <c r="R11" s="138"/>
     </row>
     <row r="12" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="124" t="s">
+      <c r="C12" s="139" t="s">
         <v>156</v>
       </c>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122" t="s">
+      <c r="D12" s="137"/>
+      <c r="E12" s="137" t="s">
         <v>157</v>
       </c>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122" t="s">
+      <c r="F12" s="137"/>
+      <c r="G12" s="137" t="s">
         <v>158</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122" t="s">
+      <c r="H12" s="137"/>
+      <c r="I12" s="137" t="s">
         <v>159</v>
       </c>
-      <c r="J12" s="122"/>
-      <c r="K12" s="122" t="s">
+      <c r="J12" s="137"/>
+      <c r="K12" s="137" t="s">
         <v>160</v>
       </c>
-      <c r="L12" s="122"/>
-      <c r="M12" s="122" t="s">
+      <c r="L12" s="137"/>
+      <c r="M12" s="137" t="s">
         <v>161</v>
       </c>
-      <c r="N12" s="122"/>
-      <c r="O12" s="122" t="s">
+      <c r="N12" s="137"/>
+      <c r="O12" s="137" t="s">
         <v>162</v>
       </c>
-      <c r="P12" s="122"/>
-      <c r="Q12" s="122" t="s">
+      <c r="P12" s="137"/>
+      <c r="Q12" s="137" t="s">
         <v>163</v>
       </c>
-      <c r="R12" s="123"/>
+      <c r="R12" s="138"/>
     </row>
     <row r="13" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="124" t="s">
+      <c r="C13" s="139" t="s">
         <v>164</v>
       </c>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122" t="s">
+      <c r="D13" s="137"/>
+      <c r="E13" s="137" t="s">
         <v>165</v>
       </c>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122" t="s">
+      <c r="F13" s="137"/>
+      <c r="G13" s="137" t="s">
         <v>166</v>
       </c>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122" t="s">
+      <c r="H13" s="137"/>
+      <c r="I13" s="137" t="s">
         <v>167</v>
       </c>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122" t="s">
+      <c r="J13" s="137"/>
+      <c r="K13" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="L13" s="122"/>
-      <c r="M13" s="122" t="s">
+      <c r="L13" s="137"/>
+      <c r="M13" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="N13" s="122"/>
-      <c r="O13" s="122" t="s">
+      <c r="N13" s="137"/>
+      <c r="O13" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="P13" s="122"/>
-      <c r="Q13" s="122" t="s">
+      <c r="P13" s="137"/>
+      <c r="Q13" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="R13" s="123"/>
+      <c r="R13" s="138"/>
     </row>
     <row r="14" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="40" t="s">
         <v>56</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D14" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="E14" s="149" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="149"/>
-      <c r="G14" s="131" t="s">
-        <v>234</v>
-      </c>
-      <c r="H14" s="131"/>
-      <c r="I14" s="149" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="149"/>
-      <c r="K14" s="131" t="s">
+      <c r="E14" s="123" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="123"/>
+      <c r="G14" s="134" t="s">
+        <v>143</v>
+      </c>
+      <c r="H14" s="134"/>
+      <c r="I14" s="123" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="123"/>
+      <c r="K14" s="134" t="s">
         <v>144</v>
       </c>
-      <c r="L14" s="131"/>
-      <c r="M14" s="131" t="s">
+      <c r="L14" s="134"/>
+      <c r="M14" s="134" t="s">
         <v>145</v>
       </c>
-      <c r="N14" s="131"/>
-      <c r="O14" s="131" t="s">
+      <c r="N14" s="134"/>
+      <c r="O14" s="134" t="s">
         <v>146</v>
       </c>
-      <c r="P14" s="131"/>
-      <c r="Q14" s="131" t="s">
+      <c r="P14" s="134"/>
+      <c r="Q14" s="134" t="s">
         <v>147</v>
       </c>
-      <c r="R14" s="132"/>
+      <c r="R14" s="135"/>
     </row>
     <row r="15" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="130" t="s">
+      <c r="C15" s="136" t="s">
         <v>148</v>
       </c>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131" t="s">
+      <c r="D15" s="134"/>
+      <c r="E15" s="134" t="s">
         <v>149</v>
       </c>
-      <c r="F15" s="131"/>
-      <c r="G15" s="131" t="s">
+      <c r="F15" s="134"/>
+      <c r="G15" s="134" t="s">
         <v>150</v>
       </c>
-      <c r="H15" s="131"/>
-      <c r="I15" s="131" t="s">
+      <c r="H15" s="134"/>
+      <c r="I15" s="134" t="s">
         <v>151</v>
       </c>
-      <c r="J15" s="131"/>
-      <c r="K15" s="131" t="s">
+      <c r="J15" s="134"/>
+      <c r="K15" s="134" t="s">
         <v>152</v>
       </c>
-      <c r="L15" s="131"/>
-      <c r="M15" s="131" t="s">
+      <c r="L15" s="134"/>
+      <c r="M15" s="134" t="s">
         <v>153</v>
       </c>
-      <c r="N15" s="131"/>
-      <c r="O15" s="131" t="s">
+      <c r="N15" s="134"/>
+      <c r="O15" s="134" t="s">
         <v>154</v>
       </c>
-      <c r="P15" s="131"/>
-      <c r="Q15" s="131" t="s">
+      <c r="P15" s="134"/>
+      <c r="Q15" s="134" t="s">
         <v>155</v>
       </c>
-      <c r="R15" s="132"/>
+      <c r="R15" s="135"/>
     </row>
     <row r="16" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="130" t="s">
+      <c r="C16" s="136" t="s">
         <v>156</v>
       </c>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131" t="s">
+      <c r="D16" s="134"/>
+      <c r="E16" s="134" t="s">
         <v>157</v>
       </c>
-      <c r="F16" s="131"/>
-      <c r="G16" s="131" t="s">
+      <c r="F16" s="134"/>
+      <c r="G16" s="134" t="s">
         <v>158</v>
       </c>
-      <c r="H16" s="131"/>
-      <c r="I16" s="131" t="s">
+      <c r="H16" s="134"/>
+      <c r="I16" s="134" t="s">
         <v>159</v>
       </c>
-      <c r="J16" s="131"/>
-      <c r="K16" s="131" t="s">
+      <c r="J16" s="134"/>
+      <c r="K16" s="134" t="s">
         <v>160</v>
       </c>
-      <c r="L16" s="131"/>
-      <c r="M16" s="131" t="s">
+      <c r="L16" s="134"/>
+      <c r="M16" s="134" t="s">
         <v>161</v>
       </c>
-      <c r="N16" s="131"/>
-      <c r="O16" s="131" t="s">
+      <c r="N16" s="134"/>
+      <c r="O16" s="134" t="s">
         <v>162</v>
       </c>
-      <c r="P16" s="131"/>
-      <c r="Q16" s="131" t="s">
+      <c r="P16" s="134"/>
+      <c r="Q16" s="134" t="s">
         <v>163</v>
       </c>
-      <c r="R16" s="132"/>
+      <c r="R16" s="135"/>
     </row>
     <row r="17" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="130" t="s">
+      <c r="C17" s="136" t="s">
         <v>164</v>
       </c>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131" t="s">
+      <c r="D17" s="134"/>
+      <c r="E17" s="134" t="s">
         <v>165</v>
       </c>
-      <c r="F17" s="131"/>
-      <c r="G17" s="131" t="s">
+      <c r="F17" s="134"/>
+      <c r="G17" s="134" t="s">
         <v>166</v>
       </c>
-      <c r="H17" s="131"/>
-      <c r="I17" s="131" t="s">
+      <c r="H17" s="134"/>
+      <c r="I17" s="134" t="s">
         <v>167</v>
       </c>
-      <c r="J17" s="131"/>
-      <c r="K17" s="131" t="s">
+      <c r="J17" s="134"/>
+      <c r="K17" s="134" t="s">
         <v>168</v>
       </c>
-      <c r="L17" s="131"/>
-      <c r="M17" s="131" t="s">
+      <c r="L17" s="134"/>
+      <c r="M17" s="134" t="s">
         <v>169</v>
       </c>
-      <c r="N17" s="131"/>
-      <c r="O17" s="131" t="s">
+      <c r="N17" s="134"/>
+      <c r="O17" s="134" t="s">
         <v>170</v>
       </c>
-      <c r="P17" s="131"/>
-      <c r="Q17" s="131" t="s">
+      <c r="P17" s="134"/>
+      <c r="Q17" s="134" t="s">
         <v>171</v>
       </c>
-      <c r="R17" s="132"/>
+      <c r="R17" s="135"/>
     </row>
     <row r="18" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="40" t="s">
         <v>60</v>
       </c>
       <c r="C18" s="76" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D18" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="E18" s="148" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="148"/>
-      <c r="G18" s="122" t="s">
-        <v>234</v>
-      </c>
-      <c r="H18" s="122"/>
-      <c r="I18" s="148" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="148"/>
-      <c r="K18" s="122" t="s">
+      <c r="E18" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="124"/>
+      <c r="G18" s="137" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" s="137"/>
+      <c r="I18" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="124"/>
+      <c r="K18" s="137" t="s">
         <v>144</v>
       </c>
-      <c r="L18" s="122"/>
-      <c r="M18" s="122" t="s">
+      <c r="L18" s="137"/>
+      <c r="M18" s="137" t="s">
         <v>145</v>
       </c>
-      <c r="N18" s="122"/>
-      <c r="O18" s="122" t="s">
+      <c r="N18" s="137"/>
+      <c r="O18" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="P18" s="122"/>
-      <c r="Q18" s="122" t="s">
+      <c r="P18" s="137"/>
+      <c r="Q18" s="137" t="s">
         <v>147</v>
       </c>
-      <c r="R18" s="123"/>
+      <c r="R18" s="138"/>
     </row>
     <row r="19" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="124" t="s">
+      <c r="C19" s="139" t="s">
         <v>148</v>
       </c>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122" t="s">
+      <c r="D19" s="137"/>
+      <c r="E19" s="137" t="s">
         <v>149</v>
       </c>
-      <c r="F19" s="122"/>
-      <c r="G19" s="122" t="s">
+      <c r="F19" s="137"/>
+      <c r="G19" s="137" t="s">
         <v>150</v>
       </c>
-      <c r="H19" s="122"/>
-      <c r="I19" s="122" t="s">
+      <c r="H19" s="137"/>
+      <c r="I19" s="137" t="s">
         <v>151</v>
       </c>
-      <c r="J19" s="122"/>
-      <c r="K19" s="122" t="s">
+      <c r="J19" s="137"/>
+      <c r="K19" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="L19" s="122"/>
-      <c r="M19" s="122" t="s">
+      <c r="L19" s="137"/>
+      <c r="M19" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="N19" s="122"/>
-      <c r="O19" s="122" t="s">
+      <c r="N19" s="137"/>
+      <c r="O19" s="137" t="s">
         <v>154</v>
       </c>
-      <c r="P19" s="122"/>
-      <c r="Q19" s="122" t="s">
+      <c r="P19" s="137"/>
+      <c r="Q19" s="137" t="s">
         <v>155</v>
       </c>
-      <c r="R19" s="123"/>
+      <c r="R19" s="138"/>
       <c r="T19" s="70"/>
       <c r="U19" s="70"/>
       <c r="V19" s="70"/>
@@ -5757,38 +5732,38 @@
       <c r="B20" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="124" t="s">
+      <c r="C20" s="139" t="s">
         <v>156</v>
       </c>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122" t="s">
+      <c r="D20" s="137"/>
+      <c r="E20" s="137" t="s">
         <v>157</v>
       </c>
-      <c r="F20" s="122"/>
-      <c r="G20" s="122" t="s">
+      <c r="F20" s="137"/>
+      <c r="G20" s="137" t="s">
         <v>158</v>
       </c>
-      <c r="H20" s="122"/>
-      <c r="I20" s="122" t="s">
+      <c r="H20" s="137"/>
+      <c r="I20" s="137" t="s">
         <v>159</v>
       </c>
-      <c r="J20" s="122"/>
-      <c r="K20" s="122" t="s">
+      <c r="J20" s="137"/>
+      <c r="K20" s="137" t="s">
         <v>160</v>
       </c>
-      <c r="L20" s="122"/>
-      <c r="M20" s="122" t="s">
+      <c r="L20" s="137"/>
+      <c r="M20" s="137" t="s">
         <v>161</v>
       </c>
-      <c r="N20" s="122"/>
-      <c r="O20" s="122" t="s">
+      <c r="N20" s="137"/>
+      <c r="O20" s="137" t="s">
         <v>162</v>
       </c>
-      <c r="P20" s="122"/>
-      <c r="Q20" s="122" t="s">
+      <c r="P20" s="137"/>
+      <c r="Q20" s="137" t="s">
         <v>163</v>
       </c>
-      <c r="R20" s="123"/>
+      <c r="R20" s="138"/>
       <c r="T20" s="73"/>
       <c r="U20" s="73"/>
       <c r="V20" s="73"/>
@@ -5797,61 +5772,61 @@
       <c r="B21" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="133" t="s">
+      <c r="C21" s="146" t="s">
         <v>164</v>
       </c>
-      <c r="D21" s="134"/>
-      <c r="E21" s="134" t="s">
+      <c r="D21" s="140"/>
+      <c r="E21" s="140" t="s">
         <v>165</v>
       </c>
-      <c r="F21" s="134"/>
-      <c r="G21" s="134" t="s">
+      <c r="F21" s="140"/>
+      <c r="G21" s="140" t="s">
         <v>166</v>
       </c>
-      <c r="H21" s="134"/>
-      <c r="I21" s="134" t="s">
+      <c r="H21" s="140"/>
+      <c r="I21" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="J21" s="134"/>
-      <c r="K21" s="134" t="s">
+      <c r="J21" s="140"/>
+      <c r="K21" s="140" t="s">
         <v>168</v>
       </c>
-      <c r="L21" s="134"/>
-      <c r="M21" s="134" t="s">
+      <c r="L21" s="140"/>
+      <c r="M21" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="N21" s="134"/>
-      <c r="O21" s="134" t="s">
+      <c r="N21" s="140"/>
+      <c r="O21" s="140" t="s">
         <v>170</v>
       </c>
-      <c r="P21" s="134"/>
-      <c r="Q21" s="134" t="s">
+      <c r="P21" s="140"/>
+      <c r="Q21" s="140" t="s">
         <v>171</v>
       </c>
-      <c r="R21" s="135"/>
+      <c r="R21" s="141"/>
       <c r="T21" s="73"/>
       <c r="U21" s="73"/>
       <c r="V21" s="73"/>
     </row>
     <row r="22" spans="1:37" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="70"/>
-      <c r="B22" s="125"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="126"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="126"/>
-      <c r="J22" s="126"/>
-      <c r="K22" s="126"/>
-      <c r="L22" s="126"/>
-      <c r="M22" s="126"/>
-      <c r="N22" s="126"/>
-      <c r="O22" s="126"/>
-      <c r="P22" s="126"/>
-      <c r="Q22" s="126"/>
-      <c r="R22" s="126"/>
+      <c r="B22" s="152"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="153"/>
+      <c r="K22" s="153"/>
+      <c r="L22" s="153"/>
+      <c r="M22" s="153"/>
+      <c r="N22" s="153"/>
+      <c r="O22" s="153"/>
+      <c r="P22" s="153"/>
+      <c r="Q22" s="153"/>
+      <c r="R22" s="153"/>
       <c r="S22" s="70"/>
       <c r="T22" s="74"/>
       <c r="U22" s="74"/>
@@ -5877,39 +5852,39 @@
         <v>127</v>
       </c>
       <c r="C23" s="66" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D23" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="E23" s="157" t="s">
-        <v>233</v>
-      </c>
-      <c r="F23" s="158"/>
-      <c r="G23" s="136" t="s">
-        <v>234</v>
-      </c>
-      <c r="H23" s="136"/>
-      <c r="I23" s="147" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="147"/>
-      <c r="K23" s="136" t="s">
+      <c r="E23" s="122" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="122"/>
+      <c r="G23" s="132" t="s">
+        <v>143</v>
+      </c>
+      <c r="H23" s="132"/>
+      <c r="I23" s="122" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="122"/>
+      <c r="K23" s="132" t="s">
         <v>144</v>
       </c>
-      <c r="L23" s="136"/>
-      <c r="M23" s="136" t="s">
+      <c r="L23" s="132"/>
+      <c r="M23" s="132" t="s">
         <v>145</v>
       </c>
-      <c r="N23" s="136"/>
-      <c r="O23" s="136" t="s">
+      <c r="N23" s="132"/>
+      <c r="O23" s="132" t="s">
         <v>146</v>
       </c>
-      <c r="P23" s="136"/>
-      <c r="Q23" s="136" t="s">
+      <c r="P23" s="132"/>
+      <c r="Q23" s="132" t="s">
         <v>147</v>
       </c>
-      <c r="R23" s="137"/>
+      <c r="R23" s="133"/>
       <c r="T23" s="73"/>
       <c r="U23" s="73"/>
       <c r="V23" s="73"/>
@@ -5918,38 +5893,38 @@
       <c r="B24" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="130" t="s">
+      <c r="C24" s="136" t="s">
         <v>148</v>
       </c>
-      <c r="D24" s="131"/>
-      <c r="E24" s="131" t="s">
+      <c r="D24" s="134"/>
+      <c r="E24" s="134" t="s">
         <v>149</v>
       </c>
-      <c r="F24" s="131"/>
-      <c r="G24" s="131" t="s">
+      <c r="F24" s="134"/>
+      <c r="G24" s="134" t="s">
         <v>150</v>
       </c>
-      <c r="H24" s="131"/>
-      <c r="I24" s="131" t="s">
+      <c r="H24" s="134"/>
+      <c r="I24" s="134" t="s">
         <v>151</v>
       </c>
-      <c r="J24" s="131"/>
-      <c r="K24" s="131" t="s">
+      <c r="J24" s="134"/>
+      <c r="K24" s="134" t="s">
         <v>152</v>
       </c>
-      <c r="L24" s="131"/>
-      <c r="M24" s="131" t="s">
+      <c r="L24" s="134"/>
+      <c r="M24" s="134" t="s">
         <v>153</v>
       </c>
-      <c r="N24" s="131"/>
-      <c r="O24" s="131" t="s">
+      <c r="N24" s="134"/>
+      <c r="O24" s="134" t="s">
         <v>154</v>
       </c>
-      <c r="P24" s="131"/>
-      <c r="Q24" s="131" t="s">
+      <c r="P24" s="134"/>
+      <c r="Q24" s="134" t="s">
         <v>155</v>
       </c>
-      <c r="R24" s="132"/>
+      <c r="R24" s="135"/>
       <c r="T24" s="73"/>
       <c r="U24" s="73"/>
       <c r="V24" s="73"/>
@@ -5958,545 +5933,545 @@
       <c r="B25" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="130" t="s">
+      <c r="C25" s="136" t="s">
         <v>156</v>
       </c>
-      <c r="D25" s="131"/>
-      <c r="E25" s="131" t="s">
+      <c r="D25" s="134"/>
+      <c r="E25" s="134" t="s">
         <v>157</v>
       </c>
-      <c r="F25" s="131"/>
-      <c r="G25" s="131" t="s">
+      <c r="F25" s="134"/>
+      <c r="G25" s="134" t="s">
         <v>158</v>
       </c>
-      <c r="H25" s="131"/>
-      <c r="I25" s="131" t="s">
+      <c r="H25" s="134"/>
+      <c r="I25" s="134" t="s">
         <v>159</v>
       </c>
-      <c r="J25" s="131"/>
-      <c r="K25" s="131" t="s">
+      <c r="J25" s="134"/>
+      <c r="K25" s="134" t="s">
         <v>160</v>
       </c>
-      <c r="L25" s="131"/>
-      <c r="M25" s="131" t="s">
+      <c r="L25" s="134"/>
+      <c r="M25" s="134" t="s">
         <v>161</v>
       </c>
-      <c r="N25" s="131"/>
-      <c r="O25" s="131" t="s">
+      <c r="N25" s="134"/>
+      <c r="O25" s="134" t="s">
         <v>162</v>
       </c>
-      <c r="P25" s="131"/>
-      <c r="Q25" s="131" t="s">
+      <c r="P25" s="134"/>
+      <c r="Q25" s="134" t="s">
         <v>163</v>
       </c>
-      <c r="R25" s="132"/>
+      <c r="R25" s="135"/>
     </row>
     <row r="26" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="C26" s="130" t="s">
+      <c r="C26" s="136" t="s">
         <v>164</v>
       </c>
-      <c r="D26" s="131"/>
-      <c r="E26" s="131" t="s">
+      <c r="D26" s="134"/>
+      <c r="E26" s="134" t="s">
         <v>165</v>
       </c>
-      <c r="F26" s="131"/>
-      <c r="G26" s="131" t="s">
+      <c r="F26" s="134"/>
+      <c r="G26" s="134" t="s">
         <v>166</v>
       </c>
-      <c r="H26" s="131"/>
-      <c r="I26" s="131" t="s">
+      <c r="H26" s="134"/>
+      <c r="I26" s="134" t="s">
         <v>167</v>
       </c>
-      <c r="J26" s="131"/>
-      <c r="K26" s="131" t="s">
+      <c r="J26" s="134"/>
+      <c r="K26" s="134" t="s">
         <v>168</v>
       </c>
-      <c r="L26" s="131"/>
-      <c r="M26" s="131" t="s">
+      <c r="L26" s="134"/>
+      <c r="M26" s="134" t="s">
         <v>169</v>
       </c>
-      <c r="N26" s="131"/>
-      <c r="O26" s="131" t="s">
+      <c r="N26" s="134"/>
+      <c r="O26" s="134" t="s">
         <v>170</v>
       </c>
-      <c r="P26" s="131"/>
-      <c r="Q26" s="131" t="s">
+      <c r="P26" s="134"/>
+      <c r="Q26" s="134" t="s">
         <v>171</v>
       </c>
-      <c r="R26" s="132"/>
+      <c r="R26" s="135"/>
     </row>
     <row r="27" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="39" t="s">
         <v>131</v>
       </c>
       <c r="C27" s="76" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D27" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="E27" s="148" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="148"/>
-      <c r="G27" s="122" t="s">
-        <v>234</v>
-      </c>
-      <c r="H27" s="122"/>
-      <c r="I27" s="148" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" s="148"/>
-      <c r="K27" s="122" t="s">
+      <c r="E27" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="124"/>
+      <c r="G27" s="137" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="137"/>
+      <c r="I27" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="124"/>
+      <c r="K27" s="137" t="s">
         <v>144</v>
       </c>
-      <c r="L27" s="122"/>
-      <c r="M27" s="122" t="s">
+      <c r="L27" s="137"/>
+      <c r="M27" s="137" t="s">
         <v>145</v>
       </c>
-      <c r="N27" s="122"/>
-      <c r="O27" s="122" t="s">
+      <c r="N27" s="137"/>
+      <c r="O27" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="P27" s="122"/>
-      <c r="Q27" s="122" t="s">
+      <c r="P27" s="137"/>
+      <c r="Q27" s="137" t="s">
         <v>147</v>
       </c>
-      <c r="R27" s="123"/>
+      <c r="R27" s="138"/>
     </row>
     <row r="28" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="124" t="s">
+      <c r="C28" s="139" t="s">
         <v>148</v>
       </c>
-      <c r="D28" s="122"/>
-      <c r="E28" s="122" t="s">
+      <c r="D28" s="137"/>
+      <c r="E28" s="137" t="s">
         <v>149</v>
       </c>
-      <c r="F28" s="122"/>
-      <c r="G28" s="122" t="s">
+      <c r="F28" s="137"/>
+      <c r="G28" s="137" t="s">
         <v>150</v>
       </c>
-      <c r="H28" s="122"/>
-      <c r="I28" s="122" t="s">
+      <c r="H28" s="137"/>
+      <c r="I28" s="137" t="s">
         <v>151</v>
       </c>
-      <c r="J28" s="122"/>
-      <c r="K28" s="122" t="s">
+      <c r="J28" s="137"/>
+      <c r="K28" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="L28" s="122"/>
-      <c r="M28" s="122" t="s">
+      <c r="L28" s="137"/>
+      <c r="M28" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="N28" s="122"/>
-      <c r="O28" s="122" t="s">
+      <c r="N28" s="137"/>
+      <c r="O28" s="137" t="s">
         <v>154</v>
       </c>
-      <c r="P28" s="122"/>
-      <c r="Q28" s="122" t="s">
+      <c r="P28" s="137"/>
+      <c r="Q28" s="137" t="s">
         <v>155</v>
       </c>
-      <c r="R28" s="123"/>
+      <c r="R28" s="138"/>
     </row>
     <row r="29" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="124" t="s">
+      <c r="C29" s="139" t="s">
         <v>156</v>
       </c>
-      <c r="D29" s="122"/>
-      <c r="E29" s="122" t="s">
+      <c r="D29" s="137"/>
+      <c r="E29" s="137" t="s">
         <v>157</v>
       </c>
-      <c r="F29" s="122"/>
-      <c r="G29" s="122" t="s">
+      <c r="F29" s="137"/>
+      <c r="G29" s="137" t="s">
         <v>158</v>
       </c>
-      <c r="H29" s="122"/>
-      <c r="I29" s="122" t="s">
+      <c r="H29" s="137"/>
+      <c r="I29" s="137" t="s">
         <v>159</v>
       </c>
-      <c r="J29" s="122"/>
-      <c r="K29" s="122" t="s">
+      <c r="J29" s="137"/>
+      <c r="K29" s="137" t="s">
         <v>160</v>
       </c>
-      <c r="L29" s="122"/>
-      <c r="M29" s="122" t="s">
+      <c r="L29" s="137"/>
+      <c r="M29" s="137" t="s">
         <v>161</v>
       </c>
-      <c r="N29" s="122"/>
-      <c r="O29" s="122" t="s">
+      <c r="N29" s="137"/>
+      <c r="O29" s="137" t="s">
         <v>162</v>
       </c>
-      <c r="P29" s="122"/>
-      <c r="Q29" s="122" t="s">
+      <c r="P29" s="137"/>
+      <c r="Q29" s="137" t="s">
         <v>163</v>
       </c>
-      <c r="R29" s="123"/>
+      <c r="R29" s="138"/>
     </row>
     <row r="30" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="124" t="s">
+      <c r="C30" s="139" t="s">
         <v>164</v>
       </c>
-      <c r="D30" s="122"/>
-      <c r="E30" s="122" t="s">
+      <c r="D30" s="137"/>
+      <c r="E30" s="137" t="s">
         <v>165</v>
       </c>
-      <c r="F30" s="122"/>
-      <c r="G30" s="122" t="s">
+      <c r="F30" s="137"/>
+      <c r="G30" s="137" t="s">
         <v>166</v>
       </c>
-      <c r="H30" s="122"/>
-      <c r="I30" s="122" t="s">
+      <c r="H30" s="137"/>
+      <c r="I30" s="137" t="s">
         <v>167</v>
       </c>
-      <c r="J30" s="122"/>
-      <c r="K30" s="122" t="s">
+      <c r="J30" s="137"/>
+      <c r="K30" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="L30" s="122"/>
-      <c r="M30" s="122" t="s">
+      <c r="L30" s="137"/>
+      <c r="M30" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="N30" s="122"/>
-      <c r="O30" s="122" t="s">
+      <c r="N30" s="137"/>
+      <c r="O30" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="P30" s="122"/>
-      <c r="Q30" s="122" t="s">
+      <c r="P30" s="137"/>
+      <c r="Q30" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="R30" s="123"/>
+      <c r="R30" s="138"/>
     </row>
     <row r="31" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="40" t="s">
         <v>135</v>
       </c>
       <c r="C31" s="68" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D31" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="149" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="149"/>
-      <c r="G31" s="131" t="s">
-        <v>234</v>
-      </c>
-      <c r="H31" s="131"/>
-      <c r="I31" s="149" t="s">
-        <v>6</v>
-      </c>
-      <c r="J31" s="149"/>
-      <c r="K31" s="131" t="s">
+      <c r="E31" s="123" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="123"/>
+      <c r="G31" s="134" t="s">
+        <v>143</v>
+      </c>
+      <c r="H31" s="134"/>
+      <c r="I31" s="123" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="123"/>
+      <c r="K31" s="134" t="s">
         <v>144</v>
       </c>
-      <c r="L31" s="131"/>
-      <c r="M31" s="131" t="s">
+      <c r="L31" s="134"/>
+      <c r="M31" s="134" t="s">
         <v>145</v>
       </c>
-      <c r="N31" s="131"/>
-      <c r="O31" s="131" t="s">
+      <c r="N31" s="134"/>
+      <c r="O31" s="134" t="s">
         <v>146</v>
       </c>
-      <c r="P31" s="131"/>
-      <c r="Q31" s="131" t="s">
+      <c r="P31" s="134"/>
+      <c r="Q31" s="134" t="s">
         <v>147</v>
       </c>
-      <c r="R31" s="132"/>
+      <c r="R31" s="135"/>
     </row>
     <row r="32" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="C32" s="130" t="s">
+      <c r="C32" s="136" t="s">
         <v>148</v>
       </c>
-      <c r="D32" s="131"/>
-      <c r="E32" s="131" t="s">
+      <c r="D32" s="134"/>
+      <c r="E32" s="134" t="s">
         <v>149</v>
       </c>
-      <c r="F32" s="131"/>
-      <c r="G32" s="131" t="s">
+      <c r="F32" s="134"/>
+      <c r="G32" s="134" t="s">
         <v>150</v>
       </c>
-      <c r="H32" s="131"/>
-      <c r="I32" s="131" t="s">
+      <c r="H32" s="134"/>
+      <c r="I32" s="134" t="s">
         <v>151</v>
       </c>
-      <c r="J32" s="131"/>
-      <c r="K32" s="131" t="s">
+      <c r="J32" s="134"/>
+      <c r="K32" s="134" t="s">
         <v>152</v>
       </c>
-      <c r="L32" s="131"/>
-      <c r="M32" s="131" t="s">
+      <c r="L32" s="134"/>
+      <c r="M32" s="134" t="s">
         <v>153</v>
       </c>
-      <c r="N32" s="131"/>
-      <c r="O32" s="131" t="s">
+      <c r="N32" s="134"/>
+      <c r="O32" s="134" t="s">
         <v>154</v>
       </c>
-      <c r="P32" s="131"/>
-      <c r="Q32" s="131" t="s">
+      <c r="P32" s="134"/>
+      <c r="Q32" s="134" t="s">
         <v>155</v>
       </c>
-      <c r="R32" s="132"/>
+      <c r="R32" s="135"/>
     </row>
     <row r="33" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="C33" s="130" t="s">
+      <c r="C33" s="136" t="s">
         <v>156</v>
       </c>
-      <c r="D33" s="131"/>
-      <c r="E33" s="131" t="s">
+      <c r="D33" s="134"/>
+      <c r="E33" s="134" t="s">
         <v>157</v>
       </c>
-      <c r="F33" s="131"/>
-      <c r="G33" s="131" t="s">
+      <c r="F33" s="134"/>
+      <c r="G33" s="134" t="s">
         <v>158</v>
       </c>
-      <c r="H33" s="131"/>
-      <c r="I33" s="131" t="s">
+      <c r="H33" s="134"/>
+      <c r="I33" s="134" t="s">
         <v>159</v>
       </c>
-      <c r="J33" s="131"/>
-      <c r="K33" s="131" t="s">
+      <c r="J33" s="134"/>
+      <c r="K33" s="134" t="s">
         <v>160</v>
       </c>
-      <c r="L33" s="131"/>
-      <c r="M33" s="131" t="s">
+      <c r="L33" s="134"/>
+      <c r="M33" s="134" t="s">
         <v>161</v>
       </c>
-      <c r="N33" s="131"/>
-      <c r="O33" s="131" t="s">
+      <c r="N33" s="134"/>
+      <c r="O33" s="134" t="s">
         <v>162</v>
       </c>
-      <c r="P33" s="131"/>
-      <c r="Q33" s="131" t="s">
+      <c r="P33" s="134"/>
+      <c r="Q33" s="134" t="s">
         <v>163</v>
       </c>
-      <c r="R33" s="132"/>
+      <c r="R33" s="135"/>
     </row>
     <row r="34" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="C34" s="130" t="s">
+      <c r="C34" s="136" t="s">
         <v>164</v>
       </c>
-      <c r="D34" s="131"/>
-      <c r="E34" s="131" t="s">
+      <c r="D34" s="134"/>
+      <c r="E34" s="134" t="s">
         <v>165</v>
       </c>
-      <c r="F34" s="131"/>
-      <c r="G34" s="131" t="s">
+      <c r="F34" s="134"/>
+      <c r="G34" s="134" t="s">
         <v>166</v>
       </c>
-      <c r="H34" s="131"/>
-      <c r="I34" s="131" t="s">
+      <c r="H34" s="134"/>
+      <c r="I34" s="134" t="s">
         <v>167</v>
       </c>
-      <c r="J34" s="131"/>
-      <c r="K34" s="131" t="s">
+      <c r="J34" s="134"/>
+      <c r="K34" s="134" t="s">
         <v>168</v>
       </c>
-      <c r="L34" s="131"/>
-      <c r="M34" s="131" t="s">
+      <c r="L34" s="134"/>
+      <c r="M34" s="134" t="s">
         <v>169</v>
       </c>
-      <c r="N34" s="131"/>
-      <c r="O34" s="131" t="s">
+      <c r="N34" s="134"/>
+      <c r="O34" s="134" t="s">
         <v>170</v>
       </c>
-      <c r="P34" s="131"/>
-      <c r="Q34" s="131" t="s">
+      <c r="P34" s="134"/>
+      <c r="Q34" s="134" t="s">
         <v>171</v>
       </c>
-      <c r="R34" s="132"/>
+      <c r="R34" s="135"/>
     </row>
     <row r="35" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="40" t="s">
         <v>139</v>
       </c>
       <c r="C35" s="76" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D35" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="E35" s="148" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" s="148"/>
-      <c r="G35" s="122" t="s">
-        <v>234</v>
-      </c>
-      <c r="H35" s="122"/>
-      <c r="I35" s="148" t="s">
-        <v>6</v>
-      </c>
-      <c r="J35" s="148"/>
-      <c r="K35" s="122" t="s">
+      <c r="E35" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="124"/>
+      <c r="G35" s="137" t="s">
+        <v>143</v>
+      </c>
+      <c r="H35" s="137"/>
+      <c r="I35" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="124"/>
+      <c r="K35" s="137" t="s">
         <v>144</v>
       </c>
-      <c r="L35" s="122"/>
-      <c r="M35" s="122" t="s">
+      <c r="L35" s="137"/>
+      <c r="M35" s="137" t="s">
         <v>145</v>
       </c>
-      <c r="N35" s="122"/>
-      <c r="O35" s="122" t="s">
+      <c r="N35" s="137"/>
+      <c r="O35" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="P35" s="122"/>
-      <c r="Q35" s="122" t="s">
+      <c r="P35" s="137"/>
+      <c r="Q35" s="137" t="s">
         <v>147</v>
       </c>
-      <c r="R35" s="123"/>
+      <c r="R35" s="138"/>
     </row>
     <row r="36" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="124" t="s">
+      <c r="C36" s="139" t="s">
         <v>148</v>
       </c>
-      <c r="D36" s="122"/>
-      <c r="E36" s="122" t="s">
+      <c r="D36" s="137"/>
+      <c r="E36" s="137" t="s">
         <v>149</v>
       </c>
-      <c r="F36" s="122"/>
-      <c r="G36" s="122" t="s">
+      <c r="F36" s="137"/>
+      <c r="G36" s="137" t="s">
         <v>150</v>
       </c>
-      <c r="H36" s="122"/>
-      <c r="I36" s="122" t="s">
+      <c r="H36" s="137"/>
+      <c r="I36" s="137" t="s">
         <v>151</v>
       </c>
-      <c r="J36" s="122"/>
-      <c r="K36" s="122" t="s">
+      <c r="J36" s="137"/>
+      <c r="K36" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="L36" s="122"/>
-      <c r="M36" s="122" t="s">
+      <c r="L36" s="137"/>
+      <c r="M36" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="N36" s="122"/>
-      <c r="O36" s="122" t="s">
+      <c r="N36" s="137"/>
+      <c r="O36" s="137" t="s">
         <v>154</v>
       </c>
-      <c r="P36" s="122"/>
-      <c r="Q36" s="122" t="s">
+      <c r="P36" s="137"/>
+      <c r="Q36" s="137" t="s">
         <v>155</v>
       </c>
-      <c r="R36" s="123"/>
+      <c r="R36" s="138"/>
     </row>
     <row r="37" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="124" t="s">
+      <c r="C37" s="139" t="s">
         <v>156</v>
       </c>
-      <c r="D37" s="122"/>
-      <c r="E37" s="122" t="s">
+      <c r="D37" s="137"/>
+      <c r="E37" s="137" t="s">
         <v>157</v>
       </c>
-      <c r="F37" s="122"/>
-      <c r="G37" s="122" t="s">
+      <c r="F37" s="137"/>
+      <c r="G37" s="137" t="s">
         <v>158</v>
       </c>
-      <c r="H37" s="122"/>
-      <c r="I37" s="122" t="s">
+      <c r="H37" s="137"/>
+      <c r="I37" s="137" t="s">
         <v>159</v>
       </c>
-      <c r="J37" s="122"/>
-      <c r="K37" s="122" t="s">
+      <c r="J37" s="137"/>
+      <c r="K37" s="137" t="s">
         <v>160</v>
       </c>
-      <c r="L37" s="122"/>
-      <c r="M37" s="122" t="s">
+      <c r="L37" s="137"/>
+      <c r="M37" s="137" t="s">
         <v>161</v>
       </c>
-      <c r="N37" s="122"/>
-      <c r="O37" s="122" t="s">
+      <c r="N37" s="137"/>
+      <c r="O37" s="137" t="s">
         <v>162</v>
       </c>
-      <c r="P37" s="122"/>
-      <c r="Q37" s="122" t="s">
+      <c r="P37" s="137"/>
+      <c r="Q37" s="137" t="s">
         <v>163</v>
       </c>
-      <c r="R37" s="123"/>
+      <c r="R37" s="138"/>
     </row>
     <row r="38" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="133" t="s">
+      <c r="C38" s="146" t="s">
         <v>164</v>
       </c>
-      <c r="D38" s="134"/>
-      <c r="E38" s="134" t="s">
+      <c r="D38" s="140"/>
+      <c r="E38" s="140" t="s">
         <v>165</v>
       </c>
-      <c r="F38" s="134"/>
-      <c r="G38" s="134" t="s">
+      <c r="F38" s="140"/>
+      <c r="G38" s="140" t="s">
         <v>166</v>
       </c>
-      <c r="H38" s="134"/>
-      <c r="I38" s="134" t="s">
+      <c r="H38" s="140"/>
+      <c r="I38" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="J38" s="134"/>
-      <c r="K38" s="134" t="s">
+      <c r="J38" s="140"/>
+      <c r="K38" s="140" t="s">
         <v>168</v>
       </c>
-      <c r="L38" s="134"/>
-      <c r="M38" s="134" t="s">
+      <c r="L38" s="140"/>
+      <c r="M38" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="N38" s="134"/>
-      <c r="O38" s="134" t="s">
+      <c r="N38" s="140"/>
+      <c r="O38" s="140" t="s">
         <v>170</v>
       </c>
-      <c r="P38" s="134"/>
-      <c r="Q38" s="134" t="s">
+      <c r="P38" s="140"/>
+      <c r="Q38" s="140" t="s">
         <v>171</v>
       </c>
-      <c r="R38" s="135"/>
+      <c r="R38" s="141"/>
     </row>
     <row r="39" spans="1:19" s="72" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="73"/>
-      <c r="B39" s="127"/>
-      <c r="C39" s="128"/>
-      <c r="D39" s="128"/>
-      <c r="E39" s="128"/>
-      <c r="F39" s="128"/>
-      <c r="G39" s="128"/>
-      <c r="H39" s="128"/>
-      <c r="I39" s="128"/>
-      <c r="J39" s="128"/>
-      <c r="K39" s="128"/>
-      <c r="L39" s="128"/>
-      <c r="M39" s="128"/>
-      <c r="N39" s="128"/>
-      <c r="O39" s="128"/>
-      <c r="P39" s="128"/>
-      <c r="Q39" s="128"/>
-      <c r="R39" s="128"/>
+      <c r="B39" s="154"/>
+      <c r="C39" s="155"/>
+      <c r="D39" s="155"/>
+      <c r="E39" s="155"/>
+      <c r="F39" s="155"/>
+      <c r="G39" s="155"/>
+      <c r="H39" s="155"/>
+      <c r="I39" s="155"/>
+      <c r="J39" s="155"/>
+      <c r="K39" s="155"/>
+      <c r="L39" s="155"/>
+      <c r="M39" s="155"/>
+      <c r="N39" s="155"/>
+      <c r="O39" s="155"/>
+      <c r="P39" s="155"/>
+      <c r="Q39" s="155"/>
+      <c r="R39" s="155"/>
       <c r="S39" s="73"/>
     </row>
     <row r="40" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6504,620 +6479,620 @@
         <v>179</v>
       </c>
       <c r="C40" s="66" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D40" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="E40" s="147" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="147"/>
-      <c r="G40" s="136" t="s">
-        <v>234</v>
-      </c>
-      <c r="H40" s="136"/>
-      <c r="I40" s="147" t="s">
-        <v>6</v>
-      </c>
-      <c r="J40" s="147"/>
-      <c r="K40" s="136" t="s">
+      <c r="E40" s="122" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="122"/>
+      <c r="G40" s="132" t="s">
+        <v>143</v>
+      </c>
+      <c r="H40" s="132"/>
+      <c r="I40" s="122" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" s="122"/>
+      <c r="K40" s="132" t="s">
         <v>144</v>
       </c>
-      <c r="L40" s="136"/>
-      <c r="M40" s="136" t="s">
+      <c r="L40" s="132"/>
+      <c r="M40" s="132" t="s">
         <v>145</v>
       </c>
-      <c r="N40" s="136"/>
-      <c r="O40" s="136" t="s">
+      <c r="N40" s="132"/>
+      <c r="O40" s="132" t="s">
         <v>146</v>
       </c>
-      <c r="P40" s="136"/>
-      <c r="Q40" s="136" t="s">
+      <c r="P40" s="132"/>
+      <c r="Q40" s="132" t="s">
         <v>147</v>
       </c>
-      <c r="R40" s="137"/>
+      <c r="R40" s="133"/>
     </row>
     <row r="41" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="C41" s="130" t="s">
+      <c r="C41" s="136" t="s">
         <v>148</v>
       </c>
-      <c r="D41" s="131"/>
-      <c r="E41" s="131" t="s">
+      <c r="D41" s="134"/>
+      <c r="E41" s="134" t="s">
         <v>149</v>
       </c>
-      <c r="F41" s="131"/>
-      <c r="G41" s="131" t="s">
+      <c r="F41" s="134"/>
+      <c r="G41" s="134" t="s">
         <v>150</v>
       </c>
-      <c r="H41" s="131"/>
-      <c r="I41" s="131" t="s">
+      <c r="H41" s="134"/>
+      <c r="I41" s="134" t="s">
         <v>151</v>
       </c>
-      <c r="J41" s="131"/>
-      <c r="K41" s="131" t="s">
+      <c r="J41" s="134"/>
+      <c r="K41" s="134" t="s">
         <v>152</v>
       </c>
-      <c r="L41" s="131"/>
-      <c r="M41" s="131" t="s">
+      <c r="L41" s="134"/>
+      <c r="M41" s="134" t="s">
         <v>153</v>
       </c>
-      <c r="N41" s="131"/>
-      <c r="O41" s="131" t="s">
+      <c r="N41" s="134"/>
+      <c r="O41" s="134" t="s">
         <v>154</v>
       </c>
-      <c r="P41" s="131"/>
-      <c r="Q41" s="131" t="s">
+      <c r="P41" s="134"/>
+      <c r="Q41" s="134" t="s">
         <v>155</v>
       </c>
-      <c r="R41" s="132"/>
+      <c r="R41" s="135"/>
     </row>
     <row r="42" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="C42" s="130" t="s">
+      <c r="C42" s="136" t="s">
         <v>156</v>
       </c>
-      <c r="D42" s="131"/>
-      <c r="E42" s="131" t="s">
+      <c r="D42" s="134"/>
+      <c r="E42" s="134" t="s">
         <v>157</v>
       </c>
-      <c r="F42" s="131"/>
-      <c r="G42" s="131" t="s">
+      <c r="F42" s="134"/>
+      <c r="G42" s="134" t="s">
         <v>158</v>
       </c>
-      <c r="H42" s="131"/>
-      <c r="I42" s="131" t="s">
+      <c r="H42" s="134"/>
+      <c r="I42" s="134" t="s">
         <v>159</v>
       </c>
-      <c r="J42" s="131"/>
-      <c r="K42" s="131" t="s">
+      <c r="J42" s="134"/>
+      <c r="K42" s="134" t="s">
         <v>160</v>
       </c>
-      <c r="L42" s="131"/>
-      <c r="M42" s="131" t="s">
+      <c r="L42" s="134"/>
+      <c r="M42" s="134" t="s">
         <v>161</v>
       </c>
-      <c r="N42" s="131"/>
-      <c r="O42" s="131" t="s">
+      <c r="N42" s="134"/>
+      <c r="O42" s="134" t="s">
         <v>162</v>
       </c>
-      <c r="P42" s="131"/>
-      <c r="Q42" s="131" t="s">
+      <c r="P42" s="134"/>
+      <c r="Q42" s="134" t="s">
         <v>163</v>
       </c>
-      <c r="R42" s="132"/>
+      <c r="R42" s="135"/>
     </row>
     <row r="43" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="C43" s="130" t="s">
+      <c r="C43" s="136" t="s">
         <v>164</v>
       </c>
-      <c r="D43" s="131"/>
-      <c r="E43" s="131" t="s">
+      <c r="D43" s="134"/>
+      <c r="E43" s="134" t="s">
         <v>165</v>
       </c>
-      <c r="F43" s="131"/>
-      <c r="G43" s="131" t="s">
+      <c r="F43" s="134"/>
+      <c r="G43" s="134" t="s">
         <v>166</v>
       </c>
-      <c r="H43" s="131"/>
-      <c r="I43" s="131" t="s">
+      <c r="H43" s="134"/>
+      <c r="I43" s="134" t="s">
         <v>167</v>
       </c>
-      <c r="J43" s="131"/>
-      <c r="K43" s="131" t="s">
+      <c r="J43" s="134"/>
+      <c r="K43" s="134" t="s">
         <v>168</v>
       </c>
-      <c r="L43" s="131"/>
-      <c r="M43" s="131" t="s">
+      <c r="L43" s="134"/>
+      <c r="M43" s="134" t="s">
         <v>169</v>
       </c>
-      <c r="N43" s="131"/>
-      <c r="O43" s="131" t="s">
+      <c r="N43" s="134"/>
+      <c r="O43" s="134" t="s">
         <v>170</v>
       </c>
-      <c r="P43" s="131"/>
-      <c r="Q43" s="131" t="s">
+      <c r="P43" s="134"/>
+      <c r="Q43" s="134" t="s">
         <v>171</v>
       </c>
-      <c r="R43" s="132"/>
+      <c r="R43" s="135"/>
     </row>
     <row r="44" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="39" t="s">
         <v>183</v>
       </c>
       <c r="C44" s="76" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D44" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="E44" s="148" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" s="148"/>
-      <c r="G44" s="122" t="s">
-        <v>234</v>
-      </c>
-      <c r="H44" s="122"/>
-      <c r="I44" s="148" t="s">
-        <v>6</v>
-      </c>
-      <c r="J44" s="148"/>
-      <c r="K44" s="122" t="s">
+      <c r="E44" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="124"/>
+      <c r="G44" s="137" t="s">
+        <v>143</v>
+      </c>
+      <c r="H44" s="137"/>
+      <c r="I44" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="J44" s="124"/>
+      <c r="K44" s="137" t="s">
         <v>144</v>
       </c>
-      <c r="L44" s="122"/>
-      <c r="M44" s="122" t="s">
+      <c r="L44" s="137"/>
+      <c r="M44" s="137" t="s">
         <v>145</v>
       </c>
-      <c r="N44" s="122"/>
-      <c r="O44" s="122" t="s">
+      <c r="N44" s="137"/>
+      <c r="O44" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="P44" s="122"/>
-      <c r="Q44" s="122" t="s">
+      <c r="P44" s="137"/>
+      <c r="Q44" s="137" t="s">
         <v>147</v>
       </c>
-      <c r="R44" s="123"/>
+      <c r="R44" s="138"/>
     </row>
     <row r="45" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="C45" s="124" t="s">
+      <c r="C45" s="139" t="s">
         <v>148</v>
       </c>
-      <c r="D45" s="122"/>
-      <c r="E45" s="122" t="s">
+      <c r="D45" s="137"/>
+      <c r="E45" s="137" t="s">
         <v>149</v>
       </c>
-      <c r="F45" s="122"/>
-      <c r="G45" s="122" t="s">
+      <c r="F45" s="137"/>
+      <c r="G45" s="137" t="s">
         <v>150</v>
       </c>
-      <c r="H45" s="122"/>
-      <c r="I45" s="122" t="s">
+      <c r="H45" s="137"/>
+      <c r="I45" s="137" t="s">
         <v>151</v>
       </c>
-      <c r="J45" s="122"/>
-      <c r="K45" s="122" t="s">
+      <c r="J45" s="137"/>
+      <c r="K45" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="L45" s="122"/>
-      <c r="M45" s="122" t="s">
+      <c r="L45" s="137"/>
+      <c r="M45" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="N45" s="122"/>
-      <c r="O45" s="122" t="s">
+      <c r="N45" s="137"/>
+      <c r="O45" s="137" t="s">
         <v>154</v>
       </c>
-      <c r="P45" s="122"/>
-      <c r="Q45" s="122" t="s">
+      <c r="P45" s="137"/>
+      <c r="Q45" s="137" t="s">
         <v>155</v>
       </c>
-      <c r="R45" s="123"/>
+      <c r="R45" s="138"/>
     </row>
     <row r="46" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="C46" s="124" t="s">
+      <c r="C46" s="139" t="s">
         <v>156</v>
       </c>
-      <c r="D46" s="122"/>
-      <c r="E46" s="122" t="s">
+      <c r="D46" s="137"/>
+      <c r="E46" s="137" t="s">
         <v>157</v>
       </c>
-      <c r="F46" s="122"/>
-      <c r="G46" s="122" t="s">
+      <c r="F46" s="137"/>
+      <c r="G46" s="137" t="s">
         <v>158</v>
       </c>
-      <c r="H46" s="122"/>
-      <c r="I46" s="122" t="s">
+      <c r="H46" s="137"/>
+      <c r="I46" s="137" t="s">
         <v>159</v>
       </c>
-      <c r="J46" s="122"/>
-      <c r="K46" s="122" t="s">
+      <c r="J46" s="137"/>
+      <c r="K46" s="137" t="s">
         <v>160</v>
       </c>
-      <c r="L46" s="122"/>
-      <c r="M46" s="122" t="s">
+      <c r="L46" s="137"/>
+      <c r="M46" s="137" t="s">
         <v>161</v>
       </c>
-      <c r="N46" s="122"/>
-      <c r="O46" s="122" t="s">
+      <c r="N46" s="137"/>
+      <c r="O46" s="137" t="s">
         <v>162</v>
       </c>
-      <c r="P46" s="122"/>
-      <c r="Q46" s="122" t="s">
+      <c r="P46" s="137"/>
+      <c r="Q46" s="137" t="s">
         <v>163</v>
       </c>
-      <c r="R46" s="123"/>
+      <c r="R46" s="138"/>
     </row>
     <row r="47" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="C47" s="124" t="s">
+      <c r="C47" s="139" t="s">
         <v>164</v>
       </c>
-      <c r="D47" s="122"/>
-      <c r="E47" s="122" t="s">
+      <c r="D47" s="137"/>
+      <c r="E47" s="137" t="s">
         <v>165</v>
       </c>
-      <c r="F47" s="122"/>
-      <c r="G47" s="122" t="s">
+      <c r="F47" s="137"/>
+      <c r="G47" s="137" t="s">
         <v>166</v>
       </c>
-      <c r="H47" s="122"/>
-      <c r="I47" s="122" t="s">
+      <c r="H47" s="137"/>
+      <c r="I47" s="137" t="s">
         <v>167</v>
       </c>
-      <c r="J47" s="122"/>
-      <c r="K47" s="122" t="s">
+      <c r="J47" s="137"/>
+      <c r="K47" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="L47" s="122"/>
-      <c r="M47" s="122" t="s">
+      <c r="L47" s="137"/>
+      <c r="M47" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="N47" s="122"/>
-      <c r="O47" s="122" t="s">
+      <c r="N47" s="137"/>
+      <c r="O47" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="P47" s="122"/>
-      <c r="Q47" s="122" t="s">
+      <c r="P47" s="137"/>
+      <c r="Q47" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="R47" s="123"/>
+      <c r="R47" s="138"/>
     </row>
     <row r="48" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="40" t="s">
         <v>187</v>
       </c>
       <c r="C48" s="68" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D48" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="E48" s="149" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" s="149"/>
-      <c r="G48" s="131" t="s">
-        <v>234</v>
-      </c>
-      <c r="H48" s="131"/>
-      <c r="I48" s="149" t="s">
-        <v>6</v>
-      </c>
-      <c r="J48" s="149"/>
-      <c r="K48" s="131" t="s">
+      <c r="E48" s="123" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="123"/>
+      <c r="G48" s="134" t="s">
+        <v>143</v>
+      </c>
+      <c r="H48" s="134"/>
+      <c r="I48" s="123" t="s">
+        <v>6</v>
+      </c>
+      <c r="J48" s="123"/>
+      <c r="K48" s="134" t="s">
         <v>144</v>
       </c>
-      <c r="L48" s="131"/>
-      <c r="M48" s="131" t="s">
+      <c r="L48" s="134"/>
+      <c r="M48" s="134" t="s">
         <v>145</v>
       </c>
-      <c r="N48" s="131"/>
-      <c r="O48" s="131" t="s">
+      <c r="N48" s="134"/>
+      <c r="O48" s="134" t="s">
         <v>146</v>
       </c>
-      <c r="P48" s="131"/>
-      <c r="Q48" s="131" t="s">
+      <c r="P48" s="134"/>
+      <c r="Q48" s="134" t="s">
         <v>147</v>
       </c>
-      <c r="R48" s="132"/>
+      <c r="R48" s="135"/>
     </row>
     <row r="49" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="C49" s="130" t="s">
+      <c r="C49" s="136" t="s">
         <v>148</v>
       </c>
-      <c r="D49" s="131"/>
-      <c r="E49" s="131" t="s">
+      <c r="D49" s="134"/>
+      <c r="E49" s="134" t="s">
         <v>149</v>
       </c>
-      <c r="F49" s="131"/>
-      <c r="G49" s="131" t="s">
+      <c r="F49" s="134"/>
+      <c r="G49" s="134" t="s">
         <v>150</v>
       </c>
-      <c r="H49" s="131"/>
-      <c r="I49" s="131" t="s">
+      <c r="H49" s="134"/>
+      <c r="I49" s="134" t="s">
         <v>151</v>
       </c>
-      <c r="J49" s="131"/>
-      <c r="K49" s="131" t="s">
+      <c r="J49" s="134"/>
+      <c r="K49" s="134" t="s">
         <v>152</v>
       </c>
-      <c r="L49" s="131"/>
-      <c r="M49" s="131" t="s">
+      <c r="L49" s="134"/>
+      <c r="M49" s="134" t="s">
         <v>153</v>
       </c>
-      <c r="N49" s="131"/>
-      <c r="O49" s="131" t="s">
+      <c r="N49" s="134"/>
+      <c r="O49" s="134" t="s">
         <v>154</v>
       </c>
-      <c r="P49" s="131"/>
-      <c r="Q49" s="131" t="s">
+      <c r="P49" s="134"/>
+      <c r="Q49" s="134" t="s">
         <v>155</v>
       </c>
-      <c r="R49" s="132"/>
+      <c r="R49" s="135"/>
     </row>
     <row r="50" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="C50" s="130" t="s">
+      <c r="C50" s="136" t="s">
         <v>156</v>
       </c>
-      <c r="D50" s="131"/>
-      <c r="E50" s="131" t="s">
+      <c r="D50" s="134"/>
+      <c r="E50" s="134" t="s">
         <v>157</v>
       </c>
-      <c r="F50" s="131"/>
-      <c r="G50" s="131" t="s">
+      <c r="F50" s="134"/>
+      <c r="G50" s="134" t="s">
         <v>158</v>
       </c>
-      <c r="H50" s="131"/>
-      <c r="I50" s="131" t="s">
+      <c r="H50" s="134"/>
+      <c r="I50" s="134" t="s">
         <v>159</v>
       </c>
-      <c r="J50" s="131"/>
-      <c r="K50" s="131" t="s">
+      <c r="J50" s="134"/>
+      <c r="K50" s="134" t="s">
         <v>160</v>
       </c>
-      <c r="L50" s="131"/>
-      <c r="M50" s="131" t="s">
+      <c r="L50" s="134"/>
+      <c r="M50" s="134" t="s">
         <v>161</v>
       </c>
-      <c r="N50" s="131"/>
-      <c r="O50" s="131" t="s">
+      <c r="N50" s="134"/>
+      <c r="O50" s="134" t="s">
         <v>162</v>
       </c>
-      <c r="P50" s="131"/>
-      <c r="Q50" s="131" t="s">
+      <c r="P50" s="134"/>
+      <c r="Q50" s="134" t="s">
         <v>163</v>
       </c>
-      <c r="R50" s="132"/>
+      <c r="R50" s="135"/>
     </row>
     <row r="51" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="C51" s="130" t="s">
+      <c r="C51" s="136" t="s">
         <v>164</v>
       </c>
-      <c r="D51" s="131"/>
-      <c r="E51" s="131" t="s">
+      <c r="D51" s="134"/>
+      <c r="E51" s="134" t="s">
         <v>165</v>
       </c>
-      <c r="F51" s="131"/>
-      <c r="G51" s="131" t="s">
+      <c r="F51" s="134"/>
+      <c r="G51" s="134" t="s">
         <v>166</v>
       </c>
-      <c r="H51" s="131"/>
-      <c r="I51" s="131" t="s">
+      <c r="H51" s="134"/>
+      <c r="I51" s="134" t="s">
         <v>167</v>
       </c>
-      <c r="J51" s="131"/>
-      <c r="K51" s="131" t="s">
+      <c r="J51" s="134"/>
+      <c r="K51" s="134" t="s">
         <v>168</v>
       </c>
-      <c r="L51" s="131"/>
-      <c r="M51" s="131" t="s">
+      <c r="L51" s="134"/>
+      <c r="M51" s="134" t="s">
         <v>169</v>
       </c>
-      <c r="N51" s="131"/>
-      <c r="O51" s="131" t="s">
+      <c r="N51" s="134"/>
+      <c r="O51" s="134" t="s">
         <v>170</v>
       </c>
-      <c r="P51" s="131"/>
-      <c r="Q51" s="131" t="s">
+      <c r="P51" s="134"/>
+      <c r="Q51" s="134" t="s">
         <v>171</v>
       </c>
-      <c r="R51" s="132"/>
+      <c r="R51" s="135"/>
     </row>
     <row r="52" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="40" t="s">
         <v>191</v>
       </c>
       <c r="C52" s="76" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D52" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="E52" s="148" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" s="148"/>
-      <c r="G52" s="122" t="s">
-        <v>234</v>
-      </c>
-      <c r="H52" s="122"/>
-      <c r="I52" s="148" t="s">
-        <v>6</v>
-      </c>
-      <c r="J52" s="148"/>
-      <c r="K52" s="122" t="s">
+      <c r="E52" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="124"/>
+      <c r="G52" s="137" t="s">
+        <v>143</v>
+      </c>
+      <c r="H52" s="137"/>
+      <c r="I52" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="J52" s="124"/>
+      <c r="K52" s="137" t="s">
         <v>144</v>
       </c>
-      <c r="L52" s="122"/>
-      <c r="M52" s="122" t="s">
+      <c r="L52" s="137"/>
+      <c r="M52" s="137" t="s">
         <v>145</v>
       </c>
-      <c r="N52" s="122"/>
-      <c r="O52" s="122" t="s">
+      <c r="N52" s="137"/>
+      <c r="O52" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="P52" s="122"/>
-      <c r="Q52" s="122" t="s">
+      <c r="P52" s="137"/>
+      <c r="Q52" s="137" t="s">
         <v>147</v>
       </c>
-      <c r="R52" s="123"/>
+      <c r="R52" s="138"/>
     </row>
     <row r="53" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="C53" s="124" t="s">
+      <c r="C53" s="139" t="s">
         <v>148</v>
       </c>
-      <c r="D53" s="122"/>
-      <c r="E53" s="122" t="s">
+      <c r="D53" s="137"/>
+      <c r="E53" s="137" t="s">
         <v>149</v>
       </c>
-      <c r="F53" s="122"/>
-      <c r="G53" s="122" t="s">
+      <c r="F53" s="137"/>
+      <c r="G53" s="137" t="s">
         <v>150</v>
       </c>
-      <c r="H53" s="122"/>
-      <c r="I53" s="122" t="s">
+      <c r="H53" s="137"/>
+      <c r="I53" s="137" t="s">
         <v>151</v>
       </c>
-      <c r="J53" s="122"/>
-      <c r="K53" s="122" t="s">
+      <c r="J53" s="137"/>
+      <c r="K53" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="L53" s="122"/>
-      <c r="M53" s="122" t="s">
+      <c r="L53" s="137"/>
+      <c r="M53" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="N53" s="122"/>
-      <c r="O53" s="122" t="s">
+      <c r="N53" s="137"/>
+      <c r="O53" s="137" t="s">
         <v>154</v>
       </c>
-      <c r="P53" s="122"/>
-      <c r="Q53" s="122" t="s">
+      <c r="P53" s="137"/>
+      <c r="Q53" s="137" t="s">
         <v>155</v>
       </c>
-      <c r="R53" s="123"/>
+      <c r="R53" s="138"/>
     </row>
     <row r="54" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="C54" s="124" t="s">
+      <c r="C54" s="139" t="s">
         <v>156</v>
       </c>
-      <c r="D54" s="122"/>
-      <c r="E54" s="122" t="s">
+      <c r="D54" s="137"/>
+      <c r="E54" s="137" t="s">
         <v>157</v>
       </c>
-      <c r="F54" s="122"/>
-      <c r="G54" s="122" t="s">
+      <c r="F54" s="137"/>
+      <c r="G54" s="137" t="s">
         <v>158</v>
       </c>
-      <c r="H54" s="122"/>
-      <c r="I54" s="122" t="s">
+      <c r="H54" s="137"/>
+      <c r="I54" s="137" t="s">
         <v>159</v>
       </c>
-      <c r="J54" s="122"/>
-      <c r="K54" s="122" t="s">
+      <c r="J54" s="137"/>
+      <c r="K54" s="137" t="s">
         <v>160</v>
       </c>
-      <c r="L54" s="122"/>
-      <c r="M54" s="122" t="s">
+      <c r="L54" s="137"/>
+      <c r="M54" s="137" t="s">
         <v>161</v>
       </c>
-      <c r="N54" s="122"/>
-      <c r="O54" s="122" t="s">
+      <c r="N54" s="137"/>
+      <c r="O54" s="137" t="s">
         <v>162</v>
       </c>
-      <c r="P54" s="122"/>
-      <c r="Q54" s="122" t="s">
+      <c r="P54" s="137"/>
+      <c r="Q54" s="137" t="s">
         <v>163</v>
       </c>
-      <c r="R54" s="123"/>
+      <c r="R54" s="138"/>
     </row>
     <row r="55" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="71" t="s">
         <v>194</v>
       </c>
-      <c r="C55" s="133" t="s">
+      <c r="C55" s="146" t="s">
         <v>164</v>
       </c>
-      <c r="D55" s="134"/>
-      <c r="E55" s="134" t="s">
+      <c r="D55" s="140"/>
+      <c r="E55" s="140" t="s">
         <v>165</v>
       </c>
-      <c r="F55" s="134"/>
-      <c r="G55" s="134" t="s">
+      <c r="F55" s="140"/>
+      <c r="G55" s="140" t="s">
         <v>166</v>
       </c>
-      <c r="H55" s="134"/>
-      <c r="I55" s="134" t="s">
+      <c r="H55" s="140"/>
+      <c r="I55" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="J55" s="134"/>
-      <c r="K55" s="134" t="s">
+      <c r="J55" s="140"/>
+      <c r="K55" s="140" t="s">
         <v>168</v>
       </c>
-      <c r="L55" s="134"/>
-      <c r="M55" s="134" t="s">
+      <c r="L55" s="140"/>
+      <c r="M55" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="N55" s="134"/>
-      <c r="O55" s="134" t="s">
+      <c r="N55" s="140"/>
+      <c r="O55" s="140" t="s">
         <v>170</v>
       </c>
-      <c r="P55" s="134"/>
-      <c r="Q55" s="134" t="s">
+      <c r="P55" s="140"/>
+      <c r="Q55" s="140" t="s">
         <v>171</v>
       </c>
-      <c r="R55" s="135"/>
+      <c r="R55" s="141"/>
     </row>
     <row r="56" spans="1:19" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="70"/>
-      <c r="B56" s="125"/>
-      <c r="C56" s="126"/>
-      <c r="D56" s="126"/>
-      <c r="E56" s="126"/>
-      <c r="F56" s="126"/>
-      <c r="G56" s="126"/>
-      <c r="H56" s="126"/>
-      <c r="I56" s="126"/>
-      <c r="J56" s="126"/>
-      <c r="K56" s="126"/>
-      <c r="L56" s="126"/>
-      <c r="M56" s="126"/>
-      <c r="N56" s="126"/>
-      <c r="O56" s="126"/>
-      <c r="P56" s="126"/>
-      <c r="Q56" s="126"/>
-      <c r="R56" s="126"/>
+      <c r="B56" s="152"/>
+      <c r="C56" s="153"/>
+      <c r="D56" s="153"/>
+      <c r="E56" s="153"/>
+      <c r="F56" s="153"/>
+      <c r="G56" s="153"/>
+      <c r="H56" s="153"/>
+      <c r="I56" s="153"/>
+      <c r="J56" s="153"/>
+      <c r="K56" s="153"/>
+      <c r="L56" s="153"/>
+      <c r="M56" s="153"/>
+      <c r="N56" s="153"/>
+      <c r="O56" s="153"/>
+      <c r="P56" s="153"/>
+      <c r="Q56" s="153"/>
+      <c r="R56" s="153"/>
       <c r="S56" s="70"/>
     </row>
     <row r="57" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7125,619 +7100,619 @@
         <v>195</v>
       </c>
       <c r="C57" s="66" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D57" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="E57" s="147" t="s">
-        <v>6</v>
-      </c>
-      <c r="F57" s="147"/>
-      <c r="G57" s="136" t="s">
-        <v>234</v>
-      </c>
-      <c r="H57" s="136"/>
-      <c r="I57" s="147" t="s">
-        <v>6</v>
-      </c>
-      <c r="J57" s="147"/>
-      <c r="K57" s="136" t="s">
+      <c r="E57" s="122" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="122"/>
+      <c r="G57" s="132" t="s">
+        <v>143</v>
+      </c>
+      <c r="H57" s="132"/>
+      <c r="I57" s="122" t="s">
+        <v>6</v>
+      </c>
+      <c r="J57" s="122"/>
+      <c r="K57" s="132" t="s">
         <v>144</v>
       </c>
-      <c r="L57" s="136"/>
-      <c r="M57" s="136" t="s">
+      <c r="L57" s="132"/>
+      <c r="M57" s="132" t="s">
         <v>145</v>
       </c>
-      <c r="N57" s="136"/>
-      <c r="O57" s="136" t="s">
+      <c r="N57" s="132"/>
+      <c r="O57" s="132" t="s">
         <v>146</v>
       </c>
-      <c r="P57" s="136"/>
-      <c r="Q57" s="136" t="s">
+      <c r="P57" s="132"/>
+      <c r="Q57" s="132" t="s">
         <v>147</v>
       </c>
-      <c r="R57" s="137"/>
+      <c r="R57" s="133"/>
     </row>
     <row r="58" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="C58" s="130" t="s">
+      <c r="C58" s="136" t="s">
         <v>148</v>
       </c>
-      <c r="D58" s="131"/>
-      <c r="E58" s="131" t="s">
+      <c r="D58" s="134"/>
+      <c r="E58" s="134" t="s">
         <v>149</v>
       </c>
-      <c r="F58" s="131"/>
-      <c r="G58" s="131" t="s">
+      <c r="F58" s="134"/>
+      <c r="G58" s="134" t="s">
         <v>150</v>
       </c>
-      <c r="H58" s="131"/>
-      <c r="I58" s="131" t="s">
+      <c r="H58" s="134"/>
+      <c r="I58" s="134" t="s">
         <v>151</v>
       </c>
-      <c r="J58" s="131"/>
-      <c r="K58" s="131" t="s">
+      <c r="J58" s="134"/>
+      <c r="K58" s="134" t="s">
         <v>152</v>
       </c>
-      <c r="L58" s="131"/>
-      <c r="M58" s="131" t="s">
+      <c r="L58" s="134"/>
+      <c r="M58" s="134" t="s">
         <v>153</v>
       </c>
-      <c r="N58" s="131"/>
-      <c r="O58" s="131" t="s">
+      <c r="N58" s="134"/>
+      <c r="O58" s="134" t="s">
         <v>154</v>
       </c>
-      <c r="P58" s="131"/>
-      <c r="Q58" s="131" t="s">
+      <c r="P58" s="134"/>
+      <c r="Q58" s="134" t="s">
         <v>155</v>
       </c>
-      <c r="R58" s="132"/>
+      <c r="R58" s="135"/>
     </row>
     <row r="59" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="C59" s="130" t="s">
+      <c r="C59" s="136" t="s">
         <v>156</v>
       </c>
-      <c r="D59" s="131"/>
-      <c r="E59" s="131" t="s">
+      <c r="D59" s="134"/>
+      <c r="E59" s="134" t="s">
         <v>157</v>
       </c>
-      <c r="F59" s="131"/>
-      <c r="G59" s="131" t="s">
+      <c r="F59" s="134"/>
+      <c r="G59" s="134" t="s">
         <v>158</v>
       </c>
-      <c r="H59" s="131"/>
-      <c r="I59" s="131" t="s">
+      <c r="H59" s="134"/>
+      <c r="I59" s="134" t="s">
         <v>159</v>
       </c>
-      <c r="J59" s="131"/>
-      <c r="K59" s="131" t="s">
+      <c r="J59" s="134"/>
+      <c r="K59" s="134" t="s">
         <v>160</v>
       </c>
-      <c r="L59" s="131"/>
-      <c r="M59" s="131" t="s">
+      <c r="L59" s="134"/>
+      <c r="M59" s="134" t="s">
         <v>161</v>
       </c>
-      <c r="N59" s="131"/>
-      <c r="O59" s="131" t="s">
+      <c r="N59" s="134"/>
+      <c r="O59" s="134" t="s">
         <v>162</v>
       </c>
-      <c r="P59" s="131"/>
-      <c r="Q59" s="131" t="s">
+      <c r="P59" s="134"/>
+      <c r="Q59" s="134" t="s">
         <v>163</v>
       </c>
-      <c r="R59" s="132"/>
+      <c r="R59" s="135"/>
     </row>
     <row r="60" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="C60" s="130" t="s">
+      <c r="C60" s="136" t="s">
         <v>164</v>
       </c>
-      <c r="D60" s="131"/>
-      <c r="E60" s="131" t="s">
+      <c r="D60" s="134"/>
+      <c r="E60" s="134" t="s">
         <v>165</v>
       </c>
-      <c r="F60" s="131"/>
-      <c r="G60" s="131" t="s">
+      <c r="F60" s="134"/>
+      <c r="G60" s="134" t="s">
         <v>166</v>
       </c>
-      <c r="H60" s="131"/>
-      <c r="I60" s="131" t="s">
+      <c r="H60" s="134"/>
+      <c r="I60" s="134" t="s">
         <v>167</v>
       </c>
-      <c r="J60" s="131"/>
-      <c r="K60" s="131" t="s">
+      <c r="J60" s="134"/>
+      <c r="K60" s="134" t="s">
         <v>168</v>
       </c>
-      <c r="L60" s="131"/>
-      <c r="M60" s="131" t="s">
+      <c r="L60" s="134"/>
+      <c r="M60" s="134" t="s">
         <v>169</v>
       </c>
-      <c r="N60" s="131"/>
-      <c r="O60" s="131" t="s">
+      <c r="N60" s="134"/>
+      <c r="O60" s="134" t="s">
         <v>170</v>
       </c>
-      <c r="P60" s="131"/>
-      <c r="Q60" s="131" t="s">
+      <c r="P60" s="134"/>
+      <c r="Q60" s="134" t="s">
         <v>171</v>
       </c>
-      <c r="R60" s="132"/>
+      <c r="R60" s="135"/>
     </row>
     <row r="61" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="39" t="s">
         <v>200</v>
       </c>
       <c r="C61" s="76" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D61" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="E61" s="148" t="s">
-        <v>6</v>
-      </c>
-      <c r="F61" s="148"/>
-      <c r="G61" s="122" t="s">
-        <v>234</v>
-      </c>
-      <c r="H61" s="122"/>
-      <c r="I61" s="148" t="s">
-        <v>6</v>
-      </c>
-      <c r="J61" s="148"/>
-      <c r="K61" s="122" t="s">
+      <c r="E61" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" s="124"/>
+      <c r="G61" s="137" t="s">
+        <v>143</v>
+      </c>
+      <c r="H61" s="137"/>
+      <c r="I61" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="J61" s="124"/>
+      <c r="K61" s="137" t="s">
         <v>144</v>
       </c>
-      <c r="L61" s="122"/>
-      <c r="M61" s="122" t="s">
+      <c r="L61" s="137"/>
+      <c r="M61" s="137" t="s">
         <v>145</v>
       </c>
-      <c r="N61" s="122"/>
-      <c r="O61" s="122" t="s">
+      <c r="N61" s="137"/>
+      <c r="O61" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="P61" s="122"/>
-      <c r="Q61" s="122" t="s">
+      <c r="P61" s="137"/>
+      <c r="Q61" s="137" t="s">
         <v>147</v>
       </c>
-      <c r="R61" s="123"/>
+      <c r="R61" s="138"/>
     </row>
     <row r="62" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="C62" s="124" t="s">
+      <c r="C62" s="139" t="s">
         <v>148</v>
       </c>
-      <c r="D62" s="122"/>
-      <c r="E62" s="122" t="s">
+      <c r="D62" s="137"/>
+      <c r="E62" s="137" t="s">
         <v>149</v>
       </c>
-      <c r="F62" s="122"/>
-      <c r="G62" s="122" t="s">
+      <c r="F62" s="137"/>
+      <c r="G62" s="137" t="s">
         <v>150</v>
       </c>
-      <c r="H62" s="122"/>
-      <c r="I62" s="122" t="s">
+      <c r="H62" s="137"/>
+      <c r="I62" s="137" t="s">
         <v>151</v>
       </c>
-      <c r="J62" s="122"/>
-      <c r="K62" s="122" t="s">
+      <c r="J62" s="137"/>
+      <c r="K62" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="L62" s="122"/>
-      <c r="M62" s="122" t="s">
+      <c r="L62" s="137"/>
+      <c r="M62" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="N62" s="122"/>
-      <c r="O62" s="122" t="s">
+      <c r="N62" s="137"/>
+      <c r="O62" s="137" t="s">
         <v>154</v>
       </c>
-      <c r="P62" s="122"/>
-      <c r="Q62" s="122" t="s">
+      <c r="P62" s="137"/>
+      <c r="Q62" s="137" t="s">
         <v>155</v>
       </c>
-      <c r="R62" s="123"/>
+      <c r="R62" s="138"/>
     </row>
     <row r="63" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="C63" s="124" t="s">
+      <c r="C63" s="139" t="s">
         <v>156</v>
       </c>
-      <c r="D63" s="122"/>
-      <c r="E63" s="122" t="s">
+      <c r="D63" s="137"/>
+      <c r="E63" s="137" t="s">
         <v>157</v>
       </c>
-      <c r="F63" s="122"/>
-      <c r="G63" s="122" t="s">
+      <c r="F63" s="137"/>
+      <c r="G63" s="137" t="s">
         <v>158</v>
       </c>
-      <c r="H63" s="122"/>
-      <c r="I63" s="122" t="s">
+      <c r="H63" s="137"/>
+      <c r="I63" s="137" t="s">
         <v>159</v>
       </c>
-      <c r="J63" s="122"/>
-      <c r="K63" s="122" t="s">
+      <c r="J63" s="137"/>
+      <c r="K63" s="137" t="s">
         <v>160</v>
       </c>
-      <c r="L63" s="122"/>
-      <c r="M63" s="122" t="s">
+      <c r="L63" s="137"/>
+      <c r="M63" s="137" t="s">
         <v>161</v>
       </c>
-      <c r="N63" s="122"/>
-      <c r="O63" s="122" t="s">
+      <c r="N63" s="137"/>
+      <c r="O63" s="137" t="s">
         <v>162</v>
       </c>
-      <c r="P63" s="122"/>
-      <c r="Q63" s="122" t="s">
+      <c r="P63" s="137"/>
+      <c r="Q63" s="137" t="s">
         <v>163</v>
       </c>
-      <c r="R63" s="123"/>
+      <c r="R63" s="138"/>
     </row>
     <row r="64" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="C64" s="124" t="s">
+      <c r="C64" s="139" t="s">
         <v>164</v>
       </c>
-      <c r="D64" s="122"/>
-      <c r="E64" s="122" t="s">
+      <c r="D64" s="137"/>
+      <c r="E64" s="137" t="s">
         <v>165</v>
       </c>
-      <c r="F64" s="122"/>
-      <c r="G64" s="122" t="s">
+      <c r="F64" s="137"/>
+      <c r="G64" s="137" t="s">
         <v>166</v>
       </c>
-      <c r="H64" s="122"/>
-      <c r="I64" s="122" t="s">
+      <c r="H64" s="137"/>
+      <c r="I64" s="137" t="s">
         <v>167</v>
       </c>
-      <c r="J64" s="122"/>
-      <c r="K64" s="122" t="s">
+      <c r="J64" s="137"/>
+      <c r="K64" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="L64" s="122"/>
-      <c r="M64" s="122" t="s">
+      <c r="L64" s="137"/>
+      <c r="M64" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="N64" s="122"/>
-      <c r="O64" s="122" t="s">
+      <c r="N64" s="137"/>
+      <c r="O64" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="P64" s="122"/>
-      <c r="Q64" s="122" t="s">
+      <c r="P64" s="137"/>
+      <c r="Q64" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="R64" s="123"/>
+      <c r="R64" s="138"/>
     </row>
     <row r="65" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="40" t="s">
         <v>204</v>
       </c>
       <c r="C65" s="68" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D65" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="E65" s="149" t="s">
-        <v>6</v>
-      </c>
-      <c r="F65" s="149"/>
-      <c r="G65" s="131" t="s">
-        <v>234</v>
-      </c>
-      <c r="H65" s="131"/>
-      <c r="I65" s="149" t="s">
-        <v>6</v>
-      </c>
-      <c r="J65" s="149"/>
-      <c r="K65" s="131" t="s">
+      <c r="E65" s="123" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" s="123"/>
+      <c r="G65" s="134" t="s">
+        <v>143</v>
+      </c>
+      <c r="H65" s="134"/>
+      <c r="I65" s="123" t="s">
+        <v>6</v>
+      </c>
+      <c r="J65" s="123"/>
+      <c r="K65" s="134" t="s">
         <v>144</v>
       </c>
-      <c r="L65" s="131"/>
-      <c r="M65" s="131" t="s">
+      <c r="L65" s="134"/>
+      <c r="M65" s="134" t="s">
         <v>145</v>
       </c>
-      <c r="N65" s="131"/>
-      <c r="O65" s="131" t="s">
+      <c r="N65" s="134"/>
+      <c r="O65" s="134" t="s">
         <v>146</v>
       </c>
-      <c r="P65" s="131"/>
-      <c r="Q65" s="131" t="s">
+      <c r="P65" s="134"/>
+      <c r="Q65" s="134" t="s">
         <v>147</v>
       </c>
-      <c r="R65" s="132"/>
+      <c r="R65" s="135"/>
     </row>
     <row r="66" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="C66" s="130" t="s">
+      <c r="C66" s="136" t="s">
         <v>148</v>
       </c>
-      <c r="D66" s="131"/>
-      <c r="E66" s="131" t="s">
+      <c r="D66" s="134"/>
+      <c r="E66" s="134" t="s">
         <v>149</v>
       </c>
-      <c r="F66" s="131"/>
-      <c r="G66" s="131" t="s">
+      <c r="F66" s="134"/>
+      <c r="G66" s="134" t="s">
         <v>150</v>
       </c>
-      <c r="H66" s="131"/>
-      <c r="I66" s="131" t="s">
+      <c r="H66" s="134"/>
+      <c r="I66" s="134" t="s">
         <v>151</v>
       </c>
-      <c r="J66" s="131"/>
-      <c r="K66" s="131" t="s">
+      <c r="J66" s="134"/>
+      <c r="K66" s="134" t="s">
         <v>152</v>
       </c>
-      <c r="L66" s="131"/>
-      <c r="M66" s="131" t="s">
+      <c r="L66" s="134"/>
+      <c r="M66" s="134" t="s">
         <v>153</v>
       </c>
-      <c r="N66" s="131"/>
-      <c r="O66" s="131" t="s">
+      <c r="N66" s="134"/>
+      <c r="O66" s="134" t="s">
         <v>154</v>
       </c>
-      <c r="P66" s="131"/>
-      <c r="Q66" s="131" t="s">
+      <c r="P66" s="134"/>
+      <c r="Q66" s="134" t="s">
         <v>155</v>
       </c>
-      <c r="R66" s="132"/>
+      <c r="R66" s="135"/>
     </row>
     <row r="67" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="C67" s="130" t="s">
+      <c r="C67" s="136" t="s">
         <v>156</v>
       </c>
-      <c r="D67" s="131"/>
-      <c r="E67" s="131" t="s">
+      <c r="D67" s="134"/>
+      <c r="E67" s="134" t="s">
         <v>157</v>
       </c>
-      <c r="F67" s="131"/>
-      <c r="G67" s="131" t="s">
+      <c r="F67" s="134"/>
+      <c r="G67" s="134" t="s">
         <v>158</v>
       </c>
-      <c r="H67" s="131"/>
-      <c r="I67" s="131" t="s">
+      <c r="H67" s="134"/>
+      <c r="I67" s="134" t="s">
         <v>159</v>
       </c>
-      <c r="J67" s="131"/>
-      <c r="K67" s="131" t="s">
+      <c r="J67" s="134"/>
+      <c r="K67" s="134" t="s">
         <v>160</v>
       </c>
-      <c r="L67" s="131"/>
-      <c r="M67" s="131" t="s">
+      <c r="L67" s="134"/>
+      <c r="M67" s="134" t="s">
         <v>161</v>
       </c>
-      <c r="N67" s="131"/>
-      <c r="O67" s="131" t="s">
+      <c r="N67" s="134"/>
+      <c r="O67" s="134" t="s">
         <v>162</v>
       </c>
-      <c r="P67" s="131"/>
-      <c r="Q67" s="131" t="s">
+      <c r="P67" s="134"/>
+      <c r="Q67" s="134" t="s">
         <v>163</v>
       </c>
-      <c r="R67" s="132"/>
+      <c r="R67" s="135"/>
     </row>
     <row r="68" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="C68" s="130" t="s">
+      <c r="C68" s="136" t="s">
         <v>164</v>
       </c>
-      <c r="D68" s="131"/>
-      <c r="E68" s="131" t="s">
+      <c r="D68" s="134"/>
+      <c r="E68" s="134" t="s">
         <v>165</v>
       </c>
-      <c r="F68" s="131"/>
-      <c r="G68" s="131" t="s">
+      <c r="F68" s="134"/>
+      <c r="G68" s="134" t="s">
         <v>166</v>
       </c>
-      <c r="H68" s="131"/>
-      <c r="I68" s="131" t="s">
+      <c r="H68" s="134"/>
+      <c r="I68" s="134" t="s">
         <v>167</v>
       </c>
-      <c r="J68" s="131"/>
-      <c r="K68" s="131" t="s">
+      <c r="J68" s="134"/>
+      <c r="K68" s="134" t="s">
         <v>168</v>
       </c>
-      <c r="L68" s="131"/>
-      <c r="M68" s="131" t="s">
+      <c r="L68" s="134"/>
+      <c r="M68" s="134" t="s">
         <v>169</v>
       </c>
-      <c r="N68" s="131"/>
-      <c r="O68" s="131" t="s">
+      <c r="N68" s="134"/>
+      <c r="O68" s="134" t="s">
         <v>170</v>
       </c>
-      <c r="P68" s="131"/>
-      <c r="Q68" s="131" t="s">
+      <c r="P68" s="134"/>
+      <c r="Q68" s="134" t="s">
         <v>171</v>
       </c>
-      <c r="R68" s="132"/>
+      <c r="R68" s="135"/>
     </row>
     <row r="69" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="40" t="s">
         <v>208</v>
       </c>
       <c r="C69" s="76" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D69" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="E69" s="148" t="s">
-        <v>6</v>
-      </c>
-      <c r="F69" s="148"/>
-      <c r="G69" s="122" t="s">
-        <v>234</v>
-      </c>
-      <c r="H69" s="122"/>
-      <c r="I69" s="148" t="s">
-        <v>6</v>
-      </c>
-      <c r="J69" s="148"/>
-      <c r="K69" s="122" t="s">
+      <c r="E69" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" s="124"/>
+      <c r="G69" s="137" t="s">
+        <v>143</v>
+      </c>
+      <c r="H69" s="137"/>
+      <c r="I69" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="J69" s="124"/>
+      <c r="K69" s="137" t="s">
         <v>144</v>
       </c>
-      <c r="L69" s="122"/>
-      <c r="M69" s="122" t="s">
+      <c r="L69" s="137"/>
+      <c r="M69" s="137" t="s">
         <v>145</v>
       </c>
-      <c r="N69" s="122"/>
-      <c r="O69" s="122" t="s">
+      <c r="N69" s="137"/>
+      <c r="O69" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="P69" s="122"/>
-      <c r="Q69" s="122" t="s">
+      <c r="P69" s="137"/>
+      <c r="Q69" s="137" t="s">
         <v>147</v>
       </c>
-      <c r="R69" s="123"/>
+      <c r="R69" s="138"/>
     </row>
     <row r="70" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="C70" s="124" t="s">
+      <c r="C70" s="139" t="s">
         <v>148</v>
       </c>
-      <c r="D70" s="122"/>
-      <c r="E70" s="122" t="s">
+      <c r="D70" s="137"/>
+      <c r="E70" s="137" t="s">
         <v>149</v>
       </c>
-      <c r="F70" s="122"/>
-      <c r="G70" s="122" t="s">
+      <c r="F70" s="137"/>
+      <c r="G70" s="137" t="s">
         <v>150</v>
       </c>
-      <c r="H70" s="122"/>
-      <c r="I70" s="122" t="s">
+      <c r="H70" s="137"/>
+      <c r="I70" s="137" t="s">
         <v>151</v>
       </c>
-      <c r="J70" s="122"/>
-      <c r="K70" s="122" t="s">
+      <c r="J70" s="137"/>
+      <c r="K70" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="L70" s="122"/>
-      <c r="M70" s="122" t="s">
+      <c r="L70" s="137"/>
+      <c r="M70" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="N70" s="122"/>
-      <c r="O70" s="122" t="s">
+      <c r="N70" s="137"/>
+      <c r="O70" s="137" t="s">
         <v>154</v>
       </c>
-      <c r="P70" s="122"/>
-      <c r="Q70" s="122" t="s">
+      <c r="P70" s="137"/>
+      <c r="Q70" s="137" t="s">
         <v>155</v>
       </c>
-      <c r="R70" s="123"/>
+      <c r="R70" s="138"/>
     </row>
     <row r="71" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="C71" s="124" t="s">
+      <c r="C71" s="139" t="s">
         <v>156</v>
       </c>
-      <c r="D71" s="122"/>
-      <c r="E71" s="122" t="s">
+      <c r="D71" s="137"/>
+      <c r="E71" s="137" t="s">
         <v>157</v>
       </c>
-      <c r="F71" s="122"/>
-      <c r="G71" s="122" t="s">
+      <c r="F71" s="137"/>
+      <c r="G71" s="137" t="s">
         <v>158</v>
       </c>
-      <c r="H71" s="122"/>
-      <c r="I71" s="122" t="s">
+      <c r="H71" s="137"/>
+      <c r="I71" s="137" t="s">
         <v>159</v>
       </c>
-      <c r="J71" s="122"/>
-      <c r="K71" s="122" t="s">
+      <c r="J71" s="137"/>
+      <c r="K71" s="137" t="s">
         <v>160</v>
       </c>
-      <c r="L71" s="122"/>
-      <c r="M71" s="122" t="s">
+      <c r="L71" s="137"/>
+      <c r="M71" s="137" t="s">
         <v>161</v>
       </c>
-      <c r="N71" s="122"/>
-      <c r="O71" s="122" t="s">
+      <c r="N71" s="137"/>
+      <c r="O71" s="137" t="s">
         <v>162</v>
       </c>
-      <c r="P71" s="122"/>
-      <c r="Q71" s="122" t="s">
+      <c r="P71" s="137"/>
+      <c r="Q71" s="137" t="s">
         <v>163</v>
       </c>
-      <c r="R71" s="123"/>
+      <c r="R71" s="138"/>
     </row>
     <row r="72" spans="2:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="C72" s="133" t="s">
+      <c r="C72" s="146" t="s">
         <v>164</v>
       </c>
-      <c r="D72" s="134"/>
-      <c r="E72" s="134" t="s">
+      <c r="D72" s="140"/>
+      <c r="E72" s="140" t="s">
         <v>165</v>
       </c>
-      <c r="F72" s="134"/>
-      <c r="G72" s="134" t="s">
+      <c r="F72" s="140"/>
+      <c r="G72" s="140" t="s">
         <v>166</v>
       </c>
-      <c r="H72" s="134"/>
-      <c r="I72" s="134" t="s">
+      <c r="H72" s="140"/>
+      <c r="I72" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="J72" s="134"/>
-      <c r="K72" s="134" t="s">
+      <c r="J72" s="140"/>
+      <c r="K72" s="140" t="s">
         <v>168</v>
       </c>
-      <c r="L72" s="134"/>
-      <c r="M72" s="134" t="s">
+      <c r="L72" s="140"/>
+      <c r="M72" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="N72" s="134"/>
-      <c r="O72" s="134" t="s">
+      <c r="N72" s="140"/>
+      <c r="O72" s="140" t="s">
         <v>170</v>
       </c>
-      <c r="P72" s="134"/>
-      <c r="Q72" s="134" t="s">
+      <c r="P72" s="140"/>
+      <c r="Q72" s="140" t="s">
         <v>171</v>
       </c>
-      <c r="R72" s="135"/>
+      <c r="R72" s="141"/>
     </row>
     <row r="73" spans="2:19" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="129"/>
-      <c r="C73" s="126"/>
-      <c r="D73" s="126"/>
-      <c r="E73" s="126"/>
-      <c r="F73" s="126"/>
-      <c r="G73" s="126"/>
-      <c r="H73" s="126"/>
-      <c r="I73" s="126"/>
-      <c r="J73" s="126"/>
-      <c r="K73" s="126"/>
-      <c r="L73" s="126"/>
-      <c r="M73" s="126"/>
-      <c r="N73" s="126"/>
-      <c r="O73" s="126"/>
-      <c r="P73" s="126"/>
-      <c r="Q73" s="126"/>
-      <c r="R73" s="126"/>
+      <c r="B73" s="156"/>
+      <c r="C73" s="153"/>
+      <c r="D73" s="153"/>
+      <c r="E73" s="153"/>
+      <c r="F73" s="153"/>
+      <c r="G73" s="153"/>
+      <c r="H73" s="153"/>
+      <c r="I73" s="153"/>
+      <c r="J73" s="153"/>
+      <c r="K73" s="153"/>
+      <c r="L73" s="153"/>
+      <c r="M73" s="153"/>
+      <c r="N73" s="153"/>
+      <c r="O73" s="153"/>
+      <c r="P73" s="153"/>
+      <c r="Q73" s="153"/>
+      <c r="R73" s="153"/>
       <c r="S73" s="70"/>
     </row>
     <row r="74" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7745,300 +7720,300 @@
         <v>211</v>
       </c>
       <c r="C74" s="66" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D74" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="E74" s="147" t="s">
-        <v>6</v>
-      </c>
-      <c r="F74" s="147"/>
-      <c r="G74" s="136" t="s">
-        <v>234</v>
-      </c>
-      <c r="H74" s="136"/>
-      <c r="I74" s="147" t="s">
-        <v>6</v>
-      </c>
-      <c r="J74" s="147"/>
-      <c r="K74" s="136" t="s">
+      <c r="E74" s="122" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74" s="122"/>
+      <c r="G74" s="132" t="s">
+        <v>143</v>
+      </c>
+      <c r="H74" s="132"/>
+      <c r="I74" s="122" t="s">
+        <v>6</v>
+      </c>
+      <c r="J74" s="122"/>
+      <c r="K74" s="132" t="s">
         <v>144</v>
       </c>
-      <c r="L74" s="136"/>
-      <c r="M74" s="136" t="s">
+      <c r="L74" s="132"/>
+      <c r="M74" s="132" t="s">
         <v>145</v>
       </c>
-      <c r="N74" s="136"/>
-      <c r="O74" s="136" t="s">
+      <c r="N74" s="132"/>
+      <c r="O74" s="132" t="s">
         <v>146</v>
       </c>
-      <c r="P74" s="136"/>
-      <c r="Q74" s="136" t="s">
+      <c r="P74" s="132"/>
+      <c r="Q74" s="132" t="s">
         <v>147</v>
       </c>
-      <c r="R74" s="137"/>
+      <c r="R74" s="133"/>
     </row>
     <row r="75" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="C75" s="130" t="s">
+      <c r="C75" s="136" t="s">
         <v>148</v>
       </c>
-      <c r="D75" s="131"/>
-      <c r="E75" s="131" t="s">
+      <c r="D75" s="134"/>
+      <c r="E75" s="134" t="s">
         <v>149</v>
       </c>
-      <c r="F75" s="131"/>
-      <c r="G75" s="131" t="s">
+      <c r="F75" s="134"/>
+      <c r="G75" s="134" t="s">
         <v>150</v>
       </c>
-      <c r="H75" s="131"/>
-      <c r="I75" s="131" t="s">
+      <c r="H75" s="134"/>
+      <c r="I75" s="134" t="s">
         <v>151</v>
       </c>
-      <c r="J75" s="131"/>
-      <c r="K75" s="131" t="s">
+      <c r="J75" s="134"/>
+      <c r="K75" s="134" t="s">
         <v>152</v>
       </c>
-      <c r="L75" s="131"/>
-      <c r="M75" s="131" t="s">
+      <c r="L75" s="134"/>
+      <c r="M75" s="134" t="s">
         <v>153</v>
       </c>
-      <c r="N75" s="131"/>
-      <c r="O75" s="131" t="s">
+      <c r="N75" s="134"/>
+      <c r="O75" s="134" t="s">
         <v>154</v>
       </c>
-      <c r="P75" s="131"/>
-      <c r="Q75" s="131" t="s">
+      <c r="P75" s="134"/>
+      <c r="Q75" s="134" t="s">
         <v>155</v>
       </c>
-      <c r="R75" s="132"/>
+      <c r="R75" s="135"/>
     </row>
     <row r="76" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="C76" s="130" t="s">
+      <c r="C76" s="136" t="s">
         <v>156</v>
       </c>
-      <c r="D76" s="131"/>
-      <c r="E76" s="131" t="s">
+      <c r="D76" s="134"/>
+      <c r="E76" s="134" t="s">
         <v>157</v>
       </c>
-      <c r="F76" s="131"/>
-      <c r="G76" s="131" t="s">
+      <c r="F76" s="134"/>
+      <c r="G76" s="134" t="s">
         <v>158</v>
       </c>
-      <c r="H76" s="131"/>
-      <c r="I76" s="131" t="s">
+      <c r="H76" s="134"/>
+      <c r="I76" s="134" t="s">
         <v>159</v>
       </c>
-      <c r="J76" s="131"/>
-      <c r="K76" s="131" t="s">
+      <c r="J76" s="134"/>
+      <c r="K76" s="134" t="s">
         <v>160</v>
       </c>
-      <c r="L76" s="131"/>
-      <c r="M76" s="131" t="s">
+      <c r="L76" s="134"/>
+      <c r="M76" s="134" t="s">
         <v>161</v>
       </c>
-      <c r="N76" s="131"/>
-      <c r="O76" s="131" t="s">
+      <c r="N76" s="134"/>
+      <c r="O76" s="134" t="s">
         <v>162</v>
       </c>
-      <c r="P76" s="131"/>
-      <c r="Q76" s="131" t="s">
+      <c r="P76" s="134"/>
+      <c r="Q76" s="134" t="s">
         <v>163</v>
       </c>
-      <c r="R76" s="132"/>
+      <c r="R76" s="135"/>
     </row>
     <row r="77" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="C77" s="130" t="s">
+      <c r="C77" s="136" t="s">
         <v>164</v>
       </c>
-      <c r="D77" s="131"/>
-      <c r="E77" s="131" t="s">
+      <c r="D77" s="134"/>
+      <c r="E77" s="134" t="s">
         <v>165</v>
       </c>
-      <c r="F77" s="131"/>
-      <c r="G77" s="131" t="s">
+      <c r="F77" s="134"/>
+      <c r="G77" s="134" t="s">
         <v>166</v>
       </c>
-      <c r="H77" s="131"/>
-      <c r="I77" s="131" t="s">
+      <c r="H77" s="134"/>
+      <c r="I77" s="134" t="s">
         <v>167</v>
       </c>
-      <c r="J77" s="131"/>
-      <c r="K77" s="131" t="s">
+      <c r="J77" s="134"/>
+      <c r="K77" s="134" t="s">
         <v>168</v>
       </c>
-      <c r="L77" s="131"/>
-      <c r="M77" s="131" t="s">
+      <c r="L77" s="134"/>
+      <c r="M77" s="134" t="s">
         <v>169</v>
       </c>
-      <c r="N77" s="131"/>
-      <c r="O77" s="131" t="s">
+      <c r="N77" s="134"/>
+      <c r="O77" s="134" t="s">
         <v>170</v>
       </c>
-      <c r="P77" s="131"/>
-      <c r="Q77" s="131" t="s">
+      <c r="P77" s="134"/>
+      <c r="Q77" s="134" t="s">
         <v>171</v>
       </c>
-      <c r="R77" s="132"/>
+      <c r="R77" s="135"/>
     </row>
     <row r="78" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="39" t="s">
         <v>215</v>
       </c>
       <c r="C78" s="77" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D78" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="E78" s="148" t="s">
-        <v>6</v>
-      </c>
-      <c r="F78" s="148"/>
-      <c r="G78" s="122" t="s">
-        <v>234</v>
-      </c>
-      <c r="H78" s="122"/>
-      <c r="I78" s="148" t="s">
-        <v>6</v>
-      </c>
-      <c r="J78" s="148"/>
-      <c r="K78" s="122" t="s">
+      <c r="E78" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" s="124"/>
+      <c r="G78" s="137" t="s">
+        <v>143</v>
+      </c>
+      <c r="H78" s="137"/>
+      <c r="I78" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="J78" s="124"/>
+      <c r="K78" s="137" t="s">
         <v>144</v>
       </c>
-      <c r="L78" s="122"/>
-      <c r="M78" s="122" t="s">
+      <c r="L78" s="137"/>
+      <c r="M78" s="137" t="s">
         <v>145</v>
       </c>
-      <c r="N78" s="122"/>
-      <c r="O78" s="122" t="s">
+      <c r="N78" s="137"/>
+      <c r="O78" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="P78" s="122"/>
-      <c r="Q78" s="122" t="s">
+      <c r="P78" s="137"/>
+      <c r="Q78" s="137" t="s">
         <v>147</v>
       </c>
-      <c r="R78" s="123"/>
+      <c r="R78" s="138"/>
     </row>
     <row r="79" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="C79" s="124" t="s">
+      <c r="C79" s="139" t="s">
         <v>148</v>
       </c>
-      <c r="D79" s="122"/>
-      <c r="E79" s="122" t="s">
+      <c r="D79" s="137"/>
+      <c r="E79" s="137" t="s">
         <v>149</v>
       </c>
-      <c r="F79" s="122"/>
-      <c r="G79" s="122" t="s">
+      <c r="F79" s="137"/>
+      <c r="G79" s="137" t="s">
         <v>150</v>
       </c>
-      <c r="H79" s="122"/>
-      <c r="I79" s="122" t="s">
+      <c r="H79" s="137"/>
+      <c r="I79" s="137" t="s">
         <v>151</v>
       </c>
-      <c r="J79" s="122"/>
-      <c r="K79" s="122" t="s">
+      <c r="J79" s="137"/>
+      <c r="K79" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="L79" s="122"/>
-      <c r="M79" s="122" t="s">
+      <c r="L79" s="137"/>
+      <c r="M79" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="N79" s="122"/>
-      <c r="O79" s="122" t="s">
+      <c r="N79" s="137"/>
+      <c r="O79" s="137" t="s">
         <v>154</v>
       </c>
-      <c r="P79" s="122"/>
-      <c r="Q79" s="122" t="s">
+      <c r="P79" s="137"/>
+      <c r="Q79" s="137" t="s">
         <v>155</v>
       </c>
-      <c r="R79" s="123"/>
+      <c r="R79" s="138"/>
     </row>
     <row r="80" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="C80" s="124" t="s">
+      <c r="C80" s="139" t="s">
         <v>156</v>
       </c>
-      <c r="D80" s="122"/>
-      <c r="E80" s="122" t="s">
+      <c r="D80" s="137"/>
+      <c r="E80" s="137" t="s">
         <v>157</v>
       </c>
-      <c r="F80" s="122"/>
-      <c r="G80" s="122" t="s">
+      <c r="F80" s="137"/>
+      <c r="G80" s="137" t="s">
         <v>158</v>
       </c>
-      <c r="H80" s="122"/>
-      <c r="I80" s="122" t="s">
+      <c r="H80" s="137"/>
+      <c r="I80" s="137" t="s">
         <v>159</v>
       </c>
-      <c r="J80" s="122"/>
-      <c r="K80" s="122" t="s">
+      <c r="J80" s="137"/>
+      <c r="K80" s="137" t="s">
         <v>160</v>
       </c>
-      <c r="L80" s="122"/>
-      <c r="M80" s="122" t="s">
+      <c r="L80" s="137"/>
+      <c r="M80" s="137" t="s">
         <v>161</v>
       </c>
-      <c r="N80" s="122"/>
-      <c r="O80" s="122" t="s">
+      <c r="N80" s="137"/>
+      <c r="O80" s="137" t="s">
         <v>162</v>
       </c>
-      <c r="P80" s="122"/>
-      <c r="Q80" s="122" t="s">
+      <c r="P80" s="137"/>
+      <c r="Q80" s="137" t="s">
         <v>163</v>
       </c>
-      <c r="R80" s="123"/>
+      <c r="R80" s="138"/>
     </row>
     <row r="81" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="C81" s="124" t="s">
+      <c r="C81" s="139" t="s">
         <v>164</v>
       </c>
-      <c r="D81" s="122"/>
-      <c r="E81" s="122" t="s">
+      <c r="D81" s="137"/>
+      <c r="E81" s="137" t="s">
         <v>165</v>
       </c>
-      <c r="F81" s="122"/>
-      <c r="G81" s="122" t="s">
+      <c r="F81" s="137"/>
+      <c r="G81" s="137" t="s">
         <v>166</v>
       </c>
-      <c r="H81" s="122"/>
-      <c r="I81" s="122" t="s">
+      <c r="H81" s="137"/>
+      <c r="I81" s="137" t="s">
         <v>167</v>
       </c>
-      <c r="J81" s="122"/>
-      <c r="K81" s="122" t="s">
+      <c r="J81" s="137"/>
+      <c r="K81" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="L81" s="122"/>
-      <c r="M81" s="122" t="s">
+      <c r="L81" s="137"/>
+      <c r="M81" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="N81" s="122"/>
-      <c r="O81" s="122" t="s">
+      <c r="N81" s="137"/>
+      <c r="O81" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="P81" s="122"/>
-      <c r="Q81" s="122" t="s">
+      <c r="P81" s="137"/>
+      <c r="Q81" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="R81" s="123"/>
+      <c r="R81" s="138"/>
     </row>
     <row r="82" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="40" t="s">
@@ -8209,420 +8184,933 @@
       <c r="R89" s="81"/>
     </row>
     <row r="91" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B91" s="156" t="s">
+      <c r="B91" s="125" t="s">
         <v>230</v>
       </c>
-      <c r="C91" s="156"/>
-      <c r="D91" s="156">
+      <c r="C91" s="125"/>
+      <c r="D91" s="125">
         <v>7</v>
       </c>
-      <c r="E91" s="156"/>
-      <c r="F91" s="156">
-        <v>6</v>
-      </c>
-      <c r="G91" s="156"/>
-      <c r="H91" s="156">
+      <c r="E91" s="125"/>
+      <c r="F91" s="125">
+        <v>6</v>
+      </c>
+      <c r="G91" s="125"/>
+      <c r="H91" s="125">
         <v>5</v>
       </c>
-      <c r="I91" s="156"/>
-      <c r="J91" s="156">
+      <c r="I91" s="125"/>
+      <c r="J91" s="125">
         <v>4</v>
       </c>
-      <c r="K91" s="156"/>
-      <c r="L91" s="156">
+      <c r="K91" s="125"/>
+      <c r="L91" s="125">
         <v>3</v>
       </c>
-      <c r="M91" s="156"/>
-      <c r="N91" s="156">
+      <c r="M91" s="125"/>
+      <c r="N91" s="125">
         <v>2</v>
       </c>
-      <c r="O91" s="156"/>
-      <c r="P91" s="156">
+      <c r="O91" s="125"/>
+      <c r="P91" s="125">
         <v>1</v>
       </c>
-      <c r="Q91" s="156"/>
-      <c r="R91" s="156">
+      <c r="Q91" s="125"/>
+      <c r="R91" s="125">
         <v>0</v>
       </c>
-      <c r="S91" s="156"/>
+      <c r="S91" s="125"/>
     </row>
     <row r="92" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="143" t="s">
+      <c r="B92" s="142" t="s">
         <v>229</v>
       </c>
-      <c r="C92" s="144"/>
-      <c r="D92" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="E92" s="87"/>
-      <c r="F92" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="G92" s="87"/>
-      <c r="H92" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="I92" s="87"/>
-      <c r="J92" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="K92" s="87"/>
-      <c r="L92" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="M92" s="87"/>
-      <c r="N92" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="O92" s="87"/>
-      <c r="P92" s="150" t="s">
+      <c r="C92" s="143"/>
+      <c r="D92" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" s="84"/>
+      <c r="F92" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="G92" s="84"/>
+      <c r="H92" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="I92" s="84"/>
+      <c r="J92" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="K92" s="84"/>
+      <c r="L92" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="M92" s="84"/>
+      <c r="N92" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="O92" s="84"/>
+      <c r="P92" s="126" t="s">
         <v>231</v>
       </c>
-      <c r="Q92" s="151"/>
-      <c r="R92" s="150" t="s">
+      <c r="Q92" s="127"/>
+      <c r="R92" s="126" t="s">
         <v>232</v>
       </c>
-      <c r="S92" s="151"/>
+      <c r="S92" s="127"/>
     </row>
     <row r="93" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="143"/>
-      <c r="C93" s="144"/>
-      <c r="D93" s="87"/>
-      <c r="E93" s="87"/>
-      <c r="F93" s="87"/>
-      <c r="G93" s="87"/>
-      <c r="H93" s="87"/>
-      <c r="I93" s="87"/>
-      <c r="J93" s="87"/>
-      <c r="K93" s="87"/>
-      <c r="L93" s="87"/>
-      <c r="M93" s="87"/>
-      <c r="N93" s="87"/>
-      <c r="O93" s="87"/>
-      <c r="P93" s="152"/>
-      <c r="Q93" s="153"/>
-      <c r="R93" s="152"/>
-      <c r="S93" s="153"/>
+      <c r="B93" s="142"/>
+      <c r="C93" s="143"/>
+      <c r="D93" s="84"/>
+      <c r="E93" s="84"/>
+      <c r="F93" s="84"/>
+      <c r="G93" s="84"/>
+      <c r="H93" s="84"/>
+      <c r="I93" s="84"/>
+      <c r="J93" s="84"/>
+      <c r="K93" s="84"/>
+      <c r="L93" s="84"/>
+      <c r="M93" s="84"/>
+      <c r="N93" s="84"/>
+      <c r="O93" s="84"/>
+      <c r="P93" s="128"/>
+      <c r="Q93" s="129"/>
+      <c r="R93" s="128"/>
+      <c r="S93" s="129"/>
     </row>
     <row r="94" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="143"/>
-      <c r="C94" s="144"/>
-      <c r="D94" s="87"/>
-      <c r="E94" s="87"/>
-      <c r="F94" s="87"/>
-      <c r="G94" s="87"/>
-      <c r="H94" s="87"/>
-      <c r="I94" s="87"/>
-      <c r="J94" s="87"/>
-      <c r="K94" s="87"/>
-      <c r="L94" s="87"/>
-      <c r="M94" s="87"/>
-      <c r="N94" s="87"/>
-      <c r="O94" s="87"/>
-      <c r="P94" s="152"/>
-      <c r="Q94" s="153"/>
-      <c r="R94" s="152"/>
-      <c r="S94" s="153"/>
+      <c r="B94" s="142"/>
+      <c r="C94" s="143"/>
+      <c r="D94" s="84"/>
+      <c r="E94" s="84"/>
+      <c r="F94" s="84"/>
+      <c r="G94" s="84"/>
+      <c r="H94" s="84"/>
+      <c r="I94" s="84"/>
+      <c r="J94" s="84"/>
+      <c r="K94" s="84"/>
+      <c r="L94" s="84"/>
+      <c r="M94" s="84"/>
+      <c r="N94" s="84"/>
+      <c r="O94" s="84"/>
+      <c r="P94" s="128"/>
+      <c r="Q94" s="129"/>
+      <c r="R94" s="128"/>
+      <c r="S94" s="129"/>
     </row>
     <row r="95" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="145"/>
-      <c r="C95" s="146"/>
-      <c r="D95" s="87"/>
-      <c r="E95" s="87"/>
-      <c r="F95" s="87"/>
-      <c r="G95" s="87"/>
-      <c r="H95" s="87"/>
-      <c r="I95" s="87"/>
-      <c r="J95" s="87"/>
-      <c r="K95" s="87"/>
-      <c r="L95" s="87"/>
-      <c r="M95" s="87"/>
-      <c r="N95" s="87"/>
-      <c r="O95" s="87"/>
-      <c r="P95" s="154"/>
-      <c r="Q95" s="155"/>
-      <c r="R95" s="154"/>
-      <c r="S95" s="155"/>
+      <c r="B95" s="144"/>
+      <c r="C95" s="145"/>
+      <c r="D95" s="84"/>
+      <c r="E95" s="84"/>
+      <c r="F95" s="84"/>
+      <c r="G95" s="84"/>
+      <c r="H95" s="84"/>
+      <c r="I95" s="84"/>
+      <c r="J95" s="84"/>
+      <c r="K95" s="84"/>
+      <c r="L95" s="84"/>
+      <c r="M95" s="84"/>
+      <c r="N95" s="84"/>
+      <c r="O95" s="84"/>
+      <c r="P95" s="130"/>
+      <c r="Q95" s="131"/>
+      <c r="R95" s="130"/>
+      <c r="S95" s="131"/>
     </row>
     <row r="96" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="138" t="s">
+      <c r="B96" s="147" t="s">
         <v>173</v>
       </c>
-      <c r="C96" s="139"/>
-      <c r="D96" s="140" t="s">
+      <c r="C96" s="148"/>
+      <c r="D96" s="149" t="s">
         <v>174</v>
       </c>
-      <c r="E96" s="140"/>
-      <c r="F96" s="140"/>
-      <c r="G96" s="140"/>
-      <c r="H96" s="140"/>
-      <c r="I96" s="140"/>
-      <c r="J96" s="140"/>
-      <c r="K96" s="140"/>
-      <c r="L96" s="140"/>
-      <c r="M96" s="140"/>
-      <c r="N96" s="140"/>
-      <c r="O96" s="140"/>
-      <c r="P96" s="140"/>
-      <c r="Q96" s="140"/>
-      <c r="R96" s="140"/>
-      <c r="S96" s="140"/>
+      <c r="E96" s="149"/>
+      <c r="F96" s="149"/>
+      <c r="G96" s="149"/>
+      <c r="H96" s="149"/>
+      <c r="I96" s="149"/>
+      <c r="J96" s="149"/>
+      <c r="K96" s="149"/>
+      <c r="L96" s="149"/>
+      <c r="M96" s="149"/>
+      <c r="N96" s="149"/>
+      <c r="O96" s="149"/>
+      <c r="P96" s="149"/>
+      <c r="Q96" s="149"/>
+      <c r="R96" s="149"/>
+      <c r="S96" s="149"/>
     </row>
     <row r="97" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="139"/>
-      <c r="C97" s="139"/>
-      <c r="D97" s="140"/>
-      <c r="E97" s="140"/>
-      <c r="F97" s="140"/>
-      <c r="G97" s="140"/>
-      <c r="H97" s="140"/>
-      <c r="I97" s="140"/>
-      <c r="J97" s="140"/>
-      <c r="K97" s="140"/>
-      <c r="L97" s="140"/>
-      <c r="M97" s="140"/>
-      <c r="N97" s="140"/>
-      <c r="O97" s="140"/>
-      <c r="P97" s="140"/>
-      <c r="Q97" s="140"/>
-      <c r="R97" s="140"/>
-      <c r="S97" s="140"/>
+      <c r="B97" s="148"/>
+      <c r="C97" s="148"/>
+      <c r="D97" s="149"/>
+      <c r="E97" s="149"/>
+      <c r="F97" s="149"/>
+      <c r="G97" s="149"/>
+      <c r="H97" s="149"/>
+      <c r="I97" s="149"/>
+      <c r="J97" s="149"/>
+      <c r="K97" s="149"/>
+      <c r="L97" s="149"/>
+      <c r="M97" s="149"/>
+      <c r="N97" s="149"/>
+      <c r="O97" s="149"/>
+      <c r="P97" s="149"/>
+      <c r="Q97" s="149"/>
+      <c r="R97" s="149"/>
+      <c r="S97" s="149"/>
     </row>
     <row r="98" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="139"/>
-      <c r="C98" s="139"/>
-      <c r="D98" s="140"/>
-      <c r="E98" s="140"/>
-      <c r="F98" s="140"/>
-      <c r="G98" s="140"/>
-      <c r="H98" s="140"/>
-      <c r="I98" s="140"/>
-      <c r="J98" s="140"/>
-      <c r="K98" s="140"/>
-      <c r="L98" s="140"/>
-      <c r="M98" s="140"/>
-      <c r="N98" s="140"/>
-      <c r="O98" s="140"/>
-      <c r="P98" s="140"/>
-      <c r="Q98" s="140"/>
-      <c r="R98" s="140"/>
-      <c r="S98" s="140"/>
+      <c r="B98" s="148"/>
+      <c r="C98" s="148"/>
+      <c r="D98" s="149"/>
+      <c r="E98" s="149"/>
+      <c r="F98" s="149"/>
+      <c r="G98" s="149"/>
+      <c r="H98" s="149"/>
+      <c r="I98" s="149"/>
+      <c r="J98" s="149"/>
+      <c r="K98" s="149"/>
+      <c r="L98" s="149"/>
+      <c r="M98" s="149"/>
+      <c r="N98" s="149"/>
+      <c r="O98" s="149"/>
+      <c r="P98" s="149"/>
+      <c r="Q98" s="149"/>
+      <c r="R98" s="149"/>
+      <c r="S98" s="149"/>
     </row>
     <row r="99" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="139"/>
-      <c r="C99" s="139"/>
-      <c r="D99" s="140"/>
-      <c r="E99" s="140"/>
-      <c r="F99" s="140"/>
-      <c r="G99" s="140"/>
-      <c r="H99" s="140"/>
-      <c r="I99" s="140"/>
-      <c r="J99" s="140"/>
-      <c r="K99" s="140"/>
-      <c r="L99" s="140"/>
-      <c r="M99" s="140"/>
-      <c r="N99" s="140"/>
-      <c r="O99" s="140"/>
-      <c r="P99" s="140"/>
-      <c r="Q99" s="140"/>
-      <c r="R99" s="140"/>
-      <c r="S99" s="140"/>
+      <c r="B99" s="148"/>
+      <c r="C99" s="148"/>
+      <c r="D99" s="149"/>
+      <c r="E99" s="149"/>
+      <c r="F99" s="149"/>
+      <c r="G99" s="149"/>
+      <c r="H99" s="149"/>
+      <c r="I99" s="149"/>
+      <c r="J99" s="149"/>
+      <c r="K99" s="149"/>
+      <c r="L99" s="149"/>
+      <c r="M99" s="149"/>
+      <c r="N99" s="149"/>
+      <c r="O99" s="149"/>
+      <c r="P99" s="149"/>
+      <c r="Q99" s="149"/>
+      <c r="R99" s="149"/>
+      <c r="S99" s="149"/>
     </row>
     <row r="100" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="141" t="s">
+      <c r="B100" s="150" t="s">
         <v>175</v>
       </c>
-      <c r="C100" s="142"/>
-      <c r="D100" s="140" t="s">
+      <c r="C100" s="151"/>
+      <c r="D100" s="149" t="s">
         <v>176</v>
       </c>
-      <c r="E100" s="140"/>
-      <c r="F100" s="140"/>
-      <c r="G100" s="140"/>
-      <c r="H100" s="140"/>
-      <c r="I100" s="140"/>
-      <c r="J100" s="140"/>
-      <c r="K100" s="140"/>
-      <c r="L100" s="140"/>
-      <c r="M100" s="140"/>
-      <c r="N100" s="140"/>
-      <c r="O100" s="140"/>
-      <c r="P100" s="140"/>
-      <c r="Q100" s="140"/>
-      <c r="R100" s="140"/>
-      <c r="S100" s="140"/>
+      <c r="E100" s="149"/>
+      <c r="F100" s="149"/>
+      <c r="G100" s="149"/>
+      <c r="H100" s="149"/>
+      <c r="I100" s="149"/>
+      <c r="J100" s="149"/>
+      <c r="K100" s="149"/>
+      <c r="L100" s="149"/>
+      <c r="M100" s="149"/>
+      <c r="N100" s="149"/>
+      <c r="O100" s="149"/>
+      <c r="P100" s="149"/>
+      <c r="Q100" s="149"/>
+      <c r="R100" s="149"/>
+      <c r="S100" s="149"/>
     </row>
     <row r="101" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="142"/>
-      <c r="C101" s="142"/>
-      <c r="D101" s="140"/>
-      <c r="E101" s="140"/>
-      <c r="F101" s="140"/>
-      <c r="G101" s="140"/>
-      <c r="H101" s="140"/>
-      <c r="I101" s="140"/>
-      <c r="J101" s="140"/>
-      <c r="K101" s="140"/>
-      <c r="L101" s="140"/>
-      <c r="M101" s="140"/>
-      <c r="N101" s="140"/>
-      <c r="O101" s="140"/>
-      <c r="P101" s="140"/>
-      <c r="Q101" s="140"/>
-      <c r="R101" s="140"/>
-      <c r="S101" s="140"/>
+      <c r="B101" s="151"/>
+      <c r="C101" s="151"/>
+      <c r="D101" s="149"/>
+      <c r="E101" s="149"/>
+      <c r="F101" s="149"/>
+      <c r="G101" s="149"/>
+      <c r="H101" s="149"/>
+      <c r="I101" s="149"/>
+      <c r="J101" s="149"/>
+      <c r="K101" s="149"/>
+      <c r="L101" s="149"/>
+      <c r="M101" s="149"/>
+      <c r="N101" s="149"/>
+      <c r="O101" s="149"/>
+      <c r="P101" s="149"/>
+      <c r="Q101" s="149"/>
+      <c r="R101" s="149"/>
+      <c r="S101" s="149"/>
     </row>
     <row r="102" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="142"/>
-      <c r="C102" s="142"/>
-      <c r="D102" s="140"/>
-      <c r="E102" s="140"/>
-      <c r="F102" s="140"/>
-      <c r="G102" s="140"/>
-      <c r="H102" s="140"/>
-      <c r="I102" s="140"/>
-      <c r="J102" s="140"/>
-      <c r="K102" s="140"/>
-      <c r="L102" s="140"/>
-      <c r="M102" s="140"/>
-      <c r="N102" s="140"/>
-      <c r="O102" s="140"/>
-      <c r="P102" s="140"/>
-      <c r="Q102" s="140"/>
-      <c r="R102" s="140"/>
-      <c r="S102" s="140"/>
+      <c r="B102" s="151"/>
+      <c r="C102" s="151"/>
+      <c r="D102" s="149"/>
+      <c r="E102" s="149"/>
+      <c r="F102" s="149"/>
+      <c r="G102" s="149"/>
+      <c r="H102" s="149"/>
+      <c r="I102" s="149"/>
+      <c r="J102" s="149"/>
+      <c r="K102" s="149"/>
+      <c r="L102" s="149"/>
+      <c r="M102" s="149"/>
+      <c r="N102" s="149"/>
+      <c r="O102" s="149"/>
+      <c r="P102" s="149"/>
+      <c r="Q102" s="149"/>
+      <c r="R102" s="149"/>
+      <c r="S102" s="149"/>
     </row>
     <row r="103" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="142"/>
-      <c r="C103" s="142"/>
-      <c r="D103" s="140"/>
-      <c r="E103" s="140"/>
-      <c r="F103" s="140"/>
-      <c r="G103" s="140"/>
-      <c r="H103" s="140"/>
-      <c r="I103" s="140"/>
-      <c r="J103" s="140"/>
-      <c r="K103" s="140"/>
-      <c r="L103" s="140"/>
-      <c r="M103" s="140"/>
-      <c r="N103" s="140"/>
-      <c r="O103" s="140"/>
-      <c r="P103" s="140"/>
-      <c r="Q103" s="140"/>
-      <c r="R103" s="140"/>
-      <c r="S103" s="140"/>
+      <c r="B103" s="151"/>
+      <c r="C103" s="151"/>
+      <c r="D103" s="149"/>
+      <c r="E103" s="149"/>
+      <c r="F103" s="149"/>
+      <c r="G103" s="149"/>
+      <c r="H103" s="149"/>
+      <c r="I103" s="149"/>
+      <c r="J103" s="149"/>
+      <c r="K103" s="149"/>
+      <c r="L103" s="149"/>
+      <c r="M103" s="149"/>
+      <c r="N103" s="149"/>
+      <c r="O103" s="149"/>
+      <c r="P103" s="149"/>
+      <c r="Q103" s="149"/>
+      <c r="R103" s="149"/>
+      <c r="S103" s="149"/>
     </row>
     <row r="104" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="138" t="s">
+      <c r="B104" s="147" t="s">
         <v>177</v>
       </c>
-      <c r="C104" s="139"/>
-      <c r="D104" s="140" t="s">
+      <c r="C104" s="148"/>
+      <c r="D104" s="149" t="s">
         <v>178</v>
       </c>
-      <c r="E104" s="140"/>
-      <c r="F104" s="140"/>
-      <c r="G104" s="140"/>
-      <c r="H104" s="140"/>
-      <c r="I104" s="140"/>
-      <c r="J104" s="140"/>
-      <c r="K104" s="140"/>
-      <c r="L104" s="140"/>
-      <c r="M104" s="140"/>
-      <c r="N104" s="140"/>
-      <c r="O104" s="140"/>
-      <c r="P104" s="140"/>
-      <c r="Q104" s="140"/>
-      <c r="R104" s="140"/>
-      <c r="S104" s="140"/>
+      <c r="E104" s="149"/>
+      <c r="F104" s="149"/>
+      <c r="G104" s="149"/>
+      <c r="H104" s="149"/>
+      <c r="I104" s="149"/>
+      <c r="J104" s="149"/>
+      <c r="K104" s="149"/>
+      <c r="L104" s="149"/>
+      <c r="M104" s="149"/>
+      <c r="N104" s="149"/>
+      <c r="O104" s="149"/>
+      <c r="P104" s="149"/>
+      <c r="Q104" s="149"/>
+      <c r="R104" s="149"/>
+      <c r="S104" s="149"/>
     </row>
     <row r="105" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="139"/>
-      <c r="C105" s="139"/>
-      <c r="D105" s="140"/>
-      <c r="E105" s="140"/>
-      <c r="F105" s="140"/>
-      <c r="G105" s="140"/>
-      <c r="H105" s="140"/>
-      <c r="I105" s="140"/>
-      <c r="J105" s="140"/>
-      <c r="K105" s="140"/>
-      <c r="L105" s="140"/>
-      <c r="M105" s="140"/>
-      <c r="N105" s="140"/>
-      <c r="O105" s="140"/>
-      <c r="P105" s="140"/>
-      <c r="Q105" s="140"/>
-      <c r="R105" s="140"/>
-      <c r="S105" s="140"/>
+      <c r="B105" s="148"/>
+      <c r="C105" s="148"/>
+      <c r="D105" s="149"/>
+      <c r="E105" s="149"/>
+      <c r="F105" s="149"/>
+      <c r="G105" s="149"/>
+      <c r="H105" s="149"/>
+      <c r="I105" s="149"/>
+      <c r="J105" s="149"/>
+      <c r="K105" s="149"/>
+      <c r="L105" s="149"/>
+      <c r="M105" s="149"/>
+      <c r="N105" s="149"/>
+      <c r="O105" s="149"/>
+      <c r="P105" s="149"/>
+      <c r="Q105" s="149"/>
+      <c r="R105" s="149"/>
+      <c r="S105" s="149"/>
     </row>
     <row r="106" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="139"/>
-      <c r="C106" s="139"/>
-      <c r="D106" s="140"/>
-      <c r="E106" s="140"/>
-      <c r="F106" s="140"/>
-      <c r="G106" s="140"/>
-      <c r="H106" s="140"/>
-      <c r="I106" s="140"/>
-      <c r="J106" s="140"/>
-      <c r="K106" s="140"/>
-      <c r="L106" s="140"/>
-      <c r="M106" s="140"/>
-      <c r="N106" s="140"/>
-      <c r="O106" s="140"/>
-      <c r="P106" s="140"/>
-      <c r="Q106" s="140"/>
-      <c r="R106" s="140"/>
-      <c r="S106" s="140"/>
+      <c r="B106" s="148"/>
+      <c r="C106" s="148"/>
+      <c r="D106" s="149"/>
+      <c r="E106" s="149"/>
+      <c r="F106" s="149"/>
+      <c r="G106" s="149"/>
+      <c r="H106" s="149"/>
+      <c r="I106" s="149"/>
+      <c r="J106" s="149"/>
+      <c r="K106" s="149"/>
+      <c r="L106" s="149"/>
+      <c r="M106" s="149"/>
+      <c r="N106" s="149"/>
+      <c r="O106" s="149"/>
+      <c r="P106" s="149"/>
+      <c r="Q106" s="149"/>
+      <c r="R106" s="149"/>
+      <c r="S106" s="149"/>
     </row>
     <row r="107" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="139"/>
-      <c r="C107" s="139"/>
-      <c r="D107" s="140"/>
-      <c r="E107" s="140"/>
-      <c r="F107" s="140"/>
-      <c r="G107" s="140"/>
-      <c r="H107" s="140"/>
-      <c r="I107" s="140"/>
-      <c r="J107" s="140"/>
-      <c r="K107" s="140"/>
-      <c r="L107" s="140"/>
-      <c r="M107" s="140"/>
-      <c r="N107" s="140"/>
-      <c r="O107" s="140"/>
-      <c r="P107" s="140"/>
-      <c r="Q107" s="140"/>
-      <c r="R107" s="140"/>
-      <c r="S107" s="140"/>
+      <c r="B107" s="148"/>
+      <c r="C107" s="148"/>
+      <c r="D107" s="149"/>
+      <c r="E107" s="149"/>
+      <c r="F107" s="149"/>
+      <c r="G107" s="149"/>
+      <c r="H107" s="149"/>
+      <c r="I107" s="149"/>
+      <c r="J107" s="149"/>
+      <c r="K107" s="149"/>
+      <c r="L107" s="149"/>
+      <c r="M107" s="149"/>
+      <c r="N107" s="149"/>
+      <c r="O107" s="149"/>
+      <c r="P107" s="149"/>
+      <c r="Q107" s="149"/>
+      <c r="R107" s="149"/>
+      <c r="S107" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="587">
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="L91:M91"/>
-    <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="R91:S91"/>
-    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="Q80:R80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="O81:P81"/>
+    <mergeCell ref="Q81:R81"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="O80:P80"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B39:R39"/>
+    <mergeCell ref="B73:R73"/>
+    <mergeCell ref="B56:R56"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="O79:P79"/>
+    <mergeCell ref="Q79:R79"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="M77:N77"/>
+    <mergeCell ref="O77:P77"/>
+    <mergeCell ref="Q77:R77"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="O78:P78"/>
+    <mergeCell ref="Q78:R78"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="O75:P75"/>
+    <mergeCell ref="Q75:R75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="M76:N76"/>
+    <mergeCell ref="O76:P76"/>
+    <mergeCell ref="Q76:R76"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="Q72:R72"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="O74:P74"/>
+    <mergeCell ref="Q74:R74"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="O70:P70"/>
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="O68:P68"/>
+    <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="O69:P69"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="O67:P67"/>
+    <mergeCell ref="Q67:R67"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="O61:P61"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="B104:C107"/>
+    <mergeCell ref="D104:S107"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="B96:C99"/>
+    <mergeCell ref="D96:S99"/>
+    <mergeCell ref="B100:C103"/>
+    <mergeCell ref="D100:S103"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="B92:C95"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
     <mergeCell ref="P92:Q95"/>
     <mergeCell ref="B2:R3"/>
     <mergeCell ref="G6:H6"/>
@@ -8647,544 +9135,31 @@
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="B92:C95"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="B104:C107"/>
-    <mergeCell ref="D104:S107"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="B96:C99"/>
-    <mergeCell ref="D96:S99"/>
-    <mergeCell ref="B100:C103"/>
-    <mergeCell ref="D100:S103"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="O61:P61"/>
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="O63:P63"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="O67:P67"/>
-    <mergeCell ref="Q67:R67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="O68:P68"/>
-    <mergeCell ref="Q68:R68"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="O69:P69"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="M70:N70"/>
-    <mergeCell ref="O70:P70"/>
-    <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="O71:P71"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="Q72:R72"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="O74:P74"/>
-    <mergeCell ref="Q74:R74"/>
-    <mergeCell ref="Q78:R78"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="O75:P75"/>
-    <mergeCell ref="Q75:R75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="M76:N76"/>
-    <mergeCell ref="O76:P76"/>
-    <mergeCell ref="Q76:R76"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B39:R39"/>
-    <mergeCell ref="B73:R73"/>
-    <mergeCell ref="B56:R56"/>
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="O79:P79"/>
-    <mergeCell ref="Q79:R79"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="M77:N77"/>
-    <mergeCell ref="O77:P77"/>
-    <mergeCell ref="Q77:R77"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="M78:N78"/>
-    <mergeCell ref="O78:P78"/>
-    <mergeCell ref="Q80:R80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="O81:P81"/>
-    <mergeCell ref="Q81:R81"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="M80:N80"/>
-    <mergeCell ref="O80:P80"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="R91:S91"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E40:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Memory map.xlsx
+++ b/Memory map.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="276">
   <si>
     <t>A</t>
   </si>
@@ -979,6 +979,10 @@
   </si>
   <si>
     <t>Battery voltage divisor down resistance (U32) [Omh]</t>
+  </si>
+  <si>
+    <t>Battery low voltage threshold
+(U16) [0.1V]</t>
   </si>
 </sst>
 </file>
@@ -1725,7 +1729,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1942,222 +1946,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2183,22 +1971,247 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2207,13 +2220,10 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2539,44 +2549,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="103"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2634,13 +2644,13 @@
       <c r="B6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="154"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="82"/>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
@@ -2663,11 +2673,11 @@
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="151"/>
-      <c r="K7" s="151"/>
-      <c r="L7" s="151"/>
-      <c r="M7" s="151"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
@@ -2678,23 +2688,23 @@
       <c r="B8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="162" t="s">
+      <c r="C8" s="87" t="s">
         <v>250</v>
       </c>
-      <c r="D8" s="161"/>
-      <c r="E8" s="161" t="s">
+      <c r="D8" s="86"/>
+      <c r="E8" s="86" t="s">
         <v>251</v>
       </c>
-      <c r="F8" s="161"/>
-      <c r="G8" s="161" t="s">
+      <c r="F8" s="86"/>
+      <c r="G8" s="86" t="s">
         <v>252</v>
       </c>
-      <c r="H8" s="161"/>
+      <c r="H8" s="86"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="K8" s="153"/>
-      <c r="L8" s="153"/>
-      <c r="M8" s="153"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
@@ -2710,11 +2720,11 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
-      <c r="I9" s="152"/>
-      <c r="J9" s="152"/>
-      <c r="K9" s="152"/>
-      <c r="L9" s="152"/>
-      <c r="M9" s="152"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
@@ -2726,8 +2736,8 @@
         <v>36</v>
       </c>
       <c r="C10" s="24"/>
-      <c r="D10" s="153"/>
-      <c r="E10" s="153"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
@@ -3048,426 +3058,399 @@
       <c r="R21" s="12"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="80"/>
-      <c r="D25" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="K25" s="81"/>
-      <c r="L25" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="M25" s="81"/>
-      <c r="N25" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="O25" s="81"/>
-      <c r="P25" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q25" s="81"/>
-      <c r="R25" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="S25" s="81"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="O25" s="90"/>
+      <c r="P25" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q25" s="90"/>
+      <c r="R25" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="S25" s="90"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="81"/>
-      <c r="N26" s="81"/>
-      <c r="O26" s="81"/>
-      <c r="P26" s="81"/>
-      <c r="Q26" s="81"/>
-      <c r="R26" s="81"/>
-      <c r="S26" s="81"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="90"/>
+      <c r="M26" s="90"/>
+      <c r="N26" s="90"/>
+      <c r="O26" s="90"/>
+      <c r="P26" s="90"/>
+      <c r="Q26" s="90"/>
+      <c r="R26" s="90"/>
+      <c r="S26" s="90"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="80"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="81"/>
-      <c r="O27" s="81"/>
-      <c r="P27" s="81"/>
-      <c r="Q27" s="81"/>
-      <c r="R27" s="81"/>
-      <c r="S27" s="81"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="90"/>
+      <c r="M27" s="90"/>
+      <c r="N27" s="90"/>
+      <c r="O27" s="90"/>
+      <c r="P27" s="90"/>
+      <c r="Q27" s="90"/>
+      <c r="R27" s="90"/>
+      <c r="S27" s="90"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="81"/>
-      <c r="P28" s="81"/>
-      <c r="Q28" s="81"/>
-      <c r="R28" s="81"/>
-      <c r="S28" s="81"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="90"/>
+      <c r="N28" s="90"/>
+      <c r="O28" s="90"/>
+      <c r="P28" s="90"/>
+      <c r="Q28" s="90"/>
+      <c r="R28" s="90"/>
+      <c r="S28" s="90"/>
     </row>
     <row r="29" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="79" t="s">
+      <c r="B29" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="80"/>
-      <c r="D29" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="81"/>
-      <c r="F29" s="82" t="s">
+      <c r="C29" s="89"/>
+      <c r="D29" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="90"/>
+      <c r="F29" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="G29" s="83"/>
-      <c r="H29" s="82" t="s">
+      <c r="G29" s="94"/>
+      <c r="H29" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="I29" s="83"/>
-      <c r="J29" s="82" t="s">
+      <c r="I29" s="94"/>
+      <c r="J29" s="93" t="s">
         <v>119</v>
       </c>
-      <c r="K29" s="83"/>
-      <c r="L29" s="82" t="s">
+      <c r="K29" s="94"/>
+      <c r="L29" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="M29" s="83"/>
-      <c r="N29" s="82" t="s">
+      <c r="M29" s="94"/>
+      <c r="N29" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="O29" s="83"/>
-      <c r="P29" s="82" t="s">
+      <c r="O29" s="94"/>
+      <c r="P29" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="82" t="s">
+      <c r="Q29" s="94"/>
+      <c r="R29" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="S29" s="83"/>
+      <c r="S29" s="94"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="80"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="85"/>
-      <c r="P30" s="84"/>
-      <c r="Q30" s="85"/>
-      <c r="R30" s="84"/>
-      <c r="S30" s="85"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="96"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="96"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="96"/>
+      <c r="P30" s="95"/>
+      <c r="Q30" s="96"/>
+      <c r="R30" s="95"/>
+      <c r="S30" s="96"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="84"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="84"/>
-      <c r="M31" s="85"/>
-      <c r="N31" s="84"/>
-      <c r="O31" s="85"/>
-      <c r="P31" s="84"/>
-      <c r="Q31" s="85"/>
-      <c r="R31" s="84"/>
-      <c r="S31" s="85"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="96"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="96"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="96"/>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="96"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="96"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="80"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="87"/>
-      <c r="J32" s="86"/>
-      <c r="K32" s="87"/>
-      <c r="L32" s="86"/>
-      <c r="M32" s="87"/>
-      <c r="N32" s="86"/>
-      <c r="O32" s="87"/>
-      <c r="P32" s="86"/>
-      <c r="Q32" s="87"/>
-      <c r="R32" s="86"/>
-      <c r="S32" s="87"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="97"/>
+      <c r="I32" s="98"/>
+      <c r="J32" s="97"/>
+      <c r="K32" s="98"/>
+      <c r="L32" s="97"/>
+      <c r="M32" s="98"/>
+      <c r="N32" s="97"/>
+      <c r="O32" s="98"/>
+      <c r="P32" s="97"/>
+      <c r="Q32" s="98"/>
+      <c r="R32" s="97"/>
+      <c r="S32" s="98"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="80"/>
-      <c r="D33" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="I33" s="81"/>
-      <c r="J33" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="K33" s="81"/>
-      <c r="L33" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="M33" s="81"/>
-      <c r="N33" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="O33" s="81"/>
-      <c r="P33" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q33" s="81"/>
-      <c r="R33" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="S33" s="81"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="90"/>
+      <c r="H33" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="90"/>
+      <c r="J33" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" s="90"/>
+      <c r="L33" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="M33" s="90"/>
+      <c r="N33" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="O33" s="90"/>
+      <c r="P33" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q33" s="90"/>
+      <c r="R33" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="S33" s="90"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="81"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="81"/>
-      <c r="N34" s="81"/>
-      <c r="O34" s="81"/>
-      <c r="P34" s="81"/>
-      <c r="Q34" s="81"/>
-      <c r="R34" s="81"/>
-      <c r="S34" s="81"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="90"/>
+      <c r="N34" s="90"/>
+      <c r="O34" s="90"/>
+      <c r="P34" s="90"/>
+      <c r="Q34" s="90"/>
+      <c r="R34" s="90"/>
+      <c r="S34" s="90"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B35" s="80"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="81"/>
-      <c r="K35" s="81"/>
-      <c r="L35" s="81"/>
-      <c r="M35" s="81"/>
-      <c r="N35" s="81"/>
-      <c r="O35" s="81"/>
-      <c r="P35" s="81"/>
-      <c r="Q35" s="81"/>
-      <c r="R35" s="81"/>
-      <c r="S35" s="81"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="90"/>
+      <c r="K35" s="90"/>
+      <c r="L35" s="90"/>
+      <c r="M35" s="90"/>
+      <c r="N35" s="90"/>
+      <c r="O35" s="90"/>
+      <c r="P35" s="90"/>
+      <c r="Q35" s="90"/>
+      <c r="R35" s="90"/>
+      <c r="S35" s="90"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B36" s="80"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="81"/>
-      <c r="K36" s="81"/>
-      <c r="L36" s="81"/>
-      <c r="M36" s="81"/>
-      <c r="N36" s="81"/>
-      <c r="O36" s="81"/>
-      <c r="P36" s="81"/>
-      <c r="Q36" s="81"/>
-      <c r="R36" s="81"/>
-      <c r="S36" s="81"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="90"/>
+      <c r="J36" s="90"/>
+      <c r="K36" s="90"/>
+      <c r="L36" s="90"/>
+      <c r="M36" s="90"/>
+      <c r="N36" s="90"/>
+      <c r="O36" s="90"/>
+      <c r="P36" s="90"/>
+      <c r="Q36" s="90"/>
+      <c r="R36" s="90"/>
+      <c r="S36" s="90"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B37" s="79" t="s">
+      <c r="B37" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="80"/>
-      <c r="D37" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="81"/>
-      <c r="F37" s="92" t="s">
+      <c r="C37" s="89"/>
+      <c r="D37" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="90"/>
+      <c r="F37" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="G37" s="93"/>
-      <c r="H37" s="92" t="s">
+      <c r="G37" s="92"/>
+      <c r="H37" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="I37" s="93"/>
-      <c r="J37" s="92" t="s">
+      <c r="I37" s="92"/>
+      <c r="J37" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="K37" s="93"/>
-      <c r="L37" s="88" t="s">
+      <c r="K37" s="92"/>
+      <c r="L37" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="M37" s="89"/>
-      <c r="N37" s="88" t="s">
+      <c r="M37" s="100"/>
+      <c r="N37" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="O37" s="89"/>
-      <c r="P37" s="88" t="s">
+      <c r="O37" s="100"/>
+      <c r="P37" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="Q37" s="89"/>
-      <c r="R37" s="90" t="s">
+      <c r="Q37" s="100"/>
+      <c r="R37" s="101" t="s">
         <v>109</v>
       </c>
-      <c r="S37" s="91"/>
+      <c r="S37" s="102"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B38" s="80"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="93"/>
-      <c r="H38" s="93"/>
-      <c r="I38" s="93"/>
-      <c r="J38" s="93"/>
-      <c r="K38" s="93"/>
-      <c r="L38" s="89"/>
-      <c r="M38" s="89"/>
-      <c r="N38" s="89"/>
-      <c r="O38" s="89"/>
-      <c r="P38" s="89"/>
-      <c r="Q38" s="89"/>
-      <c r="R38" s="91"/>
-      <c r="S38" s="91"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="90"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="92"/>
+      <c r="H38" s="92"/>
+      <c r="I38" s="92"/>
+      <c r="J38" s="92"/>
+      <c r="K38" s="92"/>
+      <c r="L38" s="100"/>
+      <c r="M38" s="100"/>
+      <c r="N38" s="100"/>
+      <c r="O38" s="100"/>
+      <c r="P38" s="100"/>
+      <c r="Q38" s="100"/>
+      <c r="R38" s="102"/>
+      <c r="S38" s="102"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B39" s="80"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="93"/>
-      <c r="H39" s="93"/>
-      <c r="I39" s="93"/>
-      <c r="J39" s="93"/>
-      <c r="K39" s="93"/>
-      <c r="L39" s="89"/>
-      <c r="M39" s="89"/>
-      <c r="N39" s="89"/>
-      <c r="O39" s="89"/>
-      <c r="P39" s="89"/>
-      <c r="Q39" s="89"/>
-      <c r="R39" s="91"/>
-      <c r="S39" s="91"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="90"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="92"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="92"/>
+      <c r="J39" s="92"/>
+      <c r="K39" s="92"/>
+      <c r="L39" s="100"/>
+      <c r="M39" s="100"/>
+      <c r="N39" s="100"/>
+      <c r="O39" s="100"/>
+      <c r="P39" s="100"/>
+      <c r="Q39" s="100"/>
+      <c r="R39" s="102"/>
+      <c r="S39" s="102"/>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B40" s="80"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="93"/>
-      <c r="H40" s="93"/>
-      <c r="I40" s="93"/>
-      <c r="J40" s="93"/>
-      <c r="K40" s="93"/>
-      <c r="L40" s="89"/>
-      <c r="M40" s="89"/>
-      <c r="N40" s="89"/>
-      <c r="O40" s="89"/>
-      <c r="P40" s="89"/>
-      <c r="Q40" s="89"/>
-      <c r="R40" s="91"/>
-      <c r="S40" s="91"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="92"/>
+      <c r="K40" s="92"/>
+      <c r="L40" s="100"/>
+      <c r="M40" s="100"/>
+      <c r="N40" s="100"/>
+      <c r="O40" s="100"/>
+      <c r="P40" s="100"/>
+      <c r="Q40" s="100"/>
+      <c r="R40" s="102"/>
+      <c r="S40" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B37:C40"/>
-    <mergeCell ref="D37:E40"/>
-    <mergeCell ref="F37:G40"/>
-    <mergeCell ref="H37:I40"/>
-    <mergeCell ref="J37:K40"/>
-    <mergeCell ref="B33:C36"/>
-    <mergeCell ref="D33:E36"/>
-    <mergeCell ref="F33:G36"/>
-    <mergeCell ref="H33:I36"/>
-    <mergeCell ref="J33:K36"/>
-    <mergeCell ref="L29:M32"/>
-    <mergeCell ref="N29:O32"/>
-    <mergeCell ref="P29:Q32"/>
-    <mergeCell ref="R29:S32"/>
-    <mergeCell ref="N37:O40"/>
-    <mergeCell ref="L37:M40"/>
-    <mergeCell ref="L33:M36"/>
-    <mergeCell ref="P37:Q40"/>
-    <mergeCell ref="R37:S40"/>
-    <mergeCell ref="N33:O36"/>
-    <mergeCell ref="P33:Q36"/>
-    <mergeCell ref="R33:S36"/>
-    <mergeCell ref="B29:C32"/>
-    <mergeCell ref="D29:E32"/>
-    <mergeCell ref="F29:G32"/>
     <mergeCell ref="H29:I32"/>
     <mergeCell ref="J29:K32"/>
     <mergeCell ref="B2:R3"/>
@@ -3482,6 +3465,33 @@
     <mergeCell ref="P25:Q28"/>
     <mergeCell ref="R25:S28"/>
     <mergeCell ref="G8:H8"/>
+    <mergeCell ref="L29:M32"/>
+    <mergeCell ref="N29:O32"/>
+    <mergeCell ref="P29:Q32"/>
+    <mergeCell ref="R29:S32"/>
+    <mergeCell ref="N37:O40"/>
+    <mergeCell ref="L37:M40"/>
+    <mergeCell ref="L33:M36"/>
+    <mergeCell ref="P37:Q40"/>
+    <mergeCell ref="R37:S40"/>
+    <mergeCell ref="N33:O36"/>
+    <mergeCell ref="P33:Q36"/>
+    <mergeCell ref="R33:S36"/>
+    <mergeCell ref="H37:I40"/>
+    <mergeCell ref="J37:K40"/>
+    <mergeCell ref="B33:C36"/>
+    <mergeCell ref="D33:E36"/>
+    <mergeCell ref="F33:G36"/>
+    <mergeCell ref="H33:I36"/>
+    <mergeCell ref="J33:K36"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B37:C40"/>
+    <mergeCell ref="D37:E40"/>
+    <mergeCell ref="F37:G40"/>
+    <mergeCell ref="B29:C32"/>
+    <mergeCell ref="D29:E32"/>
+    <mergeCell ref="F29:G32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3504,44 +3514,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="103" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="103"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3958,48 +3968,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="103"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="156"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="45">
         <v>0</v>
       </c>
@@ -4053,30 +4063,30 @@
       <c r="B6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="157" t="s">
+      <c r="C6" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111" t="s">
+      <c r="D6" s="123"/>
+      <c r="E6" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111" t="s">
+      <c r="F6" s="123"/>
+      <c r="G6" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111" t="s">
+      <c r="H6" s="123"/>
+      <c r="I6" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="111"/>
-      <c r="K6" s="112" t="s">
+      <c r="J6" s="123"/>
+      <c r="K6" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="112"/>
-      <c r="M6" s="112" t="s">
+      <c r="L6" s="124"/>
+      <c r="M6" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="112"/>
+      <c r="N6" s="124"/>
       <c r="O6" s="48" t="s">
         <v>6</v>
       </c>
@@ -4094,7 +4104,7 @@
       <c r="B7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="158" t="s">
+      <c r="C7" s="85" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="28" t="s">
@@ -4112,18 +4122,18 @@
       <c r="H7" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="95" t="s">
+      <c r="I7" s="121" t="s">
         <v>124</v>
       </c>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95" t="s">
+      <c r="J7" s="121"/>
+      <c r="K7" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95" t="s">
+      <c r="L7" s="121"/>
+      <c r="M7" s="121" t="s">
         <v>123</v>
       </c>
-      <c r="N7" s="95"/>
+      <c r="N7" s="121"/>
       <c r="O7" s="50" t="s">
         <v>6</v>
       </c>
@@ -4141,30 +4151,30 @@
       <c r="B8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="159" t="s">
+      <c r="C8" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94" t="s">
+      <c r="D8" s="107"/>
+      <c r="E8" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94" t="s">
+      <c r="F8" s="107"/>
+      <c r="G8" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94" t="s">
+      <c r="H8" s="107"/>
+      <c r="I8" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="94"/>
-      <c r="K8" s="110" t="s">
+      <c r="J8" s="107"/>
+      <c r="K8" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110" t="s">
+      <c r="L8" s="119"/>
+      <c r="M8" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="110"/>
+      <c r="N8" s="119"/>
       <c r="O8" s="52" t="s">
         <v>6</v>
       </c>
@@ -4200,18 +4210,18 @@
       <c r="H9" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="94" t="s">
+      <c r="I9" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94" t="s">
+      <c r="J9" s="107"/>
+      <c r="K9" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94" t="s">
+      <c r="L9" s="107"/>
+      <c r="M9" s="107" t="s">
         <v>123</v>
       </c>
-      <c r="N9" s="94"/>
+      <c r="N9" s="107"/>
       <c r="O9" s="52" t="s">
         <v>6</v>
       </c>
@@ -4229,30 +4239,30 @@
       <c r="B10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="160" t="s">
+      <c r="C10" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95" t="s">
+      <c r="D10" s="121"/>
+      <c r="E10" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95" t="s">
+      <c r="F10" s="121"/>
+      <c r="G10" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95" t="s">
+      <c r="H10" s="121"/>
+      <c r="I10" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="95"/>
-      <c r="K10" s="96" t="s">
+      <c r="J10" s="121"/>
+      <c r="K10" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96" t="s">
+      <c r="L10" s="125"/>
+      <c r="M10" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="N10" s="96"/>
+      <c r="N10" s="125"/>
       <c r="O10" s="54" t="s">
         <v>6</v>
       </c>
@@ -4270,7 +4280,7 @@
       <c r="B11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="158" t="s">
+      <c r="C11" s="85" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="28" t="s">
@@ -4288,18 +4298,18 @@
       <c r="H11" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="95" t="s">
+      <c r="I11" s="121" t="s">
         <v>124</v>
       </c>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95" t="s">
+      <c r="J11" s="121"/>
+      <c r="K11" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95" t="s">
+      <c r="L11" s="121"/>
+      <c r="M11" s="121" t="s">
         <v>123</v>
       </c>
-      <c r="N11" s="95"/>
+      <c r="N11" s="121"/>
       <c r="O11" s="50" t="s">
         <v>6</v>
       </c>
@@ -4317,30 +4327,30 @@
       <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="159" t="s">
+      <c r="C12" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94" t="s">
+      <c r="D12" s="107"/>
+      <c r="E12" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94" t="s">
+      <c r="F12" s="107"/>
+      <c r="G12" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94" t="s">
+      <c r="H12" s="107"/>
+      <c r="I12" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="94"/>
-      <c r="K12" s="110" t="s">
+      <c r="J12" s="107"/>
+      <c r="K12" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="110"/>
-      <c r="M12" s="110" t="s">
+      <c r="L12" s="119"/>
+      <c r="M12" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="N12" s="110"/>
+      <c r="N12" s="119"/>
       <c r="O12" s="52" t="s">
         <v>6</v>
       </c>
@@ -4376,18 +4386,18 @@
       <c r="H13" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="94" t="s">
+      <c r="I13" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94" t="s">
+      <c r="J13" s="107"/>
+      <c r="K13" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94" t="s">
+      <c r="L13" s="107"/>
+      <c r="M13" s="107" t="s">
         <v>123</v>
       </c>
-      <c r="N13" s="94"/>
+      <c r="N13" s="107"/>
       <c r="O13" s="52" t="s">
         <v>6</v>
       </c>
@@ -4405,30 +4415,30 @@
       <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="160" t="s">
+      <c r="C14" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95" t="s">
+      <c r="D14" s="121"/>
+      <c r="E14" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95" t="s">
+      <c r="F14" s="121"/>
+      <c r="G14" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95" t="s">
+      <c r="H14" s="121"/>
+      <c r="I14" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="95"/>
-      <c r="K14" s="96" t="s">
+      <c r="J14" s="121"/>
+      <c r="K14" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="96"/>
-      <c r="M14" s="96" t="s">
+      <c r="L14" s="125"/>
+      <c r="M14" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="N14" s="96"/>
+      <c r="N14" s="125"/>
       <c r="O14" s="54" t="s">
         <v>6</v>
       </c>
@@ -4446,7 +4456,7 @@
       <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="158" t="s">
+      <c r="C15" s="85" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="28" t="s">
@@ -4464,18 +4474,18 @@
       <c r="H15" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="95" t="s">
+      <c r="I15" s="121" t="s">
         <v>124</v>
       </c>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95" t="s">
+      <c r="J15" s="121"/>
+      <c r="K15" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="L15" s="95"/>
-      <c r="M15" s="95" t="s">
+      <c r="L15" s="121"/>
+      <c r="M15" s="121" t="s">
         <v>123</v>
       </c>
-      <c r="N15" s="95"/>
+      <c r="N15" s="121"/>
       <c r="O15" s="50" t="s">
         <v>6</v>
       </c>
@@ -4493,30 +4503,30 @@
       <c r="B16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="159" t="s">
+      <c r="C16" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94" t="s">
+      <c r="D16" s="107"/>
+      <c r="E16" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94" t="s">
+      <c r="F16" s="107"/>
+      <c r="G16" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94" t="s">
+      <c r="H16" s="107"/>
+      <c r="I16" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="94"/>
-      <c r="K16" s="110" t="s">
+      <c r="J16" s="107"/>
+      <c r="K16" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110" t="s">
+      <c r="L16" s="119"/>
+      <c r="M16" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="N16" s="110"/>
+      <c r="N16" s="119"/>
       <c r="O16" s="52" t="s">
         <v>6</v>
       </c>
@@ -4552,18 +4562,18 @@
       <c r="H17" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="94" t="s">
+      <c r="I17" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94" t="s">
+      <c r="J17" s="107"/>
+      <c r="K17" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94" t="s">
+      <c r="L17" s="107"/>
+      <c r="M17" s="107" t="s">
         <v>123</v>
       </c>
-      <c r="N17" s="94"/>
+      <c r="N17" s="107"/>
       <c r="O17" s="52" t="s">
         <v>6</v>
       </c>
@@ -4581,7 +4591,7 @@
       <c r="B18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="150"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -4602,7 +4612,7 @@
       <c r="B19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="150"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -4623,7 +4633,7 @@
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="150"/>
+      <c r="C20" s="78"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -4644,7 +4654,7 @@
       <c r="B21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="155"/>
+      <c r="C21" s="83"/>
       <c r="D21" s="34"/>
       <c r="E21" s="34"/>
       <c r="F21" s="34"/>
@@ -4662,487 +4672,550 @@
       <c r="R21" s="44"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="97" t="s">
+      <c r="B25" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="99" t="s">
+      <c r="C25" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="100"/>
-      <c r="I25" s="100"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="103"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="109"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="112"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="98"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="104"/>
-      <c r="L26" s="105"/>
-      <c r="M26" s="106"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="109"/>
+      <c r="H26" s="109"/>
+      <c r="I26" s="109"/>
+      <c r="J26" s="109"/>
+      <c r="K26" s="113"/>
+      <c r="L26" s="114"/>
+      <c r="M26" s="115"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="98"/>
-      <c r="C27" s="100"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="100"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="104"/>
-      <c r="L27" s="105"/>
-      <c r="M27" s="106"/>
+      <c r="B27" s="127"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="113"/>
+      <c r="L27" s="114"/>
+      <c r="M27" s="115"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="98"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="100"/>
-      <c r="I28" s="100"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="107"/>
-      <c r="L28" s="108"/>
-      <c r="M28" s="109"/>
+      <c r="B28" s="127"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="109"/>
+      <c r="I28" s="109"/>
+      <c r="J28" s="109"/>
+      <c r="K28" s="116"/>
+      <c r="L28" s="117"/>
+      <c r="M28" s="118"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="97" t="s">
+      <c r="B29" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="99" t="s">
+      <c r="C29" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="100"/>
-      <c r="G29" s="100"/>
-      <c r="H29" s="100"/>
-      <c r="I29" s="100"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="102"/>
-      <c r="M29" s="103"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="109"/>
+      <c r="H29" s="109"/>
+      <c r="I29" s="109"/>
+      <c r="J29" s="109"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="111"/>
+      <c r="M29" s="112"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="98"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="100"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="100"/>
-      <c r="I30" s="100"/>
-      <c r="J30" s="100"/>
-      <c r="K30" s="104"/>
-      <c r="L30" s="105"/>
-      <c r="M30" s="106"/>
+      <c r="B30" s="127"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="109"/>
+      <c r="I30" s="109"/>
+      <c r="J30" s="109"/>
+      <c r="K30" s="113"/>
+      <c r="L30" s="114"/>
+      <c r="M30" s="115"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="98"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="100"/>
-      <c r="I31" s="100"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="104"/>
-      <c r="L31" s="105"/>
-      <c r="M31" s="106"/>
+      <c r="B31" s="127"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="109"/>
+      <c r="K31" s="113"/>
+      <c r="L31" s="114"/>
+      <c r="M31" s="115"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="98"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="100"/>
-      <c r="I32" s="100"/>
-      <c r="J32" s="100"/>
-      <c r="K32" s="107"/>
-      <c r="L32" s="108"/>
-      <c r="M32" s="109"/>
+      <c r="B32" s="127"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="109"/>
+      <c r="I32" s="109"/>
+      <c r="J32" s="109"/>
+      <c r="K32" s="116"/>
+      <c r="L32" s="117"/>
+      <c r="M32" s="118"/>
     </row>
     <row r="33" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="97" t="s">
+      <c r="B33" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="99" t="s">
+      <c r="C33" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="100"/>
-      <c r="H33" s="100"/>
-      <c r="I33" s="100"/>
-      <c r="J33" s="100"/>
-      <c r="K33" s="101"/>
-      <c r="L33" s="102"/>
-      <c r="M33" s="103"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="109"/>
+      <c r="J33" s="109"/>
+      <c r="K33" s="110"/>
+      <c r="L33" s="111"/>
+      <c r="M33" s="112"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="98"/>
-      <c r="C34" s="100"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="100"/>
-      <c r="G34" s="100"/>
-      <c r="H34" s="100"/>
-      <c r="I34" s="100"/>
-      <c r="J34" s="100"/>
-      <c r="K34" s="104"/>
-      <c r="L34" s="105"/>
-      <c r="M34" s="106"/>
+      <c r="B34" s="127"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="109"/>
+      <c r="I34" s="109"/>
+      <c r="J34" s="109"/>
+      <c r="K34" s="113"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="115"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="98"/>
-      <c r="C35" s="100"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="100"/>
-      <c r="G35" s="100"/>
-      <c r="H35" s="100"/>
-      <c r="I35" s="100"/>
-      <c r="J35" s="100"/>
-      <c r="K35" s="104"/>
-      <c r="L35" s="105"/>
-      <c r="M35" s="106"/>
+      <c r="B35" s="127"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="109"/>
+      <c r="H35" s="109"/>
+      <c r="I35" s="109"/>
+      <c r="J35" s="109"/>
+      <c r="K35" s="113"/>
+      <c r="L35" s="114"/>
+      <c r="M35" s="115"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="98"/>
-      <c r="C36" s="100"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="100"/>
-      <c r="G36" s="100"/>
-      <c r="H36" s="100"/>
-      <c r="I36" s="100"/>
-      <c r="J36" s="100"/>
-      <c r="K36" s="107"/>
-      <c r="L36" s="108"/>
-      <c r="M36" s="109"/>
+      <c r="B36" s="127"/>
+      <c r="C36" s="109"/>
+      <c r="D36" s="109"/>
+      <c r="E36" s="109"/>
+      <c r="F36" s="109"/>
+      <c r="G36" s="109"/>
+      <c r="H36" s="109"/>
+      <c r="I36" s="109"/>
+      <c r="J36" s="109"/>
+      <c r="K36" s="116"/>
+      <c r="L36" s="117"/>
+      <c r="M36" s="118"/>
     </row>
     <row r="37" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="97" t="s">
+      <c r="B37" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="99" t="s">
+      <c r="C37" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="100"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="100"/>
-      <c r="H37" s="100"/>
-      <c r="I37" s="100"/>
-      <c r="J37" s="100"/>
-      <c r="K37" s="101"/>
-      <c r="L37" s="102"/>
-      <c r="M37" s="103"/>
+      <c r="D37" s="109"/>
+      <c r="E37" s="109"/>
+      <c r="F37" s="109"/>
+      <c r="G37" s="109"/>
+      <c r="H37" s="109"/>
+      <c r="I37" s="109"/>
+      <c r="J37" s="109"/>
+      <c r="K37" s="110"/>
+      <c r="L37" s="111"/>
+      <c r="M37" s="112"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="98"/>
-      <c r="C38" s="100"/>
-      <c r="D38" s="100"/>
-      <c r="E38" s="100"/>
-      <c r="F38" s="100"/>
-      <c r="G38" s="100"/>
-      <c r="H38" s="100"/>
-      <c r="I38" s="100"/>
-      <c r="J38" s="100"/>
-      <c r="K38" s="104"/>
-      <c r="L38" s="105"/>
-      <c r="M38" s="106"/>
+      <c r="B38" s="127"/>
+      <c r="C38" s="109"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="109"/>
+      <c r="F38" s="109"/>
+      <c r="G38" s="109"/>
+      <c r="H38" s="109"/>
+      <c r="I38" s="109"/>
+      <c r="J38" s="109"/>
+      <c r="K38" s="113"/>
+      <c r="L38" s="114"/>
+      <c r="M38" s="115"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="98"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="100"/>
-      <c r="F39" s="100"/>
-      <c r="G39" s="100"/>
-      <c r="H39" s="100"/>
-      <c r="I39" s="100"/>
-      <c r="J39" s="100"/>
-      <c r="K39" s="104"/>
-      <c r="L39" s="105"/>
-      <c r="M39" s="106"/>
+      <c r="B39" s="127"/>
+      <c r="C39" s="109"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="109"/>
+      <c r="F39" s="109"/>
+      <c r="G39" s="109"/>
+      <c r="H39" s="109"/>
+      <c r="I39" s="109"/>
+      <c r="J39" s="109"/>
+      <c r="K39" s="113"/>
+      <c r="L39" s="114"/>
+      <c r="M39" s="115"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="98"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="100"/>
-      <c r="G40" s="100"/>
-      <c r="H40" s="100"/>
-      <c r="I40" s="100"/>
-      <c r="J40" s="100"/>
-      <c r="K40" s="107"/>
-      <c r="L40" s="108"/>
-      <c r="M40" s="109"/>
+      <c r="B40" s="127"/>
+      <c r="C40" s="109"/>
+      <c r="D40" s="109"/>
+      <c r="E40" s="109"/>
+      <c r="F40" s="109"/>
+      <c r="G40" s="109"/>
+      <c r="H40" s="109"/>
+      <c r="I40" s="109"/>
+      <c r="J40" s="109"/>
+      <c r="K40" s="116"/>
+      <c r="L40" s="117"/>
+      <c r="M40" s="118"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="97" t="s">
+      <c r="B41" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="99" t="s">
+      <c r="C41" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="100"/>
-      <c r="H41" s="100"/>
-      <c r="I41" s="100"/>
-      <c r="J41" s="100"/>
-      <c r="K41" s="101"/>
-      <c r="L41" s="102"/>
-      <c r="M41" s="103"/>
+      <c r="D41" s="109"/>
+      <c r="E41" s="109"/>
+      <c r="F41" s="109"/>
+      <c r="G41" s="109"/>
+      <c r="H41" s="109"/>
+      <c r="I41" s="109"/>
+      <c r="J41" s="109"/>
+      <c r="K41" s="110"/>
+      <c r="L41" s="111"/>
+      <c r="M41" s="112"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="98"/>
-      <c r="C42" s="100"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="100"/>
-      <c r="F42" s="100"/>
-      <c r="G42" s="100"/>
-      <c r="H42" s="100"/>
-      <c r="I42" s="100"/>
-      <c r="J42" s="100"/>
-      <c r="K42" s="104"/>
-      <c r="L42" s="105"/>
-      <c r="M42" s="106"/>
+      <c r="B42" s="127"/>
+      <c r="C42" s="109"/>
+      <c r="D42" s="109"/>
+      <c r="E42" s="109"/>
+      <c r="F42" s="109"/>
+      <c r="G42" s="109"/>
+      <c r="H42" s="109"/>
+      <c r="I42" s="109"/>
+      <c r="J42" s="109"/>
+      <c r="K42" s="113"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="115"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="98"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="100"/>
-      <c r="E43" s="100"/>
-      <c r="F43" s="100"/>
-      <c r="G43" s="100"/>
-      <c r="H43" s="100"/>
-      <c r="I43" s="100"/>
-      <c r="J43" s="100"/>
-      <c r="K43" s="104"/>
-      <c r="L43" s="105"/>
-      <c r="M43" s="106"/>
+      <c r="B43" s="127"/>
+      <c r="C43" s="109"/>
+      <c r="D43" s="109"/>
+      <c r="E43" s="109"/>
+      <c r="F43" s="109"/>
+      <c r="G43" s="109"/>
+      <c r="H43" s="109"/>
+      <c r="I43" s="109"/>
+      <c r="J43" s="109"/>
+      <c r="K43" s="113"/>
+      <c r="L43" s="114"/>
+      <c r="M43" s="115"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="98"/>
-      <c r="C44" s="100"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
-      <c r="F44" s="100"/>
-      <c r="G44" s="100"/>
-      <c r="H44" s="100"/>
-      <c r="I44" s="100"/>
-      <c r="J44" s="100"/>
-      <c r="K44" s="107"/>
-      <c r="L44" s="108"/>
-      <c r="M44" s="109"/>
+      <c r="B44" s="127"/>
+      <c r="C44" s="109"/>
+      <c r="D44" s="109"/>
+      <c r="E44" s="109"/>
+      <c r="F44" s="109"/>
+      <c r="G44" s="109"/>
+      <c r="H44" s="109"/>
+      <c r="I44" s="109"/>
+      <c r="J44" s="109"/>
+      <c r="K44" s="116"/>
+      <c r="L44" s="117"/>
+      <c r="M44" s="118"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="97" t="s">
+      <c r="B45" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="99" t="s">
+      <c r="C45" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="100"/>
-      <c r="E45" s="100"/>
-      <c r="F45" s="100"/>
-      <c r="G45" s="100"/>
-      <c r="H45" s="100"/>
-      <c r="I45" s="100"/>
-      <c r="J45" s="100"/>
-      <c r="K45" s="101"/>
-      <c r="L45" s="102"/>
-      <c r="M45" s="103"/>
+      <c r="D45" s="109"/>
+      <c r="E45" s="109"/>
+      <c r="F45" s="109"/>
+      <c r="G45" s="109"/>
+      <c r="H45" s="109"/>
+      <c r="I45" s="109"/>
+      <c r="J45" s="109"/>
+      <c r="K45" s="110"/>
+      <c r="L45" s="111"/>
+      <c r="M45" s="112"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="98"/>
-      <c r="C46" s="100"/>
-      <c r="D46" s="100"/>
-      <c r="E46" s="100"/>
-      <c r="F46" s="100"/>
-      <c r="G46" s="100"/>
-      <c r="H46" s="100"/>
-      <c r="I46" s="100"/>
-      <c r="J46" s="100"/>
-      <c r="K46" s="104"/>
-      <c r="L46" s="105"/>
-      <c r="M46" s="106"/>
+      <c r="B46" s="127"/>
+      <c r="C46" s="109"/>
+      <c r="D46" s="109"/>
+      <c r="E46" s="109"/>
+      <c r="F46" s="109"/>
+      <c r="G46" s="109"/>
+      <c r="H46" s="109"/>
+      <c r="I46" s="109"/>
+      <c r="J46" s="109"/>
+      <c r="K46" s="113"/>
+      <c r="L46" s="114"/>
+      <c r="M46" s="115"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="98"/>
-      <c r="C47" s="100"/>
-      <c r="D47" s="100"/>
-      <c r="E47" s="100"/>
-      <c r="F47" s="100"/>
-      <c r="G47" s="100"/>
-      <c r="H47" s="100"/>
-      <c r="I47" s="100"/>
-      <c r="J47" s="100"/>
-      <c r="K47" s="104"/>
-      <c r="L47" s="105"/>
-      <c r="M47" s="106"/>
+      <c r="B47" s="127"/>
+      <c r="C47" s="109"/>
+      <c r="D47" s="109"/>
+      <c r="E47" s="109"/>
+      <c r="F47" s="109"/>
+      <c r="G47" s="109"/>
+      <c r="H47" s="109"/>
+      <c r="I47" s="109"/>
+      <c r="J47" s="109"/>
+      <c r="K47" s="113"/>
+      <c r="L47" s="114"/>
+      <c r="M47" s="115"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="98"/>
-      <c r="C48" s="100"/>
-      <c r="D48" s="100"/>
-      <c r="E48" s="100"/>
-      <c r="F48" s="100"/>
-      <c r="G48" s="100"/>
-      <c r="H48" s="100"/>
-      <c r="I48" s="100"/>
-      <c r="J48" s="100"/>
-      <c r="K48" s="107"/>
-      <c r="L48" s="108"/>
-      <c r="M48" s="109"/>
+      <c r="B48" s="127"/>
+      <c r="C48" s="109"/>
+      <c r="D48" s="109"/>
+      <c r="E48" s="109"/>
+      <c r="F48" s="109"/>
+      <c r="G48" s="109"/>
+      <c r="H48" s="109"/>
+      <c r="I48" s="109"/>
+      <c r="J48" s="109"/>
+      <c r="K48" s="116"/>
+      <c r="L48" s="117"/>
+      <c r="M48" s="118"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="97" t="s">
+      <c r="B49" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="99" t="s">
+      <c r="C49" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="100"/>
-      <c r="E49" s="100"/>
-      <c r="F49" s="100"/>
-      <c r="G49" s="100"/>
-      <c r="H49" s="100"/>
-      <c r="I49" s="100"/>
-      <c r="J49" s="100"/>
-      <c r="K49" s="101"/>
-      <c r="L49" s="102"/>
-      <c r="M49" s="103"/>
+      <c r="D49" s="109"/>
+      <c r="E49" s="109"/>
+      <c r="F49" s="109"/>
+      <c r="G49" s="109"/>
+      <c r="H49" s="109"/>
+      <c r="I49" s="109"/>
+      <c r="J49" s="109"/>
+      <c r="K49" s="110"/>
+      <c r="L49" s="111"/>
+      <c r="M49" s="112"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B50" s="98"/>
-      <c r="C50" s="100"/>
-      <c r="D50" s="100"/>
-      <c r="E50" s="100"/>
-      <c r="F50" s="100"/>
-      <c r="G50" s="100"/>
-      <c r="H50" s="100"/>
-      <c r="I50" s="100"/>
-      <c r="J50" s="100"/>
-      <c r="K50" s="104"/>
-      <c r="L50" s="105"/>
-      <c r="M50" s="106"/>
+      <c r="B50" s="127"/>
+      <c r="C50" s="109"/>
+      <c r="D50" s="109"/>
+      <c r="E50" s="109"/>
+      <c r="F50" s="109"/>
+      <c r="G50" s="109"/>
+      <c r="H50" s="109"/>
+      <c r="I50" s="109"/>
+      <c r="J50" s="109"/>
+      <c r="K50" s="113"/>
+      <c r="L50" s="114"/>
+      <c r="M50" s="115"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="98"/>
-      <c r="C51" s="100"/>
-      <c r="D51" s="100"/>
-      <c r="E51" s="100"/>
-      <c r="F51" s="100"/>
-      <c r="G51" s="100"/>
-      <c r="H51" s="100"/>
-      <c r="I51" s="100"/>
-      <c r="J51" s="100"/>
-      <c r="K51" s="104"/>
-      <c r="L51" s="105"/>
-      <c r="M51" s="106"/>
+      <c r="B51" s="127"/>
+      <c r="C51" s="109"/>
+      <c r="D51" s="109"/>
+      <c r="E51" s="109"/>
+      <c r="F51" s="109"/>
+      <c r="G51" s="109"/>
+      <c r="H51" s="109"/>
+      <c r="I51" s="109"/>
+      <c r="J51" s="109"/>
+      <c r="K51" s="113"/>
+      <c r="L51" s="114"/>
+      <c r="M51" s="115"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B52" s="98"/>
-      <c r="C52" s="100"/>
-      <c r="D52" s="100"/>
-      <c r="E52" s="100"/>
-      <c r="F52" s="100"/>
-      <c r="G52" s="100"/>
-      <c r="H52" s="100"/>
-      <c r="I52" s="100"/>
-      <c r="J52" s="100"/>
-      <c r="K52" s="107"/>
-      <c r="L52" s="108"/>
-      <c r="M52" s="109"/>
+      <c r="B52" s="127"/>
+      <c r="C52" s="109"/>
+      <c r="D52" s="109"/>
+      <c r="E52" s="109"/>
+      <c r="F52" s="109"/>
+      <c r="G52" s="109"/>
+      <c r="H52" s="109"/>
+      <c r="I52" s="109"/>
+      <c r="J52" s="109"/>
+      <c r="K52" s="116"/>
+      <c r="L52" s="117"/>
+      <c r="M52" s="118"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B53" s="97" t="s">
+      <c r="B53" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="C53" s="99" t="s">
+      <c r="C53" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="100"/>
-      <c r="E53" s="100"/>
-      <c r="F53" s="100"/>
-      <c r="G53" s="100"/>
-      <c r="H53" s="100"/>
-      <c r="I53" s="100"/>
-      <c r="J53" s="100"/>
-      <c r="K53" s="101"/>
-      <c r="L53" s="102"/>
-      <c r="M53" s="103"/>
+      <c r="D53" s="109"/>
+      <c r="E53" s="109"/>
+      <c r="F53" s="109"/>
+      <c r="G53" s="109"/>
+      <c r="H53" s="109"/>
+      <c r="I53" s="109"/>
+      <c r="J53" s="109"/>
+      <c r="K53" s="110"/>
+      <c r="L53" s="111"/>
+      <c r="M53" s="112"/>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B54" s="98"/>
-      <c r="C54" s="100"/>
-      <c r="D54" s="100"/>
-      <c r="E54" s="100"/>
-      <c r="F54" s="100"/>
-      <c r="G54" s="100"/>
-      <c r="H54" s="100"/>
-      <c r="I54" s="100"/>
-      <c r="J54" s="100"/>
-      <c r="K54" s="104"/>
-      <c r="L54" s="105"/>
-      <c r="M54" s="106"/>
+      <c r="B54" s="127"/>
+      <c r="C54" s="109"/>
+      <c r="D54" s="109"/>
+      <c r="E54" s="109"/>
+      <c r="F54" s="109"/>
+      <c r="G54" s="109"/>
+      <c r="H54" s="109"/>
+      <c r="I54" s="109"/>
+      <c r="J54" s="109"/>
+      <c r="K54" s="113"/>
+      <c r="L54" s="114"/>
+      <c r="M54" s="115"/>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B55" s="98"/>
-      <c r="C55" s="100"/>
-      <c r="D55" s="100"/>
-      <c r="E55" s="100"/>
-      <c r="F55" s="100"/>
-      <c r="G55" s="100"/>
-      <c r="H55" s="100"/>
-      <c r="I55" s="100"/>
-      <c r="J55" s="100"/>
-      <c r="K55" s="104"/>
-      <c r="L55" s="105"/>
-      <c r="M55" s="106"/>
+      <c r="B55" s="127"/>
+      <c r="C55" s="109"/>
+      <c r="D55" s="109"/>
+      <c r="E55" s="109"/>
+      <c r="F55" s="109"/>
+      <c r="G55" s="109"/>
+      <c r="H55" s="109"/>
+      <c r="I55" s="109"/>
+      <c r="J55" s="109"/>
+      <c r="K55" s="113"/>
+      <c r="L55" s="114"/>
+      <c r="M55" s="115"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="98"/>
-      <c r="C56" s="100"/>
-      <c r="D56" s="100"/>
-      <c r="E56" s="100"/>
-      <c r="F56" s="100"/>
-      <c r="G56" s="100"/>
-      <c r="H56" s="100"/>
-      <c r="I56" s="100"/>
-      <c r="J56" s="100"/>
-      <c r="K56" s="107"/>
-      <c r="L56" s="108"/>
-      <c r="M56" s="109"/>
+      <c r="B56" s="127"/>
+      <c r="C56" s="109"/>
+      <c r="D56" s="109"/>
+      <c r="E56" s="109"/>
+      <c r="F56" s="109"/>
+      <c r="G56" s="109"/>
+      <c r="H56" s="109"/>
+      <c r="I56" s="109"/>
+      <c r="J56" s="109"/>
+      <c r="K56" s="116"/>
+      <c r="L56" s="117"/>
+      <c r="M56" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="79">
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:J52"/>
+    <mergeCell ref="K49:M52"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="C53:J56"/>
+    <mergeCell ref="K53:M56"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="C41:J44"/>
+    <mergeCell ref="K41:M44"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="C45:J48"/>
+    <mergeCell ref="K45:M48"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="C37:J40"/>
+    <mergeCell ref="K37:M40"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="C33:J36"/>
+    <mergeCell ref="K33:M36"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:J32"/>
+    <mergeCell ref="K29:M32"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="B2:R3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
@@ -5159,69 +5232,6 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B2:R3"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="C37:J40"/>
-    <mergeCell ref="K37:M40"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="C33:J36"/>
-    <mergeCell ref="K33:M36"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:J32"/>
-    <mergeCell ref="K29:M32"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="C41:J44"/>
-    <mergeCell ref="K41:M44"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="C45:J48"/>
-    <mergeCell ref="K45:M48"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C49:J52"/>
-    <mergeCell ref="K49:M52"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="C53:J56"/>
-    <mergeCell ref="K53:M56"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5246,44 +5256,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="103" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="103"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5347,145 +5357,145 @@
       <c r="D6" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="E6" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="132"/>
-      <c r="G6" s="127" t="s">
+      <c r="E6" s="128" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="128"/>
+      <c r="G6" s="138" t="s">
         <v>142</v>
       </c>
-      <c r="H6" s="127"/>
-      <c r="I6" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="132"/>
-      <c r="K6" s="127" t="s">
+      <c r="H6" s="138"/>
+      <c r="I6" s="128" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="128"/>
+      <c r="K6" s="138" t="s">
         <v>143</v>
       </c>
-      <c r="L6" s="127"/>
-      <c r="M6" s="127" t="s">
+      <c r="L6" s="138"/>
+      <c r="M6" s="138" t="s">
         <v>144</v>
       </c>
-      <c r="N6" s="127"/>
-      <c r="O6" s="127" t="s">
+      <c r="N6" s="138"/>
+      <c r="O6" s="138" t="s">
         <v>145</v>
       </c>
-      <c r="P6" s="127"/>
-      <c r="Q6" s="127" t="s">
+      <c r="P6" s="138"/>
+      <c r="Q6" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="R6" s="128"/>
+      <c r="R6" s="139"/>
     </row>
     <row r="7" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="142" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122" t="s">
+      <c r="D7" s="140"/>
+      <c r="E7" s="140" t="s">
         <v>148</v>
       </c>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122" t="s">
+      <c r="F7" s="140"/>
+      <c r="G7" s="140" t="s">
         <v>149</v>
       </c>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122" t="s">
+      <c r="H7" s="140"/>
+      <c r="I7" s="140" t="s">
         <v>150</v>
       </c>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122" t="s">
+      <c r="J7" s="140"/>
+      <c r="K7" s="140" t="s">
         <v>151</v>
       </c>
-      <c r="L7" s="122"/>
-      <c r="M7" s="122" t="s">
+      <c r="L7" s="140"/>
+      <c r="M7" s="140" t="s">
         <v>152</v>
       </c>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122" t="s">
+      <c r="N7" s="140"/>
+      <c r="O7" s="140" t="s">
         <v>153</v>
       </c>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="122" t="s">
+      <c r="P7" s="140"/>
+      <c r="Q7" s="140" t="s">
         <v>154</v>
       </c>
-      <c r="R7" s="123"/>
+      <c r="R7" s="141"/>
     </row>
     <row r="8" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="121" t="s">
+      <c r="C8" s="142" t="s">
         <v>155</v>
       </c>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122" t="s">
+      <c r="D8" s="140"/>
+      <c r="E8" s="140" t="s">
         <v>156</v>
       </c>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122" t="s">
+      <c r="F8" s="140"/>
+      <c r="G8" s="140" t="s">
         <v>157</v>
       </c>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122" t="s">
+      <c r="H8" s="140"/>
+      <c r="I8" s="140" t="s">
         <v>158</v>
       </c>
-      <c r="J8" s="122"/>
-      <c r="K8" s="122" t="s">
+      <c r="J8" s="140"/>
+      <c r="K8" s="140" t="s">
         <v>159</v>
       </c>
-      <c r="L8" s="122"/>
-      <c r="M8" s="122" t="s">
+      <c r="L8" s="140"/>
+      <c r="M8" s="140" t="s">
         <v>160</v>
       </c>
-      <c r="N8" s="122"/>
-      <c r="O8" s="122" t="s">
+      <c r="N8" s="140"/>
+      <c r="O8" s="140" t="s">
         <v>161</v>
       </c>
-      <c r="P8" s="122"/>
-      <c r="Q8" s="122" t="s">
+      <c r="P8" s="140"/>
+      <c r="Q8" s="140" t="s">
         <v>162</v>
       </c>
-      <c r="R8" s="123"/>
+      <c r="R8" s="141"/>
     </row>
     <row r="9" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="142" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122" t="s">
+      <c r="D9" s="140"/>
+      <c r="E9" s="140" t="s">
         <v>164</v>
       </c>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122" t="s">
+      <c r="F9" s="140"/>
+      <c r="G9" s="140" t="s">
         <v>165</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122" t="s">
+      <c r="H9" s="140"/>
+      <c r="I9" s="140" t="s">
         <v>166</v>
       </c>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122" t="s">
+      <c r="J9" s="140"/>
+      <c r="K9" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="L9" s="122"/>
-      <c r="M9" s="122" t="s">
+      <c r="L9" s="140"/>
+      <c r="M9" s="140" t="s">
         <v>168</v>
       </c>
-      <c r="N9" s="122"/>
-      <c r="O9" s="122" t="s">
+      <c r="N9" s="140"/>
+      <c r="O9" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="P9" s="122"/>
-      <c r="Q9" s="122" t="s">
+      <c r="P9" s="140"/>
+      <c r="Q9" s="140" t="s">
         <v>170</v>
       </c>
-      <c r="R9" s="123"/>
+      <c r="R9" s="141"/>
     </row>
     <row r="10" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
@@ -5497,145 +5507,145 @@
       <c r="D10" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="E10" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="139"/>
-      <c r="G10" s="113" t="s">
+      <c r="E10" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="130"/>
+      <c r="G10" s="143" t="s">
         <v>142</v>
       </c>
-      <c r="H10" s="113"/>
-      <c r="I10" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="139"/>
-      <c r="K10" s="113" t="s">
+      <c r="H10" s="143"/>
+      <c r="I10" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="130"/>
+      <c r="K10" s="143" t="s">
         <v>143</v>
       </c>
-      <c r="L10" s="113"/>
-      <c r="M10" s="113" t="s">
+      <c r="L10" s="143"/>
+      <c r="M10" s="143" t="s">
         <v>144</v>
       </c>
-      <c r="N10" s="113"/>
-      <c r="O10" s="113" t="s">
+      <c r="N10" s="143"/>
+      <c r="O10" s="143" t="s">
         <v>145</v>
       </c>
-      <c r="P10" s="113"/>
-      <c r="Q10" s="113" t="s">
+      <c r="P10" s="143"/>
+      <c r="Q10" s="143" t="s">
         <v>146</v>
       </c>
-      <c r="R10" s="114"/>
+      <c r="R10" s="144"/>
     </row>
     <row r="11" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="115" t="s">
+      <c r="C11" s="145" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="113"/>
-      <c r="E11" s="113" t="s">
+      <c r="D11" s="143"/>
+      <c r="E11" s="143" t="s">
         <v>148</v>
       </c>
-      <c r="F11" s="113"/>
-      <c r="G11" s="113" t="s">
+      <c r="F11" s="143"/>
+      <c r="G11" s="143" t="s">
         <v>149</v>
       </c>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113" t="s">
+      <c r="H11" s="143"/>
+      <c r="I11" s="143" t="s">
         <v>150</v>
       </c>
-      <c r="J11" s="113"/>
-      <c r="K11" s="113" t="s">
+      <c r="J11" s="143"/>
+      <c r="K11" s="143" t="s">
         <v>151</v>
       </c>
-      <c r="L11" s="113"/>
-      <c r="M11" s="113" t="s">
+      <c r="L11" s="143"/>
+      <c r="M11" s="143" t="s">
         <v>152</v>
       </c>
-      <c r="N11" s="113"/>
-      <c r="O11" s="113" t="s">
+      <c r="N11" s="143"/>
+      <c r="O11" s="143" t="s">
         <v>153</v>
       </c>
-      <c r="P11" s="113"/>
-      <c r="Q11" s="113" t="s">
+      <c r="P11" s="143"/>
+      <c r="Q11" s="143" t="s">
         <v>154</v>
       </c>
-      <c r="R11" s="114"/>
+      <c r="R11" s="144"/>
     </row>
     <row r="12" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="115" t="s">
+      <c r="C12" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113" t="s">
+      <c r="D12" s="143"/>
+      <c r="E12" s="143" t="s">
         <v>156</v>
       </c>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113" t="s">
+      <c r="F12" s="143"/>
+      <c r="G12" s="143" t="s">
         <v>157</v>
       </c>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113" t="s">
+      <c r="H12" s="143"/>
+      <c r="I12" s="143" t="s">
         <v>158</v>
       </c>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113" t="s">
+      <c r="J12" s="143"/>
+      <c r="K12" s="143" t="s">
         <v>159</v>
       </c>
-      <c r="L12" s="113"/>
-      <c r="M12" s="113" t="s">
+      <c r="L12" s="143"/>
+      <c r="M12" s="143" t="s">
         <v>160</v>
       </c>
-      <c r="N12" s="113"/>
-      <c r="O12" s="113" t="s">
+      <c r="N12" s="143"/>
+      <c r="O12" s="143" t="s">
         <v>161</v>
       </c>
-      <c r="P12" s="113"/>
-      <c r="Q12" s="113" t="s">
+      <c r="P12" s="143"/>
+      <c r="Q12" s="143" t="s">
         <v>162</v>
       </c>
-      <c r="R12" s="114"/>
+      <c r="R12" s="144"/>
     </row>
     <row r="13" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="115" t="s">
+      <c r="C13" s="145" t="s">
         <v>163</v>
       </c>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113" t="s">
+      <c r="D13" s="143"/>
+      <c r="E13" s="143" t="s">
         <v>164</v>
       </c>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113" t="s">
+      <c r="F13" s="143"/>
+      <c r="G13" s="143" t="s">
         <v>165</v>
       </c>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113" t="s">
+      <c r="H13" s="143"/>
+      <c r="I13" s="143" t="s">
         <v>166</v>
       </c>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113" t="s">
+      <c r="J13" s="143"/>
+      <c r="K13" s="143" t="s">
         <v>167</v>
       </c>
-      <c r="L13" s="113"/>
-      <c r="M13" s="113" t="s">
+      <c r="L13" s="143"/>
+      <c r="M13" s="143" t="s">
         <v>168</v>
       </c>
-      <c r="N13" s="113"/>
-      <c r="O13" s="113" t="s">
+      <c r="N13" s="143"/>
+      <c r="O13" s="143" t="s">
         <v>169</v>
       </c>
-      <c r="P13" s="113"/>
-      <c r="Q13" s="113" t="s">
+      <c r="P13" s="143"/>
+      <c r="Q13" s="143" t="s">
         <v>170</v>
       </c>
-      <c r="R13" s="114"/>
+      <c r="R13" s="144"/>
     </row>
     <row r="14" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37" t="s">
@@ -5647,145 +5657,145 @@
       <c r="D14" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="E14" s="140" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="140"/>
-      <c r="G14" s="122" t="s">
+      <c r="E14" s="129" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="129"/>
+      <c r="G14" s="140" t="s">
         <v>142</v>
       </c>
-      <c r="H14" s="122"/>
-      <c r="I14" s="140" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="140"/>
-      <c r="K14" s="122" t="s">
+      <c r="H14" s="140"/>
+      <c r="I14" s="129" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="129"/>
+      <c r="K14" s="140" t="s">
         <v>143</v>
       </c>
-      <c r="L14" s="122"/>
-      <c r="M14" s="122" t="s">
+      <c r="L14" s="140"/>
+      <c r="M14" s="140" t="s">
         <v>144</v>
       </c>
-      <c r="N14" s="122"/>
-      <c r="O14" s="122" t="s">
+      <c r="N14" s="140"/>
+      <c r="O14" s="140" t="s">
         <v>145</v>
       </c>
-      <c r="P14" s="122"/>
-      <c r="Q14" s="122" t="s">
+      <c r="P14" s="140"/>
+      <c r="Q14" s="140" t="s">
         <v>146</v>
       </c>
-      <c r="R14" s="123"/>
+      <c r="R14" s="141"/>
     </row>
     <row r="15" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="121" t="s">
+      <c r="C15" s="142" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122" t="s">
+      <c r="D15" s="140"/>
+      <c r="E15" s="140" t="s">
         <v>148</v>
       </c>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122" t="s">
+      <c r="F15" s="140"/>
+      <c r="G15" s="140" t="s">
         <v>149</v>
       </c>
-      <c r="H15" s="122"/>
-      <c r="I15" s="122" t="s">
+      <c r="H15" s="140"/>
+      <c r="I15" s="140" t="s">
         <v>150</v>
       </c>
-      <c r="J15" s="122"/>
-      <c r="K15" s="122" t="s">
+      <c r="J15" s="140"/>
+      <c r="K15" s="140" t="s">
         <v>151</v>
       </c>
-      <c r="L15" s="122"/>
-      <c r="M15" s="122" t="s">
+      <c r="L15" s="140"/>
+      <c r="M15" s="140" t="s">
         <v>152</v>
       </c>
-      <c r="N15" s="122"/>
-      <c r="O15" s="122" t="s">
+      <c r="N15" s="140"/>
+      <c r="O15" s="140" t="s">
         <v>153</v>
       </c>
-      <c r="P15" s="122"/>
-      <c r="Q15" s="122" t="s">
+      <c r="P15" s="140"/>
+      <c r="Q15" s="140" t="s">
         <v>154</v>
       </c>
-      <c r="R15" s="123"/>
+      <c r="R15" s="141"/>
     </row>
     <row r="16" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="121" t="s">
+      <c r="C16" s="142" t="s">
         <v>155</v>
       </c>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122" t="s">
+      <c r="D16" s="140"/>
+      <c r="E16" s="140" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122" t="s">
+      <c r="F16" s="140"/>
+      <c r="G16" s="140" t="s">
         <v>157</v>
       </c>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122" t="s">
+      <c r="H16" s="140"/>
+      <c r="I16" s="140" t="s">
         <v>158</v>
       </c>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122" t="s">
+      <c r="J16" s="140"/>
+      <c r="K16" s="140" t="s">
         <v>159</v>
       </c>
-      <c r="L16" s="122"/>
-      <c r="M16" s="122" t="s">
+      <c r="L16" s="140"/>
+      <c r="M16" s="140" t="s">
         <v>160</v>
       </c>
-      <c r="N16" s="122"/>
-      <c r="O16" s="122" t="s">
+      <c r="N16" s="140"/>
+      <c r="O16" s="140" t="s">
         <v>161</v>
       </c>
-      <c r="P16" s="122"/>
-      <c r="Q16" s="122" t="s">
+      <c r="P16" s="140"/>
+      <c r="Q16" s="140" t="s">
         <v>162</v>
       </c>
-      <c r="R16" s="123"/>
+      <c r="R16" s="141"/>
     </row>
     <row r="17" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="121" t="s">
+      <c r="C17" s="142" t="s">
         <v>163</v>
       </c>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122" t="s">
+      <c r="D17" s="140"/>
+      <c r="E17" s="140" t="s">
         <v>164</v>
       </c>
-      <c r="F17" s="122"/>
-      <c r="G17" s="122" t="s">
+      <c r="F17" s="140"/>
+      <c r="G17" s="140" t="s">
         <v>165</v>
       </c>
-      <c r="H17" s="122"/>
-      <c r="I17" s="122" t="s">
+      <c r="H17" s="140"/>
+      <c r="I17" s="140" t="s">
         <v>166</v>
       </c>
-      <c r="J17" s="122"/>
-      <c r="K17" s="122" t="s">
+      <c r="J17" s="140"/>
+      <c r="K17" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="L17" s="122"/>
-      <c r="M17" s="122" t="s">
+      <c r="L17" s="140"/>
+      <c r="M17" s="140" t="s">
         <v>168</v>
       </c>
-      <c r="N17" s="122"/>
-      <c r="O17" s="122" t="s">
+      <c r="N17" s="140"/>
+      <c r="O17" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="P17" s="122"/>
-      <c r="Q17" s="122" t="s">
+      <c r="P17" s="140"/>
+      <c r="Q17" s="140" t="s">
         <v>170</v>
       </c>
-      <c r="R17" s="123"/>
+      <c r="R17" s="141"/>
     </row>
     <row r="18" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="37" t="s">
@@ -5797,71 +5807,71 @@
       <c r="D18" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="E18" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="139"/>
-      <c r="G18" s="113" t="s">
+      <c r="E18" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="130"/>
+      <c r="G18" s="143" t="s">
         <v>142</v>
       </c>
-      <c r="H18" s="113"/>
-      <c r="I18" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="139"/>
-      <c r="K18" s="113" t="s">
+      <c r="H18" s="143"/>
+      <c r="I18" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="130"/>
+      <c r="K18" s="143" t="s">
         <v>143</v>
       </c>
-      <c r="L18" s="113"/>
-      <c r="M18" s="113" t="s">
+      <c r="L18" s="143"/>
+      <c r="M18" s="143" t="s">
         <v>144</v>
       </c>
-      <c r="N18" s="113"/>
-      <c r="O18" s="113" t="s">
+      <c r="N18" s="143"/>
+      <c r="O18" s="143" t="s">
         <v>145</v>
       </c>
-      <c r="P18" s="113"/>
-      <c r="Q18" s="113" t="s">
+      <c r="P18" s="143"/>
+      <c r="Q18" s="143" t="s">
         <v>146</v>
       </c>
-      <c r="R18" s="114"/>
+      <c r="R18" s="144"/>
     </row>
     <row r="19" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="115" t="s">
+      <c r="C19" s="145" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113" t="s">
+      <c r="D19" s="143"/>
+      <c r="E19" s="143" t="s">
         <v>148</v>
       </c>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113" t="s">
+      <c r="F19" s="143"/>
+      <c r="G19" s="143" t="s">
         <v>149</v>
       </c>
-      <c r="H19" s="113"/>
-      <c r="I19" s="113" t="s">
+      <c r="H19" s="143"/>
+      <c r="I19" s="143" t="s">
         <v>150</v>
       </c>
-      <c r="J19" s="113"/>
-      <c r="K19" s="113" t="s">
+      <c r="J19" s="143"/>
+      <c r="K19" s="143" t="s">
         <v>151</v>
       </c>
-      <c r="L19" s="113"/>
-      <c r="M19" s="113" t="s">
+      <c r="L19" s="143"/>
+      <c r="M19" s="143" t="s">
         <v>152</v>
       </c>
-      <c r="N19" s="113"/>
-      <c r="O19" s="113" t="s">
+      <c r="N19" s="143"/>
+      <c r="O19" s="143" t="s">
         <v>153</v>
       </c>
-      <c r="P19" s="113"/>
-      <c r="Q19" s="113" t="s">
+      <c r="P19" s="143"/>
+      <c r="Q19" s="143" t="s">
         <v>154</v>
       </c>
-      <c r="R19" s="114"/>
+      <c r="R19" s="144"/>
       <c r="T19" s="64"/>
       <c r="U19" s="64"/>
       <c r="V19" s="64"/>
@@ -5870,38 +5880,38 @@
       <c r="B20" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="115" t="s">
+      <c r="C20" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113" t="s">
+      <c r="D20" s="143"/>
+      <c r="E20" s="143" t="s">
         <v>156</v>
       </c>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113" t="s">
+      <c r="F20" s="143"/>
+      <c r="G20" s="143" t="s">
         <v>157</v>
       </c>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113" t="s">
+      <c r="H20" s="143"/>
+      <c r="I20" s="143" t="s">
         <v>158</v>
       </c>
-      <c r="J20" s="113"/>
-      <c r="K20" s="113" t="s">
+      <c r="J20" s="143"/>
+      <c r="K20" s="143" t="s">
         <v>159</v>
       </c>
-      <c r="L20" s="113"/>
-      <c r="M20" s="113" t="s">
+      <c r="L20" s="143"/>
+      <c r="M20" s="143" t="s">
         <v>160</v>
       </c>
-      <c r="N20" s="113"/>
-      <c r="O20" s="113" t="s">
+      <c r="N20" s="143"/>
+      <c r="O20" s="143" t="s">
         <v>161</v>
       </c>
-      <c r="P20" s="113"/>
-      <c r="Q20" s="113" t="s">
+      <c r="P20" s="143"/>
+      <c r="Q20" s="143" t="s">
         <v>162</v>
       </c>
-      <c r="R20" s="114"/>
+      <c r="R20" s="144"/>
       <c r="T20" s="67"/>
       <c r="U20" s="67"/>
       <c r="V20" s="67"/>
@@ -5910,61 +5920,61 @@
       <c r="B21" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="124" t="s">
+      <c r="C21" s="152" t="s">
         <v>163</v>
       </c>
-      <c r="D21" s="125"/>
-      <c r="E21" s="125" t="s">
+      <c r="D21" s="146"/>
+      <c r="E21" s="146" t="s">
         <v>164</v>
       </c>
-      <c r="F21" s="125"/>
-      <c r="G21" s="125" t="s">
+      <c r="F21" s="146"/>
+      <c r="G21" s="146" t="s">
         <v>165</v>
       </c>
-      <c r="H21" s="125"/>
-      <c r="I21" s="125" t="s">
+      <c r="H21" s="146"/>
+      <c r="I21" s="146" t="s">
         <v>166</v>
       </c>
-      <c r="J21" s="125"/>
-      <c r="K21" s="125" t="s">
+      <c r="J21" s="146"/>
+      <c r="K21" s="146" t="s">
         <v>167</v>
       </c>
-      <c r="L21" s="125"/>
-      <c r="M21" s="125" t="s">
+      <c r="L21" s="146"/>
+      <c r="M21" s="146" t="s">
         <v>168</v>
       </c>
-      <c r="N21" s="125"/>
-      <c r="O21" s="125" t="s">
+      <c r="N21" s="146"/>
+      <c r="O21" s="146" t="s">
         <v>169</v>
       </c>
-      <c r="P21" s="125"/>
-      <c r="Q21" s="125" t="s">
+      <c r="P21" s="146"/>
+      <c r="Q21" s="146" t="s">
         <v>170</v>
       </c>
-      <c r="R21" s="126"/>
+      <c r="R21" s="147"/>
       <c r="T21" s="67"/>
       <c r="U21" s="67"/>
       <c r="V21" s="67"/>
     </row>
     <row r="22" spans="1:37" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="64"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="117"/>
-      <c r="L22" s="117"/>
-      <c r="M22" s="117"/>
-      <c r="N22" s="117"/>
-      <c r="O22" s="117"/>
-      <c r="P22" s="117"/>
-      <c r="Q22" s="117"/>
-      <c r="R22" s="117"/>
+      <c r="B22" s="158"/>
+      <c r="C22" s="159"/>
+      <c r="D22" s="159"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="159"/>
+      <c r="I22" s="159"/>
+      <c r="J22" s="159"/>
+      <c r="K22" s="159"/>
+      <c r="L22" s="159"/>
+      <c r="M22" s="159"/>
+      <c r="N22" s="159"/>
+      <c r="O22" s="159"/>
+      <c r="P22" s="159"/>
+      <c r="Q22" s="159"/>
+      <c r="R22" s="159"/>
       <c r="S22" s="64"/>
       <c r="T22" s="68"/>
       <c r="U22" s="68"/>
@@ -5995,34 +6005,34 @@
       <c r="D23" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="E23" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="132"/>
-      <c r="G23" s="127" t="s">
+      <c r="E23" s="128" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="128"/>
+      <c r="G23" s="138" t="s">
         <v>142</v>
       </c>
-      <c r="H23" s="127"/>
-      <c r="I23" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="132"/>
-      <c r="K23" s="127" t="s">
+      <c r="H23" s="138"/>
+      <c r="I23" s="128" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="128"/>
+      <c r="K23" s="138" t="s">
         <v>143</v>
       </c>
-      <c r="L23" s="127"/>
-      <c r="M23" s="127" t="s">
+      <c r="L23" s="138"/>
+      <c r="M23" s="138" t="s">
         <v>144</v>
       </c>
-      <c r="N23" s="127"/>
-      <c r="O23" s="127" t="s">
+      <c r="N23" s="138"/>
+      <c r="O23" s="138" t="s">
         <v>145</v>
       </c>
-      <c r="P23" s="127"/>
-      <c r="Q23" s="127" t="s">
+      <c r="P23" s="138"/>
+      <c r="Q23" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="R23" s="128"/>
+      <c r="R23" s="139"/>
       <c r="T23" s="67"/>
       <c r="U23" s="67"/>
       <c r="V23" s="67"/>
@@ -6031,38 +6041,38 @@
       <c r="B24" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="121" t="s">
+      <c r="C24" s="142" t="s">
         <v>147</v>
       </c>
-      <c r="D24" s="122"/>
-      <c r="E24" s="122" t="s">
+      <c r="D24" s="140"/>
+      <c r="E24" s="140" t="s">
         <v>148</v>
       </c>
-      <c r="F24" s="122"/>
-      <c r="G24" s="122" t="s">
+      <c r="F24" s="140"/>
+      <c r="G24" s="140" t="s">
         <v>149</v>
       </c>
-      <c r="H24" s="122"/>
-      <c r="I24" s="122" t="s">
+      <c r="H24" s="140"/>
+      <c r="I24" s="140" t="s">
         <v>150</v>
       </c>
-      <c r="J24" s="122"/>
-      <c r="K24" s="122" t="s">
+      <c r="J24" s="140"/>
+      <c r="K24" s="140" t="s">
         <v>151</v>
       </c>
-      <c r="L24" s="122"/>
-      <c r="M24" s="122" t="s">
+      <c r="L24" s="140"/>
+      <c r="M24" s="140" t="s">
         <v>152</v>
       </c>
-      <c r="N24" s="122"/>
-      <c r="O24" s="122" t="s">
+      <c r="N24" s="140"/>
+      <c r="O24" s="140" t="s">
         <v>153</v>
       </c>
-      <c r="P24" s="122"/>
-      <c r="Q24" s="122" t="s">
+      <c r="P24" s="140"/>
+      <c r="Q24" s="140" t="s">
         <v>154</v>
       </c>
-      <c r="R24" s="123"/>
+      <c r="R24" s="141"/>
       <c r="T24" s="67"/>
       <c r="U24" s="67"/>
       <c r="V24" s="67"/>
@@ -6071,75 +6081,75 @@
       <c r="B25" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="121" t="s">
+      <c r="C25" s="142" t="s">
         <v>155</v>
       </c>
-      <c r="D25" s="122"/>
-      <c r="E25" s="122" t="s">
+      <c r="D25" s="140"/>
+      <c r="E25" s="140" t="s">
         <v>156</v>
       </c>
-      <c r="F25" s="122"/>
-      <c r="G25" s="122" t="s">
+      <c r="F25" s="140"/>
+      <c r="G25" s="140" t="s">
         <v>157</v>
       </c>
-      <c r="H25" s="122"/>
-      <c r="I25" s="122" t="s">
+      <c r="H25" s="140"/>
+      <c r="I25" s="140" t="s">
         <v>158</v>
       </c>
-      <c r="J25" s="122"/>
-      <c r="K25" s="122" t="s">
+      <c r="J25" s="140"/>
+      <c r="K25" s="140" t="s">
         <v>159</v>
       </c>
-      <c r="L25" s="122"/>
-      <c r="M25" s="122" t="s">
+      <c r="L25" s="140"/>
+      <c r="M25" s="140" t="s">
         <v>160</v>
       </c>
-      <c r="N25" s="122"/>
-      <c r="O25" s="122" t="s">
+      <c r="N25" s="140"/>
+      <c r="O25" s="140" t="s">
         <v>161</v>
       </c>
-      <c r="P25" s="122"/>
-      <c r="Q25" s="122" t="s">
+      <c r="P25" s="140"/>
+      <c r="Q25" s="140" t="s">
         <v>162</v>
       </c>
-      <c r="R25" s="123"/>
+      <c r="R25" s="141"/>
     </row>
     <row r="26" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="121" t="s">
+      <c r="C26" s="142" t="s">
         <v>163</v>
       </c>
-      <c r="D26" s="122"/>
-      <c r="E26" s="122" t="s">
+      <c r="D26" s="140"/>
+      <c r="E26" s="140" t="s">
         <v>164</v>
       </c>
-      <c r="F26" s="122"/>
-      <c r="G26" s="122" t="s">
+      <c r="F26" s="140"/>
+      <c r="G26" s="140" t="s">
         <v>165</v>
       </c>
-      <c r="H26" s="122"/>
-      <c r="I26" s="122" t="s">
+      <c r="H26" s="140"/>
+      <c r="I26" s="140" t="s">
         <v>166</v>
       </c>
-      <c r="J26" s="122"/>
-      <c r="K26" s="122" t="s">
+      <c r="J26" s="140"/>
+      <c r="K26" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="L26" s="122"/>
-      <c r="M26" s="122" t="s">
+      <c r="L26" s="140"/>
+      <c r="M26" s="140" t="s">
         <v>168</v>
       </c>
-      <c r="N26" s="122"/>
-      <c r="O26" s="122" t="s">
+      <c r="N26" s="140"/>
+      <c r="O26" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="P26" s="122"/>
-      <c r="Q26" s="122" t="s">
+      <c r="P26" s="140"/>
+      <c r="Q26" s="140" t="s">
         <v>170</v>
       </c>
-      <c r="R26" s="123"/>
+      <c r="R26" s="141"/>
     </row>
     <row r="27" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="36" t="s">
@@ -6151,145 +6161,145 @@
       <c r="D27" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="E27" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="139"/>
-      <c r="G27" s="113" t="s">
+      <c r="E27" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="130"/>
+      <c r="G27" s="143" t="s">
         <v>142</v>
       </c>
-      <c r="H27" s="113"/>
-      <c r="I27" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" s="139"/>
-      <c r="K27" s="113" t="s">
+      <c r="H27" s="143"/>
+      <c r="I27" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="130"/>
+      <c r="K27" s="143" t="s">
         <v>143</v>
       </c>
-      <c r="L27" s="113"/>
-      <c r="M27" s="113" t="s">
+      <c r="L27" s="143"/>
+      <c r="M27" s="143" t="s">
         <v>144</v>
       </c>
-      <c r="N27" s="113"/>
-      <c r="O27" s="113" t="s">
+      <c r="N27" s="143"/>
+      <c r="O27" s="143" t="s">
         <v>145</v>
       </c>
-      <c r="P27" s="113"/>
-      <c r="Q27" s="113" t="s">
+      <c r="P27" s="143"/>
+      <c r="Q27" s="143" t="s">
         <v>146</v>
       </c>
-      <c r="R27" s="114"/>
+      <c r="R27" s="144"/>
     </row>
     <row r="28" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="115" t="s">
+      <c r="C28" s="145" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="113"/>
-      <c r="E28" s="113" t="s">
+      <c r="D28" s="143"/>
+      <c r="E28" s="143" t="s">
         <v>148</v>
       </c>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113" t="s">
+      <c r="F28" s="143"/>
+      <c r="G28" s="143" t="s">
         <v>149</v>
       </c>
-      <c r="H28" s="113"/>
-      <c r="I28" s="113" t="s">
+      <c r="H28" s="143"/>
+      <c r="I28" s="143" t="s">
         <v>150</v>
       </c>
-      <c r="J28" s="113"/>
-      <c r="K28" s="113" t="s">
+      <c r="J28" s="143"/>
+      <c r="K28" s="143" t="s">
         <v>151</v>
       </c>
-      <c r="L28" s="113"/>
-      <c r="M28" s="113" t="s">
+      <c r="L28" s="143"/>
+      <c r="M28" s="143" t="s">
         <v>152</v>
       </c>
-      <c r="N28" s="113"/>
-      <c r="O28" s="113" t="s">
+      <c r="N28" s="143"/>
+      <c r="O28" s="143" t="s">
         <v>153</v>
       </c>
-      <c r="P28" s="113"/>
-      <c r="Q28" s="113" t="s">
+      <c r="P28" s="143"/>
+      <c r="Q28" s="143" t="s">
         <v>154</v>
       </c>
-      <c r="R28" s="114"/>
+      <c r="R28" s="144"/>
     </row>
     <row r="29" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="C29" s="115" t="s">
+      <c r="C29" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113" t="s">
+      <c r="D29" s="143"/>
+      <c r="E29" s="143" t="s">
         <v>156</v>
       </c>
-      <c r="F29" s="113"/>
-      <c r="G29" s="113" t="s">
+      <c r="F29" s="143"/>
+      <c r="G29" s="143" t="s">
         <v>157</v>
       </c>
-      <c r="H29" s="113"/>
-      <c r="I29" s="113" t="s">
+      <c r="H29" s="143"/>
+      <c r="I29" s="143" t="s">
         <v>158</v>
       </c>
-      <c r="J29" s="113"/>
-      <c r="K29" s="113" t="s">
+      <c r="J29" s="143"/>
+      <c r="K29" s="143" t="s">
         <v>159</v>
       </c>
-      <c r="L29" s="113"/>
-      <c r="M29" s="113" t="s">
+      <c r="L29" s="143"/>
+      <c r="M29" s="143" t="s">
         <v>160</v>
       </c>
-      <c r="N29" s="113"/>
-      <c r="O29" s="113" t="s">
+      <c r="N29" s="143"/>
+      <c r="O29" s="143" t="s">
         <v>161</v>
       </c>
-      <c r="P29" s="113"/>
-      <c r="Q29" s="113" t="s">
+      <c r="P29" s="143"/>
+      <c r="Q29" s="143" t="s">
         <v>162</v>
       </c>
-      <c r="R29" s="114"/>
+      <c r="R29" s="144"/>
     </row>
     <row r="30" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="C30" s="115" t="s">
+      <c r="C30" s="145" t="s">
         <v>163</v>
       </c>
-      <c r="D30" s="113"/>
-      <c r="E30" s="113" t="s">
+      <c r="D30" s="143"/>
+      <c r="E30" s="143" t="s">
         <v>164</v>
       </c>
-      <c r="F30" s="113"/>
-      <c r="G30" s="113" t="s">
+      <c r="F30" s="143"/>
+      <c r="G30" s="143" t="s">
         <v>165</v>
       </c>
-      <c r="H30" s="113"/>
-      <c r="I30" s="113" t="s">
+      <c r="H30" s="143"/>
+      <c r="I30" s="143" t="s">
         <v>166</v>
       </c>
-      <c r="J30" s="113"/>
-      <c r="K30" s="113" t="s">
+      <c r="J30" s="143"/>
+      <c r="K30" s="143" t="s">
         <v>167</v>
       </c>
-      <c r="L30" s="113"/>
-      <c r="M30" s="113" t="s">
+      <c r="L30" s="143"/>
+      <c r="M30" s="143" t="s">
         <v>168</v>
       </c>
-      <c r="N30" s="113"/>
-      <c r="O30" s="113" t="s">
+      <c r="N30" s="143"/>
+      <c r="O30" s="143" t="s">
         <v>169</v>
       </c>
-      <c r="P30" s="113"/>
-      <c r="Q30" s="113" t="s">
+      <c r="P30" s="143"/>
+      <c r="Q30" s="143" t="s">
         <v>170</v>
       </c>
-      <c r="R30" s="114"/>
+      <c r="R30" s="144"/>
     </row>
     <row r="31" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="37" t="s">
@@ -6301,145 +6311,145 @@
       <c r="D31" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="140" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="140"/>
-      <c r="G31" s="122" t="s">
+      <c r="E31" s="129" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="129"/>
+      <c r="G31" s="140" t="s">
         <v>142</v>
       </c>
-      <c r="H31" s="122"/>
-      <c r="I31" s="140" t="s">
-        <v>6</v>
-      </c>
-      <c r="J31" s="140"/>
-      <c r="K31" s="122" t="s">
+      <c r="H31" s="140"/>
+      <c r="I31" s="129" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="129"/>
+      <c r="K31" s="140" t="s">
         <v>143</v>
       </c>
-      <c r="L31" s="122"/>
-      <c r="M31" s="122" t="s">
+      <c r="L31" s="140"/>
+      <c r="M31" s="140" t="s">
         <v>144</v>
       </c>
-      <c r="N31" s="122"/>
-      <c r="O31" s="122" t="s">
+      <c r="N31" s="140"/>
+      <c r="O31" s="140" t="s">
         <v>145</v>
       </c>
-      <c r="P31" s="122"/>
-      <c r="Q31" s="122" t="s">
+      <c r="P31" s="140"/>
+      <c r="Q31" s="140" t="s">
         <v>146</v>
       </c>
-      <c r="R31" s="123"/>
+      <c r="R31" s="141"/>
     </row>
     <row r="32" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="C32" s="121" t="s">
+      <c r="C32" s="142" t="s">
         <v>147</v>
       </c>
-      <c r="D32" s="122"/>
-      <c r="E32" s="122" t="s">
+      <c r="D32" s="140"/>
+      <c r="E32" s="140" t="s">
         <v>148</v>
       </c>
-      <c r="F32" s="122"/>
-      <c r="G32" s="122" t="s">
+      <c r="F32" s="140"/>
+      <c r="G32" s="140" t="s">
         <v>149</v>
       </c>
-      <c r="H32" s="122"/>
-      <c r="I32" s="122" t="s">
+      <c r="H32" s="140"/>
+      <c r="I32" s="140" t="s">
         <v>150</v>
       </c>
-      <c r="J32" s="122"/>
-      <c r="K32" s="122" t="s">
+      <c r="J32" s="140"/>
+      <c r="K32" s="140" t="s">
         <v>151</v>
       </c>
-      <c r="L32" s="122"/>
-      <c r="M32" s="122" t="s">
+      <c r="L32" s="140"/>
+      <c r="M32" s="140" t="s">
         <v>152</v>
       </c>
-      <c r="N32" s="122"/>
-      <c r="O32" s="122" t="s">
+      <c r="N32" s="140"/>
+      <c r="O32" s="140" t="s">
         <v>153</v>
       </c>
-      <c r="P32" s="122"/>
-      <c r="Q32" s="122" t="s">
+      <c r="P32" s="140"/>
+      <c r="Q32" s="140" t="s">
         <v>154</v>
       </c>
-      <c r="R32" s="123"/>
+      <c r="R32" s="141"/>
     </row>
     <row r="33" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="121" t="s">
+      <c r="C33" s="142" t="s">
         <v>155</v>
       </c>
-      <c r="D33" s="122"/>
-      <c r="E33" s="122" t="s">
+      <c r="D33" s="140"/>
+      <c r="E33" s="140" t="s">
         <v>156</v>
       </c>
-      <c r="F33" s="122"/>
-      <c r="G33" s="122" t="s">
+      <c r="F33" s="140"/>
+      <c r="G33" s="140" t="s">
         <v>157</v>
       </c>
-      <c r="H33" s="122"/>
-      <c r="I33" s="122" t="s">
+      <c r="H33" s="140"/>
+      <c r="I33" s="140" t="s">
         <v>158</v>
       </c>
-      <c r="J33" s="122"/>
-      <c r="K33" s="122" t="s">
+      <c r="J33" s="140"/>
+      <c r="K33" s="140" t="s">
         <v>159</v>
       </c>
-      <c r="L33" s="122"/>
-      <c r="M33" s="122" t="s">
+      <c r="L33" s="140"/>
+      <c r="M33" s="140" t="s">
         <v>160</v>
       </c>
-      <c r="N33" s="122"/>
-      <c r="O33" s="122" t="s">
+      <c r="N33" s="140"/>
+      <c r="O33" s="140" t="s">
         <v>161</v>
       </c>
-      <c r="P33" s="122"/>
-      <c r="Q33" s="122" t="s">
+      <c r="P33" s="140"/>
+      <c r="Q33" s="140" t="s">
         <v>162</v>
       </c>
-      <c r="R33" s="123"/>
+      <c r="R33" s="141"/>
     </row>
     <row r="34" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="121" t="s">
+      <c r="C34" s="142" t="s">
         <v>163</v>
       </c>
-      <c r="D34" s="122"/>
-      <c r="E34" s="122" t="s">
+      <c r="D34" s="140"/>
+      <c r="E34" s="140" t="s">
         <v>164</v>
       </c>
-      <c r="F34" s="122"/>
-      <c r="G34" s="122" t="s">
+      <c r="F34" s="140"/>
+      <c r="G34" s="140" t="s">
         <v>165</v>
       </c>
-      <c r="H34" s="122"/>
-      <c r="I34" s="122" t="s">
+      <c r="H34" s="140"/>
+      <c r="I34" s="140" t="s">
         <v>166</v>
       </c>
-      <c r="J34" s="122"/>
-      <c r="K34" s="122" t="s">
+      <c r="J34" s="140"/>
+      <c r="K34" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="L34" s="122"/>
-      <c r="M34" s="122" t="s">
+      <c r="L34" s="140"/>
+      <c r="M34" s="140" t="s">
         <v>168</v>
       </c>
-      <c r="N34" s="122"/>
-      <c r="O34" s="122" t="s">
+      <c r="N34" s="140"/>
+      <c r="O34" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="P34" s="122"/>
-      <c r="Q34" s="122" t="s">
+      <c r="P34" s="140"/>
+      <c r="Q34" s="140" t="s">
         <v>170</v>
       </c>
-      <c r="R34" s="123"/>
+      <c r="R34" s="141"/>
     </row>
     <row r="35" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="37" t="s">
@@ -6451,165 +6461,165 @@
       <c r="D35" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="E35" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" s="139"/>
-      <c r="G35" s="113" t="s">
+      <c r="E35" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="130"/>
+      <c r="G35" s="143" t="s">
         <v>142</v>
       </c>
-      <c r="H35" s="113"/>
-      <c r="I35" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="J35" s="139"/>
-      <c r="K35" s="113" t="s">
+      <c r="H35" s="143"/>
+      <c r="I35" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="130"/>
+      <c r="K35" s="143" t="s">
         <v>143</v>
       </c>
-      <c r="L35" s="113"/>
-      <c r="M35" s="113" t="s">
+      <c r="L35" s="143"/>
+      <c r="M35" s="143" t="s">
         <v>144</v>
       </c>
-      <c r="N35" s="113"/>
-      <c r="O35" s="113" t="s">
+      <c r="N35" s="143"/>
+      <c r="O35" s="143" t="s">
         <v>145</v>
       </c>
-      <c r="P35" s="113"/>
-      <c r="Q35" s="113" t="s">
+      <c r="P35" s="143"/>
+      <c r="Q35" s="143" t="s">
         <v>146</v>
       </c>
-      <c r="R35" s="114"/>
+      <c r="R35" s="144"/>
     </row>
     <row r="36" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="C36" s="115" t="s">
+      <c r="C36" s="145" t="s">
         <v>147</v>
       </c>
-      <c r="D36" s="113"/>
-      <c r="E36" s="113" t="s">
+      <c r="D36" s="143"/>
+      <c r="E36" s="143" t="s">
         <v>148</v>
       </c>
-      <c r="F36" s="113"/>
-      <c r="G36" s="113" t="s">
+      <c r="F36" s="143"/>
+      <c r="G36" s="143" t="s">
         <v>149</v>
       </c>
-      <c r="H36" s="113"/>
-      <c r="I36" s="113" t="s">
+      <c r="H36" s="143"/>
+      <c r="I36" s="143" t="s">
         <v>150</v>
       </c>
-      <c r="J36" s="113"/>
-      <c r="K36" s="113" t="s">
+      <c r="J36" s="143"/>
+      <c r="K36" s="143" t="s">
         <v>151</v>
       </c>
-      <c r="L36" s="113"/>
-      <c r="M36" s="113" t="s">
+      <c r="L36" s="143"/>
+      <c r="M36" s="143" t="s">
         <v>152</v>
       </c>
-      <c r="N36" s="113"/>
-      <c r="O36" s="113" t="s">
+      <c r="N36" s="143"/>
+      <c r="O36" s="143" t="s">
         <v>153</v>
       </c>
-      <c r="P36" s="113"/>
-      <c r="Q36" s="113" t="s">
+      <c r="P36" s="143"/>
+      <c r="Q36" s="143" t="s">
         <v>154</v>
       </c>
-      <c r="R36" s="114"/>
+      <c r="R36" s="144"/>
     </row>
     <row r="37" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="C37" s="115" t="s">
+      <c r="C37" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="D37" s="113"/>
-      <c r="E37" s="113" t="s">
+      <c r="D37" s="143"/>
+      <c r="E37" s="143" t="s">
         <v>156</v>
       </c>
-      <c r="F37" s="113"/>
-      <c r="G37" s="113" t="s">
+      <c r="F37" s="143"/>
+      <c r="G37" s="143" t="s">
         <v>157</v>
       </c>
-      <c r="H37" s="113"/>
-      <c r="I37" s="113" t="s">
+      <c r="H37" s="143"/>
+      <c r="I37" s="143" t="s">
         <v>158</v>
       </c>
-      <c r="J37" s="113"/>
-      <c r="K37" s="113" t="s">
+      <c r="J37" s="143"/>
+      <c r="K37" s="143" t="s">
         <v>159</v>
       </c>
-      <c r="L37" s="113"/>
-      <c r="M37" s="113" t="s">
+      <c r="L37" s="143"/>
+      <c r="M37" s="143" t="s">
         <v>160</v>
       </c>
-      <c r="N37" s="113"/>
-      <c r="O37" s="113" t="s">
+      <c r="N37" s="143"/>
+      <c r="O37" s="143" t="s">
         <v>161</v>
       </c>
-      <c r="P37" s="113"/>
-      <c r="Q37" s="113" t="s">
+      <c r="P37" s="143"/>
+      <c r="Q37" s="143" t="s">
         <v>162</v>
       </c>
-      <c r="R37" s="114"/>
+      <c r="R37" s="144"/>
     </row>
     <row r="38" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="124" t="s">
+      <c r="C38" s="152" t="s">
         <v>163</v>
       </c>
-      <c r="D38" s="125"/>
-      <c r="E38" s="125" t="s">
+      <c r="D38" s="146"/>
+      <c r="E38" s="146" t="s">
         <v>164</v>
       </c>
-      <c r="F38" s="125"/>
-      <c r="G38" s="125" t="s">
+      <c r="F38" s="146"/>
+      <c r="G38" s="146" t="s">
         <v>165</v>
       </c>
-      <c r="H38" s="125"/>
-      <c r="I38" s="125" t="s">
+      <c r="H38" s="146"/>
+      <c r="I38" s="146" t="s">
         <v>166</v>
       </c>
-      <c r="J38" s="125"/>
-      <c r="K38" s="125" t="s">
+      <c r="J38" s="146"/>
+      <c r="K38" s="146" t="s">
         <v>167</v>
       </c>
-      <c r="L38" s="125"/>
-      <c r="M38" s="125" t="s">
+      <c r="L38" s="146"/>
+      <c r="M38" s="146" t="s">
         <v>168</v>
       </c>
-      <c r="N38" s="125"/>
-      <c r="O38" s="125" t="s">
+      <c r="N38" s="146"/>
+      <c r="O38" s="146" t="s">
         <v>169</v>
       </c>
-      <c r="P38" s="125"/>
-      <c r="Q38" s="125" t="s">
+      <c r="P38" s="146"/>
+      <c r="Q38" s="146" t="s">
         <v>170</v>
       </c>
-      <c r="R38" s="126"/>
+      <c r="R38" s="147"/>
     </row>
     <row r="39" spans="1:19" s="66" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="67"/>
-      <c r="B39" s="118"/>
-      <c r="C39" s="119"/>
-      <c r="D39" s="119"/>
-      <c r="E39" s="119"/>
-      <c r="F39" s="119"/>
-      <c r="G39" s="119"/>
-      <c r="H39" s="119"/>
-      <c r="I39" s="119"/>
-      <c r="J39" s="119"/>
-      <c r="K39" s="119"/>
-      <c r="L39" s="119"/>
-      <c r="M39" s="119"/>
-      <c r="N39" s="119"/>
-      <c r="O39" s="119"/>
-      <c r="P39" s="119"/>
-      <c r="Q39" s="119"/>
-      <c r="R39" s="119"/>
+      <c r="B39" s="160"/>
+      <c r="C39" s="161"/>
+      <c r="D39" s="161"/>
+      <c r="E39" s="161"/>
+      <c r="F39" s="161"/>
+      <c r="G39" s="161"/>
+      <c r="H39" s="161"/>
+      <c r="I39" s="161"/>
+      <c r="J39" s="161"/>
+      <c r="K39" s="161"/>
+      <c r="L39" s="161"/>
+      <c r="M39" s="161"/>
+      <c r="N39" s="161"/>
+      <c r="O39" s="161"/>
+      <c r="P39" s="161"/>
+      <c r="Q39" s="161"/>
+      <c r="R39" s="161"/>
       <c r="S39" s="67"/>
     </row>
     <row r="40" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6622,145 +6632,145 @@
       <c r="D40" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="E40" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="132"/>
-      <c r="G40" s="127" t="s">
+      <c r="E40" s="128" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="128"/>
+      <c r="G40" s="138" t="s">
         <v>142</v>
       </c>
-      <c r="H40" s="127"/>
-      <c r="I40" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="J40" s="132"/>
-      <c r="K40" s="127" t="s">
+      <c r="H40" s="138"/>
+      <c r="I40" s="128" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" s="128"/>
+      <c r="K40" s="138" t="s">
         <v>143</v>
       </c>
-      <c r="L40" s="127"/>
-      <c r="M40" s="127" t="s">
+      <c r="L40" s="138"/>
+      <c r="M40" s="138" t="s">
         <v>144</v>
       </c>
-      <c r="N40" s="127"/>
-      <c r="O40" s="127" t="s">
+      <c r="N40" s="138"/>
+      <c r="O40" s="138" t="s">
         <v>145</v>
       </c>
-      <c r="P40" s="127"/>
-      <c r="Q40" s="127" t="s">
+      <c r="P40" s="138"/>
+      <c r="Q40" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="R40" s="128"/>
+      <c r="R40" s="139"/>
     </row>
     <row r="41" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="C41" s="121" t="s">
+      <c r="C41" s="142" t="s">
         <v>147</v>
       </c>
-      <c r="D41" s="122"/>
-      <c r="E41" s="122" t="s">
+      <c r="D41" s="140"/>
+      <c r="E41" s="140" t="s">
         <v>148</v>
       </c>
-      <c r="F41" s="122"/>
-      <c r="G41" s="122" t="s">
+      <c r="F41" s="140"/>
+      <c r="G41" s="140" t="s">
         <v>149</v>
       </c>
-      <c r="H41" s="122"/>
-      <c r="I41" s="122" t="s">
+      <c r="H41" s="140"/>
+      <c r="I41" s="140" t="s">
         <v>150</v>
       </c>
-      <c r="J41" s="122"/>
-      <c r="K41" s="122" t="s">
+      <c r="J41" s="140"/>
+      <c r="K41" s="140" t="s">
         <v>151</v>
       </c>
-      <c r="L41" s="122"/>
-      <c r="M41" s="122" t="s">
+      <c r="L41" s="140"/>
+      <c r="M41" s="140" t="s">
         <v>152</v>
       </c>
-      <c r="N41" s="122"/>
-      <c r="O41" s="122" t="s">
+      <c r="N41" s="140"/>
+      <c r="O41" s="140" t="s">
         <v>153</v>
       </c>
-      <c r="P41" s="122"/>
-      <c r="Q41" s="122" t="s">
+      <c r="P41" s="140"/>
+      <c r="Q41" s="140" t="s">
         <v>154</v>
       </c>
-      <c r="R41" s="123"/>
+      <c r="R41" s="141"/>
     </row>
     <row r="42" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="C42" s="121" t="s">
+      <c r="C42" s="142" t="s">
         <v>155</v>
       </c>
-      <c r="D42" s="122"/>
-      <c r="E42" s="122" t="s">
+      <c r="D42" s="140"/>
+      <c r="E42" s="140" t="s">
         <v>156</v>
       </c>
-      <c r="F42" s="122"/>
-      <c r="G42" s="122" t="s">
+      <c r="F42" s="140"/>
+      <c r="G42" s="140" t="s">
         <v>157</v>
       </c>
-      <c r="H42" s="122"/>
-      <c r="I42" s="122" t="s">
+      <c r="H42" s="140"/>
+      <c r="I42" s="140" t="s">
         <v>158</v>
       </c>
-      <c r="J42" s="122"/>
-      <c r="K42" s="122" t="s">
+      <c r="J42" s="140"/>
+      <c r="K42" s="140" t="s">
         <v>159</v>
       </c>
-      <c r="L42" s="122"/>
-      <c r="M42" s="122" t="s">
+      <c r="L42" s="140"/>
+      <c r="M42" s="140" t="s">
         <v>160</v>
       </c>
-      <c r="N42" s="122"/>
-      <c r="O42" s="122" t="s">
+      <c r="N42" s="140"/>
+      <c r="O42" s="140" t="s">
         <v>161</v>
       </c>
-      <c r="P42" s="122"/>
-      <c r="Q42" s="122" t="s">
+      <c r="P42" s="140"/>
+      <c r="Q42" s="140" t="s">
         <v>162</v>
       </c>
-      <c r="R42" s="123"/>
+      <c r="R42" s="141"/>
     </row>
     <row r="43" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="C43" s="121" t="s">
+      <c r="C43" s="142" t="s">
         <v>163</v>
       </c>
-      <c r="D43" s="122"/>
-      <c r="E43" s="122" t="s">
+      <c r="D43" s="140"/>
+      <c r="E43" s="140" t="s">
         <v>164</v>
       </c>
-      <c r="F43" s="122"/>
-      <c r="G43" s="122" t="s">
+      <c r="F43" s="140"/>
+      <c r="G43" s="140" t="s">
         <v>165</v>
       </c>
-      <c r="H43" s="122"/>
-      <c r="I43" s="122" t="s">
+      <c r="H43" s="140"/>
+      <c r="I43" s="140" t="s">
         <v>166</v>
       </c>
-      <c r="J43" s="122"/>
-      <c r="K43" s="122" t="s">
+      <c r="J43" s="140"/>
+      <c r="K43" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="L43" s="122"/>
-      <c r="M43" s="122" t="s">
+      <c r="L43" s="140"/>
+      <c r="M43" s="140" t="s">
         <v>168</v>
       </c>
-      <c r="N43" s="122"/>
-      <c r="O43" s="122" t="s">
+      <c r="N43" s="140"/>
+      <c r="O43" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="P43" s="122"/>
-      <c r="Q43" s="122" t="s">
+      <c r="P43" s="140"/>
+      <c r="Q43" s="140" t="s">
         <v>170</v>
       </c>
-      <c r="R43" s="123"/>
+      <c r="R43" s="141"/>
     </row>
     <row r="44" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="36" t="s">
@@ -6772,145 +6782,145 @@
       <c r="D44" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="E44" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" s="139"/>
-      <c r="G44" s="113" t="s">
+      <c r="E44" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="130"/>
+      <c r="G44" s="143" t="s">
         <v>142</v>
       </c>
-      <c r="H44" s="113"/>
-      <c r="I44" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="J44" s="139"/>
-      <c r="K44" s="113" t="s">
+      <c r="H44" s="143"/>
+      <c r="I44" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="J44" s="130"/>
+      <c r="K44" s="143" t="s">
         <v>143</v>
       </c>
-      <c r="L44" s="113"/>
-      <c r="M44" s="113" t="s">
+      <c r="L44" s="143"/>
+      <c r="M44" s="143" t="s">
         <v>144</v>
       </c>
-      <c r="N44" s="113"/>
-      <c r="O44" s="113" t="s">
+      <c r="N44" s="143"/>
+      <c r="O44" s="143" t="s">
         <v>145</v>
       </c>
-      <c r="P44" s="113"/>
-      <c r="Q44" s="113" t="s">
+      <c r="P44" s="143"/>
+      <c r="Q44" s="143" t="s">
         <v>146</v>
       </c>
-      <c r="R44" s="114"/>
+      <c r="R44" s="144"/>
     </row>
     <row r="45" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="C45" s="115" t="s">
+      <c r="C45" s="145" t="s">
         <v>147</v>
       </c>
-      <c r="D45" s="113"/>
-      <c r="E45" s="113" t="s">
+      <c r="D45" s="143"/>
+      <c r="E45" s="143" t="s">
         <v>148</v>
       </c>
-      <c r="F45" s="113"/>
-      <c r="G45" s="113" t="s">
+      <c r="F45" s="143"/>
+      <c r="G45" s="143" t="s">
         <v>149</v>
       </c>
-      <c r="H45" s="113"/>
-      <c r="I45" s="113" t="s">
+      <c r="H45" s="143"/>
+      <c r="I45" s="143" t="s">
         <v>150</v>
       </c>
-      <c r="J45" s="113"/>
-      <c r="K45" s="113" t="s">
+      <c r="J45" s="143"/>
+      <c r="K45" s="143" t="s">
         <v>151</v>
       </c>
-      <c r="L45" s="113"/>
-      <c r="M45" s="113" t="s">
+      <c r="L45" s="143"/>
+      <c r="M45" s="143" t="s">
         <v>152</v>
       </c>
-      <c r="N45" s="113"/>
-      <c r="O45" s="113" t="s">
+      <c r="N45" s="143"/>
+      <c r="O45" s="143" t="s">
         <v>153</v>
       </c>
-      <c r="P45" s="113"/>
-      <c r="Q45" s="113" t="s">
+      <c r="P45" s="143"/>
+      <c r="Q45" s="143" t="s">
         <v>154</v>
       </c>
-      <c r="R45" s="114"/>
+      <c r="R45" s="144"/>
     </row>
     <row r="46" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="115" t="s">
+      <c r="C46" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="D46" s="113"/>
-      <c r="E46" s="113" t="s">
+      <c r="D46" s="143"/>
+      <c r="E46" s="143" t="s">
         <v>156</v>
       </c>
-      <c r="F46" s="113"/>
-      <c r="G46" s="113" t="s">
+      <c r="F46" s="143"/>
+      <c r="G46" s="143" t="s">
         <v>157</v>
       </c>
-      <c r="H46" s="113"/>
-      <c r="I46" s="113" t="s">
+      <c r="H46" s="143"/>
+      <c r="I46" s="143" t="s">
         <v>158</v>
       </c>
-      <c r="J46" s="113"/>
-      <c r="K46" s="113" t="s">
+      <c r="J46" s="143"/>
+      <c r="K46" s="143" t="s">
         <v>159</v>
       </c>
-      <c r="L46" s="113"/>
-      <c r="M46" s="113" t="s">
+      <c r="L46" s="143"/>
+      <c r="M46" s="143" t="s">
         <v>160</v>
       </c>
-      <c r="N46" s="113"/>
-      <c r="O46" s="113" t="s">
+      <c r="N46" s="143"/>
+      <c r="O46" s="143" t="s">
         <v>161</v>
       </c>
-      <c r="P46" s="113"/>
-      <c r="Q46" s="113" t="s">
+      <c r="P46" s="143"/>
+      <c r="Q46" s="143" t="s">
         <v>162</v>
       </c>
-      <c r="R46" s="114"/>
+      <c r="R46" s="144"/>
     </row>
     <row r="47" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="C47" s="115" t="s">
+      <c r="C47" s="145" t="s">
         <v>163</v>
       </c>
-      <c r="D47" s="113"/>
-      <c r="E47" s="113" t="s">
+      <c r="D47" s="143"/>
+      <c r="E47" s="143" t="s">
         <v>164</v>
       </c>
-      <c r="F47" s="113"/>
-      <c r="G47" s="113" t="s">
+      <c r="F47" s="143"/>
+      <c r="G47" s="143" t="s">
         <v>165</v>
       </c>
-      <c r="H47" s="113"/>
-      <c r="I47" s="113" t="s">
+      <c r="H47" s="143"/>
+      <c r="I47" s="143" t="s">
         <v>166</v>
       </c>
-      <c r="J47" s="113"/>
-      <c r="K47" s="113" t="s">
+      <c r="J47" s="143"/>
+      <c r="K47" s="143" t="s">
         <v>167</v>
       </c>
-      <c r="L47" s="113"/>
-      <c r="M47" s="113" t="s">
+      <c r="L47" s="143"/>
+      <c r="M47" s="143" t="s">
         <v>168</v>
       </c>
-      <c r="N47" s="113"/>
-      <c r="O47" s="113" t="s">
+      <c r="N47" s="143"/>
+      <c r="O47" s="143" t="s">
         <v>169</v>
       </c>
-      <c r="P47" s="113"/>
-      <c r="Q47" s="113" t="s">
+      <c r="P47" s="143"/>
+      <c r="Q47" s="143" t="s">
         <v>170</v>
       </c>
-      <c r="R47" s="114"/>
+      <c r="R47" s="144"/>
     </row>
     <row r="48" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="37" t="s">
@@ -6922,145 +6932,145 @@
       <c r="D48" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="E48" s="140" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" s="140"/>
-      <c r="G48" s="122" t="s">
+      <c r="E48" s="129" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="129"/>
+      <c r="G48" s="140" t="s">
         <v>142</v>
       </c>
-      <c r="H48" s="122"/>
-      <c r="I48" s="140" t="s">
-        <v>6</v>
-      </c>
-      <c r="J48" s="140"/>
-      <c r="K48" s="122" t="s">
+      <c r="H48" s="140"/>
+      <c r="I48" s="129" t="s">
+        <v>6</v>
+      </c>
+      <c r="J48" s="129"/>
+      <c r="K48" s="140" t="s">
         <v>143</v>
       </c>
-      <c r="L48" s="122"/>
-      <c r="M48" s="122" t="s">
+      <c r="L48" s="140"/>
+      <c r="M48" s="140" t="s">
         <v>144</v>
       </c>
-      <c r="N48" s="122"/>
-      <c r="O48" s="122" t="s">
+      <c r="N48" s="140"/>
+      <c r="O48" s="140" t="s">
         <v>145</v>
       </c>
-      <c r="P48" s="122"/>
-      <c r="Q48" s="122" t="s">
+      <c r="P48" s="140"/>
+      <c r="Q48" s="140" t="s">
         <v>146</v>
       </c>
-      <c r="R48" s="123"/>
+      <c r="R48" s="141"/>
     </row>
     <row r="49" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="C49" s="121" t="s">
+      <c r="C49" s="142" t="s">
         <v>147</v>
       </c>
-      <c r="D49" s="122"/>
-      <c r="E49" s="122" t="s">
+      <c r="D49" s="140"/>
+      <c r="E49" s="140" t="s">
         <v>148</v>
       </c>
-      <c r="F49" s="122"/>
-      <c r="G49" s="122" t="s">
+      <c r="F49" s="140"/>
+      <c r="G49" s="140" t="s">
         <v>149</v>
       </c>
-      <c r="H49" s="122"/>
-      <c r="I49" s="122" t="s">
+      <c r="H49" s="140"/>
+      <c r="I49" s="140" t="s">
         <v>150</v>
       </c>
-      <c r="J49" s="122"/>
-      <c r="K49" s="122" t="s">
+      <c r="J49" s="140"/>
+      <c r="K49" s="140" t="s">
         <v>151</v>
       </c>
-      <c r="L49" s="122"/>
-      <c r="M49" s="122" t="s">
+      <c r="L49" s="140"/>
+      <c r="M49" s="140" t="s">
         <v>152</v>
       </c>
-      <c r="N49" s="122"/>
-      <c r="O49" s="122" t="s">
+      <c r="N49" s="140"/>
+      <c r="O49" s="140" t="s">
         <v>153</v>
       </c>
-      <c r="P49" s="122"/>
-      <c r="Q49" s="122" t="s">
+      <c r="P49" s="140"/>
+      <c r="Q49" s="140" t="s">
         <v>154</v>
       </c>
-      <c r="R49" s="123"/>
+      <c r="R49" s="141"/>
     </row>
     <row r="50" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="C50" s="121" t="s">
+      <c r="C50" s="142" t="s">
         <v>155</v>
       </c>
-      <c r="D50" s="122"/>
-      <c r="E50" s="122" t="s">
+      <c r="D50" s="140"/>
+      <c r="E50" s="140" t="s">
         <v>156</v>
       </c>
-      <c r="F50" s="122"/>
-      <c r="G50" s="122" t="s">
+      <c r="F50" s="140"/>
+      <c r="G50" s="140" t="s">
         <v>157</v>
       </c>
-      <c r="H50" s="122"/>
-      <c r="I50" s="122" t="s">
+      <c r="H50" s="140"/>
+      <c r="I50" s="140" t="s">
         <v>158</v>
       </c>
-      <c r="J50" s="122"/>
-      <c r="K50" s="122" t="s">
+      <c r="J50" s="140"/>
+      <c r="K50" s="140" t="s">
         <v>159</v>
       </c>
-      <c r="L50" s="122"/>
-      <c r="M50" s="122" t="s">
+      <c r="L50" s="140"/>
+      <c r="M50" s="140" t="s">
         <v>160</v>
       </c>
-      <c r="N50" s="122"/>
-      <c r="O50" s="122" t="s">
+      <c r="N50" s="140"/>
+      <c r="O50" s="140" t="s">
         <v>161</v>
       </c>
-      <c r="P50" s="122"/>
-      <c r="Q50" s="122" t="s">
+      <c r="P50" s="140"/>
+      <c r="Q50" s="140" t="s">
         <v>162</v>
       </c>
-      <c r="R50" s="123"/>
+      <c r="R50" s="141"/>
     </row>
     <row r="51" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="C51" s="121" t="s">
+      <c r="C51" s="142" t="s">
         <v>163</v>
       </c>
-      <c r="D51" s="122"/>
-      <c r="E51" s="122" t="s">
+      <c r="D51" s="140"/>
+      <c r="E51" s="140" t="s">
         <v>164</v>
       </c>
-      <c r="F51" s="122"/>
-      <c r="G51" s="122" t="s">
+      <c r="F51" s="140"/>
+      <c r="G51" s="140" t="s">
         <v>165</v>
       </c>
-      <c r="H51" s="122"/>
-      <c r="I51" s="122" t="s">
+      <c r="H51" s="140"/>
+      <c r="I51" s="140" t="s">
         <v>166</v>
       </c>
-      <c r="J51" s="122"/>
-      <c r="K51" s="122" t="s">
+      <c r="J51" s="140"/>
+      <c r="K51" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="L51" s="122"/>
-      <c r="M51" s="122" t="s">
+      <c r="L51" s="140"/>
+      <c r="M51" s="140" t="s">
         <v>168</v>
       </c>
-      <c r="N51" s="122"/>
-      <c r="O51" s="122" t="s">
+      <c r="N51" s="140"/>
+      <c r="O51" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="P51" s="122"/>
-      <c r="Q51" s="122" t="s">
+      <c r="P51" s="140"/>
+      <c r="Q51" s="140" t="s">
         <v>170</v>
       </c>
-      <c r="R51" s="123"/>
+      <c r="R51" s="141"/>
     </row>
     <row r="52" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="37" t="s">
@@ -7072,165 +7082,165 @@
       <c r="D52" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="E52" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" s="139"/>
-      <c r="G52" s="113" t="s">
+      <c r="E52" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="130"/>
+      <c r="G52" s="143" t="s">
         <v>142</v>
       </c>
-      <c r="H52" s="113"/>
-      <c r="I52" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="J52" s="139"/>
-      <c r="K52" s="113" t="s">
+      <c r="H52" s="143"/>
+      <c r="I52" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="J52" s="130"/>
+      <c r="K52" s="143" t="s">
         <v>143</v>
       </c>
-      <c r="L52" s="113"/>
-      <c r="M52" s="113" t="s">
+      <c r="L52" s="143"/>
+      <c r="M52" s="143" t="s">
         <v>144</v>
       </c>
-      <c r="N52" s="113"/>
-      <c r="O52" s="113" t="s">
+      <c r="N52" s="143"/>
+      <c r="O52" s="143" t="s">
         <v>145</v>
       </c>
-      <c r="P52" s="113"/>
-      <c r="Q52" s="113" t="s">
+      <c r="P52" s="143"/>
+      <c r="Q52" s="143" t="s">
         <v>146</v>
       </c>
-      <c r="R52" s="114"/>
+      <c r="R52" s="144"/>
     </row>
     <row r="53" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="C53" s="115" t="s">
+      <c r="C53" s="145" t="s">
         <v>147</v>
       </c>
-      <c r="D53" s="113"/>
-      <c r="E53" s="113" t="s">
+      <c r="D53" s="143"/>
+      <c r="E53" s="143" t="s">
         <v>148</v>
       </c>
-      <c r="F53" s="113"/>
-      <c r="G53" s="113" t="s">
+      <c r="F53" s="143"/>
+      <c r="G53" s="143" t="s">
         <v>149</v>
       </c>
-      <c r="H53" s="113"/>
-      <c r="I53" s="113" t="s">
+      <c r="H53" s="143"/>
+      <c r="I53" s="143" t="s">
         <v>150</v>
       </c>
-      <c r="J53" s="113"/>
-      <c r="K53" s="113" t="s">
+      <c r="J53" s="143"/>
+      <c r="K53" s="143" t="s">
         <v>151</v>
       </c>
-      <c r="L53" s="113"/>
-      <c r="M53" s="113" t="s">
+      <c r="L53" s="143"/>
+      <c r="M53" s="143" t="s">
         <v>152</v>
       </c>
-      <c r="N53" s="113"/>
-      <c r="O53" s="113" t="s">
+      <c r="N53" s="143"/>
+      <c r="O53" s="143" t="s">
         <v>153</v>
       </c>
-      <c r="P53" s="113"/>
-      <c r="Q53" s="113" t="s">
+      <c r="P53" s="143"/>
+      <c r="Q53" s="143" t="s">
         <v>154</v>
       </c>
-      <c r="R53" s="114"/>
+      <c r="R53" s="144"/>
     </row>
     <row r="54" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="C54" s="115" t="s">
+      <c r="C54" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="D54" s="113"/>
-      <c r="E54" s="113" t="s">
+      <c r="D54" s="143"/>
+      <c r="E54" s="143" t="s">
         <v>156</v>
       </c>
-      <c r="F54" s="113"/>
-      <c r="G54" s="113" t="s">
+      <c r="F54" s="143"/>
+      <c r="G54" s="143" t="s">
         <v>157</v>
       </c>
-      <c r="H54" s="113"/>
-      <c r="I54" s="113" t="s">
+      <c r="H54" s="143"/>
+      <c r="I54" s="143" t="s">
         <v>158</v>
       </c>
-      <c r="J54" s="113"/>
-      <c r="K54" s="113" t="s">
+      <c r="J54" s="143"/>
+      <c r="K54" s="143" t="s">
         <v>159</v>
       </c>
-      <c r="L54" s="113"/>
-      <c r="M54" s="113" t="s">
+      <c r="L54" s="143"/>
+      <c r="M54" s="143" t="s">
         <v>160</v>
       </c>
-      <c r="N54" s="113"/>
-      <c r="O54" s="113" t="s">
+      <c r="N54" s="143"/>
+      <c r="O54" s="143" t="s">
         <v>161</v>
       </c>
-      <c r="P54" s="113"/>
-      <c r="Q54" s="113" t="s">
+      <c r="P54" s="143"/>
+      <c r="Q54" s="143" t="s">
         <v>162</v>
       </c>
-      <c r="R54" s="114"/>
+      <c r="R54" s="144"/>
     </row>
     <row r="55" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="C55" s="124" t="s">
+      <c r="C55" s="152" t="s">
         <v>163</v>
       </c>
-      <c r="D55" s="125"/>
-      <c r="E55" s="125" t="s">
+      <c r="D55" s="146"/>
+      <c r="E55" s="146" t="s">
         <v>164</v>
       </c>
-      <c r="F55" s="125"/>
-      <c r="G55" s="125" t="s">
+      <c r="F55" s="146"/>
+      <c r="G55" s="146" t="s">
         <v>165</v>
       </c>
-      <c r="H55" s="125"/>
-      <c r="I55" s="125" t="s">
+      <c r="H55" s="146"/>
+      <c r="I55" s="146" t="s">
         <v>166</v>
       </c>
-      <c r="J55" s="125"/>
-      <c r="K55" s="125" t="s">
+      <c r="J55" s="146"/>
+      <c r="K55" s="146" t="s">
         <v>167</v>
       </c>
-      <c r="L55" s="125"/>
-      <c r="M55" s="125" t="s">
+      <c r="L55" s="146"/>
+      <c r="M55" s="146" t="s">
         <v>168</v>
       </c>
-      <c r="N55" s="125"/>
-      <c r="O55" s="125" t="s">
+      <c r="N55" s="146"/>
+      <c r="O55" s="146" t="s">
         <v>169</v>
       </c>
-      <c r="P55" s="125"/>
-      <c r="Q55" s="125" t="s">
+      <c r="P55" s="146"/>
+      <c r="Q55" s="146" t="s">
         <v>170</v>
       </c>
-      <c r="R55" s="126"/>
+      <c r="R55" s="147"/>
     </row>
     <row r="56" spans="1:19" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="64"/>
-      <c r="B56" s="116"/>
-      <c r="C56" s="117"/>
-      <c r="D56" s="117"/>
-      <c r="E56" s="117"/>
-      <c r="F56" s="117"/>
-      <c r="G56" s="117"/>
-      <c r="H56" s="117"/>
-      <c r="I56" s="117"/>
-      <c r="J56" s="117"/>
-      <c r="K56" s="117"/>
-      <c r="L56" s="117"/>
-      <c r="M56" s="117"/>
-      <c r="N56" s="117"/>
-      <c r="O56" s="117"/>
-      <c r="P56" s="117"/>
-      <c r="Q56" s="117"/>
-      <c r="R56" s="117"/>
+      <c r="B56" s="158"/>
+      <c r="C56" s="159"/>
+      <c r="D56" s="159"/>
+      <c r="E56" s="159"/>
+      <c r="F56" s="159"/>
+      <c r="G56" s="159"/>
+      <c r="H56" s="159"/>
+      <c r="I56" s="159"/>
+      <c r="J56" s="159"/>
+      <c r="K56" s="159"/>
+      <c r="L56" s="159"/>
+      <c r="M56" s="159"/>
+      <c r="N56" s="159"/>
+      <c r="O56" s="159"/>
+      <c r="P56" s="159"/>
+      <c r="Q56" s="159"/>
+      <c r="R56" s="159"/>
       <c r="S56" s="64"/>
     </row>
     <row r="57" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7243,145 +7253,145 @@
       <c r="D57" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="E57" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="F57" s="132"/>
-      <c r="G57" s="127" t="s">
+      <c r="E57" s="128" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="128"/>
+      <c r="G57" s="138" t="s">
         <v>142</v>
       </c>
-      <c r="H57" s="127"/>
-      <c r="I57" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="J57" s="132"/>
-      <c r="K57" s="127" t="s">
+      <c r="H57" s="138"/>
+      <c r="I57" s="128" t="s">
+        <v>6</v>
+      </c>
+      <c r="J57" s="128"/>
+      <c r="K57" s="138" t="s">
         <v>143</v>
       </c>
-      <c r="L57" s="127"/>
-      <c r="M57" s="127" t="s">
+      <c r="L57" s="138"/>
+      <c r="M57" s="138" t="s">
         <v>144</v>
       </c>
-      <c r="N57" s="127"/>
-      <c r="O57" s="127" t="s">
+      <c r="N57" s="138"/>
+      <c r="O57" s="138" t="s">
         <v>145</v>
       </c>
-      <c r="P57" s="127"/>
-      <c r="Q57" s="127" t="s">
+      <c r="P57" s="138"/>
+      <c r="Q57" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="R57" s="128"/>
+      <c r="R57" s="139"/>
     </row>
     <row r="58" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="C58" s="121" t="s">
+      <c r="C58" s="142" t="s">
         <v>147</v>
       </c>
-      <c r="D58" s="122"/>
-      <c r="E58" s="122" t="s">
+      <c r="D58" s="140"/>
+      <c r="E58" s="140" t="s">
         <v>148</v>
       </c>
-      <c r="F58" s="122"/>
-      <c r="G58" s="122" t="s">
+      <c r="F58" s="140"/>
+      <c r="G58" s="140" t="s">
         <v>149</v>
       </c>
-      <c r="H58" s="122"/>
-      <c r="I58" s="122" t="s">
+      <c r="H58" s="140"/>
+      <c r="I58" s="140" t="s">
         <v>150</v>
       </c>
-      <c r="J58" s="122"/>
-      <c r="K58" s="122" t="s">
+      <c r="J58" s="140"/>
+      <c r="K58" s="140" t="s">
         <v>151</v>
       </c>
-      <c r="L58" s="122"/>
-      <c r="M58" s="122" t="s">
+      <c r="L58" s="140"/>
+      <c r="M58" s="140" t="s">
         <v>152</v>
       </c>
-      <c r="N58" s="122"/>
-      <c r="O58" s="122" t="s">
+      <c r="N58" s="140"/>
+      <c r="O58" s="140" t="s">
         <v>153</v>
       </c>
-      <c r="P58" s="122"/>
-      <c r="Q58" s="122" t="s">
+      <c r="P58" s="140"/>
+      <c r="Q58" s="140" t="s">
         <v>154</v>
       </c>
-      <c r="R58" s="123"/>
+      <c r="R58" s="141"/>
     </row>
     <row r="59" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="C59" s="121" t="s">
+      <c r="C59" s="142" t="s">
         <v>155</v>
       </c>
-      <c r="D59" s="122"/>
-      <c r="E59" s="122" t="s">
+      <c r="D59" s="140"/>
+      <c r="E59" s="140" t="s">
         <v>156</v>
       </c>
-      <c r="F59" s="122"/>
-      <c r="G59" s="122" t="s">
+      <c r="F59" s="140"/>
+      <c r="G59" s="140" t="s">
         <v>157</v>
       </c>
-      <c r="H59" s="122"/>
-      <c r="I59" s="122" t="s">
+      <c r="H59" s="140"/>
+      <c r="I59" s="140" t="s">
         <v>158</v>
       </c>
-      <c r="J59" s="122"/>
-      <c r="K59" s="122" t="s">
+      <c r="J59" s="140"/>
+      <c r="K59" s="140" t="s">
         <v>159</v>
       </c>
-      <c r="L59" s="122"/>
-      <c r="M59" s="122" t="s">
+      <c r="L59" s="140"/>
+      <c r="M59" s="140" t="s">
         <v>160</v>
       </c>
-      <c r="N59" s="122"/>
-      <c r="O59" s="122" t="s">
+      <c r="N59" s="140"/>
+      <c r="O59" s="140" t="s">
         <v>161</v>
       </c>
-      <c r="P59" s="122"/>
-      <c r="Q59" s="122" t="s">
+      <c r="P59" s="140"/>
+      <c r="Q59" s="140" t="s">
         <v>162</v>
       </c>
-      <c r="R59" s="123"/>
+      <c r="R59" s="141"/>
     </row>
     <row r="60" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="C60" s="121" t="s">
+      <c r="C60" s="142" t="s">
         <v>163</v>
       </c>
-      <c r="D60" s="122"/>
-      <c r="E60" s="122" t="s">
+      <c r="D60" s="140"/>
+      <c r="E60" s="140" t="s">
         <v>164</v>
       </c>
-      <c r="F60" s="122"/>
-      <c r="G60" s="122" t="s">
+      <c r="F60" s="140"/>
+      <c r="G60" s="140" t="s">
         <v>165</v>
       </c>
-      <c r="H60" s="122"/>
-      <c r="I60" s="122" t="s">
+      <c r="H60" s="140"/>
+      <c r="I60" s="140" t="s">
         <v>166</v>
       </c>
-      <c r="J60" s="122"/>
-      <c r="K60" s="122" t="s">
+      <c r="J60" s="140"/>
+      <c r="K60" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="L60" s="122"/>
-      <c r="M60" s="122" t="s">
+      <c r="L60" s="140"/>
+      <c r="M60" s="140" t="s">
         <v>168</v>
       </c>
-      <c r="N60" s="122"/>
-      <c r="O60" s="122" t="s">
+      <c r="N60" s="140"/>
+      <c r="O60" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="P60" s="122"/>
-      <c r="Q60" s="122" t="s">
+      <c r="P60" s="140"/>
+      <c r="Q60" s="140" t="s">
         <v>170</v>
       </c>
-      <c r="R60" s="123"/>
+      <c r="R60" s="141"/>
     </row>
     <row r="61" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="36" t="s">
@@ -7393,145 +7403,145 @@
       <c r="D61" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="E61" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="F61" s="139"/>
-      <c r="G61" s="113" t="s">
+      <c r="E61" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" s="130"/>
+      <c r="G61" s="143" t="s">
         <v>142</v>
       </c>
-      <c r="H61" s="113"/>
-      <c r="I61" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="J61" s="139"/>
-      <c r="K61" s="113" t="s">
+      <c r="H61" s="143"/>
+      <c r="I61" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="J61" s="130"/>
+      <c r="K61" s="143" t="s">
         <v>143</v>
       </c>
-      <c r="L61" s="113"/>
-      <c r="M61" s="113" t="s">
+      <c r="L61" s="143"/>
+      <c r="M61" s="143" t="s">
         <v>144</v>
       </c>
-      <c r="N61" s="113"/>
-      <c r="O61" s="113" t="s">
+      <c r="N61" s="143"/>
+      <c r="O61" s="143" t="s">
         <v>145</v>
       </c>
-      <c r="P61" s="113"/>
-      <c r="Q61" s="113" t="s">
+      <c r="P61" s="143"/>
+      <c r="Q61" s="143" t="s">
         <v>146</v>
       </c>
-      <c r="R61" s="114"/>
+      <c r="R61" s="144"/>
     </row>
     <row r="62" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="C62" s="115" t="s">
+      <c r="C62" s="145" t="s">
         <v>147</v>
       </c>
-      <c r="D62" s="113"/>
-      <c r="E62" s="113" t="s">
+      <c r="D62" s="143"/>
+      <c r="E62" s="143" t="s">
         <v>148</v>
       </c>
-      <c r="F62" s="113"/>
-      <c r="G62" s="113" t="s">
+      <c r="F62" s="143"/>
+      <c r="G62" s="143" t="s">
         <v>149</v>
       </c>
-      <c r="H62" s="113"/>
-      <c r="I62" s="113" t="s">
+      <c r="H62" s="143"/>
+      <c r="I62" s="143" t="s">
         <v>150</v>
       </c>
-      <c r="J62" s="113"/>
-      <c r="K62" s="113" t="s">
+      <c r="J62" s="143"/>
+      <c r="K62" s="143" t="s">
         <v>151</v>
       </c>
-      <c r="L62" s="113"/>
-      <c r="M62" s="113" t="s">
+      <c r="L62" s="143"/>
+      <c r="M62" s="143" t="s">
         <v>152</v>
       </c>
-      <c r="N62" s="113"/>
-      <c r="O62" s="113" t="s">
+      <c r="N62" s="143"/>
+      <c r="O62" s="143" t="s">
         <v>153</v>
       </c>
-      <c r="P62" s="113"/>
-      <c r="Q62" s="113" t="s">
+      <c r="P62" s="143"/>
+      <c r="Q62" s="143" t="s">
         <v>154</v>
       </c>
-      <c r="R62" s="114"/>
+      <c r="R62" s="144"/>
     </row>
     <row r="63" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="C63" s="115" t="s">
+      <c r="C63" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="D63" s="113"/>
-      <c r="E63" s="113" t="s">
+      <c r="D63" s="143"/>
+      <c r="E63" s="143" t="s">
         <v>156</v>
       </c>
-      <c r="F63" s="113"/>
-      <c r="G63" s="113" t="s">
+      <c r="F63" s="143"/>
+      <c r="G63" s="143" t="s">
         <v>157</v>
       </c>
-      <c r="H63" s="113"/>
-      <c r="I63" s="113" t="s">
+      <c r="H63" s="143"/>
+      <c r="I63" s="143" t="s">
         <v>158</v>
       </c>
-      <c r="J63" s="113"/>
-      <c r="K63" s="113" t="s">
+      <c r="J63" s="143"/>
+      <c r="K63" s="143" t="s">
         <v>159</v>
       </c>
-      <c r="L63" s="113"/>
-      <c r="M63" s="113" t="s">
+      <c r="L63" s="143"/>
+      <c r="M63" s="143" t="s">
         <v>160</v>
       </c>
-      <c r="N63" s="113"/>
-      <c r="O63" s="113" t="s">
+      <c r="N63" s="143"/>
+      <c r="O63" s="143" t="s">
         <v>161</v>
       </c>
-      <c r="P63" s="113"/>
-      <c r="Q63" s="113" t="s">
+      <c r="P63" s="143"/>
+      <c r="Q63" s="143" t="s">
         <v>162</v>
       </c>
-      <c r="R63" s="114"/>
+      <c r="R63" s="144"/>
     </row>
     <row r="64" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="C64" s="115" t="s">
+      <c r="C64" s="145" t="s">
         <v>163</v>
       </c>
-      <c r="D64" s="113"/>
-      <c r="E64" s="113" t="s">
+      <c r="D64" s="143"/>
+      <c r="E64" s="143" t="s">
         <v>164</v>
       </c>
-      <c r="F64" s="113"/>
-      <c r="G64" s="113" t="s">
+      <c r="F64" s="143"/>
+      <c r="G64" s="143" t="s">
         <v>165</v>
       </c>
-      <c r="H64" s="113"/>
-      <c r="I64" s="113" t="s">
+      <c r="H64" s="143"/>
+      <c r="I64" s="143" t="s">
         <v>166</v>
       </c>
-      <c r="J64" s="113"/>
-      <c r="K64" s="113" t="s">
+      <c r="J64" s="143"/>
+      <c r="K64" s="143" t="s">
         <v>167</v>
       </c>
-      <c r="L64" s="113"/>
-      <c r="M64" s="113" t="s">
+      <c r="L64" s="143"/>
+      <c r="M64" s="143" t="s">
         <v>168</v>
       </c>
-      <c r="N64" s="113"/>
-      <c r="O64" s="113" t="s">
+      <c r="N64" s="143"/>
+      <c r="O64" s="143" t="s">
         <v>169</v>
       </c>
-      <c r="P64" s="113"/>
-      <c r="Q64" s="113" t="s">
+      <c r="P64" s="143"/>
+      <c r="Q64" s="143" t="s">
         <v>170</v>
       </c>
-      <c r="R64" s="114"/>
+      <c r="R64" s="144"/>
     </row>
     <row r="65" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="37" t="s">
@@ -7543,145 +7553,145 @@
       <c r="D65" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="E65" s="140" t="s">
-        <v>6</v>
-      </c>
-      <c r="F65" s="140"/>
-      <c r="G65" s="122" t="s">
+      <c r="E65" s="129" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" s="129"/>
+      <c r="G65" s="140" t="s">
         <v>142</v>
       </c>
-      <c r="H65" s="122"/>
-      <c r="I65" s="140" t="s">
-        <v>6</v>
-      </c>
-      <c r="J65" s="140"/>
-      <c r="K65" s="122" t="s">
+      <c r="H65" s="140"/>
+      <c r="I65" s="129" t="s">
+        <v>6</v>
+      </c>
+      <c r="J65" s="129"/>
+      <c r="K65" s="140" t="s">
         <v>143</v>
       </c>
-      <c r="L65" s="122"/>
-      <c r="M65" s="122" t="s">
+      <c r="L65" s="140"/>
+      <c r="M65" s="140" t="s">
         <v>144</v>
       </c>
-      <c r="N65" s="122"/>
-      <c r="O65" s="122" t="s">
+      <c r="N65" s="140"/>
+      <c r="O65" s="140" t="s">
         <v>145</v>
       </c>
-      <c r="P65" s="122"/>
-      <c r="Q65" s="122" t="s">
+      <c r="P65" s="140"/>
+      <c r="Q65" s="140" t="s">
         <v>146</v>
       </c>
-      <c r="R65" s="123"/>
+      <c r="R65" s="141"/>
     </row>
     <row r="66" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="C66" s="121" t="s">
+      <c r="C66" s="142" t="s">
         <v>147</v>
       </c>
-      <c r="D66" s="122"/>
-      <c r="E66" s="122" t="s">
+      <c r="D66" s="140"/>
+      <c r="E66" s="140" t="s">
         <v>148</v>
       </c>
-      <c r="F66" s="122"/>
-      <c r="G66" s="122" t="s">
+      <c r="F66" s="140"/>
+      <c r="G66" s="140" t="s">
         <v>149</v>
       </c>
-      <c r="H66" s="122"/>
-      <c r="I66" s="122" t="s">
+      <c r="H66" s="140"/>
+      <c r="I66" s="140" t="s">
         <v>150</v>
       </c>
-      <c r="J66" s="122"/>
-      <c r="K66" s="122" t="s">
+      <c r="J66" s="140"/>
+      <c r="K66" s="140" t="s">
         <v>151</v>
       </c>
-      <c r="L66" s="122"/>
-      <c r="M66" s="122" t="s">
+      <c r="L66" s="140"/>
+      <c r="M66" s="140" t="s">
         <v>152</v>
       </c>
-      <c r="N66" s="122"/>
-      <c r="O66" s="122" t="s">
+      <c r="N66" s="140"/>
+      <c r="O66" s="140" t="s">
         <v>153</v>
       </c>
-      <c r="P66" s="122"/>
-      <c r="Q66" s="122" t="s">
+      <c r="P66" s="140"/>
+      <c r="Q66" s="140" t="s">
         <v>154</v>
       </c>
-      <c r="R66" s="123"/>
+      <c r="R66" s="141"/>
     </row>
     <row r="67" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="C67" s="121" t="s">
+      <c r="C67" s="142" t="s">
         <v>155</v>
       </c>
-      <c r="D67" s="122"/>
-      <c r="E67" s="122" t="s">
+      <c r="D67" s="140"/>
+      <c r="E67" s="140" t="s">
         <v>156</v>
       </c>
-      <c r="F67" s="122"/>
-      <c r="G67" s="122" t="s">
+      <c r="F67" s="140"/>
+      <c r="G67" s="140" t="s">
         <v>157</v>
       </c>
-      <c r="H67" s="122"/>
-      <c r="I67" s="122" t="s">
+      <c r="H67" s="140"/>
+      <c r="I67" s="140" t="s">
         <v>158</v>
       </c>
-      <c r="J67" s="122"/>
-      <c r="K67" s="122" t="s">
+      <c r="J67" s="140"/>
+      <c r="K67" s="140" t="s">
         <v>159</v>
       </c>
-      <c r="L67" s="122"/>
-      <c r="M67" s="122" t="s">
+      <c r="L67" s="140"/>
+      <c r="M67" s="140" t="s">
         <v>160</v>
       </c>
-      <c r="N67" s="122"/>
-      <c r="O67" s="122" t="s">
+      <c r="N67" s="140"/>
+      <c r="O67" s="140" t="s">
         <v>161</v>
       </c>
-      <c r="P67" s="122"/>
-      <c r="Q67" s="122" t="s">
+      <c r="P67" s="140"/>
+      <c r="Q67" s="140" t="s">
         <v>162</v>
       </c>
-      <c r="R67" s="123"/>
+      <c r="R67" s="141"/>
     </row>
     <row r="68" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="C68" s="121" t="s">
+      <c r="C68" s="142" t="s">
         <v>163</v>
       </c>
-      <c r="D68" s="122"/>
-      <c r="E68" s="122" t="s">
+      <c r="D68" s="140"/>
+      <c r="E68" s="140" t="s">
         <v>164</v>
       </c>
-      <c r="F68" s="122"/>
-      <c r="G68" s="122" t="s">
+      <c r="F68" s="140"/>
+      <c r="G68" s="140" t="s">
         <v>165</v>
       </c>
-      <c r="H68" s="122"/>
-      <c r="I68" s="122" t="s">
+      <c r="H68" s="140"/>
+      <c r="I68" s="140" t="s">
         <v>166</v>
       </c>
-      <c r="J68" s="122"/>
-      <c r="K68" s="122" t="s">
+      <c r="J68" s="140"/>
+      <c r="K68" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="L68" s="122"/>
-      <c r="M68" s="122" t="s">
+      <c r="L68" s="140"/>
+      <c r="M68" s="140" t="s">
         <v>168</v>
       </c>
-      <c r="N68" s="122"/>
-      <c r="O68" s="122" t="s">
+      <c r="N68" s="140"/>
+      <c r="O68" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="P68" s="122"/>
-      <c r="Q68" s="122" t="s">
+      <c r="P68" s="140"/>
+      <c r="Q68" s="140" t="s">
         <v>170</v>
       </c>
-      <c r="R68" s="123"/>
+      <c r="R68" s="141"/>
     </row>
     <row r="69" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="37" t="s">
@@ -7693,164 +7703,164 @@
       <c r="D69" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="E69" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="F69" s="139"/>
-      <c r="G69" s="113" t="s">
+      <c r="E69" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" s="130"/>
+      <c r="G69" s="143" t="s">
         <v>142</v>
       </c>
-      <c r="H69" s="113"/>
-      <c r="I69" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="J69" s="139"/>
-      <c r="K69" s="113" t="s">
+      <c r="H69" s="143"/>
+      <c r="I69" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="J69" s="130"/>
+      <c r="K69" s="143" t="s">
         <v>143</v>
       </c>
-      <c r="L69" s="113"/>
-      <c r="M69" s="113" t="s">
+      <c r="L69" s="143"/>
+      <c r="M69" s="143" t="s">
         <v>144</v>
       </c>
-      <c r="N69" s="113"/>
-      <c r="O69" s="113" t="s">
+      <c r="N69" s="143"/>
+      <c r="O69" s="143" t="s">
         <v>145</v>
       </c>
-      <c r="P69" s="113"/>
-      <c r="Q69" s="113" t="s">
+      <c r="P69" s="143"/>
+      <c r="Q69" s="143" t="s">
         <v>146</v>
       </c>
-      <c r="R69" s="114"/>
+      <c r="R69" s="144"/>
     </row>
     <row r="70" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="C70" s="115" t="s">
+      <c r="C70" s="145" t="s">
         <v>147</v>
       </c>
-      <c r="D70" s="113"/>
-      <c r="E70" s="113" t="s">
+      <c r="D70" s="143"/>
+      <c r="E70" s="143" t="s">
         <v>148</v>
       </c>
-      <c r="F70" s="113"/>
-      <c r="G70" s="113" t="s">
+      <c r="F70" s="143"/>
+      <c r="G70" s="143" t="s">
         <v>149</v>
       </c>
-      <c r="H70" s="113"/>
-      <c r="I70" s="113" t="s">
+      <c r="H70" s="143"/>
+      <c r="I70" s="143" t="s">
         <v>150</v>
       </c>
-      <c r="J70" s="113"/>
-      <c r="K70" s="113" t="s">
+      <c r="J70" s="143"/>
+      <c r="K70" s="143" t="s">
         <v>151</v>
       </c>
-      <c r="L70" s="113"/>
-      <c r="M70" s="113" t="s">
+      <c r="L70" s="143"/>
+      <c r="M70" s="143" t="s">
         <v>152</v>
       </c>
-      <c r="N70" s="113"/>
-      <c r="O70" s="113" t="s">
+      <c r="N70" s="143"/>
+      <c r="O70" s="143" t="s">
         <v>153</v>
       </c>
-      <c r="P70" s="113"/>
-      <c r="Q70" s="113" t="s">
+      <c r="P70" s="143"/>
+      <c r="Q70" s="143" t="s">
         <v>154</v>
       </c>
-      <c r="R70" s="114"/>
+      <c r="R70" s="144"/>
     </row>
     <row r="71" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="C71" s="115" t="s">
+      <c r="C71" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="D71" s="113"/>
-      <c r="E71" s="113" t="s">
+      <c r="D71" s="143"/>
+      <c r="E71" s="143" t="s">
         <v>156</v>
       </c>
-      <c r="F71" s="113"/>
-      <c r="G71" s="113" t="s">
+      <c r="F71" s="143"/>
+      <c r="G71" s="143" t="s">
         <v>157</v>
       </c>
-      <c r="H71" s="113"/>
-      <c r="I71" s="113" t="s">
+      <c r="H71" s="143"/>
+      <c r="I71" s="143" t="s">
         <v>158</v>
       </c>
-      <c r="J71" s="113"/>
-      <c r="K71" s="113" t="s">
+      <c r="J71" s="143"/>
+      <c r="K71" s="143" t="s">
         <v>159</v>
       </c>
-      <c r="L71" s="113"/>
-      <c r="M71" s="113" t="s">
+      <c r="L71" s="143"/>
+      <c r="M71" s="143" t="s">
         <v>160</v>
       </c>
-      <c r="N71" s="113"/>
-      <c r="O71" s="113" t="s">
+      <c r="N71" s="143"/>
+      <c r="O71" s="143" t="s">
         <v>161</v>
       </c>
-      <c r="P71" s="113"/>
-      <c r="Q71" s="113" t="s">
+      <c r="P71" s="143"/>
+      <c r="Q71" s="143" t="s">
         <v>162</v>
       </c>
-      <c r="R71" s="114"/>
+      <c r="R71" s="144"/>
     </row>
     <row r="72" spans="2:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="C72" s="124" t="s">
+      <c r="C72" s="152" t="s">
         <v>163</v>
       </c>
-      <c r="D72" s="125"/>
-      <c r="E72" s="125" t="s">
+      <c r="D72" s="146"/>
+      <c r="E72" s="146" t="s">
         <v>164</v>
       </c>
-      <c r="F72" s="125"/>
-      <c r="G72" s="125" t="s">
+      <c r="F72" s="146"/>
+      <c r="G72" s="146" t="s">
         <v>165</v>
       </c>
-      <c r="H72" s="125"/>
-      <c r="I72" s="125" t="s">
+      <c r="H72" s="146"/>
+      <c r="I72" s="146" t="s">
         <v>166</v>
       </c>
-      <c r="J72" s="125"/>
-      <c r="K72" s="125" t="s">
+      <c r="J72" s="146"/>
+      <c r="K72" s="146" t="s">
         <v>167</v>
       </c>
-      <c r="L72" s="125"/>
-      <c r="M72" s="125" t="s">
+      <c r="L72" s="146"/>
+      <c r="M72" s="146" t="s">
         <v>168</v>
       </c>
-      <c r="N72" s="125"/>
-      <c r="O72" s="125" t="s">
+      <c r="N72" s="146"/>
+      <c r="O72" s="146" t="s">
         <v>169</v>
       </c>
-      <c r="P72" s="125"/>
-      <c r="Q72" s="125" t="s">
+      <c r="P72" s="146"/>
+      <c r="Q72" s="146" t="s">
         <v>170</v>
       </c>
-      <c r="R72" s="126"/>
+      <c r="R72" s="147"/>
     </row>
     <row r="73" spans="2:19" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="120"/>
-      <c r="C73" s="117"/>
-      <c r="D73" s="117"/>
-      <c r="E73" s="117"/>
-      <c r="F73" s="117"/>
-      <c r="G73" s="117"/>
-      <c r="H73" s="117"/>
-      <c r="I73" s="117"/>
-      <c r="J73" s="117"/>
-      <c r="K73" s="117"/>
-      <c r="L73" s="117"/>
-      <c r="M73" s="117"/>
-      <c r="N73" s="117"/>
-      <c r="O73" s="117"/>
-      <c r="P73" s="117"/>
-      <c r="Q73" s="117"/>
-      <c r="R73" s="117"/>
+      <c r="B73" s="162"/>
+      <c r="C73" s="159"/>
+      <c r="D73" s="159"/>
+      <c r="E73" s="159"/>
+      <c r="F73" s="159"/>
+      <c r="G73" s="159"/>
+      <c r="H73" s="159"/>
+      <c r="I73" s="159"/>
+      <c r="J73" s="159"/>
+      <c r="K73" s="159"/>
+      <c r="L73" s="159"/>
+      <c r="M73" s="159"/>
+      <c r="N73" s="159"/>
+      <c r="O73" s="159"/>
+      <c r="P73" s="159"/>
+      <c r="Q73" s="159"/>
+      <c r="R73" s="159"/>
       <c r="S73" s="64"/>
     </row>
     <row r="74" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7863,145 +7873,145 @@
       <c r="D74" s="69" t="s">
         <v>171</v>
       </c>
-      <c r="E74" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="F74" s="132"/>
-      <c r="G74" s="127" t="s">
+      <c r="E74" s="128" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74" s="128"/>
+      <c r="G74" s="138" t="s">
         <v>142</v>
       </c>
-      <c r="H74" s="127"/>
-      <c r="I74" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="J74" s="132"/>
-      <c r="K74" s="127" t="s">
+      <c r="H74" s="138"/>
+      <c r="I74" s="128" t="s">
+        <v>6</v>
+      </c>
+      <c r="J74" s="128"/>
+      <c r="K74" s="138" t="s">
         <v>143</v>
       </c>
-      <c r="L74" s="127"/>
-      <c r="M74" s="127" t="s">
+      <c r="L74" s="138"/>
+      <c r="M74" s="138" t="s">
         <v>144</v>
       </c>
-      <c r="N74" s="127"/>
-      <c r="O74" s="127" t="s">
+      <c r="N74" s="138"/>
+      <c r="O74" s="138" t="s">
         <v>145</v>
       </c>
-      <c r="P74" s="127"/>
-      <c r="Q74" s="127" t="s">
+      <c r="P74" s="138"/>
+      <c r="Q74" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="R74" s="128"/>
+      <c r="R74" s="139"/>
     </row>
     <row r="75" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="C75" s="121" t="s">
+      <c r="C75" s="142" t="s">
         <v>147</v>
       </c>
-      <c r="D75" s="122"/>
-      <c r="E75" s="122" t="s">
+      <c r="D75" s="140"/>
+      <c r="E75" s="140" t="s">
         <v>148</v>
       </c>
-      <c r="F75" s="122"/>
-      <c r="G75" s="122" t="s">
+      <c r="F75" s="140"/>
+      <c r="G75" s="140" t="s">
         <v>149</v>
       </c>
-      <c r="H75" s="122"/>
-      <c r="I75" s="122" t="s">
+      <c r="H75" s="140"/>
+      <c r="I75" s="140" t="s">
         <v>150</v>
       </c>
-      <c r="J75" s="122"/>
-      <c r="K75" s="122" t="s">
+      <c r="J75" s="140"/>
+      <c r="K75" s="140" t="s">
         <v>151</v>
       </c>
-      <c r="L75" s="122"/>
-      <c r="M75" s="122" t="s">
+      <c r="L75" s="140"/>
+      <c r="M75" s="140" t="s">
         <v>152</v>
       </c>
-      <c r="N75" s="122"/>
-      <c r="O75" s="122" t="s">
+      <c r="N75" s="140"/>
+      <c r="O75" s="140" t="s">
         <v>153</v>
       </c>
-      <c r="P75" s="122"/>
-      <c r="Q75" s="122" t="s">
+      <c r="P75" s="140"/>
+      <c r="Q75" s="140" t="s">
         <v>154</v>
       </c>
-      <c r="R75" s="123"/>
+      <c r="R75" s="141"/>
     </row>
     <row r="76" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="C76" s="121" t="s">
+      <c r="C76" s="142" t="s">
         <v>155</v>
       </c>
-      <c r="D76" s="122"/>
-      <c r="E76" s="122" t="s">
+      <c r="D76" s="140"/>
+      <c r="E76" s="140" t="s">
         <v>156</v>
       </c>
-      <c r="F76" s="122"/>
-      <c r="G76" s="122" t="s">
+      <c r="F76" s="140"/>
+      <c r="G76" s="140" t="s">
         <v>157</v>
       </c>
-      <c r="H76" s="122"/>
-      <c r="I76" s="122" t="s">
+      <c r="H76" s="140"/>
+      <c r="I76" s="140" t="s">
         <v>158</v>
       </c>
-      <c r="J76" s="122"/>
-      <c r="K76" s="122" t="s">
+      <c r="J76" s="140"/>
+      <c r="K76" s="140" t="s">
         <v>159</v>
       </c>
-      <c r="L76" s="122"/>
-      <c r="M76" s="122" t="s">
+      <c r="L76" s="140"/>
+      <c r="M76" s="140" t="s">
         <v>160</v>
       </c>
-      <c r="N76" s="122"/>
-      <c r="O76" s="122" t="s">
+      <c r="N76" s="140"/>
+      <c r="O76" s="140" t="s">
         <v>161</v>
       </c>
-      <c r="P76" s="122"/>
-      <c r="Q76" s="122" t="s">
+      <c r="P76" s="140"/>
+      <c r="Q76" s="140" t="s">
         <v>162</v>
       </c>
-      <c r="R76" s="123"/>
+      <c r="R76" s="141"/>
     </row>
     <row r="77" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="C77" s="121" t="s">
+      <c r="C77" s="142" t="s">
         <v>163</v>
       </c>
-      <c r="D77" s="122"/>
-      <c r="E77" s="122" t="s">
+      <c r="D77" s="140"/>
+      <c r="E77" s="140" t="s">
         <v>164</v>
       </c>
-      <c r="F77" s="122"/>
-      <c r="G77" s="122" t="s">
+      <c r="F77" s="140"/>
+      <c r="G77" s="140" t="s">
         <v>165</v>
       </c>
-      <c r="H77" s="122"/>
-      <c r="I77" s="122" t="s">
+      <c r="H77" s="140"/>
+      <c r="I77" s="140" t="s">
         <v>166</v>
       </c>
-      <c r="J77" s="122"/>
-      <c r="K77" s="122" t="s">
+      <c r="J77" s="140"/>
+      <c r="K77" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="L77" s="122"/>
-      <c r="M77" s="122" t="s">
+      <c r="L77" s="140"/>
+      <c r="M77" s="140" t="s">
         <v>168</v>
       </c>
-      <c r="N77" s="122"/>
-      <c r="O77" s="122" t="s">
+      <c r="N77" s="140"/>
+      <c r="O77" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="P77" s="122"/>
-      <c r="Q77" s="122" t="s">
+      <c r="P77" s="140"/>
+      <c r="Q77" s="140" t="s">
         <v>170</v>
       </c>
-      <c r="R77" s="123"/>
+      <c r="R77" s="141"/>
     </row>
     <row r="78" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="36" t="s">
@@ -8013,145 +8023,145 @@
       <c r="D78" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="E78" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="F78" s="139"/>
-      <c r="G78" s="113" t="s">
+      <c r="E78" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" s="130"/>
+      <c r="G78" s="143" t="s">
         <v>142</v>
       </c>
-      <c r="H78" s="113"/>
-      <c r="I78" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="J78" s="139"/>
-      <c r="K78" s="113" t="s">
+      <c r="H78" s="143"/>
+      <c r="I78" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="J78" s="130"/>
+      <c r="K78" s="143" t="s">
         <v>143</v>
       </c>
-      <c r="L78" s="113"/>
-      <c r="M78" s="113" t="s">
+      <c r="L78" s="143"/>
+      <c r="M78" s="143" t="s">
         <v>144</v>
       </c>
-      <c r="N78" s="113"/>
-      <c r="O78" s="113" t="s">
+      <c r="N78" s="143"/>
+      <c r="O78" s="143" t="s">
         <v>145</v>
       </c>
-      <c r="P78" s="113"/>
-      <c r="Q78" s="113" t="s">
+      <c r="P78" s="143"/>
+      <c r="Q78" s="143" t="s">
         <v>146</v>
       </c>
-      <c r="R78" s="114"/>
+      <c r="R78" s="144"/>
     </row>
     <row r="79" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="C79" s="115" t="s">
+      <c r="C79" s="145" t="s">
         <v>147</v>
       </c>
-      <c r="D79" s="113"/>
-      <c r="E79" s="113" t="s">
+      <c r="D79" s="143"/>
+      <c r="E79" s="143" t="s">
         <v>148</v>
       </c>
-      <c r="F79" s="113"/>
-      <c r="G79" s="113" t="s">
+      <c r="F79" s="143"/>
+      <c r="G79" s="143" t="s">
         <v>149</v>
       </c>
-      <c r="H79" s="113"/>
-      <c r="I79" s="113" t="s">
+      <c r="H79" s="143"/>
+      <c r="I79" s="143" t="s">
         <v>150</v>
       </c>
-      <c r="J79" s="113"/>
-      <c r="K79" s="113" t="s">
+      <c r="J79" s="143"/>
+      <c r="K79" s="143" t="s">
         <v>151</v>
       </c>
-      <c r="L79" s="113"/>
-      <c r="M79" s="113" t="s">
+      <c r="L79" s="143"/>
+      <c r="M79" s="143" t="s">
         <v>152</v>
       </c>
-      <c r="N79" s="113"/>
-      <c r="O79" s="113" t="s">
+      <c r="N79" s="143"/>
+      <c r="O79" s="143" t="s">
         <v>153</v>
       </c>
-      <c r="P79" s="113"/>
-      <c r="Q79" s="113" t="s">
+      <c r="P79" s="143"/>
+      <c r="Q79" s="143" t="s">
         <v>154</v>
       </c>
-      <c r="R79" s="114"/>
+      <c r="R79" s="144"/>
     </row>
     <row r="80" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="C80" s="115" t="s">
+      <c r="C80" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="D80" s="113"/>
-      <c r="E80" s="113" t="s">
+      <c r="D80" s="143"/>
+      <c r="E80" s="143" t="s">
         <v>156</v>
       </c>
-      <c r="F80" s="113"/>
-      <c r="G80" s="113" t="s">
+      <c r="F80" s="143"/>
+      <c r="G80" s="143" t="s">
         <v>157</v>
       </c>
-      <c r="H80" s="113"/>
-      <c r="I80" s="113" t="s">
+      <c r="H80" s="143"/>
+      <c r="I80" s="143" t="s">
         <v>158</v>
       </c>
-      <c r="J80" s="113"/>
-      <c r="K80" s="113" t="s">
+      <c r="J80" s="143"/>
+      <c r="K80" s="143" t="s">
         <v>159</v>
       </c>
-      <c r="L80" s="113"/>
-      <c r="M80" s="113" t="s">
+      <c r="L80" s="143"/>
+      <c r="M80" s="143" t="s">
         <v>160</v>
       </c>
-      <c r="N80" s="113"/>
-      <c r="O80" s="113" t="s">
+      <c r="N80" s="143"/>
+      <c r="O80" s="143" t="s">
         <v>161</v>
       </c>
-      <c r="P80" s="113"/>
-      <c r="Q80" s="113" t="s">
+      <c r="P80" s="143"/>
+      <c r="Q80" s="143" t="s">
         <v>162</v>
       </c>
-      <c r="R80" s="114"/>
+      <c r="R80" s="144"/>
     </row>
     <row r="81" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="C81" s="115" t="s">
+      <c r="C81" s="145" t="s">
         <v>163</v>
       </c>
-      <c r="D81" s="113"/>
-      <c r="E81" s="113" t="s">
+      <c r="D81" s="143"/>
+      <c r="E81" s="143" t="s">
         <v>164</v>
       </c>
-      <c r="F81" s="113"/>
-      <c r="G81" s="113" t="s">
+      <c r="F81" s="143"/>
+      <c r="G81" s="143" t="s">
         <v>165</v>
       </c>
-      <c r="H81" s="113"/>
-      <c r="I81" s="113" t="s">
+      <c r="H81" s="143"/>
+      <c r="I81" s="143" t="s">
         <v>166</v>
       </c>
-      <c r="J81" s="113"/>
-      <c r="K81" s="113" t="s">
+      <c r="J81" s="143"/>
+      <c r="K81" s="143" t="s">
         <v>167</v>
       </c>
-      <c r="L81" s="113"/>
-      <c r="M81" s="113" t="s">
+      <c r="L81" s="143"/>
+      <c r="M81" s="143" t="s">
         <v>168</v>
       </c>
-      <c r="N81" s="113"/>
-      <c r="O81" s="113" t="s">
+      <c r="N81" s="143"/>
+      <c r="O81" s="143" t="s">
         <v>169</v>
       </c>
-      <c r="P81" s="113"/>
-      <c r="Q81" s="113" t="s">
+      <c r="P81" s="143"/>
+      <c r="Q81" s="143" t="s">
         <v>170</v>
       </c>
-      <c r="R81" s="114"/>
+      <c r="R81" s="144"/>
     </row>
     <row r="82" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="37" t="s">
@@ -8322,420 +8332,933 @@
       <c r="R89" s="75"/>
     </row>
     <row r="91" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B91" s="147" t="s">
+      <c r="B91" s="131" t="s">
         <v>229</v>
       </c>
-      <c r="C91" s="147"/>
-      <c r="D91" s="147">
+      <c r="C91" s="131"/>
+      <c r="D91" s="131">
         <v>7</v>
       </c>
-      <c r="E91" s="147"/>
-      <c r="F91" s="147">
-        <v>6</v>
-      </c>
-      <c r="G91" s="147"/>
-      <c r="H91" s="147">
+      <c r="E91" s="131"/>
+      <c r="F91" s="131">
+        <v>6</v>
+      </c>
+      <c r="G91" s="131"/>
+      <c r="H91" s="131">
         <v>5</v>
       </c>
-      <c r="I91" s="147"/>
-      <c r="J91" s="147">
+      <c r="I91" s="131"/>
+      <c r="J91" s="131">
         <v>4</v>
       </c>
-      <c r="K91" s="147"/>
-      <c r="L91" s="147">
+      <c r="K91" s="131"/>
+      <c r="L91" s="131">
         <v>3</v>
       </c>
-      <c r="M91" s="147"/>
-      <c r="N91" s="147">
+      <c r="M91" s="131"/>
+      <c r="N91" s="131">
         <v>2</v>
       </c>
-      <c r="O91" s="147"/>
-      <c r="P91" s="147">
+      <c r="O91" s="131"/>
+      <c r="P91" s="131">
         <v>1</v>
       </c>
-      <c r="Q91" s="147"/>
-      <c r="R91" s="147">
+      <c r="Q91" s="131"/>
+      <c r="R91" s="131">
         <v>0</v>
       </c>
-      <c r="S91" s="147"/>
+      <c r="S91" s="131"/>
     </row>
     <row r="92" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="135" t="s">
+      <c r="B92" s="148" t="s">
         <v>228</v>
       </c>
-      <c r="C92" s="136"/>
-      <c r="D92" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="E92" s="81"/>
-      <c r="F92" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="G92" s="81"/>
-      <c r="H92" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="I92" s="81"/>
-      <c r="J92" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="K92" s="81"/>
-      <c r="L92" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="M92" s="81"/>
-      <c r="N92" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="O92" s="81"/>
-      <c r="P92" s="141" t="s">
+      <c r="C92" s="149"/>
+      <c r="D92" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" s="90"/>
+      <c r="F92" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="G92" s="90"/>
+      <c r="H92" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="I92" s="90"/>
+      <c r="J92" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="K92" s="90"/>
+      <c r="L92" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="M92" s="90"/>
+      <c r="N92" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="O92" s="90"/>
+      <c r="P92" s="132" t="s">
         <v>230</v>
       </c>
-      <c r="Q92" s="142"/>
-      <c r="R92" s="141" t="s">
+      <c r="Q92" s="133"/>
+      <c r="R92" s="132" t="s">
         <v>231</v>
       </c>
-      <c r="S92" s="142"/>
+      <c r="S92" s="133"/>
     </row>
     <row r="93" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="135"/>
-      <c r="C93" s="136"/>
-      <c r="D93" s="81"/>
-      <c r="E93" s="81"/>
-      <c r="F93" s="81"/>
-      <c r="G93" s="81"/>
-      <c r="H93" s="81"/>
-      <c r="I93" s="81"/>
-      <c r="J93" s="81"/>
-      <c r="K93" s="81"/>
-      <c r="L93" s="81"/>
-      <c r="M93" s="81"/>
-      <c r="N93" s="81"/>
-      <c r="O93" s="81"/>
-      <c r="P93" s="143"/>
-      <c r="Q93" s="144"/>
-      <c r="R93" s="143"/>
-      <c r="S93" s="144"/>
+      <c r="B93" s="148"/>
+      <c r="C93" s="149"/>
+      <c r="D93" s="90"/>
+      <c r="E93" s="90"/>
+      <c r="F93" s="90"/>
+      <c r="G93" s="90"/>
+      <c r="H93" s="90"/>
+      <c r="I93" s="90"/>
+      <c r="J93" s="90"/>
+      <c r="K93" s="90"/>
+      <c r="L93" s="90"/>
+      <c r="M93" s="90"/>
+      <c r="N93" s="90"/>
+      <c r="O93" s="90"/>
+      <c r="P93" s="134"/>
+      <c r="Q93" s="135"/>
+      <c r="R93" s="134"/>
+      <c r="S93" s="135"/>
     </row>
     <row r="94" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="135"/>
-      <c r="C94" s="136"/>
-      <c r="D94" s="81"/>
-      <c r="E94" s="81"/>
-      <c r="F94" s="81"/>
-      <c r="G94" s="81"/>
-      <c r="H94" s="81"/>
-      <c r="I94" s="81"/>
-      <c r="J94" s="81"/>
-      <c r="K94" s="81"/>
-      <c r="L94" s="81"/>
-      <c r="M94" s="81"/>
-      <c r="N94" s="81"/>
-      <c r="O94" s="81"/>
-      <c r="P94" s="143"/>
-      <c r="Q94" s="144"/>
-      <c r="R94" s="143"/>
-      <c r="S94" s="144"/>
+      <c r="B94" s="148"/>
+      <c r="C94" s="149"/>
+      <c r="D94" s="90"/>
+      <c r="E94" s="90"/>
+      <c r="F94" s="90"/>
+      <c r="G94" s="90"/>
+      <c r="H94" s="90"/>
+      <c r="I94" s="90"/>
+      <c r="J94" s="90"/>
+      <c r="K94" s="90"/>
+      <c r="L94" s="90"/>
+      <c r="M94" s="90"/>
+      <c r="N94" s="90"/>
+      <c r="O94" s="90"/>
+      <c r="P94" s="134"/>
+      <c r="Q94" s="135"/>
+      <c r="R94" s="134"/>
+      <c r="S94" s="135"/>
     </row>
     <row r="95" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="137"/>
-      <c r="C95" s="138"/>
-      <c r="D95" s="81"/>
-      <c r="E95" s="81"/>
-      <c r="F95" s="81"/>
-      <c r="G95" s="81"/>
-      <c r="H95" s="81"/>
-      <c r="I95" s="81"/>
-      <c r="J95" s="81"/>
-      <c r="K95" s="81"/>
-      <c r="L95" s="81"/>
-      <c r="M95" s="81"/>
-      <c r="N95" s="81"/>
-      <c r="O95" s="81"/>
-      <c r="P95" s="145"/>
-      <c r="Q95" s="146"/>
-      <c r="R95" s="145"/>
-      <c r="S95" s="146"/>
+      <c r="B95" s="150"/>
+      <c r="C95" s="151"/>
+      <c r="D95" s="90"/>
+      <c r="E95" s="90"/>
+      <c r="F95" s="90"/>
+      <c r="G95" s="90"/>
+      <c r="H95" s="90"/>
+      <c r="I95" s="90"/>
+      <c r="J95" s="90"/>
+      <c r="K95" s="90"/>
+      <c r="L95" s="90"/>
+      <c r="M95" s="90"/>
+      <c r="N95" s="90"/>
+      <c r="O95" s="90"/>
+      <c r="P95" s="136"/>
+      <c r="Q95" s="137"/>
+      <c r="R95" s="136"/>
+      <c r="S95" s="137"/>
     </row>
     <row r="96" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="129" t="s">
+      <c r="B96" s="153" t="s">
         <v>172</v>
       </c>
-      <c r="C96" s="130"/>
-      <c r="D96" s="131" t="s">
+      <c r="C96" s="154"/>
+      <c r="D96" s="155" t="s">
         <v>173</v>
       </c>
-      <c r="E96" s="131"/>
-      <c r="F96" s="131"/>
-      <c r="G96" s="131"/>
-      <c r="H96" s="131"/>
-      <c r="I96" s="131"/>
-      <c r="J96" s="131"/>
-      <c r="K96" s="131"/>
-      <c r="L96" s="131"/>
-      <c r="M96" s="131"/>
-      <c r="N96" s="131"/>
-      <c r="O96" s="131"/>
-      <c r="P96" s="131"/>
-      <c r="Q96" s="131"/>
-      <c r="R96" s="131"/>
-      <c r="S96" s="131"/>
+      <c r="E96" s="155"/>
+      <c r="F96" s="155"/>
+      <c r="G96" s="155"/>
+      <c r="H96" s="155"/>
+      <c r="I96" s="155"/>
+      <c r="J96" s="155"/>
+      <c r="K96" s="155"/>
+      <c r="L96" s="155"/>
+      <c r="M96" s="155"/>
+      <c r="N96" s="155"/>
+      <c r="O96" s="155"/>
+      <c r="P96" s="155"/>
+      <c r="Q96" s="155"/>
+      <c r="R96" s="155"/>
+      <c r="S96" s="155"/>
     </row>
     <row r="97" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="130"/>
-      <c r="C97" s="130"/>
-      <c r="D97" s="131"/>
-      <c r="E97" s="131"/>
-      <c r="F97" s="131"/>
-      <c r="G97" s="131"/>
-      <c r="H97" s="131"/>
-      <c r="I97" s="131"/>
-      <c r="J97" s="131"/>
-      <c r="K97" s="131"/>
-      <c r="L97" s="131"/>
-      <c r="M97" s="131"/>
-      <c r="N97" s="131"/>
-      <c r="O97" s="131"/>
-      <c r="P97" s="131"/>
-      <c r="Q97" s="131"/>
-      <c r="R97" s="131"/>
-      <c r="S97" s="131"/>
+      <c r="B97" s="154"/>
+      <c r="C97" s="154"/>
+      <c r="D97" s="155"/>
+      <c r="E97" s="155"/>
+      <c r="F97" s="155"/>
+      <c r="G97" s="155"/>
+      <c r="H97" s="155"/>
+      <c r="I97" s="155"/>
+      <c r="J97" s="155"/>
+      <c r="K97" s="155"/>
+      <c r="L97" s="155"/>
+      <c r="M97" s="155"/>
+      <c r="N97" s="155"/>
+      <c r="O97" s="155"/>
+      <c r="P97" s="155"/>
+      <c r="Q97" s="155"/>
+      <c r="R97" s="155"/>
+      <c r="S97" s="155"/>
     </row>
     <row r="98" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="130"/>
-      <c r="C98" s="130"/>
-      <c r="D98" s="131"/>
-      <c r="E98" s="131"/>
-      <c r="F98" s="131"/>
-      <c r="G98" s="131"/>
-      <c r="H98" s="131"/>
-      <c r="I98" s="131"/>
-      <c r="J98" s="131"/>
-      <c r="K98" s="131"/>
-      <c r="L98" s="131"/>
-      <c r="M98" s="131"/>
-      <c r="N98" s="131"/>
-      <c r="O98" s="131"/>
-      <c r="P98" s="131"/>
-      <c r="Q98" s="131"/>
-      <c r="R98" s="131"/>
-      <c r="S98" s="131"/>
+      <c r="B98" s="154"/>
+      <c r="C98" s="154"/>
+      <c r="D98" s="155"/>
+      <c r="E98" s="155"/>
+      <c r="F98" s="155"/>
+      <c r="G98" s="155"/>
+      <c r="H98" s="155"/>
+      <c r="I98" s="155"/>
+      <c r="J98" s="155"/>
+      <c r="K98" s="155"/>
+      <c r="L98" s="155"/>
+      <c r="M98" s="155"/>
+      <c r="N98" s="155"/>
+      <c r="O98" s="155"/>
+      <c r="P98" s="155"/>
+      <c r="Q98" s="155"/>
+      <c r="R98" s="155"/>
+      <c r="S98" s="155"/>
     </row>
     <row r="99" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="130"/>
-      <c r="C99" s="130"/>
-      <c r="D99" s="131"/>
-      <c r="E99" s="131"/>
-      <c r="F99" s="131"/>
-      <c r="G99" s="131"/>
-      <c r="H99" s="131"/>
-      <c r="I99" s="131"/>
-      <c r="J99" s="131"/>
-      <c r="K99" s="131"/>
-      <c r="L99" s="131"/>
-      <c r="M99" s="131"/>
-      <c r="N99" s="131"/>
-      <c r="O99" s="131"/>
-      <c r="P99" s="131"/>
-      <c r="Q99" s="131"/>
-      <c r="R99" s="131"/>
-      <c r="S99" s="131"/>
+      <c r="B99" s="154"/>
+      <c r="C99" s="154"/>
+      <c r="D99" s="155"/>
+      <c r="E99" s="155"/>
+      <c r="F99" s="155"/>
+      <c r="G99" s="155"/>
+      <c r="H99" s="155"/>
+      <c r="I99" s="155"/>
+      <c r="J99" s="155"/>
+      <c r="K99" s="155"/>
+      <c r="L99" s="155"/>
+      <c r="M99" s="155"/>
+      <c r="N99" s="155"/>
+      <c r="O99" s="155"/>
+      <c r="P99" s="155"/>
+      <c r="Q99" s="155"/>
+      <c r="R99" s="155"/>
+      <c r="S99" s="155"/>
     </row>
     <row r="100" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="133" t="s">
+      <c r="B100" s="156" t="s">
         <v>174</v>
       </c>
-      <c r="C100" s="134"/>
-      <c r="D100" s="131" t="s">
+      <c r="C100" s="157"/>
+      <c r="D100" s="155" t="s">
         <v>175</v>
       </c>
-      <c r="E100" s="131"/>
-      <c r="F100" s="131"/>
-      <c r="G100" s="131"/>
-      <c r="H100" s="131"/>
-      <c r="I100" s="131"/>
-      <c r="J100" s="131"/>
-      <c r="K100" s="131"/>
-      <c r="L100" s="131"/>
-      <c r="M100" s="131"/>
-      <c r="N100" s="131"/>
-      <c r="O100" s="131"/>
-      <c r="P100" s="131"/>
-      <c r="Q100" s="131"/>
-      <c r="R100" s="131"/>
-      <c r="S100" s="131"/>
+      <c r="E100" s="155"/>
+      <c r="F100" s="155"/>
+      <c r="G100" s="155"/>
+      <c r="H100" s="155"/>
+      <c r="I100" s="155"/>
+      <c r="J100" s="155"/>
+      <c r="K100" s="155"/>
+      <c r="L100" s="155"/>
+      <c r="M100" s="155"/>
+      <c r="N100" s="155"/>
+      <c r="O100" s="155"/>
+      <c r="P100" s="155"/>
+      <c r="Q100" s="155"/>
+      <c r="R100" s="155"/>
+      <c r="S100" s="155"/>
     </row>
     <row r="101" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="134"/>
-      <c r="C101" s="134"/>
-      <c r="D101" s="131"/>
-      <c r="E101" s="131"/>
-      <c r="F101" s="131"/>
-      <c r="G101" s="131"/>
-      <c r="H101" s="131"/>
-      <c r="I101" s="131"/>
-      <c r="J101" s="131"/>
-      <c r="K101" s="131"/>
-      <c r="L101" s="131"/>
-      <c r="M101" s="131"/>
-      <c r="N101" s="131"/>
-      <c r="O101" s="131"/>
-      <c r="P101" s="131"/>
-      <c r="Q101" s="131"/>
-      <c r="R101" s="131"/>
-      <c r="S101" s="131"/>
+      <c r="B101" s="157"/>
+      <c r="C101" s="157"/>
+      <c r="D101" s="155"/>
+      <c r="E101" s="155"/>
+      <c r="F101" s="155"/>
+      <c r="G101" s="155"/>
+      <c r="H101" s="155"/>
+      <c r="I101" s="155"/>
+      <c r="J101" s="155"/>
+      <c r="K101" s="155"/>
+      <c r="L101" s="155"/>
+      <c r="M101" s="155"/>
+      <c r="N101" s="155"/>
+      <c r="O101" s="155"/>
+      <c r="P101" s="155"/>
+      <c r="Q101" s="155"/>
+      <c r="R101" s="155"/>
+      <c r="S101" s="155"/>
     </row>
     <row r="102" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="134"/>
-      <c r="C102" s="134"/>
-      <c r="D102" s="131"/>
-      <c r="E102" s="131"/>
-      <c r="F102" s="131"/>
-      <c r="G102" s="131"/>
-      <c r="H102" s="131"/>
-      <c r="I102" s="131"/>
-      <c r="J102" s="131"/>
-      <c r="K102" s="131"/>
-      <c r="L102" s="131"/>
-      <c r="M102" s="131"/>
-      <c r="N102" s="131"/>
-      <c r="O102" s="131"/>
-      <c r="P102" s="131"/>
-      <c r="Q102" s="131"/>
-      <c r="R102" s="131"/>
-      <c r="S102" s="131"/>
+      <c r="B102" s="157"/>
+      <c r="C102" s="157"/>
+      <c r="D102" s="155"/>
+      <c r="E102" s="155"/>
+      <c r="F102" s="155"/>
+      <c r="G102" s="155"/>
+      <c r="H102" s="155"/>
+      <c r="I102" s="155"/>
+      <c r="J102" s="155"/>
+      <c r="K102" s="155"/>
+      <c r="L102" s="155"/>
+      <c r="M102" s="155"/>
+      <c r="N102" s="155"/>
+      <c r="O102" s="155"/>
+      <c r="P102" s="155"/>
+      <c r="Q102" s="155"/>
+      <c r="R102" s="155"/>
+      <c r="S102" s="155"/>
     </row>
     <row r="103" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="134"/>
-      <c r="C103" s="134"/>
-      <c r="D103" s="131"/>
-      <c r="E103" s="131"/>
-      <c r="F103" s="131"/>
-      <c r="G103" s="131"/>
-      <c r="H103" s="131"/>
-      <c r="I103" s="131"/>
-      <c r="J103" s="131"/>
-      <c r="K103" s="131"/>
-      <c r="L103" s="131"/>
-      <c r="M103" s="131"/>
-      <c r="N103" s="131"/>
-      <c r="O103" s="131"/>
-      <c r="P103" s="131"/>
-      <c r="Q103" s="131"/>
-      <c r="R103" s="131"/>
-      <c r="S103" s="131"/>
+      <c r="B103" s="157"/>
+      <c r="C103" s="157"/>
+      <c r="D103" s="155"/>
+      <c r="E103" s="155"/>
+      <c r="F103" s="155"/>
+      <c r="G103" s="155"/>
+      <c r="H103" s="155"/>
+      <c r="I103" s="155"/>
+      <c r="J103" s="155"/>
+      <c r="K103" s="155"/>
+      <c r="L103" s="155"/>
+      <c r="M103" s="155"/>
+      <c r="N103" s="155"/>
+      <c r="O103" s="155"/>
+      <c r="P103" s="155"/>
+      <c r="Q103" s="155"/>
+      <c r="R103" s="155"/>
+      <c r="S103" s="155"/>
     </row>
     <row r="104" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="129" t="s">
+      <c r="B104" s="153" t="s">
         <v>176</v>
       </c>
-      <c r="C104" s="130"/>
-      <c r="D104" s="131" t="s">
+      <c r="C104" s="154"/>
+      <c r="D104" s="155" t="s">
         <v>177</v>
       </c>
-      <c r="E104" s="131"/>
-      <c r="F104" s="131"/>
-      <c r="G104" s="131"/>
-      <c r="H104" s="131"/>
-      <c r="I104" s="131"/>
-      <c r="J104" s="131"/>
-      <c r="K104" s="131"/>
-      <c r="L104" s="131"/>
-      <c r="M104" s="131"/>
-      <c r="N104" s="131"/>
-      <c r="O104" s="131"/>
-      <c r="P104" s="131"/>
-      <c r="Q104" s="131"/>
-      <c r="R104" s="131"/>
-      <c r="S104" s="131"/>
+      <c r="E104" s="155"/>
+      <c r="F104" s="155"/>
+      <c r="G104" s="155"/>
+      <c r="H104" s="155"/>
+      <c r="I104" s="155"/>
+      <c r="J104" s="155"/>
+      <c r="K104" s="155"/>
+      <c r="L104" s="155"/>
+      <c r="M104" s="155"/>
+      <c r="N104" s="155"/>
+      <c r="O104" s="155"/>
+      <c r="P104" s="155"/>
+      <c r="Q104" s="155"/>
+      <c r="R104" s="155"/>
+      <c r="S104" s="155"/>
     </row>
     <row r="105" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="130"/>
-      <c r="C105" s="130"/>
-      <c r="D105" s="131"/>
-      <c r="E105" s="131"/>
-      <c r="F105" s="131"/>
-      <c r="G105" s="131"/>
-      <c r="H105" s="131"/>
-      <c r="I105" s="131"/>
-      <c r="J105" s="131"/>
-      <c r="K105" s="131"/>
-      <c r="L105" s="131"/>
-      <c r="M105" s="131"/>
-      <c r="N105" s="131"/>
-      <c r="O105" s="131"/>
-      <c r="P105" s="131"/>
-      <c r="Q105" s="131"/>
-      <c r="R105" s="131"/>
-      <c r="S105" s="131"/>
+      <c r="B105" s="154"/>
+      <c r="C105" s="154"/>
+      <c r="D105" s="155"/>
+      <c r="E105" s="155"/>
+      <c r="F105" s="155"/>
+      <c r="G105" s="155"/>
+      <c r="H105" s="155"/>
+      <c r="I105" s="155"/>
+      <c r="J105" s="155"/>
+      <c r="K105" s="155"/>
+      <c r="L105" s="155"/>
+      <c r="M105" s="155"/>
+      <c r="N105" s="155"/>
+      <c r="O105" s="155"/>
+      <c r="P105" s="155"/>
+      <c r="Q105" s="155"/>
+      <c r="R105" s="155"/>
+      <c r="S105" s="155"/>
     </row>
     <row r="106" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="130"/>
-      <c r="C106" s="130"/>
-      <c r="D106" s="131"/>
-      <c r="E106" s="131"/>
-      <c r="F106" s="131"/>
-      <c r="G106" s="131"/>
-      <c r="H106" s="131"/>
-      <c r="I106" s="131"/>
-      <c r="J106" s="131"/>
-      <c r="K106" s="131"/>
-      <c r="L106" s="131"/>
-      <c r="M106" s="131"/>
-      <c r="N106" s="131"/>
-      <c r="O106" s="131"/>
-      <c r="P106" s="131"/>
-      <c r="Q106" s="131"/>
-      <c r="R106" s="131"/>
-      <c r="S106" s="131"/>
+      <c r="B106" s="154"/>
+      <c r="C106" s="154"/>
+      <c r="D106" s="155"/>
+      <c r="E106" s="155"/>
+      <c r="F106" s="155"/>
+      <c r="G106" s="155"/>
+      <c r="H106" s="155"/>
+      <c r="I106" s="155"/>
+      <c r="J106" s="155"/>
+      <c r="K106" s="155"/>
+      <c r="L106" s="155"/>
+      <c r="M106" s="155"/>
+      <c r="N106" s="155"/>
+      <c r="O106" s="155"/>
+      <c r="P106" s="155"/>
+      <c r="Q106" s="155"/>
+      <c r="R106" s="155"/>
+      <c r="S106" s="155"/>
     </row>
     <row r="107" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="130"/>
-      <c r="C107" s="130"/>
-      <c r="D107" s="131"/>
-      <c r="E107" s="131"/>
-      <c r="F107" s="131"/>
-      <c r="G107" s="131"/>
-      <c r="H107" s="131"/>
-      <c r="I107" s="131"/>
-      <c r="J107" s="131"/>
-      <c r="K107" s="131"/>
-      <c r="L107" s="131"/>
-      <c r="M107" s="131"/>
-      <c r="N107" s="131"/>
-      <c r="O107" s="131"/>
-      <c r="P107" s="131"/>
-      <c r="Q107" s="131"/>
-      <c r="R107" s="131"/>
-      <c r="S107" s="131"/>
+      <c r="B107" s="154"/>
+      <c r="C107" s="154"/>
+      <c r="D107" s="155"/>
+      <c r="E107" s="155"/>
+      <c r="F107" s="155"/>
+      <c r="G107" s="155"/>
+      <c r="H107" s="155"/>
+      <c r="I107" s="155"/>
+      <c r="J107" s="155"/>
+      <c r="K107" s="155"/>
+      <c r="L107" s="155"/>
+      <c r="M107" s="155"/>
+      <c r="N107" s="155"/>
+      <c r="O107" s="155"/>
+      <c r="P107" s="155"/>
+      <c r="Q107" s="155"/>
+      <c r="R107" s="155"/>
+      <c r="S107" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="587">
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="L91:M91"/>
-    <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="R91:S91"/>
-    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="Q80:R80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="O81:P81"/>
+    <mergeCell ref="Q81:R81"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="O80:P80"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B39:R39"/>
+    <mergeCell ref="B73:R73"/>
+    <mergeCell ref="B56:R56"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="O79:P79"/>
+    <mergeCell ref="Q79:R79"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="M77:N77"/>
+    <mergeCell ref="O77:P77"/>
+    <mergeCell ref="Q77:R77"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="O78:P78"/>
+    <mergeCell ref="Q78:R78"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="O75:P75"/>
+    <mergeCell ref="Q75:R75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="M76:N76"/>
+    <mergeCell ref="O76:P76"/>
+    <mergeCell ref="Q76:R76"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="Q72:R72"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="O74:P74"/>
+    <mergeCell ref="Q74:R74"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="O70:P70"/>
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="O68:P68"/>
+    <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="O69:P69"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="O67:P67"/>
+    <mergeCell ref="Q67:R67"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="O61:P61"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="B104:C107"/>
+    <mergeCell ref="D104:S107"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="B96:C99"/>
+    <mergeCell ref="D96:S99"/>
+    <mergeCell ref="B100:C103"/>
+    <mergeCell ref="D100:S103"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="B92:C95"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
     <mergeCell ref="P92:Q95"/>
     <mergeCell ref="B2:R3"/>
     <mergeCell ref="G6:H6"/>
@@ -8760,544 +9283,31 @@
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="B92:C95"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="B104:C107"/>
-    <mergeCell ref="D104:S107"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="B96:C99"/>
-    <mergeCell ref="D96:S99"/>
-    <mergeCell ref="B100:C103"/>
-    <mergeCell ref="D100:S103"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="O61:P61"/>
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="O63:P63"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="O67:P67"/>
-    <mergeCell ref="Q67:R67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="O68:P68"/>
-    <mergeCell ref="Q68:R68"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="O69:P69"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="M70:N70"/>
-    <mergeCell ref="O70:P70"/>
-    <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="O71:P71"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="Q72:R72"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="O74:P74"/>
-    <mergeCell ref="Q74:R74"/>
-    <mergeCell ref="Q78:R78"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="O75:P75"/>
-    <mergeCell ref="Q75:R75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="M76:N76"/>
-    <mergeCell ref="O76:P76"/>
-    <mergeCell ref="Q76:R76"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B39:R39"/>
-    <mergeCell ref="B73:R73"/>
-    <mergeCell ref="B56:R56"/>
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="O79:P79"/>
-    <mergeCell ref="Q79:R79"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="M77:N77"/>
-    <mergeCell ref="O77:P77"/>
-    <mergeCell ref="Q77:R77"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="M78:N78"/>
-    <mergeCell ref="O78:P78"/>
-    <mergeCell ref="Q80:R80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="O81:P81"/>
-    <mergeCell ref="Q81:R81"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="M80:N80"/>
-    <mergeCell ref="O80:P80"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="R91:S91"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E40:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9312,7 +9322,7 @@
   <dimension ref="B2:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9322,48 +9332,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="103" t="s">
         <v>249</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="103"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="156"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="72">
         <v>0</v>
       </c>
@@ -9417,55 +9427,55 @@
       <c r="B6" s="58" t="s">
         <v>253</v>
       </c>
-      <c r="C6" s="164" t="s">
+      <c r="C6" s="167" t="s">
         <v>269</v>
       </c>
-      <c r="D6" s="165"/>
-      <c r="E6" s="165"/>
-      <c r="F6" s="165"/>
-      <c r="G6" s="165" t="s">
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163" t="s">
         <v>270</v>
       </c>
-      <c r="H6" s="165"/>
-      <c r="I6" s="165"/>
-      <c r="J6" s="165"/>
-      <c r="K6" s="165" t="s">
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163" t="s">
         <v>271</v>
       </c>
-      <c r="L6" s="165"/>
-      <c r="M6" s="165"/>
-      <c r="N6" s="165"/>
-      <c r="O6" s="165" t="s">
+      <c r="L6" s="163"/>
+      <c r="M6" s="163"/>
+      <c r="N6" s="163"/>
+      <c r="O6" s="163" t="s">
         <v>272</v>
       </c>
-      <c r="P6" s="165"/>
-      <c r="Q6" s="165"/>
-      <c r="R6" s="166"/>
+      <c r="P6" s="163"/>
+      <c r="Q6" s="163"/>
+      <c r="R6" s="164"/>
     </row>
     <row r="7" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="36" t="s">
         <v>254</v>
       </c>
-      <c r="C7" s="167" t="s">
+      <c r="C7" s="165" t="s">
         <v>273</v>
       </c>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="163" t="s">
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166" t="s">
         <v>274</v>
       </c>
-      <c r="H7" s="163"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="163"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="166"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
-      <c r="O7" s="148"/>
-      <c r="P7" s="148"/>
-      <c r="Q7" s="148"/>
-      <c r="R7" s="149"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="77"/>
     </row>
     <row r="8" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="36" t="s">
@@ -9483,10 +9493,10 @@
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
-      <c r="O8" s="148"/>
-      <c r="P8" s="148"/>
-      <c r="Q8" s="148"/>
-      <c r="R8" s="149"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="77"/>
     </row>
     <row r="9" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="36" t="s">
@@ -9504,10 +9514,10 @@
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
-      <c r="O9" s="148"/>
-      <c r="P9" s="148"/>
-      <c r="Q9" s="148"/>
-      <c r="R9" s="149"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="77"/>
     </row>
     <row r="10" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
@@ -9525,17 +9535,19 @@
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
-      <c r="O10" s="148"/>
-      <c r="P10" s="148"/>
-      <c r="Q10" s="148"/>
-      <c r="R10" s="149"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="77"/>
     </row>
     <row r="11" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="16"/>
+      <c r="C11" s="168" t="s">
+        <v>275</v>
+      </c>
+      <c r="D11" s="169"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -9546,10 +9558,10 @@
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
       <c r="N11" s="16"/>
-      <c r="O11" s="148"/>
-      <c r="P11" s="148"/>
-      <c r="Q11" s="148"/>
-      <c r="R11" s="149"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="77"/>
     </row>
     <row r="12" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37" t="s">
@@ -9567,10 +9579,10 @@
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
-      <c r="O12" s="148"/>
-      <c r="P12" s="148"/>
-      <c r="Q12" s="148"/>
-      <c r="R12" s="149"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="77"/>
     </row>
     <row r="13" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="37" t="s">
@@ -9588,10 +9600,10 @@
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
-      <c r="O13" s="148"/>
-      <c r="P13" s="148"/>
-      <c r="Q13" s="148"/>
-      <c r="R13" s="149"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="77"/>
     </row>
     <row r="14" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37" t="s">
@@ -9609,10 +9621,10 @@
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
-      <c r="O14" s="148"/>
-      <c r="P14" s="148"/>
-      <c r="Q14" s="148"/>
-      <c r="R14" s="149"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="77"/>
     </row>
     <row r="15" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="37" t="s">
@@ -9630,10 +9642,10 @@
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
-      <c r="O15" s="148"/>
-      <c r="P15" s="148"/>
-      <c r="Q15" s="148"/>
-      <c r="R15" s="149"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="77"/>
     </row>
     <row r="16" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37" t="s">
@@ -9651,10 +9663,10 @@
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
-      <c r="O16" s="148"/>
-      <c r="P16" s="148"/>
-      <c r="Q16" s="148"/>
-      <c r="R16" s="149"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="77"/>
     </row>
     <row r="17" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="37" t="s">
@@ -9672,10 +9684,10 @@
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
       <c r="N17" s="16"/>
-      <c r="O17" s="148"/>
-      <c r="P17" s="148"/>
-      <c r="Q17" s="148"/>
-      <c r="R17" s="149"/>
+      <c r="O17" s="76"/>
+      <c r="P17" s="76"/>
+      <c r="Q17" s="76"/>
+      <c r="R17" s="77"/>
     </row>
     <row r="18" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="37" t="s">
@@ -9762,14 +9774,15 @@
       <c r="R21" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="B2:R3"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="O6:R6"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="K6:N6"/>
-    <mergeCell ref="B2:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Memory map.xlsx
+++ b/Memory map.xlsx
@@ -903,18 +903,6 @@
     <t>PgEE 0x06</t>
   </si>
   <si>
-    <t>Wireless voltage (U16) 
-[0.1V]</t>
-  </si>
-  <si>
-    <t>Periphery voltage (U16) 
-[0.1V]</t>
-  </si>
-  <si>
-    <t>Battery voltage (U16) 
-[0.1V]</t>
-  </si>
-  <si>
     <t>0x0600</t>
   </si>
   <si>
@@ -981,8 +969,20 @@
     <t>Battery voltage divisor down resistance (U32) [Omh]</t>
   </si>
   <si>
-    <t>Battery low voltage threshold
-(U16) [0.1V]</t>
+    <t>Wireless V
+(U8) [0.1V]</t>
+  </si>
+  <si>
+    <t>Periphery V 
+(U8) [0.1V]</t>
+  </si>
+  <si>
+    <t>Battery V
+(U8) [0.1V]</t>
+  </si>
+  <si>
+    <t>Bat. threshold
+(U8) [0.1V]</t>
   </si>
 </sst>
 </file>
@@ -1977,7 +1977,34 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1989,99 +2016,81 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2091,120 +2100,111 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2220,12 +2220,10 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2539,7 +2537,7 @@
   <dimension ref="B2:S40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:D8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2549,44 +2547,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2644,12 +2642,12 @@
       <c r="B6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
       <c r="G6" s="82"/>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
@@ -2688,18 +2686,18 @@
       <c r="B8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="87" t="s">
-        <v>250</v>
-      </c>
-      <c r="D8" s="86"/>
+      <c r="C8" s="168" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" s="86" t="s">
+        <v>273</v>
+      </c>
       <c r="E8" s="86" t="s">
-        <v>251</v>
-      </c>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86" t="s">
-        <v>252</v>
-      </c>
-      <c r="H8" s="86"/>
+        <v>274</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="169"/>
+      <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
       <c r="K8" s="81"/>
@@ -3058,399 +3056,422 @@
       <c r="R21" s="12"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="88" t="s">
+      <c r="B25" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="89"/>
-      <c r="D25" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="O25" s="90"/>
-      <c r="P25" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q25" s="90"/>
-      <c r="R25" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="S25" s="90"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="99"/>
+      <c r="H25" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="99"/>
+      <c r="J25" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="99"/>
+      <c r="L25" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="O25" s="99"/>
+      <c r="P25" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q25" s="99"/>
+      <c r="R25" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="S25" s="99"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="90"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="90"/>
-      <c r="Q26" s="90"/>
-      <c r="R26" s="90"/>
-      <c r="S26" s="90"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="99"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="99"/>
+      <c r="R26" s="99"/>
+      <c r="S26" s="99"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="89"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="90"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="90"/>
-      <c r="P27" s="90"/>
-      <c r="Q27" s="90"/>
-      <c r="R27" s="90"/>
-      <c r="S27" s="90"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="99"/>
+      <c r="P27" s="99"/>
+      <c r="Q27" s="99"/>
+      <c r="R27" s="99"/>
+      <c r="S27" s="99"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="89"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="90"/>
-      <c r="P28" s="90"/>
-      <c r="Q28" s="90"/>
-      <c r="R28" s="90"/>
-      <c r="S28" s="90"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="99"/>
+      <c r="Q28" s="99"/>
+      <c r="R28" s="99"/>
+      <c r="S28" s="99"/>
     </row>
     <row r="29" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="89"/>
-      <c r="D29" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="90"/>
-      <c r="F29" s="93" t="s">
+      <c r="C29" s="98"/>
+      <c r="D29" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="99"/>
+      <c r="F29" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="G29" s="94"/>
-      <c r="H29" s="93" t="s">
+      <c r="G29" s="89"/>
+      <c r="H29" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="I29" s="94"/>
-      <c r="J29" s="93" t="s">
+      <c r="I29" s="89"/>
+      <c r="J29" s="88" t="s">
         <v>119</v>
       </c>
-      <c r="K29" s="94"/>
-      <c r="L29" s="93" t="s">
+      <c r="K29" s="89"/>
+      <c r="L29" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="M29" s="94"/>
-      <c r="N29" s="93" t="s">
+      <c r="M29" s="89"/>
+      <c r="N29" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="O29" s="94"/>
-      <c r="P29" s="93" t="s">
+      <c r="O29" s="89"/>
+      <c r="P29" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="93" t="s">
+      <c r="Q29" s="89"/>
+      <c r="R29" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="S29" s="94"/>
+      <c r="S29" s="89"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="89"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="96"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="96"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="96"/>
-      <c r="P30" s="95"/>
-      <c r="Q30" s="96"/>
-      <c r="R30" s="95"/>
-      <c r="S30" s="96"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="90"/>
+      <c r="M30" s="91"/>
+      <c r="N30" s="90"/>
+      <c r="O30" s="91"/>
+      <c r="P30" s="90"/>
+      <c r="Q30" s="91"/>
+      <c r="R30" s="90"/>
+      <c r="S30" s="91"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="89"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="95"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="96"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="96"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="96"/>
-      <c r="P31" s="95"/>
-      <c r="Q31" s="96"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="96"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="91"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="91"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="91"/>
+      <c r="N31" s="90"/>
+      <c r="O31" s="91"/>
+      <c r="P31" s="90"/>
+      <c r="Q31" s="91"/>
+      <c r="R31" s="90"/>
+      <c r="S31" s="91"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="89"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="98"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="98"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="98"/>
-      <c r="L32" s="97"/>
-      <c r="M32" s="98"/>
-      <c r="N32" s="97"/>
-      <c r="O32" s="98"/>
-      <c r="P32" s="97"/>
-      <c r="Q32" s="98"/>
-      <c r="R32" s="97"/>
-      <c r="S32" s="98"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="92"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="93"/>
+      <c r="P32" s="92"/>
+      <c r="Q32" s="93"/>
+      <c r="R32" s="92"/>
+      <c r="S32" s="93"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B33" s="88" t="s">
+      <c r="B33" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="89"/>
-      <c r="D33" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="90"/>
-      <c r="H33" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="I33" s="90"/>
-      <c r="J33" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="K33" s="90"/>
-      <c r="L33" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="M33" s="90"/>
-      <c r="N33" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="O33" s="90"/>
-      <c r="P33" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q33" s="90"/>
-      <c r="R33" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="S33" s="90"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="99"/>
+      <c r="F33" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="99"/>
+      <c r="H33" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="99"/>
+      <c r="J33" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" s="99"/>
+      <c r="L33" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="M33" s="99"/>
+      <c r="N33" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="O33" s="99"/>
+      <c r="P33" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q33" s="99"/>
+      <c r="R33" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="S33" s="99"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B34" s="89"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="90"/>
-      <c r="L34" s="90"/>
-      <c r="M34" s="90"/>
-      <c r="N34" s="90"/>
-      <c r="O34" s="90"/>
-      <c r="P34" s="90"/>
-      <c r="Q34" s="90"/>
-      <c r="R34" s="90"/>
-      <c r="S34" s="90"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="99"/>
+      <c r="J34" s="99"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="99"/>
+      <c r="N34" s="99"/>
+      <c r="O34" s="99"/>
+      <c r="P34" s="99"/>
+      <c r="Q34" s="99"/>
+      <c r="R34" s="99"/>
+      <c r="S34" s="99"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B35" s="89"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="90"/>
-      <c r="M35" s="90"/>
-      <c r="N35" s="90"/>
-      <c r="O35" s="90"/>
-      <c r="P35" s="90"/>
-      <c r="Q35" s="90"/>
-      <c r="R35" s="90"/>
-      <c r="S35" s="90"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="99"/>
+      <c r="J35" s="99"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="99"/>
+      <c r="N35" s="99"/>
+      <c r="O35" s="99"/>
+      <c r="P35" s="99"/>
+      <c r="Q35" s="99"/>
+      <c r="R35" s="99"/>
+      <c r="S35" s="99"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B36" s="89"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="90"/>
-      <c r="J36" s="90"/>
-      <c r="K36" s="90"/>
-      <c r="L36" s="90"/>
-      <c r="M36" s="90"/>
-      <c r="N36" s="90"/>
-      <c r="O36" s="90"/>
-      <c r="P36" s="90"/>
-      <c r="Q36" s="90"/>
-      <c r="R36" s="90"/>
-      <c r="S36" s="90"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="99"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="99"/>
+      <c r="M36" s="99"/>
+      <c r="N36" s="99"/>
+      <c r="O36" s="99"/>
+      <c r="P36" s="99"/>
+      <c r="Q36" s="99"/>
+      <c r="R36" s="99"/>
+      <c r="S36" s="99"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B37" s="88" t="s">
+      <c r="B37" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="89"/>
-      <c r="D37" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="90"/>
-      <c r="F37" s="91" t="s">
+      <c r="C37" s="98"/>
+      <c r="D37" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="99"/>
+      <c r="F37" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="G37" s="92"/>
-      <c r="H37" s="91" t="s">
+      <c r="G37" s="105"/>
+      <c r="H37" s="104" t="s">
         <v>113</v>
       </c>
-      <c r="I37" s="92"/>
-      <c r="J37" s="91" t="s">
+      <c r="I37" s="105"/>
+      <c r="J37" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="K37" s="92"/>
-      <c r="L37" s="99" t="s">
+      <c r="K37" s="105"/>
+      <c r="L37" s="100" t="s">
         <v>111</v>
       </c>
-      <c r="M37" s="100"/>
-      <c r="N37" s="99" t="s">
+      <c r="M37" s="101"/>
+      <c r="N37" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="O37" s="100"/>
-      <c r="P37" s="99" t="s">
+      <c r="O37" s="101"/>
+      <c r="P37" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="Q37" s="100"/>
-      <c r="R37" s="101" t="s">
+      <c r="Q37" s="101"/>
+      <c r="R37" s="102" t="s">
         <v>109</v>
       </c>
-      <c r="S37" s="102"/>
+      <c r="S37" s="103"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B38" s="89"/>
-      <c r="C38" s="89"/>
-      <c r="D38" s="90"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="92"/>
-      <c r="G38" s="92"/>
-      <c r="H38" s="92"/>
-      <c r="I38" s="92"/>
-      <c r="J38" s="92"/>
-      <c r="K38" s="92"/>
-      <c r="L38" s="100"/>
-      <c r="M38" s="100"/>
-      <c r="N38" s="100"/>
-      <c r="O38" s="100"/>
-      <c r="P38" s="100"/>
-      <c r="Q38" s="100"/>
-      <c r="R38" s="102"/>
-      <c r="S38" s="102"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="105"/>
+      <c r="I38" s="105"/>
+      <c r="J38" s="105"/>
+      <c r="K38" s="105"/>
+      <c r="L38" s="101"/>
+      <c r="M38" s="101"/>
+      <c r="N38" s="101"/>
+      <c r="O38" s="101"/>
+      <c r="P38" s="101"/>
+      <c r="Q38" s="101"/>
+      <c r="R38" s="103"/>
+      <c r="S38" s="103"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B39" s="89"/>
-      <c r="C39" s="89"/>
-      <c r="D39" s="90"/>
-      <c r="E39" s="90"/>
-      <c r="F39" s="92"/>
-      <c r="G39" s="92"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="92"/>
-      <c r="J39" s="92"/>
-      <c r="K39" s="92"/>
-      <c r="L39" s="100"/>
-      <c r="M39" s="100"/>
-      <c r="N39" s="100"/>
-      <c r="O39" s="100"/>
-      <c r="P39" s="100"/>
-      <c r="Q39" s="100"/>
-      <c r="R39" s="102"/>
-      <c r="S39" s="102"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="105"/>
+      <c r="I39" s="105"/>
+      <c r="J39" s="105"/>
+      <c r="K39" s="105"/>
+      <c r="L39" s="101"/>
+      <c r="M39" s="101"/>
+      <c r="N39" s="101"/>
+      <c r="O39" s="101"/>
+      <c r="P39" s="101"/>
+      <c r="Q39" s="101"/>
+      <c r="R39" s="103"/>
+      <c r="S39" s="103"/>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B40" s="89"/>
-      <c r="C40" s="89"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="92"/>
-      <c r="K40" s="92"/>
-      <c r="L40" s="100"/>
-      <c r="M40" s="100"/>
-      <c r="N40" s="100"/>
-      <c r="O40" s="100"/>
-      <c r="P40" s="100"/>
-      <c r="Q40" s="100"/>
-      <c r="R40" s="102"/>
-      <c r="S40" s="102"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="105"/>
+      <c r="H40" s="105"/>
+      <c r="I40" s="105"/>
+      <c r="J40" s="105"/>
+      <c r="K40" s="105"/>
+      <c r="L40" s="101"/>
+      <c r="M40" s="101"/>
+      <c r="N40" s="101"/>
+      <c r="O40" s="101"/>
+      <c r="P40" s="101"/>
+      <c r="Q40" s="101"/>
+      <c r="R40" s="103"/>
+      <c r="S40" s="103"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="38">
+    <mergeCell ref="B37:C40"/>
+    <mergeCell ref="D37:E40"/>
+    <mergeCell ref="F37:G40"/>
+    <mergeCell ref="B29:C32"/>
+    <mergeCell ref="D29:E32"/>
+    <mergeCell ref="F29:G32"/>
+    <mergeCell ref="H37:I40"/>
+    <mergeCell ref="J37:K40"/>
+    <mergeCell ref="B33:C36"/>
+    <mergeCell ref="D33:E36"/>
+    <mergeCell ref="F33:G36"/>
+    <mergeCell ref="H33:I36"/>
+    <mergeCell ref="J33:K36"/>
+    <mergeCell ref="P29:Q32"/>
+    <mergeCell ref="R29:S32"/>
+    <mergeCell ref="N37:O40"/>
+    <mergeCell ref="L37:M40"/>
+    <mergeCell ref="L33:M36"/>
+    <mergeCell ref="P37:Q40"/>
+    <mergeCell ref="R37:S40"/>
+    <mergeCell ref="N33:O36"/>
+    <mergeCell ref="P33:Q36"/>
+    <mergeCell ref="R33:S36"/>
     <mergeCell ref="H29:I32"/>
     <mergeCell ref="J29:K32"/>
     <mergeCell ref="B2:R3"/>
@@ -3464,34 +3485,8 @@
     <mergeCell ref="N25:O28"/>
     <mergeCell ref="P25:Q28"/>
     <mergeCell ref="R25:S28"/>
-    <mergeCell ref="G8:H8"/>
     <mergeCell ref="L29:M32"/>
     <mergeCell ref="N29:O32"/>
-    <mergeCell ref="P29:Q32"/>
-    <mergeCell ref="R29:S32"/>
-    <mergeCell ref="N37:O40"/>
-    <mergeCell ref="L37:M40"/>
-    <mergeCell ref="L33:M36"/>
-    <mergeCell ref="P37:Q40"/>
-    <mergeCell ref="R37:S40"/>
-    <mergeCell ref="N33:O36"/>
-    <mergeCell ref="P33:Q36"/>
-    <mergeCell ref="R33:S36"/>
-    <mergeCell ref="H37:I40"/>
-    <mergeCell ref="J37:K40"/>
-    <mergeCell ref="B33:C36"/>
-    <mergeCell ref="D33:E36"/>
-    <mergeCell ref="F33:G36"/>
-    <mergeCell ref="H33:I36"/>
-    <mergeCell ref="J33:K36"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B37:C40"/>
-    <mergeCell ref="D37:E40"/>
-    <mergeCell ref="F37:G40"/>
-    <mergeCell ref="B29:C32"/>
-    <mergeCell ref="D29:E32"/>
-    <mergeCell ref="F29:G32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3514,44 +3509,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3968,44 +3963,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4063,30 +4058,30 @@
       <c r="B6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="122" t="s">
+      <c r="C6" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123" t="s">
+      <c r="D6" s="126"/>
+      <c r="E6" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123" t="s">
+      <c r="F6" s="126"/>
+      <c r="G6" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123" t="s">
+      <c r="H6" s="126"/>
+      <c r="I6" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="123"/>
-      <c r="K6" s="124" t="s">
+      <c r="J6" s="126"/>
+      <c r="K6" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124" t="s">
+      <c r="L6" s="127"/>
+      <c r="M6" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="124"/>
+      <c r="N6" s="127"/>
       <c r="O6" s="48" t="s">
         <v>6</v>
       </c>
@@ -4122,18 +4117,18 @@
       <c r="H7" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="121" t="s">
+      <c r="I7" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121" t="s">
+      <c r="J7" s="107"/>
+      <c r="K7" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121" t="s">
+      <c r="L7" s="107"/>
+      <c r="M7" s="107" t="s">
         <v>123</v>
       </c>
-      <c r="N7" s="121"/>
+      <c r="N7" s="107"/>
       <c r="O7" s="50" t="s">
         <v>6</v>
       </c>
@@ -4151,30 +4146,30 @@
       <c r="B8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="106" t="s">
+      <c r="C8" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107" t="s">
+      <c r="D8" s="106"/>
+      <c r="E8" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107" t="s">
+      <c r="F8" s="106"/>
+      <c r="G8" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107" t="s">
+      <c r="H8" s="106"/>
+      <c r="I8" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="107"/>
-      <c r="K8" s="119" t="s">
+      <c r="J8" s="106"/>
+      <c r="K8" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="119"/>
-      <c r="M8" s="119" t="s">
+      <c r="L8" s="122"/>
+      <c r="M8" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="119"/>
+      <c r="N8" s="122"/>
       <c r="O8" s="52" t="s">
         <v>6</v>
       </c>
@@ -4210,18 +4205,18 @@
       <c r="H9" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="107" t="s">
+      <c r="I9" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107" t="s">
+      <c r="J9" s="106"/>
+      <c r="K9" s="106" t="s">
         <v>125</v>
       </c>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107" t="s">
+      <c r="L9" s="106"/>
+      <c r="M9" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="N9" s="107"/>
+      <c r="N9" s="106"/>
       <c r="O9" s="52" t="s">
         <v>6</v>
       </c>
@@ -4239,30 +4234,30 @@
       <c r="B10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="120" t="s">
+      <c r="C10" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121" t="s">
+      <c r="D10" s="107"/>
+      <c r="E10" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121" t="s">
+      <c r="F10" s="107"/>
+      <c r="G10" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121" t="s">
+      <c r="H10" s="107"/>
+      <c r="I10" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="121"/>
-      <c r="K10" s="125" t="s">
+      <c r="J10" s="107"/>
+      <c r="K10" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125" t="s">
+      <c r="L10" s="108"/>
+      <c r="M10" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="N10" s="125"/>
+      <c r="N10" s="108"/>
       <c r="O10" s="54" t="s">
         <v>6</v>
       </c>
@@ -4298,18 +4293,18 @@
       <c r="H11" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="121" t="s">
+      <c r="I11" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="J11" s="121"/>
-      <c r="K11" s="121" t="s">
+      <c r="J11" s="107"/>
+      <c r="K11" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="L11" s="121"/>
-      <c r="M11" s="121" t="s">
+      <c r="L11" s="107"/>
+      <c r="M11" s="107" t="s">
         <v>123</v>
       </c>
-      <c r="N11" s="121"/>
+      <c r="N11" s="107"/>
       <c r="O11" s="50" t="s">
         <v>6</v>
       </c>
@@ -4327,30 +4322,30 @@
       <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="106" t="s">
+      <c r="C12" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107" t="s">
+      <c r="D12" s="106"/>
+      <c r="E12" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107" t="s">
+      <c r="F12" s="106"/>
+      <c r="G12" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107" t="s">
+      <c r="H12" s="106"/>
+      <c r="I12" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="107"/>
-      <c r="K12" s="119" t="s">
+      <c r="J12" s="106"/>
+      <c r="K12" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="119"/>
-      <c r="M12" s="119" t="s">
+      <c r="L12" s="122"/>
+      <c r="M12" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="N12" s="119"/>
+      <c r="N12" s="122"/>
       <c r="O12" s="52" t="s">
         <v>6</v>
       </c>
@@ -4386,18 +4381,18 @@
       <c r="H13" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="107" t="s">
+      <c r="I13" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107" t="s">
+      <c r="J13" s="106"/>
+      <c r="K13" s="106" t="s">
         <v>125</v>
       </c>
-      <c r="L13" s="107"/>
-      <c r="M13" s="107" t="s">
+      <c r="L13" s="106"/>
+      <c r="M13" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="N13" s="107"/>
+      <c r="N13" s="106"/>
       <c r="O13" s="52" t="s">
         <v>6</v>
       </c>
@@ -4415,30 +4410,30 @@
       <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="120" t="s">
+      <c r="C14" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="121"/>
-      <c r="E14" s="121" t="s">
+      <c r="D14" s="107"/>
+      <c r="E14" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121" t="s">
+      <c r="F14" s="107"/>
+      <c r="G14" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="121"/>
-      <c r="I14" s="121" t="s">
+      <c r="H14" s="107"/>
+      <c r="I14" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="121"/>
-      <c r="K14" s="125" t="s">
+      <c r="J14" s="107"/>
+      <c r="K14" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125" t="s">
+      <c r="L14" s="108"/>
+      <c r="M14" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="N14" s="125"/>
+      <c r="N14" s="108"/>
       <c r="O14" s="54" t="s">
         <v>6</v>
       </c>
@@ -4474,18 +4469,18 @@
       <c r="H15" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="121" t="s">
+      <c r="I15" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="J15" s="121"/>
-      <c r="K15" s="121" t="s">
+      <c r="J15" s="107"/>
+      <c r="K15" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="L15" s="121"/>
-      <c r="M15" s="121" t="s">
+      <c r="L15" s="107"/>
+      <c r="M15" s="107" t="s">
         <v>123</v>
       </c>
-      <c r="N15" s="121"/>
+      <c r="N15" s="107"/>
       <c r="O15" s="50" t="s">
         <v>6</v>
       </c>
@@ -4503,30 +4498,30 @@
       <c r="B16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="106" t="s">
+      <c r="C16" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107" t="s">
+      <c r="D16" s="106"/>
+      <c r="E16" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107" t="s">
+      <c r="F16" s="106"/>
+      <c r="G16" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107" t="s">
+      <c r="H16" s="106"/>
+      <c r="I16" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="107"/>
-      <c r="K16" s="119" t="s">
+      <c r="J16" s="106"/>
+      <c r="K16" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="119"/>
-      <c r="M16" s="119" t="s">
+      <c r="L16" s="122"/>
+      <c r="M16" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="N16" s="119"/>
+      <c r="N16" s="122"/>
       <c r="O16" s="52" t="s">
         <v>6</v>
       </c>
@@ -4562,18 +4557,18 @@
       <c r="H17" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="107" t="s">
+      <c r="I17" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107" t="s">
+      <c r="J17" s="106"/>
+      <c r="K17" s="106" t="s">
         <v>125</v>
       </c>
-      <c r="L17" s="107"/>
-      <c r="M17" s="107" t="s">
+      <c r="L17" s="106"/>
+      <c r="M17" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="N17" s="107"/>
+      <c r="N17" s="106"/>
       <c r="O17" s="52" t="s">
         <v>6</v>
       </c>
@@ -4672,514 +4667,523 @@
       <c r="R21" s="44"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="126" t="s">
+      <c r="B25" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="108" t="s">
+      <c r="C25" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="109"/>
-      <c r="J25" s="109"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="111"/>
-      <c r="M25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="112"/>
+      <c r="H25" s="112"/>
+      <c r="I25" s="112"/>
+      <c r="J25" s="112"/>
+      <c r="K25" s="113"/>
+      <c r="L25" s="114"/>
+      <c r="M25" s="115"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="127"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="109"/>
-      <c r="K26" s="113"/>
-      <c r="L26" s="114"/>
-      <c r="M26" s="115"/>
+      <c r="B26" s="110"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="112"/>
+      <c r="H26" s="112"/>
+      <c r="I26" s="112"/>
+      <c r="J26" s="112"/>
+      <c r="K26" s="116"/>
+      <c r="L26" s="117"/>
+      <c r="M26" s="118"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="127"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="113"/>
-      <c r="L27" s="114"/>
-      <c r="M27" s="115"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="112"/>
+      <c r="H27" s="112"/>
+      <c r="I27" s="112"/>
+      <c r="J27" s="112"/>
+      <c r="K27" s="116"/>
+      <c r="L27" s="117"/>
+      <c r="M27" s="118"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="127"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="109"/>
-      <c r="J28" s="109"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="117"/>
-      <c r="M28" s="118"/>
+      <c r="B28" s="110"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="112"/>
+      <c r="K28" s="119"/>
+      <c r="L28" s="120"/>
+      <c r="M28" s="121"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="126" t="s">
+      <c r="B29" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="108" t="s">
+      <c r="C29" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="109"/>
-      <c r="H29" s="109"/>
-      <c r="I29" s="109"/>
-      <c r="J29" s="109"/>
-      <c r="K29" s="110"/>
-      <c r="L29" s="111"/>
-      <c r="M29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="112"/>
+      <c r="H29" s="112"/>
+      <c r="I29" s="112"/>
+      <c r="J29" s="112"/>
+      <c r="K29" s="113"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="115"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="127"/>
-      <c r="C30" s="109"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="109"/>
-      <c r="H30" s="109"/>
-      <c r="I30" s="109"/>
-      <c r="J30" s="109"/>
-      <c r="K30" s="113"/>
-      <c r="L30" s="114"/>
-      <c r="M30" s="115"/>
+      <c r="B30" s="110"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="112"/>
+      <c r="H30" s="112"/>
+      <c r="I30" s="112"/>
+      <c r="J30" s="112"/>
+      <c r="K30" s="116"/>
+      <c r="L30" s="117"/>
+      <c r="M30" s="118"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="127"/>
-      <c r="C31" s="109"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="109"/>
-      <c r="K31" s="113"/>
-      <c r="L31" s="114"/>
-      <c r="M31" s="115"/>
+      <c r="B31" s="110"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="112"/>
+      <c r="H31" s="112"/>
+      <c r="I31" s="112"/>
+      <c r="J31" s="112"/>
+      <c r="K31" s="116"/>
+      <c r="L31" s="117"/>
+      <c r="M31" s="118"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="127"/>
-      <c r="C32" s="109"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="109"/>
-      <c r="H32" s="109"/>
-      <c r="I32" s="109"/>
-      <c r="J32" s="109"/>
-      <c r="K32" s="116"/>
-      <c r="L32" s="117"/>
-      <c r="M32" s="118"/>
+      <c r="B32" s="110"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="112"/>
+      <c r="H32" s="112"/>
+      <c r="I32" s="112"/>
+      <c r="J32" s="112"/>
+      <c r="K32" s="119"/>
+      <c r="L32" s="120"/>
+      <c r="M32" s="121"/>
     </row>
     <row r="33" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="126" t="s">
+      <c r="B33" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="108" t="s">
+      <c r="C33" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="109"/>
-      <c r="H33" s="109"/>
-      <c r="I33" s="109"/>
-      <c r="J33" s="109"/>
-      <c r="K33" s="110"/>
-      <c r="L33" s="111"/>
-      <c r="M33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="112"/>
+      <c r="H33" s="112"/>
+      <c r="I33" s="112"/>
+      <c r="J33" s="112"/>
+      <c r="K33" s="113"/>
+      <c r="L33" s="114"/>
+      <c r="M33" s="115"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="127"/>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="109"/>
-      <c r="I34" s="109"/>
-      <c r="J34" s="109"/>
-      <c r="K34" s="113"/>
-      <c r="L34" s="114"/>
-      <c r="M34" s="115"/>
+      <c r="B34" s="110"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="112"/>
+      <c r="H34" s="112"/>
+      <c r="I34" s="112"/>
+      <c r="J34" s="112"/>
+      <c r="K34" s="116"/>
+      <c r="L34" s="117"/>
+      <c r="M34" s="118"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="127"/>
-      <c r="C35" s="109"/>
-      <c r="D35" s="109"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="109"/>
-      <c r="G35" s="109"/>
-      <c r="H35" s="109"/>
-      <c r="I35" s="109"/>
-      <c r="J35" s="109"/>
-      <c r="K35" s="113"/>
-      <c r="L35" s="114"/>
-      <c r="M35" s="115"/>
+      <c r="B35" s="110"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="112"/>
+      <c r="H35" s="112"/>
+      <c r="I35" s="112"/>
+      <c r="J35" s="112"/>
+      <c r="K35" s="116"/>
+      <c r="L35" s="117"/>
+      <c r="M35" s="118"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="127"/>
-      <c r="C36" s="109"/>
-      <c r="D36" s="109"/>
-      <c r="E36" s="109"/>
-      <c r="F36" s="109"/>
-      <c r="G36" s="109"/>
-      <c r="H36" s="109"/>
-      <c r="I36" s="109"/>
-      <c r="J36" s="109"/>
-      <c r="K36" s="116"/>
-      <c r="L36" s="117"/>
-      <c r="M36" s="118"/>
+      <c r="B36" s="110"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="112"/>
+      <c r="G36" s="112"/>
+      <c r="H36" s="112"/>
+      <c r="I36" s="112"/>
+      <c r="J36" s="112"/>
+      <c r="K36" s="119"/>
+      <c r="L36" s="120"/>
+      <c r="M36" s="121"/>
     </row>
     <row r="37" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="126" t="s">
+      <c r="B37" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="108" t="s">
+      <c r="C37" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="109"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="109"/>
-      <c r="G37" s="109"/>
-      <c r="H37" s="109"/>
-      <c r="I37" s="109"/>
-      <c r="J37" s="109"/>
-      <c r="K37" s="110"/>
-      <c r="L37" s="111"/>
-      <c r="M37" s="112"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="112"/>
+      <c r="G37" s="112"/>
+      <c r="H37" s="112"/>
+      <c r="I37" s="112"/>
+      <c r="J37" s="112"/>
+      <c r="K37" s="113"/>
+      <c r="L37" s="114"/>
+      <c r="M37" s="115"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="127"/>
-      <c r="C38" s="109"/>
-      <c r="D38" s="109"/>
-      <c r="E38" s="109"/>
-      <c r="F38" s="109"/>
-      <c r="G38" s="109"/>
-      <c r="H38" s="109"/>
-      <c r="I38" s="109"/>
-      <c r="J38" s="109"/>
-      <c r="K38" s="113"/>
-      <c r="L38" s="114"/>
-      <c r="M38" s="115"/>
+      <c r="B38" s="110"/>
+      <c r="C38" s="112"/>
+      <c r="D38" s="112"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="112"/>
+      <c r="G38" s="112"/>
+      <c r="H38" s="112"/>
+      <c r="I38" s="112"/>
+      <c r="J38" s="112"/>
+      <c r="K38" s="116"/>
+      <c r="L38" s="117"/>
+      <c r="M38" s="118"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="127"/>
-      <c r="C39" s="109"/>
-      <c r="D39" s="109"/>
-      <c r="E39" s="109"/>
-      <c r="F39" s="109"/>
-      <c r="G39" s="109"/>
-      <c r="H39" s="109"/>
-      <c r="I39" s="109"/>
-      <c r="J39" s="109"/>
-      <c r="K39" s="113"/>
-      <c r="L39" s="114"/>
-      <c r="M39" s="115"/>
+      <c r="B39" s="110"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="112"/>
+      <c r="F39" s="112"/>
+      <c r="G39" s="112"/>
+      <c r="H39" s="112"/>
+      <c r="I39" s="112"/>
+      <c r="J39" s="112"/>
+      <c r="K39" s="116"/>
+      <c r="L39" s="117"/>
+      <c r="M39" s="118"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="127"/>
-      <c r="C40" s="109"/>
-      <c r="D40" s="109"/>
-      <c r="E40" s="109"/>
-      <c r="F40" s="109"/>
-      <c r="G40" s="109"/>
-      <c r="H40" s="109"/>
-      <c r="I40" s="109"/>
-      <c r="J40" s="109"/>
-      <c r="K40" s="116"/>
-      <c r="L40" s="117"/>
-      <c r="M40" s="118"/>
+      <c r="B40" s="110"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="112"/>
+      <c r="G40" s="112"/>
+      <c r="H40" s="112"/>
+      <c r="I40" s="112"/>
+      <c r="J40" s="112"/>
+      <c r="K40" s="119"/>
+      <c r="L40" s="120"/>
+      <c r="M40" s="121"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="126" t="s">
+      <c r="B41" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="108" t="s">
+      <c r="C41" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="109"/>
-      <c r="E41" s="109"/>
-      <c r="F41" s="109"/>
-      <c r="G41" s="109"/>
-      <c r="H41" s="109"/>
-      <c r="I41" s="109"/>
-      <c r="J41" s="109"/>
-      <c r="K41" s="110"/>
-      <c r="L41" s="111"/>
-      <c r="M41" s="112"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="112"/>
+      <c r="H41" s="112"/>
+      <c r="I41" s="112"/>
+      <c r="J41" s="112"/>
+      <c r="K41" s="113"/>
+      <c r="L41" s="114"/>
+      <c r="M41" s="115"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="127"/>
-      <c r="C42" s="109"/>
-      <c r="D42" s="109"/>
-      <c r="E42" s="109"/>
-      <c r="F42" s="109"/>
-      <c r="G42" s="109"/>
-      <c r="H42" s="109"/>
-      <c r="I42" s="109"/>
-      <c r="J42" s="109"/>
-      <c r="K42" s="113"/>
-      <c r="L42" s="114"/>
-      <c r="M42" s="115"/>
+      <c r="B42" s="110"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="112"/>
+      <c r="H42" s="112"/>
+      <c r="I42" s="112"/>
+      <c r="J42" s="112"/>
+      <c r="K42" s="116"/>
+      <c r="L42" s="117"/>
+      <c r="M42" s="118"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="127"/>
-      <c r="C43" s="109"/>
-      <c r="D43" s="109"/>
-      <c r="E43" s="109"/>
-      <c r="F43" s="109"/>
-      <c r="G43" s="109"/>
-      <c r="H43" s="109"/>
-      <c r="I43" s="109"/>
-      <c r="J43" s="109"/>
-      <c r="K43" s="113"/>
-      <c r="L43" s="114"/>
-      <c r="M43" s="115"/>
+      <c r="B43" s="110"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="112"/>
+      <c r="E43" s="112"/>
+      <c r="F43" s="112"/>
+      <c r="G43" s="112"/>
+      <c r="H43" s="112"/>
+      <c r="I43" s="112"/>
+      <c r="J43" s="112"/>
+      <c r="K43" s="116"/>
+      <c r="L43" s="117"/>
+      <c r="M43" s="118"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="127"/>
-      <c r="C44" s="109"/>
-      <c r="D44" s="109"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="109"/>
-      <c r="G44" s="109"/>
-      <c r="H44" s="109"/>
-      <c r="I44" s="109"/>
-      <c r="J44" s="109"/>
-      <c r="K44" s="116"/>
-      <c r="L44" s="117"/>
-      <c r="M44" s="118"/>
+      <c r="B44" s="110"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="112"/>
+      <c r="F44" s="112"/>
+      <c r="G44" s="112"/>
+      <c r="H44" s="112"/>
+      <c r="I44" s="112"/>
+      <c r="J44" s="112"/>
+      <c r="K44" s="119"/>
+      <c r="L44" s="120"/>
+      <c r="M44" s="121"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="126" t="s">
+      <c r="B45" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="108" t="s">
+      <c r="C45" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="109"/>
-      <c r="E45" s="109"/>
-      <c r="F45" s="109"/>
-      <c r="G45" s="109"/>
-      <c r="H45" s="109"/>
-      <c r="I45" s="109"/>
-      <c r="J45" s="109"/>
-      <c r="K45" s="110"/>
-      <c r="L45" s="111"/>
-      <c r="M45" s="112"/>
+      <c r="D45" s="112"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="112"/>
+      <c r="G45" s="112"/>
+      <c r="H45" s="112"/>
+      <c r="I45" s="112"/>
+      <c r="J45" s="112"/>
+      <c r="K45" s="113"/>
+      <c r="L45" s="114"/>
+      <c r="M45" s="115"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="127"/>
-      <c r="C46" s="109"/>
-      <c r="D46" s="109"/>
-      <c r="E46" s="109"/>
-      <c r="F46" s="109"/>
-      <c r="G46" s="109"/>
-      <c r="H46" s="109"/>
-      <c r="I46" s="109"/>
-      <c r="J46" s="109"/>
-      <c r="K46" s="113"/>
-      <c r="L46" s="114"/>
-      <c r="M46" s="115"/>
+      <c r="B46" s="110"/>
+      <c r="C46" s="112"/>
+      <c r="D46" s="112"/>
+      <c r="E46" s="112"/>
+      <c r="F46" s="112"/>
+      <c r="G46" s="112"/>
+      <c r="H46" s="112"/>
+      <c r="I46" s="112"/>
+      <c r="J46" s="112"/>
+      <c r="K46" s="116"/>
+      <c r="L46" s="117"/>
+      <c r="M46" s="118"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="127"/>
-      <c r="C47" s="109"/>
-      <c r="D47" s="109"/>
-      <c r="E47" s="109"/>
-      <c r="F47" s="109"/>
-      <c r="G47" s="109"/>
-      <c r="H47" s="109"/>
-      <c r="I47" s="109"/>
-      <c r="J47" s="109"/>
-      <c r="K47" s="113"/>
-      <c r="L47" s="114"/>
-      <c r="M47" s="115"/>
+      <c r="B47" s="110"/>
+      <c r="C47" s="112"/>
+      <c r="D47" s="112"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="112"/>
+      <c r="G47" s="112"/>
+      <c r="H47" s="112"/>
+      <c r="I47" s="112"/>
+      <c r="J47" s="112"/>
+      <c r="K47" s="116"/>
+      <c r="L47" s="117"/>
+      <c r="M47" s="118"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="127"/>
-      <c r="C48" s="109"/>
-      <c r="D48" s="109"/>
-      <c r="E48" s="109"/>
-      <c r="F48" s="109"/>
-      <c r="G48" s="109"/>
-      <c r="H48" s="109"/>
-      <c r="I48" s="109"/>
-      <c r="J48" s="109"/>
-      <c r="K48" s="116"/>
-      <c r="L48" s="117"/>
-      <c r="M48" s="118"/>
+      <c r="B48" s="110"/>
+      <c r="C48" s="112"/>
+      <c r="D48" s="112"/>
+      <c r="E48" s="112"/>
+      <c r="F48" s="112"/>
+      <c r="G48" s="112"/>
+      <c r="H48" s="112"/>
+      <c r="I48" s="112"/>
+      <c r="J48" s="112"/>
+      <c r="K48" s="119"/>
+      <c r="L48" s="120"/>
+      <c r="M48" s="121"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="126" t="s">
+      <c r="B49" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="108" t="s">
+      <c r="C49" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="109"/>
-      <c r="E49" s="109"/>
-      <c r="F49" s="109"/>
-      <c r="G49" s="109"/>
-      <c r="H49" s="109"/>
-      <c r="I49" s="109"/>
-      <c r="J49" s="109"/>
-      <c r="K49" s="110"/>
-      <c r="L49" s="111"/>
-      <c r="M49" s="112"/>
+      <c r="D49" s="112"/>
+      <c r="E49" s="112"/>
+      <c r="F49" s="112"/>
+      <c r="G49" s="112"/>
+      <c r="H49" s="112"/>
+      <c r="I49" s="112"/>
+      <c r="J49" s="112"/>
+      <c r="K49" s="113"/>
+      <c r="L49" s="114"/>
+      <c r="M49" s="115"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B50" s="127"/>
-      <c r="C50" s="109"/>
-      <c r="D50" s="109"/>
-      <c r="E50" s="109"/>
-      <c r="F50" s="109"/>
-      <c r="G50" s="109"/>
-      <c r="H50" s="109"/>
-      <c r="I50" s="109"/>
-      <c r="J50" s="109"/>
-      <c r="K50" s="113"/>
-      <c r="L50" s="114"/>
-      <c r="M50" s="115"/>
+      <c r="B50" s="110"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="112"/>
+      <c r="E50" s="112"/>
+      <c r="F50" s="112"/>
+      <c r="G50" s="112"/>
+      <c r="H50" s="112"/>
+      <c r="I50" s="112"/>
+      <c r="J50" s="112"/>
+      <c r="K50" s="116"/>
+      <c r="L50" s="117"/>
+      <c r="M50" s="118"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="127"/>
-      <c r="C51" s="109"/>
-      <c r="D51" s="109"/>
-      <c r="E51" s="109"/>
-      <c r="F51" s="109"/>
-      <c r="G51" s="109"/>
-      <c r="H51" s="109"/>
-      <c r="I51" s="109"/>
-      <c r="J51" s="109"/>
-      <c r="K51" s="113"/>
-      <c r="L51" s="114"/>
-      <c r="M51" s="115"/>
+      <c r="B51" s="110"/>
+      <c r="C51" s="112"/>
+      <c r="D51" s="112"/>
+      <c r="E51" s="112"/>
+      <c r="F51" s="112"/>
+      <c r="G51" s="112"/>
+      <c r="H51" s="112"/>
+      <c r="I51" s="112"/>
+      <c r="J51" s="112"/>
+      <c r="K51" s="116"/>
+      <c r="L51" s="117"/>
+      <c r="M51" s="118"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B52" s="127"/>
-      <c r="C52" s="109"/>
-      <c r="D52" s="109"/>
-      <c r="E52" s="109"/>
-      <c r="F52" s="109"/>
-      <c r="G52" s="109"/>
-      <c r="H52" s="109"/>
-      <c r="I52" s="109"/>
-      <c r="J52" s="109"/>
-      <c r="K52" s="116"/>
-      <c r="L52" s="117"/>
-      <c r="M52" s="118"/>
+      <c r="B52" s="110"/>
+      <c r="C52" s="112"/>
+      <c r="D52" s="112"/>
+      <c r="E52" s="112"/>
+      <c r="F52" s="112"/>
+      <c r="G52" s="112"/>
+      <c r="H52" s="112"/>
+      <c r="I52" s="112"/>
+      <c r="J52" s="112"/>
+      <c r="K52" s="119"/>
+      <c r="L52" s="120"/>
+      <c r="M52" s="121"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B53" s="126" t="s">
+      <c r="B53" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="C53" s="108" t="s">
+      <c r="C53" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="109"/>
-      <c r="E53" s="109"/>
-      <c r="F53" s="109"/>
-      <c r="G53" s="109"/>
-      <c r="H53" s="109"/>
-      <c r="I53" s="109"/>
-      <c r="J53" s="109"/>
-      <c r="K53" s="110"/>
-      <c r="L53" s="111"/>
-      <c r="M53" s="112"/>
+      <c r="D53" s="112"/>
+      <c r="E53" s="112"/>
+      <c r="F53" s="112"/>
+      <c r="G53" s="112"/>
+      <c r="H53" s="112"/>
+      <c r="I53" s="112"/>
+      <c r="J53" s="112"/>
+      <c r="K53" s="113"/>
+      <c r="L53" s="114"/>
+      <c r="M53" s="115"/>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B54" s="127"/>
-      <c r="C54" s="109"/>
-      <c r="D54" s="109"/>
-      <c r="E54" s="109"/>
-      <c r="F54" s="109"/>
-      <c r="G54" s="109"/>
-      <c r="H54" s="109"/>
-      <c r="I54" s="109"/>
-      <c r="J54" s="109"/>
-      <c r="K54" s="113"/>
-      <c r="L54" s="114"/>
-      <c r="M54" s="115"/>
+      <c r="B54" s="110"/>
+      <c r="C54" s="112"/>
+      <c r="D54" s="112"/>
+      <c r="E54" s="112"/>
+      <c r="F54" s="112"/>
+      <c r="G54" s="112"/>
+      <c r="H54" s="112"/>
+      <c r="I54" s="112"/>
+      <c r="J54" s="112"/>
+      <c r="K54" s="116"/>
+      <c r="L54" s="117"/>
+      <c r="M54" s="118"/>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B55" s="127"/>
-      <c r="C55" s="109"/>
-      <c r="D55" s="109"/>
-      <c r="E55" s="109"/>
-      <c r="F55" s="109"/>
-      <c r="G55" s="109"/>
-      <c r="H55" s="109"/>
-      <c r="I55" s="109"/>
-      <c r="J55" s="109"/>
-      <c r="K55" s="113"/>
-      <c r="L55" s="114"/>
-      <c r="M55" s="115"/>
+      <c r="B55" s="110"/>
+      <c r="C55" s="112"/>
+      <c r="D55" s="112"/>
+      <c r="E55" s="112"/>
+      <c r="F55" s="112"/>
+      <c r="G55" s="112"/>
+      <c r="H55" s="112"/>
+      <c r="I55" s="112"/>
+      <c r="J55" s="112"/>
+      <c r="K55" s="116"/>
+      <c r="L55" s="117"/>
+      <c r="M55" s="118"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="127"/>
-      <c r="C56" s="109"/>
-      <c r="D56" s="109"/>
-      <c r="E56" s="109"/>
-      <c r="F56" s="109"/>
-      <c r="G56" s="109"/>
-      <c r="H56" s="109"/>
-      <c r="I56" s="109"/>
-      <c r="J56" s="109"/>
-      <c r="K56" s="116"/>
-      <c r="L56" s="117"/>
-      <c r="M56" s="118"/>
+      <c r="B56" s="110"/>
+      <c r="C56" s="112"/>
+      <c r="D56" s="112"/>
+      <c r="E56" s="112"/>
+      <c r="F56" s="112"/>
+      <c r="G56" s="112"/>
+      <c r="H56" s="112"/>
+      <c r="I56" s="112"/>
+      <c r="J56" s="112"/>
+      <c r="K56" s="119"/>
+      <c r="L56" s="120"/>
+      <c r="M56" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C49:J52"/>
-    <mergeCell ref="K49:M52"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="C53:J56"/>
-    <mergeCell ref="K53:M56"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="C41:J44"/>
-    <mergeCell ref="K41:M44"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="C45:J48"/>
-    <mergeCell ref="K45:M48"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C25:J28"/>
+    <mergeCell ref="K25:M28"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B2:R3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M15:N15"/>
     <mergeCell ref="B37:B40"/>
     <mergeCell ref="C37:J40"/>
     <mergeCell ref="K37:M40"/>
@@ -5196,42 +5200,33 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="B2:R3"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C25:J28"/>
-    <mergeCell ref="K25:M28"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="C41:J44"/>
+    <mergeCell ref="K41:M44"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="C45:J48"/>
+    <mergeCell ref="K45:M48"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:J52"/>
+    <mergeCell ref="K49:M52"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="C53:J56"/>
+    <mergeCell ref="K53:M56"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5256,44 +5251,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="94" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5357,145 +5352,145 @@
       <c r="D6" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="E6" s="128" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="128"/>
-      <c r="G6" s="138" t="s">
+      <c r="E6" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="147"/>
+      <c r="G6" s="142" t="s">
         <v>142</v>
       </c>
-      <c r="H6" s="138"/>
-      <c r="I6" s="128" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="128"/>
-      <c r="K6" s="138" t="s">
+      <c r="H6" s="142"/>
+      <c r="I6" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="147"/>
+      <c r="K6" s="142" t="s">
         <v>143</v>
       </c>
-      <c r="L6" s="138"/>
-      <c r="M6" s="138" t="s">
+      <c r="L6" s="142"/>
+      <c r="M6" s="142" t="s">
         <v>144</v>
       </c>
-      <c r="N6" s="138"/>
-      <c r="O6" s="138" t="s">
+      <c r="N6" s="142"/>
+      <c r="O6" s="142" t="s">
         <v>145</v>
       </c>
-      <c r="P6" s="138"/>
-      <c r="Q6" s="138" t="s">
+      <c r="P6" s="142"/>
+      <c r="Q6" s="142" t="s">
         <v>146</v>
       </c>
-      <c r="R6" s="139"/>
+      <c r="R6" s="143"/>
     </row>
     <row r="7" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="142" t="s">
+      <c r="C7" s="136" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140" t="s">
+      <c r="D7" s="137"/>
+      <c r="E7" s="137" t="s">
         <v>148</v>
       </c>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140" t="s">
+      <c r="F7" s="137"/>
+      <c r="G7" s="137" t="s">
         <v>149</v>
       </c>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140" t="s">
+      <c r="H7" s="137"/>
+      <c r="I7" s="137" t="s">
         <v>150</v>
       </c>
-      <c r="J7" s="140"/>
-      <c r="K7" s="140" t="s">
+      <c r="J7" s="137"/>
+      <c r="K7" s="137" t="s">
         <v>151</v>
       </c>
-      <c r="L7" s="140"/>
-      <c r="M7" s="140" t="s">
+      <c r="L7" s="137"/>
+      <c r="M7" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="N7" s="140"/>
-      <c r="O7" s="140" t="s">
+      <c r="N7" s="137"/>
+      <c r="O7" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="P7" s="140"/>
-      <c r="Q7" s="140" t="s">
+      <c r="P7" s="137"/>
+      <c r="Q7" s="137" t="s">
         <v>154</v>
       </c>
-      <c r="R7" s="141"/>
+      <c r="R7" s="138"/>
     </row>
     <row r="8" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="142" t="s">
+      <c r="C8" s="136" t="s">
         <v>155</v>
       </c>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140" t="s">
+      <c r="D8" s="137"/>
+      <c r="E8" s="137" t="s">
         <v>156</v>
       </c>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140" t="s">
+      <c r="F8" s="137"/>
+      <c r="G8" s="137" t="s">
         <v>157</v>
       </c>
-      <c r="H8" s="140"/>
-      <c r="I8" s="140" t="s">
+      <c r="H8" s="137"/>
+      <c r="I8" s="137" t="s">
         <v>158</v>
       </c>
-      <c r="J8" s="140"/>
-      <c r="K8" s="140" t="s">
+      <c r="J8" s="137"/>
+      <c r="K8" s="137" t="s">
         <v>159</v>
       </c>
-      <c r="L8" s="140"/>
-      <c r="M8" s="140" t="s">
+      <c r="L8" s="137"/>
+      <c r="M8" s="137" t="s">
         <v>160</v>
       </c>
-      <c r="N8" s="140"/>
-      <c r="O8" s="140" t="s">
+      <c r="N8" s="137"/>
+      <c r="O8" s="137" t="s">
         <v>161</v>
       </c>
-      <c r="P8" s="140"/>
-      <c r="Q8" s="140" t="s">
+      <c r="P8" s="137"/>
+      <c r="Q8" s="137" t="s">
         <v>162</v>
       </c>
-      <c r="R8" s="141"/>
+      <c r="R8" s="138"/>
     </row>
     <row r="9" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="142" t="s">
+      <c r="C9" s="136" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140" t="s">
+      <c r="D9" s="137"/>
+      <c r="E9" s="137" t="s">
         <v>164</v>
       </c>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140" t="s">
+      <c r="F9" s="137"/>
+      <c r="G9" s="137" t="s">
         <v>165</v>
       </c>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140" t="s">
+      <c r="H9" s="137"/>
+      <c r="I9" s="137" t="s">
         <v>166</v>
       </c>
-      <c r="J9" s="140"/>
-      <c r="K9" s="140" t="s">
+      <c r="J9" s="137"/>
+      <c r="K9" s="137" t="s">
         <v>167</v>
       </c>
-      <c r="L9" s="140"/>
-      <c r="M9" s="140" t="s">
+      <c r="L9" s="137"/>
+      <c r="M9" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="N9" s="140"/>
-      <c r="O9" s="140" t="s">
+      <c r="N9" s="137"/>
+      <c r="O9" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="P9" s="140"/>
-      <c r="Q9" s="140" t="s">
+      <c r="P9" s="137"/>
+      <c r="Q9" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="R9" s="141"/>
+      <c r="R9" s="138"/>
     </row>
     <row r="10" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
@@ -5507,145 +5502,145 @@
       <c r="D10" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="E10" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="130"/>
-      <c r="G10" s="143" t="s">
+      <c r="E10" s="154" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="154"/>
+      <c r="G10" s="128" t="s">
         <v>142</v>
       </c>
-      <c r="H10" s="143"/>
-      <c r="I10" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="130"/>
-      <c r="K10" s="143" t="s">
+      <c r="H10" s="128"/>
+      <c r="I10" s="154" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="154"/>
+      <c r="K10" s="128" t="s">
         <v>143</v>
       </c>
-      <c r="L10" s="143"/>
-      <c r="M10" s="143" t="s">
+      <c r="L10" s="128"/>
+      <c r="M10" s="128" t="s">
         <v>144</v>
       </c>
-      <c r="N10" s="143"/>
-      <c r="O10" s="143" t="s">
+      <c r="N10" s="128"/>
+      <c r="O10" s="128" t="s">
         <v>145</v>
       </c>
-      <c r="P10" s="143"/>
-      <c r="Q10" s="143" t="s">
+      <c r="P10" s="128"/>
+      <c r="Q10" s="128" t="s">
         <v>146</v>
       </c>
-      <c r="R10" s="144"/>
+      <c r="R10" s="129"/>
     </row>
     <row r="11" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="145" t="s">
+      <c r="C11" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="143"/>
-      <c r="E11" s="143" t="s">
+      <c r="D11" s="128"/>
+      <c r="E11" s="128" t="s">
         <v>148</v>
       </c>
-      <c r="F11" s="143"/>
-      <c r="G11" s="143" t="s">
+      <c r="F11" s="128"/>
+      <c r="G11" s="128" t="s">
         <v>149</v>
       </c>
-      <c r="H11" s="143"/>
-      <c r="I11" s="143" t="s">
+      <c r="H11" s="128"/>
+      <c r="I11" s="128" t="s">
         <v>150</v>
       </c>
-      <c r="J11" s="143"/>
-      <c r="K11" s="143" t="s">
+      <c r="J11" s="128"/>
+      <c r="K11" s="128" t="s">
         <v>151</v>
       </c>
-      <c r="L11" s="143"/>
-      <c r="M11" s="143" t="s">
+      <c r="L11" s="128"/>
+      <c r="M11" s="128" t="s">
         <v>152</v>
       </c>
-      <c r="N11" s="143"/>
-      <c r="O11" s="143" t="s">
+      <c r="N11" s="128"/>
+      <c r="O11" s="128" t="s">
         <v>153</v>
       </c>
-      <c r="P11" s="143"/>
-      <c r="Q11" s="143" t="s">
+      <c r="P11" s="128"/>
+      <c r="Q11" s="128" t="s">
         <v>154</v>
       </c>
-      <c r="R11" s="144"/>
+      <c r="R11" s="129"/>
     </row>
     <row r="12" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="145" t="s">
+      <c r="C12" s="130" t="s">
         <v>155</v>
       </c>
-      <c r="D12" s="143"/>
-      <c r="E12" s="143" t="s">
+      <c r="D12" s="128"/>
+      <c r="E12" s="128" t="s">
         <v>156</v>
       </c>
-      <c r="F12" s="143"/>
-      <c r="G12" s="143" t="s">
+      <c r="F12" s="128"/>
+      <c r="G12" s="128" t="s">
         <v>157</v>
       </c>
-      <c r="H12" s="143"/>
-      <c r="I12" s="143" t="s">
+      <c r="H12" s="128"/>
+      <c r="I12" s="128" t="s">
         <v>158</v>
       </c>
-      <c r="J12" s="143"/>
-      <c r="K12" s="143" t="s">
+      <c r="J12" s="128"/>
+      <c r="K12" s="128" t="s">
         <v>159</v>
       </c>
-      <c r="L12" s="143"/>
-      <c r="M12" s="143" t="s">
+      <c r="L12" s="128"/>
+      <c r="M12" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="N12" s="143"/>
-      <c r="O12" s="143" t="s">
+      <c r="N12" s="128"/>
+      <c r="O12" s="128" t="s">
         <v>161</v>
       </c>
-      <c r="P12" s="143"/>
-      <c r="Q12" s="143" t="s">
+      <c r="P12" s="128"/>
+      <c r="Q12" s="128" t="s">
         <v>162</v>
       </c>
-      <c r="R12" s="144"/>
+      <c r="R12" s="129"/>
     </row>
     <row r="13" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="145" t="s">
+      <c r="C13" s="130" t="s">
         <v>163</v>
       </c>
-      <c r="D13" s="143"/>
-      <c r="E13" s="143" t="s">
+      <c r="D13" s="128"/>
+      <c r="E13" s="128" t="s">
         <v>164</v>
       </c>
-      <c r="F13" s="143"/>
-      <c r="G13" s="143" t="s">
+      <c r="F13" s="128"/>
+      <c r="G13" s="128" t="s">
         <v>165</v>
       </c>
-      <c r="H13" s="143"/>
-      <c r="I13" s="143" t="s">
+      <c r="H13" s="128"/>
+      <c r="I13" s="128" t="s">
         <v>166</v>
       </c>
-      <c r="J13" s="143"/>
-      <c r="K13" s="143" t="s">
+      <c r="J13" s="128"/>
+      <c r="K13" s="128" t="s">
         <v>167</v>
       </c>
-      <c r="L13" s="143"/>
-      <c r="M13" s="143" t="s">
+      <c r="L13" s="128"/>
+      <c r="M13" s="128" t="s">
         <v>168</v>
       </c>
-      <c r="N13" s="143"/>
-      <c r="O13" s="143" t="s">
+      <c r="N13" s="128"/>
+      <c r="O13" s="128" t="s">
         <v>169</v>
       </c>
-      <c r="P13" s="143"/>
-      <c r="Q13" s="143" t="s">
+      <c r="P13" s="128"/>
+      <c r="Q13" s="128" t="s">
         <v>170</v>
       </c>
-      <c r="R13" s="144"/>
+      <c r="R13" s="129"/>
     </row>
     <row r="14" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37" t="s">
@@ -5657,145 +5652,145 @@
       <c r="D14" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="E14" s="129" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="129"/>
-      <c r="G14" s="140" t="s">
+      <c r="E14" s="155" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="155"/>
+      <c r="G14" s="137" t="s">
         <v>142</v>
       </c>
-      <c r="H14" s="140"/>
-      <c r="I14" s="129" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="129"/>
-      <c r="K14" s="140" t="s">
+      <c r="H14" s="137"/>
+      <c r="I14" s="155" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="155"/>
+      <c r="K14" s="137" t="s">
         <v>143</v>
       </c>
-      <c r="L14" s="140"/>
-      <c r="M14" s="140" t="s">
+      <c r="L14" s="137"/>
+      <c r="M14" s="137" t="s">
         <v>144</v>
       </c>
-      <c r="N14" s="140"/>
-      <c r="O14" s="140" t="s">
+      <c r="N14" s="137"/>
+      <c r="O14" s="137" t="s">
         <v>145</v>
       </c>
-      <c r="P14" s="140"/>
-      <c r="Q14" s="140" t="s">
+      <c r="P14" s="137"/>
+      <c r="Q14" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="R14" s="141"/>
+      <c r="R14" s="138"/>
     </row>
     <row r="15" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="142" t="s">
+      <c r="C15" s="136" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140" t="s">
+      <c r="D15" s="137"/>
+      <c r="E15" s="137" t="s">
         <v>148</v>
       </c>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140" t="s">
+      <c r="F15" s="137"/>
+      <c r="G15" s="137" t="s">
         <v>149</v>
       </c>
-      <c r="H15" s="140"/>
-      <c r="I15" s="140" t="s">
+      <c r="H15" s="137"/>
+      <c r="I15" s="137" t="s">
         <v>150</v>
       </c>
-      <c r="J15" s="140"/>
-      <c r="K15" s="140" t="s">
+      <c r="J15" s="137"/>
+      <c r="K15" s="137" t="s">
         <v>151</v>
       </c>
-      <c r="L15" s="140"/>
-      <c r="M15" s="140" t="s">
+      <c r="L15" s="137"/>
+      <c r="M15" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="N15" s="140"/>
-      <c r="O15" s="140" t="s">
+      <c r="N15" s="137"/>
+      <c r="O15" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="P15" s="140"/>
-      <c r="Q15" s="140" t="s">
+      <c r="P15" s="137"/>
+      <c r="Q15" s="137" t="s">
         <v>154</v>
       </c>
-      <c r="R15" s="141"/>
+      <c r="R15" s="138"/>
     </row>
     <row r="16" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="142" t="s">
+      <c r="C16" s="136" t="s">
         <v>155</v>
       </c>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140" t="s">
+      <c r="D16" s="137"/>
+      <c r="E16" s="137" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140" t="s">
+      <c r="F16" s="137"/>
+      <c r="G16" s="137" t="s">
         <v>157</v>
       </c>
-      <c r="H16" s="140"/>
-      <c r="I16" s="140" t="s">
+      <c r="H16" s="137"/>
+      <c r="I16" s="137" t="s">
         <v>158</v>
       </c>
-      <c r="J16" s="140"/>
-      <c r="K16" s="140" t="s">
+      <c r="J16" s="137"/>
+      <c r="K16" s="137" t="s">
         <v>159</v>
       </c>
-      <c r="L16" s="140"/>
-      <c r="M16" s="140" t="s">
+      <c r="L16" s="137"/>
+      <c r="M16" s="137" t="s">
         <v>160</v>
       </c>
-      <c r="N16" s="140"/>
-      <c r="O16" s="140" t="s">
+      <c r="N16" s="137"/>
+      <c r="O16" s="137" t="s">
         <v>161</v>
       </c>
-      <c r="P16" s="140"/>
-      <c r="Q16" s="140" t="s">
+      <c r="P16" s="137"/>
+      <c r="Q16" s="137" t="s">
         <v>162</v>
       </c>
-      <c r="R16" s="141"/>
+      <c r="R16" s="138"/>
     </row>
     <row r="17" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="142" t="s">
+      <c r="C17" s="136" t="s">
         <v>163</v>
       </c>
-      <c r="D17" s="140"/>
-      <c r="E17" s="140" t="s">
+      <c r="D17" s="137"/>
+      <c r="E17" s="137" t="s">
         <v>164</v>
       </c>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140" t="s">
+      <c r="F17" s="137"/>
+      <c r="G17" s="137" t="s">
         <v>165</v>
       </c>
-      <c r="H17" s="140"/>
-      <c r="I17" s="140" t="s">
+      <c r="H17" s="137"/>
+      <c r="I17" s="137" t="s">
         <v>166</v>
       </c>
-      <c r="J17" s="140"/>
-      <c r="K17" s="140" t="s">
+      <c r="J17" s="137"/>
+      <c r="K17" s="137" t="s">
         <v>167</v>
       </c>
-      <c r="L17" s="140"/>
-      <c r="M17" s="140" t="s">
+      <c r="L17" s="137"/>
+      <c r="M17" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="N17" s="140"/>
-      <c r="O17" s="140" t="s">
+      <c r="N17" s="137"/>
+      <c r="O17" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="P17" s="140"/>
-      <c r="Q17" s="140" t="s">
+      <c r="P17" s="137"/>
+      <c r="Q17" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="R17" s="141"/>
+      <c r="R17" s="138"/>
     </row>
     <row r="18" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="37" t="s">
@@ -5807,71 +5802,71 @@
       <c r="D18" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="E18" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="130"/>
-      <c r="G18" s="143" t="s">
+      <c r="E18" s="154" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="154"/>
+      <c r="G18" s="128" t="s">
         <v>142</v>
       </c>
-      <c r="H18" s="143"/>
-      <c r="I18" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="130"/>
-      <c r="K18" s="143" t="s">
+      <c r="H18" s="128"/>
+      <c r="I18" s="154" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="154"/>
+      <c r="K18" s="128" t="s">
         <v>143</v>
       </c>
-      <c r="L18" s="143"/>
-      <c r="M18" s="143" t="s">
+      <c r="L18" s="128"/>
+      <c r="M18" s="128" t="s">
         <v>144</v>
       </c>
-      <c r="N18" s="143"/>
-      <c r="O18" s="143" t="s">
+      <c r="N18" s="128"/>
+      <c r="O18" s="128" t="s">
         <v>145</v>
       </c>
-      <c r="P18" s="143"/>
-      <c r="Q18" s="143" t="s">
+      <c r="P18" s="128"/>
+      <c r="Q18" s="128" t="s">
         <v>146</v>
       </c>
-      <c r="R18" s="144"/>
+      <c r="R18" s="129"/>
     </row>
     <row r="19" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="145" t="s">
+      <c r="C19" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="143"/>
-      <c r="E19" s="143" t="s">
+      <c r="D19" s="128"/>
+      <c r="E19" s="128" t="s">
         <v>148</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143" t="s">
+      <c r="F19" s="128"/>
+      <c r="G19" s="128" t="s">
         <v>149</v>
       </c>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143" t="s">
+      <c r="H19" s="128"/>
+      <c r="I19" s="128" t="s">
         <v>150</v>
       </c>
-      <c r="J19" s="143"/>
-      <c r="K19" s="143" t="s">
+      <c r="J19" s="128"/>
+      <c r="K19" s="128" t="s">
         <v>151</v>
       </c>
-      <c r="L19" s="143"/>
-      <c r="M19" s="143" t="s">
+      <c r="L19" s="128"/>
+      <c r="M19" s="128" t="s">
         <v>152</v>
       </c>
-      <c r="N19" s="143"/>
-      <c r="O19" s="143" t="s">
+      <c r="N19" s="128"/>
+      <c r="O19" s="128" t="s">
         <v>153</v>
       </c>
-      <c r="P19" s="143"/>
-      <c r="Q19" s="143" t="s">
+      <c r="P19" s="128"/>
+      <c r="Q19" s="128" t="s">
         <v>154</v>
       </c>
-      <c r="R19" s="144"/>
+      <c r="R19" s="129"/>
       <c r="T19" s="64"/>
       <c r="U19" s="64"/>
       <c r="V19" s="64"/>
@@ -5880,38 +5875,38 @@
       <c r="B20" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="145" t="s">
+      <c r="C20" s="130" t="s">
         <v>155</v>
       </c>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143" t="s">
+      <c r="D20" s="128"/>
+      <c r="E20" s="128" t="s">
         <v>156</v>
       </c>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143" t="s">
+      <c r="F20" s="128"/>
+      <c r="G20" s="128" t="s">
         <v>157</v>
       </c>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143" t="s">
+      <c r="H20" s="128"/>
+      <c r="I20" s="128" t="s">
         <v>158</v>
       </c>
-      <c r="J20" s="143"/>
-      <c r="K20" s="143" t="s">
+      <c r="J20" s="128"/>
+      <c r="K20" s="128" t="s">
         <v>159</v>
       </c>
-      <c r="L20" s="143"/>
-      <c r="M20" s="143" t="s">
+      <c r="L20" s="128"/>
+      <c r="M20" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="N20" s="143"/>
-      <c r="O20" s="143" t="s">
+      <c r="N20" s="128"/>
+      <c r="O20" s="128" t="s">
         <v>161</v>
       </c>
-      <c r="P20" s="143"/>
-      <c r="Q20" s="143" t="s">
+      <c r="P20" s="128"/>
+      <c r="Q20" s="128" t="s">
         <v>162</v>
       </c>
-      <c r="R20" s="144"/>
+      <c r="R20" s="129"/>
       <c r="T20" s="67"/>
       <c r="U20" s="67"/>
       <c r="V20" s="67"/>
@@ -5920,61 +5915,61 @@
       <c r="B21" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="152" t="s">
+      <c r="C21" s="139" t="s">
         <v>163</v>
       </c>
-      <c r="D21" s="146"/>
-      <c r="E21" s="146" t="s">
+      <c r="D21" s="140"/>
+      <c r="E21" s="140" t="s">
         <v>164</v>
       </c>
-      <c r="F21" s="146"/>
-      <c r="G21" s="146" t="s">
+      <c r="F21" s="140"/>
+      <c r="G21" s="140" t="s">
         <v>165</v>
       </c>
-      <c r="H21" s="146"/>
-      <c r="I21" s="146" t="s">
+      <c r="H21" s="140"/>
+      <c r="I21" s="140" t="s">
         <v>166</v>
       </c>
-      <c r="J21" s="146"/>
-      <c r="K21" s="146" t="s">
+      <c r="J21" s="140"/>
+      <c r="K21" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="L21" s="146"/>
-      <c r="M21" s="146" t="s">
+      <c r="L21" s="140"/>
+      <c r="M21" s="140" t="s">
         <v>168</v>
       </c>
-      <c r="N21" s="146"/>
-      <c r="O21" s="146" t="s">
+      <c r="N21" s="140"/>
+      <c r="O21" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="P21" s="146"/>
-      <c r="Q21" s="146" t="s">
+      <c r="P21" s="140"/>
+      <c r="Q21" s="140" t="s">
         <v>170</v>
       </c>
-      <c r="R21" s="147"/>
+      <c r="R21" s="141"/>
       <c r="T21" s="67"/>
       <c r="U21" s="67"/>
       <c r="V21" s="67"/>
     </row>
     <row r="22" spans="1:37" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="64"/>
-      <c r="B22" s="158"/>
-      <c r="C22" s="159"/>
-      <c r="D22" s="159"/>
-      <c r="E22" s="159"/>
-      <c r="F22" s="159"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="159"/>
-      <c r="I22" s="159"/>
-      <c r="J22" s="159"/>
-      <c r="K22" s="159"/>
-      <c r="L22" s="159"/>
-      <c r="M22" s="159"/>
-      <c r="N22" s="159"/>
-      <c r="O22" s="159"/>
-      <c r="P22" s="159"/>
-      <c r="Q22" s="159"/>
-      <c r="R22" s="159"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="132"/>
+      <c r="K22" s="132"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="132"/>
+      <c r="N22" s="132"/>
+      <c r="O22" s="132"/>
+      <c r="P22" s="132"/>
+      <c r="Q22" s="132"/>
+      <c r="R22" s="132"/>
       <c r="S22" s="64"/>
       <c r="T22" s="68"/>
       <c r="U22" s="68"/>
@@ -6005,34 +6000,34 @@
       <c r="D23" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="E23" s="128" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="128"/>
-      <c r="G23" s="138" t="s">
+      <c r="E23" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="147"/>
+      <c r="G23" s="142" t="s">
         <v>142</v>
       </c>
-      <c r="H23" s="138"/>
-      <c r="I23" s="128" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="128"/>
-      <c r="K23" s="138" t="s">
+      <c r="H23" s="142"/>
+      <c r="I23" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="147"/>
+      <c r="K23" s="142" t="s">
         <v>143</v>
       </c>
-      <c r="L23" s="138"/>
-      <c r="M23" s="138" t="s">
+      <c r="L23" s="142"/>
+      <c r="M23" s="142" t="s">
         <v>144</v>
       </c>
-      <c r="N23" s="138"/>
-      <c r="O23" s="138" t="s">
+      <c r="N23" s="142"/>
+      <c r="O23" s="142" t="s">
         <v>145</v>
       </c>
-      <c r="P23" s="138"/>
-      <c r="Q23" s="138" t="s">
+      <c r="P23" s="142"/>
+      <c r="Q23" s="142" t="s">
         <v>146</v>
       </c>
-      <c r="R23" s="139"/>
+      <c r="R23" s="143"/>
       <c r="T23" s="67"/>
       <c r="U23" s="67"/>
       <c r="V23" s="67"/>
@@ -6041,38 +6036,38 @@
       <c r="B24" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="142" t="s">
+      <c r="C24" s="136" t="s">
         <v>147</v>
       </c>
-      <c r="D24" s="140"/>
-      <c r="E24" s="140" t="s">
+      <c r="D24" s="137"/>
+      <c r="E24" s="137" t="s">
         <v>148</v>
       </c>
-      <c r="F24" s="140"/>
-      <c r="G24" s="140" t="s">
+      <c r="F24" s="137"/>
+      <c r="G24" s="137" t="s">
         <v>149</v>
       </c>
-      <c r="H24" s="140"/>
-      <c r="I24" s="140" t="s">
+      <c r="H24" s="137"/>
+      <c r="I24" s="137" t="s">
         <v>150</v>
       </c>
-      <c r="J24" s="140"/>
-      <c r="K24" s="140" t="s">
+      <c r="J24" s="137"/>
+      <c r="K24" s="137" t="s">
         <v>151</v>
       </c>
-      <c r="L24" s="140"/>
-      <c r="M24" s="140" t="s">
+      <c r="L24" s="137"/>
+      <c r="M24" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="N24" s="140"/>
-      <c r="O24" s="140" t="s">
+      <c r="N24" s="137"/>
+      <c r="O24" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="P24" s="140"/>
-      <c r="Q24" s="140" t="s">
+      <c r="P24" s="137"/>
+      <c r="Q24" s="137" t="s">
         <v>154</v>
       </c>
-      <c r="R24" s="141"/>
+      <c r="R24" s="138"/>
       <c r="T24" s="67"/>
       <c r="U24" s="67"/>
       <c r="V24" s="67"/>
@@ -6081,75 +6076,75 @@
       <c r="B25" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="142" t="s">
+      <c r="C25" s="136" t="s">
         <v>155</v>
       </c>
-      <c r="D25" s="140"/>
-      <c r="E25" s="140" t="s">
+      <c r="D25" s="137"/>
+      <c r="E25" s="137" t="s">
         <v>156</v>
       </c>
-      <c r="F25" s="140"/>
-      <c r="G25" s="140" t="s">
+      <c r="F25" s="137"/>
+      <c r="G25" s="137" t="s">
         <v>157</v>
       </c>
-      <c r="H25" s="140"/>
-      <c r="I25" s="140" t="s">
+      <c r="H25" s="137"/>
+      <c r="I25" s="137" t="s">
         <v>158</v>
       </c>
-      <c r="J25" s="140"/>
-      <c r="K25" s="140" t="s">
+      <c r="J25" s="137"/>
+      <c r="K25" s="137" t="s">
         <v>159</v>
       </c>
-      <c r="L25" s="140"/>
-      <c r="M25" s="140" t="s">
+      <c r="L25" s="137"/>
+      <c r="M25" s="137" t="s">
         <v>160</v>
       </c>
-      <c r="N25" s="140"/>
-      <c r="O25" s="140" t="s">
+      <c r="N25" s="137"/>
+      <c r="O25" s="137" t="s">
         <v>161</v>
       </c>
-      <c r="P25" s="140"/>
-      <c r="Q25" s="140" t="s">
+      <c r="P25" s="137"/>
+      <c r="Q25" s="137" t="s">
         <v>162</v>
       </c>
-      <c r="R25" s="141"/>
+      <c r="R25" s="138"/>
     </row>
     <row r="26" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="142" t="s">
+      <c r="C26" s="136" t="s">
         <v>163</v>
       </c>
-      <c r="D26" s="140"/>
-      <c r="E26" s="140" t="s">
+      <c r="D26" s="137"/>
+      <c r="E26" s="137" t="s">
         <v>164</v>
       </c>
-      <c r="F26" s="140"/>
-      <c r="G26" s="140" t="s">
+      <c r="F26" s="137"/>
+      <c r="G26" s="137" t="s">
         <v>165</v>
       </c>
-      <c r="H26" s="140"/>
-      <c r="I26" s="140" t="s">
+      <c r="H26" s="137"/>
+      <c r="I26" s="137" t="s">
         <v>166</v>
       </c>
-      <c r="J26" s="140"/>
-      <c r="K26" s="140" t="s">
+      <c r="J26" s="137"/>
+      <c r="K26" s="137" t="s">
         <v>167</v>
       </c>
-      <c r="L26" s="140"/>
-      <c r="M26" s="140" t="s">
+      <c r="L26" s="137"/>
+      <c r="M26" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="N26" s="140"/>
-      <c r="O26" s="140" t="s">
+      <c r="N26" s="137"/>
+      <c r="O26" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="P26" s="140"/>
-      <c r="Q26" s="140" t="s">
+      <c r="P26" s="137"/>
+      <c r="Q26" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="R26" s="141"/>
+      <c r="R26" s="138"/>
     </row>
     <row r="27" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="36" t="s">
@@ -6161,145 +6156,145 @@
       <c r="D27" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="E27" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="130"/>
-      <c r="G27" s="143" t="s">
+      <c r="E27" s="154" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="154"/>
+      <c r="G27" s="128" t="s">
         <v>142</v>
       </c>
-      <c r="H27" s="143"/>
-      <c r="I27" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" s="130"/>
-      <c r="K27" s="143" t="s">
+      <c r="H27" s="128"/>
+      <c r="I27" s="154" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="154"/>
+      <c r="K27" s="128" t="s">
         <v>143</v>
       </c>
-      <c r="L27" s="143"/>
-      <c r="M27" s="143" t="s">
+      <c r="L27" s="128"/>
+      <c r="M27" s="128" t="s">
         <v>144</v>
       </c>
-      <c r="N27" s="143"/>
-      <c r="O27" s="143" t="s">
+      <c r="N27" s="128"/>
+      <c r="O27" s="128" t="s">
         <v>145</v>
       </c>
-      <c r="P27" s="143"/>
-      <c r="Q27" s="143" t="s">
+      <c r="P27" s="128"/>
+      <c r="Q27" s="128" t="s">
         <v>146</v>
       </c>
-      <c r="R27" s="144"/>
+      <c r="R27" s="129"/>
     </row>
     <row r="28" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="145" t="s">
+      <c r="C28" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="143"/>
-      <c r="E28" s="143" t="s">
+      <c r="D28" s="128"/>
+      <c r="E28" s="128" t="s">
         <v>148</v>
       </c>
-      <c r="F28" s="143"/>
-      <c r="G28" s="143" t="s">
+      <c r="F28" s="128"/>
+      <c r="G28" s="128" t="s">
         <v>149</v>
       </c>
-      <c r="H28" s="143"/>
-      <c r="I28" s="143" t="s">
+      <c r="H28" s="128"/>
+      <c r="I28" s="128" t="s">
         <v>150</v>
       </c>
-      <c r="J28" s="143"/>
-      <c r="K28" s="143" t="s">
+      <c r="J28" s="128"/>
+      <c r="K28" s="128" t="s">
         <v>151</v>
       </c>
-      <c r="L28" s="143"/>
-      <c r="M28" s="143" t="s">
+      <c r="L28" s="128"/>
+      <c r="M28" s="128" t="s">
         <v>152</v>
       </c>
-      <c r="N28" s="143"/>
-      <c r="O28" s="143" t="s">
+      <c r="N28" s="128"/>
+      <c r="O28" s="128" t="s">
         <v>153</v>
       </c>
-      <c r="P28" s="143"/>
-      <c r="Q28" s="143" t="s">
+      <c r="P28" s="128"/>
+      <c r="Q28" s="128" t="s">
         <v>154</v>
       </c>
-      <c r="R28" s="144"/>
+      <c r="R28" s="129"/>
     </row>
     <row r="29" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="C29" s="145" t="s">
+      <c r="C29" s="130" t="s">
         <v>155</v>
       </c>
-      <c r="D29" s="143"/>
-      <c r="E29" s="143" t="s">
+      <c r="D29" s="128"/>
+      <c r="E29" s="128" t="s">
         <v>156</v>
       </c>
-      <c r="F29" s="143"/>
-      <c r="G29" s="143" t="s">
+      <c r="F29" s="128"/>
+      <c r="G29" s="128" t="s">
         <v>157</v>
       </c>
-      <c r="H29" s="143"/>
-      <c r="I29" s="143" t="s">
+      <c r="H29" s="128"/>
+      <c r="I29" s="128" t="s">
         <v>158</v>
       </c>
-      <c r="J29" s="143"/>
-      <c r="K29" s="143" t="s">
+      <c r="J29" s="128"/>
+      <c r="K29" s="128" t="s">
         <v>159</v>
       </c>
-      <c r="L29" s="143"/>
-      <c r="M29" s="143" t="s">
+      <c r="L29" s="128"/>
+      <c r="M29" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="N29" s="143"/>
-      <c r="O29" s="143" t="s">
+      <c r="N29" s="128"/>
+      <c r="O29" s="128" t="s">
         <v>161</v>
       </c>
-      <c r="P29" s="143"/>
-      <c r="Q29" s="143" t="s">
+      <c r="P29" s="128"/>
+      <c r="Q29" s="128" t="s">
         <v>162</v>
       </c>
-      <c r="R29" s="144"/>
+      <c r="R29" s="129"/>
     </row>
     <row r="30" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="C30" s="145" t="s">
+      <c r="C30" s="130" t="s">
         <v>163</v>
       </c>
-      <c r="D30" s="143"/>
-      <c r="E30" s="143" t="s">
+      <c r="D30" s="128"/>
+      <c r="E30" s="128" t="s">
         <v>164</v>
       </c>
-      <c r="F30" s="143"/>
-      <c r="G30" s="143" t="s">
+      <c r="F30" s="128"/>
+      <c r="G30" s="128" t="s">
         <v>165</v>
       </c>
-      <c r="H30" s="143"/>
-      <c r="I30" s="143" t="s">
+      <c r="H30" s="128"/>
+      <c r="I30" s="128" t="s">
         <v>166</v>
       </c>
-      <c r="J30" s="143"/>
-      <c r="K30" s="143" t="s">
+      <c r="J30" s="128"/>
+      <c r="K30" s="128" t="s">
         <v>167</v>
       </c>
-      <c r="L30" s="143"/>
-      <c r="M30" s="143" t="s">
+      <c r="L30" s="128"/>
+      <c r="M30" s="128" t="s">
         <v>168</v>
       </c>
-      <c r="N30" s="143"/>
-      <c r="O30" s="143" t="s">
+      <c r="N30" s="128"/>
+      <c r="O30" s="128" t="s">
         <v>169</v>
       </c>
-      <c r="P30" s="143"/>
-      <c r="Q30" s="143" t="s">
+      <c r="P30" s="128"/>
+      <c r="Q30" s="128" t="s">
         <v>170</v>
       </c>
-      <c r="R30" s="144"/>
+      <c r="R30" s="129"/>
     </row>
     <row r="31" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="37" t="s">
@@ -6311,145 +6306,145 @@
       <c r="D31" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="129" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="129"/>
-      <c r="G31" s="140" t="s">
+      <c r="E31" s="155" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="155"/>
+      <c r="G31" s="137" t="s">
         <v>142</v>
       </c>
-      <c r="H31" s="140"/>
-      <c r="I31" s="129" t="s">
-        <v>6</v>
-      </c>
-      <c r="J31" s="129"/>
-      <c r="K31" s="140" t="s">
+      <c r="H31" s="137"/>
+      <c r="I31" s="155" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="155"/>
+      <c r="K31" s="137" t="s">
         <v>143</v>
       </c>
-      <c r="L31" s="140"/>
-      <c r="M31" s="140" t="s">
+      <c r="L31" s="137"/>
+      <c r="M31" s="137" t="s">
         <v>144</v>
       </c>
-      <c r="N31" s="140"/>
-      <c r="O31" s="140" t="s">
+      <c r="N31" s="137"/>
+      <c r="O31" s="137" t="s">
         <v>145</v>
       </c>
-      <c r="P31" s="140"/>
-      <c r="Q31" s="140" t="s">
+      <c r="P31" s="137"/>
+      <c r="Q31" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="R31" s="141"/>
+      <c r="R31" s="138"/>
     </row>
     <row r="32" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="C32" s="142" t="s">
+      <c r="C32" s="136" t="s">
         <v>147</v>
       </c>
-      <c r="D32" s="140"/>
-      <c r="E32" s="140" t="s">
+      <c r="D32" s="137"/>
+      <c r="E32" s="137" t="s">
         <v>148</v>
       </c>
-      <c r="F32" s="140"/>
-      <c r="G32" s="140" t="s">
+      <c r="F32" s="137"/>
+      <c r="G32" s="137" t="s">
         <v>149</v>
       </c>
-      <c r="H32" s="140"/>
-      <c r="I32" s="140" t="s">
+      <c r="H32" s="137"/>
+      <c r="I32" s="137" t="s">
         <v>150</v>
       </c>
-      <c r="J32" s="140"/>
-      <c r="K32" s="140" t="s">
+      <c r="J32" s="137"/>
+      <c r="K32" s="137" t="s">
         <v>151</v>
       </c>
-      <c r="L32" s="140"/>
-      <c r="M32" s="140" t="s">
+      <c r="L32" s="137"/>
+      <c r="M32" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="N32" s="140"/>
-      <c r="O32" s="140" t="s">
+      <c r="N32" s="137"/>
+      <c r="O32" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="P32" s="140"/>
-      <c r="Q32" s="140" t="s">
+      <c r="P32" s="137"/>
+      <c r="Q32" s="137" t="s">
         <v>154</v>
       </c>
-      <c r="R32" s="141"/>
+      <c r="R32" s="138"/>
     </row>
     <row r="33" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="142" t="s">
+      <c r="C33" s="136" t="s">
         <v>155</v>
       </c>
-      <c r="D33" s="140"/>
-      <c r="E33" s="140" t="s">
+      <c r="D33" s="137"/>
+      <c r="E33" s="137" t="s">
         <v>156</v>
       </c>
-      <c r="F33" s="140"/>
-      <c r="G33" s="140" t="s">
+      <c r="F33" s="137"/>
+      <c r="G33" s="137" t="s">
         <v>157</v>
       </c>
-      <c r="H33" s="140"/>
-      <c r="I33" s="140" t="s">
+      <c r="H33" s="137"/>
+      <c r="I33" s="137" t="s">
         <v>158</v>
       </c>
-      <c r="J33" s="140"/>
-      <c r="K33" s="140" t="s">
+      <c r="J33" s="137"/>
+      <c r="K33" s="137" t="s">
         <v>159</v>
       </c>
-      <c r="L33" s="140"/>
-      <c r="M33" s="140" t="s">
+      <c r="L33" s="137"/>
+      <c r="M33" s="137" t="s">
         <v>160</v>
       </c>
-      <c r="N33" s="140"/>
-      <c r="O33" s="140" t="s">
+      <c r="N33" s="137"/>
+      <c r="O33" s="137" t="s">
         <v>161</v>
       </c>
-      <c r="P33" s="140"/>
-      <c r="Q33" s="140" t="s">
+      <c r="P33" s="137"/>
+      <c r="Q33" s="137" t="s">
         <v>162</v>
       </c>
-      <c r="R33" s="141"/>
+      <c r="R33" s="138"/>
     </row>
     <row r="34" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="142" t="s">
+      <c r="C34" s="136" t="s">
         <v>163</v>
       </c>
-      <c r="D34" s="140"/>
-      <c r="E34" s="140" t="s">
+      <c r="D34" s="137"/>
+      <c r="E34" s="137" t="s">
         <v>164</v>
       </c>
-      <c r="F34" s="140"/>
-      <c r="G34" s="140" t="s">
+      <c r="F34" s="137"/>
+      <c r="G34" s="137" t="s">
         <v>165</v>
       </c>
-      <c r="H34" s="140"/>
-      <c r="I34" s="140" t="s">
+      <c r="H34" s="137"/>
+      <c r="I34" s="137" t="s">
         <v>166</v>
       </c>
-      <c r="J34" s="140"/>
-      <c r="K34" s="140" t="s">
+      <c r="J34" s="137"/>
+      <c r="K34" s="137" t="s">
         <v>167</v>
       </c>
-      <c r="L34" s="140"/>
-      <c r="M34" s="140" t="s">
+      <c r="L34" s="137"/>
+      <c r="M34" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="N34" s="140"/>
-      <c r="O34" s="140" t="s">
+      <c r="N34" s="137"/>
+      <c r="O34" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="P34" s="140"/>
-      <c r="Q34" s="140" t="s">
+      <c r="P34" s="137"/>
+      <c r="Q34" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="R34" s="141"/>
+      <c r="R34" s="138"/>
     </row>
     <row r="35" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="37" t="s">
@@ -6461,165 +6456,165 @@
       <c r="D35" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="E35" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" s="130"/>
-      <c r="G35" s="143" t="s">
+      <c r="E35" s="154" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="154"/>
+      <c r="G35" s="128" t="s">
         <v>142</v>
       </c>
-      <c r="H35" s="143"/>
-      <c r="I35" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="J35" s="130"/>
-      <c r="K35" s="143" t="s">
+      <c r="H35" s="128"/>
+      <c r="I35" s="154" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="154"/>
+      <c r="K35" s="128" t="s">
         <v>143</v>
       </c>
-      <c r="L35" s="143"/>
-      <c r="M35" s="143" t="s">
+      <c r="L35" s="128"/>
+      <c r="M35" s="128" t="s">
         <v>144</v>
       </c>
-      <c r="N35" s="143"/>
-      <c r="O35" s="143" t="s">
+      <c r="N35" s="128"/>
+      <c r="O35" s="128" t="s">
         <v>145</v>
       </c>
-      <c r="P35" s="143"/>
-      <c r="Q35" s="143" t="s">
+      <c r="P35" s="128"/>
+      <c r="Q35" s="128" t="s">
         <v>146</v>
       </c>
-      <c r="R35" s="144"/>
+      <c r="R35" s="129"/>
     </row>
     <row r="36" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="C36" s="145" t="s">
+      <c r="C36" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="D36" s="143"/>
-      <c r="E36" s="143" t="s">
+      <c r="D36" s="128"/>
+      <c r="E36" s="128" t="s">
         <v>148</v>
       </c>
-      <c r="F36" s="143"/>
-      <c r="G36" s="143" t="s">
+      <c r="F36" s="128"/>
+      <c r="G36" s="128" t="s">
         <v>149</v>
       </c>
-      <c r="H36" s="143"/>
-      <c r="I36" s="143" t="s">
+      <c r="H36" s="128"/>
+      <c r="I36" s="128" t="s">
         <v>150</v>
       </c>
-      <c r="J36" s="143"/>
-      <c r="K36" s="143" t="s">
+      <c r="J36" s="128"/>
+      <c r="K36" s="128" t="s">
         <v>151</v>
       </c>
-      <c r="L36" s="143"/>
-      <c r="M36" s="143" t="s">
+      <c r="L36" s="128"/>
+      <c r="M36" s="128" t="s">
         <v>152</v>
       </c>
-      <c r="N36" s="143"/>
-      <c r="O36" s="143" t="s">
+      <c r="N36" s="128"/>
+      <c r="O36" s="128" t="s">
         <v>153</v>
       </c>
-      <c r="P36" s="143"/>
-      <c r="Q36" s="143" t="s">
+      <c r="P36" s="128"/>
+      <c r="Q36" s="128" t="s">
         <v>154</v>
       </c>
-      <c r="R36" s="144"/>
+      <c r="R36" s="129"/>
     </row>
     <row r="37" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="C37" s="145" t="s">
+      <c r="C37" s="130" t="s">
         <v>155</v>
       </c>
-      <c r="D37" s="143"/>
-      <c r="E37" s="143" t="s">
+      <c r="D37" s="128"/>
+      <c r="E37" s="128" t="s">
         <v>156</v>
       </c>
-      <c r="F37" s="143"/>
-      <c r="G37" s="143" t="s">
+      <c r="F37" s="128"/>
+      <c r="G37" s="128" t="s">
         <v>157</v>
       </c>
-      <c r="H37" s="143"/>
-      <c r="I37" s="143" t="s">
+      <c r="H37" s="128"/>
+      <c r="I37" s="128" t="s">
         <v>158</v>
       </c>
-      <c r="J37" s="143"/>
-      <c r="K37" s="143" t="s">
+      <c r="J37" s="128"/>
+      <c r="K37" s="128" t="s">
         <v>159</v>
       </c>
-      <c r="L37" s="143"/>
-      <c r="M37" s="143" t="s">
+      <c r="L37" s="128"/>
+      <c r="M37" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="N37" s="143"/>
-      <c r="O37" s="143" t="s">
+      <c r="N37" s="128"/>
+      <c r="O37" s="128" t="s">
         <v>161</v>
       </c>
-      <c r="P37" s="143"/>
-      <c r="Q37" s="143" t="s">
+      <c r="P37" s="128"/>
+      <c r="Q37" s="128" t="s">
         <v>162</v>
       </c>
-      <c r="R37" s="144"/>
+      <c r="R37" s="129"/>
     </row>
     <row r="38" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="152" t="s">
+      <c r="C38" s="139" t="s">
         <v>163</v>
       </c>
-      <c r="D38" s="146"/>
-      <c r="E38" s="146" t="s">
+      <c r="D38" s="140"/>
+      <c r="E38" s="140" t="s">
         <v>164</v>
       </c>
-      <c r="F38" s="146"/>
-      <c r="G38" s="146" t="s">
+      <c r="F38" s="140"/>
+      <c r="G38" s="140" t="s">
         <v>165</v>
       </c>
-      <c r="H38" s="146"/>
-      <c r="I38" s="146" t="s">
+      <c r="H38" s="140"/>
+      <c r="I38" s="140" t="s">
         <v>166</v>
       </c>
-      <c r="J38" s="146"/>
-      <c r="K38" s="146" t="s">
+      <c r="J38" s="140"/>
+      <c r="K38" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="L38" s="146"/>
-      <c r="M38" s="146" t="s">
+      <c r="L38" s="140"/>
+      <c r="M38" s="140" t="s">
         <v>168</v>
       </c>
-      <c r="N38" s="146"/>
-      <c r="O38" s="146" t="s">
+      <c r="N38" s="140"/>
+      <c r="O38" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="P38" s="146"/>
-      <c r="Q38" s="146" t="s">
+      <c r="P38" s="140"/>
+      <c r="Q38" s="140" t="s">
         <v>170</v>
       </c>
-      <c r="R38" s="147"/>
+      <c r="R38" s="141"/>
     </row>
     <row r="39" spans="1:19" s="66" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="67"/>
-      <c r="B39" s="160"/>
-      <c r="C39" s="161"/>
-      <c r="D39" s="161"/>
-      <c r="E39" s="161"/>
-      <c r="F39" s="161"/>
-      <c r="G39" s="161"/>
-      <c r="H39" s="161"/>
-      <c r="I39" s="161"/>
-      <c r="J39" s="161"/>
-      <c r="K39" s="161"/>
-      <c r="L39" s="161"/>
-      <c r="M39" s="161"/>
-      <c r="N39" s="161"/>
-      <c r="O39" s="161"/>
-      <c r="P39" s="161"/>
-      <c r="Q39" s="161"/>
-      <c r="R39" s="161"/>
+      <c r="B39" s="133"/>
+      <c r="C39" s="134"/>
+      <c r="D39" s="134"/>
+      <c r="E39" s="134"/>
+      <c r="F39" s="134"/>
+      <c r="G39" s="134"/>
+      <c r="H39" s="134"/>
+      <c r="I39" s="134"/>
+      <c r="J39" s="134"/>
+      <c r="K39" s="134"/>
+      <c r="L39" s="134"/>
+      <c r="M39" s="134"/>
+      <c r="N39" s="134"/>
+      <c r="O39" s="134"/>
+      <c r="P39" s="134"/>
+      <c r="Q39" s="134"/>
+      <c r="R39" s="134"/>
       <c r="S39" s="67"/>
     </row>
     <row r="40" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6632,145 +6627,145 @@
       <c r="D40" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="E40" s="128" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="128"/>
-      <c r="G40" s="138" t="s">
+      <c r="E40" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="147"/>
+      <c r="G40" s="142" t="s">
         <v>142</v>
       </c>
-      <c r="H40" s="138"/>
-      <c r="I40" s="128" t="s">
-        <v>6</v>
-      </c>
-      <c r="J40" s="128"/>
-      <c r="K40" s="138" t="s">
+      <c r="H40" s="142"/>
+      <c r="I40" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" s="147"/>
+      <c r="K40" s="142" t="s">
         <v>143</v>
       </c>
-      <c r="L40" s="138"/>
-      <c r="M40" s="138" t="s">
+      <c r="L40" s="142"/>
+      <c r="M40" s="142" t="s">
         <v>144</v>
       </c>
-      <c r="N40" s="138"/>
-      <c r="O40" s="138" t="s">
+      <c r="N40" s="142"/>
+      <c r="O40" s="142" t="s">
         <v>145</v>
       </c>
-      <c r="P40" s="138"/>
-      <c r="Q40" s="138" t="s">
+      <c r="P40" s="142"/>
+      <c r="Q40" s="142" t="s">
         <v>146</v>
       </c>
-      <c r="R40" s="139"/>
+      <c r="R40" s="143"/>
     </row>
     <row r="41" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="C41" s="142" t="s">
+      <c r="C41" s="136" t="s">
         <v>147</v>
       </c>
-      <c r="D41" s="140"/>
-      <c r="E41" s="140" t="s">
+      <c r="D41" s="137"/>
+      <c r="E41" s="137" t="s">
         <v>148</v>
       </c>
-      <c r="F41" s="140"/>
-      <c r="G41" s="140" t="s">
+      <c r="F41" s="137"/>
+      <c r="G41" s="137" t="s">
         <v>149</v>
       </c>
-      <c r="H41" s="140"/>
-      <c r="I41" s="140" t="s">
+      <c r="H41" s="137"/>
+      <c r="I41" s="137" t="s">
         <v>150</v>
       </c>
-      <c r="J41" s="140"/>
-      <c r="K41" s="140" t="s">
+      <c r="J41" s="137"/>
+      <c r="K41" s="137" t="s">
         <v>151</v>
       </c>
-      <c r="L41" s="140"/>
-      <c r="M41" s="140" t="s">
+      <c r="L41" s="137"/>
+      <c r="M41" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="N41" s="140"/>
-      <c r="O41" s="140" t="s">
+      <c r="N41" s="137"/>
+      <c r="O41" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="P41" s="140"/>
-      <c r="Q41" s="140" t="s">
+      <c r="P41" s="137"/>
+      <c r="Q41" s="137" t="s">
         <v>154</v>
       </c>
-      <c r="R41" s="141"/>
+      <c r="R41" s="138"/>
     </row>
     <row r="42" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="C42" s="142" t="s">
+      <c r="C42" s="136" t="s">
         <v>155</v>
       </c>
-      <c r="D42" s="140"/>
-      <c r="E42" s="140" t="s">
+      <c r="D42" s="137"/>
+      <c r="E42" s="137" t="s">
         <v>156</v>
       </c>
-      <c r="F42" s="140"/>
-      <c r="G42" s="140" t="s">
+      <c r="F42" s="137"/>
+      <c r="G42" s="137" t="s">
         <v>157</v>
       </c>
-      <c r="H42" s="140"/>
-      <c r="I42" s="140" t="s">
+      <c r="H42" s="137"/>
+      <c r="I42" s="137" t="s">
         <v>158</v>
       </c>
-      <c r="J42" s="140"/>
-      <c r="K42" s="140" t="s">
+      <c r="J42" s="137"/>
+      <c r="K42" s="137" t="s">
         <v>159</v>
       </c>
-      <c r="L42" s="140"/>
-      <c r="M42" s="140" t="s">
+      <c r="L42" s="137"/>
+      <c r="M42" s="137" t="s">
         <v>160</v>
       </c>
-      <c r="N42" s="140"/>
-      <c r="O42" s="140" t="s">
+      <c r="N42" s="137"/>
+      <c r="O42" s="137" t="s">
         <v>161</v>
       </c>
-      <c r="P42" s="140"/>
-      <c r="Q42" s="140" t="s">
+      <c r="P42" s="137"/>
+      <c r="Q42" s="137" t="s">
         <v>162</v>
       </c>
-      <c r="R42" s="141"/>
+      <c r="R42" s="138"/>
     </row>
     <row r="43" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="C43" s="142" t="s">
+      <c r="C43" s="136" t="s">
         <v>163</v>
       </c>
-      <c r="D43" s="140"/>
-      <c r="E43" s="140" t="s">
+      <c r="D43" s="137"/>
+      <c r="E43" s="137" t="s">
         <v>164</v>
       </c>
-      <c r="F43" s="140"/>
-      <c r="G43" s="140" t="s">
+      <c r="F43" s="137"/>
+      <c r="G43" s="137" t="s">
         <v>165</v>
       </c>
-      <c r="H43" s="140"/>
-      <c r="I43" s="140" t="s">
+      <c r="H43" s="137"/>
+      <c r="I43" s="137" t="s">
         <v>166</v>
       </c>
-      <c r="J43" s="140"/>
-      <c r="K43" s="140" t="s">
+      <c r="J43" s="137"/>
+      <c r="K43" s="137" t="s">
         <v>167</v>
       </c>
-      <c r="L43" s="140"/>
-      <c r="M43" s="140" t="s">
+      <c r="L43" s="137"/>
+      <c r="M43" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="N43" s="140"/>
-      <c r="O43" s="140" t="s">
+      <c r="N43" s="137"/>
+      <c r="O43" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="P43" s="140"/>
-      <c r="Q43" s="140" t="s">
+      <c r="P43" s="137"/>
+      <c r="Q43" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="R43" s="141"/>
+      <c r="R43" s="138"/>
     </row>
     <row r="44" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="36" t="s">
@@ -6782,145 +6777,145 @@
       <c r="D44" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="E44" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" s="130"/>
-      <c r="G44" s="143" t="s">
+      <c r="E44" s="154" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="154"/>
+      <c r="G44" s="128" t="s">
         <v>142</v>
       </c>
-      <c r="H44" s="143"/>
-      <c r="I44" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="J44" s="130"/>
-      <c r="K44" s="143" t="s">
+      <c r="H44" s="128"/>
+      <c r="I44" s="154" t="s">
+        <v>6</v>
+      </c>
+      <c r="J44" s="154"/>
+      <c r="K44" s="128" t="s">
         <v>143</v>
       </c>
-      <c r="L44" s="143"/>
-      <c r="M44" s="143" t="s">
+      <c r="L44" s="128"/>
+      <c r="M44" s="128" t="s">
         <v>144</v>
       </c>
-      <c r="N44" s="143"/>
-      <c r="O44" s="143" t="s">
+      <c r="N44" s="128"/>
+      <c r="O44" s="128" t="s">
         <v>145</v>
       </c>
-      <c r="P44" s="143"/>
-      <c r="Q44" s="143" t="s">
+      <c r="P44" s="128"/>
+      <c r="Q44" s="128" t="s">
         <v>146</v>
       </c>
-      <c r="R44" s="144"/>
+      <c r="R44" s="129"/>
     </row>
     <row r="45" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="C45" s="145" t="s">
+      <c r="C45" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="D45" s="143"/>
-      <c r="E45" s="143" t="s">
+      <c r="D45" s="128"/>
+      <c r="E45" s="128" t="s">
         <v>148</v>
       </c>
-      <c r="F45" s="143"/>
-      <c r="G45" s="143" t="s">
+      <c r="F45" s="128"/>
+      <c r="G45" s="128" t="s">
         <v>149</v>
       </c>
-      <c r="H45" s="143"/>
-      <c r="I45" s="143" t="s">
+      <c r="H45" s="128"/>
+      <c r="I45" s="128" t="s">
         <v>150</v>
       </c>
-      <c r="J45" s="143"/>
-      <c r="K45" s="143" t="s">
+      <c r="J45" s="128"/>
+      <c r="K45" s="128" t="s">
         <v>151</v>
       </c>
-      <c r="L45" s="143"/>
-      <c r="M45" s="143" t="s">
+      <c r="L45" s="128"/>
+      <c r="M45" s="128" t="s">
         <v>152</v>
       </c>
-      <c r="N45" s="143"/>
-      <c r="O45" s="143" t="s">
+      <c r="N45" s="128"/>
+      <c r="O45" s="128" t="s">
         <v>153</v>
       </c>
-      <c r="P45" s="143"/>
-      <c r="Q45" s="143" t="s">
+      <c r="P45" s="128"/>
+      <c r="Q45" s="128" t="s">
         <v>154</v>
       </c>
-      <c r="R45" s="144"/>
+      <c r="R45" s="129"/>
     </row>
     <row r="46" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="145" t="s">
+      <c r="C46" s="130" t="s">
         <v>155</v>
       </c>
-      <c r="D46" s="143"/>
-      <c r="E46" s="143" t="s">
+      <c r="D46" s="128"/>
+      <c r="E46" s="128" t="s">
         <v>156</v>
       </c>
-      <c r="F46" s="143"/>
-      <c r="G46" s="143" t="s">
+      <c r="F46" s="128"/>
+      <c r="G46" s="128" t="s">
         <v>157</v>
       </c>
-      <c r="H46" s="143"/>
-      <c r="I46" s="143" t="s">
+      <c r="H46" s="128"/>
+      <c r="I46" s="128" t="s">
         <v>158</v>
       </c>
-      <c r="J46" s="143"/>
-      <c r="K46" s="143" t="s">
+      <c r="J46" s="128"/>
+      <c r="K46" s="128" t="s">
         <v>159</v>
       </c>
-      <c r="L46" s="143"/>
-      <c r="M46" s="143" t="s">
+      <c r="L46" s="128"/>
+      <c r="M46" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="N46" s="143"/>
-      <c r="O46" s="143" t="s">
+      <c r="N46" s="128"/>
+      <c r="O46" s="128" t="s">
         <v>161</v>
       </c>
-      <c r="P46" s="143"/>
-      <c r="Q46" s="143" t="s">
+      <c r="P46" s="128"/>
+      <c r="Q46" s="128" t="s">
         <v>162</v>
       </c>
-      <c r="R46" s="144"/>
+      <c r="R46" s="129"/>
     </row>
     <row r="47" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="C47" s="145" t="s">
+      <c r="C47" s="130" t="s">
         <v>163</v>
       </c>
-      <c r="D47" s="143"/>
-      <c r="E47" s="143" t="s">
+      <c r="D47" s="128"/>
+      <c r="E47" s="128" t="s">
         <v>164</v>
       </c>
-      <c r="F47" s="143"/>
-      <c r="G47" s="143" t="s">
+      <c r="F47" s="128"/>
+      <c r="G47" s="128" t="s">
         <v>165</v>
       </c>
-      <c r="H47" s="143"/>
-      <c r="I47" s="143" t="s">
+      <c r="H47" s="128"/>
+      <c r="I47" s="128" t="s">
         <v>166</v>
       </c>
-      <c r="J47" s="143"/>
-      <c r="K47" s="143" t="s">
+      <c r="J47" s="128"/>
+      <c r="K47" s="128" t="s">
         <v>167</v>
       </c>
-      <c r="L47" s="143"/>
-      <c r="M47" s="143" t="s">
+      <c r="L47" s="128"/>
+      <c r="M47" s="128" t="s">
         <v>168</v>
       </c>
-      <c r="N47" s="143"/>
-      <c r="O47" s="143" t="s">
+      <c r="N47" s="128"/>
+      <c r="O47" s="128" t="s">
         <v>169</v>
       </c>
-      <c r="P47" s="143"/>
-      <c r="Q47" s="143" t="s">
+      <c r="P47" s="128"/>
+      <c r="Q47" s="128" t="s">
         <v>170</v>
       </c>
-      <c r="R47" s="144"/>
+      <c r="R47" s="129"/>
     </row>
     <row r="48" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="37" t="s">
@@ -6932,145 +6927,145 @@
       <c r="D48" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="E48" s="129" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" s="129"/>
-      <c r="G48" s="140" t="s">
+      <c r="E48" s="155" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="155"/>
+      <c r="G48" s="137" t="s">
         <v>142</v>
       </c>
-      <c r="H48" s="140"/>
-      <c r="I48" s="129" t="s">
-        <v>6</v>
-      </c>
-      <c r="J48" s="129"/>
-      <c r="K48" s="140" t="s">
+      <c r="H48" s="137"/>
+      <c r="I48" s="155" t="s">
+        <v>6</v>
+      </c>
+      <c r="J48" s="155"/>
+      <c r="K48" s="137" t="s">
         <v>143</v>
       </c>
-      <c r="L48" s="140"/>
-      <c r="M48" s="140" t="s">
+      <c r="L48" s="137"/>
+      <c r="M48" s="137" t="s">
         <v>144</v>
       </c>
-      <c r="N48" s="140"/>
-      <c r="O48" s="140" t="s">
+      <c r="N48" s="137"/>
+      <c r="O48" s="137" t="s">
         <v>145</v>
       </c>
-      <c r="P48" s="140"/>
-      <c r="Q48" s="140" t="s">
+      <c r="P48" s="137"/>
+      <c r="Q48" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="R48" s="141"/>
+      <c r="R48" s="138"/>
     </row>
     <row r="49" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="C49" s="142" t="s">
+      <c r="C49" s="136" t="s">
         <v>147</v>
       </c>
-      <c r="D49" s="140"/>
-      <c r="E49" s="140" t="s">
+      <c r="D49" s="137"/>
+      <c r="E49" s="137" t="s">
         <v>148</v>
       </c>
-      <c r="F49" s="140"/>
-      <c r="G49" s="140" t="s">
+      <c r="F49" s="137"/>
+      <c r="G49" s="137" t="s">
         <v>149</v>
       </c>
-      <c r="H49" s="140"/>
-      <c r="I49" s="140" t="s">
+      <c r="H49" s="137"/>
+      <c r="I49" s="137" t="s">
         <v>150</v>
       </c>
-      <c r="J49" s="140"/>
-      <c r="K49" s="140" t="s">
+      <c r="J49" s="137"/>
+      <c r="K49" s="137" t="s">
         <v>151</v>
       </c>
-      <c r="L49" s="140"/>
-      <c r="M49" s="140" t="s">
+      <c r="L49" s="137"/>
+      <c r="M49" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="N49" s="140"/>
-      <c r="O49" s="140" t="s">
+      <c r="N49" s="137"/>
+      <c r="O49" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="P49" s="140"/>
-      <c r="Q49" s="140" t="s">
+      <c r="P49" s="137"/>
+      <c r="Q49" s="137" t="s">
         <v>154</v>
       </c>
-      <c r="R49" s="141"/>
+      <c r="R49" s="138"/>
     </row>
     <row r="50" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="C50" s="142" t="s">
+      <c r="C50" s="136" t="s">
         <v>155</v>
       </c>
-      <c r="D50" s="140"/>
-      <c r="E50" s="140" t="s">
+      <c r="D50" s="137"/>
+      <c r="E50" s="137" t="s">
         <v>156</v>
       </c>
-      <c r="F50" s="140"/>
-      <c r="G50" s="140" t="s">
+      <c r="F50" s="137"/>
+      <c r="G50" s="137" t="s">
         <v>157</v>
       </c>
-      <c r="H50" s="140"/>
-      <c r="I50" s="140" t="s">
+      <c r="H50" s="137"/>
+      <c r="I50" s="137" t="s">
         <v>158</v>
       </c>
-      <c r="J50" s="140"/>
-      <c r="K50" s="140" t="s">
+      <c r="J50" s="137"/>
+      <c r="K50" s="137" t="s">
         <v>159</v>
       </c>
-      <c r="L50" s="140"/>
-      <c r="M50" s="140" t="s">
+      <c r="L50" s="137"/>
+      <c r="M50" s="137" t="s">
         <v>160</v>
       </c>
-      <c r="N50" s="140"/>
-      <c r="O50" s="140" t="s">
+      <c r="N50" s="137"/>
+      <c r="O50" s="137" t="s">
         <v>161</v>
       </c>
-      <c r="P50" s="140"/>
-      <c r="Q50" s="140" t="s">
+      <c r="P50" s="137"/>
+      <c r="Q50" s="137" t="s">
         <v>162</v>
       </c>
-      <c r="R50" s="141"/>
+      <c r="R50" s="138"/>
     </row>
     <row r="51" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="C51" s="142" t="s">
+      <c r="C51" s="136" t="s">
         <v>163</v>
       </c>
-      <c r="D51" s="140"/>
-      <c r="E51" s="140" t="s">
+      <c r="D51" s="137"/>
+      <c r="E51" s="137" t="s">
         <v>164</v>
       </c>
-      <c r="F51" s="140"/>
-      <c r="G51" s="140" t="s">
+      <c r="F51" s="137"/>
+      <c r="G51" s="137" t="s">
         <v>165</v>
       </c>
-      <c r="H51" s="140"/>
-      <c r="I51" s="140" t="s">
+      <c r="H51" s="137"/>
+      <c r="I51" s="137" t="s">
         <v>166</v>
       </c>
-      <c r="J51" s="140"/>
-      <c r="K51" s="140" t="s">
+      <c r="J51" s="137"/>
+      <c r="K51" s="137" t="s">
         <v>167</v>
       </c>
-      <c r="L51" s="140"/>
-      <c r="M51" s="140" t="s">
+      <c r="L51" s="137"/>
+      <c r="M51" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="N51" s="140"/>
-      <c r="O51" s="140" t="s">
+      <c r="N51" s="137"/>
+      <c r="O51" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="P51" s="140"/>
-      <c r="Q51" s="140" t="s">
+      <c r="P51" s="137"/>
+      <c r="Q51" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="R51" s="141"/>
+      <c r="R51" s="138"/>
     </row>
     <row r="52" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="37" t="s">
@@ -7082,165 +7077,165 @@
       <c r="D52" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="E52" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" s="130"/>
-      <c r="G52" s="143" t="s">
+      <c r="E52" s="154" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="154"/>
+      <c r="G52" s="128" t="s">
         <v>142</v>
       </c>
-      <c r="H52" s="143"/>
-      <c r="I52" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="J52" s="130"/>
-      <c r="K52" s="143" t="s">
+      <c r="H52" s="128"/>
+      <c r="I52" s="154" t="s">
+        <v>6</v>
+      </c>
+      <c r="J52" s="154"/>
+      <c r="K52" s="128" t="s">
         <v>143</v>
       </c>
-      <c r="L52" s="143"/>
-      <c r="M52" s="143" t="s">
+      <c r="L52" s="128"/>
+      <c r="M52" s="128" t="s">
         <v>144</v>
       </c>
-      <c r="N52" s="143"/>
-      <c r="O52" s="143" t="s">
+      <c r="N52" s="128"/>
+      <c r="O52" s="128" t="s">
         <v>145</v>
       </c>
-      <c r="P52" s="143"/>
-      <c r="Q52" s="143" t="s">
+      <c r="P52" s="128"/>
+      <c r="Q52" s="128" t="s">
         <v>146</v>
       </c>
-      <c r="R52" s="144"/>
+      <c r="R52" s="129"/>
     </row>
     <row r="53" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="C53" s="145" t="s">
+      <c r="C53" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="D53" s="143"/>
-      <c r="E53" s="143" t="s">
+      <c r="D53" s="128"/>
+      <c r="E53" s="128" t="s">
         <v>148</v>
       </c>
-      <c r="F53" s="143"/>
-      <c r="G53" s="143" t="s">
+      <c r="F53" s="128"/>
+      <c r="G53" s="128" t="s">
         <v>149</v>
       </c>
-      <c r="H53" s="143"/>
-      <c r="I53" s="143" t="s">
+      <c r="H53" s="128"/>
+      <c r="I53" s="128" t="s">
         <v>150</v>
       </c>
-      <c r="J53" s="143"/>
-      <c r="K53" s="143" t="s">
+      <c r="J53" s="128"/>
+      <c r="K53" s="128" t="s">
         <v>151</v>
       </c>
-      <c r="L53" s="143"/>
-      <c r="M53" s="143" t="s">
+      <c r="L53" s="128"/>
+      <c r="M53" s="128" t="s">
         <v>152</v>
       </c>
-      <c r="N53" s="143"/>
-      <c r="O53" s="143" t="s">
+      <c r="N53" s="128"/>
+      <c r="O53" s="128" t="s">
         <v>153</v>
       </c>
-      <c r="P53" s="143"/>
-      <c r="Q53" s="143" t="s">
+      <c r="P53" s="128"/>
+      <c r="Q53" s="128" t="s">
         <v>154</v>
       </c>
-      <c r="R53" s="144"/>
+      <c r="R53" s="129"/>
     </row>
     <row r="54" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="C54" s="145" t="s">
+      <c r="C54" s="130" t="s">
         <v>155</v>
       </c>
-      <c r="D54" s="143"/>
-      <c r="E54" s="143" t="s">
+      <c r="D54" s="128"/>
+      <c r="E54" s="128" t="s">
         <v>156</v>
       </c>
-      <c r="F54" s="143"/>
-      <c r="G54" s="143" t="s">
+      <c r="F54" s="128"/>
+      <c r="G54" s="128" t="s">
         <v>157</v>
       </c>
-      <c r="H54" s="143"/>
-      <c r="I54" s="143" t="s">
+      <c r="H54" s="128"/>
+      <c r="I54" s="128" t="s">
         <v>158</v>
       </c>
-      <c r="J54" s="143"/>
-      <c r="K54" s="143" t="s">
+      <c r="J54" s="128"/>
+      <c r="K54" s="128" t="s">
         <v>159</v>
       </c>
-      <c r="L54" s="143"/>
-      <c r="M54" s="143" t="s">
+      <c r="L54" s="128"/>
+      <c r="M54" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="N54" s="143"/>
-      <c r="O54" s="143" t="s">
+      <c r="N54" s="128"/>
+      <c r="O54" s="128" t="s">
         <v>161</v>
       </c>
-      <c r="P54" s="143"/>
-      <c r="Q54" s="143" t="s">
+      <c r="P54" s="128"/>
+      <c r="Q54" s="128" t="s">
         <v>162</v>
       </c>
-      <c r="R54" s="144"/>
+      <c r="R54" s="129"/>
     </row>
     <row r="55" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="C55" s="152" t="s">
+      <c r="C55" s="139" t="s">
         <v>163</v>
       </c>
-      <c r="D55" s="146"/>
-      <c r="E55" s="146" t="s">
+      <c r="D55" s="140"/>
+      <c r="E55" s="140" t="s">
         <v>164</v>
       </c>
-      <c r="F55" s="146"/>
-      <c r="G55" s="146" t="s">
+      <c r="F55" s="140"/>
+      <c r="G55" s="140" t="s">
         <v>165</v>
       </c>
-      <c r="H55" s="146"/>
-      <c r="I55" s="146" t="s">
+      <c r="H55" s="140"/>
+      <c r="I55" s="140" t="s">
         <v>166</v>
       </c>
-      <c r="J55" s="146"/>
-      <c r="K55" s="146" t="s">
+      <c r="J55" s="140"/>
+      <c r="K55" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="L55" s="146"/>
-      <c r="M55" s="146" t="s">
+      <c r="L55" s="140"/>
+      <c r="M55" s="140" t="s">
         <v>168</v>
       </c>
-      <c r="N55" s="146"/>
-      <c r="O55" s="146" t="s">
+      <c r="N55" s="140"/>
+      <c r="O55" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="P55" s="146"/>
-      <c r="Q55" s="146" t="s">
+      <c r="P55" s="140"/>
+      <c r="Q55" s="140" t="s">
         <v>170</v>
       </c>
-      <c r="R55" s="147"/>
+      <c r="R55" s="141"/>
     </row>
     <row r="56" spans="1:19" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="64"/>
-      <c r="B56" s="158"/>
-      <c r="C56" s="159"/>
-      <c r="D56" s="159"/>
-      <c r="E56" s="159"/>
-      <c r="F56" s="159"/>
-      <c r="G56" s="159"/>
-      <c r="H56" s="159"/>
-      <c r="I56" s="159"/>
-      <c r="J56" s="159"/>
-      <c r="K56" s="159"/>
-      <c r="L56" s="159"/>
-      <c r="M56" s="159"/>
-      <c r="N56" s="159"/>
-      <c r="O56" s="159"/>
-      <c r="P56" s="159"/>
-      <c r="Q56" s="159"/>
-      <c r="R56" s="159"/>
+      <c r="B56" s="131"/>
+      <c r="C56" s="132"/>
+      <c r="D56" s="132"/>
+      <c r="E56" s="132"/>
+      <c r="F56" s="132"/>
+      <c r="G56" s="132"/>
+      <c r="H56" s="132"/>
+      <c r="I56" s="132"/>
+      <c r="J56" s="132"/>
+      <c r="K56" s="132"/>
+      <c r="L56" s="132"/>
+      <c r="M56" s="132"/>
+      <c r="N56" s="132"/>
+      <c r="O56" s="132"/>
+      <c r="P56" s="132"/>
+      <c r="Q56" s="132"/>
+      <c r="R56" s="132"/>
       <c r="S56" s="64"/>
     </row>
     <row r="57" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7253,145 +7248,145 @@
       <c r="D57" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="E57" s="128" t="s">
-        <v>6</v>
-      </c>
-      <c r="F57" s="128"/>
-      <c r="G57" s="138" t="s">
+      <c r="E57" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="147"/>
+      <c r="G57" s="142" t="s">
         <v>142</v>
       </c>
-      <c r="H57" s="138"/>
-      <c r="I57" s="128" t="s">
-        <v>6</v>
-      </c>
-      <c r="J57" s="128"/>
-      <c r="K57" s="138" t="s">
+      <c r="H57" s="142"/>
+      <c r="I57" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="J57" s="147"/>
+      <c r="K57" s="142" t="s">
         <v>143</v>
       </c>
-      <c r="L57" s="138"/>
-      <c r="M57" s="138" t="s">
+      <c r="L57" s="142"/>
+      <c r="M57" s="142" t="s">
         <v>144</v>
       </c>
-      <c r="N57" s="138"/>
-      <c r="O57" s="138" t="s">
+      <c r="N57" s="142"/>
+      <c r="O57" s="142" t="s">
         <v>145</v>
       </c>
-      <c r="P57" s="138"/>
-      <c r="Q57" s="138" t="s">
+      <c r="P57" s="142"/>
+      <c r="Q57" s="142" t="s">
         <v>146</v>
       </c>
-      <c r="R57" s="139"/>
+      <c r="R57" s="143"/>
     </row>
     <row r="58" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="C58" s="142" t="s">
+      <c r="C58" s="136" t="s">
         <v>147</v>
       </c>
-      <c r="D58" s="140"/>
-      <c r="E58" s="140" t="s">
+      <c r="D58" s="137"/>
+      <c r="E58" s="137" t="s">
         <v>148</v>
       </c>
-      <c r="F58" s="140"/>
-      <c r="G58" s="140" t="s">
+      <c r="F58" s="137"/>
+      <c r="G58" s="137" t="s">
         <v>149</v>
       </c>
-      <c r="H58" s="140"/>
-      <c r="I58" s="140" t="s">
+      <c r="H58" s="137"/>
+      <c r="I58" s="137" t="s">
         <v>150</v>
       </c>
-      <c r="J58" s="140"/>
-      <c r="K58" s="140" t="s">
+      <c r="J58" s="137"/>
+      <c r="K58" s="137" t="s">
         <v>151</v>
       </c>
-      <c r="L58" s="140"/>
-      <c r="M58" s="140" t="s">
+      <c r="L58" s="137"/>
+      <c r="M58" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="N58" s="140"/>
-      <c r="O58" s="140" t="s">
+      <c r="N58" s="137"/>
+      <c r="O58" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="P58" s="140"/>
-      <c r="Q58" s="140" t="s">
+      <c r="P58" s="137"/>
+      <c r="Q58" s="137" t="s">
         <v>154</v>
       </c>
-      <c r="R58" s="141"/>
+      <c r="R58" s="138"/>
     </row>
     <row r="59" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="C59" s="142" t="s">
+      <c r="C59" s="136" t="s">
         <v>155</v>
       </c>
-      <c r="D59" s="140"/>
-      <c r="E59" s="140" t="s">
+      <c r="D59" s="137"/>
+      <c r="E59" s="137" t="s">
         <v>156</v>
       </c>
-      <c r="F59" s="140"/>
-      <c r="G59" s="140" t="s">
+      <c r="F59" s="137"/>
+      <c r="G59" s="137" t="s">
         <v>157</v>
       </c>
-      <c r="H59" s="140"/>
-      <c r="I59" s="140" t="s">
+      <c r="H59" s="137"/>
+      <c r="I59" s="137" t="s">
         <v>158</v>
       </c>
-      <c r="J59" s="140"/>
-      <c r="K59" s="140" t="s">
+      <c r="J59" s="137"/>
+      <c r="K59" s="137" t="s">
         <v>159</v>
       </c>
-      <c r="L59" s="140"/>
-      <c r="M59" s="140" t="s">
+      <c r="L59" s="137"/>
+      <c r="M59" s="137" t="s">
         <v>160</v>
       </c>
-      <c r="N59" s="140"/>
-      <c r="O59" s="140" t="s">
+      <c r="N59" s="137"/>
+      <c r="O59" s="137" t="s">
         <v>161</v>
       </c>
-      <c r="P59" s="140"/>
-      <c r="Q59" s="140" t="s">
+      <c r="P59" s="137"/>
+      <c r="Q59" s="137" t="s">
         <v>162</v>
       </c>
-      <c r="R59" s="141"/>
+      <c r="R59" s="138"/>
     </row>
     <row r="60" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="C60" s="142" t="s">
+      <c r="C60" s="136" t="s">
         <v>163</v>
       </c>
-      <c r="D60" s="140"/>
-      <c r="E60" s="140" t="s">
+      <c r="D60" s="137"/>
+      <c r="E60" s="137" t="s">
         <v>164</v>
       </c>
-      <c r="F60" s="140"/>
-      <c r="G60" s="140" t="s">
+      <c r="F60" s="137"/>
+      <c r="G60" s="137" t="s">
         <v>165</v>
       </c>
-      <c r="H60" s="140"/>
-      <c r="I60" s="140" t="s">
+      <c r="H60" s="137"/>
+      <c r="I60" s="137" t="s">
         <v>166</v>
       </c>
-      <c r="J60" s="140"/>
-      <c r="K60" s="140" t="s">
+      <c r="J60" s="137"/>
+      <c r="K60" s="137" t="s">
         <v>167</v>
       </c>
-      <c r="L60" s="140"/>
-      <c r="M60" s="140" t="s">
+      <c r="L60" s="137"/>
+      <c r="M60" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="N60" s="140"/>
-      <c r="O60" s="140" t="s">
+      <c r="N60" s="137"/>
+      <c r="O60" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="P60" s="140"/>
-      <c r="Q60" s="140" t="s">
+      <c r="P60" s="137"/>
+      <c r="Q60" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="R60" s="141"/>
+      <c r="R60" s="138"/>
     </row>
     <row r="61" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="36" t="s">
@@ -7403,145 +7398,145 @@
       <c r="D61" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="E61" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="F61" s="130"/>
-      <c r="G61" s="143" t="s">
+      <c r="E61" s="154" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" s="154"/>
+      <c r="G61" s="128" t="s">
         <v>142</v>
       </c>
-      <c r="H61" s="143"/>
-      <c r="I61" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="J61" s="130"/>
-      <c r="K61" s="143" t="s">
+      <c r="H61" s="128"/>
+      <c r="I61" s="154" t="s">
+        <v>6</v>
+      </c>
+      <c r="J61" s="154"/>
+      <c r="K61" s="128" t="s">
         <v>143</v>
       </c>
-      <c r="L61" s="143"/>
-      <c r="M61" s="143" t="s">
+      <c r="L61" s="128"/>
+      <c r="M61" s="128" t="s">
         <v>144</v>
       </c>
-      <c r="N61" s="143"/>
-      <c r="O61" s="143" t="s">
+      <c r="N61" s="128"/>
+      <c r="O61" s="128" t="s">
         <v>145</v>
       </c>
-      <c r="P61" s="143"/>
-      <c r="Q61" s="143" t="s">
+      <c r="P61" s="128"/>
+      <c r="Q61" s="128" t="s">
         <v>146</v>
       </c>
-      <c r="R61" s="144"/>
+      <c r="R61" s="129"/>
     </row>
     <row r="62" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="C62" s="145" t="s">
+      <c r="C62" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="D62" s="143"/>
-      <c r="E62" s="143" t="s">
+      <c r="D62" s="128"/>
+      <c r="E62" s="128" t="s">
         <v>148</v>
       </c>
-      <c r="F62" s="143"/>
-      <c r="G62" s="143" t="s">
+      <c r="F62" s="128"/>
+      <c r="G62" s="128" t="s">
         <v>149</v>
       </c>
-      <c r="H62" s="143"/>
-      <c r="I62" s="143" t="s">
+      <c r="H62" s="128"/>
+      <c r="I62" s="128" t="s">
         <v>150</v>
       </c>
-      <c r="J62" s="143"/>
-      <c r="K62" s="143" t="s">
+      <c r="J62" s="128"/>
+      <c r="K62" s="128" t="s">
         <v>151</v>
       </c>
-      <c r="L62" s="143"/>
-      <c r="M62" s="143" t="s">
+      <c r="L62" s="128"/>
+      <c r="M62" s="128" t="s">
         <v>152</v>
       </c>
-      <c r="N62" s="143"/>
-      <c r="O62" s="143" t="s">
+      <c r="N62" s="128"/>
+      <c r="O62" s="128" t="s">
         <v>153</v>
       </c>
-      <c r="P62" s="143"/>
-      <c r="Q62" s="143" t="s">
+      <c r="P62" s="128"/>
+      <c r="Q62" s="128" t="s">
         <v>154</v>
       </c>
-      <c r="R62" s="144"/>
+      <c r="R62" s="129"/>
     </row>
     <row r="63" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="C63" s="145" t="s">
+      <c r="C63" s="130" t="s">
         <v>155</v>
       </c>
-      <c r="D63" s="143"/>
-      <c r="E63" s="143" t="s">
+      <c r="D63" s="128"/>
+      <c r="E63" s="128" t="s">
         <v>156</v>
       </c>
-      <c r="F63" s="143"/>
-      <c r="G63" s="143" t="s">
+      <c r="F63" s="128"/>
+      <c r="G63" s="128" t="s">
         <v>157</v>
       </c>
-      <c r="H63" s="143"/>
-      <c r="I63" s="143" t="s">
+      <c r="H63" s="128"/>
+      <c r="I63" s="128" t="s">
         <v>158</v>
       </c>
-      <c r="J63" s="143"/>
-      <c r="K63" s="143" t="s">
+      <c r="J63" s="128"/>
+      <c r="K63" s="128" t="s">
         <v>159</v>
       </c>
-      <c r="L63" s="143"/>
-      <c r="M63" s="143" t="s">
+      <c r="L63" s="128"/>
+      <c r="M63" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="N63" s="143"/>
-      <c r="O63" s="143" t="s">
+      <c r="N63" s="128"/>
+      <c r="O63" s="128" t="s">
         <v>161</v>
       </c>
-      <c r="P63" s="143"/>
-      <c r="Q63" s="143" t="s">
+      <c r="P63" s="128"/>
+      <c r="Q63" s="128" t="s">
         <v>162</v>
       </c>
-      <c r="R63" s="144"/>
+      <c r="R63" s="129"/>
     </row>
     <row r="64" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="C64" s="145" t="s">
+      <c r="C64" s="130" t="s">
         <v>163</v>
       </c>
-      <c r="D64" s="143"/>
-      <c r="E64" s="143" t="s">
+      <c r="D64" s="128"/>
+      <c r="E64" s="128" t="s">
         <v>164</v>
       </c>
-      <c r="F64" s="143"/>
-      <c r="G64" s="143" t="s">
+      <c r="F64" s="128"/>
+      <c r="G64" s="128" t="s">
         <v>165</v>
       </c>
-      <c r="H64" s="143"/>
-      <c r="I64" s="143" t="s">
+      <c r="H64" s="128"/>
+      <c r="I64" s="128" t="s">
         <v>166</v>
       </c>
-      <c r="J64" s="143"/>
-      <c r="K64" s="143" t="s">
+      <c r="J64" s="128"/>
+      <c r="K64" s="128" t="s">
         <v>167</v>
       </c>
-      <c r="L64" s="143"/>
-      <c r="M64" s="143" t="s">
+      <c r="L64" s="128"/>
+      <c r="M64" s="128" t="s">
         <v>168</v>
       </c>
-      <c r="N64" s="143"/>
-      <c r="O64" s="143" t="s">
+      <c r="N64" s="128"/>
+      <c r="O64" s="128" t="s">
         <v>169</v>
       </c>
-      <c r="P64" s="143"/>
-      <c r="Q64" s="143" t="s">
+      <c r="P64" s="128"/>
+      <c r="Q64" s="128" t="s">
         <v>170</v>
       </c>
-      <c r="R64" s="144"/>
+      <c r="R64" s="129"/>
     </row>
     <row r="65" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="37" t="s">
@@ -7553,145 +7548,145 @@
       <c r="D65" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="E65" s="129" t="s">
-        <v>6</v>
-      </c>
-      <c r="F65" s="129"/>
-      <c r="G65" s="140" t="s">
+      <c r="E65" s="155" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" s="155"/>
+      <c r="G65" s="137" t="s">
         <v>142</v>
       </c>
-      <c r="H65" s="140"/>
-      <c r="I65" s="129" t="s">
-        <v>6</v>
-      </c>
-      <c r="J65" s="129"/>
-      <c r="K65" s="140" t="s">
+      <c r="H65" s="137"/>
+      <c r="I65" s="155" t="s">
+        <v>6</v>
+      </c>
+      <c r="J65" s="155"/>
+      <c r="K65" s="137" t="s">
         <v>143</v>
       </c>
-      <c r="L65" s="140"/>
-      <c r="M65" s="140" t="s">
+      <c r="L65" s="137"/>
+      <c r="M65" s="137" t="s">
         <v>144</v>
       </c>
-      <c r="N65" s="140"/>
-      <c r="O65" s="140" t="s">
+      <c r="N65" s="137"/>
+      <c r="O65" s="137" t="s">
         <v>145</v>
       </c>
-      <c r="P65" s="140"/>
-      <c r="Q65" s="140" t="s">
+      <c r="P65" s="137"/>
+      <c r="Q65" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="R65" s="141"/>
+      <c r="R65" s="138"/>
     </row>
     <row r="66" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="C66" s="142" t="s">
+      <c r="C66" s="136" t="s">
         <v>147</v>
       </c>
-      <c r="D66" s="140"/>
-      <c r="E66" s="140" t="s">
+      <c r="D66" s="137"/>
+      <c r="E66" s="137" t="s">
         <v>148</v>
       </c>
-      <c r="F66" s="140"/>
-      <c r="G66" s="140" t="s">
+      <c r="F66" s="137"/>
+      <c r="G66" s="137" t="s">
         <v>149</v>
       </c>
-      <c r="H66" s="140"/>
-      <c r="I66" s="140" t="s">
+      <c r="H66" s="137"/>
+      <c r="I66" s="137" t="s">
         <v>150</v>
       </c>
-      <c r="J66" s="140"/>
-      <c r="K66" s="140" t="s">
+      <c r="J66" s="137"/>
+      <c r="K66" s="137" t="s">
         <v>151</v>
       </c>
-      <c r="L66" s="140"/>
-      <c r="M66" s="140" t="s">
+      <c r="L66" s="137"/>
+      <c r="M66" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="N66" s="140"/>
-      <c r="O66" s="140" t="s">
+      <c r="N66" s="137"/>
+      <c r="O66" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="P66" s="140"/>
-      <c r="Q66" s="140" t="s">
+      <c r="P66" s="137"/>
+      <c r="Q66" s="137" t="s">
         <v>154</v>
       </c>
-      <c r="R66" s="141"/>
+      <c r="R66" s="138"/>
     </row>
     <row r="67" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="C67" s="142" t="s">
+      <c r="C67" s="136" t="s">
         <v>155</v>
       </c>
-      <c r="D67" s="140"/>
-      <c r="E67" s="140" t="s">
+      <c r="D67" s="137"/>
+      <c r="E67" s="137" t="s">
         <v>156</v>
       </c>
-      <c r="F67" s="140"/>
-      <c r="G67" s="140" t="s">
+      <c r="F67" s="137"/>
+      <c r="G67" s="137" t="s">
         <v>157</v>
       </c>
-      <c r="H67" s="140"/>
-      <c r="I67" s="140" t="s">
+      <c r="H67" s="137"/>
+      <c r="I67" s="137" t="s">
         <v>158</v>
       </c>
-      <c r="J67" s="140"/>
-      <c r="K67" s="140" t="s">
+      <c r="J67" s="137"/>
+      <c r="K67" s="137" t="s">
         <v>159</v>
       </c>
-      <c r="L67" s="140"/>
-      <c r="M67" s="140" t="s">
+      <c r="L67" s="137"/>
+      <c r="M67" s="137" t="s">
         <v>160</v>
       </c>
-      <c r="N67" s="140"/>
-      <c r="O67" s="140" t="s">
+      <c r="N67" s="137"/>
+      <c r="O67" s="137" t="s">
         <v>161</v>
       </c>
-      <c r="P67" s="140"/>
-      <c r="Q67" s="140" t="s">
+      <c r="P67" s="137"/>
+      <c r="Q67" s="137" t="s">
         <v>162</v>
       </c>
-      <c r="R67" s="141"/>
+      <c r="R67" s="138"/>
     </row>
     <row r="68" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="C68" s="142" t="s">
+      <c r="C68" s="136" t="s">
         <v>163</v>
       </c>
-      <c r="D68" s="140"/>
-      <c r="E68" s="140" t="s">
+      <c r="D68" s="137"/>
+      <c r="E68" s="137" t="s">
         <v>164</v>
       </c>
-      <c r="F68" s="140"/>
-      <c r="G68" s="140" t="s">
+      <c r="F68" s="137"/>
+      <c r="G68" s="137" t="s">
         <v>165</v>
       </c>
-      <c r="H68" s="140"/>
-      <c r="I68" s="140" t="s">
+      <c r="H68" s="137"/>
+      <c r="I68" s="137" t="s">
         <v>166</v>
       </c>
-      <c r="J68" s="140"/>
-      <c r="K68" s="140" t="s">
+      <c r="J68" s="137"/>
+      <c r="K68" s="137" t="s">
         <v>167</v>
       </c>
-      <c r="L68" s="140"/>
-      <c r="M68" s="140" t="s">
+      <c r="L68" s="137"/>
+      <c r="M68" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="N68" s="140"/>
-      <c r="O68" s="140" t="s">
+      <c r="N68" s="137"/>
+      <c r="O68" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="P68" s="140"/>
-      <c r="Q68" s="140" t="s">
+      <c r="P68" s="137"/>
+      <c r="Q68" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="R68" s="141"/>
+      <c r="R68" s="138"/>
     </row>
     <row r="69" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="37" t="s">
@@ -7703,164 +7698,164 @@
       <c r="D69" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="E69" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="F69" s="130"/>
-      <c r="G69" s="143" t="s">
+      <c r="E69" s="154" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" s="154"/>
+      <c r="G69" s="128" t="s">
         <v>142</v>
       </c>
-      <c r="H69" s="143"/>
-      <c r="I69" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="J69" s="130"/>
-      <c r="K69" s="143" t="s">
+      <c r="H69" s="128"/>
+      <c r="I69" s="154" t="s">
+        <v>6</v>
+      </c>
+      <c r="J69" s="154"/>
+      <c r="K69" s="128" t="s">
         <v>143</v>
       </c>
-      <c r="L69" s="143"/>
-      <c r="M69" s="143" t="s">
+      <c r="L69" s="128"/>
+      <c r="M69" s="128" t="s">
         <v>144</v>
       </c>
-      <c r="N69" s="143"/>
-      <c r="O69" s="143" t="s">
+      <c r="N69" s="128"/>
+      <c r="O69" s="128" t="s">
         <v>145</v>
       </c>
-      <c r="P69" s="143"/>
-      <c r="Q69" s="143" t="s">
+      <c r="P69" s="128"/>
+      <c r="Q69" s="128" t="s">
         <v>146</v>
       </c>
-      <c r="R69" s="144"/>
+      <c r="R69" s="129"/>
     </row>
     <row r="70" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="C70" s="145" t="s">
+      <c r="C70" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="D70" s="143"/>
-      <c r="E70" s="143" t="s">
+      <c r="D70" s="128"/>
+      <c r="E70" s="128" t="s">
         <v>148</v>
       </c>
-      <c r="F70" s="143"/>
-      <c r="G70" s="143" t="s">
+      <c r="F70" s="128"/>
+      <c r="G70" s="128" t="s">
         <v>149</v>
       </c>
-      <c r="H70" s="143"/>
-      <c r="I70" s="143" t="s">
+      <c r="H70" s="128"/>
+      <c r="I70" s="128" t="s">
         <v>150</v>
       </c>
-      <c r="J70" s="143"/>
-      <c r="K70" s="143" t="s">
+      <c r="J70" s="128"/>
+      <c r="K70" s="128" t="s">
         <v>151</v>
       </c>
-      <c r="L70" s="143"/>
-      <c r="M70" s="143" t="s">
+      <c r="L70" s="128"/>
+      <c r="M70" s="128" t="s">
         <v>152</v>
       </c>
-      <c r="N70" s="143"/>
-      <c r="O70" s="143" t="s">
+      <c r="N70" s="128"/>
+      <c r="O70" s="128" t="s">
         <v>153</v>
       </c>
-      <c r="P70" s="143"/>
-      <c r="Q70" s="143" t="s">
+      <c r="P70" s="128"/>
+      <c r="Q70" s="128" t="s">
         <v>154</v>
       </c>
-      <c r="R70" s="144"/>
+      <c r="R70" s="129"/>
     </row>
     <row r="71" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="C71" s="145" t="s">
+      <c r="C71" s="130" t="s">
         <v>155</v>
       </c>
-      <c r="D71" s="143"/>
-      <c r="E71" s="143" t="s">
+      <c r="D71" s="128"/>
+      <c r="E71" s="128" t="s">
         <v>156</v>
       </c>
-      <c r="F71" s="143"/>
-      <c r="G71" s="143" t="s">
+      <c r="F71" s="128"/>
+      <c r="G71" s="128" t="s">
         <v>157</v>
       </c>
-      <c r="H71" s="143"/>
-      <c r="I71" s="143" t="s">
+      <c r="H71" s="128"/>
+      <c r="I71" s="128" t="s">
         <v>158</v>
       </c>
-      <c r="J71" s="143"/>
-      <c r="K71" s="143" t="s">
+      <c r="J71" s="128"/>
+      <c r="K71" s="128" t="s">
         <v>159</v>
       </c>
-      <c r="L71" s="143"/>
-      <c r="M71" s="143" t="s">
+      <c r="L71" s="128"/>
+      <c r="M71" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="N71" s="143"/>
-      <c r="O71" s="143" t="s">
+      <c r="N71" s="128"/>
+      <c r="O71" s="128" t="s">
         <v>161</v>
       </c>
-      <c r="P71" s="143"/>
-      <c r="Q71" s="143" t="s">
+      <c r="P71" s="128"/>
+      <c r="Q71" s="128" t="s">
         <v>162</v>
       </c>
-      <c r="R71" s="144"/>
+      <c r="R71" s="129"/>
     </row>
     <row r="72" spans="2:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="C72" s="152" t="s">
+      <c r="C72" s="139" t="s">
         <v>163</v>
       </c>
-      <c r="D72" s="146"/>
-      <c r="E72" s="146" t="s">
+      <c r="D72" s="140"/>
+      <c r="E72" s="140" t="s">
         <v>164</v>
       </c>
-      <c r="F72" s="146"/>
-      <c r="G72" s="146" t="s">
+      <c r="F72" s="140"/>
+      <c r="G72" s="140" t="s">
         <v>165</v>
       </c>
-      <c r="H72" s="146"/>
-      <c r="I72" s="146" t="s">
+      <c r="H72" s="140"/>
+      <c r="I72" s="140" t="s">
         <v>166</v>
       </c>
-      <c r="J72" s="146"/>
-      <c r="K72" s="146" t="s">
+      <c r="J72" s="140"/>
+      <c r="K72" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="L72" s="146"/>
-      <c r="M72" s="146" t="s">
+      <c r="L72" s="140"/>
+      <c r="M72" s="140" t="s">
         <v>168</v>
       </c>
-      <c r="N72" s="146"/>
-      <c r="O72" s="146" t="s">
+      <c r="N72" s="140"/>
+      <c r="O72" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="P72" s="146"/>
-      <c r="Q72" s="146" t="s">
+      <c r="P72" s="140"/>
+      <c r="Q72" s="140" t="s">
         <v>170</v>
       </c>
-      <c r="R72" s="147"/>
+      <c r="R72" s="141"/>
     </row>
     <row r="73" spans="2:19" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="162"/>
-      <c r="C73" s="159"/>
-      <c r="D73" s="159"/>
-      <c r="E73" s="159"/>
-      <c r="F73" s="159"/>
-      <c r="G73" s="159"/>
-      <c r="H73" s="159"/>
-      <c r="I73" s="159"/>
-      <c r="J73" s="159"/>
-      <c r="K73" s="159"/>
-      <c r="L73" s="159"/>
-      <c r="M73" s="159"/>
-      <c r="N73" s="159"/>
-      <c r="O73" s="159"/>
-      <c r="P73" s="159"/>
-      <c r="Q73" s="159"/>
-      <c r="R73" s="159"/>
+      <c r="B73" s="135"/>
+      <c r="C73" s="132"/>
+      <c r="D73" s="132"/>
+      <c r="E73" s="132"/>
+      <c r="F73" s="132"/>
+      <c r="G73" s="132"/>
+      <c r="H73" s="132"/>
+      <c r="I73" s="132"/>
+      <c r="J73" s="132"/>
+      <c r="K73" s="132"/>
+      <c r="L73" s="132"/>
+      <c r="M73" s="132"/>
+      <c r="N73" s="132"/>
+      <c r="O73" s="132"/>
+      <c r="P73" s="132"/>
+      <c r="Q73" s="132"/>
+      <c r="R73" s="132"/>
       <c r="S73" s="64"/>
     </row>
     <row r="74" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7873,145 +7868,145 @@
       <c r="D74" s="69" t="s">
         <v>171</v>
       </c>
-      <c r="E74" s="128" t="s">
-        <v>6</v>
-      </c>
-      <c r="F74" s="128"/>
-      <c r="G74" s="138" t="s">
+      <c r="E74" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74" s="147"/>
+      <c r="G74" s="142" t="s">
         <v>142</v>
       </c>
-      <c r="H74" s="138"/>
-      <c r="I74" s="128" t="s">
-        <v>6</v>
-      </c>
-      <c r="J74" s="128"/>
-      <c r="K74" s="138" t="s">
+      <c r="H74" s="142"/>
+      <c r="I74" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="J74" s="147"/>
+      <c r="K74" s="142" t="s">
         <v>143</v>
       </c>
-      <c r="L74" s="138"/>
-      <c r="M74" s="138" t="s">
+      <c r="L74" s="142"/>
+      <c r="M74" s="142" t="s">
         <v>144</v>
       </c>
-      <c r="N74" s="138"/>
-      <c r="O74" s="138" t="s">
+      <c r="N74" s="142"/>
+      <c r="O74" s="142" t="s">
         <v>145</v>
       </c>
-      <c r="P74" s="138"/>
-      <c r="Q74" s="138" t="s">
+      <c r="P74" s="142"/>
+      <c r="Q74" s="142" t="s">
         <v>146</v>
       </c>
-      <c r="R74" s="139"/>
+      <c r="R74" s="143"/>
     </row>
     <row r="75" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="C75" s="142" t="s">
+      <c r="C75" s="136" t="s">
         <v>147</v>
       </c>
-      <c r="D75" s="140"/>
-      <c r="E75" s="140" t="s">
+      <c r="D75" s="137"/>
+      <c r="E75" s="137" t="s">
         <v>148</v>
       </c>
-      <c r="F75" s="140"/>
-      <c r="G75" s="140" t="s">
+      <c r="F75" s="137"/>
+      <c r="G75" s="137" t="s">
         <v>149</v>
       </c>
-      <c r="H75" s="140"/>
-      <c r="I75" s="140" t="s">
+      <c r="H75" s="137"/>
+      <c r="I75" s="137" t="s">
         <v>150</v>
       </c>
-      <c r="J75" s="140"/>
-      <c r="K75" s="140" t="s">
+      <c r="J75" s="137"/>
+      <c r="K75" s="137" t="s">
         <v>151</v>
       </c>
-      <c r="L75" s="140"/>
-      <c r="M75" s="140" t="s">
+      <c r="L75" s="137"/>
+      <c r="M75" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="N75" s="140"/>
-      <c r="O75" s="140" t="s">
+      <c r="N75" s="137"/>
+      <c r="O75" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="P75" s="140"/>
-      <c r="Q75" s="140" t="s">
+      <c r="P75" s="137"/>
+      <c r="Q75" s="137" t="s">
         <v>154</v>
       </c>
-      <c r="R75" s="141"/>
+      <c r="R75" s="138"/>
     </row>
     <row r="76" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="C76" s="142" t="s">
+      <c r="C76" s="136" t="s">
         <v>155</v>
       </c>
-      <c r="D76" s="140"/>
-      <c r="E76" s="140" t="s">
+      <c r="D76" s="137"/>
+      <c r="E76" s="137" t="s">
         <v>156</v>
       </c>
-      <c r="F76" s="140"/>
-      <c r="G76" s="140" t="s">
+      <c r="F76" s="137"/>
+      <c r="G76" s="137" t="s">
         <v>157</v>
       </c>
-      <c r="H76" s="140"/>
-      <c r="I76" s="140" t="s">
+      <c r="H76" s="137"/>
+      <c r="I76" s="137" t="s">
         <v>158</v>
       </c>
-      <c r="J76" s="140"/>
-      <c r="K76" s="140" t="s">
+      <c r="J76" s="137"/>
+      <c r="K76" s="137" t="s">
         <v>159</v>
       </c>
-      <c r="L76" s="140"/>
-      <c r="M76" s="140" t="s">
+      <c r="L76" s="137"/>
+      <c r="M76" s="137" t="s">
         <v>160</v>
       </c>
-      <c r="N76" s="140"/>
-      <c r="O76" s="140" t="s">
+      <c r="N76" s="137"/>
+      <c r="O76" s="137" t="s">
         <v>161</v>
       </c>
-      <c r="P76" s="140"/>
-      <c r="Q76" s="140" t="s">
+      <c r="P76" s="137"/>
+      <c r="Q76" s="137" t="s">
         <v>162</v>
       </c>
-      <c r="R76" s="141"/>
+      <c r="R76" s="138"/>
     </row>
     <row r="77" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="C77" s="142" t="s">
+      <c r="C77" s="136" t="s">
         <v>163</v>
       </c>
-      <c r="D77" s="140"/>
-      <c r="E77" s="140" t="s">
+      <c r="D77" s="137"/>
+      <c r="E77" s="137" t="s">
         <v>164</v>
       </c>
-      <c r="F77" s="140"/>
-      <c r="G77" s="140" t="s">
+      <c r="F77" s="137"/>
+      <c r="G77" s="137" t="s">
         <v>165</v>
       </c>
-      <c r="H77" s="140"/>
-      <c r="I77" s="140" t="s">
+      <c r="H77" s="137"/>
+      <c r="I77" s="137" t="s">
         <v>166</v>
       </c>
-      <c r="J77" s="140"/>
-      <c r="K77" s="140" t="s">
+      <c r="J77" s="137"/>
+      <c r="K77" s="137" t="s">
         <v>167</v>
       </c>
-      <c r="L77" s="140"/>
-      <c r="M77" s="140" t="s">
+      <c r="L77" s="137"/>
+      <c r="M77" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="N77" s="140"/>
-      <c r="O77" s="140" t="s">
+      <c r="N77" s="137"/>
+      <c r="O77" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="P77" s="140"/>
-      <c r="Q77" s="140" t="s">
+      <c r="P77" s="137"/>
+      <c r="Q77" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="R77" s="141"/>
+      <c r="R77" s="138"/>
     </row>
     <row r="78" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="36" t="s">
@@ -8023,145 +8018,145 @@
       <c r="D78" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="E78" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="F78" s="130"/>
-      <c r="G78" s="143" t="s">
+      <c r="E78" s="154" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" s="154"/>
+      <c r="G78" s="128" t="s">
         <v>142</v>
       </c>
-      <c r="H78" s="143"/>
-      <c r="I78" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="J78" s="130"/>
-      <c r="K78" s="143" t="s">
+      <c r="H78" s="128"/>
+      <c r="I78" s="154" t="s">
+        <v>6</v>
+      </c>
+      <c r="J78" s="154"/>
+      <c r="K78" s="128" t="s">
         <v>143</v>
       </c>
-      <c r="L78" s="143"/>
-      <c r="M78" s="143" t="s">
+      <c r="L78" s="128"/>
+      <c r="M78" s="128" t="s">
         <v>144</v>
       </c>
-      <c r="N78" s="143"/>
-      <c r="O78" s="143" t="s">
+      <c r="N78" s="128"/>
+      <c r="O78" s="128" t="s">
         <v>145</v>
       </c>
-      <c r="P78" s="143"/>
-      <c r="Q78" s="143" t="s">
+      <c r="P78" s="128"/>
+      <c r="Q78" s="128" t="s">
         <v>146</v>
       </c>
-      <c r="R78" s="144"/>
+      <c r="R78" s="129"/>
     </row>
     <row r="79" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="C79" s="145" t="s">
+      <c r="C79" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="D79" s="143"/>
-      <c r="E79" s="143" t="s">
+      <c r="D79" s="128"/>
+      <c r="E79" s="128" t="s">
         <v>148</v>
       </c>
-      <c r="F79" s="143"/>
-      <c r="G79" s="143" t="s">
+      <c r="F79" s="128"/>
+      <c r="G79" s="128" t="s">
         <v>149</v>
       </c>
-      <c r="H79" s="143"/>
-      <c r="I79" s="143" t="s">
+      <c r="H79" s="128"/>
+      <c r="I79" s="128" t="s">
         <v>150</v>
       </c>
-      <c r="J79" s="143"/>
-      <c r="K79" s="143" t="s">
+      <c r="J79" s="128"/>
+      <c r="K79" s="128" t="s">
         <v>151</v>
       </c>
-      <c r="L79" s="143"/>
-      <c r="M79" s="143" t="s">
+      <c r="L79" s="128"/>
+      <c r="M79" s="128" t="s">
         <v>152</v>
       </c>
-      <c r="N79" s="143"/>
-      <c r="O79" s="143" t="s">
+      <c r="N79" s="128"/>
+      <c r="O79" s="128" t="s">
         <v>153</v>
       </c>
-      <c r="P79" s="143"/>
-      <c r="Q79" s="143" t="s">
+      <c r="P79" s="128"/>
+      <c r="Q79" s="128" t="s">
         <v>154</v>
       </c>
-      <c r="R79" s="144"/>
+      <c r="R79" s="129"/>
     </row>
     <row r="80" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="C80" s="145" t="s">
+      <c r="C80" s="130" t="s">
         <v>155</v>
       </c>
-      <c r="D80" s="143"/>
-      <c r="E80" s="143" t="s">
+      <c r="D80" s="128"/>
+      <c r="E80" s="128" t="s">
         <v>156</v>
       </c>
-      <c r="F80" s="143"/>
-      <c r="G80" s="143" t="s">
+      <c r="F80" s="128"/>
+      <c r="G80" s="128" t="s">
         <v>157</v>
       </c>
-      <c r="H80" s="143"/>
-      <c r="I80" s="143" t="s">
+      <c r="H80" s="128"/>
+      <c r="I80" s="128" t="s">
         <v>158</v>
       </c>
-      <c r="J80" s="143"/>
-      <c r="K80" s="143" t="s">
+      <c r="J80" s="128"/>
+      <c r="K80" s="128" t="s">
         <v>159</v>
       </c>
-      <c r="L80" s="143"/>
-      <c r="M80" s="143" t="s">
+      <c r="L80" s="128"/>
+      <c r="M80" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="N80" s="143"/>
-      <c r="O80" s="143" t="s">
+      <c r="N80" s="128"/>
+      <c r="O80" s="128" t="s">
         <v>161</v>
       </c>
-      <c r="P80" s="143"/>
-      <c r="Q80" s="143" t="s">
+      <c r="P80" s="128"/>
+      <c r="Q80" s="128" t="s">
         <v>162</v>
       </c>
-      <c r="R80" s="144"/>
+      <c r="R80" s="129"/>
     </row>
     <row r="81" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="C81" s="145" t="s">
+      <c r="C81" s="130" t="s">
         <v>163</v>
       </c>
-      <c r="D81" s="143"/>
-      <c r="E81" s="143" t="s">
+      <c r="D81" s="128"/>
+      <c r="E81" s="128" t="s">
         <v>164</v>
       </c>
-      <c r="F81" s="143"/>
-      <c r="G81" s="143" t="s">
+      <c r="F81" s="128"/>
+      <c r="G81" s="128" t="s">
         <v>165</v>
       </c>
-      <c r="H81" s="143"/>
-      <c r="I81" s="143" t="s">
+      <c r="H81" s="128"/>
+      <c r="I81" s="128" t="s">
         <v>166</v>
       </c>
-      <c r="J81" s="143"/>
-      <c r="K81" s="143" t="s">
+      <c r="J81" s="128"/>
+      <c r="K81" s="128" t="s">
         <v>167</v>
       </c>
-      <c r="L81" s="143"/>
-      <c r="M81" s="143" t="s">
+      <c r="L81" s="128"/>
+      <c r="M81" s="128" t="s">
         <v>168</v>
       </c>
-      <c r="N81" s="143"/>
-      <c r="O81" s="143" t="s">
+      <c r="N81" s="128"/>
+      <c r="O81" s="128" t="s">
         <v>169</v>
       </c>
-      <c r="P81" s="143"/>
-      <c r="Q81" s="143" t="s">
+      <c r="P81" s="128"/>
+      <c r="Q81" s="128" t="s">
         <v>170</v>
       </c>
-      <c r="R81" s="144"/>
+      <c r="R81" s="129"/>
     </row>
     <row r="82" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="37" t="s">
@@ -8332,411 +8327,942 @@
       <c r="R89" s="75"/>
     </row>
     <row r="91" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B91" s="131" t="s">
+      <c r="B91" s="162" t="s">
         <v>229</v>
       </c>
-      <c r="C91" s="131"/>
-      <c r="D91" s="131">
+      <c r="C91" s="162"/>
+      <c r="D91" s="162">
         <v>7</v>
       </c>
-      <c r="E91" s="131"/>
-      <c r="F91" s="131">
-        <v>6</v>
-      </c>
-      <c r="G91" s="131"/>
-      <c r="H91" s="131">
+      <c r="E91" s="162"/>
+      <c r="F91" s="162">
+        <v>6</v>
+      </c>
+      <c r="G91" s="162"/>
+      <c r="H91" s="162">
         <v>5</v>
       </c>
-      <c r="I91" s="131"/>
-      <c r="J91" s="131">
+      <c r="I91" s="162"/>
+      <c r="J91" s="162">
         <v>4</v>
       </c>
-      <c r="K91" s="131"/>
-      <c r="L91" s="131">
+      <c r="K91" s="162"/>
+      <c r="L91" s="162">
         <v>3</v>
       </c>
-      <c r="M91" s="131"/>
-      <c r="N91" s="131">
+      <c r="M91" s="162"/>
+      <c r="N91" s="162">
         <v>2</v>
       </c>
-      <c r="O91" s="131"/>
-      <c r="P91" s="131">
+      <c r="O91" s="162"/>
+      <c r="P91" s="162">
         <v>1</v>
       </c>
-      <c r="Q91" s="131"/>
-      <c r="R91" s="131">
+      <c r="Q91" s="162"/>
+      <c r="R91" s="162">
         <v>0</v>
       </c>
-      <c r="S91" s="131"/>
+      <c r="S91" s="162"/>
     </row>
     <row r="92" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="148" t="s">
+      <c r="B92" s="150" t="s">
         <v>228</v>
       </c>
-      <c r="C92" s="149"/>
-      <c r="D92" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="E92" s="90"/>
-      <c r="F92" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="G92" s="90"/>
-      <c r="H92" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="I92" s="90"/>
-      <c r="J92" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="K92" s="90"/>
-      <c r="L92" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="M92" s="90"/>
-      <c r="N92" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="O92" s="90"/>
-      <c r="P92" s="132" t="s">
+      <c r="C92" s="151"/>
+      <c r="D92" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" s="99"/>
+      <c r="F92" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="G92" s="99"/>
+      <c r="H92" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="I92" s="99"/>
+      <c r="J92" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="K92" s="99"/>
+      <c r="L92" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="M92" s="99"/>
+      <c r="N92" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="O92" s="99"/>
+      <c r="P92" s="156" t="s">
         <v>230</v>
       </c>
-      <c r="Q92" s="133"/>
-      <c r="R92" s="132" t="s">
+      <c r="Q92" s="157"/>
+      <c r="R92" s="156" t="s">
         <v>231</v>
       </c>
-      <c r="S92" s="133"/>
+      <c r="S92" s="157"/>
     </row>
     <row r="93" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="148"/>
-      <c r="C93" s="149"/>
-      <c r="D93" s="90"/>
-      <c r="E93" s="90"/>
-      <c r="F93" s="90"/>
-      <c r="G93" s="90"/>
-      <c r="H93" s="90"/>
-      <c r="I93" s="90"/>
-      <c r="J93" s="90"/>
-      <c r="K93" s="90"/>
-      <c r="L93" s="90"/>
-      <c r="M93" s="90"/>
-      <c r="N93" s="90"/>
-      <c r="O93" s="90"/>
-      <c r="P93" s="134"/>
-      <c r="Q93" s="135"/>
-      <c r="R93" s="134"/>
-      <c r="S93" s="135"/>
+      <c r="B93" s="150"/>
+      <c r="C93" s="151"/>
+      <c r="D93" s="99"/>
+      <c r="E93" s="99"/>
+      <c r="F93" s="99"/>
+      <c r="G93" s="99"/>
+      <c r="H93" s="99"/>
+      <c r="I93" s="99"/>
+      <c r="J93" s="99"/>
+      <c r="K93" s="99"/>
+      <c r="L93" s="99"/>
+      <c r="M93" s="99"/>
+      <c r="N93" s="99"/>
+      <c r="O93" s="99"/>
+      <c r="P93" s="158"/>
+      <c r="Q93" s="159"/>
+      <c r="R93" s="158"/>
+      <c r="S93" s="159"/>
     </row>
     <row r="94" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="148"/>
-      <c r="C94" s="149"/>
-      <c r="D94" s="90"/>
-      <c r="E94" s="90"/>
-      <c r="F94" s="90"/>
-      <c r="G94" s="90"/>
-      <c r="H94" s="90"/>
-      <c r="I94" s="90"/>
-      <c r="J94" s="90"/>
-      <c r="K94" s="90"/>
-      <c r="L94" s="90"/>
-      <c r="M94" s="90"/>
-      <c r="N94" s="90"/>
-      <c r="O94" s="90"/>
-      <c r="P94" s="134"/>
-      <c r="Q94" s="135"/>
-      <c r="R94" s="134"/>
-      <c r="S94" s="135"/>
+      <c r="B94" s="150"/>
+      <c r="C94" s="151"/>
+      <c r="D94" s="99"/>
+      <c r="E94" s="99"/>
+      <c r="F94" s="99"/>
+      <c r="G94" s="99"/>
+      <c r="H94" s="99"/>
+      <c r="I94" s="99"/>
+      <c r="J94" s="99"/>
+      <c r="K94" s="99"/>
+      <c r="L94" s="99"/>
+      <c r="M94" s="99"/>
+      <c r="N94" s="99"/>
+      <c r="O94" s="99"/>
+      <c r="P94" s="158"/>
+      <c r="Q94" s="159"/>
+      <c r="R94" s="158"/>
+      <c r="S94" s="159"/>
     </row>
     <row r="95" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="150"/>
-      <c r="C95" s="151"/>
-      <c r="D95" s="90"/>
-      <c r="E95" s="90"/>
-      <c r="F95" s="90"/>
-      <c r="G95" s="90"/>
-      <c r="H95" s="90"/>
-      <c r="I95" s="90"/>
-      <c r="J95" s="90"/>
-      <c r="K95" s="90"/>
-      <c r="L95" s="90"/>
-      <c r="M95" s="90"/>
-      <c r="N95" s="90"/>
-      <c r="O95" s="90"/>
-      <c r="P95" s="136"/>
-      <c r="Q95" s="137"/>
-      <c r="R95" s="136"/>
-      <c r="S95" s="137"/>
+      <c r="B95" s="152"/>
+      <c r="C95" s="153"/>
+      <c r="D95" s="99"/>
+      <c r="E95" s="99"/>
+      <c r="F95" s="99"/>
+      <c r="G95" s="99"/>
+      <c r="H95" s="99"/>
+      <c r="I95" s="99"/>
+      <c r="J95" s="99"/>
+      <c r="K95" s="99"/>
+      <c r="L95" s="99"/>
+      <c r="M95" s="99"/>
+      <c r="N95" s="99"/>
+      <c r="O95" s="99"/>
+      <c r="P95" s="160"/>
+      <c r="Q95" s="161"/>
+      <c r="R95" s="160"/>
+      <c r="S95" s="161"/>
     </row>
     <row r="96" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="153" t="s">
+      <c r="B96" s="144" t="s">
         <v>172</v>
       </c>
-      <c r="C96" s="154"/>
-      <c r="D96" s="155" t="s">
+      <c r="C96" s="145"/>
+      <c r="D96" s="146" t="s">
         <v>173</v>
       </c>
-      <c r="E96" s="155"/>
-      <c r="F96" s="155"/>
-      <c r="G96" s="155"/>
-      <c r="H96" s="155"/>
-      <c r="I96" s="155"/>
-      <c r="J96" s="155"/>
-      <c r="K96" s="155"/>
-      <c r="L96" s="155"/>
-      <c r="M96" s="155"/>
-      <c r="N96" s="155"/>
-      <c r="O96" s="155"/>
-      <c r="P96" s="155"/>
-      <c r="Q96" s="155"/>
-      <c r="R96" s="155"/>
-      <c r="S96" s="155"/>
+      <c r="E96" s="146"/>
+      <c r="F96" s="146"/>
+      <c r="G96" s="146"/>
+      <c r="H96" s="146"/>
+      <c r="I96" s="146"/>
+      <c r="J96" s="146"/>
+      <c r="K96" s="146"/>
+      <c r="L96" s="146"/>
+      <c r="M96" s="146"/>
+      <c r="N96" s="146"/>
+      <c r="O96" s="146"/>
+      <c r="P96" s="146"/>
+      <c r="Q96" s="146"/>
+      <c r="R96" s="146"/>
+      <c r="S96" s="146"/>
     </row>
     <row r="97" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="154"/>
-      <c r="C97" s="154"/>
-      <c r="D97" s="155"/>
-      <c r="E97" s="155"/>
-      <c r="F97" s="155"/>
-      <c r="G97" s="155"/>
-      <c r="H97" s="155"/>
-      <c r="I97" s="155"/>
-      <c r="J97" s="155"/>
-      <c r="K97" s="155"/>
-      <c r="L97" s="155"/>
-      <c r="M97" s="155"/>
-      <c r="N97" s="155"/>
-      <c r="O97" s="155"/>
-      <c r="P97" s="155"/>
-      <c r="Q97" s="155"/>
-      <c r="R97" s="155"/>
-      <c r="S97" s="155"/>
+      <c r="B97" s="145"/>
+      <c r="C97" s="145"/>
+      <c r="D97" s="146"/>
+      <c r="E97" s="146"/>
+      <c r="F97" s="146"/>
+      <c r="G97" s="146"/>
+      <c r="H97" s="146"/>
+      <c r="I97" s="146"/>
+      <c r="J97" s="146"/>
+      <c r="K97" s="146"/>
+      <c r="L97" s="146"/>
+      <c r="M97" s="146"/>
+      <c r="N97" s="146"/>
+      <c r="O97" s="146"/>
+      <c r="P97" s="146"/>
+      <c r="Q97" s="146"/>
+      <c r="R97" s="146"/>
+      <c r="S97" s="146"/>
     </row>
     <row r="98" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="154"/>
-      <c r="C98" s="154"/>
-      <c r="D98" s="155"/>
-      <c r="E98" s="155"/>
-      <c r="F98" s="155"/>
-      <c r="G98" s="155"/>
-      <c r="H98" s="155"/>
-      <c r="I98" s="155"/>
-      <c r="J98" s="155"/>
-      <c r="K98" s="155"/>
-      <c r="L98" s="155"/>
-      <c r="M98" s="155"/>
-      <c r="N98" s="155"/>
-      <c r="O98" s="155"/>
-      <c r="P98" s="155"/>
-      <c r="Q98" s="155"/>
-      <c r="R98" s="155"/>
-      <c r="S98" s="155"/>
+      <c r="B98" s="145"/>
+      <c r="C98" s="145"/>
+      <c r="D98" s="146"/>
+      <c r="E98" s="146"/>
+      <c r="F98" s="146"/>
+      <c r="G98" s="146"/>
+      <c r="H98" s="146"/>
+      <c r="I98" s="146"/>
+      <c r="J98" s="146"/>
+      <c r="K98" s="146"/>
+      <c r="L98" s="146"/>
+      <c r="M98" s="146"/>
+      <c r="N98" s="146"/>
+      <c r="O98" s="146"/>
+      <c r="P98" s="146"/>
+      <c r="Q98" s="146"/>
+      <c r="R98" s="146"/>
+      <c r="S98" s="146"/>
     </row>
     <row r="99" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="154"/>
-      <c r="C99" s="154"/>
-      <c r="D99" s="155"/>
-      <c r="E99" s="155"/>
-      <c r="F99" s="155"/>
-      <c r="G99" s="155"/>
-      <c r="H99" s="155"/>
-      <c r="I99" s="155"/>
-      <c r="J99" s="155"/>
-      <c r="K99" s="155"/>
-      <c r="L99" s="155"/>
-      <c r="M99" s="155"/>
-      <c r="N99" s="155"/>
-      <c r="O99" s="155"/>
-      <c r="P99" s="155"/>
-      <c r="Q99" s="155"/>
-      <c r="R99" s="155"/>
-      <c r="S99" s="155"/>
+      <c r="B99" s="145"/>
+      <c r="C99" s="145"/>
+      <c r="D99" s="146"/>
+      <c r="E99" s="146"/>
+      <c r="F99" s="146"/>
+      <c r="G99" s="146"/>
+      <c r="H99" s="146"/>
+      <c r="I99" s="146"/>
+      <c r="J99" s="146"/>
+      <c r="K99" s="146"/>
+      <c r="L99" s="146"/>
+      <c r="M99" s="146"/>
+      <c r="N99" s="146"/>
+      <c r="O99" s="146"/>
+      <c r="P99" s="146"/>
+      <c r="Q99" s="146"/>
+      <c r="R99" s="146"/>
+      <c r="S99" s="146"/>
     </row>
     <row r="100" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="156" t="s">
+      <c r="B100" s="148" t="s">
         <v>174</v>
       </c>
-      <c r="C100" s="157"/>
-      <c r="D100" s="155" t="s">
+      <c r="C100" s="149"/>
+      <c r="D100" s="146" t="s">
         <v>175</v>
       </c>
-      <c r="E100" s="155"/>
-      <c r="F100" s="155"/>
-      <c r="G100" s="155"/>
-      <c r="H100" s="155"/>
-      <c r="I100" s="155"/>
-      <c r="J100" s="155"/>
-      <c r="K100" s="155"/>
-      <c r="L100" s="155"/>
-      <c r="M100" s="155"/>
-      <c r="N100" s="155"/>
-      <c r="O100" s="155"/>
-      <c r="P100" s="155"/>
-      <c r="Q100" s="155"/>
-      <c r="R100" s="155"/>
-      <c r="S100" s="155"/>
+      <c r="E100" s="146"/>
+      <c r="F100" s="146"/>
+      <c r="G100" s="146"/>
+      <c r="H100" s="146"/>
+      <c r="I100" s="146"/>
+      <c r="J100" s="146"/>
+      <c r="K100" s="146"/>
+      <c r="L100" s="146"/>
+      <c r="M100" s="146"/>
+      <c r="N100" s="146"/>
+      <c r="O100" s="146"/>
+      <c r="P100" s="146"/>
+      <c r="Q100" s="146"/>
+      <c r="R100" s="146"/>
+      <c r="S100" s="146"/>
     </row>
     <row r="101" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="157"/>
-      <c r="C101" s="157"/>
-      <c r="D101" s="155"/>
-      <c r="E101" s="155"/>
-      <c r="F101" s="155"/>
-      <c r="G101" s="155"/>
-      <c r="H101" s="155"/>
-      <c r="I101" s="155"/>
-      <c r="J101" s="155"/>
-      <c r="K101" s="155"/>
-      <c r="L101" s="155"/>
-      <c r="M101" s="155"/>
-      <c r="N101" s="155"/>
-      <c r="O101" s="155"/>
-      <c r="P101" s="155"/>
-      <c r="Q101" s="155"/>
-      <c r="R101" s="155"/>
-      <c r="S101" s="155"/>
+      <c r="B101" s="149"/>
+      <c r="C101" s="149"/>
+      <c r="D101" s="146"/>
+      <c r="E101" s="146"/>
+      <c r="F101" s="146"/>
+      <c r="G101" s="146"/>
+      <c r="H101" s="146"/>
+      <c r="I101" s="146"/>
+      <c r="J101" s="146"/>
+      <c r="K101" s="146"/>
+      <c r="L101" s="146"/>
+      <c r="M101" s="146"/>
+      <c r="N101" s="146"/>
+      <c r="O101" s="146"/>
+      <c r="P101" s="146"/>
+      <c r="Q101" s="146"/>
+      <c r="R101" s="146"/>
+      <c r="S101" s="146"/>
     </row>
     <row r="102" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="157"/>
-      <c r="C102" s="157"/>
-      <c r="D102" s="155"/>
-      <c r="E102" s="155"/>
-      <c r="F102" s="155"/>
-      <c r="G102" s="155"/>
-      <c r="H102" s="155"/>
-      <c r="I102" s="155"/>
-      <c r="J102" s="155"/>
-      <c r="K102" s="155"/>
-      <c r="L102" s="155"/>
-      <c r="M102" s="155"/>
-      <c r="N102" s="155"/>
-      <c r="O102" s="155"/>
-      <c r="P102" s="155"/>
-      <c r="Q102" s="155"/>
-      <c r="R102" s="155"/>
-      <c r="S102" s="155"/>
+      <c r="B102" s="149"/>
+      <c r="C102" s="149"/>
+      <c r="D102" s="146"/>
+      <c r="E102" s="146"/>
+      <c r="F102" s="146"/>
+      <c r="G102" s="146"/>
+      <c r="H102" s="146"/>
+      <c r="I102" s="146"/>
+      <c r="J102" s="146"/>
+      <c r="K102" s="146"/>
+      <c r="L102" s="146"/>
+      <c r="M102" s="146"/>
+      <c r="N102" s="146"/>
+      <c r="O102" s="146"/>
+      <c r="P102" s="146"/>
+      <c r="Q102" s="146"/>
+      <c r="R102" s="146"/>
+      <c r="S102" s="146"/>
     </row>
     <row r="103" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="157"/>
-      <c r="C103" s="157"/>
-      <c r="D103" s="155"/>
-      <c r="E103" s="155"/>
-      <c r="F103" s="155"/>
-      <c r="G103" s="155"/>
-      <c r="H103" s="155"/>
-      <c r="I103" s="155"/>
-      <c r="J103" s="155"/>
-      <c r="K103" s="155"/>
-      <c r="L103" s="155"/>
-      <c r="M103" s="155"/>
-      <c r="N103" s="155"/>
-      <c r="O103" s="155"/>
-      <c r="P103" s="155"/>
-      <c r="Q103" s="155"/>
-      <c r="R103" s="155"/>
-      <c r="S103" s="155"/>
+      <c r="B103" s="149"/>
+      <c r="C103" s="149"/>
+      <c r="D103" s="146"/>
+      <c r="E103" s="146"/>
+      <c r="F103" s="146"/>
+      <c r="G103" s="146"/>
+      <c r="H103" s="146"/>
+      <c r="I103" s="146"/>
+      <c r="J103" s="146"/>
+      <c r="K103" s="146"/>
+      <c r="L103" s="146"/>
+      <c r="M103" s="146"/>
+      <c r="N103" s="146"/>
+      <c r="O103" s="146"/>
+      <c r="P103" s="146"/>
+      <c r="Q103" s="146"/>
+      <c r="R103" s="146"/>
+      <c r="S103" s="146"/>
     </row>
     <row r="104" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="153" t="s">
+      <c r="B104" s="144" t="s">
         <v>176</v>
       </c>
-      <c r="C104" s="154"/>
-      <c r="D104" s="155" t="s">
+      <c r="C104" s="145"/>
+      <c r="D104" s="146" t="s">
         <v>177</v>
       </c>
-      <c r="E104" s="155"/>
-      <c r="F104" s="155"/>
-      <c r="G104" s="155"/>
-      <c r="H104" s="155"/>
-      <c r="I104" s="155"/>
-      <c r="J104" s="155"/>
-      <c r="K104" s="155"/>
-      <c r="L104" s="155"/>
-      <c r="M104" s="155"/>
-      <c r="N104" s="155"/>
-      <c r="O104" s="155"/>
-      <c r="P104" s="155"/>
-      <c r="Q104" s="155"/>
-      <c r="R104" s="155"/>
-      <c r="S104" s="155"/>
+      <c r="E104" s="146"/>
+      <c r="F104" s="146"/>
+      <c r="G104" s="146"/>
+      <c r="H104" s="146"/>
+      <c r="I104" s="146"/>
+      <c r="J104" s="146"/>
+      <c r="K104" s="146"/>
+      <c r="L104" s="146"/>
+      <c r="M104" s="146"/>
+      <c r="N104" s="146"/>
+      <c r="O104" s="146"/>
+      <c r="P104" s="146"/>
+      <c r="Q104" s="146"/>
+      <c r="R104" s="146"/>
+      <c r="S104" s="146"/>
     </row>
     <row r="105" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="154"/>
-      <c r="C105" s="154"/>
-      <c r="D105" s="155"/>
-      <c r="E105" s="155"/>
-      <c r="F105" s="155"/>
-      <c r="G105" s="155"/>
-      <c r="H105" s="155"/>
-      <c r="I105" s="155"/>
-      <c r="J105" s="155"/>
-      <c r="K105" s="155"/>
-      <c r="L105" s="155"/>
-      <c r="M105" s="155"/>
-      <c r="N105" s="155"/>
-      <c r="O105" s="155"/>
-      <c r="P105" s="155"/>
-      <c r="Q105" s="155"/>
-      <c r="R105" s="155"/>
-      <c r="S105" s="155"/>
+      <c r="B105" s="145"/>
+      <c r="C105" s="145"/>
+      <c r="D105" s="146"/>
+      <c r="E105" s="146"/>
+      <c r="F105" s="146"/>
+      <c r="G105" s="146"/>
+      <c r="H105" s="146"/>
+      <c r="I105" s="146"/>
+      <c r="J105" s="146"/>
+      <c r="K105" s="146"/>
+      <c r="L105" s="146"/>
+      <c r="M105" s="146"/>
+      <c r="N105" s="146"/>
+      <c r="O105" s="146"/>
+      <c r="P105" s="146"/>
+      <c r="Q105" s="146"/>
+      <c r="R105" s="146"/>
+      <c r="S105" s="146"/>
     </row>
     <row r="106" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="154"/>
-      <c r="C106" s="154"/>
-      <c r="D106" s="155"/>
-      <c r="E106" s="155"/>
-      <c r="F106" s="155"/>
-      <c r="G106" s="155"/>
-      <c r="H106" s="155"/>
-      <c r="I106" s="155"/>
-      <c r="J106" s="155"/>
-      <c r="K106" s="155"/>
-      <c r="L106" s="155"/>
-      <c r="M106" s="155"/>
-      <c r="N106" s="155"/>
-      <c r="O106" s="155"/>
-      <c r="P106" s="155"/>
-      <c r="Q106" s="155"/>
-      <c r="R106" s="155"/>
-      <c r="S106" s="155"/>
+      <c r="B106" s="145"/>
+      <c r="C106" s="145"/>
+      <c r="D106" s="146"/>
+      <c r="E106" s="146"/>
+      <c r="F106" s="146"/>
+      <c r="G106" s="146"/>
+      <c r="H106" s="146"/>
+      <c r="I106" s="146"/>
+      <c r="J106" s="146"/>
+      <c r="K106" s="146"/>
+      <c r="L106" s="146"/>
+      <c r="M106" s="146"/>
+      <c r="N106" s="146"/>
+      <c r="O106" s="146"/>
+      <c r="P106" s="146"/>
+      <c r="Q106" s="146"/>
+      <c r="R106" s="146"/>
+      <c r="S106" s="146"/>
     </row>
     <row r="107" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="154"/>
-      <c r="C107" s="154"/>
-      <c r="D107" s="155"/>
-      <c r="E107" s="155"/>
-      <c r="F107" s="155"/>
-      <c r="G107" s="155"/>
-      <c r="H107" s="155"/>
-      <c r="I107" s="155"/>
-      <c r="J107" s="155"/>
-      <c r="K107" s="155"/>
-      <c r="L107" s="155"/>
-      <c r="M107" s="155"/>
-      <c r="N107" s="155"/>
-      <c r="O107" s="155"/>
-      <c r="P107" s="155"/>
-      <c r="Q107" s="155"/>
-      <c r="R107" s="155"/>
-      <c r="S107" s="155"/>
+      <c r="B107" s="145"/>
+      <c r="C107" s="145"/>
+      <c r="D107" s="146"/>
+      <c r="E107" s="146"/>
+      <c r="F107" s="146"/>
+      <c r="G107" s="146"/>
+      <c r="H107" s="146"/>
+      <c r="I107" s="146"/>
+      <c r="J107" s="146"/>
+      <c r="K107" s="146"/>
+      <c r="L107" s="146"/>
+      <c r="M107" s="146"/>
+      <c r="N107" s="146"/>
+      <c r="O107" s="146"/>
+      <c r="P107" s="146"/>
+      <c r="Q107" s="146"/>
+      <c r="R107" s="146"/>
+      <c r="S107" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="587">
-    <mergeCell ref="Q80:R80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="O81:P81"/>
-    <mergeCell ref="Q81:R81"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="M80:N80"/>
-    <mergeCell ref="O80:P80"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="R91:S91"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="P92:Q95"/>
+    <mergeCell ref="B2:R3"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="R92:S95"/>
+    <mergeCell ref="F92:G95"/>
+    <mergeCell ref="L92:M95"/>
+    <mergeCell ref="J92:K95"/>
+    <mergeCell ref="H92:I95"/>
+    <mergeCell ref="N92:O95"/>
+    <mergeCell ref="D92:E95"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="B92:C95"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="B104:C107"/>
+    <mergeCell ref="D104:S107"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="B96:C99"/>
+    <mergeCell ref="D96:S99"/>
+    <mergeCell ref="B100:C103"/>
+    <mergeCell ref="D100:S103"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="O61:P61"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="O67:P67"/>
+    <mergeCell ref="Q67:R67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="O68:P68"/>
+    <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="O69:P69"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="O70:P70"/>
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="Q72:R72"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="O74:P74"/>
+    <mergeCell ref="Q74:R74"/>
+    <mergeCell ref="Q78:R78"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="O75:P75"/>
+    <mergeCell ref="Q75:R75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="M76:N76"/>
+    <mergeCell ref="O76:P76"/>
+    <mergeCell ref="Q76:R76"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="E79:F79"/>
     <mergeCell ref="G79:H79"/>
@@ -8761,553 +9287,22 @@
     <mergeCell ref="K78:L78"/>
     <mergeCell ref="M78:N78"/>
     <mergeCell ref="O78:P78"/>
-    <mergeCell ref="Q78:R78"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="O75:P75"/>
-    <mergeCell ref="Q75:R75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="M76:N76"/>
-    <mergeCell ref="O76:P76"/>
-    <mergeCell ref="Q76:R76"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="Q72:R72"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="O74:P74"/>
-    <mergeCell ref="Q74:R74"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="M70:N70"/>
-    <mergeCell ref="O70:P70"/>
-    <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="O71:P71"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="O68:P68"/>
-    <mergeCell ref="Q68:R68"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="O69:P69"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="O67:P67"/>
-    <mergeCell ref="Q67:R67"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="O63:P63"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="O61:P61"/>
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="B104:C107"/>
-    <mergeCell ref="D104:S107"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="B96:C99"/>
-    <mergeCell ref="D96:S99"/>
-    <mergeCell ref="B100:C103"/>
-    <mergeCell ref="D100:S103"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="B92:C95"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="P92:Q95"/>
-    <mergeCell ref="B2:R3"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="R92:S95"/>
-    <mergeCell ref="F92:G95"/>
-    <mergeCell ref="L92:M95"/>
-    <mergeCell ref="J92:K95"/>
-    <mergeCell ref="H92:I95"/>
-    <mergeCell ref="N92:O95"/>
-    <mergeCell ref="D92:E95"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="L91:M91"/>
-    <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="R91:S91"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="Q80:R80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="O81:P81"/>
+    <mergeCell ref="Q81:R81"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="O80:P80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9322,7 +9317,7 @@
   <dimension ref="B2:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9332,44 +9327,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="94" t="s">
         <v>249</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9425,28 +9420,28 @@
     </row>
     <row r="6" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="58" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C6" s="167" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D6" s="163"/>
       <c r="E6" s="163"/>
       <c r="F6" s="163"/>
       <c r="G6" s="163" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H6" s="163"/>
       <c r="I6" s="163"/>
       <c r="J6" s="163"/>
       <c r="K6" s="163" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L6" s="163"/>
       <c r="M6" s="163"/>
       <c r="N6" s="163"/>
       <c r="O6" s="163" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P6" s="163"/>
       <c r="Q6" s="163"/>
@@ -9454,16 +9449,16 @@
     </row>
     <row r="7" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="36" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C7" s="165" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D7" s="166"/>
       <c r="E7" s="166"/>
       <c r="F7" s="166"/>
       <c r="G7" s="166" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H7" s="166"/>
       <c r="I7" s="166"/>
@@ -9479,7 +9474,7 @@
     </row>
     <row r="8" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="36" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="16"/>
@@ -9500,7 +9495,7 @@
     </row>
     <row r="9" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="36" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="16"/>
@@ -9521,7 +9516,7 @@
     </row>
     <row r="10" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="16"/>
@@ -9542,12 +9537,12 @@
     </row>
     <row r="11" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="C11" s="168" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" s="87" t="s">
         <v>275</v>
       </c>
-      <c r="D11" s="169"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -9565,7 +9560,7 @@
     </row>
     <row r="12" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="16"/>
@@ -9586,7 +9581,7 @@
     </row>
     <row r="13" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="37" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="16"/>
@@ -9607,7 +9602,7 @@
     </row>
     <row r="14" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C14" s="30"/>
       <c r="D14" s="16"/>
@@ -9628,7 +9623,7 @@
     </row>
     <row r="15" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="37" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="16"/>
@@ -9649,7 +9644,7 @@
     </row>
     <row r="16" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C16" s="30"/>
       <c r="D16" s="16"/>
@@ -9670,7 +9665,7 @@
     </row>
     <row r="17" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="37" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="16"/>
@@ -9691,7 +9686,7 @@
     </row>
     <row r="18" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="37" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C18" s="40"/>
       <c r="D18" s="10"/>
@@ -9712,7 +9707,7 @@
     </row>
     <row r="19" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="37" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C19" s="40"/>
       <c r="D19" s="10"/>
@@ -9733,7 +9728,7 @@
     </row>
     <row r="20" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="37" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C20" s="40"/>
       <c r="D20" s="10"/>
@@ -9754,7 +9749,7 @@
     </row>
     <row r="21" spans="2:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="38" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C21" s="42"/>
       <c r="D21" s="34"/>
@@ -9774,9 +9769,8 @@
       <c r="R21" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="B2:R3"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="O6:R6"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="G7:J7"/>

--- a/Memory map.xlsx
+++ b/Memory map.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="278">
   <si>
     <t>A</t>
   </si>
@@ -987,6 +987,9 @@
   <si>
     <t>VOLTAGE
 ERROR</t>
+  </si>
+  <si>
+    <t>SCR argument</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1729,11 +1732,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1988,6 +2015,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1997,99 +2051,81 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2099,120 +2135,111 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2228,9 +2255,18 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2249,9 +2285,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2289,7 +2325,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2361,7 +2397,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2540,8 +2576,8 @@
   </sheetPr>
   <dimension ref="B2:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2551,44 +2587,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2646,12 +2682,12 @@
       <c r="B6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
       <c r="G6" s="82"/>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
@@ -2782,10 +2818,12 @@
       <c r="C12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
+      <c r="D12" s="170" t="s">
+        <v>277</v>
+      </c>
+      <c r="E12" s="171"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="172"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
@@ -3060,399 +3098,422 @@
       <c r="R21" s="12"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="91"/>
-      <c r="D25" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="K25" s="92"/>
-      <c r="L25" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="M25" s="92"/>
-      <c r="N25" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="O25" s="92"/>
-      <c r="P25" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q25" s="92"/>
-      <c r="R25" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="S25" s="92"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="101"/>
+      <c r="J25" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="101"/>
+      <c r="L25" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="M25" s="101"/>
+      <c r="N25" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="O25" s="101"/>
+      <c r="P25" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q25" s="101"/>
+      <c r="R25" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="S25" s="101"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="91"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="92"/>
-      <c r="L26" s="92"/>
-      <c r="M26" s="92"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="92"/>
-      <c r="P26" s="92"/>
-      <c r="Q26" s="92"/>
-      <c r="R26" s="92"/>
-      <c r="S26" s="92"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="101"/>
+      <c r="L26" s="101"/>
+      <c r="M26" s="101"/>
+      <c r="N26" s="101"/>
+      <c r="O26" s="101"/>
+      <c r="P26" s="101"/>
+      <c r="Q26" s="101"/>
+      <c r="R26" s="101"/>
+      <c r="S26" s="101"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="91"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="92"/>
-      <c r="Q27" s="92"/>
-      <c r="R27" s="92"/>
-      <c r="S27" s="92"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="101"/>
+      <c r="J27" s="101"/>
+      <c r="K27" s="101"/>
+      <c r="L27" s="101"/>
+      <c r="M27" s="101"/>
+      <c r="N27" s="101"/>
+      <c r="O27" s="101"/>
+      <c r="P27" s="101"/>
+      <c r="Q27" s="101"/>
+      <c r="R27" s="101"/>
+      <c r="S27" s="101"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="91"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="92"/>
-      <c r="L28" s="92"/>
-      <c r="M28" s="92"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="92"/>
-      <c r="Q28" s="92"/>
-      <c r="R28" s="92"/>
-      <c r="S28" s="92"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="101"/>
+      <c r="K28" s="101"/>
+      <c r="L28" s="101"/>
+      <c r="M28" s="101"/>
+      <c r="N28" s="101"/>
+      <c r="O28" s="101"/>
+      <c r="P28" s="101"/>
+      <c r="Q28" s="101"/>
+      <c r="R28" s="101"/>
+      <c r="S28" s="101"/>
     </row>
     <row r="29" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="90" t="s">
+      <c r="B29" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="91"/>
-      <c r="D29" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="92"/>
-      <c r="F29" s="95" t="s">
+      <c r="C29" s="100"/>
+      <c r="D29" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="101"/>
+      <c r="F29" s="90" t="s">
         <v>269</v>
       </c>
-      <c r="G29" s="96"/>
-      <c r="H29" s="95" t="s">
+      <c r="G29" s="91"/>
+      <c r="H29" s="90" t="s">
         <v>268</v>
       </c>
-      <c r="I29" s="96"/>
-      <c r="J29" s="95" t="s">
+      <c r="I29" s="91"/>
+      <c r="J29" s="90" t="s">
         <v>270</v>
       </c>
-      <c r="K29" s="96"/>
-      <c r="L29" s="95" t="s">
+      <c r="K29" s="91"/>
+      <c r="L29" s="90" t="s">
         <v>271</v>
       </c>
-      <c r="M29" s="96"/>
-      <c r="N29" s="95" t="s">
+      <c r="M29" s="91"/>
+      <c r="N29" s="90" t="s">
         <v>272</v>
       </c>
-      <c r="O29" s="96"/>
-      <c r="P29" s="95" t="s">
+      <c r="O29" s="91"/>
+      <c r="P29" s="90" t="s">
         <v>273</v>
       </c>
-      <c r="Q29" s="96"/>
-      <c r="R29" s="95" t="s">
+      <c r="Q29" s="91"/>
+      <c r="R29" s="90" t="s">
         <v>274</v>
       </c>
-      <c r="S29" s="96"/>
+      <c r="S29" s="91"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="91"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="97"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="98"/>
-      <c r="L30" s="97"/>
-      <c r="M30" s="98"/>
-      <c r="N30" s="97"/>
-      <c r="O30" s="98"/>
-      <c r="P30" s="97"/>
-      <c r="Q30" s="98"/>
-      <c r="R30" s="97"/>
-      <c r="S30" s="98"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="93"/>
+      <c r="N30" s="92"/>
+      <c r="O30" s="93"/>
+      <c r="P30" s="92"/>
+      <c r="Q30" s="93"/>
+      <c r="R30" s="92"/>
+      <c r="S30" s="93"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="98"/>
-      <c r="L31" s="97"/>
-      <c r="M31" s="98"/>
-      <c r="N31" s="97"/>
-      <c r="O31" s="98"/>
-      <c r="P31" s="97"/>
-      <c r="Q31" s="98"/>
-      <c r="R31" s="97"/>
-      <c r="S31" s="98"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="93"/>
+      <c r="L31" s="92"/>
+      <c r="M31" s="93"/>
+      <c r="N31" s="92"/>
+      <c r="O31" s="93"/>
+      <c r="P31" s="92"/>
+      <c r="Q31" s="93"/>
+      <c r="R31" s="92"/>
+      <c r="S31" s="93"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="91"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="100"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="100"/>
-      <c r="L32" s="99"/>
-      <c r="M32" s="100"/>
-      <c r="N32" s="99"/>
-      <c r="O32" s="100"/>
-      <c r="P32" s="99"/>
-      <c r="Q32" s="100"/>
-      <c r="R32" s="99"/>
-      <c r="S32" s="100"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="95"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="94"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="94"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="94"/>
+      <c r="Q32" s="95"/>
+      <c r="R32" s="94"/>
+      <c r="S32" s="95"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B33" s="90" t="s">
+      <c r="B33" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="91"/>
-      <c r="D33" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="I33" s="92"/>
-      <c r="J33" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="K33" s="92"/>
-      <c r="L33" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="M33" s="92"/>
-      <c r="N33" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="O33" s="92"/>
-      <c r="P33" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q33" s="92"/>
-      <c r="R33" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="S33" s="92"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="101"/>
+      <c r="H33" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="101"/>
+      <c r="J33" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" s="101"/>
+      <c r="L33" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="M33" s="101"/>
+      <c r="N33" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="O33" s="101"/>
+      <c r="P33" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q33" s="101"/>
+      <c r="R33" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="S33" s="101"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B34" s="91"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="92"/>
-      <c r="K34" s="92"/>
-      <c r="L34" s="92"/>
-      <c r="M34" s="92"/>
-      <c r="N34" s="92"/>
-      <c r="O34" s="92"/>
-      <c r="P34" s="92"/>
-      <c r="Q34" s="92"/>
-      <c r="R34" s="92"/>
-      <c r="S34" s="92"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="101"/>
+      <c r="J34" s="101"/>
+      <c r="K34" s="101"/>
+      <c r="L34" s="101"/>
+      <c r="M34" s="101"/>
+      <c r="N34" s="101"/>
+      <c r="O34" s="101"/>
+      <c r="P34" s="101"/>
+      <c r="Q34" s="101"/>
+      <c r="R34" s="101"/>
+      <c r="S34" s="101"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="92"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="92"/>
-      <c r="J35" s="92"/>
-      <c r="K35" s="92"/>
-      <c r="L35" s="92"/>
-      <c r="M35" s="92"/>
-      <c r="N35" s="92"/>
-      <c r="O35" s="92"/>
-      <c r="P35" s="92"/>
-      <c r="Q35" s="92"/>
-      <c r="R35" s="92"/>
-      <c r="S35" s="92"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="101"/>
+      <c r="I35" s="101"/>
+      <c r="J35" s="101"/>
+      <c r="K35" s="101"/>
+      <c r="L35" s="101"/>
+      <c r="M35" s="101"/>
+      <c r="N35" s="101"/>
+      <c r="O35" s="101"/>
+      <c r="P35" s="101"/>
+      <c r="Q35" s="101"/>
+      <c r="R35" s="101"/>
+      <c r="S35" s="101"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B36" s="91"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="92"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="92"/>
-      <c r="J36" s="92"/>
-      <c r="K36" s="92"/>
-      <c r="L36" s="92"/>
-      <c r="M36" s="92"/>
-      <c r="N36" s="92"/>
-      <c r="O36" s="92"/>
-      <c r="P36" s="92"/>
-      <c r="Q36" s="92"/>
-      <c r="R36" s="92"/>
-      <c r="S36" s="92"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="101"/>
+      <c r="H36" s="101"/>
+      <c r="I36" s="101"/>
+      <c r="J36" s="101"/>
+      <c r="K36" s="101"/>
+      <c r="L36" s="101"/>
+      <c r="M36" s="101"/>
+      <c r="N36" s="101"/>
+      <c r="O36" s="101"/>
+      <c r="P36" s="101"/>
+      <c r="Q36" s="101"/>
+      <c r="R36" s="101"/>
+      <c r="S36" s="101"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B37" s="90" t="s">
+      <c r="B37" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="91"/>
-      <c r="D37" s="93" t="s">
+      <c r="C37" s="100"/>
+      <c r="D37" s="106" t="s">
         <v>275</v>
       </c>
-      <c r="E37" s="94"/>
-      <c r="F37" s="93" t="s">
+      <c r="E37" s="107"/>
+      <c r="F37" s="106" t="s">
         <v>267</v>
       </c>
-      <c r="G37" s="94"/>
-      <c r="H37" s="93" t="s">
+      <c r="G37" s="107"/>
+      <c r="H37" s="106" t="s">
         <v>112</v>
       </c>
-      <c r="I37" s="94"/>
-      <c r="J37" s="101" t="s">
+      <c r="I37" s="107"/>
+      <c r="J37" s="102" t="s">
         <v>276</v>
       </c>
-      <c r="K37" s="102"/>
-      <c r="L37" s="101" t="s">
+      <c r="K37" s="103"/>
+      <c r="L37" s="102" t="s">
         <v>111</v>
       </c>
-      <c r="M37" s="102"/>
-      <c r="N37" s="101" t="s">
+      <c r="M37" s="103"/>
+      <c r="N37" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="O37" s="102"/>
-      <c r="P37" s="101" t="s">
+      <c r="O37" s="103"/>
+      <c r="P37" s="102" t="s">
         <v>110</v>
       </c>
-      <c r="Q37" s="102"/>
-      <c r="R37" s="103" t="s">
+      <c r="Q37" s="103"/>
+      <c r="R37" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="S37" s="104"/>
+      <c r="S37" s="105"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B38" s="91"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="94"/>
-      <c r="E38" s="94"/>
-      <c r="F38" s="94"/>
-      <c r="G38" s="94"/>
-      <c r="H38" s="94"/>
-      <c r="I38" s="94"/>
-      <c r="J38" s="102"/>
-      <c r="K38" s="102"/>
-      <c r="L38" s="102"/>
-      <c r="M38" s="102"/>
-      <c r="N38" s="102"/>
-      <c r="O38" s="102"/>
-      <c r="P38" s="102"/>
-      <c r="Q38" s="102"/>
-      <c r="R38" s="104"/>
-      <c r="S38" s="104"/>
+      <c r="B38" s="100"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="107"/>
+      <c r="I38" s="107"/>
+      <c r="J38" s="103"/>
+      <c r="K38" s="103"/>
+      <c r="L38" s="103"/>
+      <c r="M38" s="103"/>
+      <c r="N38" s="103"/>
+      <c r="O38" s="103"/>
+      <c r="P38" s="103"/>
+      <c r="Q38" s="103"/>
+      <c r="R38" s="105"/>
+      <c r="S38" s="105"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B39" s="91"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="94"/>
-      <c r="E39" s="94"/>
-      <c r="F39" s="94"/>
-      <c r="G39" s="94"/>
-      <c r="H39" s="94"/>
-      <c r="I39" s="94"/>
-      <c r="J39" s="102"/>
-      <c r="K39" s="102"/>
-      <c r="L39" s="102"/>
-      <c r="M39" s="102"/>
-      <c r="N39" s="102"/>
-      <c r="O39" s="102"/>
-      <c r="P39" s="102"/>
-      <c r="Q39" s="102"/>
-      <c r="R39" s="104"/>
-      <c r="S39" s="104"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="107"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="107"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="103"/>
+      <c r="K39" s="103"/>
+      <c r="L39" s="103"/>
+      <c r="M39" s="103"/>
+      <c r="N39" s="103"/>
+      <c r="O39" s="103"/>
+      <c r="P39" s="103"/>
+      <c r="Q39" s="103"/>
+      <c r="R39" s="105"/>
+      <c r="S39" s="105"/>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B40" s="91"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="94"/>
-      <c r="H40" s="94"/>
-      <c r="I40" s="94"/>
-      <c r="J40" s="102"/>
-      <c r="K40" s="102"/>
-      <c r="L40" s="102"/>
-      <c r="M40" s="102"/>
-      <c r="N40" s="102"/>
-      <c r="O40" s="102"/>
-      <c r="P40" s="102"/>
-      <c r="Q40" s="102"/>
-      <c r="R40" s="104"/>
-      <c r="S40" s="104"/>
+      <c r="B40" s="100"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="107"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="107"/>
+      <c r="G40" s="107"/>
+      <c r="H40" s="107"/>
+      <c r="I40" s="107"/>
+      <c r="J40" s="103"/>
+      <c r="K40" s="103"/>
+      <c r="L40" s="103"/>
+      <c r="M40" s="103"/>
+      <c r="N40" s="103"/>
+      <c r="O40" s="103"/>
+      <c r="P40" s="103"/>
+      <c r="Q40" s="103"/>
+      <c r="R40" s="105"/>
+      <c r="S40" s="105"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="39">
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="J33:K36"/>
+    <mergeCell ref="B37:C40"/>
+    <mergeCell ref="J37:K40"/>
+    <mergeCell ref="D37:E40"/>
+    <mergeCell ref="B29:C32"/>
+    <mergeCell ref="D29:E32"/>
+    <mergeCell ref="F29:G32"/>
+    <mergeCell ref="F37:G40"/>
+    <mergeCell ref="H37:I40"/>
+    <mergeCell ref="B33:C36"/>
+    <mergeCell ref="D33:E36"/>
+    <mergeCell ref="F33:G36"/>
+    <mergeCell ref="H33:I36"/>
+    <mergeCell ref="R29:S32"/>
+    <mergeCell ref="N37:O40"/>
+    <mergeCell ref="L37:M40"/>
+    <mergeCell ref="L33:M36"/>
+    <mergeCell ref="P37:Q40"/>
+    <mergeCell ref="R37:S40"/>
+    <mergeCell ref="N33:O36"/>
+    <mergeCell ref="P33:Q36"/>
+    <mergeCell ref="R33:S36"/>
     <mergeCell ref="H29:I32"/>
     <mergeCell ref="J29:K32"/>
     <mergeCell ref="B2:R3"/>
@@ -3469,28 +3530,6 @@
     <mergeCell ref="L29:M32"/>
     <mergeCell ref="N29:O32"/>
     <mergeCell ref="P29:Q32"/>
-    <mergeCell ref="R29:S32"/>
-    <mergeCell ref="N37:O40"/>
-    <mergeCell ref="L37:M40"/>
-    <mergeCell ref="L33:M36"/>
-    <mergeCell ref="P37:Q40"/>
-    <mergeCell ref="R37:S40"/>
-    <mergeCell ref="N33:O36"/>
-    <mergeCell ref="P33:Q36"/>
-    <mergeCell ref="R33:S36"/>
-    <mergeCell ref="F37:G40"/>
-    <mergeCell ref="H37:I40"/>
-    <mergeCell ref="B33:C36"/>
-    <mergeCell ref="D33:E36"/>
-    <mergeCell ref="F33:G36"/>
-    <mergeCell ref="H33:I36"/>
-    <mergeCell ref="J33:K36"/>
-    <mergeCell ref="B37:C40"/>
-    <mergeCell ref="J37:K40"/>
-    <mergeCell ref="D37:E40"/>
-    <mergeCell ref="B29:C32"/>
-    <mergeCell ref="D29:E32"/>
-    <mergeCell ref="F29:G32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3513,44 +3552,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3967,44 +4006,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="96" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4062,30 +4101,30 @@
       <c r="B6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="124" t="s">
+      <c r="C6" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125" t="s">
+      <c r="D6" s="128"/>
+      <c r="E6" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125" t="s">
+      <c r="F6" s="128"/>
+      <c r="G6" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125" t="s">
+      <c r="H6" s="128"/>
+      <c r="I6" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="125"/>
-      <c r="K6" s="126" t="s">
+      <c r="J6" s="128"/>
+      <c r="K6" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126" t="s">
+      <c r="L6" s="129"/>
+      <c r="M6" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="126"/>
+      <c r="N6" s="129"/>
       <c r="O6" s="48" t="s">
         <v>6</v>
       </c>
@@ -4121,18 +4160,18 @@
       <c r="H7" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="123" t="s">
+      <c r="I7" s="109" t="s">
         <v>115</v>
       </c>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123" t="s">
+      <c r="J7" s="109"/>
+      <c r="K7" s="109" t="s">
         <v>116</v>
       </c>
-      <c r="L7" s="123"/>
-      <c r="M7" s="123" t="s">
+      <c r="L7" s="109"/>
+      <c r="M7" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="N7" s="123"/>
+      <c r="N7" s="109"/>
       <c r="O7" s="50" t="s">
         <v>6</v>
       </c>
@@ -4150,30 +4189,30 @@
       <c r="B8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="108" t="s">
+      <c r="C8" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109" t="s">
+      <c r="D8" s="108"/>
+      <c r="E8" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109" t="s">
+      <c r="F8" s="108"/>
+      <c r="G8" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109" t="s">
+      <c r="H8" s="108"/>
+      <c r="I8" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="109"/>
-      <c r="K8" s="121" t="s">
+      <c r="J8" s="108"/>
+      <c r="K8" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="121"/>
-      <c r="M8" s="121" t="s">
+      <c r="L8" s="124"/>
+      <c r="M8" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="121"/>
+      <c r="N8" s="124"/>
       <c r="O8" s="52" t="s">
         <v>6</v>
       </c>
@@ -4209,18 +4248,18 @@
       <c r="H9" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="109" t="s">
+      <c r="I9" s="108" t="s">
         <v>115</v>
       </c>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109" t="s">
+      <c r="J9" s="108"/>
+      <c r="K9" s="108" t="s">
         <v>116</v>
       </c>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109" t="s">
+      <c r="L9" s="108"/>
+      <c r="M9" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="N9" s="109"/>
+      <c r="N9" s="108"/>
       <c r="O9" s="52" t="s">
         <v>6</v>
       </c>
@@ -4238,30 +4277,30 @@
       <c r="B10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="122" t="s">
+      <c r="C10" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123" t="s">
+      <c r="D10" s="109"/>
+      <c r="E10" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123" t="s">
+      <c r="F10" s="109"/>
+      <c r="G10" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123" t="s">
+      <c r="H10" s="109"/>
+      <c r="I10" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="123"/>
-      <c r="K10" s="127" t="s">
+      <c r="J10" s="109"/>
+      <c r="K10" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="127"/>
-      <c r="M10" s="127" t="s">
+      <c r="L10" s="110"/>
+      <c r="M10" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="N10" s="127"/>
+      <c r="N10" s="110"/>
       <c r="O10" s="54" t="s">
         <v>6</v>
       </c>
@@ -4297,18 +4336,18 @@
       <c r="H11" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="123" t="s">
+      <c r="I11" s="109" t="s">
         <v>115</v>
       </c>
-      <c r="J11" s="123"/>
-      <c r="K11" s="123" t="s">
+      <c r="J11" s="109"/>
+      <c r="K11" s="109" t="s">
         <v>116</v>
       </c>
-      <c r="L11" s="123"/>
-      <c r="M11" s="123" t="s">
+      <c r="L11" s="109"/>
+      <c r="M11" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="N11" s="123"/>
+      <c r="N11" s="109"/>
       <c r="O11" s="50" t="s">
         <v>6</v>
       </c>
@@ -4326,30 +4365,30 @@
       <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="108" t="s">
+      <c r="C12" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109" t="s">
+      <c r="D12" s="108"/>
+      <c r="E12" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109" t="s">
+      <c r="F12" s="108"/>
+      <c r="G12" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109" t="s">
+      <c r="H12" s="108"/>
+      <c r="I12" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="109"/>
-      <c r="K12" s="121" t="s">
+      <c r="J12" s="108"/>
+      <c r="K12" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="121"/>
-      <c r="M12" s="121" t="s">
+      <c r="L12" s="124"/>
+      <c r="M12" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="N12" s="121"/>
+      <c r="N12" s="124"/>
       <c r="O12" s="52" t="s">
         <v>6</v>
       </c>
@@ -4385,18 +4424,18 @@
       <c r="H13" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="109" t="s">
+      <c r="I13" s="108" t="s">
         <v>115</v>
       </c>
-      <c r="J13" s="109"/>
-      <c r="K13" s="109" t="s">
+      <c r="J13" s="108"/>
+      <c r="K13" s="108" t="s">
         <v>116</v>
       </c>
-      <c r="L13" s="109"/>
-      <c r="M13" s="109" t="s">
+      <c r="L13" s="108"/>
+      <c r="M13" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="N13" s="109"/>
+      <c r="N13" s="108"/>
       <c r="O13" s="52" t="s">
         <v>6</v>
       </c>
@@ -4414,30 +4453,30 @@
       <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="122" t="s">
+      <c r="C14" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123" t="s">
+      <c r="D14" s="109"/>
+      <c r="E14" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123" t="s">
+      <c r="F14" s="109"/>
+      <c r="G14" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123" t="s">
+      <c r="H14" s="109"/>
+      <c r="I14" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="123"/>
-      <c r="K14" s="127" t="s">
+      <c r="J14" s="109"/>
+      <c r="K14" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="127"/>
-      <c r="M14" s="127" t="s">
+      <c r="L14" s="110"/>
+      <c r="M14" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="N14" s="127"/>
+      <c r="N14" s="110"/>
       <c r="O14" s="54" t="s">
         <v>6</v>
       </c>
@@ -4473,18 +4512,18 @@
       <c r="H15" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="123" t="s">
+      <c r="I15" s="109" t="s">
         <v>115</v>
       </c>
-      <c r="J15" s="123"/>
-      <c r="K15" s="123" t="s">
+      <c r="J15" s="109"/>
+      <c r="K15" s="109" t="s">
         <v>116</v>
       </c>
-      <c r="L15" s="123"/>
-      <c r="M15" s="123" t="s">
+      <c r="L15" s="109"/>
+      <c r="M15" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="N15" s="123"/>
+      <c r="N15" s="109"/>
       <c r="O15" s="50" t="s">
         <v>6</v>
       </c>
@@ -4502,30 +4541,30 @@
       <c r="B16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="108" t="s">
+      <c r="C16" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109" t="s">
+      <c r="D16" s="108"/>
+      <c r="E16" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109" t="s">
+      <c r="F16" s="108"/>
+      <c r="G16" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109" t="s">
+      <c r="H16" s="108"/>
+      <c r="I16" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="109"/>
-      <c r="K16" s="121" t="s">
+      <c r="J16" s="108"/>
+      <c r="K16" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="121"/>
-      <c r="M16" s="121" t="s">
+      <c r="L16" s="124"/>
+      <c r="M16" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="N16" s="121"/>
+      <c r="N16" s="124"/>
       <c r="O16" s="52" t="s">
         <v>6</v>
       </c>
@@ -4561,18 +4600,18 @@
       <c r="H17" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="109" t="s">
+      <c r="I17" s="108" t="s">
         <v>115</v>
       </c>
-      <c r="J17" s="109"/>
-      <c r="K17" s="109" t="s">
+      <c r="J17" s="108"/>
+      <c r="K17" s="108" t="s">
         <v>116</v>
       </c>
-      <c r="L17" s="109"/>
-      <c r="M17" s="109" t="s">
+      <c r="L17" s="108"/>
+      <c r="M17" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="N17" s="109"/>
+      <c r="N17" s="108"/>
       <c r="O17" s="52" t="s">
         <v>6</v>
       </c>
@@ -4671,514 +4710,523 @@
       <c r="R21" s="44"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="128" t="s">
+      <c r="B25" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="110" t="s">
+      <c r="C25" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="111"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="111"/>
-      <c r="H25" s="111"/>
-      <c r="I25" s="111"/>
-      <c r="J25" s="111"/>
-      <c r="K25" s="112"/>
-      <c r="L25" s="113"/>
-      <c r="M25" s="114"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="114"/>
+      <c r="J25" s="114"/>
+      <c r="K25" s="115"/>
+      <c r="L25" s="116"/>
+      <c r="M25" s="117"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="129"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="111"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="115"/>
-      <c r="L26" s="116"/>
-      <c r="M26" s="117"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="114"/>
+      <c r="I26" s="114"/>
+      <c r="J26" s="114"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="119"/>
+      <c r="M26" s="120"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="129"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="111"/>
-      <c r="J27" s="111"/>
-      <c r="K27" s="115"/>
-      <c r="L27" s="116"/>
-      <c r="M27" s="117"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="114"/>
+      <c r="I27" s="114"/>
+      <c r="J27" s="114"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="119"/>
+      <c r="M27" s="120"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="129"/>
-      <c r="C28" s="111"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="111"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="111"/>
-      <c r="J28" s="111"/>
-      <c r="K28" s="118"/>
-      <c r="L28" s="119"/>
-      <c r="M28" s="120"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="121"/>
+      <c r="L28" s="122"/>
+      <c r="M28" s="123"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="128" t="s">
+      <c r="B29" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="110" t="s">
+      <c r="C29" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="111"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="111"/>
-      <c r="I29" s="111"/>
-      <c r="J29" s="111"/>
-      <c r="K29" s="112"/>
-      <c r="L29" s="113"/>
-      <c r="M29" s="114"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="114"/>
+      <c r="J29" s="114"/>
+      <c r="K29" s="115"/>
+      <c r="L29" s="116"/>
+      <c r="M29" s="117"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="129"/>
-      <c r="C30" s="111"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="111"/>
-      <c r="I30" s="111"/>
-      <c r="J30" s="111"/>
-      <c r="K30" s="115"/>
-      <c r="L30" s="116"/>
-      <c r="M30" s="117"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="114"/>
+      <c r="I30" s="114"/>
+      <c r="J30" s="114"/>
+      <c r="K30" s="118"/>
+      <c r="L30" s="119"/>
+      <c r="M30" s="120"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="129"/>
-      <c r="C31" s="111"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="111"/>
-      <c r="J31" s="111"/>
-      <c r="K31" s="115"/>
-      <c r="L31" s="116"/>
-      <c r="M31" s="117"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="114"/>
+      <c r="J31" s="114"/>
+      <c r="K31" s="118"/>
+      <c r="L31" s="119"/>
+      <c r="M31" s="120"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="129"/>
-      <c r="C32" s="111"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="111"/>
-      <c r="J32" s="111"/>
-      <c r="K32" s="118"/>
-      <c r="L32" s="119"/>
-      <c r="M32" s="120"/>
+      <c r="B32" s="112"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="121"/>
+      <c r="L32" s="122"/>
+      <c r="M32" s="123"/>
     </row>
     <row r="33" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="128" t="s">
+      <c r="B33" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="110" t="s">
+      <c r="C33" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="111"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="111"/>
-      <c r="I33" s="111"/>
-      <c r="J33" s="111"/>
-      <c r="K33" s="112"/>
-      <c r="L33" s="113"/>
-      <c r="M33" s="114"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="114"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="115"/>
+      <c r="L33" s="116"/>
+      <c r="M33" s="117"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="129"/>
-      <c r="C34" s="111"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="111"/>
-      <c r="G34" s="111"/>
-      <c r="H34" s="111"/>
-      <c r="I34" s="111"/>
-      <c r="J34" s="111"/>
-      <c r="K34" s="115"/>
-      <c r="L34" s="116"/>
-      <c r="M34" s="117"/>
+      <c r="B34" s="112"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="119"/>
+      <c r="M34" s="120"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="129"/>
-      <c r="C35" s="111"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="111"/>
-      <c r="G35" s="111"/>
-      <c r="H35" s="111"/>
-      <c r="I35" s="111"/>
-      <c r="J35" s="111"/>
-      <c r="K35" s="115"/>
-      <c r="L35" s="116"/>
-      <c r="M35" s="117"/>
+      <c r="B35" s="112"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="114"/>
+      <c r="I35" s="114"/>
+      <c r="J35" s="114"/>
+      <c r="K35" s="118"/>
+      <c r="L35" s="119"/>
+      <c r="M35" s="120"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="129"/>
-      <c r="C36" s="111"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="111"/>
-      <c r="F36" s="111"/>
-      <c r="G36" s="111"/>
-      <c r="H36" s="111"/>
-      <c r="I36" s="111"/>
-      <c r="J36" s="111"/>
-      <c r="K36" s="118"/>
-      <c r="L36" s="119"/>
-      <c r="M36" s="120"/>
+      <c r="B36" s="112"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="114"/>
+      <c r="J36" s="114"/>
+      <c r="K36" s="121"/>
+      <c r="L36" s="122"/>
+      <c r="M36" s="123"/>
     </row>
     <row r="37" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="128" t="s">
+      <c r="B37" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="110" t="s">
+      <c r="C37" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="111"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="111"/>
-      <c r="G37" s="111"/>
-      <c r="H37" s="111"/>
-      <c r="I37" s="111"/>
-      <c r="J37" s="111"/>
-      <c r="K37" s="112"/>
-      <c r="L37" s="113"/>
-      <c r="M37" s="114"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="114"/>
+      <c r="J37" s="114"/>
+      <c r="K37" s="115"/>
+      <c r="L37" s="116"/>
+      <c r="M37" s="117"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="129"/>
-      <c r="C38" s="111"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="111"/>
-      <c r="G38" s="111"/>
-      <c r="H38" s="111"/>
-      <c r="I38" s="111"/>
-      <c r="J38" s="111"/>
-      <c r="K38" s="115"/>
-      <c r="L38" s="116"/>
-      <c r="M38" s="117"/>
+      <c r="B38" s="112"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="114"/>
+      <c r="I38" s="114"/>
+      <c r="J38" s="114"/>
+      <c r="K38" s="118"/>
+      <c r="L38" s="119"/>
+      <c r="M38" s="120"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="129"/>
-      <c r="C39" s="111"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="111"/>
-      <c r="F39" s="111"/>
-      <c r="G39" s="111"/>
-      <c r="H39" s="111"/>
-      <c r="I39" s="111"/>
-      <c r="J39" s="111"/>
-      <c r="K39" s="115"/>
-      <c r="L39" s="116"/>
-      <c r="M39" s="117"/>
+      <c r="B39" s="112"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="114"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="114"/>
+      <c r="H39" s="114"/>
+      <c r="I39" s="114"/>
+      <c r="J39" s="114"/>
+      <c r="K39" s="118"/>
+      <c r="L39" s="119"/>
+      <c r="M39" s="120"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="129"/>
-      <c r="C40" s="111"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="111"/>
-      <c r="G40" s="111"/>
-      <c r="H40" s="111"/>
-      <c r="I40" s="111"/>
-      <c r="J40" s="111"/>
-      <c r="K40" s="118"/>
-      <c r="L40" s="119"/>
-      <c r="M40" s="120"/>
+      <c r="B40" s="112"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="114"/>
+      <c r="J40" s="114"/>
+      <c r="K40" s="121"/>
+      <c r="L40" s="122"/>
+      <c r="M40" s="123"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="128" t="s">
+      <c r="B41" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="110" t="s">
+      <c r="C41" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="111"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="111"/>
-      <c r="G41" s="111"/>
-      <c r="H41" s="111"/>
-      <c r="I41" s="111"/>
-      <c r="J41" s="111"/>
-      <c r="K41" s="112"/>
-      <c r="L41" s="113"/>
-      <c r="M41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="114"/>
+      <c r="K41" s="115"/>
+      <c r="L41" s="116"/>
+      <c r="M41" s="117"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="129"/>
-      <c r="C42" s="111"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="111"/>
-      <c r="F42" s="111"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="111"/>
-      <c r="I42" s="111"/>
-      <c r="J42" s="111"/>
-      <c r="K42" s="115"/>
-      <c r="L42" s="116"/>
-      <c r="M42" s="117"/>
+      <c r="B42" s="112"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="114"/>
+      <c r="I42" s="114"/>
+      <c r="J42" s="114"/>
+      <c r="K42" s="118"/>
+      <c r="L42" s="119"/>
+      <c r="M42" s="120"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="129"/>
-      <c r="C43" s="111"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="111"/>
-      <c r="F43" s="111"/>
-      <c r="G43" s="111"/>
-      <c r="H43" s="111"/>
-      <c r="I43" s="111"/>
-      <c r="J43" s="111"/>
-      <c r="K43" s="115"/>
-      <c r="L43" s="116"/>
-      <c r="M43" s="117"/>
+      <c r="B43" s="112"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="114"/>
+      <c r="K43" s="118"/>
+      <c r="L43" s="119"/>
+      <c r="M43" s="120"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="129"/>
-      <c r="C44" s="111"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="111"/>
-      <c r="F44" s="111"/>
-      <c r="G44" s="111"/>
-      <c r="H44" s="111"/>
-      <c r="I44" s="111"/>
-      <c r="J44" s="111"/>
-      <c r="K44" s="118"/>
-      <c r="L44" s="119"/>
-      <c r="M44" s="120"/>
+      <c r="B44" s="112"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="114"/>
+      <c r="J44" s="114"/>
+      <c r="K44" s="121"/>
+      <c r="L44" s="122"/>
+      <c r="M44" s="123"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="128" t="s">
+      <c r="B45" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="110" t="s">
+      <c r="C45" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="111"/>
-      <c r="E45" s="111"/>
-      <c r="F45" s="111"/>
-      <c r="G45" s="111"/>
-      <c r="H45" s="111"/>
-      <c r="I45" s="111"/>
-      <c r="J45" s="111"/>
-      <c r="K45" s="112"/>
-      <c r="L45" s="113"/>
-      <c r="M45" s="114"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="114"/>
+      <c r="J45" s="114"/>
+      <c r="K45" s="115"/>
+      <c r="L45" s="116"/>
+      <c r="M45" s="117"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="129"/>
-      <c r="C46" s="111"/>
-      <c r="D46" s="111"/>
-      <c r="E46" s="111"/>
-      <c r="F46" s="111"/>
-      <c r="G46" s="111"/>
-      <c r="H46" s="111"/>
-      <c r="I46" s="111"/>
-      <c r="J46" s="111"/>
-      <c r="K46" s="115"/>
-      <c r="L46" s="116"/>
-      <c r="M46" s="117"/>
+      <c r="B46" s="112"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="114"/>
+      <c r="E46" s="114"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="114"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="114"/>
+      <c r="J46" s="114"/>
+      <c r="K46" s="118"/>
+      <c r="L46" s="119"/>
+      <c r="M46" s="120"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="129"/>
-      <c r="C47" s="111"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="111"/>
-      <c r="F47" s="111"/>
-      <c r="G47" s="111"/>
-      <c r="H47" s="111"/>
-      <c r="I47" s="111"/>
-      <c r="J47" s="111"/>
-      <c r="K47" s="115"/>
-      <c r="L47" s="116"/>
-      <c r="M47" s="117"/>
+      <c r="B47" s="112"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="114"/>
+      <c r="E47" s="114"/>
+      <c r="F47" s="114"/>
+      <c r="G47" s="114"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="114"/>
+      <c r="J47" s="114"/>
+      <c r="K47" s="118"/>
+      <c r="L47" s="119"/>
+      <c r="M47" s="120"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="129"/>
-      <c r="C48" s="111"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="111"/>
-      <c r="F48" s="111"/>
-      <c r="G48" s="111"/>
-      <c r="H48" s="111"/>
-      <c r="I48" s="111"/>
-      <c r="J48" s="111"/>
-      <c r="K48" s="118"/>
-      <c r="L48" s="119"/>
-      <c r="M48" s="120"/>
+      <c r="B48" s="112"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="114"/>
+      <c r="E48" s="114"/>
+      <c r="F48" s="114"/>
+      <c r="G48" s="114"/>
+      <c r="H48" s="114"/>
+      <c r="I48" s="114"/>
+      <c r="J48" s="114"/>
+      <c r="K48" s="121"/>
+      <c r="L48" s="122"/>
+      <c r="M48" s="123"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="128" t="s">
+      <c r="B49" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="110" t="s">
+      <c r="C49" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="111"/>
-      <c r="E49" s="111"/>
-      <c r="F49" s="111"/>
-      <c r="G49" s="111"/>
-      <c r="H49" s="111"/>
-      <c r="I49" s="111"/>
-      <c r="J49" s="111"/>
-      <c r="K49" s="112"/>
-      <c r="L49" s="113"/>
-      <c r="M49" s="114"/>
+      <c r="D49" s="114"/>
+      <c r="E49" s="114"/>
+      <c r="F49" s="114"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="114"/>
+      <c r="I49" s="114"/>
+      <c r="J49" s="114"/>
+      <c r="K49" s="115"/>
+      <c r="L49" s="116"/>
+      <c r="M49" s="117"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B50" s="129"/>
-      <c r="C50" s="111"/>
-      <c r="D50" s="111"/>
-      <c r="E50" s="111"/>
-      <c r="F50" s="111"/>
-      <c r="G50" s="111"/>
-      <c r="H50" s="111"/>
-      <c r="I50" s="111"/>
-      <c r="J50" s="111"/>
-      <c r="K50" s="115"/>
-      <c r="L50" s="116"/>
-      <c r="M50" s="117"/>
+      <c r="B50" s="112"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="114"/>
+      <c r="E50" s="114"/>
+      <c r="F50" s="114"/>
+      <c r="G50" s="114"/>
+      <c r="H50" s="114"/>
+      <c r="I50" s="114"/>
+      <c r="J50" s="114"/>
+      <c r="K50" s="118"/>
+      <c r="L50" s="119"/>
+      <c r="M50" s="120"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="129"/>
-      <c r="C51" s="111"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="111"/>
-      <c r="F51" s="111"/>
-      <c r="G51" s="111"/>
-      <c r="H51" s="111"/>
-      <c r="I51" s="111"/>
-      <c r="J51" s="111"/>
-      <c r="K51" s="115"/>
-      <c r="L51" s="116"/>
-      <c r="M51" s="117"/>
+      <c r="B51" s="112"/>
+      <c r="C51" s="114"/>
+      <c r="D51" s="114"/>
+      <c r="E51" s="114"/>
+      <c r="F51" s="114"/>
+      <c r="G51" s="114"/>
+      <c r="H51" s="114"/>
+      <c r="I51" s="114"/>
+      <c r="J51" s="114"/>
+      <c r="K51" s="118"/>
+      <c r="L51" s="119"/>
+      <c r="M51" s="120"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B52" s="129"/>
-      <c r="C52" s="111"/>
-      <c r="D52" s="111"/>
-      <c r="E52" s="111"/>
-      <c r="F52" s="111"/>
-      <c r="G52" s="111"/>
-      <c r="H52" s="111"/>
-      <c r="I52" s="111"/>
-      <c r="J52" s="111"/>
-      <c r="K52" s="118"/>
-      <c r="L52" s="119"/>
-      <c r="M52" s="120"/>
+      <c r="B52" s="112"/>
+      <c r="C52" s="114"/>
+      <c r="D52" s="114"/>
+      <c r="E52" s="114"/>
+      <c r="F52" s="114"/>
+      <c r="G52" s="114"/>
+      <c r="H52" s="114"/>
+      <c r="I52" s="114"/>
+      <c r="J52" s="114"/>
+      <c r="K52" s="121"/>
+      <c r="L52" s="122"/>
+      <c r="M52" s="123"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B53" s="128" t="s">
+      <c r="B53" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="C53" s="110" t="s">
+      <c r="C53" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="111"/>
-      <c r="E53" s="111"/>
-      <c r="F53" s="111"/>
-      <c r="G53" s="111"/>
-      <c r="H53" s="111"/>
-      <c r="I53" s="111"/>
-      <c r="J53" s="111"/>
-      <c r="K53" s="112"/>
-      <c r="L53" s="113"/>
-      <c r="M53" s="114"/>
+      <c r="D53" s="114"/>
+      <c r="E53" s="114"/>
+      <c r="F53" s="114"/>
+      <c r="G53" s="114"/>
+      <c r="H53" s="114"/>
+      <c r="I53" s="114"/>
+      <c r="J53" s="114"/>
+      <c r="K53" s="115"/>
+      <c r="L53" s="116"/>
+      <c r="M53" s="117"/>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B54" s="129"/>
-      <c r="C54" s="111"/>
-      <c r="D54" s="111"/>
-      <c r="E54" s="111"/>
-      <c r="F54" s="111"/>
-      <c r="G54" s="111"/>
-      <c r="H54" s="111"/>
-      <c r="I54" s="111"/>
-      <c r="J54" s="111"/>
-      <c r="K54" s="115"/>
-      <c r="L54" s="116"/>
-      <c r="M54" s="117"/>
+      <c r="B54" s="112"/>
+      <c r="C54" s="114"/>
+      <c r="D54" s="114"/>
+      <c r="E54" s="114"/>
+      <c r="F54" s="114"/>
+      <c r="G54" s="114"/>
+      <c r="H54" s="114"/>
+      <c r="I54" s="114"/>
+      <c r="J54" s="114"/>
+      <c r="K54" s="118"/>
+      <c r="L54" s="119"/>
+      <c r="M54" s="120"/>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B55" s="129"/>
-      <c r="C55" s="111"/>
-      <c r="D55" s="111"/>
-      <c r="E55" s="111"/>
-      <c r="F55" s="111"/>
-      <c r="G55" s="111"/>
-      <c r="H55" s="111"/>
-      <c r="I55" s="111"/>
-      <c r="J55" s="111"/>
-      <c r="K55" s="115"/>
-      <c r="L55" s="116"/>
-      <c r="M55" s="117"/>
+      <c r="B55" s="112"/>
+      <c r="C55" s="114"/>
+      <c r="D55" s="114"/>
+      <c r="E55" s="114"/>
+      <c r="F55" s="114"/>
+      <c r="G55" s="114"/>
+      <c r="H55" s="114"/>
+      <c r="I55" s="114"/>
+      <c r="J55" s="114"/>
+      <c r="K55" s="118"/>
+      <c r="L55" s="119"/>
+      <c r="M55" s="120"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="129"/>
-      <c r="C56" s="111"/>
-      <c r="D56" s="111"/>
-      <c r="E56" s="111"/>
-      <c r="F56" s="111"/>
-      <c r="G56" s="111"/>
-      <c r="H56" s="111"/>
-      <c r="I56" s="111"/>
-      <c r="J56" s="111"/>
-      <c r="K56" s="118"/>
-      <c r="L56" s="119"/>
-      <c r="M56" s="120"/>
+      <c r="B56" s="112"/>
+      <c r="C56" s="114"/>
+      <c r="D56" s="114"/>
+      <c r="E56" s="114"/>
+      <c r="F56" s="114"/>
+      <c r="G56" s="114"/>
+      <c r="H56" s="114"/>
+      <c r="I56" s="114"/>
+      <c r="J56" s="114"/>
+      <c r="K56" s="121"/>
+      <c r="L56" s="122"/>
+      <c r="M56" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C49:J52"/>
-    <mergeCell ref="K49:M52"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="C53:J56"/>
-    <mergeCell ref="K53:M56"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="C41:J44"/>
-    <mergeCell ref="K41:M44"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="C45:J48"/>
-    <mergeCell ref="K45:M48"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C25:J28"/>
+    <mergeCell ref="K25:M28"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B2:R3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M15:N15"/>
     <mergeCell ref="B37:B40"/>
     <mergeCell ref="C37:J40"/>
     <mergeCell ref="K37:M40"/>
@@ -5195,42 +5243,33 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="B2:R3"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C25:J28"/>
-    <mergeCell ref="K25:M28"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="C41:J44"/>
+    <mergeCell ref="K41:M44"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="C45:J48"/>
+    <mergeCell ref="K45:M48"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:J52"/>
+    <mergeCell ref="K49:M52"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="C53:J56"/>
+    <mergeCell ref="K53:M56"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5255,44 +5294,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="96" t="s">
         <v>217</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5356,145 +5395,145 @@
       <c r="D6" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="130"/>
-      <c r="G6" s="140" t="s">
+      <c r="E6" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="149"/>
+      <c r="G6" s="144" t="s">
         <v>133</v>
       </c>
-      <c r="H6" s="140"/>
-      <c r="I6" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="130"/>
-      <c r="K6" s="140" t="s">
+      <c r="H6" s="144"/>
+      <c r="I6" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="149"/>
+      <c r="K6" s="144" t="s">
         <v>134</v>
       </c>
-      <c r="L6" s="140"/>
-      <c r="M6" s="140" t="s">
+      <c r="L6" s="144"/>
+      <c r="M6" s="144" t="s">
         <v>135</v>
       </c>
-      <c r="N6" s="140"/>
-      <c r="O6" s="140" t="s">
+      <c r="N6" s="144"/>
+      <c r="O6" s="144" t="s">
         <v>136</v>
       </c>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="140" t="s">
+      <c r="P6" s="144"/>
+      <c r="Q6" s="144" t="s">
         <v>137</v>
       </c>
-      <c r="R6" s="141"/>
+      <c r="R6" s="145"/>
     </row>
     <row r="7" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="144" t="s">
+      <c r="C7" s="138" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142" t="s">
+      <c r="D7" s="139"/>
+      <c r="E7" s="139" t="s">
         <v>139</v>
       </c>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142" t="s">
+      <c r="F7" s="139"/>
+      <c r="G7" s="139" t="s">
         <v>140</v>
       </c>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142" t="s">
+      <c r="H7" s="139"/>
+      <c r="I7" s="139" t="s">
         <v>141</v>
       </c>
-      <c r="J7" s="142"/>
-      <c r="K7" s="142" t="s">
+      <c r="J7" s="139"/>
+      <c r="K7" s="139" t="s">
         <v>142</v>
       </c>
-      <c r="L7" s="142"/>
-      <c r="M7" s="142" t="s">
+      <c r="L7" s="139"/>
+      <c r="M7" s="139" t="s">
         <v>143</v>
       </c>
-      <c r="N7" s="142"/>
-      <c r="O7" s="142" t="s">
+      <c r="N7" s="139"/>
+      <c r="O7" s="139" t="s">
         <v>144</v>
       </c>
-      <c r="P7" s="142"/>
-      <c r="Q7" s="142" t="s">
+      <c r="P7" s="139"/>
+      <c r="Q7" s="139" t="s">
         <v>145</v>
       </c>
-      <c r="R7" s="143"/>
+      <c r="R7" s="140"/>
     </row>
     <row r="8" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="144" t="s">
+      <c r="C8" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="142"/>
-      <c r="E8" s="142" t="s">
+      <c r="D8" s="139"/>
+      <c r="E8" s="139" t="s">
         <v>147</v>
       </c>
-      <c r="F8" s="142"/>
-      <c r="G8" s="142" t="s">
+      <c r="F8" s="139"/>
+      <c r="G8" s="139" t="s">
         <v>148</v>
       </c>
-      <c r="H8" s="142"/>
-      <c r="I8" s="142" t="s">
+      <c r="H8" s="139"/>
+      <c r="I8" s="139" t="s">
         <v>149</v>
       </c>
-      <c r="J8" s="142"/>
-      <c r="K8" s="142" t="s">
+      <c r="J8" s="139"/>
+      <c r="K8" s="139" t="s">
         <v>150</v>
       </c>
-      <c r="L8" s="142"/>
-      <c r="M8" s="142" t="s">
+      <c r="L8" s="139"/>
+      <c r="M8" s="139" t="s">
         <v>151</v>
       </c>
-      <c r="N8" s="142"/>
-      <c r="O8" s="142" t="s">
+      <c r="N8" s="139"/>
+      <c r="O8" s="139" t="s">
         <v>152</v>
       </c>
-      <c r="P8" s="142"/>
-      <c r="Q8" s="142" t="s">
+      <c r="P8" s="139"/>
+      <c r="Q8" s="139" t="s">
         <v>153</v>
       </c>
-      <c r="R8" s="143"/>
+      <c r="R8" s="140"/>
     </row>
     <row r="9" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="144" t="s">
+      <c r="C9" s="138" t="s">
         <v>154</v>
       </c>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142" t="s">
+      <c r="D9" s="139"/>
+      <c r="E9" s="139" t="s">
         <v>155</v>
       </c>
-      <c r="F9" s="142"/>
-      <c r="G9" s="142" t="s">
+      <c r="F9" s="139"/>
+      <c r="G9" s="139" t="s">
         <v>156</v>
       </c>
-      <c r="H9" s="142"/>
-      <c r="I9" s="142" t="s">
+      <c r="H9" s="139"/>
+      <c r="I9" s="139" t="s">
         <v>157</v>
       </c>
-      <c r="J9" s="142"/>
-      <c r="K9" s="142" t="s">
+      <c r="J9" s="139"/>
+      <c r="K9" s="139" t="s">
         <v>158</v>
       </c>
-      <c r="L9" s="142"/>
-      <c r="M9" s="142" t="s">
+      <c r="L9" s="139"/>
+      <c r="M9" s="139" t="s">
         <v>159</v>
       </c>
-      <c r="N9" s="142"/>
-      <c r="O9" s="142" t="s">
+      <c r="N9" s="139"/>
+      <c r="O9" s="139" t="s">
         <v>160</v>
       </c>
-      <c r="P9" s="142"/>
-      <c r="Q9" s="142" t="s">
+      <c r="P9" s="139"/>
+      <c r="Q9" s="139" t="s">
         <v>161</v>
       </c>
-      <c r="R9" s="143"/>
+      <c r="R9" s="140"/>
     </row>
     <row r="10" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
@@ -5506,145 +5545,145 @@
       <c r="D10" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="E10" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="132"/>
-      <c r="G10" s="145" t="s">
+      <c r="E10" s="156" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="156"/>
+      <c r="G10" s="130" t="s">
         <v>133</v>
       </c>
-      <c r="H10" s="145"/>
-      <c r="I10" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="132"/>
-      <c r="K10" s="145" t="s">
+      <c r="H10" s="130"/>
+      <c r="I10" s="156" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="156"/>
+      <c r="K10" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="L10" s="145"/>
-      <c r="M10" s="145" t="s">
+      <c r="L10" s="130"/>
+      <c r="M10" s="130" t="s">
         <v>135</v>
       </c>
-      <c r="N10" s="145"/>
-      <c r="O10" s="145" t="s">
+      <c r="N10" s="130"/>
+      <c r="O10" s="130" t="s">
         <v>136</v>
       </c>
-      <c r="P10" s="145"/>
-      <c r="Q10" s="145" t="s">
+      <c r="P10" s="130"/>
+      <c r="Q10" s="130" t="s">
         <v>137</v>
       </c>
-      <c r="R10" s="146"/>
+      <c r="R10" s="131"/>
     </row>
     <row r="11" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="147" t="s">
+      <c r="C11" s="132" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="145"/>
-      <c r="E11" s="145" t="s">
+      <c r="D11" s="130"/>
+      <c r="E11" s="130" t="s">
         <v>139</v>
       </c>
-      <c r="F11" s="145"/>
-      <c r="G11" s="145" t="s">
+      <c r="F11" s="130"/>
+      <c r="G11" s="130" t="s">
         <v>140</v>
       </c>
-      <c r="H11" s="145"/>
-      <c r="I11" s="145" t="s">
+      <c r="H11" s="130"/>
+      <c r="I11" s="130" t="s">
         <v>141</v>
       </c>
-      <c r="J11" s="145"/>
-      <c r="K11" s="145" t="s">
+      <c r="J11" s="130"/>
+      <c r="K11" s="130" t="s">
         <v>142</v>
       </c>
-      <c r="L11" s="145"/>
-      <c r="M11" s="145" t="s">
+      <c r="L11" s="130"/>
+      <c r="M11" s="130" t="s">
         <v>143</v>
       </c>
-      <c r="N11" s="145"/>
-      <c r="O11" s="145" t="s">
+      <c r="N11" s="130"/>
+      <c r="O11" s="130" t="s">
         <v>144</v>
       </c>
-      <c r="P11" s="145"/>
-      <c r="Q11" s="145" t="s">
+      <c r="P11" s="130"/>
+      <c r="Q11" s="130" t="s">
         <v>145</v>
       </c>
-      <c r="R11" s="146"/>
+      <c r="R11" s="131"/>
     </row>
     <row r="12" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="147" t="s">
+      <c r="C12" s="132" t="s">
         <v>146</v>
       </c>
-      <c r="D12" s="145"/>
-      <c r="E12" s="145" t="s">
+      <c r="D12" s="130"/>
+      <c r="E12" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="F12" s="145"/>
-      <c r="G12" s="145" t="s">
+      <c r="F12" s="130"/>
+      <c r="G12" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="H12" s="145"/>
-      <c r="I12" s="145" t="s">
+      <c r="H12" s="130"/>
+      <c r="I12" s="130" t="s">
         <v>149</v>
       </c>
-      <c r="J12" s="145"/>
-      <c r="K12" s="145" t="s">
+      <c r="J12" s="130"/>
+      <c r="K12" s="130" t="s">
         <v>150</v>
       </c>
-      <c r="L12" s="145"/>
-      <c r="M12" s="145" t="s">
+      <c r="L12" s="130"/>
+      <c r="M12" s="130" t="s">
         <v>151</v>
       </c>
-      <c r="N12" s="145"/>
-      <c r="O12" s="145" t="s">
+      <c r="N12" s="130"/>
+      <c r="O12" s="130" t="s">
         <v>152</v>
       </c>
-      <c r="P12" s="145"/>
-      <c r="Q12" s="145" t="s">
+      <c r="P12" s="130"/>
+      <c r="Q12" s="130" t="s">
         <v>153</v>
       </c>
-      <c r="R12" s="146"/>
+      <c r="R12" s="131"/>
     </row>
     <row r="13" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="147" t="s">
+      <c r="C13" s="132" t="s">
         <v>154</v>
       </c>
-      <c r="D13" s="145"/>
-      <c r="E13" s="145" t="s">
+      <c r="D13" s="130"/>
+      <c r="E13" s="130" t="s">
         <v>155</v>
       </c>
-      <c r="F13" s="145"/>
-      <c r="G13" s="145" t="s">
+      <c r="F13" s="130"/>
+      <c r="G13" s="130" t="s">
         <v>156</v>
       </c>
-      <c r="H13" s="145"/>
-      <c r="I13" s="145" t="s">
+      <c r="H13" s="130"/>
+      <c r="I13" s="130" t="s">
         <v>157</v>
       </c>
-      <c r="J13" s="145"/>
-      <c r="K13" s="145" t="s">
+      <c r="J13" s="130"/>
+      <c r="K13" s="130" t="s">
         <v>158</v>
       </c>
-      <c r="L13" s="145"/>
-      <c r="M13" s="145" t="s">
+      <c r="L13" s="130"/>
+      <c r="M13" s="130" t="s">
         <v>159</v>
       </c>
-      <c r="N13" s="145"/>
-      <c r="O13" s="145" t="s">
+      <c r="N13" s="130"/>
+      <c r="O13" s="130" t="s">
         <v>160</v>
       </c>
-      <c r="P13" s="145"/>
-      <c r="Q13" s="145" t="s">
+      <c r="P13" s="130"/>
+      <c r="Q13" s="130" t="s">
         <v>161</v>
       </c>
-      <c r="R13" s="146"/>
+      <c r="R13" s="131"/>
     </row>
     <row r="14" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37" t="s">
@@ -5656,145 +5695,145 @@
       <c r="D14" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="E14" s="131" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="131"/>
-      <c r="G14" s="142" t="s">
+      <c r="E14" s="157" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="157"/>
+      <c r="G14" s="139" t="s">
         <v>133</v>
       </c>
-      <c r="H14" s="142"/>
-      <c r="I14" s="131" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="131"/>
-      <c r="K14" s="142" t="s">
+      <c r="H14" s="139"/>
+      <c r="I14" s="157" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="157"/>
+      <c r="K14" s="139" t="s">
         <v>134</v>
       </c>
-      <c r="L14" s="142"/>
-      <c r="M14" s="142" t="s">
+      <c r="L14" s="139"/>
+      <c r="M14" s="139" t="s">
         <v>135</v>
       </c>
-      <c r="N14" s="142"/>
-      <c r="O14" s="142" t="s">
+      <c r="N14" s="139"/>
+      <c r="O14" s="139" t="s">
         <v>136</v>
       </c>
-      <c r="P14" s="142"/>
-      <c r="Q14" s="142" t="s">
+      <c r="P14" s="139"/>
+      <c r="Q14" s="139" t="s">
         <v>137</v>
       </c>
-      <c r="R14" s="143"/>
+      <c r="R14" s="140"/>
     </row>
     <row r="15" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="144" t="s">
+      <c r="C15" s="138" t="s">
         <v>138</v>
       </c>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142" t="s">
+      <c r="D15" s="139"/>
+      <c r="E15" s="139" t="s">
         <v>139</v>
       </c>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142" t="s">
+      <c r="F15" s="139"/>
+      <c r="G15" s="139" t="s">
         <v>140</v>
       </c>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142" t="s">
+      <c r="H15" s="139"/>
+      <c r="I15" s="139" t="s">
         <v>141</v>
       </c>
-      <c r="J15" s="142"/>
-      <c r="K15" s="142" t="s">
+      <c r="J15" s="139"/>
+      <c r="K15" s="139" t="s">
         <v>142</v>
       </c>
-      <c r="L15" s="142"/>
-      <c r="M15" s="142" t="s">
+      <c r="L15" s="139"/>
+      <c r="M15" s="139" t="s">
         <v>143</v>
       </c>
-      <c r="N15" s="142"/>
-      <c r="O15" s="142" t="s">
+      <c r="N15" s="139"/>
+      <c r="O15" s="139" t="s">
         <v>144</v>
       </c>
-      <c r="P15" s="142"/>
-      <c r="Q15" s="142" t="s">
+      <c r="P15" s="139"/>
+      <c r="Q15" s="139" t="s">
         <v>145</v>
       </c>
-      <c r="R15" s="143"/>
+      <c r="R15" s="140"/>
     </row>
     <row r="16" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="144" t="s">
+      <c r="C16" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142" t="s">
+      <c r="D16" s="139"/>
+      <c r="E16" s="139" t="s">
         <v>147</v>
       </c>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142" t="s">
+      <c r="F16" s="139"/>
+      <c r="G16" s="139" t="s">
         <v>148</v>
       </c>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142" t="s">
+      <c r="H16" s="139"/>
+      <c r="I16" s="139" t="s">
         <v>149</v>
       </c>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142" t="s">
+      <c r="J16" s="139"/>
+      <c r="K16" s="139" t="s">
         <v>150</v>
       </c>
-      <c r="L16" s="142"/>
-      <c r="M16" s="142" t="s">
+      <c r="L16" s="139"/>
+      <c r="M16" s="139" t="s">
         <v>151</v>
       </c>
-      <c r="N16" s="142"/>
-      <c r="O16" s="142" t="s">
+      <c r="N16" s="139"/>
+      <c r="O16" s="139" t="s">
         <v>152</v>
       </c>
-      <c r="P16" s="142"/>
-      <c r="Q16" s="142" t="s">
+      <c r="P16" s="139"/>
+      <c r="Q16" s="139" t="s">
         <v>153</v>
       </c>
-      <c r="R16" s="143"/>
+      <c r="R16" s="140"/>
     </row>
     <row r="17" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="144" t="s">
+      <c r="C17" s="138" t="s">
         <v>154</v>
       </c>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142" t="s">
+      <c r="D17" s="139"/>
+      <c r="E17" s="139" t="s">
         <v>155</v>
       </c>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142" t="s">
+      <c r="F17" s="139"/>
+      <c r="G17" s="139" t="s">
         <v>156</v>
       </c>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142" t="s">
+      <c r="H17" s="139"/>
+      <c r="I17" s="139" t="s">
         <v>157</v>
       </c>
-      <c r="J17" s="142"/>
-      <c r="K17" s="142" t="s">
+      <c r="J17" s="139"/>
+      <c r="K17" s="139" t="s">
         <v>158</v>
       </c>
-      <c r="L17" s="142"/>
-      <c r="M17" s="142" t="s">
+      <c r="L17" s="139"/>
+      <c r="M17" s="139" t="s">
         <v>159</v>
       </c>
-      <c r="N17" s="142"/>
-      <c r="O17" s="142" t="s">
+      <c r="N17" s="139"/>
+      <c r="O17" s="139" t="s">
         <v>160</v>
       </c>
-      <c r="P17" s="142"/>
-      <c r="Q17" s="142" t="s">
+      <c r="P17" s="139"/>
+      <c r="Q17" s="139" t="s">
         <v>161</v>
       </c>
-      <c r="R17" s="143"/>
+      <c r="R17" s="140"/>
     </row>
     <row r="18" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="37" t="s">
@@ -5806,71 +5845,71 @@
       <c r="D18" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="E18" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="132"/>
-      <c r="G18" s="145" t="s">
+      <c r="E18" s="156" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="156"/>
+      <c r="G18" s="130" t="s">
         <v>133</v>
       </c>
-      <c r="H18" s="145"/>
-      <c r="I18" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="132"/>
-      <c r="K18" s="145" t="s">
+      <c r="H18" s="130"/>
+      <c r="I18" s="156" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="156"/>
+      <c r="K18" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="L18" s="145"/>
-      <c r="M18" s="145" t="s">
+      <c r="L18" s="130"/>
+      <c r="M18" s="130" t="s">
         <v>135</v>
       </c>
-      <c r="N18" s="145"/>
-      <c r="O18" s="145" t="s">
+      <c r="N18" s="130"/>
+      <c r="O18" s="130" t="s">
         <v>136</v>
       </c>
-      <c r="P18" s="145"/>
-      <c r="Q18" s="145" t="s">
+      <c r="P18" s="130"/>
+      <c r="Q18" s="130" t="s">
         <v>137</v>
       </c>
-      <c r="R18" s="146"/>
+      <c r="R18" s="131"/>
     </row>
     <row r="19" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="147" t="s">
+      <c r="C19" s="132" t="s">
         <v>138</v>
       </c>
-      <c r="D19" s="145"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="130" t="s">
         <v>139</v>
       </c>
-      <c r="F19" s="145"/>
-      <c r="G19" s="145" t="s">
+      <c r="F19" s="130"/>
+      <c r="G19" s="130" t="s">
         <v>140</v>
       </c>
-      <c r="H19" s="145"/>
-      <c r="I19" s="145" t="s">
+      <c r="H19" s="130"/>
+      <c r="I19" s="130" t="s">
         <v>141</v>
       </c>
-      <c r="J19" s="145"/>
-      <c r="K19" s="145" t="s">
+      <c r="J19" s="130"/>
+      <c r="K19" s="130" t="s">
         <v>142</v>
       </c>
-      <c r="L19" s="145"/>
-      <c r="M19" s="145" t="s">
+      <c r="L19" s="130"/>
+      <c r="M19" s="130" t="s">
         <v>143</v>
       </c>
-      <c r="N19" s="145"/>
-      <c r="O19" s="145" t="s">
+      <c r="N19" s="130"/>
+      <c r="O19" s="130" t="s">
         <v>144</v>
       </c>
-      <c r="P19" s="145"/>
-      <c r="Q19" s="145" t="s">
+      <c r="P19" s="130"/>
+      <c r="Q19" s="130" t="s">
         <v>145</v>
       </c>
-      <c r="R19" s="146"/>
+      <c r="R19" s="131"/>
       <c r="T19" s="64"/>
       <c r="U19" s="64"/>
       <c r="V19" s="64"/>
@@ -5879,38 +5918,38 @@
       <c r="B20" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="147" t="s">
+      <c r="C20" s="132" t="s">
         <v>146</v>
       </c>
-      <c r="D20" s="145"/>
-      <c r="E20" s="145" t="s">
+      <c r="D20" s="130"/>
+      <c r="E20" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145" t="s">
+      <c r="F20" s="130"/>
+      <c r="G20" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145" t="s">
+      <c r="H20" s="130"/>
+      <c r="I20" s="130" t="s">
         <v>149</v>
       </c>
-      <c r="J20" s="145"/>
-      <c r="K20" s="145" t="s">
+      <c r="J20" s="130"/>
+      <c r="K20" s="130" t="s">
         <v>150</v>
       </c>
-      <c r="L20" s="145"/>
-      <c r="M20" s="145" t="s">
+      <c r="L20" s="130"/>
+      <c r="M20" s="130" t="s">
         <v>151</v>
       </c>
-      <c r="N20" s="145"/>
-      <c r="O20" s="145" t="s">
+      <c r="N20" s="130"/>
+      <c r="O20" s="130" t="s">
         <v>152</v>
       </c>
-      <c r="P20" s="145"/>
-      <c r="Q20" s="145" t="s">
+      <c r="P20" s="130"/>
+      <c r="Q20" s="130" t="s">
         <v>153</v>
       </c>
-      <c r="R20" s="146"/>
+      <c r="R20" s="131"/>
       <c r="T20" s="67"/>
       <c r="U20" s="67"/>
       <c r="V20" s="67"/>
@@ -5919,61 +5958,61 @@
       <c r="B21" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="154" t="s">
+      <c r="C21" s="141" t="s">
         <v>154</v>
       </c>
-      <c r="D21" s="148"/>
-      <c r="E21" s="148" t="s">
+      <c r="D21" s="142"/>
+      <c r="E21" s="142" t="s">
         <v>155</v>
       </c>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148" t="s">
+      <c r="F21" s="142"/>
+      <c r="G21" s="142" t="s">
         <v>156</v>
       </c>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148" t="s">
+      <c r="H21" s="142"/>
+      <c r="I21" s="142" t="s">
         <v>157</v>
       </c>
-      <c r="J21" s="148"/>
-      <c r="K21" s="148" t="s">
+      <c r="J21" s="142"/>
+      <c r="K21" s="142" t="s">
         <v>158</v>
       </c>
-      <c r="L21" s="148"/>
-      <c r="M21" s="148" t="s">
+      <c r="L21" s="142"/>
+      <c r="M21" s="142" t="s">
         <v>159</v>
       </c>
-      <c r="N21" s="148"/>
-      <c r="O21" s="148" t="s">
+      <c r="N21" s="142"/>
+      <c r="O21" s="142" t="s">
         <v>160</v>
       </c>
-      <c r="P21" s="148"/>
-      <c r="Q21" s="148" t="s">
+      <c r="P21" s="142"/>
+      <c r="Q21" s="142" t="s">
         <v>161</v>
       </c>
-      <c r="R21" s="149"/>
+      <c r="R21" s="143"/>
       <c r="T21" s="67"/>
       <c r="U21" s="67"/>
       <c r="V21" s="67"/>
     </row>
     <row r="22" spans="1:37" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="64"/>
-      <c r="B22" s="160"/>
-      <c r="C22" s="161"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="161"/>
-      <c r="J22" s="161"/>
-      <c r="K22" s="161"/>
-      <c r="L22" s="161"/>
-      <c r="M22" s="161"/>
-      <c r="N22" s="161"/>
-      <c r="O22" s="161"/>
-      <c r="P22" s="161"/>
-      <c r="Q22" s="161"/>
-      <c r="R22" s="161"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="134"/>
+      <c r="K22" s="134"/>
+      <c r="L22" s="134"/>
+      <c r="M22" s="134"/>
+      <c r="N22" s="134"/>
+      <c r="O22" s="134"/>
+      <c r="P22" s="134"/>
+      <c r="Q22" s="134"/>
+      <c r="R22" s="134"/>
       <c r="S22" s="64"/>
       <c r="T22" s="68"/>
       <c r="U22" s="68"/>
@@ -6004,34 +6043,34 @@
       <c r="D23" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="E23" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="130"/>
-      <c r="G23" s="140" t="s">
+      <c r="E23" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="149"/>
+      <c r="G23" s="144" t="s">
         <v>133</v>
       </c>
-      <c r="H23" s="140"/>
-      <c r="I23" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="130"/>
-      <c r="K23" s="140" t="s">
+      <c r="H23" s="144"/>
+      <c r="I23" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="149"/>
+      <c r="K23" s="144" t="s">
         <v>134</v>
       </c>
-      <c r="L23" s="140"/>
-      <c r="M23" s="140" t="s">
+      <c r="L23" s="144"/>
+      <c r="M23" s="144" t="s">
         <v>135</v>
       </c>
-      <c r="N23" s="140"/>
-      <c r="O23" s="140" t="s">
+      <c r="N23" s="144"/>
+      <c r="O23" s="144" t="s">
         <v>136</v>
       </c>
-      <c r="P23" s="140"/>
-      <c r="Q23" s="140" t="s">
+      <c r="P23" s="144"/>
+      <c r="Q23" s="144" t="s">
         <v>137</v>
       </c>
-      <c r="R23" s="141"/>
+      <c r="R23" s="145"/>
       <c r="T23" s="67"/>
       <c r="U23" s="67"/>
       <c r="V23" s="67"/>
@@ -6040,38 +6079,38 @@
       <c r="B24" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="144" t="s">
+      <c r="C24" s="138" t="s">
         <v>138</v>
       </c>
-      <c r="D24" s="142"/>
-      <c r="E24" s="142" t="s">
+      <c r="D24" s="139"/>
+      <c r="E24" s="139" t="s">
         <v>139</v>
       </c>
-      <c r="F24" s="142"/>
-      <c r="G24" s="142" t="s">
+      <c r="F24" s="139"/>
+      <c r="G24" s="139" t="s">
         <v>140</v>
       </c>
-      <c r="H24" s="142"/>
-      <c r="I24" s="142" t="s">
+      <c r="H24" s="139"/>
+      <c r="I24" s="139" t="s">
         <v>141</v>
       </c>
-      <c r="J24" s="142"/>
-      <c r="K24" s="142" t="s">
+      <c r="J24" s="139"/>
+      <c r="K24" s="139" t="s">
         <v>142</v>
       </c>
-      <c r="L24" s="142"/>
-      <c r="M24" s="142" t="s">
+      <c r="L24" s="139"/>
+      <c r="M24" s="139" t="s">
         <v>143</v>
       </c>
-      <c r="N24" s="142"/>
-      <c r="O24" s="142" t="s">
+      <c r="N24" s="139"/>
+      <c r="O24" s="139" t="s">
         <v>144</v>
       </c>
-      <c r="P24" s="142"/>
-      <c r="Q24" s="142" t="s">
+      <c r="P24" s="139"/>
+      <c r="Q24" s="139" t="s">
         <v>145</v>
       </c>
-      <c r="R24" s="143"/>
+      <c r="R24" s="140"/>
       <c r="T24" s="67"/>
       <c r="U24" s="67"/>
       <c r="V24" s="67"/>
@@ -6080,75 +6119,75 @@
       <c r="B25" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="144" t="s">
+      <c r="C25" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="D25" s="142"/>
-      <c r="E25" s="142" t="s">
+      <c r="D25" s="139"/>
+      <c r="E25" s="139" t="s">
         <v>147</v>
       </c>
-      <c r="F25" s="142"/>
-      <c r="G25" s="142" t="s">
+      <c r="F25" s="139"/>
+      <c r="G25" s="139" t="s">
         <v>148</v>
       </c>
-      <c r="H25" s="142"/>
-      <c r="I25" s="142" t="s">
+      <c r="H25" s="139"/>
+      <c r="I25" s="139" t="s">
         <v>149</v>
       </c>
-      <c r="J25" s="142"/>
-      <c r="K25" s="142" t="s">
+      <c r="J25" s="139"/>
+      <c r="K25" s="139" t="s">
         <v>150</v>
       </c>
-      <c r="L25" s="142"/>
-      <c r="M25" s="142" t="s">
+      <c r="L25" s="139"/>
+      <c r="M25" s="139" t="s">
         <v>151</v>
       </c>
-      <c r="N25" s="142"/>
-      <c r="O25" s="142" t="s">
+      <c r="N25" s="139"/>
+      <c r="O25" s="139" t="s">
         <v>152</v>
       </c>
-      <c r="P25" s="142"/>
-      <c r="Q25" s="142" t="s">
+      <c r="P25" s="139"/>
+      <c r="Q25" s="139" t="s">
         <v>153</v>
       </c>
-      <c r="R25" s="143"/>
+      <c r="R25" s="140"/>
     </row>
     <row r="26" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="144" t="s">
+      <c r="C26" s="138" t="s">
         <v>154</v>
       </c>
-      <c r="D26" s="142"/>
-      <c r="E26" s="142" t="s">
+      <c r="D26" s="139"/>
+      <c r="E26" s="139" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="142"/>
-      <c r="G26" s="142" t="s">
+      <c r="F26" s="139"/>
+      <c r="G26" s="139" t="s">
         <v>156</v>
       </c>
-      <c r="H26" s="142"/>
-      <c r="I26" s="142" t="s">
+      <c r="H26" s="139"/>
+      <c r="I26" s="139" t="s">
         <v>157</v>
       </c>
-      <c r="J26" s="142"/>
-      <c r="K26" s="142" t="s">
+      <c r="J26" s="139"/>
+      <c r="K26" s="139" t="s">
         <v>158</v>
       </c>
-      <c r="L26" s="142"/>
-      <c r="M26" s="142" t="s">
+      <c r="L26" s="139"/>
+      <c r="M26" s="139" t="s">
         <v>159</v>
       </c>
-      <c r="N26" s="142"/>
-      <c r="O26" s="142" t="s">
+      <c r="N26" s="139"/>
+      <c r="O26" s="139" t="s">
         <v>160</v>
       </c>
-      <c r="P26" s="142"/>
-      <c r="Q26" s="142" t="s">
+      <c r="P26" s="139"/>
+      <c r="Q26" s="139" t="s">
         <v>161</v>
       </c>
-      <c r="R26" s="143"/>
+      <c r="R26" s="140"/>
     </row>
     <row r="27" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="36" t="s">
@@ -6160,145 +6199,145 @@
       <c r="D27" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="E27" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="132"/>
-      <c r="G27" s="145" t="s">
+      <c r="E27" s="156" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="156"/>
+      <c r="G27" s="130" t="s">
         <v>133</v>
       </c>
-      <c r="H27" s="145"/>
-      <c r="I27" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" s="132"/>
-      <c r="K27" s="145" t="s">
+      <c r="H27" s="130"/>
+      <c r="I27" s="156" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="156"/>
+      <c r="K27" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="L27" s="145"/>
-      <c r="M27" s="145" t="s">
+      <c r="L27" s="130"/>
+      <c r="M27" s="130" t="s">
         <v>135</v>
       </c>
-      <c r="N27" s="145"/>
-      <c r="O27" s="145" t="s">
+      <c r="N27" s="130"/>
+      <c r="O27" s="130" t="s">
         <v>136</v>
       </c>
-      <c r="P27" s="145"/>
-      <c r="Q27" s="145" t="s">
+      <c r="P27" s="130"/>
+      <c r="Q27" s="130" t="s">
         <v>137</v>
       </c>
-      <c r="R27" s="146"/>
+      <c r="R27" s="131"/>
     </row>
     <row r="28" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="147" t="s">
+      <c r="C28" s="132" t="s">
         <v>138</v>
       </c>
-      <c r="D28" s="145"/>
-      <c r="E28" s="145" t="s">
+      <c r="D28" s="130"/>
+      <c r="E28" s="130" t="s">
         <v>139</v>
       </c>
-      <c r="F28" s="145"/>
-      <c r="G28" s="145" t="s">
+      <c r="F28" s="130"/>
+      <c r="G28" s="130" t="s">
         <v>140</v>
       </c>
-      <c r="H28" s="145"/>
-      <c r="I28" s="145" t="s">
+      <c r="H28" s="130"/>
+      <c r="I28" s="130" t="s">
         <v>141</v>
       </c>
-      <c r="J28" s="145"/>
-      <c r="K28" s="145" t="s">
+      <c r="J28" s="130"/>
+      <c r="K28" s="130" t="s">
         <v>142</v>
       </c>
-      <c r="L28" s="145"/>
-      <c r="M28" s="145" t="s">
+      <c r="L28" s="130"/>
+      <c r="M28" s="130" t="s">
         <v>143</v>
       </c>
-      <c r="N28" s="145"/>
-      <c r="O28" s="145" t="s">
+      <c r="N28" s="130"/>
+      <c r="O28" s="130" t="s">
         <v>144</v>
       </c>
-      <c r="P28" s="145"/>
-      <c r="Q28" s="145" t="s">
+      <c r="P28" s="130"/>
+      <c r="Q28" s="130" t="s">
         <v>145</v>
       </c>
-      <c r="R28" s="146"/>
+      <c r="R28" s="131"/>
     </row>
     <row r="29" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="147" t="s">
+      <c r="C29" s="132" t="s">
         <v>146</v>
       </c>
-      <c r="D29" s="145"/>
-      <c r="E29" s="145" t="s">
+      <c r="D29" s="130"/>
+      <c r="E29" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="F29" s="145"/>
-      <c r="G29" s="145" t="s">
+      <c r="F29" s="130"/>
+      <c r="G29" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="H29" s="145"/>
-      <c r="I29" s="145" t="s">
+      <c r="H29" s="130"/>
+      <c r="I29" s="130" t="s">
         <v>149</v>
       </c>
-      <c r="J29" s="145"/>
-      <c r="K29" s="145" t="s">
+      <c r="J29" s="130"/>
+      <c r="K29" s="130" t="s">
         <v>150</v>
       </c>
-      <c r="L29" s="145"/>
-      <c r="M29" s="145" t="s">
+      <c r="L29" s="130"/>
+      <c r="M29" s="130" t="s">
         <v>151</v>
       </c>
-      <c r="N29" s="145"/>
-      <c r="O29" s="145" t="s">
+      <c r="N29" s="130"/>
+      <c r="O29" s="130" t="s">
         <v>152</v>
       </c>
-      <c r="P29" s="145"/>
-      <c r="Q29" s="145" t="s">
+      <c r="P29" s="130"/>
+      <c r="Q29" s="130" t="s">
         <v>153</v>
       </c>
-      <c r="R29" s="146"/>
+      <c r="R29" s="131"/>
     </row>
     <row r="30" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="147" t="s">
+      <c r="C30" s="132" t="s">
         <v>154</v>
       </c>
-      <c r="D30" s="145"/>
-      <c r="E30" s="145" t="s">
+      <c r="D30" s="130"/>
+      <c r="E30" s="130" t="s">
         <v>155</v>
       </c>
-      <c r="F30" s="145"/>
-      <c r="G30" s="145" t="s">
+      <c r="F30" s="130"/>
+      <c r="G30" s="130" t="s">
         <v>156</v>
       </c>
-      <c r="H30" s="145"/>
-      <c r="I30" s="145" t="s">
+      <c r="H30" s="130"/>
+      <c r="I30" s="130" t="s">
         <v>157</v>
       </c>
-      <c r="J30" s="145"/>
-      <c r="K30" s="145" t="s">
+      <c r="J30" s="130"/>
+      <c r="K30" s="130" t="s">
         <v>158</v>
       </c>
-      <c r="L30" s="145"/>
-      <c r="M30" s="145" t="s">
+      <c r="L30" s="130"/>
+      <c r="M30" s="130" t="s">
         <v>159</v>
       </c>
-      <c r="N30" s="145"/>
-      <c r="O30" s="145" t="s">
+      <c r="N30" s="130"/>
+      <c r="O30" s="130" t="s">
         <v>160</v>
       </c>
-      <c r="P30" s="145"/>
-      <c r="Q30" s="145" t="s">
+      <c r="P30" s="130"/>
+      <c r="Q30" s="130" t="s">
         <v>161</v>
       </c>
-      <c r="R30" s="146"/>
+      <c r="R30" s="131"/>
     </row>
     <row r="31" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="37" t="s">
@@ -6310,145 +6349,145 @@
       <c r="D31" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="E31" s="131" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="131"/>
-      <c r="G31" s="142" t="s">
+      <c r="E31" s="157" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="157"/>
+      <c r="G31" s="139" t="s">
         <v>133</v>
       </c>
-      <c r="H31" s="142"/>
-      <c r="I31" s="131" t="s">
-        <v>6</v>
-      </c>
-      <c r="J31" s="131"/>
-      <c r="K31" s="142" t="s">
+      <c r="H31" s="139"/>
+      <c r="I31" s="157" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="157"/>
+      <c r="K31" s="139" t="s">
         <v>134</v>
       </c>
-      <c r="L31" s="142"/>
-      <c r="M31" s="142" t="s">
+      <c r="L31" s="139"/>
+      <c r="M31" s="139" t="s">
         <v>135</v>
       </c>
-      <c r="N31" s="142"/>
-      <c r="O31" s="142" t="s">
+      <c r="N31" s="139"/>
+      <c r="O31" s="139" t="s">
         <v>136</v>
       </c>
-      <c r="P31" s="142"/>
-      <c r="Q31" s="142" t="s">
+      <c r="P31" s="139"/>
+      <c r="Q31" s="139" t="s">
         <v>137</v>
       </c>
-      <c r="R31" s="143"/>
+      <c r="R31" s="140"/>
     </row>
     <row r="32" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="C32" s="144" t="s">
+      <c r="C32" s="138" t="s">
         <v>138</v>
       </c>
-      <c r="D32" s="142"/>
-      <c r="E32" s="142" t="s">
+      <c r="D32" s="139"/>
+      <c r="E32" s="139" t="s">
         <v>139</v>
       </c>
-      <c r="F32" s="142"/>
-      <c r="G32" s="142" t="s">
+      <c r="F32" s="139"/>
+      <c r="G32" s="139" t="s">
         <v>140</v>
       </c>
-      <c r="H32" s="142"/>
-      <c r="I32" s="142" t="s">
+      <c r="H32" s="139"/>
+      <c r="I32" s="139" t="s">
         <v>141</v>
       </c>
-      <c r="J32" s="142"/>
-      <c r="K32" s="142" t="s">
+      <c r="J32" s="139"/>
+      <c r="K32" s="139" t="s">
         <v>142</v>
       </c>
-      <c r="L32" s="142"/>
-      <c r="M32" s="142" t="s">
+      <c r="L32" s="139"/>
+      <c r="M32" s="139" t="s">
         <v>143</v>
       </c>
-      <c r="N32" s="142"/>
-      <c r="O32" s="142" t="s">
+      <c r="N32" s="139"/>
+      <c r="O32" s="139" t="s">
         <v>144</v>
       </c>
-      <c r="P32" s="142"/>
-      <c r="Q32" s="142" t="s">
+      <c r="P32" s="139"/>
+      <c r="Q32" s="139" t="s">
         <v>145</v>
       </c>
-      <c r="R32" s="143"/>
+      <c r="R32" s="140"/>
     </row>
     <row r="33" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="C33" s="144" t="s">
+      <c r="C33" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="D33" s="142"/>
-      <c r="E33" s="142" t="s">
+      <c r="D33" s="139"/>
+      <c r="E33" s="139" t="s">
         <v>147</v>
       </c>
-      <c r="F33" s="142"/>
-      <c r="G33" s="142" t="s">
+      <c r="F33" s="139"/>
+      <c r="G33" s="139" t="s">
         <v>148</v>
       </c>
-      <c r="H33" s="142"/>
-      <c r="I33" s="142" t="s">
+      <c r="H33" s="139"/>
+      <c r="I33" s="139" t="s">
         <v>149</v>
       </c>
-      <c r="J33" s="142"/>
-      <c r="K33" s="142" t="s">
+      <c r="J33" s="139"/>
+      <c r="K33" s="139" t="s">
         <v>150</v>
       </c>
-      <c r="L33" s="142"/>
-      <c r="M33" s="142" t="s">
+      <c r="L33" s="139"/>
+      <c r="M33" s="139" t="s">
         <v>151</v>
       </c>
-      <c r="N33" s="142"/>
-      <c r="O33" s="142" t="s">
+      <c r="N33" s="139"/>
+      <c r="O33" s="139" t="s">
         <v>152</v>
       </c>
-      <c r="P33" s="142"/>
-      <c r="Q33" s="142" t="s">
+      <c r="P33" s="139"/>
+      <c r="Q33" s="139" t="s">
         <v>153</v>
       </c>
-      <c r="R33" s="143"/>
+      <c r="R33" s="140"/>
     </row>
     <row r="34" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="C34" s="144" t="s">
+      <c r="C34" s="138" t="s">
         <v>154</v>
       </c>
-      <c r="D34" s="142"/>
-      <c r="E34" s="142" t="s">
+      <c r="D34" s="139"/>
+      <c r="E34" s="139" t="s">
         <v>155</v>
       </c>
-      <c r="F34" s="142"/>
-      <c r="G34" s="142" t="s">
+      <c r="F34" s="139"/>
+      <c r="G34" s="139" t="s">
         <v>156</v>
       </c>
-      <c r="H34" s="142"/>
-      <c r="I34" s="142" t="s">
+      <c r="H34" s="139"/>
+      <c r="I34" s="139" t="s">
         <v>157</v>
       </c>
-      <c r="J34" s="142"/>
-      <c r="K34" s="142" t="s">
+      <c r="J34" s="139"/>
+      <c r="K34" s="139" t="s">
         <v>158</v>
       </c>
-      <c r="L34" s="142"/>
-      <c r="M34" s="142" t="s">
+      <c r="L34" s="139"/>
+      <c r="M34" s="139" t="s">
         <v>159</v>
       </c>
-      <c r="N34" s="142"/>
-      <c r="O34" s="142" t="s">
+      <c r="N34" s="139"/>
+      <c r="O34" s="139" t="s">
         <v>160</v>
       </c>
-      <c r="P34" s="142"/>
-      <c r="Q34" s="142" t="s">
+      <c r="P34" s="139"/>
+      <c r="Q34" s="139" t="s">
         <v>161</v>
       </c>
-      <c r="R34" s="143"/>
+      <c r="R34" s="140"/>
     </row>
     <row r="35" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="37" t="s">
@@ -6460,165 +6499,165 @@
       <c r="D35" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="E35" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" s="132"/>
-      <c r="G35" s="145" t="s">
+      <c r="E35" s="156" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="156"/>
+      <c r="G35" s="130" t="s">
         <v>133</v>
       </c>
-      <c r="H35" s="145"/>
-      <c r="I35" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="J35" s="132"/>
-      <c r="K35" s="145" t="s">
+      <c r="H35" s="130"/>
+      <c r="I35" s="156" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="156"/>
+      <c r="K35" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="L35" s="145"/>
-      <c r="M35" s="145" t="s">
+      <c r="L35" s="130"/>
+      <c r="M35" s="130" t="s">
         <v>135</v>
       </c>
-      <c r="N35" s="145"/>
-      <c r="O35" s="145" t="s">
+      <c r="N35" s="130"/>
+      <c r="O35" s="130" t="s">
         <v>136</v>
       </c>
-      <c r="P35" s="145"/>
-      <c r="Q35" s="145" t="s">
+      <c r="P35" s="130"/>
+      <c r="Q35" s="130" t="s">
         <v>137</v>
       </c>
-      <c r="R35" s="146"/>
+      <c r="R35" s="131"/>
     </row>
     <row r="36" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="C36" s="147" t="s">
+      <c r="C36" s="132" t="s">
         <v>138</v>
       </c>
-      <c r="D36" s="145"/>
-      <c r="E36" s="145" t="s">
+      <c r="D36" s="130"/>
+      <c r="E36" s="130" t="s">
         <v>139</v>
       </c>
-      <c r="F36" s="145"/>
-      <c r="G36" s="145" t="s">
+      <c r="F36" s="130"/>
+      <c r="G36" s="130" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="145"/>
-      <c r="I36" s="145" t="s">
+      <c r="H36" s="130"/>
+      <c r="I36" s="130" t="s">
         <v>141</v>
       </c>
-      <c r="J36" s="145"/>
-      <c r="K36" s="145" t="s">
+      <c r="J36" s="130"/>
+      <c r="K36" s="130" t="s">
         <v>142</v>
       </c>
-      <c r="L36" s="145"/>
-      <c r="M36" s="145" t="s">
+      <c r="L36" s="130"/>
+      <c r="M36" s="130" t="s">
         <v>143</v>
       </c>
-      <c r="N36" s="145"/>
-      <c r="O36" s="145" t="s">
+      <c r="N36" s="130"/>
+      <c r="O36" s="130" t="s">
         <v>144</v>
       </c>
-      <c r="P36" s="145"/>
-      <c r="Q36" s="145" t="s">
+      <c r="P36" s="130"/>
+      <c r="Q36" s="130" t="s">
         <v>145</v>
       </c>
-      <c r="R36" s="146"/>
+      <c r="R36" s="131"/>
     </row>
     <row r="37" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="C37" s="147" t="s">
+      <c r="C37" s="132" t="s">
         <v>146</v>
       </c>
-      <c r="D37" s="145"/>
-      <c r="E37" s="145" t="s">
+      <c r="D37" s="130"/>
+      <c r="E37" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="F37" s="145"/>
-      <c r="G37" s="145" t="s">
+      <c r="F37" s="130"/>
+      <c r="G37" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="H37" s="145"/>
-      <c r="I37" s="145" t="s">
+      <c r="H37" s="130"/>
+      <c r="I37" s="130" t="s">
         <v>149</v>
       </c>
-      <c r="J37" s="145"/>
-      <c r="K37" s="145" t="s">
+      <c r="J37" s="130"/>
+      <c r="K37" s="130" t="s">
         <v>150</v>
       </c>
-      <c r="L37" s="145"/>
-      <c r="M37" s="145" t="s">
+      <c r="L37" s="130"/>
+      <c r="M37" s="130" t="s">
         <v>151</v>
       </c>
-      <c r="N37" s="145"/>
-      <c r="O37" s="145" t="s">
+      <c r="N37" s="130"/>
+      <c r="O37" s="130" t="s">
         <v>152</v>
       </c>
-      <c r="P37" s="145"/>
-      <c r="Q37" s="145" t="s">
+      <c r="P37" s="130"/>
+      <c r="Q37" s="130" t="s">
         <v>153</v>
       </c>
-      <c r="R37" s="146"/>
+      <c r="R37" s="131"/>
     </row>
     <row r="38" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="C38" s="154" t="s">
+      <c r="C38" s="141" t="s">
         <v>154</v>
       </c>
-      <c r="D38" s="148"/>
-      <c r="E38" s="148" t="s">
+      <c r="D38" s="142"/>
+      <c r="E38" s="142" t="s">
         <v>155</v>
       </c>
-      <c r="F38" s="148"/>
-      <c r="G38" s="148" t="s">
+      <c r="F38" s="142"/>
+      <c r="G38" s="142" t="s">
         <v>156</v>
       </c>
-      <c r="H38" s="148"/>
-      <c r="I38" s="148" t="s">
+      <c r="H38" s="142"/>
+      <c r="I38" s="142" t="s">
         <v>157</v>
       </c>
-      <c r="J38" s="148"/>
-      <c r="K38" s="148" t="s">
+      <c r="J38" s="142"/>
+      <c r="K38" s="142" t="s">
         <v>158</v>
       </c>
-      <c r="L38" s="148"/>
-      <c r="M38" s="148" t="s">
+      <c r="L38" s="142"/>
+      <c r="M38" s="142" t="s">
         <v>159</v>
       </c>
-      <c r="N38" s="148"/>
-      <c r="O38" s="148" t="s">
+      <c r="N38" s="142"/>
+      <c r="O38" s="142" t="s">
         <v>160</v>
       </c>
-      <c r="P38" s="148"/>
-      <c r="Q38" s="148" t="s">
+      <c r="P38" s="142"/>
+      <c r="Q38" s="142" t="s">
         <v>161</v>
       </c>
-      <c r="R38" s="149"/>
+      <c r="R38" s="143"/>
     </row>
     <row r="39" spans="1:19" s="66" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="67"/>
-      <c r="B39" s="162"/>
-      <c r="C39" s="163"/>
-      <c r="D39" s="163"/>
-      <c r="E39" s="163"/>
-      <c r="F39" s="163"/>
-      <c r="G39" s="163"/>
-      <c r="H39" s="163"/>
-      <c r="I39" s="163"/>
-      <c r="J39" s="163"/>
-      <c r="K39" s="163"/>
-      <c r="L39" s="163"/>
-      <c r="M39" s="163"/>
-      <c r="N39" s="163"/>
-      <c r="O39" s="163"/>
-      <c r="P39" s="163"/>
-      <c r="Q39" s="163"/>
-      <c r="R39" s="163"/>
+      <c r="B39" s="135"/>
+      <c r="C39" s="136"/>
+      <c r="D39" s="136"/>
+      <c r="E39" s="136"/>
+      <c r="F39" s="136"/>
+      <c r="G39" s="136"/>
+      <c r="H39" s="136"/>
+      <c r="I39" s="136"/>
+      <c r="J39" s="136"/>
+      <c r="K39" s="136"/>
+      <c r="L39" s="136"/>
+      <c r="M39" s="136"/>
+      <c r="N39" s="136"/>
+      <c r="O39" s="136"/>
+      <c r="P39" s="136"/>
+      <c r="Q39" s="136"/>
+      <c r="R39" s="136"/>
       <c r="S39" s="67"/>
     </row>
     <row r="40" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6631,145 +6670,145 @@
       <c r="D40" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="E40" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="130"/>
-      <c r="G40" s="140" t="s">
+      <c r="E40" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="149"/>
+      <c r="G40" s="144" t="s">
         <v>133</v>
       </c>
-      <c r="H40" s="140"/>
-      <c r="I40" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="J40" s="130"/>
-      <c r="K40" s="140" t="s">
+      <c r="H40" s="144"/>
+      <c r="I40" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" s="149"/>
+      <c r="K40" s="144" t="s">
         <v>134</v>
       </c>
-      <c r="L40" s="140"/>
-      <c r="M40" s="140" t="s">
+      <c r="L40" s="144"/>
+      <c r="M40" s="144" t="s">
         <v>135</v>
       </c>
-      <c r="N40" s="140"/>
-      <c r="O40" s="140" t="s">
+      <c r="N40" s="144"/>
+      <c r="O40" s="144" t="s">
         <v>136</v>
       </c>
-      <c r="P40" s="140"/>
-      <c r="Q40" s="140" t="s">
+      <c r="P40" s="144"/>
+      <c r="Q40" s="144" t="s">
         <v>137</v>
       </c>
-      <c r="R40" s="141"/>
+      <c r="R40" s="145"/>
     </row>
     <row r="41" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="C41" s="144" t="s">
+      <c r="C41" s="138" t="s">
         <v>138</v>
       </c>
-      <c r="D41" s="142"/>
-      <c r="E41" s="142" t="s">
+      <c r="D41" s="139"/>
+      <c r="E41" s="139" t="s">
         <v>139</v>
       </c>
-      <c r="F41" s="142"/>
-      <c r="G41" s="142" t="s">
+      <c r="F41" s="139"/>
+      <c r="G41" s="139" t="s">
         <v>140</v>
       </c>
-      <c r="H41" s="142"/>
-      <c r="I41" s="142" t="s">
+      <c r="H41" s="139"/>
+      <c r="I41" s="139" t="s">
         <v>141</v>
       </c>
-      <c r="J41" s="142"/>
-      <c r="K41" s="142" t="s">
+      <c r="J41" s="139"/>
+      <c r="K41" s="139" t="s">
         <v>142</v>
       </c>
-      <c r="L41" s="142"/>
-      <c r="M41" s="142" t="s">
+      <c r="L41" s="139"/>
+      <c r="M41" s="139" t="s">
         <v>143</v>
       </c>
-      <c r="N41" s="142"/>
-      <c r="O41" s="142" t="s">
+      <c r="N41" s="139"/>
+      <c r="O41" s="139" t="s">
         <v>144</v>
       </c>
-      <c r="P41" s="142"/>
-      <c r="Q41" s="142" t="s">
+      <c r="P41" s="139"/>
+      <c r="Q41" s="139" t="s">
         <v>145</v>
       </c>
-      <c r="R41" s="143"/>
+      <c r="R41" s="140"/>
     </row>
     <row r="42" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="C42" s="144" t="s">
+      <c r="C42" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="D42" s="142"/>
-      <c r="E42" s="142" t="s">
+      <c r="D42" s="139"/>
+      <c r="E42" s="139" t="s">
         <v>147</v>
       </c>
-      <c r="F42" s="142"/>
-      <c r="G42" s="142" t="s">
+      <c r="F42" s="139"/>
+      <c r="G42" s="139" t="s">
         <v>148</v>
       </c>
-      <c r="H42" s="142"/>
-      <c r="I42" s="142" t="s">
+      <c r="H42" s="139"/>
+      <c r="I42" s="139" t="s">
         <v>149</v>
       </c>
-      <c r="J42" s="142"/>
-      <c r="K42" s="142" t="s">
+      <c r="J42" s="139"/>
+      <c r="K42" s="139" t="s">
         <v>150</v>
       </c>
-      <c r="L42" s="142"/>
-      <c r="M42" s="142" t="s">
+      <c r="L42" s="139"/>
+      <c r="M42" s="139" t="s">
         <v>151</v>
       </c>
-      <c r="N42" s="142"/>
-      <c r="O42" s="142" t="s">
+      <c r="N42" s="139"/>
+      <c r="O42" s="139" t="s">
         <v>152</v>
       </c>
-      <c r="P42" s="142"/>
-      <c r="Q42" s="142" t="s">
+      <c r="P42" s="139"/>
+      <c r="Q42" s="139" t="s">
         <v>153</v>
       </c>
-      <c r="R42" s="143"/>
+      <c r="R42" s="140"/>
     </row>
     <row r="43" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="C43" s="144" t="s">
+      <c r="C43" s="138" t="s">
         <v>154</v>
       </c>
-      <c r="D43" s="142"/>
-      <c r="E43" s="142" t="s">
+      <c r="D43" s="139"/>
+      <c r="E43" s="139" t="s">
         <v>155</v>
       </c>
-      <c r="F43" s="142"/>
-      <c r="G43" s="142" t="s">
+      <c r="F43" s="139"/>
+      <c r="G43" s="139" t="s">
         <v>156</v>
       </c>
-      <c r="H43" s="142"/>
-      <c r="I43" s="142" t="s">
+      <c r="H43" s="139"/>
+      <c r="I43" s="139" t="s">
         <v>157</v>
       </c>
-      <c r="J43" s="142"/>
-      <c r="K43" s="142" t="s">
+      <c r="J43" s="139"/>
+      <c r="K43" s="139" t="s">
         <v>158</v>
       </c>
-      <c r="L43" s="142"/>
-      <c r="M43" s="142" t="s">
+      <c r="L43" s="139"/>
+      <c r="M43" s="139" t="s">
         <v>159</v>
       </c>
-      <c r="N43" s="142"/>
-      <c r="O43" s="142" t="s">
+      <c r="N43" s="139"/>
+      <c r="O43" s="139" t="s">
         <v>160</v>
       </c>
-      <c r="P43" s="142"/>
-      <c r="Q43" s="142" t="s">
+      <c r="P43" s="139"/>
+      <c r="Q43" s="139" t="s">
         <v>161</v>
       </c>
-      <c r="R43" s="143"/>
+      <c r="R43" s="140"/>
     </row>
     <row r="44" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="36" t="s">
@@ -6781,145 +6820,145 @@
       <c r="D44" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="E44" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" s="132"/>
-      <c r="G44" s="145" t="s">
+      <c r="E44" s="156" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="156"/>
+      <c r="G44" s="130" t="s">
         <v>133</v>
       </c>
-      <c r="H44" s="145"/>
-      <c r="I44" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="J44" s="132"/>
-      <c r="K44" s="145" t="s">
+      <c r="H44" s="130"/>
+      <c r="I44" s="156" t="s">
+        <v>6</v>
+      </c>
+      <c r="J44" s="156"/>
+      <c r="K44" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="L44" s="145"/>
-      <c r="M44" s="145" t="s">
+      <c r="L44" s="130"/>
+      <c r="M44" s="130" t="s">
         <v>135</v>
       </c>
-      <c r="N44" s="145"/>
-      <c r="O44" s="145" t="s">
+      <c r="N44" s="130"/>
+      <c r="O44" s="130" t="s">
         <v>136</v>
       </c>
-      <c r="P44" s="145"/>
-      <c r="Q44" s="145" t="s">
+      <c r="P44" s="130"/>
+      <c r="Q44" s="130" t="s">
         <v>137</v>
       </c>
-      <c r="R44" s="146"/>
+      <c r="R44" s="131"/>
     </row>
     <row r="45" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="C45" s="147" t="s">
+      <c r="C45" s="132" t="s">
         <v>138</v>
       </c>
-      <c r="D45" s="145"/>
-      <c r="E45" s="145" t="s">
+      <c r="D45" s="130"/>
+      <c r="E45" s="130" t="s">
         <v>139</v>
       </c>
-      <c r="F45" s="145"/>
-      <c r="G45" s="145" t="s">
+      <c r="F45" s="130"/>
+      <c r="G45" s="130" t="s">
         <v>140</v>
       </c>
-      <c r="H45" s="145"/>
-      <c r="I45" s="145" t="s">
+      <c r="H45" s="130"/>
+      <c r="I45" s="130" t="s">
         <v>141</v>
       </c>
-      <c r="J45" s="145"/>
-      <c r="K45" s="145" t="s">
+      <c r="J45" s="130"/>
+      <c r="K45" s="130" t="s">
         <v>142</v>
       </c>
-      <c r="L45" s="145"/>
-      <c r="M45" s="145" t="s">
+      <c r="L45" s="130"/>
+      <c r="M45" s="130" t="s">
         <v>143</v>
       </c>
-      <c r="N45" s="145"/>
-      <c r="O45" s="145" t="s">
+      <c r="N45" s="130"/>
+      <c r="O45" s="130" t="s">
         <v>144</v>
       </c>
-      <c r="P45" s="145"/>
-      <c r="Q45" s="145" t="s">
+      <c r="P45" s="130"/>
+      <c r="Q45" s="130" t="s">
         <v>145</v>
       </c>
-      <c r="R45" s="146"/>
+      <c r="R45" s="131"/>
     </row>
     <row r="46" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="C46" s="147" t="s">
+      <c r="C46" s="132" t="s">
         <v>146</v>
       </c>
-      <c r="D46" s="145"/>
-      <c r="E46" s="145" t="s">
+      <c r="D46" s="130"/>
+      <c r="E46" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="F46" s="145"/>
-      <c r="G46" s="145" t="s">
+      <c r="F46" s="130"/>
+      <c r="G46" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="H46" s="145"/>
-      <c r="I46" s="145" t="s">
+      <c r="H46" s="130"/>
+      <c r="I46" s="130" t="s">
         <v>149</v>
       </c>
-      <c r="J46" s="145"/>
-      <c r="K46" s="145" t="s">
+      <c r="J46" s="130"/>
+      <c r="K46" s="130" t="s">
         <v>150</v>
       </c>
-      <c r="L46" s="145"/>
-      <c r="M46" s="145" t="s">
+      <c r="L46" s="130"/>
+      <c r="M46" s="130" t="s">
         <v>151</v>
       </c>
-      <c r="N46" s="145"/>
-      <c r="O46" s="145" t="s">
+      <c r="N46" s="130"/>
+      <c r="O46" s="130" t="s">
         <v>152</v>
       </c>
-      <c r="P46" s="145"/>
-      <c r="Q46" s="145" t="s">
+      <c r="P46" s="130"/>
+      <c r="Q46" s="130" t="s">
         <v>153</v>
       </c>
-      <c r="R46" s="146"/>
+      <c r="R46" s="131"/>
     </row>
     <row r="47" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="C47" s="147" t="s">
+      <c r="C47" s="132" t="s">
         <v>154</v>
       </c>
-      <c r="D47" s="145"/>
-      <c r="E47" s="145" t="s">
+      <c r="D47" s="130"/>
+      <c r="E47" s="130" t="s">
         <v>155</v>
       </c>
-      <c r="F47" s="145"/>
-      <c r="G47" s="145" t="s">
+      <c r="F47" s="130"/>
+      <c r="G47" s="130" t="s">
         <v>156</v>
       </c>
-      <c r="H47" s="145"/>
-      <c r="I47" s="145" t="s">
+      <c r="H47" s="130"/>
+      <c r="I47" s="130" t="s">
         <v>157</v>
       </c>
-      <c r="J47" s="145"/>
-      <c r="K47" s="145" t="s">
+      <c r="J47" s="130"/>
+      <c r="K47" s="130" t="s">
         <v>158</v>
       </c>
-      <c r="L47" s="145"/>
-      <c r="M47" s="145" t="s">
+      <c r="L47" s="130"/>
+      <c r="M47" s="130" t="s">
         <v>159</v>
       </c>
-      <c r="N47" s="145"/>
-      <c r="O47" s="145" t="s">
+      <c r="N47" s="130"/>
+      <c r="O47" s="130" t="s">
         <v>160</v>
       </c>
-      <c r="P47" s="145"/>
-      <c r="Q47" s="145" t="s">
+      <c r="P47" s="130"/>
+      <c r="Q47" s="130" t="s">
         <v>161</v>
       </c>
-      <c r="R47" s="146"/>
+      <c r="R47" s="131"/>
     </row>
     <row r="48" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="37" t="s">
@@ -6931,145 +6970,145 @@
       <c r="D48" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="E48" s="131" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" s="131"/>
-      <c r="G48" s="142" t="s">
+      <c r="E48" s="157" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="157"/>
+      <c r="G48" s="139" t="s">
         <v>133</v>
       </c>
-      <c r="H48" s="142"/>
-      <c r="I48" s="131" t="s">
-        <v>6</v>
-      </c>
-      <c r="J48" s="131"/>
-      <c r="K48" s="142" t="s">
+      <c r="H48" s="139"/>
+      <c r="I48" s="157" t="s">
+        <v>6</v>
+      </c>
+      <c r="J48" s="157"/>
+      <c r="K48" s="139" t="s">
         <v>134</v>
       </c>
-      <c r="L48" s="142"/>
-      <c r="M48" s="142" t="s">
+      <c r="L48" s="139"/>
+      <c r="M48" s="139" t="s">
         <v>135</v>
       </c>
-      <c r="N48" s="142"/>
-      <c r="O48" s="142" t="s">
+      <c r="N48" s="139"/>
+      <c r="O48" s="139" t="s">
         <v>136</v>
       </c>
-      <c r="P48" s="142"/>
-      <c r="Q48" s="142" t="s">
+      <c r="P48" s="139"/>
+      <c r="Q48" s="139" t="s">
         <v>137</v>
       </c>
-      <c r="R48" s="143"/>
+      <c r="R48" s="140"/>
     </row>
     <row r="49" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="C49" s="144" t="s">
+      <c r="C49" s="138" t="s">
         <v>138</v>
       </c>
-      <c r="D49" s="142"/>
-      <c r="E49" s="142" t="s">
+      <c r="D49" s="139"/>
+      <c r="E49" s="139" t="s">
         <v>139</v>
       </c>
-      <c r="F49" s="142"/>
-      <c r="G49" s="142" t="s">
+      <c r="F49" s="139"/>
+      <c r="G49" s="139" t="s">
         <v>140</v>
       </c>
-      <c r="H49" s="142"/>
-      <c r="I49" s="142" t="s">
+      <c r="H49" s="139"/>
+      <c r="I49" s="139" t="s">
         <v>141</v>
       </c>
-      <c r="J49" s="142"/>
-      <c r="K49" s="142" t="s">
+      <c r="J49" s="139"/>
+      <c r="K49" s="139" t="s">
         <v>142</v>
       </c>
-      <c r="L49" s="142"/>
-      <c r="M49" s="142" t="s">
+      <c r="L49" s="139"/>
+      <c r="M49" s="139" t="s">
         <v>143</v>
       </c>
-      <c r="N49" s="142"/>
-      <c r="O49" s="142" t="s">
+      <c r="N49" s="139"/>
+      <c r="O49" s="139" t="s">
         <v>144</v>
       </c>
-      <c r="P49" s="142"/>
-      <c r="Q49" s="142" t="s">
+      <c r="P49" s="139"/>
+      <c r="Q49" s="139" t="s">
         <v>145</v>
       </c>
-      <c r="R49" s="143"/>
+      <c r="R49" s="140"/>
     </row>
     <row r="50" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="C50" s="144" t="s">
+      <c r="C50" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="D50" s="142"/>
-      <c r="E50" s="142" t="s">
+      <c r="D50" s="139"/>
+      <c r="E50" s="139" t="s">
         <v>147</v>
       </c>
-      <c r="F50" s="142"/>
-      <c r="G50" s="142" t="s">
+      <c r="F50" s="139"/>
+      <c r="G50" s="139" t="s">
         <v>148</v>
       </c>
-      <c r="H50" s="142"/>
-      <c r="I50" s="142" t="s">
+      <c r="H50" s="139"/>
+      <c r="I50" s="139" t="s">
         <v>149</v>
       </c>
-      <c r="J50" s="142"/>
-      <c r="K50" s="142" t="s">
+      <c r="J50" s="139"/>
+      <c r="K50" s="139" t="s">
         <v>150</v>
       </c>
-      <c r="L50" s="142"/>
-      <c r="M50" s="142" t="s">
+      <c r="L50" s="139"/>
+      <c r="M50" s="139" t="s">
         <v>151</v>
       </c>
-      <c r="N50" s="142"/>
-      <c r="O50" s="142" t="s">
+      <c r="N50" s="139"/>
+      <c r="O50" s="139" t="s">
         <v>152</v>
       </c>
-      <c r="P50" s="142"/>
-      <c r="Q50" s="142" t="s">
+      <c r="P50" s="139"/>
+      <c r="Q50" s="139" t="s">
         <v>153</v>
       </c>
-      <c r="R50" s="143"/>
+      <c r="R50" s="140"/>
     </row>
     <row r="51" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="C51" s="144" t="s">
+      <c r="C51" s="138" t="s">
         <v>154</v>
       </c>
-      <c r="D51" s="142"/>
-      <c r="E51" s="142" t="s">
+      <c r="D51" s="139"/>
+      <c r="E51" s="139" t="s">
         <v>155</v>
       </c>
-      <c r="F51" s="142"/>
-      <c r="G51" s="142" t="s">
+      <c r="F51" s="139"/>
+      <c r="G51" s="139" t="s">
         <v>156</v>
       </c>
-      <c r="H51" s="142"/>
-      <c r="I51" s="142" t="s">
+      <c r="H51" s="139"/>
+      <c r="I51" s="139" t="s">
         <v>157</v>
       </c>
-      <c r="J51" s="142"/>
-      <c r="K51" s="142" t="s">
+      <c r="J51" s="139"/>
+      <c r="K51" s="139" t="s">
         <v>158</v>
       </c>
-      <c r="L51" s="142"/>
-      <c r="M51" s="142" t="s">
+      <c r="L51" s="139"/>
+      <c r="M51" s="139" t="s">
         <v>159</v>
       </c>
-      <c r="N51" s="142"/>
-      <c r="O51" s="142" t="s">
+      <c r="N51" s="139"/>
+      <c r="O51" s="139" t="s">
         <v>160</v>
       </c>
-      <c r="P51" s="142"/>
-      <c r="Q51" s="142" t="s">
+      <c r="P51" s="139"/>
+      <c r="Q51" s="139" t="s">
         <v>161</v>
       </c>
-      <c r="R51" s="143"/>
+      <c r="R51" s="140"/>
     </row>
     <row r="52" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="37" t="s">
@@ -7081,165 +7120,165 @@
       <c r="D52" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="E52" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" s="132"/>
-      <c r="G52" s="145" t="s">
+      <c r="E52" s="156" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="156"/>
+      <c r="G52" s="130" t="s">
         <v>133</v>
       </c>
-      <c r="H52" s="145"/>
-      <c r="I52" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="J52" s="132"/>
-      <c r="K52" s="145" t="s">
+      <c r="H52" s="130"/>
+      <c r="I52" s="156" t="s">
+        <v>6</v>
+      </c>
+      <c r="J52" s="156"/>
+      <c r="K52" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="L52" s="145"/>
-      <c r="M52" s="145" t="s">
+      <c r="L52" s="130"/>
+      <c r="M52" s="130" t="s">
         <v>135</v>
       </c>
-      <c r="N52" s="145"/>
-      <c r="O52" s="145" t="s">
+      <c r="N52" s="130"/>
+      <c r="O52" s="130" t="s">
         <v>136</v>
       </c>
-      <c r="P52" s="145"/>
-      <c r="Q52" s="145" t="s">
+      <c r="P52" s="130"/>
+      <c r="Q52" s="130" t="s">
         <v>137</v>
       </c>
-      <c r="R52" s="146"/>
+      <c r="R52" s="131"/>
     </row>
     <row r="53" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="C53" s="147" t="s">
+      <c r="C53" s="132" t="s">
         <v>138</v>
       </c>
-      <c r="D53" s="145"/>
-      <c r="E53" s="145" t="s">
+      <c r="D53" s="130"/>
+      <c r="E53" s="130" t="s">
         <v>139</v>
       </c>
-      <c r="F53" s="145"/>
-      <c r="G53" s="145" t="s">
+      <c r="F53" s="130"/>
+      <c r="G53" s="130" t="s">
         <v>140</v>
       </c>
-      <c r="H53" s="145"/>
-      <c r="I53" s="145" t="s">
+      <c r="H53" s="130"/>
+      <c r="I53" s="130" t="s">
         <v>141</v>
       </c>
-      <c r="J53" s="145"/>
-      <c r="K53" s="145" t="s">
+      <c r="J53" s="130"/>
+      <c r="K53" s="130" t="s">
         <v>142</v>
       </c>
-      <c r="L53" s="145"/>
-      <c r="M53" s="145" t="s">
+      <c r="L53" s="130"/>
+      <c r="M53" s="130" t="s">
         <v>143</v>
       </c>
-      <c r="N53" s="145"/>
-      <c r="O53" s="145" t="s">
+      <c r="N53" s="130"/>
+      <c r="O53" s="130" t="s">
         <v>144</v>
       </c>
-      <c r="P53" s="145"/>
-      <c r="Q53" s="145" t="s">
+      <c r="P53" s="130"/>
+      <c r="Q53" s="130" t="s">
         <v>145</v>
       </c>
-      <c r="R53" s="146"/>
+      <c r="R53" s="131"/>
     </row>
     <row r="54" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="C54" s="147" t="s">
+      <c r="C54" s="132" t="s">
         <v>146</v>
       </c>
-      <c r="D54" s="145"/>
-      <c r="E54" s="145" t="s">
+      <c r="D54" s="130"/>
+      <c r="E54" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="F54" s="145"/>
-      <c r="G54" s="145" t="s">
+      <c r="F54" s="130"/>
+      <c r="G54" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="H54" s="145"/>
-      <c r="I54" s="145" t="s">
+      <c r="H54" s="130"/>
+      <c r="I54" s="130" t="s">
         <v>149</v>
       </c>
-      <c r="J54" s="145"/>
-      <c r="K54" s="145" t="s">
+      <c r="J54" s="130"/>
+      <c r="K54" s="130" t="s">
         <v>150</v>
       </c>
-      <c r="L54" s="145"/>
-      <c r="M54" s="145" t="s">
+      <c r="L54" s="130"/>
+      <c r="M54" s="130" t="s">
         <v>151</v>
       </c>
-      <c r="N54" s="145"/>
-      <c r="O54" s="145" t="s">
+      <c r="N54" s="130"/>
+      <c r="O54" s="130" t="s">
         <v>152</v>
       </c>
-      <c r="P54" s="145"/>
-      <c r="Q54" s="145" t="s">
+      <c r="P54" s="130"/>
+      <c r="Q54" s="130" t="s">
         <v>153</v>
       </c>
-      <c r="R54" s="146"/>
+      <c r="R54" s="131"/>
     </row>
     <row r="55" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="C55" s="154" t="s">
+      <c r="C55" s="141" t="s">
         <v>154</v>
       </c>
-      <c r="D55" s="148"/>
-      <c r="E55" s="148" t="s">
+      <c r="D55" s="142"/>
+      <c r="E55" s="142" t="s">
         <v>155</v>
       </c>
-      <c r="F55" s="148"/>
-      <c r="G55" s="148" t="s">
+      <c r="F55" s="142"/>
+      <c r="G55" s="142" t="s">
         <v>156</v>
       </c>
-      <c r="H55" s="148"/>
-      <c r="I55" s="148" t="s">
+      <c r="H55" s="142"/>
+      <c r="I55" s="142" t="s">
         <v>157</v>
       </c>
-      <c r="J55" s="148"/>
-      <c r="K55" s="148" t="s">
+      <c r="J55" s="142"/>
+      <c r="K55" s="142" t="s">
         <v>158</v>
       </c>
-      <c r="L55" s="148"/>
-      <c r="M55" s="148" t="s">
+      <c r="L55" s="142"/>
+      <c r="M55" s="142" t="s">
         <v>159</v>
       </c>
-      <c r="N55" s="148"/>
-      <c r="O55" s="148" t="s">
+      <c r="N55" s="142"/>
+      <c r="O55" s="142" t="s">
         <v>160</v>
       </c>
-      <c r="P55" s="148"/>
-      <c r="Q55" s="148" t="s">
+      <c r="P55" s="142"/>
+      <c r="Q55" s="142" t="s">
         <v>161</v>
       </c>
-      <c r="R55" s="149"/>
+      <c r="R55" s="143"/>
     </row>
     <row r="56" spans="1:19" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="64"/>
-      <c r="B56" s="160"/>
-      <c r="C56" s="161"/>
-      <c r="D56" s="161"/>
-      <c r="E56" s="161"/>
-      <c r="F56" s="161"/>
-      <c r="G56" s="161"/>
-      <c r="H56" s="161"/>
-      <c r="I56" s="161"/>
-      <c r="J56" s="161"/>
-      <c r="K56" s="161"/>
-      <c r="L56" s="161"/>
-      <c r="M56" s="161"/>
-      <c r="N56" s="161"/>
-      <c r="O56" s="161"/>
-      <c r="P56" s="161"/>
-      <c r="Q56" s="161"/>
-      <c r="R56" s="161"/>
+      <c r="B56" s="133"/>
+      <c r="C56" s="134"/>
+      <c r="D56" s="134"/>
+      <c r="E56" s="134"/>
+      <c r="F56" s="134"/>
+      <c r="G56" s="134"/>
+      <c r="H56" s="134"/>
+      <c r="I56" s="134"/>
+      <c r="J56" s="134"/>
+      <c r="K56" s="134"/>
+      <c r="L56" s="134"/>
+      <c r="M56" s="134"/>
+      <c r="N56" s="134"/>
+      <c r="O56" s="134"/>
+      <c r="P56" s="134"/>
+      <c r="Q56" s="134"/>
+      <c r="R56" s="134"/>
       <c r="S56" s="64"/>
     </row>
     <row r="57" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7252,145 +7291,145 @@
       <c r="D57" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="E57" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="F57" s="130"/>
-      <c r="G57" s="140" t="s">
+      <c r="E57" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="149"/>
+      <c r="G57" s="144" t="s">
         <v>133</v>
       </c>
-      <c r="H57" s="140"/>
-      <c r="I57" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="J57" s="130"/>
-      <c r="K57" s="140" t="s">
+      <c r="H57" s="144"/>
+      <c r="I57" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="J57" s="149"/>
+      <c r="K57" s="144" t="s">
         <v>134</v>
       </c>
-      <c r="L57" s="140"/>
-      <c r="M57" s="140" t="s">
+      <c r="L57" s="144"/>
+      <c r="M57" s="144" t="s">
         <v>135</v>
       </c>
-      <c r="N57" s="140"/>
-      <c r="O57" s="140" t="s">
+      <c r="N57" s="144"/>
+      <c r="O57" s="144" t="s">
         <v>136</v>
       </c>
-      <c r="P57" s="140"/>
-      <c r="Q57" s="140" t="s">
+      <c r="P57" s="144"/>
+      <c r="Q57" s="144" t="s">
         <v>137</v>
       </c>
-      <c r="R57" s="141"/>
+      <c r="R57" s="145"/>
     </row>
     <row r="58" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="C58" s="144" t="s">
+      <c r="C58" s="138" t="s">
         <v>138</v>
       </c>
-      <c r="D58" s="142"/>
-      <c r="E58" s="142" t="s">
+      <c r="D58" s="139"/>
+      <c r="E58" s="139" t="s">
         <v>139</v>
       </c>
-      <c r="F58" s="142"/>
-      <c r="G58" s="142" t="s">
+      <c r="F58" s="139"/>
+      <c r="G58" s="139" t="s">
         <v>140</v>
       </c>
-      <c r="H58" s="142"/>
-      <c r="I58" s="142" t="s">
+      <c r="H58" s="139"/>
+      <c r="I58" s="139" t="s">
         <v>141</v>
       </c>
-      <c r="J58" s="142"/>
-      <c r="K58" s="142" t="s">
+      <c r="J58" s="139"/>
+      <c r="K58" s="139" t="s">
         <v>142</v>
       </c>
-      <c r="L58" s="142"/>
-      <c r="M58" s="142" t="s">
+      <c r="L58" s="139"/>
+      <c r="M58" s="139" t="s">
         <v>143</v>
       </c>
-      <c r="N58" s="142"/>
-      <c r="O58" s="142" t="s">
+      <c r="N58" s="139"/>
+      <c r="O58" s="139" t="s">
         <v>144</v>
       </c>
-      <c r="P58" s="142"/>
-      <c r="Q58" s="142" t="s">
+      <c r="P58" s="139"/>
+      <c r="Q58" s="139" t="s">
         <v>145</v>
       </c>
-      <c r="R58" s="143"/>
+      <c r="R58" s="140"/>
     </row>
     <row r="59" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="C59" s="144" t="s">
+      <c r="C59" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="D59" s="142"/>
-      <c r="E59" s="142" t="s">
+      <c r="D59" s="139"/>
+      <c r="E59" s="139" t="s">
         <v>147</v>
       </c>
-      <c r="F59" s="142"/>
-      <c r="G59" s="142" t="s">
+      <c r="F59" s="139"/>
+      <c r="G59" s="139" t="s">
         <v>148</v>
       </c>
-      <c r="H59" s="142"/>
-      <c r="I59" s="142" t="s">
+      <c r="H59" s="139"/>
+      <c r="I59" s="139" t="s">
         <v>149</v>
       </c>
-      <c r="J59" s="142"/>
-      <c r="K59" s="142" t="s">
+      <c r="J59" s="139"/>
+      <c r="K59" s="139" t="s">
         <v>150</v>
       </c>
-      <c r="L59" s="142"/>
-      <c r="M59" s="142" t="s">
+      <c r="L59" s="139"/>
+      <c r="M59" s="139" t="s">
         <v>151</v>
       </c>
-      <c r="N59" s="142"/>
-      <c r="O59" s="142" t="s">
+      <c r="N59" s="139"/>
+      <c r="O59" s="139" t="s">
         <v>152</v>
       </c>
-      <c r="P59" s="142"/>
-      <c r="Q59" s="142" t="s">
+      <c r="P59" s="139"/>
+      <c r="Q59" s="139" t="s">
         <v>153</v>
       </c>
-      <c r="R59" s="143"/>
+      <c r="R59" s="140"/>
     </row>
     <row r="60" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="C60" s="144" t="s">
+      <c r="C60" s="138" t="s">
         <v>154</v>
       </c>
-      <c r="D60" s="142"/>
-      <c r="E60" s="142" t="s">
+      <c r="D60" s="139"/>
+      <c r="E60" s="139" t="s">
         <v>155</v>
       </c>
-      <c r="F60" s="142"/>
-      <c r="G60" s="142" t="s">
+      <c r="F60" s="139"/>
+      <c r="G60" s="139" t="s">
         <v>156</v>
       </c>
-      <c r="H60" s="142"/>
-      <c r="I60" s="142" t="s">
+      <c r="H60" s="139"/>
+      <c r="I60" s="139" t="s">
         <v>157</v>
       </c>
-      <c r="J60" s="142"/>
-      <c r="K60" s="142" t="s">
+      <c r="J60" s="139"/>
+      <c r="K60" s="139" t="s">
         <v>158</v>
       </c>
-      <c r="L60" s="142"/>
-      <c r="M60" s="142" t="s">
+      <c r="L60" s="139"/>
+      <c r="M60" s="139" t="s">
         <v>159</v>
       </c>
-      <c r="N60" s="142"/>
-      <c r="O60" s="142" t="s">
+      <c r="N60" s="139"/>
+      <c r="O60" s="139" t="s">
         <v>160</v>
       </c>
-      <c r="P60" s="142"/>
-      <c r="Q60" s="142" t="s">
+      <c r="P60" s="139"/>
+      <c r="Q60" s="139" t="s">
         <v>161</v>
       </c>
-      <c r="R60" s="143"/>
+      <c r="R60" s="140"/>
     </row>
     <row r="61" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="36" t="s">
@@ -7402,145 +7441,145 @@
       <c r="D61" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="E61" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="F61" s="132"/>
-      <c r="G61" s="145" t="s">
+      <c r="E61" s="156" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" s="156"/>
+      <c r="G61" s="130" t="s">
         <v>133</v>
       </c>
-      <c r="H61" s="145"/>
-      <c r="I61" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="J61" s="132"/>
-      <c r="K61" s="145" t="s">
+      <c r="H61" s="130"/>
+      <c r="I61" s="156" t="s">
+        <v>6</v>
+      </c>
+      <c r="J61" s="156"/>
+      <c r="K61" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="L61" s="145"/>
-      <c r="M61" s="145" t="s">
+      <c r="L61" s="130"/>
+      <c r="M61" s="130" t="s">
         <v>135</v>
       </c>
-      <c r="N61" s="145"/>
-      <c r="O61" s="145" t="s">
+      <c r="N61" s="130"/>
+      <c r="O61" s="130" t="s">
         <v>136</v>
       </c>
-      <c r="P61" s="145"/>
-      <c r="Q61" s="145" t="s">
+      <c r="P61" s="130"/>
+      <c r="Q61" s="130" t="s">
         <v>137</v>
       </c>
-      <c r="R61" s="146"/>
+      <c r="R61" s="131"/>
     </row>
     <row r="62" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="C62" s="147" t="s">
+      <c r="C62" s="132" t="s">
         <v>138</v>
       </c>
-      <c r="D62" s="145"/>
-      <c r="E62" s="145" t="s">
+      <c r="D62" s="130"/>
+      <c r="E62" s="130" t="s">
         <v>139</v>
       </c>
-      <c r="F62" s="145"/>
-      <c r="G62" s="145" t="s">
+      <c r="F62" s="130"/>
+      <c r="G62" s="130" t="s">
         <v>140</v>
       </c>
-      <c r="H62" s="145"/>
-      <c r="I62" s="145" t="s">
+      <c r="H62" s="130"/>
+      <c r="I62" s="130" t="s">
         <v>141</v>
       </c>
-      <c r="J62" s="145"/>
-      <c r="K62" s="145" t="s">
+      <c r="J62" s="130"/>
+      <c r="K62" s="130" t="s">
         <v>142</v>
       </c>
-      <c r="L62" s="145"/>
-      <c r="M62" s="145" t="s">
+      <c r="L62" s="130"/>
+      <c r="M62" s="130" t="s">
         <v>143</v>
       </c>
-      <c r="N62" s="145"/>
-      <c r="O62" s="145" t="s">
+      <c r="N62" s="130"/>
+      <c r="O62" s="130" t="s">
         <v>144</v>
       </c>
-      <c r="P62" s="145"/>
-      <c r="Q62" s="145" t="s">
+      <c r="P62" s="130"/>
+      <c r="Q62" s="130" t="s">
         <v>145</v>
       </c>
-      <c r="R62" s="146"/>
+      <c r="R62" s="131"/>
     </row>
     <row r="63" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="C63" s="147" t="s">
+      <c r="C63" s="132" t="s">
         <v>146</v>
       </c>
-      <c r="D63" s="145"/>
-      <c r="E63" s="145" t="s">
+      <c r="D63" s="130"/>
+      <c r="E63" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="F63" s="145"/>
-      <c r="G63" s="145" t="s">
+      <c r="F63" s="130"/>
+      <c r="G63" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="H63" s="145"/>
-      <c r="I63" s="145" t="s">
+      <c r="H63" s="130"/>
+      <c r="I63" s="130" t="s">
         <v>149</v>
       </c>
-      <c r="J63" s="145"/>
-      <c r="K63" s="145" t="s">
+      <c r="J63" s="130"/>
+      <c r="K63" s="130" t="s">
         <v>150</v>
       </c>
-      <c r="L63" s="145"/>
-      <c r="M63" s="145" t="s">
+      <c r="L63" s="130"/>
+      <c r="M63" s="130" t="s">
         <v>151</v>
       </c>
-      <c r="N63" s="145"/>
-      <c r="O63" s="145" t="s">
+      <c r="N63" s="130"/>
+      <c r="O63" s="130" t="s">
         <v>152</v>
       </c>
-      <c r="P63" s="145"/>
-      <c r="Q63" s="145" t="s">
+      <c r="P63" s="130"/>
+      <c r="Q63" s="130" t="s">
         <v>153</v>
       </c>
-      <c r="R63" s="146"/>
+      <c r="R63" s="131"/>
     </row>
     <row r="64" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="C64" s="147" t="s">
+      <c r="C64" s="132" t="s">
         <v>154</v>
       </c>
-      <c r="D64" s="145"/>
-      <c r="E64" s="145" t="s">
+      <c r="D64" s="130"/>
+      <c r="E64" s="130" t="s">
         <v>155</v>
       </c>
-      <c r="F64" s="145"/>
-      <c r="G64" s="145" t="s">
+      <c r="F64" s="130"/>
+      <c r="G64" s="130" t="s">
         <v>156</v>
       </c>
-      <c r="H64" s="145"/>
-      <c r="I64" s="145" t="s">
+      <c r="H64" s="130"/>
+      <c r="I64" s="130" t="s">
         <v>157</v>
       </c>
-      <c r="J64" s="145"/>
-      <c r="K64" s="145" t="s">
+      <c r="J64" s="130"/>
+      <c r="K64" s="130" t="s">
         <v>158</v>
       </c>
-      <c r="L64" s="145"/>
-      <c r="M64" s="145" t="s">
+      <c r="L64" s="130"/>
+      <c r="M64" s="130" t="s">
         <v>159</v>
       </c>
-      <c r="N64" s="145"/>
-      <c r="O64" s="145" t="s">
+      <c r="N64" s="130"/>
+      <c r="O64" s="130" t="s">
         <v>160</v>
       </c>
-      <c r="P64" s="145"/>
-      <c r="Q64" s="145" t="s">
+      <c r="P64" s="130"/>
+      <c r="Q64" s="130" t="s">
         <v>161</v>
       </c>
-      <c r="R64" s="146"/>
+      <c r="R64" s="131"/>
     </row>
     <row r="65" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="37" t="s">
@@ -7552,145 +7591,145 @@
       <c r="D65" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="E65" s="131" t="s">
-        <v>6</v>
-      </c>
-      <c r="F65" s="131"/>
-      <c r="G65" s="142" t="s">
+      <c r="E65" s="157" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" s="157"/>
+      <c r="G65" s="139" t="s">
         <v>133</v>
       </c>
-      <c r="H65" s="142"/>
-      <c r="I65" s="131" t="s">
-        <v>6</v>
-      </c>
-      <c r="J65" s="131"/>
-      <c r="K65" s="142" t="s">
+      <c r="H65" s="139"/>
+      <c r="I65" s="157" t="s">
+        <v>6</v>
+      </c>
+      <c r="J65" s="157"/>
+      <c r="K65" s="139" t="s">
         <v>134</v>
       </c>
-      <c r="L65" s="142"/>
-      <c r="M65" s="142" t="s">
+      <c r="L65" s="139"/>
+      <c r="M65" s="139" t="s">
         <v>135</v>
       </c>
-      <c r="N65" s="142"/>
-      <c r="O65" s="142" t="s">
+      <c r="N65" s="139"/>
+      <c r="O65" s="139" t="s">
         <v>136</v>
       </c>
-      <c r="P65" s="142"/>
-      <c r="Q65" s="142" t="s">
+      <c r="P65" s="139"/>
+      <c r="Q65" s="139" t="s">
         <v>137</v>
       </c>
-      <c r="R65" s="143"/>
+      <c r="R65" s="140"/>
     </row>
     <row r="66" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="C66" s="144" t="s">
+      <c r="C66" s="138" t="s">
         <v>138</v>
       </c>
-      <c r="D66" s="142"/>
-      <c r="E66" s="142" t="s">
+      <c r="D66" s="139"/>
+      <c r="E66" s="139" t="s">
         <v>139</v>
       </c>
-      <c r="F66" s="142"/>
-      <c r="G66" s="142" t="s">
+      <c r="F66" s="139"/>
+      <c r="G66" s="139" t="s">
         <v>140</v>
       </c>
-      <c r="H66" s="142"/>
-      <c r="I66" s="142" t="s">
+      <c r="H66" s="139"/>
+      <c r="I66" s="139" t="s">
         <v>141</v>
       </c>
-      <c r="J66" s="142"/>
-      <c r="K66" s="142" t="s">
+      <c r="J66" s="139"/>
+      <c r="K66" s="139" t="s">
         <v>142</v>
       </c>
-      <c r="L66" s="142"/>
-      <c r="M66" s="142" t="s">
+      <c r="L66" s="139"/>
+      <c r="M66" s="139" t="s">
         <v>143</v>
       </c>
-      <c r="N66" s="142"/>
-      <c r="O66" s="142" t="s">
+      <c r="N66" s="139"/>
+      <c r="O66" s="139" t="s">
         <v>144</v>
       </c>
-      <c r="P66" s="142"/>
-      <c r="Q66" s="142" t="s">
+      <c r="P66" s="139"/>
+      <c r="Q66" s="139" t="s">
         <v>145</v>
       </c>
-      <c r="R66" s="143"/>
+      <c r="R66" s="140"/>
     </row>
     <row r="67" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="C67" s="144" t="s">
+      <c r="C67" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="D67" s="142"/>
-      <c r="E67" s="142" t="s">
+      <c r="D67" s="139"/>
+      <c r="E67" s="139" t="s">
         <v>147</v>
       </c>
-      <c r="F67" s="142"/>
-      <c r="G67" s="142" t="s">
+      <c r="F67" s="139"/>
+      <c r="G67" s="139" t="s">
         <v>148</v>
       </c>
-      <c r="H67" s="142"/>
-      <c r="I67" s="142" t="s">
+      <c r="H67" s="139"/>
+      <c r="I67" s="139" t="s">
         <v>149</v>
       </c>
-      <c r="J67" s="142"/>
-      <c r="K67" s="142" t="s">
+      <c r="J67" s="139"/>
+      <c r="K67" s="139" t="s">
         <v>150</v>
       </c>
-      <c r="L67" s="142"/>
-      <c r="M67" s="142" t="s">
+      <c r="L67" s="139"/>
+      <c r="M67" s="139" t="s">
         <v>151</v>
       </c>
-      <c r="N67" s="142"/>
-      <c r="O67" s="142" t="s">
+      <c r="N67" s="139"/>
+      <c r="O67" s="139" t="s">
         <v>152</v>
       </c>
-      <c r="P67" s="142"/>
-      <c r="Q67" s="142" t="s">
+      <c r="P67" s="139"/>
+      <c r="Q67" s="139" t="s">
         <v>153</v>
       </c>
-      <c r="R67" s="143"/>
+      <c r="R67" s="140"/>
     </row>
     <row r="68" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="C68" s="144" t="s">
+      <c r="C68" s="138" t="s">
         <v>154</v>
       </c>
-      <c r="D68" s="142"/>
-      <c r="E68" s="142" t="s">
+      <c r="D68" s="139"/>
+      <c r="E68" s="139" t="s">
         <v>155</v>
       </c>
-      <c r="F68" s="142"/>
-      <c r="G68" s="142" t="s">
+      <c r="F68" s="139"/>
+      <c r="G68" s="139" t="s">
         <v>156</v>
       </c>
-      <c r="H68" s="142"/>
-      <c r="I68" s="142" t="s">
+      <c r="H68" s="139"/>
+      <c r="I68" s="139" t="s">
         <v>157</v>
       </c>
-      <c r="J68" s="142"/>
-      <c r="K68" s="142" t="s">
+      <c r="J68" s="139"/>
+      <c r="K68" s="139" t="s">
         <v>158</v>
       </c>
-      <c r="L68" s="142"/>
-      <c r="M68" s="142" t="s">
+      <c r="L68" s="139"/>
+      <c r="M68" s="139" t="s">
         <v>159</v>
       </c>
-      <c r="N68" s="142"/>
-      <c r="O68" s="142" t="s">
+      <c r="N68" s="139"/>
+      <c r="O68" s="139" t="s">
         <v>160</v>
       </c>
-      <c r="P68" s="142"/>
-      <c r="Q68" s="142" t="s">
+      <c r="P68" s="139"/>
+      <c r="Q68" s="139" t="s">
         <v>161</v>
       </c>
-      <c r="R68" s="143"/>
+      <c r="R68" s="140"/>
     </row>
     <row r="69" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="37" t="s">
@@ -7702,164 +7741,164 @@
       <c r="D69" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="E69" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="F69" s="132"/>
-      <c r="G69" s="145" t="s">
+      <c r="E69" s="156" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" s="156"/>
+      <c r="G69" s="130" t="s">
         <v>133</v>
       </c>
-      <c r="H69" s="145"/>
-      <c r="I69" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="J69" s="132"/>
-      <c r="K69" s="145" t="s">
+      <c r="H69" s="130"/>
+      <c r="I69" s="156" t="s">
+        <v>6</v>
+      </c>
+      <c r="J69" s="156"/>
+      <c r="K69" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="L69" s="145"/>
-      <c r="M69" s="145" t="s">
+      <c r="L69" s="130"/>
+      <c r="M69" s="130" t="s">
         <v>135</v>
       </c>
-      <c r="N69" s="145"/>
-      <c r="O69" s="145" t="s">
+      <c r="N69" s="130"/>
+      <c r="O69" s="130" t="s">
         <v>136</v>
       </c>
-      <c r="P69" s="145"/>
-      <c r="Q69" s="145" t="s">
+      <c r="P69" s="130"/>
+      <c r="Q69" s="130" t="s">
         <v>137</v>
       </c>
-      <c r="R69" s="146"/>
+      <c r="R69" s="131"/>
     </row>
     <row r="70" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="C70" s="147" t="s">
+      <c r="C70" s="132" t="s">
         <v>138</v>
       </c>
-      <c r="D70" s="145"/>
-      <c r="E70" s="145" t="s">
+      <c r="D70" s="130"/>
+      <c r="E70" s="130" t="s">
         <v>139</v>
       </c>
-      <c r="F70" s="145"/>
-      <c r="G70" s="145" t="s">
+      <c r="F70" s="130"/>
+      <c r="G70" s="130" t="s">
         <v>140</v>
       </c>
-      <c r="H70" s="145"/>
-      <c r="I70" s="145" t="s">
+      <c r="H70" s="130"/>
+      <c r="I70" s="130" t="s">
         <v>141</v>
       </c>
-      <c r="J70" s="145"/>
-      <c r="K70" s="145" t="s">
+      <c r="J70" s="130"/>
+      <c r="K70" s="130" t="s">
         <v>142</v>
       </c>
-      <c r="L70" s="145"/>
-      <c r="M70" s="145" t="s">
+      <c r="L70" s="130"/>
+      <c r="M70" s="130" t="s">
         <v>143</v>
       </c>
-      <c r="N70" s="145"/>
-      <c r="O70" s="145" t="s">
+      <c r="N70" s="130"/>
+      <c r="O70" s="130" t="s">
         <v>144</v>
       </c>
-      <c r="P70" s="145"/>
-      <c r="Q70" s="145" t="s">
+      <c r="P70" s="130"/>
+      <c r="Q70" s="130" t="s">
         <v>145</v>
       </c>
-      <c r="R70" s="146"/>
+      <c r="R70" s="131"/>
     </row>
     <row r="71" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="C71" s="147" t="s">
+      <c r="C71" s="132" t="s">
         <v>146</v>
       </c>
-      <c r="D71" s="145"/>
-      <c r="E71" s="145" t="s">
+      <c r="D71" s="130"/>
+      <c r="E71" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="F71" s="145"/>
-      <c r="G71" s="145" t="s">
+      <c r="F71" s="130"/>
+      <c r="G71" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="H71" s="145"/>
-      <c r="I71" s="145" t="s">
+      <c r="H71" s="130"/>
+      <c r="I71" s="130" t="s">
         <v>149</v>
       </c>
-      <c r="J71" s="145"/>
-      <c r="K71" s="145" t="s">
+      <c r="J71" s="130"/>
+      <c r="K71" s="130" t="s">
         <v>150</v>
       </c>
-      <c r="L71" s="145"/>
-      <c r="M71" s="145" t="s">
+      <c r="L71" s="130"/>
+      <c r="M71" s="130" t="s">
         <v>151</v>
       </c>
-      <c r="N71" s="145"/>
-      <c r="O71" s="145" t="s">
+      <c r="N71" s="130"/>
+      <c r="O71" s="130" t="s">
         <v>152</v>
       </c>
-      <c r="P71" s="145"/>
-      <c r="Q71" s="145" t="s">
+      <c r="P71" s="130"/>
+      <c r="Q71" s="130" t="s">
         <v>153</v>
       </c>
-      <c r="R71" s="146"/>
+      <c r="R71" s="131"/>
     </row>
     <row r="72" spans="2:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="65" t="s">
         <v>187</v>
       </c>
-      <c r="C72" s="154" t="s">
+      <c r="C72" s="141" t="s">
         <v>154</v>
       </c>
-      <c r="D72" s="148"/>
-      <c r="E72" s="148" t="s">
+      <c r="D72" s="142"/>
+      <c r="E72" s="142" t="s">
         <v>155</v>
       </c>
-      <c r="F72" s="148"/>
-      <c r="G72" s="148" t="s">
+      <c r="F72" s="142"/>
+      <c r="G72" s="142" t="s">
         <v>156</v>
       </c>
-      <c r="H72" s="148"/>
-      <c r="I72" s="148" t="s">
+      <c r="H72" s="142"/>
+      <c r="I72" s="142" t="s">
         <v>157</v>
       </c>
-      <c r="J72" s="148"/>
-      <c r="K72" s="148" t="s">
+      <c r="J72" s="142"/>
+      <c r="K72" s="142" t="s">
         <v>158</v>
       </c>
-      <c r="L72" s="148"/>
-      <c r="M72" s="148" t="s">
+      <c r="L72" s="142"/>
+      <c r="M72" s="142" t="s">
         <v>159</v>
       </c>
-      <c r="N72" s="148"/>
-      <c r="O72" s="148" t="s">
+      <c r="N72" s="142"/>
+      <c r="O72" s="142" t="s">
         <v>160</v>
       </c>
-      <c r="P72" s="148"/>
-      <c r="Q72" s="148" t="s">
+      <c r="P72" s="142"/>
+      <c r="Q72" s="142" t="s">
         <v>161</v>
       </c>
-      <c r="R72" s="149"/>
+      <c r="R72" s="143"/>
     </row>
     <row r="73" spans="2:19" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="164"/>
-      <c r="C73" s="161"/>
-      <c r="D73" s="161"/>
-      <c r="E73" s="161"/>
-      <c r="F73" s="161"/>
-      <c r="G73" s="161"/>
-      <c r="H73" s="161"/>
-      <c r="I73" s="161"/>
-      <c r="J73" s="161"/>
-      <c r="K73" s="161"/>
-      <c r="L73" s="161"/>
-      <c r="M73" s="161"/>
-      <c r="N73" s="161"/>
-      <c r="O73" s="161"/>
-      <c r="P73" s="161"/>
-      <c r="Q73" s="161"/>
-      <c r="R73" s="161"/>
+      <c r="B73" s="137"/>
+      <c r="C73" s="134"/>
+      <c r="D73" s="134"/>
+      <c r="E73" s="134"/>
+      <c r="F73" s="134"/>
+      <c r="G73" s="134"/>
+      <c r="H73" s="134"/>
+      <c r="I73" s="134"/>
+      <c r="J73" s="134"/>
+      <c r="K73" s="134"/>
+      <c r="L73" s="134"/>
+      <c r="M73" s="134"/>
+      <c r="N73" s="134"/>
+      <c r="O73" s="134"/>
+      <c r="P73" s="134"/>
+      <c r="Q73" s="134"/>
+      <c r="R73" s="134"/>
       <c r="S73" s="64"/>
     </row>
     <row r="74" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7872,145 +7911,145 @@
       <c r="D74" s="69" t="s">
         <v>162</v>
       </c>
-      <c r="E74" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="F74" s="130"/>
-      <c r="G74" s="140" t="s">
+      <c r="E74" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74" s="149"/>
+      <c r="G74" s="144" t="s">
         <v>133</v>
       </c>
-      <c r="H74" s="140"/>
-      <c r="I74" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="J74" s="130"/>
-      <c r="K74" s="140" t="s">
+      <c r="H74" s="144"/>
+      <c r="I74" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="J74" s="149"/>
+      <c r="K74" s="144" t="s">
         <v>134</v>
       </c>
-      <c r="L74" s="140"/>
-      <c r="M74" s="140" t="s">
+      <c r="L74" s="144"/>
+      <c r="M74" s="144" t="s">
         <v>135</v>
       </c>
-      <c r="N74" s="140"/>
-      <c r="O74" s="140" t="s">
+      <c r="N74" s="144"/>
+      <c r="O74" s="144" t="s">
         <v>136</v>
       </c>
-      <c r="P74" s="140"/>
-      <c r="Q74" s="140" t="s">
+      <c r="P74" s="144"/>
+      <c r="Q74" s="144" t="s">
         <v>137</v>
       </c>
-      <c r="R74" s="141"/>
+      <c r="R74" s="145"/>
     </row>
     <row r="75" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="C75" s="144" t="s">
+      <c r="C75" s="138" t="s">
         <v>138</v>
       </c>
-      <c r="D75" s="142"/>
-      <c r="E75" s="142" t="s">
+      <c r="D75" s="139"/>
+      <c r="E75" s="139" t="s">
         <v>139</v>
       </c>
-      <c r="F75" s="142"/>
-      <c r="G75" s="142" t="s">
+      <c r="F75" s="139"/>
+      <c r="G75" s="139" t="s">
         <v>140</v>
       </c>
-      <c r="H75" s="142"/>
-      <c r="I75" s="142" t="s">
+      <c r="H75" s="139"/>
+      <c r="I75" s="139" t="s">
         <v>141</v>
       </c>
-      <c r="J75" s="142"/>
-      <c r="K75" s="142" t="s">
+      <c r="J75" s="139"/>
+      <c r="K75" s="139" t="s">
         <v>142</v>
       </c>
-      <c r="L75" s="142"/>
-      <c r="M75" s="142" t="s">
+      <c r="L75" s="139"/>
+      <c r="M75" s="139" t="s">
         <v>143</v>
       </c>
-      <c r="N75" s="142"/>
-      <c r="O75" s="142" t="s">
+      <c r="N75" s="139"/>
+      <c r="O75" s="139" t="s">
         <v>144</v>
       </c>
-      <c r="P75" s="142"/>
-      <c r="Q75" s="142" t="s">
+      <c r="P75" s="139"/>
+      <c r="Q75" s="139" t="s">
         <v>145</v>
       </c>
-      <c r="R75" s="143"/>
+      <c r="R75" s="140"/>
     </row>
     <row r="76" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="C76" s="144" t="s">
+      <c r="C76" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="D76" s="142"/>
-      <c r="E76" s="142" t="s">
+      <c r="D76" s="139"/>
+      <c r="E76" s="139" t="s">
         <v>147</v>
       </c>
-      <c r="F76" s="142"/>
-      <c r="G76" s="142" t="s">
+      <c r="F76" s="139"/>
+      <c r="G76" s="139" t="s">
         <v>148</v>
       </c>
-      <c r="H76" s="142"/>
-      <c r="I76" s="142" t="s">
+      <c r="H76" s="139"/>
+      <c r="I76" s="139" t="s">
         <v>149</v>
       </c>
-      <c r="J76" s="142"/>
-      <c r="K76" s="142" t="s">
+      <c r="J76" s="139"/>
+      <c r="K76" s="139" t="s">
         <v>150</v>
       </c>
-      <c r="L76" s="142"/>
-      <c r="M76" s="142" t="s">
+      <c r="L76" s="139"/>
+      <c r="M76" s="139" t="s">
         <v>151</v>
       </c>
-      <c r="N76" s="142"/>
-      <c r="O76" s="142" t="s">
+      <c r="N76" s="139"/>
+      <c r="O76" s="139" t="s">
         <v>152</v>
       </c>
-      <c r="P76" s="142"/>
-      <c r="Q76" s="142" t="s">
+      <c r="P76" s="139"/>
+      <c r="Q76" s="139" t="s">
         <v>153</v>
       </c>
-      <c r="R76" s="143"/>
+      <c r="R76" s="140"/>
     </row>
     <row r="77" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="C77" s="144" t="s">
+      <c r="C77" s="138" t="s">
         <v>154</v>
       </c>
-      <c r="D77" s="142"/>
-      <c r="E77" s="142" t="s">
+      <c r="D77" s="139"/>
+      <c r="E77" s="139" t="s">
         <v>155</v>
       </c>
-      <c r="F77" s="142"/>
-      <c r="G77" s="142" t="s">
+      <c r="F77" s="139"/>
+      <c r="G77" s="139" t="s">
         <v>156</v>
       </c>
-      <c r="H77" s="142"/>
-      <c r="I77" s="142" t="s">
+      <c r="H77" s="139"/>
+      <c r="I77" s="139" t="s">
         <v>157</v>
       </c>
-      <c r="J77" s="142"/>
-      <c r="K77" s="142" t="s">
+      <c r="J77" s="139"/>
+      <c r="K77" s="139" t="s">
         <v>158</v>
       </c>
-      <c r="L77" s="142"/>
-      <c r="M77" s="142" t="s">
+      <c r="L77" s="139"/>
+      <c r="M77" s="139" t="s">
         <v>159</v>
       </c>
-      <c r="N77" s="142"/>
-      <c r="O77" s="142" t="s">
+      <c r="N77" s="139"/>
+      <c r="O77" s="139" t="s">
         <v>160</v>
       </c>
-      <c r="P77" s="142"/>
-      <c r="Q77" s="142" t="s">
+      <c r="P77" s="139"/>
+      <c r="Q77" s="139" t="s">
         <v>161</v>
       </c>
-      <c r="R77" s="143"/>
+      <c r="R77" s="140"/>
     </row>
     <row r="78" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="36" t="s">
@@ -8022,145 +8061,145 @@
       <c r="D78" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="E78" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="F78" s="132"/>
-      <c r="G78" s="145" t="s">
+      <c r="E78" s="156" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" s="156"/>
+      <c r="G78" s="130" t="s">
         <v>133</v>
       </c>
-      <c r="H78" s="145"/>
-      <c r="I78" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="J78" s="132"/>
-      <c r="K78" s="145" t="s">
+      <c r="H78" s="130"/>
+      <c r="I78" s="156" t="s">
+        <v>6</v>
+      </c>
+      <c r="J78" s="156"/>
+      <c r="K78" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="L78" s="145"/>
-      <c r="M78" s="145" t="s">
+      <c r="L78" s="130"/>
+      <c r="M78" s="130" t="s">
         <v>135</v>
       </c>
-      <c r="N78" s="145"/>
-      <c r="O78" s="145" t="s">
+      <c r="N78" s="130"/>
+      <c r="O78" s="130" t="s">
         <v>136</v>
       </c>
-      <c r="P78" s="145"/>
-      <c r="Q78" s="145" t="s">
+      <c r="P78" s="130"/>
+      <c r="Q78" s="130" t="s">
         <v>137</v>
       </c>
-      <c r="R78" s="146"/>
+      <c r="R78" s="131"/>
     </row>
     <row r="79" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="C79" s="147" t="s">
+      <c r="C79" s="132" t="s">
         <v>138</v>
       </c>
-      <c r="D79" s="145"/>
-      <c r="E79" s="145" t="s">
+      <c r="D79" s="130"/>
+      <c r="E79" s="130" t="s">
         <v>139</v>
       </c>
-      <c r="F79" s="145"/>
-      <c r="G79" s="145" t="s">
+      <c r="F79" s="130"/>
+      <c r="G79" s="130" t="s">
         <v>140</v>
       </c>
-      <c r="H79" s="145"/>
-      <c r="I79" s="145" t="s">
+      <c r="H79" s="130"/>
+      <c r="I79" s="130" t="s">
         <v>141</v>
       </c>
-      <c r="J79" s="145"/>
-      <c r="K79" s="145" t="s">
+      <c r="J79" s="130"/>
+      <c r="K79" s="130" t="s">
         <v>142</v>
       </c>
-      <c r="L79" s="145"/>
-      <c r="M79" s="145" t="s">
+      <c r="L79" s="130"/>
+      <c r="M79" s="130" t="s">
         <v>143</v>
       </c>
-      <c r="N79" s="145"/>
-      <c r="O79" s="145" t="s">
+      <c r="N79" s="130"/>
+      <c r="O79" s="130" t="s">
         <v>144</v>
       </c>
-      <c r="P79" s="145"/>
-      <c r="Q79" s="145" t="s">
+      <c r="P79" s="130"/>
+      <c r="Q79" s="130" t="s">
         <v>145</v>
       </c>
-      <c r="R79" s="146"/>
+      <c r="R79" s="131"/>
     </row>
     <row r="80" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="C80" s="147" t="s">
+      <c r="C80" s="132" t="s">
         <v>146</v>
       </c>
-      <c r="D80" s="145"/>
-      <c r="E80" s="145" t="s">
+      <c r="D80" s="130"/>
+      <c r="E80" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="F80" s="145"/>
-      <c r="G80" s="145" t="s">
+      <c r="F80" s="130"/>
+      <c r="G80" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="H80" s="145"/>
-      <c r="I80" s="145" t="s">
+      <c r="H80" s="130"/>
+      <c r="I80" s="130" t="s">
         <v>149</v>
       </c>
-      <c r="J80" s="145"/>
-      <c r="K80" s="145" t="s">
+      <c r="J80" s="130"/>
+      <c r="K80" s="130" t="s">
         <v>150</v>
       </c>
-      <c r="L80" s="145"/>
-      <c r="M80" s="145" t="s">
+      <c r="L80" s="130"/>
+      <c r="M80" s="130" t="s">
         <v>151</v>
       </c>
-      <c r="N80" s="145"/>
-      <c r="O80" s="145" t="s">
+      <c r="N80" s="130"/>
+      <c r="O80" s="130" t="s">
         <v>152</v>
       </c>
-      <c r="P80" s="145"/>
-      <c r="Q80" s="145" t="s">
+      <c r="P80" s="130"/>
+      <c r="Q80" s="130" t="s">
         <v>153</v>
       </c>
-      <c r="R80" s="146"/>
+      <c r="R80" s="131"/>
     </row>
     <row r="81" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="C81" s="147" t="s">
+      <c r="C81" s="132" t="s">
         <v>154</v>
       </c>
-      <c r="D81" s="145"/>
-      <c r="E81" s="145" t="s">
+      <c r="D81" s="130"/>
+      <c r="E81" s="130" t="s">
         <v>155</v>
       </c>
-      <c r="F81" s="145"/>
-      <c r="G81" s="145" t="s">
+      <c r="F81" s="130"/>
+      <c r="G81" s="130" t="s">
         <v>156</v>
       </c>
-      <c r="H81" s="145"/>
-      <c r="I81" s="145" t="s">
+      <c r="H81" s="130"/>
+      <c r="I81" s="130" t="s">
         <v>157</v>
       </c>
-      <c r="J81" s="145"/>
-      <c r="K81" s="145" t="s">
+      <c r="J81" s="130"/>
+      <c r="K81" s="130" t="s">
         <v>158</v>
       </c>
-      <c r="L81" s="145"/>
-      <c r="M81" s="145" t="s">
+      <c r="L81" s="130"/>
+      <c r="M81" s="130" t="s">
         <v>159</v>
       </c>
-      <c r="N81" s="145"/>
-      <c r="O81" s="145" t="s">
+      <c r="N81" s="130"/>
+      <c r="O81" s="130" t="s">
         <v>160</v>
       </c>
-      <c r="P81" s="145"/>
-      <c r="Q81" s="145" t="s">
+      <c r="P81" s="130"/>
+      <c r="Q81" s="130" t="s">
         <v>161</v>
       </c>
-      <c r="R81" s="146"/>
+      <c r="R81" s="131"/>
     </row>
     <row r="82" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="37" t="s">
@@ -8331,411 +8370,942 @@
       <c r="R89" s="75"/>
     </row>
     <row r="91" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B91" s="133" t="s">
+      <c r="B91" s="164" t="s">
         <v>220</v>
       </c>
-      <c r="C91" s="133"/>
-      <c r="D91" s="133">
+      <c r="C91" s="164"/>
+      <c r="D91" s="164">
         <v>7</v>
       </c>
-      <c r="E91" s="133"/>
-      <c r="F91" s="133">
-        <v>6</v>
-      </c>
-      <c r="G91" s="133"/>
-      <c r="H91" s="133">
+      <c r="E91" s="164"/>
+      <c r="F91" s="164">
+        <v>6</v>
+      </c>
+      <c r="G91" s="164"/>
+      <c r="H91" s="164">
         <v>5</v>
       </c>
-      <c r="I91" s="133"/>
-      <c r="J91" s="133">
+      <c r="I91" s="164"/>
+      <c r="J91" s="164">
         <v>4</v>
       </c>
-      <c r="K91" s="133"/>
-      <c r="L91" s="133">
+      <c r="K91" s="164"/>
+      <c r="L91" s="164">
         <v>3</v>
       </c>
-      <c r="M91" s="133"/>
-      <c r="N91" s="133">
+      <c r="M91" s="164"/>
+      <c r="N91" s="164">
         <v>2</v>
       </c>
-      <c r="O91" s="133"/>
-      <c r="P91" s="133">
+      <c r="O91" s="164"/>
+      <c r="P91" s="164">
         <v>1</v>
       </c>
-      <c r="Q91" s="133"/>
-      <c r="R91" s="133">
+      <c r="Q91" s="164"/>
+      <c r="R91" s="164">
         <v>0</v>
       </c>
-      <c r="S91" s="133"/>
+      <c r="S91" s="164"/>
     </row>
     <row r="92" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="150" t="s">
+      <c r="B92" s="152" t="s">
         <v>219</v>
       </c>
-      <c r="C92" s="151"/>
-      <c r="D92" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="E92" s="92"/>
-      <c r="F92" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="G92" s="92"/>
-      <c r="H92" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="I92" s="92"/>
-      <c r="J92" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="K92" s="92"/>
-      <c r="L92" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="M92" s="92"/>
-      <c r="N92" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="O92" s="92"/>
-      <c r="P92" s="134" t="s">
+      <c r="C92" s="153"/>
+      <c r="D92" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" s="101"/>
+      <c r="F92" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="G92" s="101"/>
+      <c r="H92" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="I92" s="101"/>
+      <c r="J92" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="K92" s="101"/>
+      <c r="L92" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="M92" s="101"/>
+      <c r="N92" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="O92" s="101"/>
+      <c r="P92" s="158" t="s">
         <v>221</v>
       </c>
-      <c r="Q92" s="135"/>
-      <c r="R92" s="134" t="s">
+      <c r="Q92" s="159"/>
+      <c r="R92" s="158" t="s">
         <v>222</v>
       </c>
-      <c r="S92" s="135"/>
+      <c r="S92" s="159"/>
     </row>
     <row r="93" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="150"/>
-      <c r="C93" s="151"/>
-      <c r="D93" s="92"/>
-      <c r="E93" s="92"/>
-      <c r="F93" s="92"/>
-      <c r="G93" s="92"/>
-      <c r="H93" s="92"/>
-      <c r="I93" s="92"/>
-      <c r="J93" s="92"/>
-      <c r="K93" s="92"/>
-      <c r="L93" s="92"/>
-      <c r="M93" s="92"/>
-      <c r="N93" s="92"/>
-      <c r="O93" s="92"/>
-      <c r="P93" s="136"/>
-      <c r="Q93" s="137"/>
-      <c r="R93" s="136"/>
-      <c r="S93" s="137"/>
+      <c r="B93" s="152"/>
+      <c r="C93" s="153"/>
+      <c r="D93" s="101"/>
+      <c r="E93" s="101"/>
+      <c r="F93" s="101"/>
+      <c r="G93" s="101"/>
+      <c r="H93" s="101"/>
+      <c r="I93" s="101"/>
+      <c r="J93" s="101"/>
+      <c r="K93" s="101"/>
+      <c r="L93" s="101"/>
+      <c r="M93" s="101"/>
+      <c r="N93" s="101"/>
+      <c r="O93" s="101"/>
+      <c r="P93" s="160"/>
+      <c r="Q93" s="161"/>
+      <c r="R93" s="160"/>
+      <c r="S93" s="161"/>
     </row>
     <row r="94" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="150"/>
-      <c r="C94" s="151"/>
-      <c r="D94" s="92"/>
-      <c r="E94" s="92"/>
-      <c r="F94" s="92"/>
-      <c r="G94" s="92"/>
-      <c r="H94" s="92"/>
-      <c r="I94" s="92"/>
-      <c r="J94" s="92"/>
-      <c r="K94" s="92"/>
-      <c r="L94" s="92"/>
-      <c r="M94" s="92"/>
-      <c r="N94" s="92"/>
-      <c r="O94" s="92"/>
-      <c r="P94" s="136"/>
-      <c r="Q94" s="137"/>
-      <c r="R94" s="136"/>
-      <c r="S94" s="137"/>
+      <c r="B94" s="152"/>
+      <c r="C94" s="153"/>
+      <c r="D94" s="101"/>
+      <c r="E94" s="101"/>
+      <c r="F94" s="101"/>
+      <c r="G94" s="101"/>
+      <c r="H94" s="101"/>
+      <c r="I94" s="101"/>
+      <c r="J94" s="101"/>
+      <c r="K94" s="101"/>
+      <c r="L94" s="101"/>
+      <c r="M94" s="101"/>
+      <c r="N94" s="101"/>
+      <c r="O94" s="101"/>
+      <c r="P94" s="160"/>
+      <c r="Q94" s="161"/>
+      <c r="R94" s="160"/>
+      <c r="S94" s="161"/>
     </row>
     <row r="95" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="152"/>
-      <c r="C95" s="153"/>
-      <c r="D95" s="92"/>
-      <c r="E95" s="92"/>
-      <c r="F95" s="92"/>
-      <c r="G95" s="92"/>
-      <c r="H95" s="92"/>
-      <c r="I95" s="92"/>
-      <c r="J95" s="92"/>
-      <c r="K95" s="92"/>
-      <c r="L95" s="92"/>
-      <c r="M95" s="92"/>
-      <c r="N95" s="92"/>
-      <c r="O95" s="92"/>
-      <c r="P95" s="138"/>
-      <c r="Q95" s="139"/>
-      <c r="R95" s="138"/>
-      <c r="S95" s="139"/>
+      <c r="B95" s="154"/>
+      <c r="C95" s="155"/>
+      <c r="D95" s="101"/>
+      <c r="E95" s="101"/>
+      <c r="F95" s="101"/>
+      <c r="G95" s="101"/>
+      <c r="H95" s="101"/>
+      <c r="I95" s="101"/>
+      <c r="J95" s="101"/>
+      <c r="K95" s="101"/>
+      <c r="L95" s="101"/>
+      <c r="M95" s="101"/>
+      <c r="N95" s="101"/>
+      <c r="O95" s="101"/>
+      <c r="P95" s="162"/>
+      <c r="Q95" s="163"/>
+      <c r="R95" s="162"/>
+      <c r="S95" s="163"/>
     </row>
     <row r="96" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="155" t="s">
+      <c r="B96" s="146" t="s">
         <v>163</v>
       </c>
-      <c r="C96" s="156"/>
-      <c r="D96" s="157" t="s">
+      <c r="C96" s="147"/>
+      <c r="D96" s="148" t="s">
         <v>164</v>
       </c>
-      <c r="E96" s="157"/>
-      <c r="F96" s="157"/>
-      <c r="G96" s="157"/>
-      <c r="H96" s="157"/>
-      <c r="I96" s="157"/>
-      <c r="J96" s="157"/>
-      <c r="K96" s="157"/>
-      <c r="L96" s="157"/>
-      <c r="M96" s="157"/>
-      <c r="N96" s="157"/>
-      <c r="O96" s="157"/>
-      <c r="P96" s="157"/>
-      <c r="Q96" s="157"/>
-      <c r="R96" s="157"/>
-      <c r="S96" s="157"/>
+      <c r="E96" s="148"/>
+      <c r="F96" s="148"/>
+      <c r="G96" s="148"/>
+      <c r="H96" s="148"/>
+      <c r="I96" s="148"/>
+      <c r="J96" s="148"/>
+      <c r="K96" s="148"/>
+      <c r="L96" s="148"/>
+      <c r="M96" s="148"/>
+      <c r="N96" s="148"/>
+      <c r="O96" s="148"/>
+      <c r="P96" s="148"/>
+      <c r="Q96" s="148"/>
+      <c r="R96" s="148"/>
+      <c r="S96" s="148"/>
     </row>
     <row r="97" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="156"/>
-      <c r="C97" s="156"/>
-      <c r="D97" s="157"/>
-      <c r="E97" s="157"/>
-      <c r="F97" s="157"/>
-      <c r="G97" s="157"/>
-      <c r="H97" s="157"/>
-      <c r="I97" s="157"/>
-      <c r="J97" s="157"/>
-      <c r="K97" s="157"/>
-      <c r="L97" s="157"/>
-      <c r="M97" s="157"/>
-      <c r="N97" s="157"/>
-      <c r="O97" s="157"/>
-      <c r="P97" s="157"/>
-      <c r="Q97" s="157"/>
-      <c r="R97" s="157"/>
-      <c r="S97" s="157"/>
+      <c r="B97" s="147"/>
+      <c r="C97" s="147"/>
+      <c r="D97" s="148"/>
+      <c r="E97" s="148"/>
+      <c r="F97" s="148"/>
+      <c r="G97" s="148"/>
+      <c r="H97" s="148"/>
+      <c r="I97" s="148"/>
+      <c r="J97" s="148"/>
+      <c r="K97" s="148"/>
+      <c r="L97" s="148"/>
+      <c r="M97" s="148"/>
+      <c r="N97" s="148"/>
+      <c r="O97" s="148"/>
+      <c r="P97" s="148"/>
+      <c r="Q97" s="148"/>
+      <c r="R97" s="148"/>
+      <c r="S97" s="148"/>
     </row>
     <row r="98" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="156"/>
-      <c r="C98" s="156"/>
-      <c r="D98" s="157"/>
-      <c r="E98" s="157"/>
-      <c r="F98" s="157"/>
-      <c r="G98" s="157"/>
-      <c r="H98" s="157"/>
-      <c r="I98" s="157"/>
-      <c r="J98" s="157"/>
-      <c r="K98" s="157"/>
-      <c r="L98" s="157"/>
-      <c r="M98" s="157"/>
-      <c r="N98" s="157"/>
-      <c r="O98" s="157"/>
-      <c r="P98" s="157"/>
-      <c r="Q98" s="157"/>
-      <c r="R98" s="157"/>
-      <c r="S98" s="157"/>
+      <c r="B98" s="147"/>
+      <c r="C98" s="147"/>
+      <c r="D98" s="148"/>
+      <c r="E98" s="148"/>
+      <c r="F98" s="148"/>
+      <c r="G98" s="148"/>
+      <c r="H98" s="148"/>
+      <c r="I98" s="148"/>
+      <c r="J98" s="148"/>
+      <c r="K98" s="148"/>
+      <c r="L98" s="148"/>
+      <c r="M98" s="148"/>
+      <c r="N98" s="148"/>
+      <c r="O98" s="148"/>
+      <c r="P98" s="148"/>
+      <c r="Q98" s="148"/>
+      <c r="R98" s="148"/>
+      <c r="S98" s="148"/>
     </row>
     <row r="99" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="156"/>
-      <c r="C99" s="156"/>
-      <c r="D99" s="157"/>
-      <c r="E99" s="157"/>
-      <c r="F99" s="157"/>
-      <c r="G99" s="157"/>
-      <c r="H99" s="157"/>
-      <c r="I99" s="157"/>
-      <c r="J99" s="157"/>
-      <c r="K99" s="157"/>
-      <c r="L99" s="157"/>
-      <c r="M99" s="157"/>
-      <c r="N99" s="157"/>
-      <c r="O99" s="157"/>
-      <c r="P99" s="157"/>
-      <c r="Q99" s="157"/>
-      <c r="R99" s="157"/>
-      <c r="S99" s="157"/>
+      <c r="B99" s="147"/>
+      <c r="C99" s="147"/>
+      <c r="D99" s="148"/>
+      <c r="E99" s="148"/>
+      <c r="F99" s="148"/>
+      <c r="G99" s="148"/>
+      <c r="H99" s="148"/>
+      <c r="I99" s="148"/>
+      <c r="J99" s="148"/>
+      <c r="K99" s="148"/>
+      <c r="L99" s="148"/>
+      <c r="M99" s="148"/>
+      <c r="N99" s="148"/>
+      <c r="O99" s="148"/>
+      <c r="P99" s="148"/>
+      <c r="Q99" s="148"/>
+      <c r="R99" s="148"/>
+      <c r="S99" s="148"/>
     </row>
     <row r="100" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="158" t="s">
+      <c r="B100" s="150" t="s">
         <v>165</v>
       </c>
-      <c r="C100" s="159"/>
-      <c r="D100" s="157" t="s">
+      <c r="C100" s="151"/>
+      <c r="D100" s="148" t="s">
         <v>166</v>
       </c>
-      <c r="E100" s="157"/>
-      <c r="F100" s="157"/>
-      <c r="G100" s="157"/>
-      <c r="H100" s="157"/>
-      <c r="I100" s="157"/>
-      <c r="J100" s="157"/>
-      <c r="K100" s="157"/>
-      <c r="L100" s="157"/>
-      <c r="M100" s="157"/>
-      <c r="N100" s="157"/>
-      <c r="O100" s="157"/>
-      <c r="P100" s="157"/>
-      <c r="Q100" s="157"/>
-      <c r="R100" s="157"/>
-      <c r="S100" s="157"/>
+      <c r="E100" s="148"/>
+      <c r="F100" s="148"/>
+      <c r="G100" s="148"/>
+      <c r="H100" s="148"/>
+      <c r="I100" s="148"/>
+      <c r="J100" s="148"/>
+      <c r="K100" s="148"/>
+      <c r="L100" s="148"/>
+      <c r="M100" s="148"/>
+      <c r="N100" s="148"/>
+      <c r="O100" s="148"/>
+      <c r="P100" s="148"/>
+      <c r="Q100" s="148"/>
+      <c r="R100" s="148"/>
+      <c r="S100" s="148"/>
     </row>
     <row r="101" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="159"/>
-      <c r="C101" s="159"/>
-      <c r="D101" s="157"/>
-      <c r="E101" s="157"/>
-      <c r="F101" s="157"/>
-      <c r="G101" s="157"/>
-      <c r="H101" s="157"/>
-      <c r="I101" s="157"/>
-      <c r="J101" s="157"/>
-      <c r="K101" s="157"/>
-      <c r="L101" s="157"/>
-      <c r="M101" s="157"/>
-      <c r="N101" s="157"/>
-      <c r="O101" s="157"/>
-      <c r="P101" s="157"/>
-      <c r="Q101" s="157"/>
-      <c r="R101" s="157"/>
-      <c r="S101" s="157"/>
+      <c r="B101" s="151"/>
+      <c r="C101" s="151"/>
+      <c r="D101" s="148"/>
+      <c r="E101" s="148"/>
+      <c r="F101" s="148"/>
+      <c r="G101" s="148"/>
+      <c r="H101" s="148"/>
+      <c r="I101" s="148"/>
+      <c r="J101" s="148"/>
+      <c r="K101" s="148"/>
+      <c r="L101" s="148"/>
+      <c r="M101" s="148"/>
+      <c r="N101" s="148"/>
+      <c r="O101" s="148"/>
+      <c r="P101" s="148"/>
+      <c r="Q101" s="148"/>
+      <c r="R101" s="148"/>
+      <c r="S101" s="148"/>
     </row>
     <row r="102" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="159"/>
-      <c r="C102" s="159"/>
-      <c r="D102" s="157"/>
-      <c r="E102" s="157"/>
-      <c r="F102" s="157"/>
-      <c r="G102" s="157"/>
-      <c r="H102" s="157"/>
-      <c r="I102" s="157"/>
-      <c r="J102" s="157"/>
-      <c r="K102" s="157"/>
-      <c r="L102" s="157"/>
-      <c r="M102" s="157"/>
-      <c r="N102" s="157"/>
-      <c r="O102" s="157"/>
-      <c r="P102" s="157"/>
-      <c r="Q102" s="157"/>
-      <c r="R102" s="157"/>
-      <c r="S102" s="157"/>
+      <c r="B102" s="151"/>
+      <c r="C102" s="151"/>
+      <c r="D102" s="148"/>
+      <c r="E102" s="148"/>
+      <c r="F102" s="148"/>
+      <c r="G102" s="148"/>
+      <c r="H102" s="148"/>
+      <c r="I102" s="148"/>
+      <c r="J102" s="148"/>
+      <c r="K102" s="148"/>
+      <c r="L102" s="148"/>
+      <c r="M102" s="148"/>
+      <c r="N102" s="148"/>
+      <c r="O102" s="148"/>
+      <c r="P102" s="148"/>
+      <c r="Q102" s="148"/>
+      <c r="R102" s="148"/>
+      <c r="S102" s="148"/>
     </row>
     <row r="103" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="159"/>
-      <c r="C103" s="159"/>
-      <c r="D103" s="157"/>
-      <c r="E103" s="157"/>
-      <c r="F103" s="157"/>
-      <c r="G103" s="157"/>
-      <c r="H103" s="157"/>
-      <c r="I103" s="157"/>
-      <c r="J103" s="157"/>
-      <c r="K103" s="157"/>
-      <c r="L103" s="157"/>
-      <c r="M103" s="157"/>
-      <c r="N103" s="157"/>
-      <c r="O103" s="157"/>
-      <c r="P103" s="157"/>
-      <c r="Q103" s="157"/>
-      <c r="R103" s="157"/>
-      <c r="S103" s="157"/>
+      <c r="B103" s="151"/>
+      <c r="C103" s="151"/>
+      <c r="D103" s="148"/>
+      <c r="E103" s="148"/>
+      <c r="F103" s="148"/>
+      <c r="G103" s="148"/>
+      <c r="H103" s="148"/>
+      <c r="I103" s="148"/>
+      <c r="J103" s="148"/>
+      <c r="K103" s="148"/>
+      <c r="L103" s="148"/>
+      <c r="M103" s="148"/>
+      <c r="N103" s="148"/>
+      <c r="O103" s="148"/>
+      <c r="P103" s="148"/>
+      <c r="Q103" s="148"/>
+      <c r="R103" s="148"/>
+      <c r="S103" s="148"/>
     </row>
     <row r="104" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="155" t="s">
+      <c r="B104" s="146" t="s">
         <v>167</v>
       </c>
-      <c r="C104" s="156"/>
-      <c r="D104" s="157" t="s">
+      <c r="C104" s="147"/>
+      <c r="D104" s="148" t="s">
         <v>168</v>
       </c>
-      <c r="E104" s="157"/>
-      <c r="F104" s="157"/>
-      <c r="G104" s="157"/>
-      <c r="H104" s="157"/>
-      <c r="I104" s="157"/>
-      <c r="J104" s="157"/>
-      <c r="K104" s="157"/>
-      <c r="L104" s="157"/>
-      <c r="M104" s="157"/>
-      <c r="N104" s="157"/>
-      <c r="O104" s="157"/>
-      <c r="P104" s="157"/>
-      <c r="Q104" s="157"/>
-      <c r="R104" s="157"/>
-      <c r="S104" s="157"/>
+      <c r="E104" s="148"/>
+      <c r="F104" s="148"/>
+      <c r="G104" s="148"/>
+      <c r="H104" s="148"/>
+      <c r="I104" s="148"/>
+      <c r="J104" s="148"/>
+      <c r="K104" s="148"/>
+      <c r="L104" s="148"/>
+      <c r="M104" s="148"/>
+      <c r="N104" s="148"/>
+      <c r="O104" s="148"/>
+      <c r="P104" s="148"/>
+      <c r="Q104" s="148"/>
+      <c r="R104" s="148"/>
+      <c r="S104" s="148"/>
     </row>
     <row r="105" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="156"/>
-      <c r="C105" s="156"/>
-      <c r="D105" s="157"/>
-      <c r="E105" s="157"/>
-      <c r="F105" s="157"/>
-      <c r="G105" s="157"/>
-      <c r="H105" s="157"/>
-      <c r="I105" s="157"/>
-      <c r="J105" s="157"/>
-      <c r="K105" s="157"/>
-      <c r="L105" s="157"/>
-      <c r="M105" s="157"/>
-      <c r="N105" s="157"/>
-      <c r="O105" s="157"/>
-      <c r="P105" s="157"/>
-      <c r="Q105" s="157"/>
-      <c r="R105" s="157"/>
-      <c r="S105" s="157"/>
+      <c r="B105" s="147"/>
+      <c r="C105" s="147"/>
+      <c r="D105" s="148"/>
+      <c r="E105" s="148"/>
+      <c r="F105" s="148"/>
+      <c r="G105" s="148"/>
+      <c r="H105" s="148"/>
+      <c r="I105" s="148"/>
+      <c r="J105" s="148"/>
+      <c r="K105" s="148"/>
+      <c r="L105" s="148"/>
+      <c r="M105" s="148"/>
+      <c r="N105" s="148"/>
+      <c r="O105" s="148"/>
+      <c r="P105" s="148"/>
+      <c r="Q105" s="148"/>
+      <c r="R105" s="148"/>
+      <c r="S105" s="148"/>
     </row>
     <row r="106" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="156"/>
-      <c r="C106" s="156"/>
-      <c r="D106" s="157"/>
-      <c r="E106" s="157"/>
-      <c r="F106" s="157"/>
-      <c r="G106" s="157"/>
-      <c r="H106" s="157"/>
-      <c r="I106" s="157"/>
-      <c r="J106" s="157"/>
-      <c r="K106" s="157"/>
-      <c r="L106" s="157"/>
-      <c r="M106" s="157"/>
-      <c r="N106" s="157"/>
-      <c r="O106" s="157"/>
-      <c r="P106" s="157"/>
-      <c r="Q106" s="157"/>
-      <c r="R106" s="157"/>
-      <c r="S106" s="157"/>
+      <c r="B106" s="147"/>
+      <c r="C106" s="147"/>
+      <c r="D106" s="148"/>
+      <c r="E106" s="148"/>
+      <c r="F106" s="148"/>
+      <c r="G106" s="148"/>
+      <c r="H106" s="148"/>
+      <c r="I106" s="148"/>
+      <c r="J106" s="148"/>
+      <c r="K106" s="148"/>
+      <c r="L106" s="148"/>
+      <c r="M106" s="148"/>
+      <c r="N106" s="148"/>
+      <c r="O106" s="148"/>
+      <c r="P106" s="148"/>
+      <c r="Q106" s="148"/>
+      <c r="R106" s="148"/>
+      <c r="S106" s="148"/>
     </row>
     <row r="107" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="156"/>
-      <c r="C107" s="156"/>
-      <c r="D107" s="157"/>
-      <c r="E107" s="157"/>
-      <c r="F107" s="157"/>
-      <c r="G107" s="157"/>
-      <c r="H107" s="157"/>
-      <c r="I107" s="157"/>
-      <c r="J107" s="157"/>
-      <c r="K107" s="157"/>
-      <c r="L107" s="157"/>
-      <c r="M107" s="157"/>
-      <c r="N107" s="157"/>
-      <c r="O107" s="157"/>
-      <c r="P107" s="157"/>
-      <c r="Q107" s="157"/>
-      <c r="R107" s="157"/>
-      <c r="S107" s="157"/>
+      <c r="B107" s="147"/>
+      <c r="C107" s="147"/>
+      <c r="D107" s="148"/>
+      <c r="E107" s="148"/>
+      <c r="F107" s="148"/>
+      <c r="G107" s="148"/>
+      <c r="H107" s="148"/>
+      <c r="I107" s="148"/>
+      <c r="J107" s="148"/>
+      <c r="K107" s="148"/>
+      <c r="L107" s="148"/>
+      <c r="M107" s="148"/>
+      <c r="N107" s="148"/>
+      <c r="O107" s="148"/>
+      <c r="P107" s="148"/>
+      <c r="Q107" s="148"/>
+      <c r="R107" s="148"/>
+      <c r="S107" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="587">
-    <mergeCell ref="Q80:R80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="O81:P81"/>
-    <mergeCell ref="Q81:R81"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="M80:N80"/>
-    <mergeCell ref="O80:P80"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="R91:S91"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="P92:Q95"/>
+    <mergeCell ref="B2:R3"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="R92:S95"/>
+    <mergeCell ref="F92:G95"/>
+    <mergeCell ref="L92:M95"/>
+    <mergeCell ref="J92:K95"/>
+    <mergeCell ref="H92:I95"/>
+    <mergeCell ref="N92:O95"/>
+    <mergeCell ref="D92:E95"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="B92:C95"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="B104:C107"/>
+    <mergeCell ref="D104:S107"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="B96:C99"/>
+    <mergeCell ref="D96:S99"/>
+    <mergeCell ref="B100:C103"/>
+    <mergeCell ref="D100:S103"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="O61:P61"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="O67:P67"/>
+    <mergeCell ref="Q67:R67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="O68:P68"/>
+    <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="O69:P69"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="O70:P70"/>
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="Q72:R72"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="O74:P74"/>
+    <mergeCell ref="Q74:R74"/>
+    <mergeCell ref="Q78:R78"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="O75:P75"/>
+    <mergeCell ref="Q75:R75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="M76:N76"/>
+    <mergeCell ref="O76:P76"/>
+    <mergeCell ref="Q76:R76"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="E79:F79"/>
     <mergeCell ref="G79:H79"/>
@@ -8760,553 +9330,22 @@
     <mergeCell ref="K78:L78"/>
     <mergeCell ref="M78:N78"/>
     <mergeCell ref="O78:P78"/>
-    <mergeCell ref="Q78:R78"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="O75:P75"/>
-    <mergeCell ref="Q75:R75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="M76:N76"/>
-    <mergeCell ref="O76:P76"/>
-    <mergeCell ref="Q76:R76"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="Q72:R72"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="O74:P74"/>
-    <mergeCell ref="Q74:R74"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="M70:N70"/>
-    <mergeCell ref="O70:P70"/>
-    <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="O71:P71"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="O68:P68"/>
-    <mergeCell ref="Q68:R68"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="O69:P69"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="O67:P67"/>
-    <mergeCell ref="Q67:R67"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="O63:P63"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="O61:P61"/>
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="B104:C107"/>
-    <mergeCell ref="D104:S107"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="B96:C99"/>
-    <mergeCell ref="D96:S99"/>
-    <mergeCell ref="B100:C103"/>
-    <mergeCell ref="D100:S103"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="B92:C95"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="P92:Q95"/>
-    <mergeCell ref="B2:R3"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="R92:S95"/>
-    <mergeCell ref="F92:G95"/>
-    <mergeCell ref="L92:M95"/>
-    <mergeCell ref="J92:K95"/>
-    <mergeCell ref="H92:I95"/>
-    <mergeCell ref="N92:O95"/>
-    <mergeCell ref="D92:E95"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="L91:M91"/>
-    <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="R91:S91"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="Q80:R80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="O81:P81"/>
+    <mergeCell ref="Q81:R81"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="O80:P80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9331,44 +9370,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="96" t="s">
         <v>240</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">

--- a/Memory map.xlsx
+++ b/Memory map.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="277">
   <si>
     <t>A</t>
   </si>
@@ -958,10 +958,6 @@
   </si>
   <si>
     <t>GUI
-module status</t>
-  </si>
-  <si>
-    <t>Wireless modbus
 module status</t>
   </si>
   <si>
@@ -2003,255 +1999,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2266,6 +2013,255 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2580,7 +2576,9 @@
   </sheetPr>
   <dimension ref="B2:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29:G32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2589,44 +2587,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2684,19 +2682,19 @@
       <c r="B6" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="165" t="s">
+      <c r="C6" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="166" t="s">
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="83" t="s">
         <v>263</v>
       </c>
-      <c r="H6" s="166" t="s">
+      <c r="H6" s="83" t="s">
         <v>264</v>
       </c>
-      <c r="I6" s="166" t="s">
+      <c r="I6" s="83" t="s">
         <v>265</v>
       </c>
       <c r="J6" s="17"/>
@@ -2734,7 +2732,7 @@
       <c r="B8" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="167"/>
+      <c r="C8" s="84"/>
       <c r="D8" s="76"/>
       <c r="E8" s="76"/>
       <c r="F8" s="15"/>
@@ -2818,15 +2816,15 @@
       <c r="B12" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="168" t="s">
+      <c r="C12" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="83" t="s">
-        <v>277</v>
-      </c>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="85"/>
+      <c r="D12" s="105" t="s">
+        <v>276</v>
+      </c>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="107"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -2948,7 +2946,7 @@
       <c r="B18" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="169" t="s">
+      <c r="C18" s="86" t="s">
         <v>71</v>
       </c>
       <c r="D18" s="82" t="s">
@@ -3001,7 +2999,7 @@
       <c r="B19" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="169" t="s">
+      <c r="C19" s="86" t="s">
         <v>77</v>
       </c>
       <c r="D19" s="82" t="s">
@@ -3026,7 +3024,7 @@
       <c r="B20" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="170" t="s">
+      <c r="C20" s="87" t="s">
         <v>79</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -3079,7 +3077,7 @@
       <c r="B21" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="171" t="s">
+      <c r="C21" s="88" t="s">
         <v>82</v>
       </c>
       <c r="D21" s="7" t="s">
@@ -3101,410 +3099,414 @@
       <c r="R21" s="11"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="88"/>
-      <c r="D25" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="K25" s="86"/>
-      <c r="L25" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="M25" s="86"/>
-      <c r="N25" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="O25" s="86"/>
-      <c r="P25" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="S25" s="86"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="M25" s="94"/>
+      <c r="N25" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="O25" s="94"/>
+      <c r="P25" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="S25" s="94"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="88"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="86"/>
-      <c r="O26" s="86"/>
-      <c r="P26" s="86"/>
-      <c r="Q26" s="86"/>
-      <c r="R26" s="86"/>
-      <c r="S26" s="86"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="94"/>
+      <c r="N26" s="94"/>
+      <c r="O26" s="94"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="94"/>
+      <c r="S26" s="94"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="86"/>
-      <c r="P27" s="86"/>
-      <c r="Q27" s="86"/>
-      <c r="R27" s="86"/>
-      <c r="S27" s="86"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="94"/>
+      <c r="O27" s="94"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="94"/>
+      <c r="S27" s="94"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="88"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
-      <c r="N28" s="86"/>
-      <c r="O28" s="86"/>
-      <c r="P28" s="86"/>
-      <c r="Q28" s="86"/>
-      <c r="R28" s="86"/>
-      <c r="S28" s="86"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="94"/>
+      <c r="O28" s="94"/>
+      <c r="P28" s="94"/>
+      <c r="Q28" s="94"/>
+      <c r="R28" s="94"/>
+      <c r="S28" s="94"/>
     </row>
     <row r="29" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="87" t="s">
+      <c r="B29" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="88"/>
-      <c r="D29" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="86"/>
-      <c r="F29" s="93" t="s">
+      <c r="C29" s="93"/>
+      <c r="D29" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="94"/>
+      <c r="H29" s="95" t="s">
         <v>269</v>
       </c>
-      <c r="G29" s="94"/>
-      <c r="H29" s="93" t="s">
+      <c r="I29" s="96"/>
+      <c r="J29" s="95" t="s">
         <v>268</v>
       </c>
-      <c r="I29" s="94"/>
-      <c r="J29" s="93" t="s">
+      <c r="K29" s="96"/>
+      <c r="L29" s="95" t="s">
         <v>270</v>
       </c>
-      <c r="K29" s="94"/>
-      <c r="L29" s="93" t="s">
+      <c r="M29" s="96"/>
+      <c r="N29" s="95" t="s">
         <v>271</v>
       </c>
-      <c r="M29" s="94"/>
-      <c r="N29" s="93" t="s">
+      <c r="O29" s="96"/>
+      <c r="P29" s="95" t="s">
         <v>272</v>
       </c>
-      <c r="O29" s="94"/>
-      <c r="P29" s="93" t="s">
+      <c r="Q29" s="96"/>
+      <c r="R29" s="95" t="s">
         <v>273</v>
       </c>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="93" t="s">
+      <c r="S29" s="96"/>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="97"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="97"/>
+      <c r="M30" s="98"/>
+      <c r="N30" s="97"/>
+      <c r="O30" s="98"/>
+      <c r="P30" s="97"/>
+      <c r="Q30" s="98"/>
+      <c r="R30" s="97"/>
+      <c r="S30" s="98"/>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="98"/>
+      <c r="L31" s="97"/>
+      <c r="M31" s="98"/>
+      <c r="N31" s="97"/>
+      <c r="O31" s="98"/>
+      <c r="P31" s="97"/>
+      <c r="Q31" s="98"/>
+      <c r="R31" s="97"/>
+      <c r="S31" s="98"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B32" s="93"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="100"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="100"/>
+      <c r="P32" s="99"/>
+      <c r="Q32" s="100"/>
+      <c r="R32" s="99"/>
+      <c r="S32" s="100"/>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B33" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="93"/>
+      <c r="D33" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="94"/>
+      <c r="H33" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="94"/>
+      <c r="J33" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" s="94"/>
+      <c r="L33" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="O33" s="94"/>
+      <c r="P33" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="S33" s="94"/>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B34" s="93"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="94"/>
+      <c r="M34" s="94"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="94"/>
+      <c r="P34" s="94"/>
+      <c r="Q34" s="94"/>
+      <c r="R34" s="94"/>
+      <c r="S34" s="94"/>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B35" s="93"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="94"/>
+      <c r="L35" s="94"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="94"/>
+      <c r="O35" s="94"/>
+      <c r="P35" s="94"/>
+      <c r="Q35" s="94"/>
+      <c r="R35" s="94"/>
+      <c r="S35" s="94"/>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B36" s="93"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="94"/>
+      <c r="H36" s="94"/>
+      <c r="I36" s="94"/>
+      <c r="J36" s="94"/>
+      <c r="K36" s="94"/>
+      <c r="L36" s="94"/>
+      <c r="M36" s="94"/>
+      <c r="N36" s="94"/>
+      <c r="O36" s="94"/>
+      <c r="P36" s="94"/>
+      <c r="Q36" s="94"/>
+      <c r="R36" s="94"/>
+      <c r="S36" s="94"/>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B37" s="92" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="93"/>
+      <c r="D37" s="108" t="s">
         <v>274</v>
       </c>
-      <c r="S29" s="94"/>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="88"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="96"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="96"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="96"/>
-      <c r="P30" s="95"/>
-      <c r="Q30" s="96"/>
-      <c r="R30" s="95"/>
-      <c r="S30" s="96"/>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="88"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="95"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="96"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="96"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="96"/>
-      <c r="P31" s="95"/>
-      <c r="Q31" s="96"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="96"/>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="88"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="98"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="98"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="98"/>
-      <c r="L32" s="97"/>
-      <c r="M32" s="98"/>
-      <c r="N32" s="97"/>
-      <c r="O32" s="98"/>
-      <c r="P32" s="97"/>
-      <c r="Q32" s="98"/>
-      <c r="R32" s="97"/>
-      <c r="S32" s="98"/>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B33" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="88"/>
-      <c r="D33" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="86"/>
-      <c r="H33" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="I33" s="86"/>
-      <c r="J33" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="K33" s="86"/>
-      <c r="L33" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="M33" s="86"/>
-      <c r="N33" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="O33" s="86"/>
-      <c r="P33" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q33" s="86"/>
-      <c r="R33" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="S33" s="86"/>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B34" s="88"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="86"/>
-      <c r="L34" s="86"/>
-      <c r="M34" s="86"/>
-      <c r="N34" s="86"/>
-      <c r="O34" s="86"/>
-      <c r="P34" s="86"/>
-      <c r="Q34" s="86"/>
-      <c r="R34" s="86"/>
-      <c r="S34" s="86"/>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B35" s="88"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="86"/>
-      <c r="L35" s="86"/>
-      <c r="M35" s="86"/>
-      <c r="N35" s="86"/>
-      <c r="O35" s="86"/>
-      <c r="P35" s="86"/>
-      <c r="Q35" s="86"/>
-      <c r="R35" s="86"/>
-      <c r="S35" s="86"/>
-    </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B36" s="88"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="86"/>
-      <c r="I36" s="86"/>
-      <c r="J36" s="86"/>
-      <c r="K36" s="86"/>
-      <c r="L36" s="86"/>
-      <c r="M36" s="86"/>
-      <c r="N36" s="86"/>
-      <c r="O36" s="86"/>
-      <c r="P36" s="86"/>
-      <c r="Q36" s="86"/>
-      <c r="R36" s="86"/>
-      <c r="S36" s="86"/>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B37" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="88"/>
-      <c r="D37" s="91" t="s">
+      <c r="E37" s="109"/>
+      <c r="F37" s="108" t="s">
+        <v>267</v>
+      </c>
+      <c r="G37" s="109"/>
+      <c r="H37" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="I37" s="109"/>
+      <c r="J37" s="101" t="s">
         <v>275</v>
       </c>
-      <c r="E37" s="92"/>
-      <c r="F37" s="91" t="s">
-        <v>267</v>
-      </c>
-      <c r="G37" s="92"/>
-      <c r="H37" s="91" t="s">
-        <v>112</v>
-      </c>
-      <c r="I37" s="92"/>
-      <c r="J37" s="89" t="s">
-        <v>276</v>
-      </c>
-      <c r="K37" s="90"/>
-      <c r="L37" s="89" t="s">
+      <c r="K37" s="102"/>
+      <c r="L37" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="M37" s="90"/>
-      <c r="N37" s="89" t="s">
+      <c r="M37" s="102"/>
+      <c r="N37" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="O37" s="90"/>
-      <c r="P37" s="89" t="s">
+      <c r="O37" s="102"/>
+      <c r="P37" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="Q37" s="90"/>
-      <c r="R37" s="99" t="s">
+      <c r="Q37" s="102"/>
+      <c r="R37" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="S37" s="100"/>
+      <c r="S37" s="104"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B38" s="88"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="92"/>
-      <c r="G38" s="92"/>
-      <c r="H38" s="92"/>
-      <c r="I38" s="92"/>
-      <c r="J38" s="90"/>
-      <c r="K38" s="90"/>
-      <c r="L38" s="90"/>
-      <c r="M38" s="90"/>
-      <c r="N38" s="90"/>
-      <c r="O38" s="90"/>
-      <c r="P38" s="90"/>
-      <c r="Q38" s="90"/>
-      <c r="R38" s="100"/>
-      <c r="S38" s="100"/>
+      <c r="B38" s="93"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="109"/>
+      <c r="F38" s="109"/>
+      <c r="G38" s="109"/>
+      <c r="H38" s="109"/>
+      <c r="I38" s="109"/>
+      <c r="J38" s="102"/>
+      <c r="K38" s="102"/>
+      <c r="L38" s="102"/>
+      <c r="M38" s="102"/>
+      <c r="N38" s="102"/>
+      <c r="O38" s="102"/>
+      <c r="P38" s="102"/>
+      <c r="Q38" s="102"/>
+      <c r="R38" s="104"/>
+      <c r="S38" s="104"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B39" s="88"/>
-      <c r="C39" s="88"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="92"/>
-      <c r="G39" s="92"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="92"/>
-      <c r="J39" s="90"/>
-      <c r="K39" s="90"/>
-      <c r="L39" s="90"/>
-      <c r="M39" s="90"/>
-      <c r="N39" s="90"/>
-      <c r="O39" s="90"/>
-      <c r="P39" s="90"/>
-      <c r="Q39" s="90"/>
-      <c r="R39" s="100"/>
-      <c r="S39" s="100"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="109"/>
+      <c r="F39" s="109"/>
+      <c r="G39" s="109"/>
+      <c r="H39" s="109"/>
+      <c r="I39" s="109"/>
+      <c r="J39" s="102"/>
+      <c r="K39" s="102"/>
+      <c r="L39" s="102"/>
+      <c r="M39" s="102"/>
+      <c r="N39" s="102"/>
+      <c r="O39" s="102"/>
+      <c r="P39" s="102"/>
+      <c r="Q39" s="102"/>
+      <c r="R39" s="104"/>
+      <c r="S39" s="104"/>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B40" s="88"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="90"/>
-      <c r="K40" s="90"/>
-      <c r="L40" s="90"/>
-      <c r="M40" s="90"/>
-      <c r="N40" s="90"/>
-      <c r="O40" s="90"/>
-      <c r="P40" s="90"/>
-      <c r="Q40" s="90"/>
-      <c r="R40" s="100"/>
-      <c r="S40" s="100"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="109"/>
+      <c r="E40" s="109"/>
+      <c r="F40" s="109"/>
+      <c r="G40" s="109"/>
+      <c r="H40" s="109"/>
+      <c r="I40" s="109"/>
+      <c r="J40" s="102"/>
+      <c r="K40" s="102"/>
+      <c r="L40" s="102"/>
+      <c r="M40" s="102"/>
+      <c r="N40" s="102"/>
+      <c r="O40" s="102"/>
+      <c r="P40" s="102"/>
+      <c r="Q40" s="102"/>
+      <c r="R40" s="104"/>
+      <c r="S40" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B2:R3"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="B25:C28"/>
-    <mergeCell ref="D25:E28"/>
-    <mergeCell ref="F25:G28"/>
-    <mergeCell ref="H25:I28"/>
-    <mergeCell ref="J25:K28"/>
-    <mergeCell ref="L25:M28"/>
-    <mergeCell ref="N25:O28"/>
-    <mergeCell ref="P25:Q28"/>
-    <mergeCell ref="R25:S28"/>
+    <mergeCell ref="J33:K36"/>
+    <mergeCell ref="B37:C40"/>
+    <mergeCell ref="J37:K40"/>
+    <mergeCell ref="D37:E40"/>
+    <mergeCell ref="B29:C32"/>
+    <mergeCell ref="D29:E32"/>
+    <mergeCell ref="H29:I32"/>
+    <mergeCell ref="F37:G40"/>
+    <mergeCell ref="H37:I40"/>
+    <mergeCell ref="B33:C36"/>
+    <mergeCell ref="D33:E36"/>
+    <mergeCell ref="F33:G36"/>
+    <mergeCell ref="H33:I36"/>
+    <mergeCell ref="J29:K32"/>
+    <mergeCell ref="F29:G32"/>
     <mergeCell ref="R29:S32"/>
     <mergeCell ref="N37:O40"/>
     <mergeCell ref="L37:M40"/>
@@ -3517,22 +3519,18 @@
     <mergeCell ref="L29:M32"/>
     <mergeCell ref="N29:O32"/>
     <mergeCell ref="P29:Q32"/>
+    <mergeCell ref="B2:R3"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="B25:C28"/>
+    <mergeCell ref="D25:E28"/>
+    <mergeCell ref="F25:G28"/>
+    <mergeCell ref="H25:I28"/>
+    <mergeCell ref="J25:K28"/>
+    <mergeCell ref="L25:M28"/>
+    <mergeCell ref="N25:O28"/>
+    <mergeCell ref="P25:Q28"/>
+    <mergeCell ref="R25:S28"/>
     <mergeCell ref="D12:G12"/>
-    <mergeCell ref="J33:K36"/>
-    <mergeCell ref="B37:C40"/>
-    <mergeCell ref="J37:K40"/>
-    <mergeCell ref="D37:E40"/>
-    <mergeCell ref="B29:C32"/>
-    <mergeCell ref="D29:E32"/>
-    <mergeCell ref="F29:G32"/>
-    <mergeCell ref="F37:G40"/>
-    <mergeCell ref="H37:I40"/>
-    <mergeCell ref="B33:C36"/>
-    <mergeCell ref="D33:E36"/>
-    <mergeCell ref="F33:G36"/>
-    <mergeCell ref="H33:I36"/>
-    <mergeCell ref="H29:I32"/>
-    <mergeCell ref="J29:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3555,44 +3553,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="89" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4009,44 +4007,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4104,30 +4102,30 @@
       <c r="B6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="119" t="s">
+      <c r="C6" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120" t="s">
+      <c r="D6" s="130"/>
+      <c r="E6" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120" t="s">
+      <c r="F6" s="130"/>
+      <c r="G6" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120" t="s">
+      <c r="H6" s="130"/>
+      <c r="I6" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="120"/>
-      <c r="K6" s="121" t="s">
+      <c r="J6" s="130"/>
+      <c r="K6" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="121"/>
-      <c r="M6" s="121" t="s">
+      <c r="L6" s="131"/>
+      <c r="M6" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="121"/>
+      <c r="N6" s="131"/>
       <c r="O6" s="43" t="s">
         <v>6</v>
       </c>
@@ -4163,18 +4161,18 @@
       <c r="H7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="118" t="s">
+      <c r="I7" s="111" t="s">
         <v>115</v>
       </c>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118" t="s">
+      <c r="J7" s="111"/>
+      <c r="K7" s="111" t="s">
         <v>116</v>
       </c>
-      <c r="L7" s="118"/>
-      <c r="M7" s="118" t="s">
+      <c r="L7" s="111"/>
+      <c r="M7" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="N7" s="118"/>
+      <c r="N7" s="111"/>
       <c r="O7" s="45" t="s">
         <v>6</v>
       </c>
@@ -4192,30 +4190,30 @@
       <c r="B8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="103" t="s">
+      <c r="C8" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104" t="s">
+      <c r="D8" s="110"/>
+      <c r="E8" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104" t="s">
+      <c r="F8" s="110"/>
+      <c r="G8" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104" t="s">
+      <c r="H8" s="110"/>
+      <c r="I8" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="104"/>
-      <c r="K8" s="116" t="s">
+      <c r="J8" s="110"/>
+      <c r="K8" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116" t="s">
+      <c r="L8" s="126"/>
+      <c r="M8" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="116"/>
+      <c r="N8" s="126"/>
       <c r="O8" s="47" t="s">
         <v>6</v>
       </c>
@@ -4251,18 +4249,18 @@
       <c r="H9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="104" t="s">
+      <c r="I9" s="110" t="s">
         <v>115</v>
       </c>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104" t="s">
+      <c r="J9" s="110"/>
+      <c r="K9" s="110" t="s">
         <v>116</v>
       </c>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104" t="s">
+      <c r="L9" s="110"/>
+      <c r="M9" s="110" t="s">
         <v>114</v>
       </c>
-      <c r="N9" s="104"/>
+      <c r="N9" s="110"/>
       <c r="O9" s="47" t="s">
         <v>6</v>
       </c>
@@ -4280,30 +4278,30 @@
       <c r="B10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118" t="s">
+      <c r="D10" s="111"/>
+      <c r="E10" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118" t="s">
+      <c r="F10" s="111"/>
+      <c r="G10" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118" t="s">
+      <c r="H10" s="111"/>
+      <c r="I10" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="118"/>
-      <c r="K10" s="122" t="s">
+      <c r="J10" s="111"/>
+      <c r="K10" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="122"/>
-      <c r="M10" s="122" t="s">
+      <c r="L10" s="112"/>
+      <c r="M10" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="N10" s="122"/>
+      <c r="N10" s="112"/>
       <c r="O10" s="49" t="s">
         <v>6</v>
       </c>
@@ -4339,18 +4337,18 @@
       <c r="H11" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="118" t="s">
+      <c r="I11" s="111" t="s">
         <v>115</v>
       </c>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118" t="s">
+      <c r="J11" s="111"/>
+      <c r="K11" s="111" t="s">
         <v>116</v>
       </c>
-      <c r="L11" s="118"/>
-      <c r="M11" s="118" t="s">
+      <c r="L11" s="111"/>
+      <c r="M11" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="N11" s="118"/>
+      <c r="N11" s="111"/>
       <c r="O11" s="45" t="s">
         <v>6</v>
       </c>
@@ -4368,30 +4366,30 @@
       <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104" t="s">
+      <c r="D12" s="110"/>
+      <c r="E12" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104" t="s">
+      <c r="F12" s="110"/>
+      <c r="G12" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104" t="s">
+      <c r="H12" s="110"/>
+      <c r="I12" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="104"/>
-      <c r="K12" s="116" t="s">
+      <c r="J12" s="110"/>
+      <c r="K12" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="116"/>
-      <c r="M12" s="116" t="s">
+      <c r="L12" s="126"/>
+      <c r="M12" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="N12" s="116"/>
+      <c r="N12" s="126"/>
       <c r="O12" s="47" t="s">
         <v>6</v>
       </c>
@@ -4427,18 +4425,18 @@
       <c r="H13" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="104" t="s">
+      <c r="I13" s="110" t="s">
         <v>115</v>
       </c>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104" t="s">
+      <c r="J13" s="110"/>
+      <c r="K13" s="110" t="s">
         <v>116</v>
       </c>
-      <c r="L13" s="104"/>
-      <c r="M13" s="104" t="s">
+      <c r="L13" s="110"/>
+      <c r="M13" s="110" t="s">
         <v>114</v>
       </c>
-      <c r="N13" s="104"/>
+      <c r="N13" s="110"/>
       <c r="O13" s="47" t="s">
         <v>6</v>
       </c>
@@ -4456,30 +4454,30 @@
       <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="117" t="s">
+      <c r="C14" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118" t="s">
+      <c r="D14" s="111"/>
+      <c r="E14" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="118"/>
-      <c r="G14" s="118" t="s">
+      <c r="F14" s="111"/>
+      <c r="G14" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="118"/>
-      <c r="I14" s="118" t="s">
+      <c r="H14" s="111"/>
+      <c r="I14" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="118"/>
-      <c r="K14" s="122" t="s">
+      <c r="J14" s="111"/>
+      <c r="K14" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="122"/>
-      <c r="M14" s="122" t="s">
+      <c r="L14" s="112"/>
+      <c r="M14" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="N14" s="122"/>
+      <c r="N14" s="112"/>
       <c r="O14" s="49" t="s">
         <v>6</v>
       </c>
@@ -4515,18 +4513,18 @@
       <c r="H15" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="118" t="s">
+      <c r="I15" s="111" t="s">
         <v>115</v>
       </c>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118" t="s">
+      <c r="J15" s="111"/>
+      <c r="K15" s="111" t="s">
         <v>116</v>
       </c>
-      <c r="L15" s="118"/>
-      <c r="M15" s="118" t="s">
+      <c r="L15" s="111"/>
+      <c r="M15" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="N15" s="118"/>
+      <c r="N15" s="111"/>
       <c r="O15" s="45" t="s">
         <v>6</v>
       </c>
@@ -4544,30 +4542,30 @@
       <c r="B16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="103" t="s">
+      <c r="C16" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104" t="s">
+      <c r="D16" s="110"/>
+      <c r="E16" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104" t="s">
+      <c r="F16" s="110"/>
+      <c r="G16" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104" t="s">
+      <c r="H16" s="110"/>
+      <c r="I16" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="104"/>
-      <c r="K16" s="116" t="s">
+      <c r="J16" s="110"/>
+      <c r="K16" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="116"/>
-      <c r="M16" s="116" t="s">
+      <c r="L16" s="126"/>
+      <c r="M16" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="N16" s="116"/>
+      <c r="N16" s="126"/>
       <c r="O16" s="47" t="s">
         <v>6</v>
       </c>
@@ -4603,18 +4601,18 @@
       <c r="H17" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="104" t="s">
+      <c r="I17" s="110" t="s">
         <v>115</v>
       </c>
-      <c r="J17" s="104"/>
-      <c r="K17" s="104" t="s">
+      <c r="J17" s="110"/>
+      <c r="K17" s="110" t="s">
         <v>116</v>
       </c>
-      <c r="L17" s="104"/>
-      <c r="M17" s="104" t="s">
+      <c r="L17" s="110"/>
+      <c r="M17" s="110" t="s">
         <v>114</v>
       </c>
-      <c r="N17" s="104"/>
+      <c r="N17" s="110"/>
       <c r="O17" s="47" t="s">
         <v>6</v>
       </c>
@@ -4713,514 +4711,523 @@
       <c r="R21" s="39"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="123" t="s">
+      <c r="B25" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="105" t="s">
+      <c r="C25" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="108"/>
-      <c r="M25" s="109"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="116"/>
+      <c r="I25" s="116"/>
+      <c r="J25" s="116"/>
+      <c r="K25" s="117"/>
+      <c r="L25" s="118"/>
+      <c r="M25" s="119"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="124"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="110"/>
-      <c r="L26" s="111"/>
-      <c r="M26" s="112"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="116"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="116"/>
+      <c r="K26" s="120"/>
+      <c r="L26" s="121"/>
+      <c r="M26" s="122"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="124"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="110"/>
-      <c r="L27" s="111"/>
-      <c r="M27" s="112"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="116"/>
+      <c r="K27" s="120"/>
+      <c r="L27" s="121"/>
+      <c r="M27" s="122"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="124"/>
-      <c r="C28" s="106"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="106"/>
-      <c r="K28" s="113"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="115"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="116"/>
+      <c r="K28" s="123"/>
+      <c r="L28" s="124"/>
+      <c r="M28" s="125"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="123" t="s">
+      <c r="B29" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="105" t="s">
+      <c r="C29" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="107"/>
-      <c r="L29" s="108"/>
-      <c r="M29" s="109"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="116"/>
+      <c r="J29" s="116"/>
+      <c r="K29" s="117"/>
+      <c r="L29" s="118"/>
+      <c r="M29" s="119"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="124"/>
-      <c r="C30" s="106"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="110"/>
-      <c r="L30" s="111"/>
-      <c r="M30" s="112"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="116"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="116"/>
+      <c r="K30" s="120"/>
+      <c r="L30" s="121"/>
+      <c r="M30" s="122"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="124"/>
-      <c r="C31" s="106"/>
-      <c r="D31" s="106"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="106"/>
-      <c r="J31" s="106"/>
-      <c r="K31" s="110"/>
-      <c r="L31" s="111"/>
-      <c r="M31" s="112"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="116"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="116"/>
+      <c r="K31" s="120"/>
+      <c r="L31" s="121"/>
+      <c r="M31" s="122"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="124"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="113"/>
-      <c r="L32" s="114"/>
-      <c r="M32" s="115"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="116"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="116"/>
+      <c r="K32" s="123"/>
+      <c r="L32" s="124"/>
+      <c r="M32" s="125"/>
     </row>
     <row r="33" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="123" t="s">
+      <c r="B33" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="105" t="s">
+      <c r="C33" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="106"/>
-      <c r="E33" s="106"/>
-      <c r="F33" s="106"/>
-      <c r="G33" s="106"/>
-      <c r="H33" s="106"/>
-      <c r="I33" s="106"/>
-      <c r="J33" s="106"/>
-      <c r="K33" s="107"/>
-      <c r="L33" s="108"/>
-      <c r="M33" s="109"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="116"/>
+      <c r="G33" s="116"/>
+      <c r="H33" s="116"/>
+      <c r="I33" s="116"/>
+      <c r="J33" s="116"/>
+      <c r="K33" s="117"/>
+      <c r="L33" s="118"/>
+      <c r="M33" s="119"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="124"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="106"/>
-      <c r="F34" s="106"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106"/>
-      <c r="K34" s="110"/>
-      <c r="L34" s="111"/>
-      <c r="M34" s="112"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="116"/>
+      <c r="K34" s="120"/>
+      <c r="L34" s="121"/>
+      <c r="M34" s="122"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="124"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="106"/>
-      <c r="E35" s="106"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="106"/>
-      <c r="H35" s="106"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="106"/>
-      <c r="K35" s="110"/>
-      <c r="L35" s="111"/>
-      <c r="M35" s="112"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="116"/>
+      <c r="K35" s="120"/>
+      <c r="L35" s="121"/>
+      <c r="M35" s="122"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="124"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="106"/>
-      <c r="E36" s="106"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="106"/>
-      <c r="H36" s="106"/>
-      <c r="I36" s="106"/>
-      <c r="J36" s="106"/>
-      <c r="K36" s="113"/>
-      <c r="L36" s="114"/>
-      <c r="M36" s="115"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="116"/>
+      <c r="H36" s="116"/>
+      <c r="I36" s="116"/>
+      <c r="J36" s="116"/>
+      <c r="K36" s="123"/>
+      <c r="L36" s="124"/>
+      <c r="M36" s="125"/>
     </row>
     <row r="37" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="123" t="s">
+      <c r="B37" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="105" t="s">
+      <c r="C37" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="106"/>
-      <c r="E37" s="106"/>
-      <c r="F37" s="106"/>
-      <c r="G37" s="106"/>
-      <c r="H37" s="106"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="106"/>
-      <c r="K37" s="107"/>
-      <c r="L37" s="108"/>
-      <c r="M37" s="109"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="116"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="116"/>
+      <c r="J37" s="116"/>
+      <c r="K37" s="117"/>
+      <c r="L37" s="118"/>
+      <c r="M37" s="119"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="124"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="106"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="106"/>
-      <c r="G38" s="106"/>
-      <c r="H38" s="106"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="106"/>
-      <c r="K38" s="110"/>
-      <c r="L38" s="111"/>
-      <c r="M38" s="112"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="116"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="116"/>
+      <c r="J38" s="116"/>
+      <c r="K38" s="120"/>
+      <c r="L38" s="121"/>
+      <c r="M38" s="122"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="124"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="106"/>
-      <c r="E39" s="106"/>
-      <c r="F39" s="106"/>
-      <c r="G39" s="106"/>
-      <c r="H39" s="106"/>
-      <c r="I39" s="106"/>
-      <c r="J39" s="106"/>
-      <c r="K39" s="110"/>
-      <c r="L39" s="111"/>
-      <c r="M39" s="112"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="116"/>
+      <c r="G39" s="116"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="116"/>
+      <c r="J39" s="116"/>
+      <c r="K39" s="120"/>
+      <c r="L39" s="121"/>
+      <c r="M39" s="122"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="124"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="106"/>
-      <c r="F40" s="106"/>
-      <c r="G40" s="106"/>
-      <c r="H40" s="106"/>
-      <c r="I40" s="106"/>
-      <c r="J40" s="106"/>
-      <c r="K40" s="113"/>
-      <c r="L40" s="114"/>
-      <c r="M40" s="115"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="116"/>
+      <c r="F40" s="116"/>
+      <c r="G40" s="116"/>
+      <c r="H40" s="116"/>
+      <c r="I40" s="116"/>
+      <c r="J40" s="116"/>
+      <c r="K40" s="123"/>
+      <c r="L40" s="124"/>
+      <c r="M40" s="125"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="123" t="s">
+      <c r="B41" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="105" t="s">
+      <c r="C41" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="106"/>
-      <c r="E41" s="106"/>
-      <c r="F41" s="106"/>
-      <c r="G41" s="106"/>
-      <c r="H41" s="106"/>
-      <c r="I41" s="106"/>
-      <c r="J41" s="106"/>
-      <c r="K41" s="107"/>
-      <c r="L41" s="108"/>
-      <c r="M41" s="109"/>
+      <c r="D41" s="116"/>
+      <c r="E41" s="116"/>
+      <c r="F41" s="116"/>
+      <c r="G41" s="116"/>
+      <c r="H41" s="116"/>
+      <c r="I41" s="116"/>
+      <c r="J41" s="116"/>
+      <c r="K41" s="117"/>
+      <c r="L41" s="118"/>
+      <c r="M41" s="119"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="124"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="106"/>
-      <c r="E42" s="106"/>
-      <c r="F42" s="106"/>
-      <c r="G42" s="106"/>
-      <c r="H42" s="106"/>
-      <c r="I42" s="106"/>
-      <c r="J42" s="106"/>
-      <c r="K42" s="110"/>
-      <c r="L42" s="111"/>
-      <c r="M42" s="112"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="116"/>
+      <c r="E42" s="116"/>
+      <c r="F42" s="116"/>
+      <c r="G42" s="116"/>
+      <c r="H42" s="116"/>
+      <c r="I42" s="116"/>
+      <c r="J42" s="116"/>
+      <c r="K42" s="120"/>
+      <c r="L42" s="121"/>
+      <c r="M42" s="122"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="124"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="106"/>
-      <c r="E43" s="106"/>
-      <c r="F43" s="106"/>
-      <c r="G43" s="106"/>
-      <c r="H43" s="106"/>
-      <c r="I43" s="106"/>
-      <c r="J43" s="106"/>
-      <c r="K43" s="110"/>
-      <c r="L43" s="111"/>
-      <c r="M43" s="112"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="116"/>
+      <c r="E43" s="116"/>
+      <c r="F43" s="116"/>
+      <c r="G43" s="116"/>
+      <c r="H43" s="116"/>
+      <c r="I43" s="116"/>
+      <c r="J43" s="116"/>
+      <c r="K43" s="120"/>
+      <c r="L43" s="121"/>
+      <c r="M43" s="122"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="124"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="106"/>
-      <c r="E44" s="106"/>
-      <c r="F44" s="106"/>
-      <c r="G44" s="106"/>
-      <c r="H44" s="106"/>
-      <c r="I44" s="106"/>
-      <c r="J44" s="106"/>
-      <c r="K44" s="113"/>
-      <c r="L44" s="114"/>
-      <c r="M44" s="115"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="116"/>
+      <c r="G44" s="116"/>
+      <c r="H44" s="116"/>
+      <c r="I44" s="116"/>
+      <c r="J44" s="116"/>
+      <c r="K44" s="123"/>
+      <c r="L44" s="124"/>
+      <c r="M44" s="125"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="123" t="s">
+      <c r="B45" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="105" t="s">
+      <c r="C45" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="106"/>
-      <c r="E45" s="106"/>
-      <c r="F45" s="106"/>
-      <c r="G45" s="106"/>
-      <c r="H45" s="106"/>
-      <c r="I45" s="106"/>
-      <c r="J45" s="106"/>
-      <c r="K45" s="107"/>
-      <c r="L45" s="108"/>
-      <c r="M45" s="109"/>
+      <c r="D45" s="116"/>
+      <c r="E45" s="116"/>
+      <c r="F45" s="116"/>
+      <c r="G45" s="116"/>
+      <c r="H45" s="116"/>
+      <c r="I45" s="116"/>
+      <c r="J45" s="116"/>
+      <c r="K45" s="117"/>
+      <c r="L45" s="118"/>
+      <c r="M45" s="119"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="124"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="106"/>
-      <c r="E46" s="106"/>
-      <c r="F46" s="106"/>
-      <c r="G46" s="106"/>
-      <c r="H46" s="106"/>
-      <c r="I46" s="106"/>
-      <c r="J46" s="106"/>
-      <c r="K46" s="110"/>
-      <c r="L46" s="111"/>
-      <c r="M46" s="112"/>
+      <c r="B46" s="114"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="116"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="116"/>
+      <c r="I46" s="116"/>
+      <c r="J46" s="116"/>
+      <c r="K46" s="120"/>
+      <c r="L46" s="121"/>
+      <c r="M46" s="122"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="124"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="106"/>
-      <c r="E47" s="106"/>
-      <c r="F47" s="106"/>
-      <c r="G47" s="106"/>
-      <c r="H47" s="106"/>
-      <c r="I47" s="106"/>
-      <c r="J47" s="106"/>
-      <c r="K47" s="110"/>
-      <c r="L47" s="111"/>
-      <c r="M47" s="112"/>
+      <c r="B47" s="114"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="116"/>
+      <c r="F47" s="116"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="116"/>
+      <c r="I47" s="116"/>
+      <c r="J47" s="116"/>
+      <c r="K47" s="120"/>
+      <c r="L47" s="121"/>
+      <c r="M47" s="122"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="124"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="106"/>
-      <c r="E48" s="106"/>
-      <c r="F48" s="106"/>
-      <c r="G48" s="106"/>
-      <c r="H48" s="106"/>
-      <c r="I48" s="106"/>
-      <c r="J48" s="106"/>
-      <c r="K48" s="113"/>
-      <c r="L48" s="114"/>
-      <c r="M48" s="115"/>
+      <c r="B48" s="114"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="116"/>
+      <c r="E48" s="116"/>
+      <c r="F48" s="116"/>
+      <c r="G48" s="116"/>
+      <c r="H48" s="116"/>
+      <c r="I48" s="116"/>
+      <c r="J48" s="116"/>
+      <c r="K48" s="123"/>
+      <c r="L48" s="124"/>
+      <c r="M48" s="125"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="123" t="s">
+      <c r="B49" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="105" t="s">
+      <c r="C49" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="106"/>
-      <c r="E49" s="106"/>
-      <c r="F49" s="106"/>
-      <c r="G49" s="106"/>
-      <c r="H49" s="106"/>
-      <c r="I49" s="106"/>
-      <c r="J49" s="106"/>
-      <c r="K49" s="107"/>
-      <c r="L49" s="108"/>
-      <c r="M49" s="109"/>
+      <c r="D49" s="116"/>
+      <c r="E49" s="116"/>
+      <c r="F49" s="116"/>
+      <c r="G49" s="116"/>
+      <c r="H49" s="116"/>
+      <c r="I49" s="116"/>
+      <c r="J49" s="116"/>
+      <c r="K49" s="117"/>
+      <c r="L49" s="118"/>
+      <c r="M49" s="119"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B50" s="124"/>
-      <c r="C50" s="106"/>
-      <c r="D50" s="106"/>
-      <c r="E50" s="106"/>
-      <c r="F50" s="106"/>
-      <c r="G50" s="106"/>
-      <c r="H50" s="106"/>
-      <c r="I50" s="106"/>
-      <c r="J50" s="106"/>
-      <c r="K50" s="110"/>
-      <c r="L50" s="111"/>
-      <c r="M50" s="112"/>
+      <c r="B50" s="114"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="116"/>
+      <c r="E50" s="116"/>
+      <c r="F50" s="116"/>
+      <c r="G50" s="116"/>
+      <c r="H50" s="116"/>
+      <c r="I50" s="116"/>
+      <c r="J50" s="116"/>
+      <c r="K50" s="120"/>
+      <c r="L50" s="121"/>
+      <c r="M50" s="122"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="124"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="106"/>
-      <c r="E51" s="106"/>
-      <c r="F51" s="106"/>
-      <c r="G51" s="106"/>
-      <c r="H51" s="106"/>
-      <c r="I51" s="106"/>
-      <c r="J51" s="106"/>
-      <c r="K51" s="110"/>
-      <c r="L51" s="111"/>
-      <c r="M51" s="112"/>
+      <c r="B51" s="114"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="116"/>
+      <c r="E51" s="116"/>
+      <c r="F51" s="116"/>
+      <c r="G51" s="116"/>
+      <c r="H51" s="116"/>
+      <c r="I51" s="116"/>
+      <c r="J51" s="116"/>
+      <c r="K51" s="120"/>
+      <c r="L51" s="121"/>
+      <c r="M51" s="122"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B52" s="124"/>
-      <c r="C52" s="106"/>
-      <c r="D52" s="106"/>
-      <c r="E52" s="106"/>
-      <c r="F52" s="106"/>
-      <c r="G52" s="106"/>
-      <c r="H52" s="106"/>
-      <c r="I52" s="106"/>
-      <c r="J52" s="106"/>
-      <c r="K52" s="113"/>
-      <c r="L52" s="114"/>
-      <c r="M52" s="115"/>
+      <c r="B52" s="114"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="116"/>
+      <c r="E52" s="116"/>
+      <c r="F52" s="116"/>
+      <c r="G52" s="116"/>
+      <c r="H52" s="116"/>
+      <c r="I52" s="116"/>
+      <c r="J52" s="116"/>
+      <c r="K52" s="123"/>
+      <c r="L52" s="124"/>
+      <c r="M52" s="125"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B53" s="123" t="s">
+      <c r="B53" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="C53" s="105" t="s">
+      <c r="C53" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="106"/>
-      <c r="E53" s="106"/>
-      <c r="F53" s="106"/>
-      <c r="G53" s="106"/>
-      <c r="H53" s="106"/>
-      <c r="I53" s="106"/>
-      <c r="J53" s="106"/>
-      <c r="K53" s="107"/>
-      <c r="L53" s="108"/>
-      <c r="M53" s="109"/>
+      <c r="D53" s="116"/>
+      <c r="E53" s="116"/>
+      <c r="F53" s="116"/>
+      <c r="G53" s="116"/>
+      <c r="H53" s="116"/>
+      <c r="I53" s="116"/>
+      <c r="J53" s="116"/>
+      <c r="K53" s="117"/>
+      <c r="L53" s="118"/>
+      <c r="M53" s="119"/>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B54" s="124"/>
-      <c r="C54" s="106"/>
-      <c r="D54" s="106"/>
-      <c r="E54" s="106"/>
-      <c r="F54" s="106"/>
-      <c r="G54" s="106"/>
-      <c r="H54" s="106"/>
-      <c r="I54" s="106"/>
-      <c r="J54" s="106"/>
-      <c r="K54" s="110"/>
-      <c r="L54" s="111"/>
-      <c r="M54" s="112"/>
+      <c r="B54" s="114"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="116"/>
+      <c r="E54" s="116"/>
+      <c r="F54" s="116"/>
+      <c r="G54" s="116"/>
+      <c r="H54" s="116"/>
+      <c r="I54" s="116"/>
+      <c r="J54" s="116"/>
+      <c r="K54" s="120"/>
+      <c r="L54" s="121"/>
+      <c r="M54" s="122"/>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B55" s="124"/>
-      <c r="C55" s="106"/>
-      <c r="D55" s="106"/>
-      <c r="E55" s="106"/>
-      <c r="F55" s="106"/>
-      <c r="G55" s="106"/>
-      <c r="H55" s="106"/>
-      <c r="I55" s="106"/>
-      <c r="J55" s="106"/>
-      <c r="K55" s="110"/>
-      <c r="L55" s="111"/>
-      <c r="M55" s="112"/>
+      <c r="B55" s="114"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="116"/>
+      <c r="E55" s="116"/>
+      <c r="F55" s="116"/>
+      <c r="G55" s="116"/>
+      <c r="H55" s="116"/>
+      <c r="I55" s="116"/>
+      <c r="J55" s="116"/>
+      <c r="K55" s="120"/>
+      <c r="L55" s="121"/>
+      <c r="M55" s="122"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="124"/>
-      <c r="C56" s="106"/>
-      <c r="D56" s="106"/>
-      <c r="E56" s="106"/>
-      <c r="F56" s="106"/>
-      <c r="G56" s="106"/>
-      <c r="H56" s="106"/>
-      <c r="I56" s="106"/>
-      <c r="J56" s="106"/>
-      <c r="K56" s="113"/>
-      <c r="L56" s="114"/>
-      <c r="M56" s="115"/>
+      <c r="B56" s="114"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="116"/>
+      <c r="E56" s="116"/>
+      <c r="F56" s="116"/>
+      <c r="G56" s="116"/>
+      <c r="H56" s="116"/>
+      <c r="I56" s="116"/>
+      <c r="J56" s="116"/>
+      <c r="K56" s="123"/>
+      <c r="L56" s="124"/>
+      <c r="M56" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C49:J52"/>
-    <mergeCell ref="K49:M52"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="C53:J56"/>
-    <mergeCell ref="K53:M56"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="C41:J44"/>
-    <mergeCell ref="K41:M44"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="C45:J48"/>
-    <mergeCell ref="K45:M48"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C25:J28"/>
+    <mergeCell ref="K25:M28"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B2:R3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M15:N15"/>
     <mergeCell ref="B37:B40"/>
     <mergeCell ref="C37:J40"/>
     <mergeCell ref="K37:M40"/>
@@ -5237,42 +5244,33 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="B2:R3"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C25:J28"/>
-    <mergeCell ref="K25:M28"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="C41:J44"/>
+    <mergeCell ref="K41:M44"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="C45:J48"/>
+    <mergeCell ref="K45:M48"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:J52"/>
+    <mergeCell ref="K49:M52"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="C53:J56"/>
+    <mergeCell ref="K53:M56"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5297,44 +5295,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="89" t="s">
         <v>217</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5398,145 +5396,145 @@
       <c r="D6" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="125" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="125"/>
-      <c r="G6" s="135" t="s">
+      <c r="E6" s="151" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="151"/>
+      <c r="G6" s="146" t="s">
         <v>133</v>
       </c>
-      <c r="H6" s="135"/>
-      <c r="I6" s="125" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="125"/>
-      <c r="K6" s="135" t="s">
+      <c r="H6" s="146"/>
+      <c r="I6" s="151" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="151"/>
+      <c r="K6" s="146" t="s">
         <v>134</v>
       </c>
-      <c r="L6" s="135"/>
-      <c r="M6" s="135" t="s">
+      <c r="L6" s="146"/>
+      <c r="M6" s="146" t="s">
         <v>135</v>
       </c>
-      <c r="N6" s="135"/>
-      <c r="O6" s="135" t="s">
+      <c r="N6" s="146"/>
+      <c r="O6" s="146" t="s">
         <v>136</v>
       </c>
-      <c r="P6" s="135"/>
-      <c r="Q6" s="135" t="s">
+      <c r="P6" s="146"/>
+      <c r="Q6" s="146" t="s">
         <v>137</v>
       </c>
-      <c r="R6" s="136"/>
+      <c r="R6" s="147"/>
     </row>
     <row r="7" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="139" t="s">
+      <c r="C7" s="140" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137" t="s">
+      <c r="D7" s="141"/>
+      <c r="E7" s="141" t="s">
         <v>139</v>
       </c>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137" t="s">
+      <c r="F7" s="141"/>
+      <c r="G7" s="141" t="s">
         <v>140</v>
       </c>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137" t="s">
+      <c r="H7" s="141"/>
+      <c r="I7" s="141" t="s">
         <v>141</v>
       </c>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137" t="s">
+      <c r="J7" s="141"/>
+      <c r="K7" s="141" t="s">
         <v>142</v>
       </c>
-      <c r="L7" s="137"/>
-      <c r="M7" s="137" t="s">
+      <c r="L7" s="141"/>
+      <c r="M7" s="141" t="s">
         <v>143</v>
       </c>
-      <c r="N7" s="137"/>
-      <c r="O7" s="137" t="s">
+      <c r="N7" s="141"/>
+      <c r="O7" s="141" t="s">
         <v>144</v>
       </c>
-      <c r="P7" s="137"/>
-      <c r="Q7" s="137" t="s">
+      <c r="P7" s="141"/>
+      <c r="Q7" s="141" t="s">
         <v>145</v>
       </c>
-      <c r="R7" s="138"/>
+      <c r="R7" s="142"/>
     </row>
     <row r="8" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="139" t="s">
+      <c r="C8" s="140" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137" t="s">
+      <c r="D8" s="141"/>
+      <c r="E8" s="141" t="s">
         <v>147</v>
       </c>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137" t="s">
+      <c r="F8" s="141"/>
+      <c r="G8" s="141" t="s">
         <v>148</v>
       </c>
-      <c r="H8" s="137"/>
-      <c r="I8" s="137" t="s">
+      <c r="H8" s="141"/>
+      <c r="I8" s="141" t="s">
         <v>149</v>
       </c>
-      <c r="J8" s="137"/>
-      <c r="K8" s="137" t="s">
+      <c r="J8" s="141"/>
+      <c r="K8" s="141" t="s">
         <v>150</v>
       </c>
-      <c r="L8" s="137"/>
-      <c r="M8" s="137" t="s">
+      <c r="L8" s="141"/>
+      <c r="M8" s="141" t="s">
         <v>151</v>
       </c>
-      <c r="N8" s="137"/>
-      <c r="O8" s="137" t="s">
+      <c r="N8" s="141"/>
+      <c r="O8" s="141" t="s">
         <v>152</v>
       </c>
-      <c r="P8" s="137"/>
-      <c r="Q8" s="137" t="s">
+      <c r="P8" s="141"/>
+      <c r="Q8" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="R8" s="138"/>
+      <c r="R8" s="142"/>
     </row>
     <row r="9" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="139" t="s">
+      <c r="C9" s="140" t="s">
         <v>154</v>
       </c>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137" t="s">
+      <c r="D9" s="141"/>
+      <c r="E9" s="141" t="s">
         <v>155</v>
       </c>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137" t="s">
+      <c r="F9" s="141"/>
+      <c r="G9" s="141" t="s">
         <v>156</v>
       </c>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137" t="s">
+      <c r="H9" s="141"/>
+      <c r="I9" s="141" t="s">
         <v>157</v>
       </c>
-      <c r="J9" s="137"/>
-      <c r="K9" s="137" t="s">
+      <c r="J9" s="141"/>
+      <c r="K9" s="141" t="s">
         <v>158</v>
       </c>
-      <c r="L9" s="137"/>
-      <c r="M9" s="137" t="s">
+      <c r="L9" s="141"/>
+      <c r="M9" s="141" t="s">
         <v>159</v>
       </c>
-      <c r="N9" s="137"/>
-      <c r="O9" s="137" t="s">
+      <c r="N9" s="141"/>
+      <c r="O9" s="141" t="s">
         <v>160</v>
       </c>
-      <c r="P9" s="137"/>
-      <c r="Q9" s="137" t="s">
+      <c r="P9" s="141"/>
+      <c r="Q9" s="141" t="s">
         <v>161</v>
       </c>
-      <c r="R9" s="138"/>
+      <c r="R9" s="142"/>
     </row>
     <row r="10" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="31" t="s">
@@ -5548,145 +5546,145 @@
       <c r="D10" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="E10" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="127"/>
-      <c r="G10" s="140" t="s">
+      <c r="E10" s="158" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="158"/>
+      <c r="G10" s="132" t="s">
         <v>133</v>
       </c>
-      <c r="H10" s="140"/>
-      <c r="I10" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="127"/>
-      <c r="K10" s="140" t="s">
+      <c r="H10" s="132"/>
+      <c r="I10" s="158" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="158"/>
+      <c r="K10" s="132" t="s">
         <v>134</v>
       </c>
-      <c r="L10" s="140"/>
-      <c r="M10" s="140" t="s">
+      <c r="L10" s="132"/>
+      <c r="M10" s="132" t="s">
         <v>135</v>
       </c>
-      <c r="N10" s="140"/>
-      <c r="O10" s="140" t="s">
+      <c r="N10" s="132"/>
+      <c r="O10" s="132" t="s">
         <v>136</v>
       </c>
-      <c r="P10" s="140"/>
-      <c r="Q10" s="140" t="s">
+      <c r="P10" s="132"/>
+      <c r="Q10" s="132" t="s">
         <v>137</v>
       </c>
-      <c r="R10" s="141"/>
+      <c r="R10" s="133"/>
     </row>
     <row r="11" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="142" t="s">
+      <c r="C11" s="134" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="140"/>
-      <c r="E11" s="140" t="s">
+      <c r="D11" s="132"/>
+      <c r="E11" s="132" t="s">
         <v>139</v>
       </c>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140" t="s">
+      <c r="F11" s="132"/>
+      <c r="G11" s="132" t="s">
         <v>140</v>
       </c>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140" t="s">
+      <c r="H11" s="132"/>
+      <c r="I11" s="132" t="s">
         <v>141</v>
       </c>
-      <c r="J11" s="140"/>
-      <c r="K11" s="140" t="s">
+      <c r="J11" s="132"/>
+      <c r="K11" s="132" t="s">
         <v>142</v>
       </c>
-      <c r="L11" s="140"/>
-      <c r="M11" s="140" t="s">
+      <c r="L11" s="132"/>
+      <c r="M11" s="132" t="s">
         <v>143</v>
       </c>
-      <c r="N11" s="140"/>
-      <c r="O11" s="140" t="s">
+      <c r="N11" s="132"/>
+      <c r="O11" s="132" t="s">
         <v>144</v>
       </c>
-      <c r="P11" s="140"/>
-      <c r="Q11" s="140" t="s">
+      <c r="P11" s="132"/>
+      <c r="Q11" s="132" t="s">
         <v>145</v>
       </c>
-      <c r="R11" s="141"/>
+      <c r="R11" s="133"/>
     </row>
     <row r="12" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="142" t="s">
+      <c r="C12" s="134" t="s">
         <v>146</v>
       </c>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140" t="s">
+      <c r="D12" s="132"/>
+      <c r="E12" s="132" t="s">
         <v>147</v>
       </c>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140" t="s">
+      <c r="F12" s="132"/>
+      <c r="G12" s="132" t="s">
         <v>148</v>
       </c>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140" t="s">
+      <c r="H12" s="132"/>
+      <c r="I12" s="132" t="s">
         <v>149</v>
       </c>
-      <c r="J12" s="140"/>
-      <c r="K12" s="140" t="s">
+      <c r="J12" s="132"/>
+      <c r="K12" s="132" t="s">
         <v>150</v>
       </c>
-      <c r="L12" s="140"/>
-      <c r="M12" s="140" t="s">
+      <c r="L12" s="132"/>
+      <c r="M12" s="132" t="s">
         <v>151</v>
       </c>
-      <c r="N12" s="140"/>
-      <c r="O12" s="140" t="s">
+      <c r="N12" s="132"/>
+      <c r="O12" s="132" t="s">
         <v>152</v>
       </c>
-      <c r="P12" s="140"/>
-      <c r="Q12" s="140" t="s">
+      <c r="P12" s="132"/>
+      <c r="Q12" s="132" t="s">
         <v>153</v>
       </c>
-      <c r="R12" s="141"/>
+      <c r="R12" s="133"/>
     </row>
     <row r="13" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="142" t="s">
+      <c r="C13" s="134" t="s">
         <v>154</v>
       </c>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140" t="s">
+      <c r="D13" s="132"/>
+      <c r="E13" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140" t="s">
+      <c r="F13" s="132"/>
+      <c r="G13" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="H13" s="140"/>
-      <c r="I13" s="140" t="s">
+      <c r="H13" s="132"/>
+      <c r="I13" s="132" t="s">
         <v>157</v>
       </c>
-      <c r="J13" s="140"/>
-      <c r="K13" s="140" t="s">
+      <c r="J13" s="132"/>
+      <c r="K13" s="132" t="s">
         <v>158</v>
       </c>
-      <c r="L13" s="140"/>
-      <c r="M13" s="140" t="s">
+      <c r="L13" s="132"/>
+      <c r="M13" s="132" t="s">
         <v>159</v>
       </c>
-      <c r="N13" s="140"/>
-      <c r="O13" s="140" t="s">
+      <c r="N13" s="132"/>
+      <c r="O13" s="132" t="s">
         <v>160</v>
       </c>
-      <c r="P13" s="140"/>
-      <c r="Q13" s="140" t="s">
+      <c r="P13" s="132"/>
+      <c r="Q13" s="132" t="s">
         <v>161</v>
       </c>
-      <c r="R13" s="141"/>
+      <c r="R13" s="133"/>
     </row>
     <row r="14" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="32" t="s">
@@ -5698,145 +5696,145 @@
       <c r="D14" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="E14" s="126" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="126"/>
-      <c r="G14" s="137" t="s">
+      <c r="E14" s="159" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="159"/>
+      <c r="G14" s="141" t="s">
         <v>133</v>
       </c>
-      <c r="H14" s="137"/>
-      <c r="I14" s="126" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="126"/>
-      <c r="K14" s="137" t="s">
+      <c r="H14" s="141"/>
+      <c r="I14" s="159" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="159"/>
+      <c r="K14" s="141" t="s">
         <v>134</v>
       </c>
-      <c r="L14" s="137"/>
-      <c r="M14" s="137" t="s">
+      <c r="L14" s="141"/>
+      <c r="M14" s="141" t="s">
         <v>135</v>
       </c>
-      <c r="N14" s="137"/>
-      <c r="O14" s="137" t="s">
+      <c r="N14" s="141"/>
+      <c r="O14" s="141" t="s">
         <v>136</v>
       </c>
-      <c r="P14" s="137"/>
-      <c r="Q14" s="137" t="s">
+      <c r="P14" s="141"/>
+      <c r="Q14" s="141" t="s">
         <v>137</v>
       </c>
-      <c r="R14" s="138"/>
+      <c r="R14" s="142"/>
     </row>
     <row r="15" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="139" t="s">
+      <c r="C15" s="140" t="s">
         <v>138</v>
       </c>
-      <c r="D15" s="137"/>
-      <c r="E15" s="137" t="s">
+      <c r="D15" s="141"/>
+      <c r="E15" s="141" t="s">
         <v>139</v>
       </c>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137" t="s">
+      <c r="F15" s="141"/>
+      <c r="G15" s="141" t="s">
         <v>140</v>
       </c>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137" t="s">
+      <c r="H15" s="141"/>
+      <c r="I15" s="141" t="s">
         <v>141</v>
       </c>
-      <c r="J15" s="137"/>
-      <c r="K15" s="137" t="s">
+      <c r="J15" s="141"/>
+      <c r="K15" s="141" t="s">
         <v>142</v>
       </c>
-      <c r="L15" s="137"/>
-      <c r="M15" s="137" t="s">
+      <c r="L15" s="141"/>
+      <c r="M15" s="141" t="s">
         <v>143</v>
       </c>
-      <c r="N15" s="137"/>
-      <c r="O15" s="137" t="s">
+      <c r="N15" s="141"/>
+      <c r="O15" s="141" t="s">
         <v>144</v>
       </c>
-      <c r="P15" s="137"/>
-      <c r="Q15" s="137" t="s">
+      <c r="P15" s="141"/>
+      <c r="Q15" s="141" t="s">
         <v>145</v>
       </c>
-      <c r="R15" s="138"/>
+      <c r="R15" s="142"/>
     </row>
     <row r="16" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="139" t="s">
+      <c r="C16" s="140" t="s">
         <v>146</v>
       </c>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137" t="s">
+      <c r="D16" s="141"/>
+      <c r="E16" s="141" t="s">
         <v>147</v>
       </c>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137" t="s">
+      <c r="F16" s="141"/>
+      <c r="G16" s="141" t="s">
         <v>148</v>
       </c>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137" t="s">
+      <c r="H16" s="141"/>
+      <c r="I16" s="141" t="s">
         <v>149</v>
       </c>
-      <c r="J16" s="137"/>
-      <c r="K16" s="137" t="s">
+      <c r="J16" s="141"/>
+      <c r="K16" s="141" t="s">
         <v>150</v>
       </c>
-      <c r="L16" s="137"/>
-      <c r="M16" s="137" t="s">
+      <c r="L16" s="141"/>
+      <c r="M16" s="141" t="s">
         <v>151</v>
       </c>
-      <c r="N16" s="137"/>
-      <c r="O16" s="137" t="s">
+      <c r="N16" s="141"/>
+      <c r="O16" s="141" t="s">
         <v>152</v>
       </c>
-      <c r="P16" s="137"/>
-      <c r="Q16" s="137" t="s">
+      <c r="P16" s="141"/>
+      <c r="Q16" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="R16" s="138"/>
+      <c r="R16" s="142"/>
     </row>
     <row r="17" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="139" t="s">
+      <c r="C17" s="140" t="s">
         <v>154</v>
       </c>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137" t="s">
+      <c r="D17" s="141"/>
+      <c r="E17" s="141" t="s">
         <v>155</v>
       </c>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137" t="s">
+      <c r="F17" s="141"/>
+      <c r="G17" s="141" t="s">
         <v>156</v>
       </c>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137" t="s">
+      <c r="H17" s="141"/>
+      <c r="I17" s="141" t="s">
         <v>157</v>
       </c>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137" t="s">
+      <c r="J17" s="141"/>
+      <c r="K17" s="141" t="s">
         <v>158</v>
       </c>
-      <c r="L17" s="137"/>
-      <c r="M17" s="137" t="s">
+      <c r="L17" s="141"/>
+      <c r="M17" s="141" t="s">
         <v>159</v>
       </c>
-      <c r="N17" s="137"/>
-      <c r="O17" s="137" t="s">
+      <c r="N17" s="141"/>
+      <c r="O17" s="141" t="s">
         <v>160</v>
       </c>
-      <c r="P17" s="137"/>
-      <c r="Q17" s="137" t="s">
+      <c r="P17" s="141"/>
+      <c r="Q17" s="141" t="s">
         <v>161</v>
       </c>
-      <c r="R17" s="138"/>
+      <c r="R17" s="142"/>
     </row>
     <row r="18" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="32" t="s">
@@ -5848,71 +5846,71 @@
       <c r="D18" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="E18" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="127"/>
-      <c r="G18" s="140" t="s">
+      <c r="E18" s="158" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="158"/>
+      <c r="G18" s="132" t="s">
         <v>133</v>
       </c>
-      <c r="H18" s="140"/>
-      <c r="I18" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="127"/>
-      <c r="K18" s="140" t="s">
+      <c r="H18" s="132"/>
+      <c r="I18" s="158" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="158"/>
+      <c r="K18" s="132" t="s">
         <v>134</v>
       </c>
-      <c r="L18" s="140"/>
-      <c r="M18" s="140" t="s">
+      <c r="L18" s="132"/>
+      <c r="M18" s="132" t="s">
         <v>135</v>
       </c>
-      <c r="N18" s="140"/>
-      <c r="O18" s="140" t="s">
+      <c r="N18" s="132"/>
+      <c r="O18" s="132" t="s">
         <v>136</v>
       </c>
-      <c r="P18" s="140"/>
-      <c r="Q18" s="140" t="s">
+      <c r="P18" s="132"/>
+      <c r="Q18" s="132" t="s">
         <v>137</v>
       </c>
-      <c r="R18" s="141"/>
+      <c r="R18" s="133"/>
     </row>
     <row r="19" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="142" t="s">
+      <c r="C19" s="134" t="s">
         <v>138</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="140" t="s">
+      <c r="D19" s="132"/>
+      <c r="E19" s="132" t="s">
         <v>139</v>
       </c>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140" t="s">
+      <c r="F19" s="132"/>
+      <c r="G19" s="132" t="s">
         <v>140</v>
       </c>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140" t="s">
+      <c r="H19" s="132"/>
+      <c r="I19" s="132" t="s">
         <v>141</v>
       </c>
-      <c r="J19" s="140"/>
-      <c r="K19" s="140" t="s">
+      <c r="J19" s="132"/>
+      <c r="K19" s="132" t="s">
         <v>142</v>
       </c>
-      <c r="L19" s="140"/>
-      <c r="M19" s="140" t="s">
+      <c r="L19" s="132"/>
+      <c r="M19" s="132" t="s">
         <v>143</v>
       </c>
-      <c r="N19" s="140"/>
-      <c r="O19" s="140" t="s">
+      <c r="N19" s="132"/>
+      <c r="O19" s="132" t="s">
         <v>144</v>
       </c>
-      <c r="P19" s="140"/>
-      <c r="Q19" s="140" t="s">
+      <c r="P19" s="132"/>
+      <c r="Q19" s="132" t="s">
         <v>145</v>
       </c>
-      <c r="R19" s="141"/>
+      <c r="R19" s="133"/>
       <c r="T19" s="59"/>
       <c r="U19" s="59"/>
       <c r="V19" s="59"/>
@@ -5921,38 +5919,38 @@
       <c r="B20" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="142" t="s">
+      <c r="C20" s="134" t="s">
         <v>146</v>
       </c>
-      <c r="D20" s="140"/>
-      <c r="E20" s="140" t="s">
+      <c r="D20" s="132"/>
+      <c r="E20" s="132" t="s">
         <v>147</v>
       </c>
-      <c r="F20" s="140"/>
-      <c r="G20" s="140" t="s">
+      <c r="F20" s="132"/>
+      <c r="G20" s="132" t="s">
         <v>148</v>
       </c>
-      <c r="H20" s="140"/>
-      <c r="I20" s="140" t="s">
+      <c r="H20" s="132"/>
+      <c r="I20" s="132" t="s">
         <v>149</v>
       </c>
-      <c r="J20" s="140"/>
-      <c r="K20" s="140" t="s">
+      <c r="J20" s="132"/>
+      <c r="K20" s="132" t="s">
         <v>150</v>
       </c>
-      <c r="L20" s="140"/>
-      <c r="M20" s="140" t="s">
+      <c r="L20" s="132"/>
+      <c r="M20" s="132" t="s">
         <v>151</v>
       </c>
-      <c r="N20" s="140"/>
-      <c r="O20" s="140" t="s">
+      <c r="N20" s="132"/>
+      <c r="O20" s="132" t="s">
         <v>152</v>
       </c>
-      <c r="P20" s="140"/>
-      <c r="Q20" s="140" t="s">
+      <c r="P20" s="132"/>
+      <c r="Q20" s="132" t="s">
         <v>153</v>
       </c>
-      <c r="R20" s="141"/>
+      <c r="R20" s="133"/>
       <c r="T20" s="62"/>
       <c r="U20" s="62"/>
       <c r="V20" s="62"/>
@@ -5961,61 +5959,61 @@
       <c r="B21" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="149" t="s">
+      <c r="C21" s="143" t="s">
         <v>154</v>
       </c>
-      <c r="D21" s="143"/>
-      <c r="E21" s="143" t="s">
+      <c r="D21" s="144"/>
+      <c r="E21" s="144" t="s">
         <v>155</v>
       </c>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143" t="s">
+      <c r="F21" s="144"/>
+      <c r="G21" s="144" t="s">
         <v>156</v>
       </c>
-      <c r="H21" s="143"/>
-      <c r="I21" s="143" t="s">
+      <c r="H21" s="144"/>
+      <c r="I21" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="J21" s="143"/>
-      <c r="K21" s="143" t="s">
+      <c r="J21" s="144"/>
+      <c r="K21" s="144" t="s">
         <v>158</v>
       </c>
-      <c r="L21" s="143"/>
-      <c r="M21" s="143" t="s">
+      <c r="L21" s="144"/>
+      <c r="M21" s="144" t="s">
         <v>159</v>
       </c>
-      <c r="N21" s="143"/>
-      <c r="O21" s="143" t="s">
+      <c r="N21" s="144"/>
+      <c r="O21" s="144" t="s">
         <v>160</v>
       </c>
-      <c r="P21" s="143"/>
-      <c r="Q21" s="143" t="s">
+      <c r="P21" s="144"/>
+      <c r="Q21" s="144" t="s">
         <v>161</v>
       </c>
-      <c r="R21" s="144"/>
+      <c r="R21" s="145"/>
       <c r="T21" s="62"/>
       <c r="U21" s="62"/>
       <c r="V21" s="62"/>
     </row>
     <row r="22" spans="1:37" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="59"/>
-      <c r="B22" s="155"/>
-      <c r="C22" s="156"/>
-      <c r="D22" s="156"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="156"/>
-      <c r="K22" s="156"/>
-      <c r="L22" s="156"/>
-      <c r="M22" s="156"/>
-      <c r="N22" s="156"/>
-      <c r="O22" s="156"/>
-      <c r="P22" s="156"/>
-      <c r="Q22" s="156"/>
-      <c r="R22" s="156"/>
+      <c r="B22" s="135"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="136"/>
+      <c r="K22" s="136"/>
+      <c r="L22" s="136"/>
+      <c r="M22" s="136"/>
+      <c r="N22" s="136"/>
+      <c r="O22" s="136"/>
+      <c r="P22" s="136"/>
+      <c r="Q22" s="136"/>
+      <c r="R22" s="136"/>
       <c r="S22" s="59"/>
       <c r="T22" s="63"/>
       <c r="U22" s="63"/>
@@ -6046,34 +6044,34 @@
       <c r="D23" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="E23" s="125" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="125"/>
-      <c r="G23" s="135" t="s">
+      <c r="E23" s="151" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="151"/>
+      <c r="G23" s="146" t="s">
         <v>133</v>
       </c>
-      <c r="H23" s="135"/>
-      <c r="I23" s="125" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="125"/>
-      <c r="K23" s="135" t="s">
+      <c r="H23" s="146"/>
+      <c r="I23" s="151" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="151"/>
+      <c r="K23" s="146" t="s">
         <v>134</v>
       </c>
-      <c r="L23" s="135"/>
-      <c r="M23" s="135" t="s">
+      <c r="L23" s="146"/>
+      <c r="M23" s="146" t="s">
         <v>135</v>
       </c>
-      <c r="N23" s="135"/>
-      <c r="O23" s="135" t="s">
+      <c r="N23" s="146"/>
+      <c r="O23" s="146" t="s">
         <v>136</v>
       </c>
-      <c r="P23" s="135"/>
-      <c r="Q23" s="135" t="s">
+      <c r="P23" s="146"/>
+      <c r="Q23" s="146" t="s">
         <v>137</v>
       </c>
-      <c r="R23" s="136"/>
+      <c r="R23" s="147"/>
       <c r="T23" s="62"/>
       <c r="U23" s="62"/>
       <c r="V23" s="62"/>
@@ -6082,38 +6080,38 @@
       <c r="B24" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="139" t="s">
+      <c r="C24" s="140" t="s">
         <v>138</v>
       </c>
-      <c r="D24" s="137"/>
-      <c r="E24" s="137" t="s">
+      <c r="D24" s="141"/>
+      <c r="E24" s="141" t="s">
         <v>139</v>
       </c>
-      <c r="F24" s="137"/>
-      <c r="G24" s="137" t="s">
+      <c r="F24" s="141"/>
+      <c r="G24" s="141" t="s">
         <v>140</v>
       </c>
-      <c r="H24" s="137"/>
-      <c r="I24" s="137" t="s">
+      <c r="H24" s="141"/>
+      <c r="I24" s="141" t="s">
         <v>141</v>
       </c>
-      <c r="J24" s="137"/>
-      <c r="K24" s="137" t="s">
+      <c r="J24" s="141"/>
+      <c r="K24" s="141" t="s">
         <v>142</v>
       </c>
-      <c r="L24" s="137"/>
-      <c r="M24" s="137" t="s">
+      <c r="L24" s="141"/>
+      <c r="M24" s="141" t="s">
         <v>143</v>
       </c>
-      <c r="N24" s="137"/>
-      <c r="O24" s="137" t="s">
+      <c r="N24" s="141"/>
+      <c r="O24" s="141" t="s">
         <v>144</v>
       </c>
-      <c r="P24" s="137"/>
-      <c r="Q24" s="137" t="s">
+      <c r="P24" s="141"/>
+      <c r="Q24" s="141" t="s">
         <v>145</v>
       </c>
-      <c r="R24" s="138"/>
+      <c r="R24" s="142"/>
       <c r="T24" s="62"/>
       <c r="U24" s="62"/>
       <c r="V24" s="62"/>
@@ -6122,75 +6120,75 @@
       <c r="B25" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="139" t="s">
+      <c r="C25" s="140" t="s">
         <v>146</v>
       </c>
-      <c r="D25" s="137"/>
-      <c r="E25" s="137" t="s">
+      <c r="D25" s="141"/>
+      <c r="E25" s="141" t="s">
         <v>147</v>
       </c>
-      <c r="F25" s="137"/>
-      <c r="G25" s="137" t="s">
+      <c r="F25" s="141"/>
+      <c r="G25" s="141" t="s">
         <v>148</v>
       </c>
-      <c r="H25" s="137"/>
-      <c r="I25" s="137" t="s">
+      <c r="H25" s="141"/>
+      <c r="I25" s="141" t="s">
         <v>149</v>
       </c>
-      <c r="J25" s="137"/>
-      <c r="K25" s="137" t="s">
+      <c r="J25" s="141"/>
+      <c r="K25" s="141" t="s">
         <v>150</v>
       </c>
-      <c r="L25" s="137"/>
-      <c r="M25" s="137" t="s">
+      <c r="L25" s="141"/>
+      <c r="M25" s="141" t="s">
         <v>151</v>
       </c>
-      <c r="N25" s="137"/>
-      <c r="O25" s="137" t="s">
+      <c r="N25" s="141"/>
+      <c r="O25" s="141" t="s">
         <v>152</v>
       </c>
-      <c r="P25" s="137"/>
-      <c r="Q25" s="137" t="s">
+      <c r="P25" s="141"/>
+      <c r="Q25" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="R25" s="138"/>
+      <c r="R25" s="142"/>
     </row>
     <row r="26" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="139" t="s">
+      <c r="C26" s="140" t="s">
         <v>154</v>
       </c>
-      <c r="D26" s="137"/>
-      <c r="E26" s="137" t="s">
+      <c r="D26" s="141"/>
+      <c r="E26" s="141" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="137"/>
-      <c r="G26" s="137" t="s">
+      <c r="F26" s="141"/>
+      <c r="G26" s="141" t="s">
         <v>156</v>
       </c>
-      <c r="H26" s="137"/>
-      <c r="I26" s="137" t="s">
+      <c r="H26" s="141"/>
+      <c r="I26" s="141" t="s">
         <v>157</v>
       </c>
-      <c r="J26" s="137"/>
-      <c r="K26" s="137" t="s">
+      <c r="J26" s="141"/>
+      <c r="K26" s="141" t="s">
         <v>158</v>
       </c>
-      <c r="L26" s="137"/>
-      <c r="M26" s="137" t="s">
+      <c r="L26" s="141"/>
+      <c r="M26" s="141" t="s">
         <v>159</v>
       </c>
-      <c r="N26" s="137"/>
-      <c r="O26" s="137" t="s">
+      <c r="N26" s="141"/>
+      <c r="O26" s="141" t="s">
         <v>160</v>
       </c>
-      <c r="P26" s="137"/>
-      <c r="Q26" s="137" t="s">
+      <c r="P26" s="141"/>
+      <c r="Q26" s="141" t="s">
         <v>161</v>
       </c>
-      <c r="R26" s="138"/>
+      <c r="R26" s="142"/>
     </row>
     <row r="27" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="31" t="s">
@@ -6202,145 +6200,145 @@
       <c r="D27" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="E27" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="127"/>
-      <c r="G27" s="140" t="s">
+      <c r="E27" s="158" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="158"/>
+      <c r="G27" s="132" t="s">
         <v>133</v>
       </c>
-      <c r="H27" s="140"/>
-      <c r="I27" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" s="127"/>
-      <c r="K27" s="140" t="s">
+      <c r="H27" s="132"/>
+      <c r="I27" s="158" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="158"/>
+      <c r="K27" s="132" t="s">
         <v>134</v>
       </c>
-      <c r="L27" s="140"/>
-      <c r="M27" s="140" t="s">
+      <c r="L27" s="132"/>
+      <c r="M27" s="132" t="s">
         <v>135</v>
       </c>
-      <c r="N27" s="140"/>
-      <c r="O27" s="140" t="s">
+      <c r="N27" s="132"/>
+      <c r="O27" s="132" t="s">
         <v>136</v>
       </c>
-      <c r="P27" s="140"/>
-      <c r="Q27" s="140" t="s">
+      <c r="P27" s="132"/>
+      <c r="Q27" s="132" t="s">
         <v>137</v>
       </c>
-      <c r="R27" s="141"/>
+      <c r="R27" s="133"/>
     </row>
     <row r="28" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="142" t="s">
+      <c r="C28" s="134" t="s">
         <v>138</v>
       </c>
-      <c r="D28" s="140"/>
-      <c r="E28" s="140" t="s">
+      <c r="D28" s="132"/>
+      <c r="E28" s="132" t="s">
         <v>139</v>
       </c>
-      <c r="F28" s="140"/>
-      <c r="G28" s="140" t="s">
+      <c r="F28" s="132"/>
+      <c r="G28" s="132" t="s">
         <v>140</v>
       </c>
-      <c r="H28" s="140"/>
-      <c r="I28" s="140" t="s">
+      <c r="H28" s="132"/>
+      <c r="I28" s="132" t="s">
         <v>141</v>
       </c>
-      <c r="J28" s="140"/>
-      <c r="K28" s="140" t="s">
+      <c r="J28" s="132"/>
+      <c r="K28" s="132" t="s">
         <v>142</v>
       </c>
-      <c r="L28" s="140"/>
-      <c r="M28" s="140" t="s">
+      <c r="L28" s="132"/>
+      <c r="M28" s="132" t="s">
         <v>143</v>
       </c>
-      <c r="N28" s="140"/>
-      <c r="O28" s="140" t="s">
+      <c r="N28" s="132"/>
+      <c r="O28" s="132" t="s">
         <v>144</v>
       </c>
-      <c r="P28" s="140"/>
-      <c r="Q28" s="140" t="s">
+      <c r="P28" s="132"/>
+      <c r="Q28" s="132" t="s">
         <v>145</v>
       </c>
-      <c r="R28" s="141"/>
+      <c r="R28" s="133"/>
     </row>
     <row r="29" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="142" t="s">
+      <c r="C29" s="134" t="s">
         <v>146</v>
       </c>
-      <c r="D29" s="140"/>
-      <c r="E29" s="140" t="s">
+      <c r="D29" s="132"/>
+      <c r="E29" s="132" t="s">
         <v>147</v>
       </c>
-      <c r="F29" s="140"/>
-      <c r="G29" s="140" t="s">
+      <c r="F29" s="132"/>
+      <c r="G29" s="132" t="s">
         <v>148</v>
       </c>
-      <c r="H29" s="140"/>
-      <c r="I29" s="140" t="s">
+      <c r="H29" s="132"/>
+      <c r="I29" s="132" t="s">
         <v>149</v>
       </c>
-      <c r="J29" s="140"/>
-      <c r="K29" s="140" t="s">
+      <c r="J29" s="132"/>
+      <c r="K29" s="132" t="s">
         <v>150</v>
       </c>
-      <c r="L29" s="140"/>
-      <c r="M29" s="140" t="s">
+      <c r="L29" s="132"/>
+      <c r="M29" s="132" t="s">
         <v>151</v>
       </c>
-      <c r="N29" s="140"/>
-      <c r="O29" s="140" t="s">
+      <c r="N29" s="132"/>
+      <c r="O29" s="132" t="s">
         <v>152</v>
       </c>
-      <c r="P29" s="140"/>
-      <c r="Q29" s="140" t="s">
+      <c r="P29" s="132"/>
+      <c r="Q29" s="132" t="s">
         <v>153</v>
       </c>
-      <c r="R29" s="141"/>
+      <c r="R29" s="133"/>
     </row>
     <row r="30" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="142" t="s">
+      <c r="C30" s="134" t="s">
         <v>154</v>
       </c>
-      <c r="D30" s="140"/>
-      <c r="E30" s="140" t="s">
+      <c r="D30" s="132"/>
+      <c r="E30" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="F30" s="140"/>
-      <c r="G30" s="140" t="s">
+      <c r="F30" s="132"/>
+      <c r="G30" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="H30" s="140"/>
-      <c r="I30" s="140" t="s">
+      <c r="H30" s="132"/>
+      <c r="I30" s="132" t="s">
         <v>157</v>
       </c>
-      <c r="J30" s="140"/>
-      <c r="K30" s="140" t="s">
+      <c r="J30" s="132"/>
+      <c r="K30" s="132" t="s">
         <v>158</v>
       </c>
-      <c r="L30" s="140"/>
-      <c r="M30" s="140" t="s">
+      <c r="L30" s="132"/>
+      <c r="M30" s="132" t="s">
         <v>159</v>
       </c>
-      <c r="N30" s="140"/>
-      <c r="O30" s="140" t="s">
+      <c r="N30" s="132"/>
+      <c r="O30" s="132" t="s">
         <v>160</v>
       </c>
-      <c r="P30" s="140"/>
-      <c r="Q30" s="140" t="s">
+      <c r="P30" s="132"/>
+      <c r="Q30" s="132" t="s">
         <v>161</v>
       </c>
-      <c r="R30" s="141"/>
+      <c r="R30" s="133"/>
     </row>
     <row r="31" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="32" t="s">
@@ -6352,145 +6350,145 @@
       <c r="D31" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="E31" s="126" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="126"/>
-      <c r="G31" s="137" t="s">
+      <c r="E31" s="159" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="159"/>
+      <c r="G31" s="141" t="s">
         <v>133</v>
       </c>
-      <c r="H31" s="137"/>
-      <c r="I31" s="126" t="s">
-        <v>6</v>
-      </c>
-      <c r="J31" s="126"/>
-      <c r="K31" s="137" t="s">
+      <c r="H31" s="141"/>
+      <c r="I31" s="159" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="159"/>
+      <c r="K31" s="141" t="s">
         <v>134</v>
       </c>
-      <c r="L31" s="137"/>
-      <c r="M31" s="137" t="s">
+      <c r="L31" s="141"/>
+      <c r="M31" s="141" t="s">
         <v>135</v>
       </c>
-      <c r="N31" s="137"/>
-      <c r="O31" s="137" t="s">
+      <c r="N31" s="141"/>
+      <c r="O31" s="141" t="s">
         <v>136</v>
       </c>
-      <c r="P31" s="137"/>
-      <c r="Q31" s="137" t="s">
+      <c r="P31" s="141"/>
+      <c r="Q31" s="141" t="s">
         <v>137</v>
       </c>
-      <c r="R31" s="138"/>
+      <c r="R31" s="142"/>
     </row>
     <row r="32" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="C32" s="139" t="s">
+      <c r="C32" s="140" t="s">
         <v>138</v>
       </c>
-      <c r="D32" s="137"/>
-      <c r="E32" s="137" t="s">
+      <c r="D32" s="141"/>
+      <c r="E32" s="141" t="s">
         <v>139</v>
       </c>
-      <c r="F32" s="137"/>
-      <c r="G32" s="137" t="s">
+      <c r="F32" s="141"/>
+      <c r="G32" s="141" t="s">
         <v>140</v>
       </c>
-      <c r="H32" s="137"/>
-      <c r="I32" s="137" t="s">
+      <c r="H32" s="141"/>
+      <c r="I32" s="141" t="s">
         <v>141</v>
       </c>
-      <c r="J32" s="137"/>
-      <c r="K32" s="137" t="s">
+      <c r="J32" s="141"/>
+      <c r="K32" s="141" t="s">
         <v>142</v>
       </c>
-      <c r="L32" s="137"/>
-      <c r="M32" s="137" t="s">
+      <c r="L32" s="141"/>
+      <c r="M32" s="141" t="s">
         <v>143</v>
       </c>
-      <c r="N32" s="137"/>
-      <c r="O32" s="137" t="s">
+      <c r="N32" s="141"/>
+      <c r="O32" s="141" t="s">
         <v>144</v>
       </c>
-      <c r="P32" s="137"/>
-      <c r="Q32" s="137" t="s">
+      <c r="P32" s="141"/>
+      <c r="Q32" s="141" t="s">
         <v>145</v>
       </c>
-      <c r="R32" s="138"/>
+      <c r="R32" s="142"/>
     </row>
     <row r="33" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="C33" s="139" t="s">
+      <c r="C33" s="140" t="s">
         <v>146</v>
       </c>
-      <c r="D33" s="137"/>
-      <c r="E33" s="137" t="s">
+      <c r="D33" s="141"/>
+      <c r="E33" s="141" t="s">
         <v>147</v>
       </c>
-      <c r="F33" s="137"/>
-      <c r="G33" s="137" t="s">
+      <c r="F33" s="141"/>
+      <c r="G33" s="141" t="s">
         <v>148</v>
       </c>
-      <c r="H33" s="137"/>
-      <c r="I33" s="137" t="s">
+      <c r="H33" s="141"/>
+      <c r="I33" s="141" t="s">
         <v>149</v>
       </c>
-      <c r="J33" s="137"/>
-      <c r="K33" s="137" t="s">
+      <c r="J33" s="141"/>
+      <c r="K33" s="141" t="s">
         <v>150</v>
       </c>
-      <c r="L33" s="137"/>
-      <c r="M33" s="137" t="s">
+      <c r="L33" s="141"/>
+      <c r="M33" s="141" t="s">
         <v>151</v>
       </c>
-      <c r="N33" s="137"/>
-      <c r="O33" s="137" t="s">
+      <c r="N33" s="141"/>
+      <c r="O33" s="141" t="s">
         <v>152</v>
       </c>
-      <c r="P33" s="137"/>
-      <c r="Q33" s="137" t="s">
+      <c r="P33" s="141"/>
+      <c r="Q33" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="R33" s="138"/>
+      <c r="R33" s="142"/>
     </row>
     <row r="34" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="C34" s="139" t="s">
+      <c r="C34" s="140" t="s">
         <v>154</v>
       </c>
-      <c r="D34" s="137"/>
-      <c r="E34" s="137" t="s">
+      <c r="D34" s="141"/>
+      <c r="E34" s="141" t="s">
         <v>155</v>
       </c>
-      <c r="F34" s="137"/>
-      <c r="G34" s="137" t="s">
+      <c r="F34" s="141"/>
+      <c r="G34" s="141" t="s">
         <v>156</v>
       </c>
-      <c r="H34" s="137"/>
-      <c r="I34" s="137" t="s">
+      <c r="H34" s="141"/>
+      <c r="I34" s="141" t="s">
         <v>157</v>
       </c>
-      <c r="J34" s="137"/>
-      <c r="K34" s="137" t="s">
+      <c r="J34" s="141"/>
+      <c r="K34" s="141" t="s">
         <v>158</v>
       </c>
-      <c r="L34" s="137"/>
-      <c r="M34" s="137" t="s">
+      <c r="L34" s="141"/>
+      <c r="M34" s="141" t="s">
         <v>159</v>
       </c>
-      <c r="N34" s="137"/>
-      <c r="O34" s="137" t="s">
+      <c r="N34" s="141"/>
+      <c r="O34" s="141" t="s">
         <v>160</v>
       </c>
-      <c r="P34" s="137"/>
-      <c r="Q34" s="137" t="s">
+      <c r="P34" s="141"/>
+      <c r="Q34" s="141" t="s">
         <v>161</v>
       </c>
-      <c r="R34" s="138"/>
+      <c r="R34" s="142"/>
     </row>
     <row r="35" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="32" t="s">
@@ -6502,165 +6500,165 @@
       <c r="D35" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="E35" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" s="127"/>
-      <c r="G35" s="140" t="s">
+      <c r="E35" s="158" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="158"/>
+      <c r="G35" s="132" t="s">
         <v>133</v>
       </c>
-      <c r="H35" s="140"/>
-      <c r="I35" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="J35" s="127"/>
-      <c r="K35" s="140" t="s">
+      <c r="H35" s="132"/>
+      <c r="I35" s="158" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="158"/>
+      <c r="K35" s="132" t="s">
         <v>134</v>
       </c>
-      <c r="L35" s="140"/>
-      <c r="M35" s="140" t="s">
+      <c r="L35" s="132"/>
+      <c r="M35" s="132" t="s">
         <v>135</v>
       </c>
-      <c r="N35" s="140"/>
-      <c r="O35" s="140" t="s">
+      <c r="N35" s="132"/>
+      <c r="O35" s="132" t="s">
         <v>136</v>
       </c>
-      <c r="P35" s="140"/>
-      <c r="Q35" s="140" t="s">
+      <c r="P35" s="132"/>
+      <c r="Q35" s="132" t="s">
         <v>137</v>
       </c>
-      <c r="R35" s="141"/>
+      <c r="R35" s="133"/>
     </row>
     <row r="36" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="C36" s="142" t="s">
+      <c r="C36" s="134" t="s">
         <v>138</v>
       </c>
-      <c r="D36" s="140"/>
-      <c r="E36" s="140" t="s">
+      <c r="D36" s="132"/>
+      <c r="E36" s="132" t="s">
         <v>139</v>
       </c>
-      <c r="F36" s="140"/>
-      <c r="G36" s="140" t="s">
+      <c r="F36" s="132"/>
+      <c r="G36" s="132" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="140"/>
-      <c r="I36" s="140" t="s">
+      <c r="H36" s="132"/>
+      <c r="I36" s="132" t="s">
         <v>141</v>
       </c>
-      <c r="J36" s="140"/>
-      <c r="K36" s="140" t="s">
+      <c r="J36" s="132"/>
+      <c r="K36" s="132" t="s">
         <v>142</v>
       </c>
-      <c r="L36" s="140"/>
-      <c r="M36" s="140" t="s">
+      <c r="L36" s="132"/>
+      <c r="M36" s="132" t="s">
         <v>143</v>
       </c>
-      <c r="N36" s="140"/>
-      <c r="O36" s="140" t="s">
+      <c r="N36" s="132"/>
+      <c r="O36" s="132" t="s">
         <v>144</v>
       </c>
-      <c r="P36" s="140"/>
-      <c r="Q36" s="140" t="s">
+      <c r="P36" s="132"/>
+      <c r="Q36" s="132" t="s">
         <v>145</v>
       </c>
-      <c r="R36" s="141"/>
+      <c r="R36" s="133"/>
     </row>
     <row r="37" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="C37" s="142" t="s">
+      <c r="C37" s="134" t="s">
         <v>146</v>
       </c>
-      <c r="D37" s="140"/>
-      <c r="E37" s="140" t="s">
+      <c r="D37" s="132"/>
+      <c r="E37" s="132" t="s">
         <v>147</v>
       </c>
-      <c r="F37" s="140"/>
-      <c r="G37" s="140" t="s">
+      <c r="F37" s="132"/>
+      <c r="G37" s="132" t="s">
         <v>148</v>
       </c>
-      <c r="H37" s="140"/>
-      <c r="I37" s="140" t="s">
+      <c r="H37" s="132"/>
+      <c r="I37" s="132" t="s">
         <v>149</v>
       </c>
-      <c r="J37" s="140"/>
-      <c r="K37" s="140" t="s">
+      <c r="J37" s="132"/>
+      <c r="K37" s="132" t="s">
         <v>150</v>
       </c>
-      <c r="L37" s="140"/>
-      <c r="M37" s="140" t="s">
+      <c r="L37" s="132"/>
+      <c r="M37" s="132" t="s">
         <v>151</v>
       </c>
-      <c r="N37" s="140"/>
-      <c r="O37" s="140" t="s">
+      <c r="N37" s="132"/>
+      <c r="O37" s="132" t="s">
         <v>152</v>
       </c>
-      <c r="P37" s="140"/>
-      <c r="Q37" s="140" t="s">
+      <c r="P37" s="132"/>
+      <c r="Q37" s="132" t="s">
         <v>153</v>
       </c>
-      <c r="R37" s="141"/>
+      <c r="R37" s="133"/>
     </row>
     <row r="38" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="C38" s="149" t="s">
+      <c r="C38" s="143" t="s">
         <v>154</v>
       </c>
-      <c r="D38" s="143"/>
-      <c r="E38" s="143" t="s">
+      <c r="D38" s="144"/>
+      <c r="E38" s="144" t="s">
         <v>155</v>
       </c>
-      <c r="F38" s="143"/>
-      <c r="G38" s="143" t="s">
+      <c r="F38" s="144"/>
+      <c r="G38" s="144" t="s">
         <v>156</v>
       </c>
-      <c r="H38" s="143"/>
-      <c r="I38" s="143" t="s">
+      <c r="H38" s="144"/>
+      <c r="I38" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="J38" s="143"/>
-      <c r="K38" s="143" t="s">
+      <c r="J38" s="144"/>
+      <c r="K38" s="144" t="s">
         <v>158</v>
       </c>
-      <c r="L38" s="143"/>
-      <c r="M38" s="143" t="s">
+      <c r="L38" s="144"/>
+      <c r="M38" s="144" t="s">
         <v>159</v>
       </c>
-      <c r="N38" s="143"/>
-      <c r="O38" s="143" t="s">
+      <c r="N38" s="144"/>
+      <c r="O38" s="144" t="s">
         <v>160</v>
       </c>
-      <c r="P38" s="143"/>
-      <c r="Q38" s="143" t="s">
+      <c r="P38" s="144"/>
+      <c r="Q38" s="144" t="s">
         <v>161</v>
       </c>
-      <c r="R38" s="144"/>
+      <c r="R38" s="145"/>
     </row>
     <row r="39" spans="1:19" s="61" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="62"/>
-      <c r="B39" s="157"/>
-      <c r="C39" s="158"/>
-      <c r="D39" s="158"/>
-      <c r="E39" s="158"/>
-      <c r="F39" s="158"/>
-      <c r="G39" s="158"/>
-      <c r="H39" s="158"/>
-      <c r="I39" s="158"/>
-      <c r="J39" s="158"/>
-      <c r="K39" s="158"/>
-      <c r="L39" s="158"/>
-      <c r="M39" s="158"/>
-      <c r="N39" s="158"/>
-      <c r="O39" s="158"/>
-      <c r="P39" s="158"/>
-      <c r="Q39" s="158"/>
-      <c r="R39" s="158"/>
+      <c r="B39" s="137"/>
+      <c r="C39" s="138"/>
+      <c r="D39" s="138"/>
+      <c r="E39" s="138"/>
+      <c r="F39" s="138"/>
+      <c r="G39" s="138"/>
+      <c r="H39" s="138"/>
+      <c r="I39" s="138"/>
+      <c r="J39" s="138"/>
+      <c r="K39" s="138"/>
+      <c r="L39" s="138"/>
+      <c r="M39" s="138"/>
+      <c r="N39" s="138"/>
+      <c r="O39" s="138"/>
+      <c r="P39" s="138"/>
+      <c r="Q39" s="138"/>
+      <c r="R39" s="138"/>
       <c r="S39" s="62"/>
     </row>
     <row r="40" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6673,145 +6671,145 @@
       <c r="D40" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="E40" s="125" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="125"/>
-      <c r="G40" s="135" t="s">
+      <c r="E40" s="151" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="151"/>
+      <c r="G40" s="146" t="s">
         <v>133</v>
       </c>
-      <c r="H40" s="135"/>
-      <c r="I40" s="125" t="s">
-        <v>6</v>
-      </c>
-      <c r="J40" s="125"/>
-      <c r="K40" s="135" t="s">
+      <c r="H40" s="146"/>
+      <c r="I40" s="151" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" s="151"/>
+      <c r="K40" s="146" t="s">
         <v>134</v>
       </c>
-      <c r="L40" s="135"/>
-      <c r="M40" s="135" t="s">
+      <c r="L40" s="146"/>
+      <c r="M40" s="146" t="s">
         <v>135</v>
       </c>
-      <c r="N40" s="135"/>
-      <c r="O40" s="135" t="s">
+      <c r="N40" s="146"/>
+      <c r="O40" s="146" t="s">
         <v>136</v>
       </c>
-      <c r="P40" s="135"/>
-      <c r="Q40" s="135" t="s">
+      <c r="P40" s="146"/>
+      <c r="Q40" s="146" t="s">
         <v>137</v>
       </c>
-      <c r="R40" s="136"/>
+      <c r="R40" s="147"/>
     </row>
     <row r="41" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="C41" s="139" t="s">
+      <c r="C41" s="140" t="s">
         <v>138</v>
       </c>
-      <c r="D41" s="137"/>
-      <c r="E41" s="137" t="s">
+      <c r="D41" s="141"/>
+      <c r="E41" s="141" t="s">
         <v>139</v>
       </c>
-      <c r="F41" s="137"/>
-      <c r="G41" s="137" t="s">
+      <c r="F41" s="141"/>
+      <c r="G41" s="141" t="s">
         <v>140</v>
       </c>
-      <c r="H41" s="137"/>
-      <c r="I41" s="137" t="s">
+      <c r="H41" s="141"/>
+      <c r="I41" s="141" t="s">
         <v>141</v>
       </c>
-      <c r="J41" s="137"/>
-      <c r="K41" s="137" t="s">
+      <c r="J41" s="141"/>
+      <c r="K41" s="141" t="s">
         <v>142</v>
       </c>
-      <c r="L41" s="137"/>
-      <c r="M41" s="137" t="s">
+      <c r="L41" s="141"/>
+      <c r="M41" s="141" t="s">
         <v>143</v>
       </c>
-      <c r="N41" s="137"/>
-      <c r="O41" s="137" t="s">
+      <c r="N41" s="141"/>
+      <c r="O41" s="141" t="s">
         <v>144</v>
       </c>
-      <c r="P41" s="137"/>
-      <c r="Q41" s="137" t="s">
+      <c r="P41" s="141"/>
+      <c r="Q41" s="141" t="s">
         <v>145</v>
       </c>
-      <c r="R41" s="138"/>
+      <c r="R41" s="142"/>
     </row>
     <row r="42" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="C42" s="139" t="s">
+      <c r="C42" s="140" t="s">
         <v>146</v>
       </c>
-      <c r="D42" s="137"/>
-      <c r="E42" s="137" t="s">
+      <c r="D42" s="141"/>
+      <c r="E42" s="141" t="s">
         <v>147</v>
       </c>
-      <c r="F42" s="137"/>
-      <c r="G42" s="137" t="s">
+      <c r="F42" s="141"/>
+      <c r="G42" s="141" t="s">
         <v>148</v>
       </c>
-      <c r="H42" s="137"/>
-      <c r="I42" s="137" t="s">
+      <c r="H42" s="141"/>
+      <c r="I42" s="141" t="s">
         <v>149</v>
       </c>
-      <c r="J42" s="137"/>
-      <c r="K42" s="137" t="s">
+      <c r="J42" s="141"/>
+      <c r="K42" s="141" t="s">
         <v>150</v>
       </c>
-      <c r="L42" s="137"/>
-      <c r="M42" s="137" t="s">
+      <c r="L42" s="141"/>
+      <c r="M42" s="141" t="s">
         <v>151</v>
       </c>
-      <c r="N42" s="137"/>
-      <c r="O42" s="137" t="s">
+      <c r="N42" s="141"/>
+      <c r="O42" s="141" t="s">
         <v>152</v>
       </c>
-      <c r="P42" s="137"/>
-      <c r="Q42" s="137" t="s">
+      <c r="P42" s="141"/>
+      <c r="Q42" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="R42" s="138"/>
+      <c r="R42" s="142"/>
     </row>
     <row r="43" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="C43" s="139" t="s">
+      <c r="C43" s="140" t="s">
         <v>154</v>
       </c>
-      <c r="D43" s="137"/>
-      <c r="E43" s="137" t="s">
+      <c r="D43" s="141"/>
+      <c r="E43" s="141" t="s">
         <v>155</v>
       </c>
-      <c r="F43" s="137"/>
-      <c r="G43" s="137" t="s">
+      <c r="F43" s="141"/>
+      <c r="G43" s="141" t="s">
         <v>156</v>
       </c>
-      <c r="H43" s="137"/>
-      <c r="I43" s="137" t="s">
+      <c r="H43" s="141"/>
+      <c r="I43" s="141" t="s">
         <v>157</v>
       </c>
-      <c r="J43" s="137"/>
-      <c r="K43" s="137" t="s">
+      <c r="J43" s="141"/>
+      <c r="K43" s="141" t="s">
         <v>158</v>
       </c>
-      <c r="L43" s="137"/>
-      <c r="M43" s="137" t="s">
+      <c r="L43" s="141"/>
+      <c r="M43" s="141" t="s">
         <v>159</v>
       </c>
-      <c r="N43" s="137"/>
-      <c r="O43" s="137" t="s">
+      <c r="N43" s="141"/>
+      <c r="O43" s="141" t="s">
         <v>160</v>
       </c>
-      <c r="P43" s="137"/>
-      <c r="Q43" s="137" t="s">
+      <c r="P43" s="141"/>
+      <c r="Q43" s="141" t="s">
         <v>161</v>
       </c>
-      <c r="R43" s="138"/>
+      <c r="R43" s="142"/>
     </row>
     <row r="44" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="31" t="s">
@@ -6823,145 +6821,145 @@
       <c r="D44" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="E44" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" s="127"/>
-      <c r="G44" s="140" t="s">
+      <c r="E44" s="158" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="158"/>
+      <c r="G44" s="132" t="s">
         <v>133</v>
       </c>
-      <c r="H44" s="140"/>
-      <c r="I44" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="J44" s="127"/>
-      <c r="K44" s="140" t="s">
+      <c r="H44" s="132"/>
+      <c r="I44" s="158" t="s">
+        <v>6</v>
+      </c>
+      <c r="J44" s="158"/>
+      <c r="K44" s="132" t="s">
         <v>134</v>
       </c>
-      <c r="L44" s="140"/>
-      <c r="M44" s="140" t="s">
+      <c r="L44" s="132"/>
+      <c r="M44" s="132" t="s">
         <v>135</v>
       </c>
-      <c r="N44" s="140"/>
-      <c r="O44" s="140" t="s">
+      <c r="N44" s="132"/>
+      <c r="O44" s="132" t="s">
         <v>136</v>
       </c>
-      <c r="P44" s="140"/>
-      <c r="Q44" s="140" t="s">
+      <c r="P44" s="132"/>
+      <c r="Q44" s="132" t="s">
         <v>137</v>
       </c>
-      <c r="R44" s="141"/>
+      <c r="R44" s="133"/>
     </row>
     <row r="45" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="C45" s="142" t="s">
+      <c r="C45" s="134" t="s">
         <v>138</v>
       </c>
-      <c r="D45" s="140"/>
-      <c r="E45" s="140" t="s">
+      <c r="D45" s="132"/>
+      <c r="E45" s="132" t="s">
         <v>139</v>
       </c>
-      <c r="F45" s="140"/>
-      <c r="G45" s="140" t="s">
+      <c r="F45" s="132"/>
+      <c r="G45" s="132" t="s">
         <v>140</v>
       </c>
-      <c r="H45" s="140"/>
-      <c r="I45" s="140" t="s">
+      <c r="H45" s="132"/>
+      <c r="I45" s="132" t="s">
         <v>141</v>
       </c>
-      <c r="J45" s="140"/>
-      <c r="K45" s="140" t="s">
+      <c r="J45" s="132"/>
+      <c r="K45" s="132" t="s">
         <v>142</v>
       </c>
-      <c r="L45" s="140"/>
-      <c r="M45" s="140" t="s">
+      <c r="L45" s="132"/>
+      <c r="M45" s="132" t="s">
         <v>143</v>
       </c>
-      <c r="N45" s="140"/>
-      <c r="O45" s="140" t="s">
+      <c r="N45" s="132"/>
+      <c r="O45" s="132" t="s">
         <v>144</v>
       </c>
-      <c r="P45" s="140"/>
-      <c r="Q45" s="140" t="s">
+      <c r="P45" s="132"/>
+      <c r="Q45" s="132" t="s">
         <v>145</v>
       </c>
-      <c r="R45" s="141"/>
+      <c r="R45" s="133"/>
     </row>
     <row r="46" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="C46" s="142" t="s">
+      <c r="C46" s="134" t="s">
         <v>146</v>
       </c>
-      <c r="D46" s="140"/>
-      <c r="E46" s="140" t="s">
+      <c r="D46" s="132"/>
+      <c r="E46" s="132" t="s">
         <v>147</v>
       </c>
-      <c r="F46" s="140"/>
-      <c r="G46" s="140" t="s">
+      <c r="F46" s="132"/>
+      <c r="G46" s="132" t="s">
         <v>148</v>
       </c>
-      <c r="H46" s="140"/>
-      <c r="I46" s="140" t="s">
+      <c r="H46" s="132"/>
+      <c r="I46" s="132" t="s">
         <v>149</v>
       </c>
-      <c r="J46" s="140"/>
-      <c r="K46" s="140" t="s">
+      <c r="J46" s="132"/>
+      <c r="K46" s="132" t="s">
         <v>150</v>
       </c>
-      <c r="L46" s="140"/>
-      <c r="M46" s="140" t="s">
+      <c r="L46" s="132"/>
+      <c r="M46" s="132" t="s">
         <v>151</v>
       </c>
-      <c r="N46" s="140"/>
-      <c r="O46" s="140" t="s">
+      <c r="N46" s="132"/>
+      <c r="O46" s="132" t="s">
         <v>152</v>
       </c>
-      <c r="P46" s="140"/>
-      <c r="Q46" s="140" t="s">
+      <c r="P46" s="132"/>
+      <c r="Q46" s="132" t="s">
         <v>153</v>
       </c>
-      <c r="R46" s="141"/>
+      <c r="R46" s="133"/>
     </row>
     <row r="47" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C47" s="142" t="s">
+      <c r="C47" s="134" t="s">
         <v>154</v>
       </c>
-      <c r="D47" s="140"/>
-      <c r="E47" s="140" t="s">
+      <c r="D47" s="132"/>
+      <c r="E47" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="F47" s="140"/>
-      <c r="G47" s="140" t="s">
+      <c r="F47" s="132"/>
+      <c r="G47" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="H47" s="140"/>
-      <c r="I47" s="140" t="s">
+      <c r="H47" s="132"/>
+      <c r="I47" s="132" t="s">
         <v>157</v>
       </c>
-      <c r="J47" s="140"/>
-      <c r="K47" s="140" t="s">
+      <c r="J47" s="132"/>
+      <c r="K47" s="132" t="s">
         <v>158</v>
       </c>
-      <c r="L47" s="140"/>
-      <c r="M47" s="140" t="s">
+      <c r="L47" s="132"/>
+      <c r="M47" s="132" t="s">
         <v>159</v>
       </c>
-      <c r="N47" s="140"/>
-      <c r="O47" s="140" t="s">
+      <c r="N47" s="132"/>
+      <c r="O47" s="132" t="s">
         <v>160</v>
       </c>
-      <c r="P47" s="140"/>
-      <c r="Q47" s="140" t="s">
+      <c r="P47" s="132"/>
+      <c r="Q47" s="132" t="s">
         <v>161</v>
       </c>
-      <c r="R47" s="141"/>
+      <c r="R47" s="133"/>
     </row>
     <row r="48" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="32" t="s">
@@ -6973,145 +6971,145 @@
       <c r="D48" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="E48" s="126" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" s="126"/>
-      <c r="G48" s="137" t="s">
+      <c r="E48" s="159" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="159"/>
+      <c r="G48" s="141" t="s">
         <v>133</v>
       </c>
-      <c r="H48" s="137"/>
-      <c r="I48" s="126" t="s">
-        <v>6</v>
-      </c>
-      <c r="J48" s="126"/>
-      <c r="K48" s="137" t="s">
+      <c r="H48" s="141"/>
+      <c r="I48" s="159" t="s">
+        <v>6</v>
+      </c>
+      <c r="J48" s="159"/>
+      <c r="K48" s="141" t="s">
         <v>134</v>
       </c>
-      <c r="L48" s="137"/>
-      <c r="M48" s="137" t="s">
+      <c r="L48" s="141"/>
+      <c r="M48" s="141" t="s">
         <v>135</v>
       </c>
-      <c r="N48" s="137"/>
-      <c r="O48" s="137" t="s">
+      <c r="N48" s="141"/>
+      <c r="O48" s="141" t="s">
         <v>136</v>
       </c>
-      <c r="P48" s="137"/>
-      <c r="Q48" s="137" t="s">
+      <c r="P48" s="141"/>
+      <c r="Q48" s="141" t="s">
         <v>137</v>
       </c>
-      <c r="R48" s="138"/>
+      <c r="R48" s="142"/>
     </row>
     <row r="49" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="C49" s="139" t="s">
+      <c r="C49" s="140" t="s">
         <v>138</v>
       </c>
-      <c r="D49" s="137"/>
-      <c r="E49" s="137" t="s">
+      <c r="D49" s="141"/>
+      <c r="E49" s="141" t="s">
         <v>139</v>
       </c>
-      <c r="F49" s="137"/>
-      <c r="G49" s="137" t="s">
+      <c r="F49" s="141"/>
+      <c r="G49" s="141" t="s">
         <v>140</v>
       </c>
-      <c r="H49" s="137"/>
-      <c r="I49" s="137" t="s">
+      <c r="H49" s="141"/>
+      <c r="I49" s="141" t="s">
         <v>141</v>
       </c>
-      <c r="J49" s="137"/>
-      <c r="K49" s="137" t="s">
+      <c r="J49" s="141"/>
+      <c r="K49" s="141" t="s">
         <v>142</v>
       </c>
-      <c r="L49" s="137"/>
-      <c r="M49" s="137" t="s">
+      <c r="L49" s="141"/>
+      <c r="M49" s="141" t="s">
         <v>143</v>
       </c>
-      <c r="N49" s="137"/>
-      <c r="O49" s="137" t="s">
+      <c r="N49" s="141"/>
+      <c r="O49" s="141" t="s">
         <v>144</v>
       </c>
-      <c r="P49" s="137"/>
-      <c r="Q49" s="137" t="s">
+      <c r="P49" s="141"/>
+      <c r="Q49" s="141" t="s">
         <v>145</v>
       </c>
-      <c r="R49" s="138"/>
+      <c r="R49" s="142"/>
     </row>
     <row r="50" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="C50" s="139" t="s">
+      <c r="C50" s="140" t="s">
         <v>146</v>
       </c>
-      <c r="D50" s="137"/>
-      <c r="E50" s="137" t="s">
+      <c r="D50" s="141"/>
+      <c r="E50" s="141" t="s">
         <v>147</v>
       </c>
-      <c r="F50" s="137"/>
-      <c r="G50" s="137" t="s">
+      <c r="F50" s="141"/>
+      <c r="G50" s="141" t="s">
         <v>148</v>
       </c>
-      <c r="H50" s="137"/>
-      <c r="I50" s="137" t="s">
+      <c r="H50" s="141"/>
+      <c r="I50" s="141" t="s">
         <v>149</v>
       </c>
-      <c r="J50" s="137"/>
-      <c r="K50" s="137" t="s">
+      <c r="J50" s="141"/>
+      <c r="K50" s="141" t="s">
         <v>150</v>
       </c>
-      <c r="L50" s="137"/>
-      <c r="M50" s="137" t="s">
+      <c r="L50" s="141"/>
+      <c r="M50" s="141" t="s">
         <v>151</v>
       </c>
-      <c r="N50" s="137"/>
-      <c r="O50" s="137" t="s">
+      <c r="N50" s="141"/>
+      <c r="O50" s="141" t="s">
         <v>152</v>
       </c>
-      <c r="P50" s="137"/>
-      <c r="Q50" s="137" t="s">
+      <c r="P50" s="141"/>
+      <c r="Q50" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="R50" s="138"/>
+      <c r="R50" s="142"/>
     </row>
     <row r="51" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="C51" s="139" t="s">
+      <c r="C51" s="140" t="s">
         <v>154</v>
       </c>
-      <c r="D51" s="137"/>
-      <c r="E51" s="137" t="s">
+      <c r="D51" s="141"/>
+      <c r="E51" s="141" t="s">
         <v>155</v>
       </c>
-      <c r="F51" s="137"/>
-      <c r="G51" s="137" t="s">
+      <c r="F51" s="141"/>
+      <c r="G51" s="141" t="s">
         <v>156</v>
       </c>
-      <c r="H51" s="137"/>
-      <c r="I51" s="137" t="s">
+      <c r="H51" s="141"/>
+      <c r="I51" s="141" t="s">
         <v>157</v>
       </c>
-      <c r="J51" s="137"/>
-      <c r="K51" s="137" t="s">
+      <c r="J51" s="141"/>
+      <c r="K51" s="141" t="s">
         <v>158</v>
       </c>
-      <c r="L51" s="137"/>
-      <c r="M51" s="137" t="s">
+      <c r="L51" s="141"/>
+      <c r="M51" s="141" t="s">
         <v>159</v>
       </c>
-      <c r="N51" s="137"/>
-      <c r="O51" s="137" t="s">
+      <c r="N51" s="141"/>
+      <c r="O51" s="141" t="s">
         <v>160</v>
       </c>
-      <c r="P51" s="137"/>
-      <c r="Q51" s="137" t="s">
+      <c r="P51" s="141"/>
+      <c r="Q51" s="141" t="s">
         <v>161</v>
       </c>
-      <c r="R51" s="138"/>
+      <c r="R51" s="142"/>
     </row>
     <row r="52" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="32" t="s">
@@ -7123,165 +7121,165 @@
       <c r="D52" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="E52" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" s="127"/>
-      <c r="G52" s="140" t="s">
+      <c r="E52" s="158" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="158"/>
+      <c r="G52" s="132" t="s">
         <v>133</v>
       </c>
-      <c r="H52" s="140"/>
-      <c r="I52" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="J52" s="127"/>
-      <c r="K52" s="140" t="s">
+      <c r="H52" s="132"/>
+      <c r="I52" s="158" t="s">
+        <v>6</v>
+      </c>
+      <c r="J52" s="158"/>
+      <c r="K52" s="132" t="s">
         <v>134</v>
       </c>
-      <c r="L52" s="140"/>
-      <c r="M52" s="140" t="s">
+      <c r="L52" s="132"/>
+      <c r="M52" s="132" t="s">
         <v>135</v>
       </c>
-      <c r="N52" s="140"/>
-      <c r="O52" s="140" t="s">
+      <c r="N52" s="132"/>
+      <c r="O52" s="132" t="s">
         <v>136</v>
       </c>
-      <c r="P52" s="140"/>
-      <c r="Q52" s="140" t="s">
+      <c r="P52" s="132"/>
+      <c r="Q52" s="132" t="s">
         <v>137</v>
       </c>
-      <c r="R52" s="141"/>
+      <c r="R52" s="133"/>
     </row>
     <row r="53" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="C53" s="142" t="s">
+      <c r="C53" s="134" t="s">
         <v>138</v>
       </c>
-      <c r="D53" s="140"/>
-      <c r="E53" s="140" t="s">
+      <c r="D53" s="132"/>
+      <c r="E53" s="132" t="s">
         <v>139</v>
       </c>
-      <c r="F53" s="140"/>
-      <c r="G53" s="140" t="s">
+      <c r="F53" s="132"/>
+      <c r="G53" s="132" t="s">
         <v>140</v>
       </c>
-      <c r="H53" s="140"/>
-      <c r="I53" s="140" t="s">
+      <c r="H53" s="132"/>
+      <c r="I53" s="132" t="s">
         <v>141</v>
       </c>
-      <c r="J53" s="140"/>
-      <c r="K53" s="140" t="s">
+      <c r="J53" s="132"/>
+      <c r="K53" s="132" t="s">
         <v>142</v>
       </c>
-      <c r="L53" s="140"/>
-      <c r="M53" s="140" t="s">
+      <c r="L53" s="132"/>
+      <c r="M53" s="132" t="s">
         <v>143</v>
       </c>
-      <c r="N53" s="140"/>
-      <c r="O53" s="140" t="s">
+      <c r="N53" s="132"/>
+      <c r="O53" s="132" t="s">
         <v>144</v>
       </c>
-      <c r="P53" s="140"/>
-      <c r="Q53" s="140" t="s">
+      <c r="P53" s="132"/>
+      <c r="Q53" s="132" t="s">
         <v>145</v>
       </c>
-      <c r="R53" s="141"/>
+      <c r="R53" s="133"/>
     </row>
     <row r="54" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="C54" s="142" t="s">
+      <c r="C54" s="134" t="s">
         <v>146</v>
       </c>
-      <c r="D54" s="140"/>
-      <c r="E54" s="140" t="s">
+      <c r="D54" s="132"/>
+      <c r="E54" s="132" t="s">
         <v>147</v>
       </c>
-      <c r="F54" s="140"/>
-      <c r="G54" s="140" t="s">
+      <c r="F54" s="132"/>
+      <c r="G54" s="132" t="s">
         <v>148</v>
       </c>
-      <c r="H54" s="140"/>
-      <c r="I54" s="140" t="s">
+      <c r="H54" s="132"/>
+      <c r="I54" s="132" t="s">
         <v>149</v>
       </c>
-      <c r="J54" s="140"/>
-      <c r="K54" s="140" t="s">
+      <c r="J54" s="132"/>
+      <c r="K54" s="132" t="s">
         <v>150</v>
       </c>
-      <c r="L54" s="140"/>
-      <c r="M54" s="140" t="s">
+      <c r="L54" s="132"/>
+      <c r="M54" s="132" t="s">
         <v>151</v>
       </c>
-      <c r="N54" s="140"/>
-      <c r="O54" s="140" t="s">
+      <c r="N54" s="132"/>
+      <c r="O54" s="132" t="s">
         <v>152</v>
       </c>
-      <c r="P54" s="140"/>
-      <c r="Q54" s="140" t="s">
+      <c r="P54" s="132"/>
+      <c r="Q54" s="132" t="s">
         <v>153</v>
       </c>
-      <c r="R54" s="141"/>
+      <c r="R54" s="133"/>
     </row>
     <row r="55" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="60" t="s">
         <v>184</v>
       </c>
-      <c r="C55" s="149" t="s">
+      <c r="C55" s="143" t="s">
         <v>154</v>
       </c>
-      <c r="D55" s="143"/>
-      <c r="E55" s="143" t="s">
+      <c r="D55" s="144"/>
+      <c r="E55" s="144" t="s">
         <v>155</v>
       </c>
-      <c r="F55" s="143"/>
-      <c r="G55" s="143" t="s">
+      <c r="F55" s="144"/>
+      <c r="G55" s="144" t="s">
         <v>156</v>
       </c>
-      <c r="H55" s="143"/>
-      <c r="I55" s="143" t="s">
+      <c r="H55" s="144"/>
+      <c r="I55" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="J55" s="143"/>
-      <c r="K55" s="143" t="s">
+      <c r="J55" s="144"/>
+      <c r="K55" s="144" t="s">
         <v>158</v>
       </c>
-      <c r="L55" s="143"/>
-      <c r="M55" s="143" t="s">
+      <c r="L55" s="144"/>
+      <c r="M55" s="144" t="s">
         <v>159</v>
       </c>
-      <c r="N55" s="143"/>
-      <c r="O55" s="143" t="s">
+      <c r="N55" s="144"/>
+      <c r="O55" s="144" t="s">
         <v>160</v>
       </c>
-      <c r="P55" s="143"/>
-      <c r="Q55" s="143" t="s">
+      <c r="P55" s="144"/>
+      <c r="Q55" s="144" t="s">
         <v>161</v>
       </c>
-      <c r="R55" s="144"/>
+      <c r="R55" s="145"/>
     </row>
     <row r="56" spans="1:19" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="59"/>
-      <c r="B56" s="155"/>
-      <c r="C56" s="156"/>
-      <c r="D56" s="156"/>
-      <c r="E56" s="156"/>
-      <c r="F56" s="156"/>
-      <c r="G56" s="156"/>
-      <c r="H56" s="156"/>
-      <c r="I56" s="156"/>
-      <c r="J56" s="156"/>
-      <c r="K56" s="156"/>
-      <c r="L56" s="156"/>
-      <c r="M56" s="156"/>
-      <c r="N56" s="156"/>
-      <c r="O56" s="156"/>
-      <c r="P56" s="156"/>
-      <c r="Q56" s="156"/>
-      <c r="R56" s="156"/>
+      <c r="B56" s="135"/>
+      <c r="C56" s="136"/>
+      <c r="D56" s="136"/>
+      <c r="E56" s="136"/>
+      <c r="F56" s="136"/>
+      <c r="G56" s="136"/>
+      <c r="H56" s="136"/>
+      <c r="I56" s="136"/>
+      <c r="J56" s="136"/>
+      <c r="K56" s="136"/>
+      <c r="L56" s="136"/>
+      <c r="M56" s="136"/>
+      <c r="N56" s="136"/>
+      <c r="O56" s="136"/>
+      <c r="P56" s="136"/>
+      <c r="Q56" s="136"/>
+      <c r="R56" s="136"/>
       <c r="S56" s="59"/>
     </row>
     <row r="57" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7294,145 +7292,145 @@
       <c r="D57" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="E57" s="125" t="s">
-        <v>6</v>
-      </c>
-      <c r="F57" s="125"/>
-      <c r="G57" s="135" t="s">
+      <c r="E57" s="151" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="151"/>
+      <c r="G57" s="146" t="s">
         <v>133</v>
       </c>
-      <c r="H57" s="135"/>
-      <c r="I57" s="125" t="s">
-        <v>6</v>
-      </c>
-      <c r="J57" s="125"/>
-      <c r="K57" s="135" t="s">
+      <c r="H57" s="146"/>
+      <c r="I57" s="151" t="s">
+        <v>6</v>
+      </c>
+      <c r="J57" s="151"/>
+      <c r="K57" s="146" t="s">
         <v>134</v>
       </c>
-      <c r="L57" s="135"/>
-      <c r="M57" s="135" t="s">
+      <c r="L57" s="146"/>
+      <c r="M57" s="146" t="s">
         <v>135</v>
       </c>
-      <c r="N57" s="135"/>
-      <c r="O57" s="135" t="s">
+      <c r="N57" s="146"/>
+      <c r="O57" s="146" t="s">
         <v>136</v>
       </c>
-      <c r="P57" s="135"/>
-      <c r="Q57" s="135" t="s">
+      <c r="P57" s="146"/>
+      <c r="Q57" s="146" t="s">
         <v>137</v>
       </c>
-      <c r="R57" s="136"/>
+      <c r="R57" s="147"/>
     </row>
     <row r="58" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="C58" s="139" t="s">
+      <c r="C58" s="140" t="s">
         <v>138</v>
       </c>
-      <c r="D58" s="137"/>
-      <c r="E58" s="137" t="s">
+      <c r="D58" s="141"/>
+      <c r="E58" s="141" t="s">
         <v>139</v>
       </c>
-      <c r="F58" s="137"/>
-      <c r="G58" s="137" t="s">
+      <c r="F58" s="141"/>
+      <c r="G58" s="141" t="s">
         <v>140</v>
       </c>
-      <c r="H58" s="137"/>
-      <c r="I58" s="137" t="s">
+      <c r="H58" s="141"/>
+      <c r="I58" s="141" t="s">
         <v>141</v>
       </c>
-      <c r="J58" s="137"/>
-      <c r="K58" s="137" t="s">
+      <c r="J58" s="141"/>
+      <c r="K58" s="141" t="s">
         <v>142</v>
       </c>
-      <c r="L58" s="137"/>
-      <c r="M58" s="137" t="s">
+      <c r="L58" s="141"/>
+      <c r="M58" s="141" t="s">
         <v>143</v>
       </c>
-      <c r="N58" s="137"/>
-      <c r="O58" s="137" t="s">
+      <c r="N58" s="141"/>
+      <c r="O58" s="141" t="s">
         <v>144</v>
       </c>
-      <c r="P58" s="137"/>
-      <c r="Q58" s="137" t="s">
+      <c r="P58" s="141"/>
+      <c r="Q58" s="141" t="s">
         <v>145</v>
       </c>
-      <c r="R58" s="138"/>
+      <c r="R58" s="142"/>
     </row>
     <row r="59" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="C59" s="139" t="s">
+      <c r="C59" s="140" t="s">
         <v>146</v>
       </c>
-      <c r="D59" s="137"/>
-      <c r="E59" s="137" t="s">
+      <c r="D59" s="141"/>
+      <c r="E59" s="141" t="s">
         <v>147</v>
       </c>
-      <c r="F59" s="137"/>
-      <c r="G59" s="137" t="s">
+      <c r="F59" s="141"/>
+      <c r="G59" s="141" t="s">
         <v>148</v>
       </c>
-      <c r="H59" s="137"/>
-      <c r="I59" s="137" t="s">
+      <c r="H59" s="141"/>
+      <c r="I59" s="141" t="s">
         <v>149</v>
       </c>
-      <c r="J59" s="137"/>
-      <c r="K59" s="137" t="s">
+      <c r="J59" s="141"/>
+      <c r="K59" s="141" t="s">
         <v>150</v>
       </c>
-      <c r="L59" s="137"/>
-      <c r="M59" s="137" t="s">
+      <c r="L59" s="141"/>
+      <c r="M59" s="141" t="s">
         <v>151</v>
       </c>
-      <c r="N59" s="137"/>
-      <c r="O59" s="137" t="s">
+      <c r="N59" s="141"/>
+      <c r="O59" s="141" t="s">
         <v>152</v>
       </c>
-      <c r="P59" s="137"/>
-      <c r="Q59" s="137" t="s">
+      <c r="P59" s="141"/>
+      <c r="Q59" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="R59" s="138"/>
+      <c r="R59" s="142"/>
     </row>
     <row r="60" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="C60" s="139" t="s">
+      <c r="C60" s="140" t="s">
         <v>154</v>
       </c>
-      <c r="D60" s="137"/>
-      <c r="E60" s="137" t="s">
+      <c r="D60" s="141"/>
+      <c r="E60" s="141" t="s">
         <v>155</v>
       </c>
-      <c r="F60" s="137"/>
-      <c r="G60" s="137" t="s">
+      <c r="F60" s="141"/>
+      <c r="G60" s="141" t="s">
         <v>156</v>
       </c>
-      <c r="H60" s="137"/>
-      <c r="I60" s="137" t="s">
+      <c r="H60" s="141"/>
+      <c r="I60" s="141" t="s">
         <v>157</v>
       </c>
-      <c r="J60" s="137"/>
-      <c r="K60" s="137" t="s">
+      <c r="J60" s="141"/>
+      <c r="K60" s="141" t="s">
         <v>158</v>
       </c>
-      <c r="L60" s="137"/>
-      <c r="M60" s="137" t="s">
+      <c r="L60" s="141"/>
+      <c r="M60" s="141" t="s">
         <v>159</v>
       </c>
-      <c r="N60" s="137"/>
-      <c r="O60" s="137" t="s">
+      <c r="N60" s="141"/>
+      <c r="O60" s="141" t="s">
         <v>160</v>
       </c>
-      <c r="P60" s="137"/>
-      <c r="Q60" s="137" t="s">
+      <c r="P60" s="141"/>
+      <c r="Q60" s="141" t="s">
         <v>161</v>
       </c>
-      <c r="R60" s="138"/>
+      <c r="R60" s="142"/>
     </row>
     <row r="61" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="31" t="s">
@@ -7444,145 +7442,145 @@
       <c r="D61" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="E61" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="F61" s="127"/>
-      <c r="G61" s="140" t="s">
+      <c r="E61" s="158" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" s="158"/>
+      <c r="G61" s="132" t="s">
         <v>133</v>
       </c>
-      <c r="H61" s="140"/>
-      <c r="I61" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="J61" s="127"/>
-      <c r="K61" s="140" t="s">
+      <c r="H61" s="132"/>
+      <c r="I61" s="158" t="s">
+        <v>6</v>
+      </c>
+      <c r="J61" s="158"/>
+      <c r="K61" s="132" t="s">
         <v>134</v>
       </c>
-      <c r="L61" s="140"/>
-      <c r="M61" s="140" t="s">
+      <c r="L61" s="132"/>
+      <c r="M61" s="132" t="s">
         <v>135</v>
       </c>
-      <c r="N61" s="140"/>
-      <c r="O61" s="140" t="s">
+      <c r="N61" s="132"/>
+      <c r="O61" s="132" t="s">
         <v>136</v>
       </c>
-      <c r="P61" s="140"/>
-      <c r="Q61" s="140" t="s">
+      <c r="P61" s="132"/>
+      <c r="Q61" s="132" t="s">
         <v>137</v>
       </c>
-      <c r="R61" s="141"/>
+      <c r="R61" s="133"/>
     </row>
     <row r="62" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="C62" s="142" t="s">
+      <c r="C62" s="134" t="s">
         <v>138</v>
       </c>
-      <c r="D62" s="140"/>
-      <c r="E62" s="140" t="s">
+      <c r="D62" s="132"/>
+      <c r="E62" s="132" t="s">
         <v>139</v>
       </c>
-      <c r="F62" s="140"/>
-      <c r="G62" s="140" t="s">
+      <c r="F62" s="132"/>
+      <c r="G62" s="132" t="s">
         <v>140</v>
       </c>
-      <c r="H62" s="140"/>
-      <c r="I62" s="140" t="s">
+      <c r="H62" s="132"/>
+      <c r="I62" s="132" t="s">
         <v>141</v>
       </c>
-      <c r="J62" s="140"/>
-      <c r="K62" s="140" t="s">
+      <c r="J62" s="132"/>
+      <c r="K62" s="132" t="s">
         <v>142</v>
       </c>
-      <c r="L62" s="140"/>
-      <c r="M62" s="140" t="s">
+      <c r="L62" s="132"/>
+      <c r="M62" s="132" t="s">
         <v>143</v>
       </c>
-      <c r="N62" s="140"/>
-      <c r="O62" s="140" t="s">
+      <c r="N62" s="132"/>
+      <c r="O62" s="132" t="s">
         <v>144</v>
       </c>
-      <c r="P62" s="140"/>
-      <c r="Q62" s="140" t="s">
+      <c r="P62" s="132"/>
+      <c r="Q62" s="132" t="s">
         <v>145</v>
       </c>
-      <c r="R62" s="141"/>
+      <c r="R62" s="133"/>
     </row>
     <row r="63" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="C63" s="142" t="s">
+      <c r="C63" s="134" t="s">
         <v>146</v>
       </c>
-      <c r="D63" s="140"/>
-      <c r="E63" s="140" t="s">
+      <c r="D63" s="132"/>
+      <c r="E63" s="132" t="s">
         <v>147</v>
       </c>
-      <c r="F63" s="140"/>
-      <c r="G63" s="140" t="s">
+      <c r="F63" s="132"/>
+      <c r="G63" s="132" t="s">
         <v>148</v>
       </c>
-      <c r="H63" s="140"/>
-      <c r="I63" s="140" t="s">
+      <c r="H63" s="132"/>
+      <c r="I63" s="132" t="s">
         <v>149</v>
       </c>
-      <c r="J63" s="140"/>
-      <c r="K63" s="140" t="s">
+      <c r="J63" s="132"/>
+      <c r="K63" s="132" t="s">
         <v>150</v>
       </c>
-      <c r="L63" s="140"/>
-      <c r="M63" s="140" t="s">
+      <c r="L63" s="132"/>
+      <c r="M63" s="132" t="s">
         <v>151</v>
       </c>
-      <c r="N63" s="140"/>
-      <c r="O63" s="140" t="s">
+      <c r="N63" s="132"/>
+      <c r="O63" s="132" t="s">
         <v>152</v>
       </c>
-      <c r="P63" s="140"/>
-      <c r="Q63" s="140" t="s">
+      <c r="P63" s="132"/>
+      <c r="Q63" s="132" t="s">
         <v>153</v>
       </c>
-      <c r="R63" s="141"/>
+      <c r="R63" s="133"/>
     </row>
     <row r="64" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="C64" s="142" t="s">
+      <c r="C64" s="134" t="s">
         <v>154</v>
       </c>
-      <c r="D64" s="140"/>
-      <c r="E64" s="140" t="s">
+      <c r="D64" s="132"/>
+      <c r="E64" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="F64" s="140"/>
-      <c r="G64" s="140" t="s">
+      <c r="F64" s="132"/>
+      <c r="G64" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="H64" s="140"/>
-      <c r="I64" s="140" t="s">
+      <c r="H64" s="132"/>
+      <c r="I64" s="132" t="s">
         <v>157</v>
       </c>
-      <c r="J64" s="140"/>
-      <c r="K64" s="140" t="s">
+      <c r="J64" s="132"/>
+      <c r="K64" s="132" t="s">
         <v>158</v>
       </c>
-      <c r="L64" s="140"/>
-      <c r="M64" s="140" t="s">
+      <c r="L64" s="132"/>
+      <c r="M64" s="132" t="s">
         <v>159</v>
       </c>
-      <c r="N64" s="140"/>
-      <c r="O64" s="140" t="s">
+      <c r="N64" s="132"/>
+      <c r="O64" s="132" t="s">
         <v>160</v>
       </c>
-      <c r="P64" s="140"/>
-      <c r="Q64" s="140" t="s">
+      <c r="P64" s="132"/>
+      <c r="Q64" s="132" t="s">
         <v>161</v>
       </c>
-      <c r="R64" s="141"/>
+      <c r="R64" s="133"/>
     </row>
     <row r="65" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="32" t="s">
@@ -7594,145 +7592,145 @@
       <c r="D65" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="E65" s="126" t="s">
-        <v>6</v>
-      </c>
-      <c r="F65" s="126"/>
-      <c r="G65" s="137" t="s">
+      <c r="E65" s="159" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" s="159"/>
+      <c r="G65" s="141" t="s">
         <v>133</v>
       </c>
-      <c r="H65" s="137"/>
-      <c r="I65" s="126" t="s">
-        <v>6</v>
-      </c>
-      <c r="J65" s="126"/>
-      <c r="K65" s="137" t="s">
+      <c r="H65" s="141"/>
+      <c r="I65" s="159" t="s">
+        <v>6</v>
+      </c>
+      <c r="J65" s="159"/>
+      <c r="K65" s="141" t="s">
         <v>134</v>
       </c>
-      <c r="L65" s="137"/>
-      <c r="M65" s="137" t="s">
+      <c r="L65" s="141"/>
+      <c r="M65" s="141" t="s">
         <v>135</v>
       </c>
-      <c r="N65" s="137"/>
-      <c r="O65" s="137" t="s">
+      <c r="N65" s="141"/>
+      <c r="O65" s="141" t="s">
         <v>136</v>
       </c>
-      <c r="P65" s="137"/>
-      <c r="Q65" s="137" t="s">
+      <c r="P65" s="141"/>
+      <c r="Q65" s="141" t="s">
         <v>137</v>
       </c>
-      <c r="R65" s="138"/>
+      <c r="R65" s="142"/>
     </row>
     <row r="66" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="C66" s="139" t="s">
+      <c r="C66" s="140" t="s">
         <v>138</v>
       </c>
-      <c r="D66" s="137"/>
-      <c r="E66" s="137" t="s">
+      <c r="D66" s="141"/>
+      <c r="E66" s="141" t="s">
         <v>139</v>
       </c>
-      <c r="F66" s="137"/>
-      <c r="G66" s="137" t="s">
+      <c r="F66" s="141"/>
+      <c r="G66" s="141" t="s">
         <v>140</v>
       </c>
-      <c r="H66" s="137"/>
-      <c r="I66" s="137" t="s">
+      <c r="H66" s="141"/>
+      <c r="I66" s="141" t="s">
         <v>141</v>
       </c>
-      <c r="J66" s="137"/>
-      <c r="K66" s="137" t="s">
+      <c r="J66" s="141"/>
+      <c r="K66" s="141" t="s">
         <v>142</v>
       </c>
-      <c r="L66" s="137"/>
-      <c r="M66" s="137" t="s">
+      <c r="L66" s="141"/>
+      <c r="M66" s="141" t="s">
         <v>143</v>
       </c>
-      <c r="N66" s="137"/>
-      <c r="O66" s="137" t="s">
+      <c r="N66" s="141"/>
+      <c r="O66" s="141" t="s">
         <v>144</v>
       </c>
-      <c r="P66" s="137"/>
-      <c r="Q66" s="137" t="s">
+      <c r="P66" s="141"/>
+      <c r="Q66" s="141" t="s">
         <v>145</v>
       </c>
-      <c r="R66" s="138"/>
+      <c r="R66" s="142"/>
     </row>
     <row r="67" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="C67" s="139" t="s">
+      <c r="C67" s="140" t="s">
         <v>146</v>
       </c>
-      <c r="D67" s="137"/>
-      <c r="E67" s="137" t="s">
+      <c r="D67" s="141"/>
+      <c r="E67" s="141" t="s">
         <v>147</v>
       </c>
-      <c r="F67" s="137"/>
-      <c r="G67" s="137" t="s">
+      <c r="F67" s="141"/>
+      <c r="G67" s="141" t="s">
         <v>148</v>
       </c>
-      <c r="H67" s="137"/>
-      <c r="I67" s="137" t="s">
+      <c r="H67" s="141"/>
+      <c r="I67" s="141" t="s">
         <v>149</v>
       </c>
-      <c r="J67" s="137"/>
-      <c r="K67" s="137" t="s">
+      <c r="J67" s="141"/>
+      <c r="K67" s="141" t="s">
         <v>150</v>
       </c>
-      <c r="L67" s="137"/>
-      <c r="M67" s="137" t="s">
+      <c r="L67" s="141"/>
+      <c r="M67" s="141" t="s">
         <v>151</v>
       </c>
-      <c r="N67" s="137"/>
-      <c r="O67" s="137" t="s">
+      <c r="N67" s="141"/>
+      <c r="O67" s="141" t="s">
         <v>152</v>
       </c>
-      <c r="P67" s="137"/>
-      <c r="Q67" s="137" t="s">
+      <c r="P67" s="141"/>
+      <c r="Q67" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="R67" s="138"/>
+      <c r="R67" s="142"/>
     </row>
     <row r="68" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="C68" s="139" t="s">
+      <c r="C68" s="140" t="s">
         <v>154</v>
       </c>
-      <c r="D68" s="137"/>
-      <c r="E68" s="137" t="s">
+      <c r="D68" s="141"/>
+      <c r="E68" s="141" t="s">
         <v>155</v>
       </c>
-      <c r="F68" s="137"/>
-      <c r="G68" s="137" t="s">
+      <c r="F68" s="141"/>
+      <c r="G68" s="141" t="s">
         <v>156</v>
       </c>
-      <c r="H68" s="137"/>
-      <c r="I68" s="137" t="s">
+      <c r="H68" s="141"/>
+      <c r="I68" s="141" t="s">
         <v>157</v>
       </c>
-      <c r="J68" s="137"/>
-      <c r="K68" s="137" t="s">
+      <c r="J68" s="141"/>
+      <c r="K68" s="141" t="s">
         <v>158</v>
       </c>
-      <c r="L68" s="137"/>
-      <c r="M68" s="137" t="s">
+      <c r="L68" s="141"/>
+      <c r="M68" s="141" t="s">
         <v>159</v>
       </c>
-      <c r="N68" s="137"/>
-      <c r="O68" s="137" t="s">
+      <c r="N68" s="141"/>
+      <c r="O68" s="141" t="s">
         <v>160</v>
       </c>
-      <c r="P68" s="137"/>
-      <c r="Q68" s="137" t="s">
+      <c r="P68" s="141"/>
+      <c r="Q68" s="141" t="s">
         <v>161</v>
       </c>
-      <c r="R68" s="138"/>
+      <c r="R68" s="142"/>
     </row>
     <row r="69" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="32" t="s">
@@ -7744,164 +7742,164 @@
       <c r="D69" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="E69" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="F69" s="127"/>
-      <c r="G69" s="140" t="s">
+      <c r="E69" s="158" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" s="158"/>
+      <c r="G69" s="132" t="s">
         <v>133</v>
       </c>
-      <c r="H69" s="140"/>
-      <c r="I69" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="J69" s="127"/>
-      <c r="K69" s="140" t="s">
+      <c r="H69" s="132"/>
+      <c r="I69" s="158" t="s">
+        <v>6</v>
+      </c>
+      <c r="J69" s="158"/>
+      <c r="K69" s="132" t="s">
         <v>134</v>
       </c>
-      <c r="L69" s="140"/>
-      <c r="M69" s="140" t="s">
+      <c r="L69" s="132"/>
+      <c r="M69" s="132" t="s">
         <v>135</v>
       </c>
-      <c r="N69" s="140"/>
-      <c r="O69" s="140" t="s">
+      <c r="N69" s="132"/>
+      <c r="O69" s="132" t="s">
         <v>136</v>
       </c>
-      <c r="P69" s="140"/>
-      <c r="Q69" s="140" t="s">
+      <c r="P69" s="132"/>
+      <c r="Q69" s="132" t="s">
         <v>137</v>
       </c>
-      <c r="R69" s="141"/>
+      <c r="R69" s="133"/>
     </row>
     <row r="70" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="C70" s="142" t="s">
+      <c r="C70" s="134" t="s">
         <v>138</v>
       </c>
-      <c r="D70" s="140"/>
-      <c r="E70" s="140" t="s">
+      <c r="D70" s="132"/>
+      <c r="E70" s="132" t="s">
         <v>139</v>
       </c>
-      <c r="F70" s="140"/>
-      <c r="G70" s="140" t="s">
+      <c r="F70" s="132"/>
+      <c r="G70" s="132" t="s">
         <v>140</v>
       </c>
-      <c r="H70" s="140"/>
-      <c r="I70" s="140" t="s">
+      <c r="H70" s="132"/>
+      <c r="I70" s="132" t="s">
         <v>141</v>
       </c>
-      <c r="J70" s="140"/>
-      <c r="K70" s="140" t="s">
+      <c r="J70" s="132"/>
+      <c r="K70" s="132" t="s">
         <v>142</v>
       </c>
-      <c r="L70" s="140"/>
-      <c r="M70" s="140" t="s">
+      <c r="L70" s="132"/>
+      <c r="M70" s="132" t="s">
         <v>143</v>
       </c>
-      <c r="N70" s="140"/>
-      <c r="O70" s="140" t="s">
+      <c r="N70" s="132"/>
+      <c r="O70" s="132" t="s">
         <v>144</v>
       </c>
-      <c r="P70" s="140"/>
-      <c r="Q70" s="140" t="s">
+      <c r="P70" s="132"/>
+      <c r="Q70" s="132" t="s">
         <v>145</v>
       </c>
-      <c r="R70" s="141"/>
+      <c r="R70" s="133"/>
     </row>
     <row r="71" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="C71" s="142" t="s">
+      <c r="C71" s="134" t="s">
         <v>146</v>
       </c>
-      <c r="D71" s="140"/>
-      <c r="E71" s="140" t="s">
+      <c r="D71" s="132"/>
+      <c r="E71" s="132" t="s">
         <v>147</v>
       </c>
-      <c r="F71" s="140"/>
-      <c r="G71" s="140" t="s">
+      <c r="F71" s="132"/>
+      <c r="G71" s="132" t="s">
         <v>148</v>
       </c>
-      <c r="H71" s="140"/>
-      <c r="I71" s="140" t="s">
+      <c r="H71" s="132"/>
+      <c r="I71" s="132" t="s">
         <v>149</v>
       </c>
-      <c r="J71" s="140"/>
-      <c r="K71" s="140" t="s">
+      <c r="J71" s="132"/>
+      <c r="K71" s="132" t="s">
         <v>150</v>
       </c>
-      <c r="L71" s="140"/>
-      <c r="M71" s="140" t="s">
+      <c r="L71" s="132"/>
+      <c r="M71" s="132" t="s">
         <v>151</v>
       </c>
-      <c r="N71" s="140"/>
-      <c r="O71" s="140" t="s">
+      <c r="N71" s="132"/>
+      <c r="O71" s="132" t="s">
         <v>152</v>
       </c>
-      <c r="P71" s="140"/>
-      <c r="Q71" s="140" t="s">
+      <c r="P71" s="132"/>
+      <c r="Q71" s="132" t="s">
         <v>153</v>
       </c>
-      <c r="R71" s="141"/>
+      <c r="R71" s="133"/>
     </row>
     <row r="72" spans="2:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="C72" s="149" t="s">
+      <c r="C72" s="143" t="s">
         <v>154</v>
       </c>
-      <c r="D72" s="143"/>
-      <c r="E72" s="143" t="s">
+      <c r="D72" s="144"/>
+      <c r="E72" s="144" t="s">
         <v>155</v>
       </c>
-      <c r="F72" s="143"/>
-      <c r="G72" s="143" t="s">
+      <c r="F72" s="144"/>
+      <c r="G72" s="144" t="s">
         <v>156</v>
       </c>
-      <c r="H72" s="143"/>
-      <c r="I72" s="143" t="s">
+      <c r="H72" s="144"/>
+      <c r="I72" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="J72" s="143"/>
-      <c r="K72" s="143" t="s">
+      <c r="J72" s="144"/>
+      <c r="K72" s="144" t="s">
         <v>158</v>
       </c>
-      <c r="L72" s="143"/>
-      <c r="M72" s="143" t="s">
+      <c r="L72" s="144"/>
+      <c r="M72" s="144" t="s">
         <v>159</v>
       </c>
-      <c r="N72" s="143"/>
-      <c r="O72" s="143" t="s">
+      <c r="N72" s="144"/>
+      <c r="O72" s="144" t="s">
         <v>160</v>
       </c>
-      <c r="P72" s="143"/>
-      <c r="Q72" s="143" t="s">
+      <c r="P72" s="144"/>
+      <c r="Q72" s="144" t="s">
         <v>161</v>
       </c>
-      <c r="R72" s="144"/>
+      <c r="R72" s="145"/>
     </row>
     <row r="73" spans="2:19" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="159"/>
-      <c r="C73" s="156"/>
-      <c r="D73" s="156"/>
-      <c r="E73" s="156"/>
-      <c r="F73" s="156"/>
-      <c r="G73" s="156"/>
-      <c r="H73" s="156"/>
-      <c r="I73" s="156"/>
-      <c r="J73" s="156"/>
-      <c r="K73" s="156"/>
-      <c r="L73" s="156"/>
-      <c r="M73" s="156"/>
-      <c r="N73" s="156"/>
-      <c r="O73" s="156"/>
-      <c r="P73" s="156"/>
-      <c r="Q73" s="156"/>
-      <c r="R73" s="156"/>
+      <c r="B73" s="139"/>
+      <c r="C73" s="136"/>
+      <c r="D73" s="136"/>
+      <c r="E73" s="136"/>
+      <c r="F73" s="136"/>
+      <c r="G73" s="136"/>
+      <c r="H73" s="136"/>
+      <c r="I73" s="136"/>
+      <c r="J73" s="136"/>
+      <c r="K73" s="136"/>
+      <c r="L73" s="136"/>
+      <c r="M73" s="136"/>
+      <c r="N73" s="136"/>
+      <c r="O73" s="136"/>
+      <c r="P73" s="136"/>
+      <c r="Q73" s="136"/>
+      <c r="R73" s="136"/>
       <c r="S73" s="59"/>
     </row>
     <row r="74" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7914,145 +7912,145 @@
       <c r="D74" s="64" t="s">
         <v>162</v>
       </c>
-      <c r="E74" s="125" t="s">
-        <v>6</v>
-      </c>
-      <c r="F74" s="125"/>
-      <c r="G74" s="135" t="s">
+      <c r="E74" s="151" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74" s="151"/>
+      <c r="G74" s="146" t="s">
         <v>133</v>
       </c>
-      <c r="H74" s="135"/>
-      <c r="I74" s="125" t="s">
-        <v>6</v>
-      </c>
-      <c r="J74" s="125"/>
-      <c r="K74" s="135" t="s">
+      <c r="H74" s="146"/>
+      <c r="I74" s="151" t="s">
+        <v>6</v>
+      </c>
+      <c r="J74" s="151"/>
+      <c r="K74" s="146" t="s">
         <v>134</v>
       </c>
-      <c r="L74" s="135"/>
-      <c r="M74" s="135" t="s">
+      <c r="L74" s="146"/>
+      <c r="M74" s="146" t="s">
         <v>135</v>
       </c>
-      <c r="N74" s="135"/>
-      <c r="O74" s="135" t="s">
+      <c r="N74" s="146"/>
+      <c r="O74" s="146" t="s">
         <v>136</v>
       </c>
-      <c r="P74" s="135"/>
-      <c r="Q74" s="135" t="s">
+      <c r="P74" s="146"/>
+      <c r="Q74" s="146" t="s">
         <v>137</v>
       </c>
-      <c r="R74" s="136"/>
+      <c r="R74" s="147"/>
     </row>
     <row r="75" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="C75" s="139" t="s">
+      <c r="C75" s="140" t="s">
         <v>138</v>
       </c>
-      <c r="D75" s="137"/>
-      <c r="E75" s="137" t="s">
+      <c r="D75" s="141"/>
+      <c r="E75" s="141" t="s">
         <v>139</v>
       </c>
-      <c r="F75" s="137"/>
-      <c r="G75" s="137" t="s">
+      <c r="F75" s="141"/>
+      <c r="G75" s="141" t="s">
         <v>140</v>
       </c>
-      <c r="H75" s="137"/>
-      <c r="I75" s="137" t="s">
+      <c r="H75" s="141"/>
+      <c r="I75" s="141" t="s">
         <v>141</v>
       </c>
-      <c r="J75" s="137"/>
-      <c r="K75" s="137" t="s">
+      <c r="J75" s="141"/>
+      <c r="K75" s="141" t="s">
         <v>142</v>
       </c>
-      <c r="L75" s="137"/>
-      <c r="M75" s="137" t="s">
+      <c r="L75" s="141"/>
+      <c r="M75" s="141" t="s">
         <v>143</v>
       </c>
-      <c r="N75" s="137"/>
-      <c r="O75" s="137" t="s">
+      <c r="N75" s="141"/>
+      <c r="O75" s="141" t="s">
         <v>144</v>
       </c>
-      <c r="P75" s="137"/>
-      <c r="Q75" s="137" t="s">
+      <c r="P75" s="141"/>
+      <c r="Q75" s="141" t="s">
         <v>145</v>
       </c>
-      <c r="R75" s="138"/>
+      <c r="R75" s="142"/>
     </row>
     <row r="76" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="C76" s="139" t="s">
+      <c r="C76" s="140" t="s">
         <v>146</v>
       </c>
-      <c r="D76" s="137"/>
-      <c r="E76" s="137" t="s">
+      <c r="D76" s="141"/>
+      <c r="E76" s="141" t="s">
         <v>147</v>
       </c>
-      <c r="F76" s="137"/>
-      <c r="G76" s="137" t="s">
+      <c r="F76" s="141"/>
+      <c r="G76" s="141" t="s">
         <v>148</v>
       </c>
-      <c r="H76" s="137"/>
-      <c r="I76" s="137" t="s">
+      <c r="H76" s="141"/>
+      <c r="I76" s="141" t="s">
         <v>149</v>
       </c>
-      <c r="J76" s="137"/>
-      <c r="K76" s="137" t="s">
+      <c r="J76" s="141"/>
+      <c r="K76" s="141" t="s">
         <v>150</v>
       </c>
-      <c r="L76" s="137"/>
-      <c r="M76" s="137" t="s">
+      <c r="L76" s="141"/>
+      <c r="M76" s="141" t="s">
         <v>151</v>
       </c>
-      <c r="N76" s="137"/>
-      <c r="O76" s="137" t="s">
+      <c r="N76" s="141"/>
+      <c r="O76" s="141" t="s">
         <v>152</v>
       </c>
-      <c r="P76" s="137"/>
-      <c r="Q76" s="137" t="s">
+      <c r="P76" s="141"/>
+      <c r="Q76" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="R76" s="138"/>
+      <c r="R76" s="142"/>
     </row>
     <row r="77" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="C77" s="139" t="s">
+      <c r="C77" s="140" t="s">
         <v>154</v>
       </c>
-      <c r="D77" s="137"/>
-      <c r="E77" s="137" t="s">
+      <c r="D77" s="141"/>
+      <c r="E77" s="141" t="s">
         <v>155</v>
       </c>
-      <c r="F77" s="137"/>
-      <c r="G77" s="137" t="s">
+      <c r="F77" s="141"/>
+      <c r="G77" s="141" t="s">
         <v>156</v>
       </c>
-      <c r="H77" s="137"/>
-      <c r="I77" s="137" t="s">
+      <c r="H77" s="141"/>
+      <c r="I77" s="141" t="s">
         <v>157</v>
       </c>
-      <c r="J77" s="137"/>
-      <c r="K77" s="137" t="s">
+      <c r="J77" s="141"/>
+      <c r="K77" s="141" t="s">
         <v>158</v>
       </c>
-      <c r="L77" s="137"/>
-      <c r="M77" s="137" t="s">
+      <c r="L77" s="141"/>
+      <c r="M77" s="141" t="s">
         <v>159</v>
       </c>
-      <c r="N77" s="137"/>
-      <c r="O77" s="137" t="s">
+      <c r="N77" s="141"/>
+      <c r="O77" s="141" t="s">
         <v>160</v>
       </c>
-      <c r="P77" s="137"/>
-      <c r="Q77" s="137" t="s">
+      <c r="P77" s="141"/>
+      <c r="Q77" s="141" t="s">
         <v>161</v>
       </c>
-      <c r="R77" s="138"/>
+      <c r="R77" s="142"/>
     </row>
     <row r="78" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="31" t="s">
@@ -8064,145 +8062,145 @@
       <c r="D78" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="E78" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="F78" s="127"/>
-      <c r="G78" s="140" t="s">
+      <c r="E78" s="158" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" s="158"/>
+      <c r="G78" s="132" t="s">
         <v>133</v>
       </c>
-      <c r="H78" s="140"/>
-      <c r="I78" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="J78" s="127"/>
-      <c r="K78" s="140" t="s">
+      <c r="H78" s="132"/>
+      <c r="I78" s="158" t="s">
+        <v>6</v>
+      </c>
+      <c r="J78" s="158"/>
+      <c r="K78" s="132" t="s">
         <v>134</v>
       </c>
-      <c r="L78" s="140"/>
-      <c r="M78" s="140" t="s">
+      <c r="L78" s="132"/>
+      <c r="M78" s="132" t="s">
         <v>135</v>
       </c>
-      <c r="N78" s="140"/>
-      <c r="O78" s="140" t="s">
+      <c r="N78" s="132"/>
+      <c r="O78" s="132" t="s">
         <v>136</v>
       </c>
-      <c r="P78" s="140"/>
-      <c r="Q78" s="140" t="s">
+      <c r="P78" s="132"/>
+      <c r="Q78" s="132" t="s">
         <v>137</v>
       </c>
-      <c r="R78" s="141"/>
+      <c r="R78" s="133"/>
     </row>
     <row r="79" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="C79" s="142" t="s">
+      <c r="C79" s="134" t="s">
         <v>138</v>
       </c>
-      <c r="D79" s="140"/>
-      <c r="E79" s="140" t="s">
+      <c r="D79" s="132"/>
+      <c r="E79" s="132" t="s">
         <v>139</v>
       </c>
-      <c r="F79" s="140"/>
-      <c r="G79" s="140" t="s">
+      <c r="F79" s="132"/>
+      <c r="G79" s="132" t="s">
         <v>140</v>
       </c>
-      <c r="H79" s="140"/>
-      <c r="I79" s="140" t="s">
+      <c r="H79" s="132"/>
+      <c r="I79" s="132" t="s">
         <v>141</v>
       </c>
-      <c r="J79" s="140"/>
-      <c r="K79" s="140" t="s">
+      <c r="J79" s="132"/>
+      <c r="K79" s="132" t="s">
         <v>142</v>
       </c>
-      <c r="L79" s="140"/>
-      <c r="M79" s="140" t="s">
+      <c r="L79" s="132"/>
+      <c r="M79" s="132" t="s">
         <v>143</v>
       </c>
-      <c r="N79" s="140"/>
-      <c r="O79" s="140" t="s">
+      <c r="N79" s="132"/>
+      <c r="O79" s="132" t="s">
         <v>144</v>
       </c>
-      <c r="P79" s="140"/>
-      <c r="Q79" s="140" t="s">
+      <c r="P79" s="132"/>
+      <c r="Q79" s="132" t="s">
         <v>145</v>
       </c>
-      <c r="R79" s="141"/>
+      <c r="R79" s="133"/>
     </row>
     <row r="80" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="C80" s="142" t="s">
+      <c r="C80" s="134" t="s">
         <v>146</v>
       </c>
-      <c r="D80" s="140"/>
-      <c r="E80" s="140" t="s">
+      <c r="D80" s="132"/>
+      <c r="E80" s="132" t="s">
         <v>147</v>
       </c>
-      <c r="F80" s="140"/>
-      <c r="G80" s="140" t="s">
+      <c r="F80" s="132"/>
+      <c r="G80" s="132" t="s">
         <v>148</v>
       </c>
-      <c r="H80" s="140"/>
-      <c r="I80" s="140" t="s">
+      <c r="H80" s="132"/>
+      <c r="I80" s="132" t="s">
         <v>149</v>
       </c>
-      <c r="J80" s="140"/>
-      <c r="K80" s="140" t="s">
+      <c r="J80" s="132"/>
+      <c r="K80" s="132" t="s">
         <v>150</v>
       </c>
-      <c r="L80" s="140"/>
-      <c r="M80" s="140" t="s">
+      <c r="L80" s="132"/>
+      <c r="M80" s="132" t="s">
         <v>151</v>
       </c>
-      <c r="N80" s="140"/>
-      <c r="O80" s="140" t="s">
+      <c r="N80" s="132"/>
+      <c r="O80" s="132" t="s">
         <v>152</v>
       </c>
-      <c r="P80" s="140"/>
-      <c r="Q80" s="140" t="s">
+      <c r="P80" s="132"/>
+      <c r="Q80" s="132" t="s">
         <v>153</v>
       </c>
-      <c r="R80" s="141"/>
+      <c r="R80" s="133"/>
     </row>
     <row r="81" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="C81" s="142" t="s">
+      <c r="C81" s="134" t="s">
         <v>154</v>
       </c>
-      <c r="D81" s="140"/>
-      <c r="E81" s="140" t="s">
+      <c r="D81" s="132"/>
+      <c r="E81" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="F81" s="140"/>
-      <c r="G81" s="140" t="s">
+      <c r="F81" s="132"/>
+      <c r="G81" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="H81" s="140"/>
-      <c r="I81" s="140" t="s">
+      <c r="H81" s="132"/>
+      <c r="I81" s="132" t="s">
         <v>157</v>
       </c>
-      <c r="J81" s="140"/>
-      <c r="K81" s="140" t="s">
+      <c r="J81" s="132"/>
+      <c r="K81" s="132" t="s">
         <v>158</v>
       </c>
-      <c r="L81" s="140"/>
-      <c r="M81" s="140" t="s">
+      <c r="L81" s="132"/>
+      <c r="M81" s="132" t="s">
         <v>159</v>
       </c>
-      <c r="N81" s="140"/>
-      <c r="O81" s="140" t="s">
+      <c r="N81" s="132"/>
+      <c r="O81" s="132" t="s">
         <v>160</v>
       </c>
-      <c r="P81" s="140"/>
-      <c r="Q81" s="140" t="s">
+      <c r="P81" s="132"/>
+      <c r="Q81" s="132" t="s">
         <v>161</v>
       </c>
-      <c r="R81" s="141"/>
+      <c r="R81" s="133"/>
     </row>
     <row r="82" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="32" t="s">
@@ -8373,411 +8371,942 @@
       <c r="R89" s="70"/>
     </row>
     <row r="91" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B91" s="128" t="s">
+      <c r="B91" s="166" t="s">
         <v>220</v>
       </c>
-      <c r="C91" s="128"/>
-      <c r="D91" s="128">
+      <c r="C91" s="166"/>
+      <c r="D91" s="166">
         <v>7</v>
       </c>
-      <c r="E91" s="128"/>
-      <c r="F91" s="128">
-        <v>6</v>
-      </c>
-      <c r="G91" s="128"/>
-      <c r="H91" s="128">
+      <c r="E91" s="166"/>
+      <c r="F91" s="166">
+        <v>6</v>
+      </c>
+      <c r="G91" s="166"/>
+      <c r="H91" s="166">
         <v>5</v>
       </c>
-      <c r="I91" s="128"/>
-      <c r="J91" s="128">
+      <c r="I91" s="166"/>
+      <c r="J91" s="166">
         <v>4</v>
       </c>
-      <c r="K91" s="128"/>
-      <c r="L91" s="128">
+      <c r="K91" s="166"/>
+      <c r="L91" s="166">
         <v>3</v>
       </c>
-      <c r="M91" s="128"/>
-      <c r="N91" s="128">
+      <c r="M91" s="166"/>
+      <c r="N91" s="166">
         <v>2</v>
       </c>
-      <c r="O91" s="128"/>
-      <c r="P91" s="128">
+      <c r="O91" s="166"/>
+      <c r="P91" s="166">
         <v>1</v>
       </c>
-      <c r="Q91" s="128"/>
-      <c r="R91" s="128">
+      <c r="Q91" s="166"/>
+      <c r="R91" s="166">
         <v>0</v>
       </c>
-      <c r="S91" s="128"/>
+      <c r="S91" s="166"/>
     </row>
     <row r="92" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="145" t="s">
+      <c r="B92" s="154" t="s">
         <v>219</v>
       </c>
-      <c r="C92" s="146"/>
-      <c r="D92" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="E92" s="86"/>
-      <c r="F92" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="G92" s="86"/>
-      <c r="H92" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="I92" s="86"/>
-      <c r="J92" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="K92" s="86"/>
-      <c r="L92" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="M92" s="86"/>
-      <c r="N92" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="O92" s="86"/>
-      <c r="P92" s="129" t="s">
+      <c r="C92" s="155"/>
+      <c r="D92" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" s="94"/>
+      <c r="F92" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="G92" s="94"/>
+      <c r="H92" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="I92" s="94"/>
+      <c r="J92" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="K92" s="94"/>
+      <c r="L92" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="M92" s="94"/>
+      <c r="N92" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="O92" s="94"/>
+      <c r="P92" s="160" t="s">
         <v>221</v>
       </c>
-      <c r="Q92" s="130"/>
-      <c r="R92" s="129" t="s">
+      <c r="Q92" s="161"/>
+      <c r="R92" s="160" t="s">
         <v>222</v>
       </c>
-      <c r="S92" s="130"/>
+      <c r="S92" s="161"/>
     </row>
     <row r="93" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="145"/>
-      <c r="C93" s="146"/>
-      <c r="D93" s="86"/>
-      <c r="E93" s="86"/>
-      <c r="F93" s="86"/>
-      <c r="G93" s="86"/>
-      <c r="H93" s="86"/>
-      <c r="I93" s="86"/>
-      <c r="J93" s="86"/>
-      <c r="K93" s="86"/>
-      <c r="L93" s="86"/>
-      <c r="M93" s="86"/>
-      <c r="N93" s="86"/>
-      <c r="O93" s="86"/>
-      <c r="P93" s="131"/>
-      <c r="Q93" s="132"/>
-      <c r="R93" s="131"/>
-      <c r="S93" s="132"/>
+      <c r="B93" s="154"/>
+      <c r="C93" s="155"/>
+      <c r="D93" s="94"/>
+      <c r="E93" s="94"/>
+      <c r="F93" s="94"/>
+      <c r="G93" s="94"/>
+      <c r="H93" s="94"/>
+      <c r="I93" s="94"/>
+      <c r="J93" s="94"/>
+      <c r="K93" s="94"/>
+      <c r="L93" s="94"/>
+      <c r="M93" s="94"/>
+      <c r="N93" s="94"/>
+      <c r="O93" s="94"/>
+      <c r="P93" s="162"/>
+      <c r="Q93" s="163"/>
+      <c r="R93" s="162"/>
+      <c r="S93" s="163"/>
     </row>
     <row r="94" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="145"/>
-      <c r="C94" s="146"/>
-      <c r="D94" s="86"/>
-      <c r="E94" s="86"/>
-      <c r="F94" s="86"/>
-      <c r="G94" s="86"/>
-      <c r="H94" s="86"/>
-      <c r="I94" s="86"/>
-      <c r="J94" s="86"/>
-      <c r="K94" s="86"/>
-      <c r="L94" s="86"/>
-      <c r="M94" s="86"/>
-      <c r="N94" s="86"/>
-      <c r="O94" s="86"/>
-      <c r="P94" s="131"/>
-      <c r="Q94" s="132"/>
-      <c r="R94" s="131"/>
-      <c r="S94" s="132"/>
+      <c r="B94" s="154"/>
+      <c r="C94" s="155"/>
+      <c r="D94" s="94"/>
+      <c r="E94" s="94"/>
+      <c r="F94" s="94"/>
+      <c r="G94" s="94"/>
+      <c r="H94" s="94"/>
+      <c r="I94" s="94"/>
+      <c r="J94" s="94"/>
+      <c r="K94" s="94"/>
+      <c r="L94" s="94"/>
+      <c r="M94" s="94"/>
+      <c r="N94" s="94"/>
+      <c r="O94" s="94"/>
+      <c r="P94" s="162"/>
+      <c r="Q94" s="163"/>
+      <c r="R94" s="162"/>
+      <c r="S94" s="163"/>
     </row>
     <row r="95" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="147"/>
-      <c r="C95" s="148"/>
-      <c r="D95" s="86"/>
-      <c r="E95" s="86"/>
-      <c r="F95" s="86"/>
-      <c r="G95" s="86"/>
-      <c r="H95" s="86"/>
-      <c r="I95" s="86"/>
-      <c r="J95" s="86"/>
-      <c r="K95" s="86"/>
-      <c r="L95" s="86"/>
-      <c r="M95" s="86"/>
-      <c r="N95" s="86"/>
-      <c r="O95" s="86"/>
-      <c r="P95" s="133"/>
-      <c r="Q95" s="134"/>
-      <c r="R95" s="133"/>
-      <c r="S95" s="134"/>
+      <c r="B95" s="156"/>
+      <c r="C95" s="157"/>
+      <c r="D95" s="94"/>
+      <c r="E95" s="94"/>
+      <c r="F95" s="94"/>
+      <c r="G95" s="94"/>
+      <c r="H95" s="94"/>
+      <c r="I95" s="94"/>
+      <c r="J95" s="94"/>
+      <c r="K95" s="94"/>
+      <c r="L95" s="94"/>
+      <c r="M95" s="94"/>
+      <c r="N95" s="94"/>
+      <c r="O95" s="94"/>
+      <c r="P95" s="164"/>
+      <c r="Q95" s="165"/>
+      <c r="R95" s="164"/>
+      <c r="S95" s="165"/>
     </row>
     <row r="96" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="150" t="s">
+      <c r="B96" s="148" t="s">
         <v>163</v>
       </c>
-      <c r="C96" s="151"/>
-      <c r="D96" s="152" t="s">
+      <c r="C96" s="149"/>
+      <c r="D96" s="150" t="s">
         <v>164</v>
       </c>
-      <c r="E96" s="152"/>
-      <c r="F96" s="152"/>
-      <c r="G96" s="152"/>
-      <c r="H96" s="152"/>
-      <c r="I96" s="152"/>
-      <c r="J96" s="152"/>
-      <c r="K96" s="152"/>
-      <c r="L96" s="152"/>
-      <c r="M96" s="152"/>
-      <c r="N96" s="152"/>
-      <c r="O96" s="152"/>
-      <c r="P96" s="152"/>
-      <c r="Q96" s="152"/>
-      <c r="R96" s="152"/>
-      <c r="S96" s="152"/>
+      <c r="E96" s="150"/>
+      <c r="F96" s="150"/>
+      <c r="G96" s="150"/>
+      <c r="H96" s="150"/>
+      <c r="I96" s="150"/>
+      <c r="J96" s="150"/>
+      <c r="K96" s="150"/>
+      <c r="L96" s="150"/>
+      <c r="M96" s="150"/>
+      <c r="N96" s="150"/>
+      <c r="O96" s="150"/>
+      <c r="P96" s="150"/>
+      <c r="Q96" s="150"/>
+      <c r="R96" s="150"/>
+      <c r="S96" s="150"/>
     </row>
     <row r="97" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="151"/>
-      <c r="C97" s="151"/>
-      <c r="D97" s="152"/>
-      <c r="E97" s="152"/>
-      <c r="F97" s="152"/>
-      <c r="G97" s="152"/>
-      <c r="H97" s="152"/>
-      <c r="I97" s="152"/>
-      <c r="J97" s="152"/>
-      <c r="K97" s="152"/>
-      <c r="L97" s="152"/>
-      <c r="M97" s="152"/>
-      <c r="N97" s="152"/>
-      <c r="O97" s="152"/>
-      <c r="P97" s="152"/>
-      <c r="Q97" s="152"/>
-      <c r="R97" s="152"/>
-      <c r="S97" s="152"/>
+      <c r="B97" s="149"/>
+      <c r="C97" s="149"/>
+      <c r="D97" s="150"/>
+      <c r="E97" s="150"/>
+      <c r="F97" s="150"/>
+      <c r="G97" s="150"/>
+      <c r="H97" s="150"/>
+      <c r="I97" s="150"/>
+      <c r="J97" s="150"/>
+      <c r="K97" s="150"/>
+      <c r="L97" s="150"/>
+      <c r="M97" s="150"/>
+      <c r="N97" s="150"/>
+      <c r="O97" s="150"/>
+      <c r="P97" s="150"/>
+      <c r="Q97" s="150"/>
+      <c r="R97" s="150"/>
+      <c r="S97" s="150"/>
     </row>
     <row r="98" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="151"/>
-      <c r="C98" s="151"/>
-      <c r="D98" s="152"/>
-      <c r="E98" s="152"/>
-      <c r="F98" s="152"/>
-      <c r="G98" s="152"/>
-      <c r="H98" s="152"/>
-      <c r="I98" s="152"/>
-      <c r="J98" s="152"/>
-      <c r="K98" s="152"/>
-      <c r="L98" s="152"/>
-      <c r="M98" s="152"/>
-      <c r="N98" s="152"/>
-      <c r="O98" s="152"/>
-      <c r="P98" s="152"/>
-      <c r="Q98" s="152"/>
-      <c r="R98" s="152"/>
-      <c r="S98" s="152"/>
+      <c r="B98" s="149"/>
+      <c r="C98" s="149"/>
+      <c r="D98" s="150"/>
+      <c r="E98" s="150"/>
+      <c r="F98" s="150"/>
+      <c r="G98" s="150"/>
+      <c r="H98" s="150"/>
+      <c r="I98" s="150"/>
+      <c r="J98" s="150"/>
+      <c r="K98" s="150"/>
+      <c r="L98" s="150"/>
+      <c r="M98" s="150"/>
+      <c r="N98" s="150"/>
+      <c r="O98" s="150"/>
+      <c r="P98" s="150"/>
+      <c r="Q98" s="150"/>
+      <c r="R98" s="150"/>
+      <c r="S98" s="150"/>
     </row>
     <row r="99" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="151"/>
-      <c r="C99" s="151"/>
-      <c r="D99" s="152"/>
-      <c r="E99" s="152"/>
-      <c r="F99" s="152"/>
-      <c r="G99" s="152"/>
-      <c r="H99" s="152"/>
-      <c r="I99" s="152"/>
-      <c r="J99" s="152"/>
-      <c r="K99" s="152"/>
-      <c r="L99" s="152"/>
-      <c r="M99" s="152"/>
-      <c r="N99" s="152"/>
-      <c r="O99" s="152"/>
-      <c r="P99" s="152"/>
-      <c r="Q99" s="152"/>
-      <c r="R99" s="152"/>
-      <c r="S99" s="152"/>
+      <c r="B99" s="149"/>
+      <c r="C99" s="149"/>
+      <c r="D99" s="150"/>
+      <c r="E99" s="150"/>
+      <c r="F99" s="150"/>
+      <c r="G99" s="150"/>
+      <c r="H99" s="150"/>
+      <c r="I99" s="150"/>
+      <c r="J99" s="150"/>
+      <c r="K99" s="150"/>
+      <c r="L99" s="150"/>
+      <c r="M99" s="150"/>
+      <c r="N99" s="150"/>
+      <c r="O99" s="150"/>
+      <c r="P99" s="150"/>
+      <c r="Q99" s="150"/>
+      <c r="R99" s="150"/>
+      <c r="S99" s="150"/>
     </row>
     <row r="100" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="153" t="s">
+      <c r="B100" s="152" t="s">
         <v>165</v>
       </c>
-      <c r="C100" s="154"/>
-      <c r="D100" s="152" t="s">
+      <c r="C100" s="153"/>
+      <c r="D100" s="150" t="s">
         <v>166</v>
       </c>
-      <c r="E100" s="152"/>
-      <c r="F100" s="152"/>
-      <c r="G100" s="152"/>
-      <c r="H100" s="152"/>
-      <c r="I100" s="152"/>
-      <c r="J100" s="152"/>
-      <c r="K100" s="152"/>
-      <c r="L100" s="152"/>
-      <c r="M100" s="152"/>
-      <c r="N100" s="152"/>
-      <c r="O100" s="152"/>
-      <c r="P100" s="152"/>
-      <c r="Q100" s="152"/>
-      <c r="R100" s="152"/>
-      <c r="S100" s="152"/>
+      <c r="E100" s="150"/>
+      <c r="F100" s="150"/>
+      <c r="G100" s="150"/>
+      <c r="H100" s="150"/>
+      <c r="I100" s="150"/>
+      <c r="J100" s="150"/>
+      <c r="K100" s="150"/>
+      <c r="L100" s="150"/>
+      <c r="M100" s="150"/>
+      <c r="N100" s="150"/>
+      <c r="O100" s="150"/>
+      <c r="P100" s="150"/>
+      <c r="Q100" s="150"/>
+      <c r="R100" s="150"/>
+      <c r="S100" s="150"/>
     </row>
     <row r="101" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="154"/>
-      <c r="C101" s="154"/>
-      <c r="D101" s="152"/>
-      <c r="E101" s="152"/>
-      <c r="F101" s="152"/>
-      <c r="G101" s="152"/>
-      <c r="H101" s="152"/>
-      <c r="I101" s="152"/>
-      <c r="J101" s="152"/>
-      <c r="K101" s="152"/>
-      <c r="L101" s="152"/>
-      <c r="M101" s="152"/>
-      <c r="N101" s="152"/>
-      <c r="O101" s="152"/>
-      <c r="P101" s="152"/>
-      <c r="Q101" s="152"/>
-      <c r="R101" s="152"/>
-      <c r="S101" s="152"/>
+      <c r="B101" s="153"/>
+      <c r="C101" s="153"/>
+      <c r="D101" s="150"/>
+      <c r="E101" s="150"/>
+      <c r="F101" s="150"/>
+      <c r="G101" s="150"/>
+      <c r="H101" s="150"/>
+      <c r="I101" s="150"/>
+      <c r="J101" s="150"/>
+      <c r="K101" s="150"/>
+      <c r="L101" s="150"/>
+      <c r="M101" s="150"/>
+      <c r="N101" s="150"/>
+      <c r="O101" s="150"/>
+      <c r="P101" s="150"/>
+      <c r="Q101" s="150"/>
+      <c r="R101" s="150"/>
+      <c r="S101" s="150"/>
     </row>
     <row r="102" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="154"/>
-      <c r="C102" s="154"/>
-      <c r="D102" s="152"/>
-      <c r="E102" s="152"/>
-      <c r="F102" s="152"/>
-      <c r="G102" s="152"/>
-      <c r="H102" s="152"/>
-      <c r="I102" s="152"/>
-      <c r="J102" s="152"/>
-      <c r="K102" s="152"/>
-      <c r="L102" s="152"/>
-      <c r="M102" s="152"/>
-      <c r="N102" s="152"/>
-      <c r="O102" s="152"/>
-      <c r="P102" s="152"/>
-      <c r="Q102" s="152"/>
-      <c r="R102" s="152"/>
-      <c r="S102" s="152"/>
+      <c r="B102" s="153"/>
+      <c r="C102" s="153"/>
+      <c r="D102" s="150"/>
+      <c r="E102" s="150"/>
+      <c r="F102" s="150"/>
+      <c r="G102" s="150"/>
+      <c r="H102" s="150"/>
+      <c r="I102" s="150"/>
+      <c r="J102" s="150"/>
+      <c r="K102" s="150"/>
+      <c r="L102" s="150"/>
+      <c r="M102" s="150"/>
+      <c r="N102" s="150"/>
+      <c r="O102" s="150"/>
+      <c r="P102" s="150"/>
+      <c r="Q102" s="150"/>
+      <c r="R102" s="150"/>
+      <c r="S102" s="150"/>
     </row>
     <row r="103" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="154"/>
-      <c r="C103" s="154"/>
-      <c r="D103" s="152"/>
-      <c r="E103" s="152"/>
-      <c r="F103" s="152"/>
-      <c r="G103" s="152"/>
-      <c r="H103" s="152"/>
-      <c r="I103" s="152"/>
-      <c r="J103" s="152"/>
-      <c r="K103" s="152"/>
-      <c r="L103" s="152"/>
-      <c r="M103" s="152"/>
-      <c r="N103" s="152"/>
-      <c r="O103" s="152"/>
-      <c r="P103" s="152"/>
-      <c r="Q103" s="152"/>
-      <c r="R103" s="152"/>
-      <c r="S103" s="152"/>
+      <c r="B103" s="153"/>
+      <c r="C103" s="153"/>
+      <c r="D103" s="150"/>
+      <c r="E103" s="150"/>
+      <c r="F103" s="150"/>
+      <c r="G103" s="150"/>
+      <c r="H103" s="150"/>
+      <c r="I103" s="150"/>
+      <c r="J103" s="150"/>
+      <c r="K103" s="150"/>
+      <c r="L103" s="150"/>
+      <c r="M103" s="150"/>
+      <c r="N103" s="150"/>
+      <c r="O103" s="150"/>
+      <c r="P103" s="150"/>
+      <c r="Q103" s="150"/>
+      <c r="R103" s="150"/>
+      <c r="S103" s="150"/>
     </row>
     <row r="104" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="150" t="s">
+      <c r="B104" s="148" t="s">
         <v>167</v>
       </c>
-      <c r="C104" s="151"/>
-      <c r="D104" s="152" t="s">
+      <c r="C104" s="149"/>
+      <c r="D104" s="150" t="s">
         <v>168</v>
       </c>
-      <c r="E104" s="152"/>
-      <c r="F104" s="152"/>
-      <c r="G104" s="152"/>
-      <c r="H104" s="152"/>
-      <c r="I104" s="152"/>
-      <c r="J104" s="152"/>
-      <c r="K104" s="152"/>
-      <c r="L104" s="152"/>
-      <c r="M104" s="152"/>
-      <c r="N104" s="152"/>
-      <c r="O104" s="152"/>
-      <c r="P104" s="152"/>
-      <c r="Q104" s="152"/>
-      <c r="R104" s="152"/>
-      <c r="S104" s="152"/>
+      <c r="E104" s="150"/>
+      <c r="F104" s="150"/>
+      <c r="G104" s="150"/>
+      <c r="H104" s="150"/>
+      <c r="I104" s="150"/>
+      <c r="J104" s="150"/>
+      <c r="K104" s="150"/>
+      <c r="L104" s="150"/>
+      <c r="M104" s="150"/>
+      <c r="N104" s="150"/>
+      <c r="O104" s="150"/>
+      <c r="P104" s="150"/>
+      <c r="Q104" s="150"/>
+      <c r="R104" s="150"/>
+      <c r="S104" s="150"/>
     </row>
     <row r="105" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="151"/>
-      <c r="C105" s="151"/>
-      <c r="D105" s="152"/>
-      <c r="E105" s="152"/>
-      <c r="F105" s="152"/>
-      <c r="G105" s="152"/>
-      <c r="H105" s="152"/>
-      <c r="I105" s="152"/>
-      <c r="J105" s="152"/>
-      <c r="K105" s="152"/>
-      <c r="L105" s="152"/>
-      <c r="M105" s="152"/>
-      <c r="N105" s="152"/>
-      <c r="O105" s="152"/>
-      <c r="P105" s="152"/>
-      <c r="Q105" s="152"/>
-      <c r="R105" s="152"/>
-      <c r="S105" s="152"/>
+      <c r="B105" s="149"/>
+      <c r="C105" s="149"/>
+      <c r="D105" s="150"/>
+      <c r="E105" s="150"/>
+      <c r="F105" s="150"/>
+      <c r="G105" s="150"/>
+      <c r="H105" s="150"/>
+      <c r="I105" s="150"/>
+      <c r="J105" s="150"/>
+      <c r="K105" s="150"/>
+      <c r="L105" s="150"/>
+      <c r="M105" s="150"/>
+      <c r="N105" s="150"/>
+      <c r="O105" s="150"/>
+      <c r="P105" s="150"/>
+      <c r="Q105" s="150"/>
+      <c r="R105" s="150"/>
+      <c r="S105" s="150"/>
     </row>
     <row r="106" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="151"/>
-      <c r="C106" s="151"/>
-      <c r="D106" s="152"/>
-      <c r="E106" s="152"/>
-      <c r="F106" s="152"/>
-      <c r="G106" s="152"/>
-      <c r="H106" s="152"/>
-      <c r="I106" s="152"/>
-      <c r="J106" s="152"/>
-      <c r="K106" s="152"/>
-      <c r="L106" s="152"/>
-      <c r="M106" s="152"/>
-      <c r="N106" s="152"/>
-      <c r="O106" s="152"/>
-      <c r="P106" s="152"/>
-      <c r="Q106" s="152"/>
-      <c r="R106" s="152"/>
-      <c r="S106" s="152"/>
+      <c r="B106" s="149"/>
+      <c r="C106" s="149"/>
+      <c r="D106" s="150"/>
+      <c r="E106" s="150"/>
+      <c r="F106" s="150"/>
+      <c r="G106" s="150"/>
+      <c r="H106" s="150"/>
+      <c r="I106" s="150"/>
+      <c r="J106" s="150"/>
+      <c r="K106" s="150"/>
+      <c r="L106" s="150"/>
+      <c r="M106" s="150"/>
+      <c r="N106" s="150"/>
+      <c r="O106" s="150"/>
+      <c r="P106" s="150"/>
+      <c r="Q106" s="150"/>
+      <c r="R106" s="150"/>
+      <c r="S106" s="150"/>
     </row>
     <row r="107" spans="2:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="151"/>
-      <c r="C107" s="151"/>
-      <c r="D107" s="152"/>
-      <c r="E107" s="152"/>
-      <c r="F107" s="152"/>
-      <c r="G107" s="152"/>
-      <c r="H107" s="152"/>
-      <c r="I107" s="152"/>
-      <c r="J107" s="152"/>
-      <c r="K107" s="152"/>
-      <c r="L107" s="152"/>
-      <c r="M107" s="152"/>
-      <c r="N107" s="152"/>
-      <c r="O107" s="152"/>
-      <c r="P107" s="152"/>
-      <c r="Q107" s="152"/>
-      <c r="R107" s="152"/>
-      <c r="S107" s="152"/>
+      <c r="B107" s="149"/>
+      <c r="C107" s="149"/>
+      <c r="D107" s="150"/>
+      <c r="E107" s="150"/>
+      <c r="F107" s="150"/>
+      <c r="G107" s="150"/>
+      <c r="H107" s="150"/>
+      <c r="I107" s="150"/>
+      <c r="J107" s="150"/>
+      <c r="K107" s="150"/>
+      <c r="L107" s="150"/>
+      <c r="M107" s="150"/>
+      <c r="N107" s="150"/>
+      <c r="O107" s="150"/>
+      <c r="P107" s="150"/>
+      <c r="Q107" s="150"/>
+      <c r="R107" s="150"/>
+      <c r="S107" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="587">
-    <mergeCell ref="Q80:R80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="O81:P81"/>
-    <mergeCell ref="Q81:R81"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="M80:N80"/>
-    <mergeCell ref="O80:P80"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="R91:S91"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="P92:Q95"/>
+    <mergeCell ref="B2:R3"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="R92:S95"/>
+    <mergeCell ref="F92:G95"/>
+    <mergeCell ref="L92:M95"/>
+    <mergeCell ref="J92:K95"/>
+    <mergeCell ref="H92:I95"/>
+    <mergeCell ref="N92:O95"/>
+    <mergeCell ref="D92:E95"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="B92:C95"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="B104:C107"/>
+    <mergeCell ref="D104:S107"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="B96:C99"/>
+    <mergeCell ref="D96:S99"/>
+    <mergeCell ref="B100:C103"/>
+    <mergeCell ref="D100:S103"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="O61:P61"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="O67:P67"/>
+    <mergeCell ref="Q67:R67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="O68:P68"/>
+    <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="O69:P69"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="O70:P70"/>
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="Q72:R72"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="O74:P74"/>
+    <mergeCell ref="Q74:R74"/>
+    <mergeCell ref="Q78:R78"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="O75:P75"/>
+    <mergeCell ref="Q75:R75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="M76:N76"/>
+    <mergeCell ref="O76:P76"/>
+    <mergeCell ref="Q76:R76"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="E79:F79"/>
     <mergeCell ref="G79:H79"/>
@@ -8802,553 +9331,22 @@
     <mergeCell ref="K78:L78"/>
     <mergeCell ref="M78:N78"/>
     <mergeCell ref="O78:P78"/>
-    <mergeCell ref="Q78:R78"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="O75:P75"/>
-    <mergeCell ref="Q75:R75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="M76:N76"/>
-    <mergeCell ref="O76:P76"/>
-    <mergeCell ref="Q76:R76"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="Q72:R72"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="O74:P74"/>
-    <mergeCell ref="Q74:R74"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="M70:N70"/>
-    <mergeCell ref="O70:P70"/>
-    <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="O71:P71"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="O68:P68"/>
-    <mergeCell ref="Q68:R68"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="O69:P69"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="O67:P67"/>
-    <mergeCell ref="Q67:R67"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="O63:P63"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="O61:P61"/>
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="B104:C107"/>
-    <mergeCell ref="D104:S107"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="B96:C99"/>
-    <mergeCell ref="D96:S99"/>
-    <mergeCell ref="B100:C103"/>
-    <mergeCell ref="D100:S103"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="B92:C95"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="P92:Q95"/>
-    <mergeCell ref="B2:R3"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="R92:S95"/>
-    <mergeCell ref="F92:G95"/>
-    <mergeCell ref="L92:M95"/>
-    <mergeCell ref="J92:K95"/>
-    <mergeCell ref="H92:I95"/>
-    <mergeCell ref="N92:O95"/>
-    <mergeCell ref="D92:E95"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="L91:M91"/>
-    <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="R91:S91"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="Q80:R80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="O81:P81"/>
+    <mergeCell ref="Q81:R81"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="O80:P80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9373,44 +9371,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="89" t="s">
         <v>240</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9468,47 +9466,47 @@
       <c r="B6" s="53" t="s">
         <v>241</v>
       </c>
-      <c r="C6" s="164" t="s">
+      <c r="C6" s="171" t="s">
         <v>257</v>
       </c>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160" t="s">
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167" t="s">
         <v>258</v>
       </c>
-      <c r="H6" s="160"/>
-      <c r="I6" s="160"/>
-      <c r="J6" s="160"/>
-      <c r="K6" s="160" t="s">
+      <c r="H6" s="167"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="167" t="s">
         <v>259</v>
       </c>
-      <c r="L6" s="160"/>
-      <c r="M6" s="160"/>
-      <c r="N6" s="160"/>
-      <c r="O6" s="160" t="s">
+      <c r="L6" s="167"/>
+      <c r="M6" s="167"/>
+      <c r="N6" s="167"/>
+      <c r="O6" s="167" t="s">
         <v>260</v>
       </c>
-      <c r="P6" s="160"/>
-      <c r="Q6" s="160"/>
-      <c r="R6" s="161"/>
+      <c r="P6" s="167"/>
+      <c r="Q6" s="167"/>
+      <c r="R6" s="168"/>
     </row>
     <row r="7" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="C7" s="162" t="s">
+      <c r="C7" s="169" t="s">
         <v>261</v>
       </c>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="163" t="s">
+      <c r="D7" s="170"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="170" t="s">
         <v>262</v>
       </c>
-      <c r="H7" s="163"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="163"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="170"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
